--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -132,6 +132,9 @@
     <t>http://xxgk.jl.gov.cn/</t>
   </si>
   <si>
+    <t>李易</t>
+  </si>
+  <si>
     <t>http://www.jl.gov.cn/szfzt/zcfg/</t>
   </si>
   <si>
@@ -412,9 +415,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>李易</t>
   </si>
   <si>
     <t>产品库</t>
@@ -1773,9 +1773,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -1842,17 +1842,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1862,7 +1862,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1870,14 +1906,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1891,8 +1919,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1907,30 +1936,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1945,45 +1967,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1998,7 +1991,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2019,7 +2019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,7 +2037,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,31 +2121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,67 +2139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2157,25 +2151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,13 +2169,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2241,41 +2241,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2297,10 +2273,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2316,16 +2290,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2338,163 +2327,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2561,10 +2561,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3640,7 +3643,7 @@
   <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -3935,8 +3938,8 @@
       <c r="G18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>13</v>
+      <c r="H18" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3944,7 +3947,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>12</v>
@@ -3958,7 +3961,7 @@
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>12</v>
@@ -3971,10 +3974,10 @@
       <c r="A21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>12</v>
@@ -3988,7 +3991,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="21"/>
       <c r="E22" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>12</v>
@@ -4001,16 +4004,16 @@
       <c r="A23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>13</v>
+      <c r="H23" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4018,7 +4021,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>12</v>
@@ -4031,10 +4034,10 @@
       <c r="A25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>12</v>
@@ -4047,11 +4050,11 @@
       <c r="A26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="23" t="s">
+      <c r="E26" s="23" t="s">
         <v>47</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>12</v>
@@ -4064,13 +4067,13 @@
       <c r="A27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="E27" s="23" t="s">
         <v>50</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>12</v>
@@ -4083,11 +4086,11 @@
       <c r="A28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>50</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>12</v>
@@ -4100,10 +4103,10 @@
       <c r="A29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>12</v>
@@ -4116,8 +4119,8 @@
       <c r="A30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="24" t="s">
-        <v>54</v>
+      <c r="E30" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>12</v>
@@ -4130,8 +4133,8 @@
       <c r="A31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="24" t="s">
-        <v>54</v>
+      <c r="E31" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>12</v>
@@ -4144,10 +4147,10 @@
       <c r="A32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>12</v>
@@ -4161,7 +4164,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>12</v>
@@ -4174,10 +4177,10 @@
       <c r="A34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="25" t="s">
         <v>59</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>12</v>
@@ -4190,8 +4193,8 @@
       <c r="A35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="25" t="s">
-        <v>60</v>
+      <c r="E35" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>12</v>
@@ -4204,8 +4207,8 @@
       <c r="A36" s="9"/>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="25" t="s">
-        <v>61</v>
+      <c r="E36" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>12</v>
@@ -4218,40 +4221,40 @@
       <c r="A37" s="9"/>
       <c r="C37" s="10"/>
       <c r="D37" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="24" t="s">
         <v>63</v>
       </c>
+      <c r="E37" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="G37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>13</v>
+      <c r="H37" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:8">
       <c r="A38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="24" t="s">
-        <v>64</v>
+      <c r="E38" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>13</v>
+      <c r="H38" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="25" t="s">
         <v>66</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>12</v>
@@ -4264,8 +4267,8 @@
       <c r="A40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="25" t="s">
-        <v>67</v>
+      <c r="E40" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>12</v>
@@ -4278,601 +4281,601 @@
       <c r="A41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="25" t="s">
-        <v>68</v>
+      <c r="E41" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="26" t="s">
-        <v>72</v>
+      <c r="E43" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="26" t="s">
         <v>74</v>
       </c>
+      <c r="E44" s="27" t="s">
+        <v>75</v>
+      </c>
       <c r="G44" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="26" t="s">
-        <v>75</v>
+      <c r="E45" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:8">
       <c r="A46" s="9"/>
       <c r="C46" s="10"/>
       <c r="D46" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="27" t="s">
         <v>77</v>
       </c>
+      <c r="E46" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="G46" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="26" t="s">
-        <v>78</v>
+      <c r="E47" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="26" t="s">
-        <v>79</v>
+      <c r="E48" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="9"/>
       <c r="C49" s="10"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="26" t="s">
-        <v>80</v>
+      <c r="E49" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="26" t="s">
         <v>82</v>
       </c>
+      <c r="E50" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="G50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="26" t="s">
-        <v>83</v>
+      <c r="E51" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="26" t="s">
         <v>85</v>
       </c>
+      <c r="E52" s="27" t="s">
+        <v>86</v>
+      </c>
       <c r="G52" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="9"/>
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="26" t="s">
-        <v>86</v>
+      <c r="E53" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="9"/>
       <c r="C54" s="10"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="26" t="s">
-        <v>87</v>
+      <c r="E54" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="26" t="s">
         <v>89</v>
       </c>
+      <c r="E55" s="27" t="s">
+        <v>90</v>
+      </c>
       <c r="G55" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="26" t="s">
-        <v>90</v>
+      <c r="E56" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="9"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="26" t="s">
         <v>92</v>
       </c>
+      <c r="E57" s="27" t="s">
+        <v>93</v>
+      </c>
       <c r="G57" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="9"/>
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="26" t="s">
-        <v>93</v>
+      <c r="E58" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="9"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="26" t="s">
         <v>95</v>
       </c>
+      <c r="E59" s="27" t="s">
+        <v>96</v>
+      </c>
       <c r="G59" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="26" t="s">
-        <v>96</v>
+      <c r="E60" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="9"/>
       <c r="C61" s="10"/>
       <c r="D61" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="26" t="s">
         <v>98</v>
       </c>
+      <c r="E61" s="27" t="s">
+        <v>99</v>
+      </c>
       <c r="G61" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="9"/>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="26" t="s">
-        <v>99</v>
+      <c r="E62" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="26" t="s">
-        <v>100</v>
+      <c r="E63" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="26" t="s">
         <v>102</v>
       </c>
+      <c r="E64" s="27" t="s">
+        <v>103</v>
+      </c>
       <c r="G64" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="26" t="s">
-        <v>103</v>
+      <c r="E65" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" ht="28.5" spans="1:8">
       <c r="A66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="26" t="s">
         <v>105</v>
       </c>
+      <c r="E66" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="G66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" ht="28.5" spans="1:8">
       <c r="A67" s="9"/>
       <c r="C67" s="10"/>
       <c r="D67" s="11"/>
-      <c r="E67" s="26" t="s">
-        <v>106</v>
+      <c r="E67" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" ht="42.75" spans="1:8">
       <c r="A68" s="9"/>
       <c r="C68" s="10"/>
       <c r="D68" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="26" t="s">
         <v>108</v>
       </c>
+      <c r="E68" s="27" t="s">
+        <v>109</v>
+      </c>
       <c r="G68" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="9"/>
       <c r="C69" s="10"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="28" t="s">
-        <v>109</v>
+      <c r="E69" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="9"/>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="26" t="s">
-        <v>110</v>
+      <c r="E70" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" ht="28.5" spans="1:8">
       <c r="A71" s="9"/>
       <c r="C71" s="10"/>
       <c r="D71" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="26" t="s">
         <v>112</v>
       </c>
+      <c r="E71" s="27" t="s">
+        <v>113</v>
+      </c>
       <c r="G71" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" ht="28.5" spans="1:8">
       <c r="A72" s="9"/>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="26" t="s">
-        <v>113</v>
+      <c r="E72" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" ht="28.5" spans="1:8">
       <c r="A73" s="9"/>
       <c r="C73" s="10"/>
       <c r="D73" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="26" t="s">
         <v>115</v>
       </c>
+      <c r="E73" s="27" t="s">
+        <v>116</v>
+      </c>
       <c r="G73" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" ht="28.5" spans="1:8">
       <c r="A74" s="9"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="26" t="s">
-        <v>116</v>
+      <c r="E74" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:8">
       <c r="A75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="26" t="s">
-        <v>117</v>
+      <c r="E75" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="9"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E76" s="28" t="s">
         <v>119</v>
       </c>
+      <c r="E76" s="29" t="s">
+        <v>120</v>
+      </c>
       <c r="G76" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="28" t="s">
-        <v>120</v>
+      <c r="E77" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" ht="57" spans="1:8">
       <c r="A78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="28" t="s">
         <v>122</v>
       </c>
+      <c r="E78" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="G78" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="9"/>
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
-      <c r="E79" s="28" t="s">
-        <v>123</v>
+      <c r="E79" s="29" t="s">
+        <v>124</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" ht="81" spans="1:8">
       <c r="A80" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="C80" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="D80" s="31" t="s">
         <v>128</v>
       </c>
+      <c r="E80" s="29" t="s">
+        <v>129</v>
+      </c>
       <c r="G80" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="28.5" spans="1:7">
@@ -4882,17 +4885,17 @@
       <c r="B81" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D81" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="29" t="s">
         <v>135</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" ht="28.5" spans="1:7">
@@ -4900,93 +4903,93 @@
       <c r="B82" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="31" t="s">
+      <c r="C82" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D82" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E82" s="28" t="s">
+      <c r="E82" s="29" t="s">
         <v>135</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" s="3" customFormat="1" ht="54" spans="1:7">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D83" s="36" t="s">
+      <c r="D83" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="E83" s="37" t="s">
+      <c r="E83" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="F83" s="34"/>
+      <c r="F83" s="35"/>
       <c r="G83" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" s="3" customFormat="1" ht="54" spans="1:7">
-      <c r="A84" s="33"/>
-      <c r="B84" s="34" t="s">
+      <c r="A84" s="34"/>
+      <c r="B84" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D84" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="E84" s="28" t="s">
+      <c r="E84" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="F84" s="34"/>
+      <c r="F84" s="35"/>
       <c r="G84" s="11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1" ht="99.75" spans="1:7">
-      <c r="A85" s="33"/>
-      <c r="B85" s="34" t="s">
+      <c r="A85" s="34"/>
+      <c r="B85" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D85" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="E85" s="28" t="s">
+      <c r="E85" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="34"/>
+      <c r="F85" s="35"/>
       <c r="G85" s="11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="86" s="3" customFormat="1" ht="54" spans="1:8">
-      <c r="A86" s="33"/>
-      <c r="B86" s="34" t="s">
+      <c r="A86" s="34"/>
+      <c r="B86" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D86" s="36" t="s">
+      <c r="D86" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="F86" s="34"/>
+      <c r="F86" s="35"/>
       <c r="G86" s="11" t="s">
         <v>143</v>
       </c>
@@ -4999,7 +5002,7 @@
       <c r="B87" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="38" t="s">
+      <c r="C87" s="39" t="s">
         <v>150</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -5009,10 +5012,10 @@
         <v>151</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5020,11 +5023,11 @@
       <c r="B88" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="38"/>
+      <c r="C88" s="39"/>
       <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="29" t="s">
         <v>153</v>
       </c>
       <c r="G88" s="11" t="s">
@@ -5034,7 +5037,7 @@
     <row r="89" spans="1:7">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
-      <c r="C89" s="38"/>
+      <c r="C89" s="39"/>
       <c r="D89" s="6" t="s">
         <v>16</v>
       </c>
@@ -5051,11 +5054,11 @@
     <row r="90" spans="1:7">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
-      <c r="C90" s="38"/>
+      <c r="C90" s="39"/>
       <c r="D90" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="28" t="s">
+      <c r="E90" s="29" t="s">
         <v>156</v>
       </c>
       <c r="F90" s="4" t="s">
@@ -5068,11 +5071,11 @@
     <row r="91" ht="28.5" spans="1:7">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
-      <c r="C91" s="38"/>
+      <c r="C91" s="39"/>
       <c r="D91" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="29" t="s">
         <v>158</v>
       </c>
       <c r="F91" s="4" t="s">
@@ -5085,11 +5088,11 @@
     <row r="92" ht="28.5" spans="1:7">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
-      <c r="C92" s="38"/>
+      <c r="C92" s="39"/>
       <c r="D92" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="40" t="s">
         <v>160</v>
       </c>
       <c r="G92" s="11" t="s">
@@ -5099,11 +5102,11 @@
     <row r="93" spans="1:7">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="38"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E93" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="29" t="s">
         <v>161</v>
       </c>
       <c r="F93" s="4" t="s">
@@ -5116,11 +5119,11 @@
     <row r="94" spans="1:7">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
-      <c r="C94" s="38"/>
+      <c r="C94" s="39"/>
       <c r="D94" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="29" t="s">
         <v>162</v>
       </c>
       <c r="F94" s="4" t="s">
@@ -5133,11 +5136,11 @@
     <row r="95" spans="1:7">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
-      <c r="C95" s="38"/>
+      <c r="C95" s="39"/>
       <c r="D95" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E95" s="28" t="s">
+      <c r="E95" s="29" t="s">
         <v>163</v>
       </c>
       <c r="F95" s="4" t="s">
@@ -5150,11 +5153,11 @@
     <row r="96" ht="28.5" spans="1:7">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
-      <c r="C96" s="38"/>
+      <c r="C96" s="39"/>
       <c r="D96" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E96" s="40" t="s">
+      <c r="E96" s="41" t="s">
         <v>164</v>
       </c>
       <c r="G96" s="11" t="s">
@@ -5164,11 +5167,11 @@
     <row r="97" ht="28.5" spans="1:7">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
-      <c r="C97" s="38"/>
+      <c r="C97" s="39"/>
       <c r="D97" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E97" s="40" t="s">
+      <c r="E97" s="41" t="s">
         <v>166</v>
       </c>
       <c r="G97" s="11" t="s">
@@ -5178,11 +5181,11 @@
     <row r="98" spans="1:7">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
-      <c r="C98" s="38"/>
+      <c r="C98" s="39"/>
       <c r="D98" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E98" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E98" s="29" t="s">
         <v>167</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -5195,11 +5198,11 @@
     <row r="99" spans="1:7">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
-      <c r="C99" s="38"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E99" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="29" t="s">
         <v>169</v>
       </c>
       <c r="F99" s="4" t="s">
@@ -5212,11 +5215,11 @@
     <row r="100" ht="28.5" spans="1:7">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
-      <c r="C100" s="38"/>
+      <c r="C100" s="39"/>
       <c r="D100" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E100" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="41" t="s">
         <v>171</v>
       </c>
       <c r="F100" s="4" t="s">
@@ -5229,11 +5232,11 @@
     <row r="101" spans="1:7">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
-      <c r="C101" s="38"/>
+      <c r="C101" s="39"/>
       <c r="D101" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E101" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="29" t="s">
         <v>172</v>
       </c>
       <c r="F101" s="4" t="s">
@@ -5246,11 +5249,11 @@
     <row r="102" spans="1:7">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
-      <c r="C102" s="38"/>
+      <c r="C102" s="39"/>
       <c r="D102" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E102" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" s="29" t="s">
         <v>173</v>
       </c>
       <c r="F102" s="4" t="s">
@@ -5263,11 +5266,11 @@
     <row r="103" spans="1:7">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
-      <c r="C103" s="38"/>
+      <c r="C103" s="39"/>
       <c r="D103" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E103" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103" s="29" t="s">
         <v>174</v>
       </c>
       <c r="G103" s="11" t="s">
@@ -5277,11 +5280,11 @@
     <row r="104" ht="28.5" spans="1:7">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
-      <c r="C104" s="38"/>
+      <c r="C104" s="39"/>
       <c r="D104" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="E104" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E104" s="41" t="s">
         <v>175</v>
       </c>
       <c r="F104" s="4" t="s">
@@ -5294,9 +5297,9 @@
     <row r="105" ht="28.5" spans="1:7">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
-      <c r="C105" s="38"/>
+      <c r="C105" s="39"/>
       <c r="D105" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>176</v>
@@ -5311,11 +5314,11 @@
     <row r="106" spans="1:7">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
-      <c r="C106" s="38"/>
+      <c r="C106" s="39"/>
       <c r="D106" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="29" t="s">
         <v>177</v>
       </c>
       <c r="F106" s="4" t="s">
@@ -5328,11 +5331,11 @@
     <row r="107" ht="28.5" spans="1:7">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
-      <c r="C107" s="38"/>
+      <c r="C107" s="39"/>
       <c r="D107" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E107" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E107" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F107" s="4" t="s">
@@ -5345,11 +5348,11 @@
     <row r="108" spans="1:7">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
-      <c r="C108" s="38"/>
+      <c r="C108" s="39"/>
       <c r="D108" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E108" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="29" t="s">
         <v>180</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -5362,11 +5365,11 @@
     <row r="109" spans="1:7">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
-      <c r="C109" s="38"/>
+      <c r="C109" s="39"/>
       <c r="D109" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E109" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" s="29" t="s">
         <v>181</v>
       </c>
       <c r="F109" s="4" t="s">
@@ -5379,11 +5382,11 @@
     <row r="110" spans="1:7">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
-      <c r="C110" s="38"/>
+      <c r="C110" s="39"/>
       <c r="D110" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E110" s="28" t="s">
+      <c r="E110" s="29" t="s">
         <v>183</v>
       </c>
       <c r="G110" s="11" t="s">
@@ -5393,11 +5396,11 @@
     <row r="111" spans="1:7">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
-      <c r="C111" s="38"/>
+      <c r="C111" s="39"/>
       <c r="D111" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E111" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" s="29" t="s">
         <v>184</v>
       </c>
       <c r="G111" s="11" t="s">
@@ -5407,11 +5410,11 @@
     <row r="112" ht="28.5" spans="1:7">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
-      <c r="C112" s="38"/>
+      <c r="C112" s="39"/>
       <c r="D112" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E112" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E112" s="41" t="s">
         <v>185</v>
       </c>
       <c r="F112" s="4" t="s">
@@ -5424,9 +5427,9 @@
     <row r="113" spans="1:7">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
-      <c r="C113" s="38"/>
+      <c r="C113" s="39"/>
       <c r="D113" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>187</v>
@@ -5441,11 +5444,11 @@
     <row r="114" spans="1:7">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
-      <c r="C114" s="38"/>
+      <c r="C114" s="39"/>
       <c r="D114" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E114" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114" s="29" t="s">
         <v>188</v>
       </c>
       <c r="F114" s="4" t="s">
@@ -5458,11 +5461,11 @@
     <row r="115" ht="28.5" spans="1:7">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
-      <c r="C115" s="38"/>
+      <c r="C115" s="39"/>
       <c r="D115" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E115" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" s="41" t="s">
         <v>189</v>
       </c>
       <c r="F115" s="4" t="s">
@@ -5475,11 +5478,11 @@
     <row r="116" ht="28.5" spans="1:7">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
-      <c r="C116" s="38"/>
+      <c r="C116" s="39"/>
       <c r="D116" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E116" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="29" t="s">
         <v>190</v>
       </c>
       <c r="F116" s="4" t="s">
@@ -5492,11 +5495,11 @@
     <row r="117" ht="28.5" spans="1:7">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
-      <c r="C117" s="38"/>
+      <c r="C117" s="39"/>
       <c r="D117" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E117" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E117" s="29" t="s">
         <v>191</v>
       </c>
       <c r="F117" s="4" t="s">
@@ -5509,11 +5512,11 @@
     <row r="118" spans="1:7">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
-      <c r="C118" s="38"/>
+      <c r="C118" s="39"/>
       <c r="D118" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E118" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" s="41" t="s">
         <v>192</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -5525,154 +5528,154 @@
     </row>
     <row r="119" s="3" customFormat="1" spans="1:11">
       <c r="A119" s="9"/>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C119" s="38"/>
-      <c r="D119" s="41" t="s">
+      <c r="C119" s="39"/>
+      <c r="D119" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="42" t="s">
+      <c r="E119" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="F119" s="34" t="s">
+      <c r="F119" s="35" t="s">
         <v>195</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
     </row>
     <row r="120" s="3" customFormat="1" ht="54" spans="1:11">
       <c r="A120" s="9"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E120" s="28" t="s">
+      <c r="B120" s="34"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F120" s="42" t="s">
+      <c r="F120" s="43" t="s">
         <v>197</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I120" s="43"/>
-      <c r="J120" s="43"/>
-      <c r="K120" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="44"/>
     </row>
     <row r="121" s="3" customFormat="1" spans="1:11">
       <c r="A121" s="9"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E121" s="42" t="s">
+      <c r="B121" s="34"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E121" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="F121" s="42" t="s">
+      <c r="F121" s="43" t="s">
         <v>199</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I121" s="43"/>
-      <c r="J121" s="43"/>
-      <c r="K121" s="43"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="44"/>
+      <c r="K121" s="44"/>
     </row>
     <row r="122" s="3" customFormat="1" spans="1:10">
       <c r="A122" s="9"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E122" s="42" t="s">
+      <c r="B122" s="34"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E122" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="F122" s="34" t="s">
+      <c r="F122" s="35" t="s">
         <v>201</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I122" s="43"/>
-      <c r="J122" s="43"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="44"/>
     </row>
     <row r="123" s="3" customFormat="1" ht="40.5" spans="1:10">
       <c r="A123" s="9"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="E123" s="28" t="s">
+      <c r="B123" s="34"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F123" s="42" t="s">
+      <c r="F123" s="43" t="s">
         <v>203</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I123" s="43"/>
-      <c r="J123" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="I123" s="44"/>
+      <c r="J123" s="44"/>
     </row>
     <row r="124" s="3" customFormat="1" ht="42.75" spans="1:10">
       <c r="A124" s="9"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E124" s="28" t="s">
+      <c r="B124" s="34"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="F124" s="42" t="s">
+      <c r="F124" s="43" t="s">
         <v>205</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="I124" s="44"/>
+      <c r="J124" s="44"/>
     </row>
     <row r="125" s="3" customFormat="1" ht="28.5" spans="1:10">
       <c r="A125" s="9"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E125" s="28" t="s">
+      <c r="B125" s="34"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="F125" s="42" t="s">
+      <c r="F125" s="43" t="s">
         <v>207</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I125" s="43"/>
-      <c r="J125" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="I125" s="44"/>
+      <c r="J125" s="44"/>
     </row>
     <row r="126" s="3" customFormat="1" ht="42.75" spans="1:7">
       <c r="A126" s="9"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E126" s="28" t="s">
+      <c r="B126" s="34"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E126" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="F126" s="42" t="s">
+      <c r="F126" s="43" t="s">
         <v>170</v>
       </c>
       <c r="G126" s="11" t="s">
@@ -5681,15 +5684,15 @@
     </row>
     <row r="127" s="3" customFormat="1" ht="42.75" spans="1:7">
       <c r="A127" s="9"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="E127" s="28" t="s">
+      <c r="B127" s="34"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E127" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F127" s="42" t="s">
+      <c r="F127" s="43" t="s">
         <v>170</v>
       </c>
       <c r="G127" s="11" t="s">
@@ -5698,15 +5701,15 @@
     </row>
     <row r="128" s="3" customFormat="1" spans="1:7">
       <c r="A128" s="9"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="E128" s="28" t="s">
+      <c r="B128" s="34"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="F128" s="42" t="s">
+      <c r="F128" s="43" t="s">
         <v>170</v>
       </c>
       <c r="G128" s="11" t="s">
@@ -5715,53 +5718,53 @@
     </row>
     <row r="129" s="3" customFormat="1" ht="42.75" spans="1:10">
       <c r="A129" s="9"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E129" s="28" t="s">
+      <c r="B129" s="34"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="F129" s="42" t="s">
+      <c r="F129" s="43" t="s">
         <v>170</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="45"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
+      <c r="H129" s="46"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="44"/>
     </row>
     <row r="130" s="3" customFormat="1" ht="42.75" spans="1:10">
       <c r="A130" s="9"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E130" s="28" t="s">
+      <c r="B130" s="34"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E130" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="F130" s="42" t="s">
+      <c r="F130" s="43" t="s">
         <v>213</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J130" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="J130" s="44"/>
     </row>
     <row r="131" s="3" customFormat="1" ht="42.75" spans="1:7">
       <c r="A131" s="9"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E131" s="42" t="s">
+      <c r="B131" s="34"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E131" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F131" s="42" t="s">
+      <c r="F131" s="43" t="s">
         <v>215</v>
       </c>
       <c r="G131" s="11" t="s">
@@ -5770,30 +5773,30 @@
     </row>
     <row r="132" s="3" customFormat="1" spans="1:7">
       <c r="A132" s="9"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E132" s="42" t="s">
+      <c r="B132" s="34"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="F132" s="42"/>
+      <c r="F132" s="43"/>
       <c r="G132" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="133" s="3" customFormat="1" ht="28.5" spans="1:7">
       <c r="A133" s="9"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="E133" s="28" t="s">
+      <c r="B133" s="34"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="F133" s="42" t="s">
+      <c r="F133" s="43" t="s">
         <v>170</v>
       </c>
       <c r="G133" s="11" t="s">
@@ -5802,196 +5805,196 @@
     </row>
     <row r="134" s="3" customFormat="1" ht="28.5" spans="1:9">
       <c r="A134" s="9"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E134" s="28" t="s">
+      <c r="B134" s="34"/>
+      <c r="C134" s="39"/>
+      <c r="D134" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E134" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="F134" s="42" t="s">
+      <c r="F134" s="43" t="s">
         <v>170</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="45"/>
-      <c r="I134" s="43"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="44"/>
     </row>
     <row r="135" s="3" customFormat="1" ht="28.5" spans="1:9">
       <c r="A135" s="9"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E135" s="28" t="s">
+      <c r="B135" s="34"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E135" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="F135" s="46" t="s">
+      <c r="F135" s="47" t="s">
         <v>221</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="45"/>
-      <c r="I135" s="43"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="44"/>
     </row>
     <row r="136" s="3" customFormat="1" ht="42.75" spans="1:9">
       <c r="A136" s="9"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E136" s="28" t="s">
+      <c r="B136" s="34"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E136" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="F136" s="46"/>
+      <c r="F136" s="47"/>
       <c r="G136" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H136" s="45"/>
-      <c r="I136" s="43"/>
+      <c r="H136" s="46"/>
+      <c r="I136" s="44"/>
     </row>
     <row r="137" s="3" customFormat="1" ht="54" spans="1:7">
       <c r="A137" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="C137" s="47" t="s">
+      <c r="C137" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="D137" s="48" t="s">
+      <c r="D137" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E137" s="28" t="s">
+      <c r="E137" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
     </row>
     <row r="138" s="3" customFormat="1" ht="81.75" spans="1:7">
       <c r="A138" s="9"/>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="C138" s="47" t="s">
+      <c r="C138" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D138" s="48" t="s">
+      <c r="D138" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E138" s="28" t="s">
+      <c r="E138" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F138" s="47"/>
-      <c r="G138" s="47"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
     </row>
     <row r="139" s="3" customFormat="1" ht="81.75" spans="1:7">
       <c r="A139" s="9"/>
-      <c r="B139" s="34" t="s">
+      <c r="B139" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="D139" s="48" t="s">
+      <c r="D139" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E139" s="28" t="s">
+      <c r="E139" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F139" s="47"/>
-      <c r="G139" s="47"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
     </row>
     <row r="140" s="3" customFormat="1" ht="40.5" spans="1:7">
       <c r="A140" s="9"/>
-      <c r="B140" s="34" t="s">
+      <c r="B140" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="C140" s="47" t="s">
+      <c r="C140" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="D140" s="48" t="s">
+      <c r="D140" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E140" s="28" t="s">
+      <c r="E140" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F140" s="47"/>
-      <c r="G140" s="47"/>
+      <c r="F140" s="48"/>
+      <c r="G140" s="48"/>
     </row>
     <row r="141" s="3" customFormat="1" ht="67.5" spans="1:7">
       <c r="A141" s="9"/>
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C141" s="47" t="s">
+      <c r="C141" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="D141" s="48" t="s">
+      <c r="D141" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E141" s="28" t="s">
+      <c r="E141" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="F141" s="47"/>
-      <c r="G141" s="47"/>
+      <c r="F141" s="48"/>
+      <c r="G141" s="48"/>
     </row>
     <row r="142" s="3" customFormat="1" ht="94.5" spans="1:7">
       <c r="A142" s="9"/>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="C142" s="47" t="s">
+      <c r="C142" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="D142" s="48" t="s">
+      <c r="D142" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E142" s="28" t="s">
+      <c r="E142" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="F142" s="47"/>
-      <c r="G142" s="47"/>
+      <c r="F142" s="48"/>
+      <c r="G142" s="48"/>
     </row>
     <row r="143" s="3" customFormat="1" ht="27" spans="1:7">
       <c r="A143" s="9"/>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="C143" s="47" t="s">
+      <c r="C143" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="D143" s="48" t="s">
+      <c r="D143" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E143" s="28" t="s">
+      <c r="E143" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
     </row>
     <row r="144" ht="40.5" spans="1:7">
       <c r="A144" s="9"/>
       <c r="B144" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C144" s="49" t="s">
+      <c r="C144" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="D144" s="48" t="s">
+      <c r="D144" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="E144" s="50" t="s">
+      <c r="E144" s="51" t="s">
         <v>246</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145" ht="56.25" spans="1:7">
@@ -6001,13 +6004,13 @@
       <c r="B145" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C145" s="51" t="s">
+      <c r="C145" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="D145" s="52" t="s">
+      <c r="D145" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="E145" s="28" t="s">
+      <c r="E145" s="29" t="s">
         <v>251</v>
       </c>
       <c r="F145" s="5" t="s">
@@ -6019,11 +6022,11 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="9"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="52" t="s">
+      <c r="C146" s="52"/>
+      <c r="D146" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="E146" s="28" t="s">
+      <c r="E146" s="29" t="s">
         <v>254</v>
       </c>
       <c r="F146" s="4" t="s">
@@ -6035,11 +6038,11 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="9"/>
-      <c r="C147" s="51"/>
-      <c r="D147" s="52" t="s">
+      <c r="C147" s="52"/>
+      <c r="D147" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="E147" s="28" t="s">
+      <c r="E147" s="29" t="s">
         <v>257</v>
       </c>
       <c r="G147" s="11" t="s">
@@ -6048,11 +6051,11 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="9"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="52" t="s">
+      <c r="C148" s="52"/>
+      <c r="D148" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="E148" s="28" t="s">
+      <c r="E148" s="29" t="s">
         <v>259</v>
       </c>
       <c r="G148" s="11" t="s">
@@ -6061,11 +6064,11 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="9"/>
-      <c r="C149" s="51"/>
-      <c r="D149" s="52" t="s">
+      <c r="C149" s="52"/>
+      <c r="D149" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="E149" s="28" t="s">
+      <c r="E149" s="29" t="s">
         <v>261</v>
       </c>
       <c r="G149" s="11" t="s">
@@ -6074,11 +6077,11 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="9"/>
-      <c r="C150" s="51"/>
-      <c r="D150" s="52" t="s">
+      <c r="C150" s="52"/>
+      <c r="D150" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="E150" s="28" t="s">
+      <c r="E150" s="29" t="s">
         <v>263</v>
       </c>
       <c r="G150" s="11" t="s">
@@ -6087,8 +6090,8 @@
     </row>
     <row r="151" ht="28.5" spans="1:7">
       <c r="A151" s="9"/>
-      <c r="C151" s="51"/>
-      <c r="D151" s="52" t="s">
+      <c r="C151" s="52"/>
+      <c r="D151" s="53" t="s">
         <v>264</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -6100,11 +6103,11 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="9"/>
-      <c r="C152" s="51"/>
-      <c r="D152" s="52" t="s">
+      <c r="C152" s="52"/>
+      <c r="D152" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="E152" s="28" t="s">
+      <c r="E152" s="29" t="s">
         <v>267</v>
       </c>
       <c r="G152" s="11" t="s">
@@ -6113,11 +6116,11 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="9"/>
-      <c r="C153" s="51"/>
-      <c r="D153" s="52" t="s">
+      <c r="C153" s="52"/>
+      <c r="D153" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="E153" s="28" t="s">
+      <c r="E153" s="29" t="s">
         <v>269</v>
       </c>
       <c r="G153" s="11" t="s">
@@ -6126,37 +6129,37 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="9"/>
-      <c r="C154" s="51"/>
-      <c r="D154" s="52" t="s">
+      <c r="C154" s="52"/>
+      <c r="D154" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="E154" s="28" t="s">
+      <c r="E154" s="29" t="s">
         <v>271</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="9"/>
-      <c r="C155" s="51"/>
-      <c r="D155" s="52" t="s">
+      <c r="C155" s="52"/>
+      <c r="D155" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="E155" s="28" t="s">
+      <c r="E155" s="29" t="s">
         <v>273</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="9"/>
-      <c r="C156" s="51"/>
-      <c r="D156" s="52" t="s">
+      <c r="C156" s="52"/>
+      <c r="D156" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="E156" s="28" t="s">
+      <c r="E156" s="29" t="s">
         <v>275</v>
       </c>
       <c r="G156" s="11" t="s">
@@ -6165,11 +6168,11 @@
     </row>
     <row r="157" ht="28.5" spans="1:7">
       <c r="A157" s="9"/>
-      <c r="C157" s="51"/>
-      <c r="D157" s="52" t="s">
+      <c r="C157" s="52"/>
+      <c r="D157" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="E157" s="28" t="s">
+      <c r="E157" s="29" t="s">
         <v>277</v>
       </c>
       <c r="G157" s="11" t="s">
@@ -6183,10 +6186,10 @@
       <c r="B158" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C158" s="51" t="s">
+      <c r="C158" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="D158" s="52" t="s">
+      <c r="D158" s="53" t="s">
         <v>253</v>
       </c>
       <c r="E158" s="7" t="s">
@@ -6198,11 +6201,11 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="9"/>
-      <c r="C159" s="51"/>
-      <c r="D159" s="52" t="s">
+      <c r="C159" s="52"/>
+      <c r="D159" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="E159" s="28" t="s">
+      <c r="E159" s="29" t="s">
         <v>281</v>
       </c>
       <c r="G159" s="11" t="s">
@@ -6211,8 +6214,8 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="9"/>
-      <c r="C160" s="51"/>
-      <c r="D160" s="52" t="s">
+      <c r="C160" s="52"/>
+      <c r="D160" s="53" t="s">
         <v>266</v>
       </c>
       <c r="E160" s="7" t="s">
@@ -6224,11 +6227,11 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="9"/>
-      <c r="C161" s="51"/>
-      <c r="D161" s="52" t="s">
+      <c r="C161" s="52"/>
+      <c r="D161" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="E161" s="28" t="s">
+      <c r="E161" s="29" t="s">
         <v>283</v>
       </c>
       <c r="G161" s="11" t="s">
@@ -6237,11 +6240,11 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="9"/>
-      <c r="C162" s="51"/>
-      <c r="D162" s="52" t="s">
+      <c r="C162" s="52"/>
+      <c r="D162" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="E162" s="28" t="s">
+      <c r="E162" s="29" t="s">
         <v>284</v>
       </c>
       <c r="G162" s="11" t="s">
@@ -6250,28 +6253,28 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="9"/>
-      <c r="C163" s="51"/>
-      <c r="D163" s="52" t="s">
+      <c r="C163" s="52"/>
+      <c r="D163" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="E163" s="28" t="s">
+      <c r="E163" s="29" t="s">
         <v>285</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="9"/>
-      <c r="C164" s="51"/>
-      <c r="D164" s="52" t="s">
+      <c r="C164" s="52"/>
+      <c r="D164" s="53" t="s">
         <v>274</v>
       </c>
-      <c r="E164" s="28" t="s">
+      <c r="E164" s="29" t="s">
         <v>286</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6281,13 +6284,13 @@
       <c r="B165" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C165" s="51" t="s">
+      <c r="C165" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D165" s="52" t="s">
+      <c r="D165" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="E165" s="28" t="s">
+      <c r="E165" s="29" t="s">
         <v>288</v>
       </c>
       <c r="G165" s="11" t="s">
@@ -6296,8 +6299,8 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="9"/>
-      <c r="C166" s="51"/>
-      <c r="D166" s="52" t="s">
+      <c r="C166" s="52"/>
+      <c r="D166" s="53" t="s">
         <v>256</v>
       </c>
       <c r="E166" s="7" t="s">
@@ -6309,8 +6312,8 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="9"/>
-      <c r="C167" s="51"/>
-      <c r="D167" s="52" t="s">
+      <c r="C167" s="52"/>
+      <c r="D167" s="53" t="s">
         <v>258</v>
       </c>
       <c r="E167" s="7" t="s">
@@ -6322,8 +6325,8 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="9"/>
-      <c r="C168" s="51"/>
-      <c r="D168" s="52" t="s">
+      <c r="C168" s="52"/>
+      <c r="D168" s="53" t="s">
         <v>260</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -6335,8 +6338,8 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="9"/>
-      <c r="C169" s="51"/>
-      <c r="D169" s="52" t="s">
+      <c r="C169" s="52"/>
+      <c r="D169" s="53" t="s">
         <v>292</v>
       </c>
       <c r="E169" s="7" t="s">
@@ -6348,8 +6351,8 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="9"/>
-      <c r="C170" s="51"/>
-      <c r="D170" s="52" t="s">
+      <c r="C170" s="52"/>
+      <c r="D170" s="53" t="s">
         <v>264</v>
       </c>
       <c r="E170" s="7" t="s">
@@ -6361,7 +6364,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="9"/>
-      <c r="C171" s="51"/>
+      <c r="C171" s="52"/>
       <c r="D171" s="7" t="s">
         <v>295</v>
       </c>
@@ -6374,34 +6377,34 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="9"/>
-      <c r="C172" s="51"/>
-      <c r="D172" s="52" t="s">
+      <c r="C172" s="52"/>
+      <c r="D172" s="53" t="s">
         <v>270</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>297</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="9"/>
-      <c r="C173" s="51"/>
-      <c r="D173" s="52" t="s">
+      <c r="C173" s="52"/>
+      <c r="D173" s="53" t="s">
         <v>272</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>298</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="9"/>
-      <c r="C174" s="51"/>
-      <c r="D174" s="52" t="s">
+      <c r="C174" s="52"/>
+      <c r="D174" s="53" t="s">
         <v>274</v>
       </c>
       <c r="E174" s="7" t="s">
@@ -6413,8 +6416,8 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="9"/>
-      <c r="C175" s="51"/>
-      <c r="D175" s="52" t="s">
+      <c r="C175" s="52"/>
+      <c r="D175" s="53" t="s">
         <v>276</v>
       </c>
       <c r="E175" s="7" t="s">
@@ -6431,13 +6434,13 @@
       <c r="B176" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D176" s="52" t="s">
+      <c r="D176" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="E176" s="28" t="s">
+      <c r="E176" s="29" t="s">
         <v>302</v>
       </c>
       <c r="G176" s="11" t="s">
@@ -6446,8 +6449,8 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="9"/>
-      <c r="C177" s="51"/>
-      <c r="D177" s="52" t="s">
+      <c r="C177" s="52"/>
+      <c r="D177" s="53" t="s">
         <v>256</v>
       </c>
       <c r="E177" s="7" t="s">
@@ -6459,8 +6462,8 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="9"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="52" t="s">
+      <c r="C178" s="52"/>
+      <c r="D178" s="53" t="s">
         <v>258</v>
       </c>
       <c r="E178" s="7" t="s">
@@ -6472,8 +6475,8 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="9"/>
-      <c r="C179" s="51"/>
-      <c r="D179" s="52" t="s">
+      <c r="C179" s="52"/>
+      <c r="D179" s="53" t="s">
         <v>260</v>
       </c>
       <c r="E179" s="7" t="s">
@@ -6485,8 +6488,8 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="9"/>
-      <c r="C180" s="51"/>
-      <c r="D180" s="52" t="s">
+      <c r="C180" s="52"/>
+      <c r="D180" s="53" t="s">
         <v>292</v>
       </c>
       <c r="E180" s="7" t="s">
@@ -6498,8 +6501,8 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="9"/>
-      <c r="C181" s="51"/>
-      <c r="D181" s="52" t="s">
+      <c r="C181" s="52"/>
+      <c r="D181" s="53" t="s">
         <v>264</v>
       </c>
       <c r="E181" s="7" t="s">
@@ -6511,8 +6514,8 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="9"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="52" t="s">
+      <c r="C182" s="52"/>
+      <c r="D182" s="53" t="s">
         <v>268</v>
       </c>
       <c r="E182" s="7" t="s">
@@ -6524,7 +6527,7 @@
     </row>
     <row r="183" ht="57" spans="1:7">
       <c r="A183" s="9"/>
-      <c r="C183" s="51"/>
+      <c r="C183" s="52"/>
       <c r="D183" s="7" t="s">
         <v>295</v>
       </c>
@@ -6537,21 +6540,21 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="9"/>
-      <c r="C184" s="51"/>
-      <c r="D184" s="52" t="s">
+      <c r="C184" s="52"/>
+      <c r="D184" s="53" t="s">
         <v>270</v>
       </c>
       <c r="E184" s="7" t="s">
         <v>310</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="9"/>
-      <c r="C185" s="51"/>
-      <c r="D185" s="52" t="s">
+      <c r="C185" s="52"/>
+      <c r="D185" s="53" t="s">
         <v>276</v>
       </c>
       <c r="E185" s="7" t="s">
@@ -6562,90 +6565,90 @@
       </c>
     </row>
     <row r="186" ht="54" spans="1:8">
-      <c r="A186" s="48" t="s">
+      <c r="A186" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="C186" s="53" t="s">
+      <c r="C186" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="D186" s="48" t="s">
+      <c r="D186" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="E186" s="50" t="s">
+      <c r="E186" s="51" t="s">
         <v>314</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H186" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" ht="81" spans="1:8">
+      <c r="A187" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="C187" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="D187" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="E187" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="G187" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="187" ht="81" spans="1:8">
-      <c r="A187" s="54" t="s">
-        <v>315</v>
-      </c>
-      <c r="C187" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="D187" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="E187" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="G187" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="H187" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" ht="54" spans="1:8">
+      <c r="A188" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="C188" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="D188" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="E188" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="G188" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="188" ht="54" spans="1:8">
-      <c r="A188" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="C188" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="D188" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="E188" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="H188" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="189" ht="40.5" spans="1:8">
+      <c r="A189" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="C189" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="D189" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="E189" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="G189" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="189" ht="40.5" spans="1:8">
-      <c r="A189" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="C189" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="D189" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="E189" s="50" t="s">
-        <v>326</v>
-      </c>
-      <c r="G189" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="H189" s="8" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="190" ht="67.5" spans="1:8">
       <c r="A190" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C190" s="53" t="s">
+      <c r="C190" s="54" t="s">
         <v>328</v>
       </c>
       <c r="D190" s="6" t="s">
@@ -6655,10 +6658,10 @@
         <v>330</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" ht="40.5" spans="1:7">
@@ -6668,17 +6671,17 @@
       <c r="B191" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C191" s="55" t="s">
+      <c r="C191" s="56" t="s">
         <v>333</v>
       </c>
       <c r="D191" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E191" s="28" t="s">
+      <c r="E191" s="29" t="s">
         <v>334</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192" ht="67.5" spans="1:7">
@@ -6686,13 +6689,13 @@
       <c r="B192" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C192" s="55" t="s">
+      <c r="C192" s="56" t="s">
         <v>336</v>
       </c>
       <c r="D192" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E192" s="56" t="s">
+      <c r="E192" s="57" t="s">
         <v>337</v>
       </c>
       <c r="G192" s="11" t="s">
@@ -6704,13 +6707,13 @@
       <c r="B193" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="C193" s="55" t="s">
+      <c r="C193" s="56" t="s">
         <v>339</v>
       </c>
       <c r="D193" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E193" s="28" t="s">
+      <c r="E193" s="29" t="s">
         <v>340</v>
       </c>
       <c r="G193" s="11" t="s">
@@ -6721,17 +6724,17 @@
       <c r="A194" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C194" s="55" t="s">
+      <c r="C194" s="56" t="s">
         <v>342</v>
       </c>
       <c r="D194" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E194" s="28" t="s">
+      <c r="E194" s="29" t="s">
         <v>344</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="7:7">
@@ -6816,7 +6819,7 @@
     <hyperlink ref="E3" r:id="rId20" display="http://www.gov.cn/zhengce/jiedu/index.htm"/>
     <hyperlink ref="E4" r:id="rId21" display="http://www.gov.cn/zhengce/xxgkzl.htm" tooltip="http://www.gov.cn/zhengce/xxgkzl.htm"/>
     <hyperlink ref="E10" r:id="rId22" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw41893/index.html"/>
-    <hyperlink ref="E24" r:id="rId23" display="http://www.nmg.gov.cn/col/col428/index.html"/>
+    <hyperlink ref="E24" r:id="rId23" display="http://www.nmg.gov.cn/col/col428/index.html" tooltip="http://www.nmg.gov.cn/col/col428/index.html"/>
     <hyperlink ref="E25" r:id="rId24" display="http://info.hebei.gov.cn/eportal/ui?pageId=6817552" tooltip="http://info.hebei.gov.cn/eportal/ui?pageId=6817552"/>
     <hyperlink ref="E27" r:id="rId25" display="http://www.henan.gov.cn/zwgk/zcjd/bmjd/" tooltip="http://www.henan.gov.cn/zwgk/zcjd/bmjd/"/>
     <hyperlink ref="E28" r:id="rId26" display="http://www.henan.gov.cn/zwgk/fgwj/szfl/" tooltip="http://www.henan.gov.cn/zwgk/fgwj/szfl/"/>
@@ -6832,7 +6835,7 @@
     <hyperlink ref="E41" r:id="rId36" display="http://www.nx.gov.cn/zwgk/qzfwj/" tooltip="http://www.nx.gov.cn/zwgk/qzfwj/"/>
     <hyperlink ref="E40" r:id="rId37" display="http://www.nx.gov.cn/zwxx_11337/zcjd/"/>
     <hyperlink ref="E37" r:id="rId38" display="http://www.gansu.gov.cn/col/col4784/index.html" tooltip="http://www.gansu.gov.cn/col/col4784/index.html"/>
-    <hyperlink ref="E31" r:id="rId28" display="http://www.shandong.gov.cn/col/col2262/index.html"/>
+    <hyperlink ref="E31" r:id="rId28" display="http://www.shandong.gov.cn/col/col2262/index.html" tooltip="http://www.shandong.gov.cn/col/col2262/index.html"/>
     <hyperlink ref="E26" r:id="rId39" display="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html"/>
     <hyperlink ref="E46" r:id="rId40" display="http://www.jiangsu.gov.cn/col/col32646/index.html"/>
     <hyperlink ref="E16" r:id="rId41" display="http://www.hlj.gov.cn/zwfb/zcjd/" tooltip="http://www.hlj.gov.cn/zwfb/zcjd/"/>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="578">
   <si>
     <t>所属分类</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html</t>
-  </si>
-  <si>
-    <t>明细取不到</t>
   </si>
   <si>
     <t>河南</t>
@@ -1773,10 +1770,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1862,7 +1859,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1875,8 +1880,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,15 +1919,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1906,6 +1948,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1920,41 +1970,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1967,40 +1994,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2019,7 +2016,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,43 +2148,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2085,43 +2178,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2133,73 +2196,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2256,17 +2253,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2275,6 +2281,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2304,37 +2321,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2343,151 +2340,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2564,11 +2561,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3643,7 +3640,7 @@
   <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -4036,7 +4033,7 @@
       <c r="D25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -4050,12 +4047,10 @@
       <c r="A26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>48</v>
-      </c>
+      <c r="F26" s="23"/>
       <c r="G26" s="11" t="s">
         <v>12</v>
       </c>
@@ -4067,46 +4062,46 @@
       <c r="A27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="F27" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>51</v>
-      </c>
       <c r="G27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>13</v>
+      <c r="H27" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>51</v>
       </c>
+      <c r="F28" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="G28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>13</v>
+      <c r="H28" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:8">
       <c r="A29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>12</v>
@@ -4120,7 +4115,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>12</v>
@@ -4134,7 +4129,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
       <c r="E31" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>12</v>
@@ -4147,10 +4142,10 @@
       <c r="A32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>12</v>
@@ -4164,7 +4159,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
       <c r="E33" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>12</v>
@@ -4177,10 +4172,10 @@
       <c r="A34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>60</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>12</v>
@@ -4194,7 +4189,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
       <c r="E35" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>12</v>
@@ -4208,7 +4203,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>12</v>
@@ -4221,10 +4216,10 @@
       <c r="A37" s="9"/>
       <c r="C37" s="10"/>
       <c r="D37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>12</v>
@@ -4238,7 +4233,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>12</v>
@@ -4251,10 +4246,10 @@
       <c r="A39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>12</v>
@@ -4268,7 +4263,7 @@
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
       <c r="E40" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>12</v>
@@ -4282,29 +4277,29 @@
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>72</v>
-      </c>
       <c r="G42" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4312,29 +4307,29 @@
       <c r="C43" s="10"/>
       <c r="D43" s="11"/>
       <c r="E43" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>75</v>
-      </c>
       <c r="G44" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4342,29 +4337,29 @@
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
       <c r="E45" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:8">
       <c r="A46" s="9"/>
       <c r="C46" s="10"/>
       <c r="D46" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="28" t="s">
-        <v>78</v>
-      </c>
       <c r="G46" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4372,13 +4367,13 @@
       <c r="C47" s="10"/>
       <c r="D47" s="11"/>
       <c r="E47" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4386,13 +4381,13 @@
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4400,29 +4395,29 @@
       <c r="C49" s="10"/>
       <c r="D49" s="11"/>
       <c r="E49" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="27" t="s">
-        <v>83</v>
-      </c>
       <c r="G50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4430,29 +4425,29 @@
       <c r="C51" s="10"/>
       <c r="D51" s="11"/>
       <c r="E51" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>86</v>
-      </c>
       <c r="G52" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4460,13 +4455,13 @@
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
       <c r="E53" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4474,29 +4469,29 @@
       <c r="C54" s="10"/>
       <c r="D54" s="11"/>
       <c r="E54" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="27" t="s">
-        <v>90</v>
-      </c>
       <c r="G55" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4504,29 +4499,29 @@
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
       <c r="E56" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="9"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>93</v>
-      </c>
       <c r="G57" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4534,29 +4529,29 @@
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
       <c r="E58" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="9"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>96</v>
-      </c>
       <c r="G59" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4564,29 +4559,29 @@
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
       <c r="E60" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="9"/>
       <c r="C61" s="10"/>
       <c r="D61" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="27" t="s">
-        <v>99</v>
-      </c>
       <c r="G61" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4594,13 +4589,13 @@
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
       <c r="E62" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4608,29 +4603,29 @@
       <c r="C63" s="10"/>
       <c r="D63" s="11"/>
       <c r="E63" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="27" t="s">
-        <v>103</v>
-      </c>
       <c r="G64" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4638,29 +4633,29 @@
       <c r="C65" s="10"/>
       <c r="D65" s="11"/>
       <c r="E65" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" ht="28.5" spans="1:8">
       <c r="A66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="27" t="s">
-        <v>106</v>
-      </c>
       <c r="G66" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" ht="28.5" spans="1:8">
@@ -4668,29 +4663,29 @@
       <c r="C67" s="10"/>
       <c r="D67" s="11"/>
       <c r="E67" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" ht="42.75" spans="1:8">
       <c r="A68" s="9"/>
       <c r="C68" s="10"/>
       <c r="D68" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="27" t="s">
-        <v>109</v>
-      </c>
       <c r="G68" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4698,13 +4693,13 @@
       <c r="C69" s="10"/>
       <c r="D69" s="11"/>
       <c r="E69" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4712,29 +4707,29 @@
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
       <c r="E70" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" ht="28.5" spans="1:8">
       <c r="A71" s="9"/>
       <c r="C71" s="10"/>
       <c r="D71" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="27" t="s">
-        <v>113</v>
-      </c>
       <c r="G71" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" ht="28.5" spans="1:8">
@@ -4742,29 +4737,29 @@
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
       <c r="E72" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" ht="28.5" spans="1:8">
       <c r="A73" s="9"/>
       <c r="C73" s="10"/>
       <c r="D73" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E73" s="27" t="s">
-        <v>116</v>
-      </c>
       <c r="G73" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="28.5" spans="1:8">
@@ -4772,13 +4767,13 @@
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
       <c r="E74" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" ht="28.5" spans="1:8">
@@ -4786,29 +4781,29 @@
       <c r="C75" s="10"/>
       <c r="D75" s="11"/>
       <c r="E75" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="9"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E76" s="29" t="s">
-        <v>120</v>
-      </c>
       <c r="G76" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4816,29 +4811,29 @@
       <c r="C77" s="10"/>
       <c r="D77" s="11"/>
       <c r="E77" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" ht="57" spans="1:8">
       <c r="A78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="29" t="s">
-        <v>123</v>
-      </c>
       <c r="G78" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4846,33 +4841,33 @@
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
       <c r="E79" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" ht="81" spans="1:8">
       <c r="A80" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="C80" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="D80" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="E80" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="G80" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>36</v>
@@ -4880,139 +4875,139 @@
     </row>
     <row r="81" ht="28.5" spans="1:7">
       <c r="A81" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="D81" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="E81" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="29" t="s">
-        <v>135</v>
-      </c>
       <c r="G81" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" ht="28.5" spans="1:7">
       <c r="A82" s="9"/>
       <c r="B82" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="E82" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="E82" s="29" t="s">
-        <v>135</v>
-      </c>
       <c r="G82" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" s="3" customFormat="1" ht="54" spans="1:7">
       <c r="A83" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="C83" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="D83" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="D83" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="38" t="s">
-        <v>140</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" s="3" customFormat="1" ht="54" spans="1:7">
       <c r="A84" s="34"/>
       <c r="B84" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="29" t="s">
         <v>141</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E84" s="29" t="s">
-        <v>142</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1" ht="99.75" spans="1:7">
       <c r="A85" s="34"/>
       <c r="B85" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="29" t="s">
         <v>144</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E85" s="29" t="s">
-        <v>145</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" s="3" customFormat="1" ht="54" spans="1:8">
       <c r="A86" s="34"/>
       <c r="B86" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="C87" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="D87" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="G87" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>36</v>
@@ -5021,14 +5016,14 @@
     <row r="88" spans="1:7">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" s="39"/>
       <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>12</v>
@@ -5042,10 +5037,10 @@
         <v>16</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>12</v>
@@ -5059,10 +5054,10 @@
         <v>24</v>
       </c>
       <c r="E90" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>12</v>
@@ -5076,10 +5071,10 @@
         <v>45</v>
       </c>
       <c r="E91" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>12</v>
@@ -5090,10 +5085,10 @@
       <c r="B92" s="9"/>
       <c r="C92" s="39"/>
       <c r="D92" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>12</v>
@@ -5107,10 +5102,10 @@
         <v>42</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>12</v>
@@ -5124,10 +5119,10 @@
         <v>39</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>12</v>
@@ -5141,10 +5136,10 @@
         <v>34</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>12</v>
@@ -5158,7 +5153,7 @@
         <v>30</v>
       </c>
       <c r="E96" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>12</v>
@@ -5169,10 +5164,10 @@
       <c r="B97" s="9"/>
       <c r="C97" s="39"/>
       <c r="D97" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E97" s="41" t="s">
         <v>165</v>
-      </c>
-      <c r="E97" s="41" t="s">
-        <v>166</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>12</v>
@@ -5183,13 +5178,13 @@
       <c r="B98" s="9"/>
       <c r="C98" s="39"/>
       <c r="D98" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E98" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>12</v>
@@ -5200,13 +5195,13 @@
       <c r="B99" s="9"/>
       <c r="C99" s="39"/>
       <c r="D99" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E99" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F99" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>12</v>
@@ -5217,13 +5212,13 @@
       <c r="B100" s="9"/>
       <c r="C100" s="39"/>
       <c r="D100" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>12</v>
@@ -5234,13 +5229,13 @@
       <c r="B101" s="9"/>
       <c r="C101" s="39"/>
       <c r="D101" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>12</v>
@@ -5251,13 +5246,13 @@
       <c r="B102" s="9"/>
       <c r="C102" s="39"/>
       <c r="D102" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>12</v>
@@ -5268,10 +5263,10 @@
       <c r="B103" s="9"/>
       <c r="C103" s="39"/>
       <c r="D103" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>12</v>
@@ -5282,13 +5277,13 @@
       <c r="B104" s="9"/>
       <c r="C104" s="39"/>
       <c r="D104" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E104" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>12</v>
@@ -5299,13 +5294,13 @@
       <c r="B105" s="9"/>
       <c r="C105" s="39"/>
       <c r="D105" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>12</v>
@@ -5316,13 +5311,13 @@
       <c r="B106" s="9"/>
       <c r="C106" s="39"/>
       <c r="D106" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>12</v>
@@ -5333,13 +5328,13 @@
       <c r="B107" s="9"/>
       <c r="C107" s="39"/>
       <c r="D107" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E107" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>12</v>
@@ -5350,13 +5345,13 @@
       <c r="B108" s="9"/>
       <c r="C108" s="39"/>
       <c r="D108" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>12</v>
@@ -5367,13 +5362,13 @@
       <c r="B109" s="9"/>
       <c r="C109" s="39"/>
       <c r="D109" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E109" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>12</v>
@@ -5387,7 +5382,7 @@
         <v>27</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>12</v>
@@ -5398,10 +5393,10 @@
       <c r="B111" s="9"/>
       <c r="C111" s="39"/>
       <c r="D111" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>12</v>
@@ -5412,13 +5407,13 @@
       <c r="B112" s="9"/>
       <c r="C112" s="39"/>
       <c r="D112" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E112" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>12</v>
@@ -5429,13 +5424,13 @@
       <c r="B113" s="9"/>
       <c r="C113" s="39"/>
       <c r="D113" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>12</v>
@@ -5446,13 +5441,13 @@
       <c r="B114" s="9"/>
       <c r="C114" s="39"/>
       <c r="D114" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>12</v>
@@ -5463,13 +5458,13 @@
       <c r="B115" s="9"/>
       <c r="C115" s="39"/>
       <c r="D115" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E115" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>12</v>
@@ -5480,13 +5475,13 @@
       <c r="B116" s="9"/>
       <c r="C116" s="39"/>
       <c r="D116" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>12</v>
@@ -5497,13 +5492,13 @@
       <c r="B117" s="9"/>
       <c r="C117" s="39"/>
       <c r="D117" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>12</v>
@@ -5514,13 +5509,13 @@
       <c r="B118" s="9"/>
       <c r="C118" s="39"/>
       <c r="D118" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E118" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>12</v>
@@ -5529,20 +5524,20 @@
     <row r="119" s="3" customFormat="1" spans="1:11">
       <c r="A119" s="9"/>
       <c r="B119" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C119" s="39"/>
       <c r="D119" s="42" t="s">
         <v>30</v>
       </c>
       <c r="E119" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F119" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="F119" s="35" t="s">
-        <v>195</v>
-      </c>
       <c r="G119" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H119" s="44"/>
       <c r="I119" s="44"/>
@@ -5557,13 +5552,13 @@
         <v>39</v>
       </c>
       <c r="E120" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F120" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="F120" s="43" t="s">
-        <v>197</v>
-      </c>
       <c r="G120" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I120" s="44"/>
       <c r="J120" s="44"/>
@@ -5574,13 +5569,13 @@
       <c r="B121" s="34"/>
       <c r="C121" s="39"/>
       <c r="D121" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E121" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="F121" s="43" t="s">
         <v>198</v>
-      </c>
-      <c r="F121" s="43" t="s">
-        <v>199</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>12</v>
@@ -5594,13 +5589,13 @@
       <c r="B122" s="34"/>
       <c r="C122" s="39"/>
       <c r="D122" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E122" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F122" s="35" t="s">
         <v>200</v>
-      </c>
-      <c r="F122" s="35" t="s">
-        <v>201</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>12</v>
@@ -5616,13 +5611,13 @@
         <v>42</v>
       </c>
       <c r="E123" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F123" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="F123" s="43" t="s">
-        <v>203</v>
-      </c>
       <c r="G123" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I123" s="44"/>
       <c r="J123" s="44"/>
@@ -5632,16 +5627,16 @@
       <c r="B124" s="34"/>
       <c r="C124" s="39"/>
       <c r="D124" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E124" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F124" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="F124" s="43" t="s">
-        <v>205</v>
-      </c>
       <c r="G124" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I124" s="44"/>
       <c r="J124" s="44"/>
@@ -5651,16 +5646,16 @@
       <c r="B125" s="34"/>
       <c r="C125" s="39"/>
       <c r="D125" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E125" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="F125" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="F125" s="43" t="s">
-        <v>207</v>
-      </c>
       <c r="G125" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I125" s="44"/>
       <c r="J125" s="44"/>
@@ -5670,13 +5665,13 @@
       <c r="B126" s="34"/>
       <c r="C126" s="39"/>
       <c r="D126" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F126" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>12</v>
@@ -5687,13 +5682,13 @@
       <c r="B127" s="34"/>
       <c r="C127" s="39"/>
       <c r="D127" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F127" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>12</v>
@@ -5704,13 +5699,13 @@
       <c r="B128" s="34"/>
       <c r="C128" s="39"/>
       <c r="D128" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F128" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>12</v>
@@ -5721,13 +5716,13 @@
       <c r="B129" s="34"/>
       <c r="C129" s="39"/>
       <c r="D129" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F129" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>12</v>
@@ -5741,16 +5736,16 @@
       <c r="B130" s="34"/>
       <c r="C130" s="39"/>
       <c r="D130" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E130" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F130" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="F130" s="43" t="s">
-        <v>213</v>
-      </c>
       <c r="G130" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J130" s="44"/>
     </row>
@@ -5759,16 +5754,16 @@
       <c r="B131" s="34"/>
       <c r="C131" s="39"/>
       <c r="D131" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E131" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F131" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="F131" s="43" t="s">
+      <c r="G131" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="132" s="3" customFormat="1" spans="1:7">
@@ -5776,10 +5771,10 @@
       <c r="B132" s="34"/>
       <c r="C132" s="39"/>
       <c r="D132" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F132" s="43"/>
       <c r="G132" s="11" t="s">
@@ -5791,13 +5786,13 @@
       <c r="B133" s="34"/>
       <c r="C133" s="39"/>
       <c r="D133" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F133" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>12</v>
@@ -5808,13 +5803,13 @@
       <c r="B134" s="34"/>
       <c r="C134" s="39"/>
       <c r="D134" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F134" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>12</v>
@@ -5827,13 +5822,13 @@
       <c r="B135" s="34"/>
       <c r="C135" s="39"/>
       <c r="D135" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E135" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F135" s="47" t="s">
         <v>220</v>
-      </c>
-      <c r="F135" s="47" t="s">
-        <v>221</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>12</v>
@@ -5846,10 +5841,10 @@
       <c r="B136" s="34"/>
       <c r="C136" s="39"/>
       <c r="D136" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F136" s="47"/>
       <c r="G136" s="11" t="s">
@@ -5860,19 +5855,19 @@
     </row>
     <row r="137" s="3" customFormat="1" ht="54" spans="1:7">
       <c r="A137" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="C137" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C137" s="48" t="s">
+      <c r="D137" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="D137" s="49" t="s">
+      <c r="E137" s="29" t="s">
         <v>226</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>227</v>
       </c>
       <c r="F137" s="48"/>
       <c r="G137" s="48"/>
@@ -5880,16 +5875,16 @@
     <row r="138" s="3" customFormat="1" ht="81.75" spans="1:7">
       <c r="A138" s="9"/>
       <c r="B138" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="C138" s="48" t="s">
-        <v>229</v>
-      </c>
       <c r="D138" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E138" s="29" t="s">
         <v>226</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>227</v>
       </c>
       <c r="F138" s="48"/>
       <c r="G138" s="48"/>
@@ -5897,16 +5892,16 @@
     <row r="139" s="3" customFormat="1" ht="81.75" spans="1:7">
       <c r="A139" s="9"/>
       <c r="B139" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C139" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="C139" s="48" t="s">
-        <v>231</v>
-      </c>
       <c r="D139" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E139" s="29" t="s">
         <v>226</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>227</v>
       </c>
       <c r="F139" s="48"/>
       <c r="G139" s="48"/>
@@ -5914,16 +5909,16 @@
     <row r="140" s="3" customFormat="1" ht="40.5" spans="1:7">
       <c r="A140" s="9"/>
       <c r="B140" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C140" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="C140" s="48" t="s">
+      <c r="D140" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E140" s="29" t="s">
         <v>233</v>
-      </c>
-      <c r="D140" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="E140" s="29" t="s">
-        <v>234</v>
       </c>
       <c r="F140" s="48"/>
       <c r="G140" s="48"/>
@@ -5931,16 +5926,16 @@
     <row r="141" s="3" customFormat="1" ht="67.5" spans="1:7">
       <c r="A141" s="9"/>
       <c r="B141" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C141" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="C141" s="48" t="s">
+      <c r="D141" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E141" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="D141" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="E141" s="29" t="s">
-        <v>237</v>
       </c>
       <c r="F141" s="48"/>
       <c r="G141" s="48"/>
@@ -5948,16 +5943,16 @@
     <row r="142" s="3" customFormat="1" ht="94.5" spans="1:7">
       <c r="A142" s="9"/>
       <c r="B142" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C142" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="C142" s="48" t="s">
+      <c r="D142" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E142" s="29" t="s">
         <v>239</v>
-      </c>
-      <c r="D142" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>240</v>
       </c>
       <c r="F142" s="48"/>
       <c r="G142" s="48"/>
@@ -5965,16 +5960,16 @@
     <row r="143" s="3" customFormat="1" ht="27" spans="1:7">
       <c r="A143" s="9"/>
       <c r="B143" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C143" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="C143" s="48" t="s">
+      <c r="D143" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E143" s="29" t="s">
         <v>242</v>
-      </c>
-      <c r="D143" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="E143" s="29" t="s">
-        <v>243</v>
       </c>
       <c r="F143" s="48"/>
       <c r="G143" s="48"/>
@@ -5982,39 +5977,39 @@
     <row r="144" ht="40.5" spans="1:7">
       <c r="A144" s="9"/>
       <c r="B144" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="C144" s="50" t="s">
+      <c r="D144" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E144" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D144" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="E144" s="51" t="s">
-        <v>246</v>
-      </c>
       <c r="G144" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" ht="56.25" spans="1:7">
       <c r="A145" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="C145" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="C145" s="52" t="s">
+      <c r="D145" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="E145" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="E145" s="29" t="s">
+      <c r="F145" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>12</v>
@@ -6024,13 +6019,13 @@
       <c r="A146" s="9"/>
       <c r="C146" s="52"/>
       <c r="D146" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E146" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="E146" s="29" t="s">
+      <c r="F146" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>12</v>
@@ -6040,10 +6035,10 @@
       <c r="A147" s="9"/>
       <c r="C147" s="52"/>
       <c r="D147" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="E147" s="29" t="s">
         <v>256</v>
-      </c>
-      <c r="E147" s="29" t="s">
-        <v>257</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>12</v>
@@ -6053,10 +6048,10 @@
       <c r="A148" s="9"/>
       <c r="C148" s="52"/>
       <c r="D148" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="E148" s="29" t="s">
         <v>258</v>
-      </c>
-      <c r="E148" s="29" t="s">
-        <v>259</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>12</v>
@@ -6066,10 +6061,10 @@
       <c r="A149" s="9"/>
       <c r="C149" s="52"/>
       <c r="D149" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="E149" s="29" t="s">
         <v>260</v>
-      </c>
-      <c r="E149" s="29" t="s">
-        <v>261</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>12</v>
@@ -6079,10 +6074,10 @@
       <c r="A150" s="9"/>
       <c r="C150" s="52"/>
       <c r="D150" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="E150" s="29" t="s">
         <v>262</v>
-      </c>
-      <c r="E150" s="29" t="s">
-        <v>263</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>12</v>
@@ -6092,10 +6087,10 @@
       <c r="A151" s="9"/>
       <c r="C151" s="52"/>
       <c r="D151" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E151" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>12</v>
@@ -6105,10 +6100,10 @@
       <c r="A152" s="9"/>
       <c r="C152" s="52"/>
       <c r="D152" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="E152" s="29" t="s">
         <v>266</v>
-      </c>
-      <c r="E152" s="29" t="s">
-        <v>267</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>12</v>
@@ -6118,10 +6113,10 @@
       <c r="A153" s="9"/>
       <c r="C153" s="52"/>
       <c r="D153" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="E153" s="29" t="s">
         <v>268</v>
-      </c>
-      <c r="E153" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>12</v>
@@ -6131,36 +6126,36 @@
       <c r="A154" s="9"/>
       <c r="C154" s="52"/>
       <c r="D154" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="E154" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="E154" s="29" t="s">
-        <v>271</v>
-      </c>
       <c r="G154" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="9"/>
       <c r="C155" s="52"/>
       <c r="D155" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E155" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="E155" s="29" t="s">
-        <v>273</v>
-      </c>
       <c r="G155" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="9"/>
       <c r="C156" s="52"/>
       <c r="D156" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E156" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="E156" s="29" t="s">
-        <v>275</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>12</v>
@@ -6170,10 +6165,10 @@
       <c r="A157" s="9"/>
       <c r="C157" s="52"/>
       <c r="D157" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="E157" s="29" t="s">
         <v>276</v>
-      </c>
-      <c r="E157" s="29" t="s">
-        <v>277</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>12</v>
@@ -6181,19 +6176,19 @@
     </row>
     <row r="158" ht="42.75" spans="1:7">
       <c r="A158" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C158" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="C158" s="52" t="s">
+      <c r="D158" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E158" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="D158" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>12</v>
@@ -6203,10 +6198,10 @@
       <c r="A159" s="9"/>
       <c r="C159" s="52"/>
       <c r="D159" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>12</v>
@@ -6216,10 +6211,10 @@
       <c r="A160" s="9"/>
       <c r="C160" s="52"/>
       <c r="D160" s="53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>12</v>
@@ -6229,10 +6224,10 @@
       <c r="A161" s="9"/>
       <c r="C161" s="52"/>
       <c r="D161" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>12</v>
@@ -6242,10 +6237,10 @@
       <c r="A162" s="9"/>
       <c r="C162" s="52"/>
       <c r="D162" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E162" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>12</v>
@@ -6255,43 +6250,43 @@
       <c r="A163" s="9"/>
       <c r="C163" s="52"/>
       <c r="D163" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E163" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="9"/>
       <c r="C164" s="52"/>
       <c r="D164" s="53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E164" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C165" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E165" s="29" t="s">
         <v>287</v>
-      </c>
-      <c r="C165" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D165" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="E165" s="29" t="s">
-        <v>288</v>
       </c>
       <c r="G165" s="11" t="s">
         <v>12</v>
@@ -6301,10 +6296,10 @@
       <c r="A166" s="9"/>
       <c r="C166" s="52"/>
       <c r="D166" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>12</v>
@@ -6314,10 +6309,10 @@
       <c r="A167" s="9"/>
       <c r="C167" s="52"/>
       <c r="D167" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>12</v>
@@ -6327,10 +6322,10 @@
       <c r="A168" s="9"/>
       <c r="C168" s="52"/>
       <c r="D168" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>12</v>
@@ -6340,10 +6335,10 @@
       <c r="A169" s="9"/>
       <c r="C169" s="52"/>
       <c r="D169" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="E169" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="G169" s="11" t="s">
         <v>12</v>
@@ -6353,10 +6348,10 @@
       <c r="A170" s="9"/>
       <c r="C170" s="52"/>
       <c r="D170" s="53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G170" s="11" t="s">
         <v>12</v>
@@ -6366,10 +6361,10 @@
       <c r="A171" s="9"/>
       <c r="C171" s="52"/>
       <c r="D171" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="G171" s="11" t="s">
         <v>12</v>
@@ -6379,36 +6374,36 @@
       <c r="A172" s="9"/>
       <c r="C172" s="52"/>
       <c r="D172" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="9"/>
       <c r="C173" s="52"/>
       <c r="D173" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="9"/>
       <c r="C174" s="52"/>
       <c r="D174" s="53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G174" s="11" t="s">
         <v>12</v>
@@ -6418,10 +6413,10 @@
       <c r="A175" s="9"/>
       <c r="C175" s="52"/>
       <c r="D175" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G175" s="11" t="s">
         <v>12</v>
@@ -6429,19 +6424,19 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B176" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C176" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D176" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E176" s="29" t="s">
         <v>301</v>
-      </c>
-      <c r="C176" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D176" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="E176" s="29" t="s">
-        <v>302</v>
       </c>
       <c r="G176" s="11" t="s">
         <v>12</v>
@@ -6451,10 +6446,10 @@
       <c r="A177" s="9"/>
       <c r="C177" s="52"/>
       <c r="D177" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G177" s="11" t="s">
         <v>12</v>
@@ -6464,10 +6459,10 @@
       <c r="A178" s="9"/>
       <c r="C178" s="52"/>
       <c r="D178" s="53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G178" s="11" t="s">
         <v>12</v>
@@ -6477,10 +6472,10 @@
       <c r="A179" s="9"/>
       <c r="C179" s="52"/>
       <c r="D179" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G179" s="11" t="s">
         <v>12</v>
@@ -6490,10 +6485,10 @@
       <c r="A180" s="9"/>
       <c r="C180" s="52"/>
       <c r="D180" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G180" s="11" t="s">
         <v>12</v>
@@ -6503,10 +6498,10 @@
       <c r="A181" s="9"/>
       <c r="C181" s="52"/>
       <c r="D181" s="53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G181" s="11" t="s">
         <v>12</v>
@@ -6516,10 +6511,10 @@
       <c r="A182" s="9"/>
       <c r="C182" s="52"/>
       <c r="D182" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G182" s="11" t="s">
         <v>12</v>
@@ -6529,10 +6524,10 @@
       <c r="A183" s="9"/>
       <c r="C183" s="52"/>
       <c r="D183" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G183" s="11" t="s">
         <v>12</v>
@@ -6542,23 +6537,23 @@
       <c r="A184" s="9"/>
       <c r="C184" s="52"/>
       <c r="D184" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="9"/>
       <c r="C185" s="52"/>
       <c r="D185" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G185" s="11" t="s">
         <v>12</v>
@@ -6566,19 +6561,19 @@
     </row>
     <row r="186" ht="54" spans="1:8">
       <c r="A186" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="C186" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="C186" s="54" t="s">
+      <c r="D186" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="E186" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="D186" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="E186" s="51" t="s">
-        <v>314</v>
-      </c>
       <c r="G186" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H186" s="8" t="s">
         <v>36</v>
@@ -6586,19 +6581,19 @@
     </row>
     <row r="187" ht="81" spans="1:8">
       <c r="A187" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="C187" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="D187" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="D187" s="49" t="s">
+      <c r="E187" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="E187" s="51" t="s">
-        <v>318</v>
-      </c>
       <c r="G187" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H187" s="8" t="s">
         <v>36</v>
@@ -6606,19 +6601,19 @@
     </row>
     <row r="188" ht="54" spans="1:8">
       <c r="A188" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="C188" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="C188" s="54" t="s">
+      <c r="D188" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="D188" s="49" t="s">
+      <c r="E188" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="E188" s="51" t="s">
-        <v>322</v>
-      </c>
       <c r="G188" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H188" s="8" t="s">
         <v>36</v>
@@ -6626,19 +6621,19 @@
     </row>
     <row r="189" ht="40.5" spans="1:8">
       <c r="A189" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="C189" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="C189" s="54" t="s">
+      <c r="D189" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="D189" s="49" t="s">
+      <c r="E189" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="E189" s="51" t="s">
-        <v>326</v>
-      </c>
       <c r="G189" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>36</v>
@@ -6646,19 +6641,19 @@
     </row>
     <row r="190" ht="67.5" spans="1:8">
       <c r="A190" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C190" s="54" t="s">
         <v>327</v>
       </c>
-      <c r="C190" s="54" t="s">
+      <c r="D190" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D190" s="6" t="s">
+      <c r="E190" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="E190" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="G190" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H190" s="8" t="s">
         <v>36</v>
@@ -6666,75 +6661,75 @@
     </row>
     <row r="191" ht="40.5" spans="1:7">
       <c r="A191" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B191" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="C191" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="C191" s="56" t="s">
+      <c r="D191" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E191" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="D191" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E191" s="29" t="s">
-        <v>334</v>
-      </c>
       <c r="G191" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="192" ht="67.5" spans="1:7">
       <c r="A192" s="9"/>
       <c r="B192" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C192" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="C192" s="56" t="s">
+      <c r="D192" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E192" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="D192" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="E192" s="57" t="s">
-        <v>337</v>
-      </c>
       <c r="G192" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="9"/>
       <c r="B193" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C193" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="C193" s="56" t="s">
+      <c r="D193" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E193" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="D193" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="E193" s="29" t="s">
-        <v>340</v>
-      </c>
       <c r="G193" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" ht="83.25" spans="1:7">
       <c r="A194" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C194" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="C194" s="56" t="s">
+      <c r="D194" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="E194" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="E194" s="29" t="s">
-        <v>344</v>
-      </c>
       <c r="G194" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="195" spans="7:7">
@@ -6836,7 +6831,7 @@
     <hyperlink ref="E40" r:id="rId37" display="http://www.nx.gov.cn/zwxx_11337/zcjd/"/>
     <hyperlink ref="E37" r:id="rId38" display="http://www.gansu.gov.cn/col/col4784/index.html" tooltip="http://www.gansu.gov.cn/col/col4784/index.html"/>
     <hyperlink ref="E31" r:id="rId28" display="http://www.shandong.gov.cn/col/col2262/index.html" tooltip="http://www.shandong.gov.cn/col/col2262/index.html"/>
-    <hyperlink ref="E26" r:id="rId39" display="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html"/>
+    <hyperlink ref="E26" r:id="rId39" display="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html" tooltip="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html"/>
     <hyperlink ref="E46" r:id="rId40" display="http://www.jiangsu.gov.cn/col/col32646/index.html"/>
     <hyperlink ref="E16" r:id="rId41" display="http://www.hlj.gov.cn/zwfb/zcjd/" tooltip="http://www.hlj.gov.cn/zwfb/zcjd/"/>
   </hyperlinks>
@@ -6859,7 +6854,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6867,7 +6862,7 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -6932,22 +6927,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" t="s">
         <v>347</v>
       </c>
-      <c r="C1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" t="s">
         <v>348</v>
       </c>
-      <c r="E1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>349</v>
-      </c>
-      <c r="G1" t="s">
-        <v>350</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -6976,19 +6971,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" t="s">
         <v>347</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>351</v>
       </c>
-      <c r="E2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>352</v>
-      </c>
-      <c r="G2" t="s">
-        <v>353</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -7017,19 +7012,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" t="s">
         <v>347</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>354</v>
       </c>
-      <c r="E3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>355</v>
-      </c>
-      <c r="G3" t="s">
-        <v>356</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -7058,19 +7053,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" t="s">
         <v>347</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>357</v>
       </c>
-      <c r="E4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>358</v>
-      </c>
-      <c r="G4" t="s">
-        <v>359</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7096,25 +7091,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" t="s">
         <v>360</v>
       </c>
-      <c r="E5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>361</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>362</v>
-      </c>
-      <c r="H5" t="s">
-        <v>363</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7143,19 +7138,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" t="s">
         <v>347</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>364</v>
       </c>
-      <c r="E6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>365</v>
-      </c>
-      <c r="G6" t="s">
-        <v>366</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -7184,19 +7179,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" t="s">
         <v>347</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="E7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>368</v>
-      </c>
-      <c r="G7" t="s">
-        <v>369</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7225,19 +7220,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" t="s">
         <v>347</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>370</v>
       </c>
-      <c r="E8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>371</v>
-      </c>
-      <c r="G8" t="s">
-        <v>372</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7263,25 +7258,25 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F9" t="s">
         <v>373</v>
       </c>
-      <c r="E9" t="s">
-        <v>347</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>374</v>
       </c>
-      <c r="G9" t="s">
-        <v>375</v>
-      </c>
       <c r="H9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7307,25 +7302,25 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" t="s">
         <v>376</v>
       </c>
-      <c r="E10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F10" t="s">
-        <v>377</v>
-      </c>
       <c r="G10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7354,22 +7349,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" t="s">
         <v>347</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>378</v>
       </c>
-      <c r="E11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>379</v>
       </c>
-      <c r="G11" t="s">
-        <v>380</v>
-      </c>
       <c r="H11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7395,25 +7390,25 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" t="s">
         <v>381</v>
       </c>
-      <c r="E12" t="s">
-        <v>347</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>382</v>
       </c>
-      <c r="G12" t="s">
-        <v>383</v>
-      </c>
       <c r="H12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -7439,25 +7434,25 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D13" t="s">
+        <v>383</v>
+      </c>
+      <c r="E13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" t="s">
         <v>384</v>
       </c>
-      <c r="E13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>385</v>
       </c>
-      <c r="G13" t="s">
-        <v>386</v>
-      </c>
       <c r="H13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7483,25 +7478,25 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" t="s">
         <v>387</v>
       </c>
-      <c r="E14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F14" t="s">
-        <v>388</v>
-      </c>
       <c r="G14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7530,22 +7525,22 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F15" t="s">
         <v>389</v>
       </c>
-      <c r="E15" t="s">
-        <v>373</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>390</v>
       </c>
-      <c r="G15" t="s">
-        <v>391</v>
-      </c>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -7574,22 +7569,22 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F16" t="s">
         <v>392</v>
       </c>
-      <c r="E16" t="s">
-        <v>373</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>393</v>
       </c>
-      <c r="G16" t="s">
-        <v>394</v>
-      </c>
       <c r="H16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -7618,19 +7613,19 @@
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" t="s">
         <v>395</v>
       </c>
-      <c r="E17" t="s">
-        <v>389</v>
-      </c>
-      <c r="F17" t="s">
-        <v>396</v>
-      </c>
       <c r="H17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -7659,19 +7654,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D18" t="s">
+        <v>396</v>
+      </c>
+      <c r="E18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" t="s">
         <v>397</v>
       </c>
-      <c r="E18" t="s">
-        <v>389</v>
-      </c>
-      <c r="F18" t="s">
-        <v>398</v>
-      </c>
       <c r="H18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -7700,19 +7695,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D19" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" t="s">
         <v>399</v>
       </c>
-      <c r="E19" t="s">
-        <v>392</v>
-      </c>
-      <c r="F19" t="s">
-        <v>400</v>
-      </c>
       <c r="H19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -7741,19 +7736,19 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E20" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" t="s">
         <v>401</v>
       </c>
-      <c r="E20" t="s">
-        <v>392</v>
-      </c>
-      <c r="F20" t="s">
-        <v>402</v>
-      </c>
       <c r="H20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -7782,19 +7777,19 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" t="s">
+        <v>402</v>
+      </c>
+      <c r="E21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" t="s">
         <v>403</v>
       </c>
-      <c r="E21" t="s">
-        <v>392</v>
-      </c>
-      <c r="F21" t="s">
-        <v>404</v>
-      </c>
       <c r="H21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -7823,19 +7818,19 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D22" t="s">
+        <v>404</v>
+      </c>
+      <c r="E22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" t="s">
         <v>405</v>
       </c>
-      <c r="E22" t="s">
-        <v>392</v>
-      </c>
-      <c r="F22" t="s">
-        <v>406</v>
-      </c>
       <c r="H22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -7864,22 +7859,22 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
+        <v>406</v>
+      </c>
+      <c r="E23" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" t="s">
         <v>407</v>
       </c>
-      <c r="E23" t="s">
-        <v>381</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>408</v>
       </c>
-      <c r="G23" t="s">
-        <v>409</v>
-      </c>
       <c r="H23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -7908,22 +7903,22 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" t="s">
         <v>410</v>
       </c>
-      <c r="E24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F24" t="s">
-        <v>411</v>
-      </c>
       <c r="G24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7952,22 +7947,22 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E25" t="s">
+        <v>380</v>
+      </c>
+      <c r="F25" t="s">
         <v>412</v>
       </c>
-      <c r="E25" t="s">
-        <v>381</v>
-      </c>
-      <c r="F25" t="s">
-        <v>413</v>
-      </c>
       <c r="G25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -7996,22 +7991,22 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D26" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" t="s">
         <v>414</v>
       </c>
-      <c r="E26" t="s">
-        <v>381</v>
-      </c>
-      <c r="F26" t="s">
-        <v>415</v>
-      </c>
       <c r="G26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8040,22 +8035,22 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E27" t="s">
+        <v>380</v>
+      </c>
+      <c r="F27" t="s">
         <v>416</v>
       </c>
-      <c r="E27" t="s">
-        <v>381</v>
-      </c>
-      <c r="F27" t="s">
-        <v>417</v>
-      </c>
       <c r="G27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -8084,22 +8079,22 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D28" t="s">
+        <v>417</v>
+      </c>
+      <c r="E28" t="s">
+        <v>380</v>
+      </c>
+      <c r="F28" t="s">
         <v>418</v>
       </c>
-      <c r="E28" t="s">
-        <v>381</v>
-      </c>
-      <c r="F28" t="s">
-        <v>419</v>
-      </c>
       <c r="G28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -8128,22 +8123,22 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E29" t="s">
+        <v>380</v>
+      </c>
+      <c r="F29" t="s">
         <v>420</v>
       </c>
-      <c r="E29" t="s">
-        <v>381</v>
-      </c>
-      <c r="F29" t="s">
-        <v>421</v>
-      </c>
       <c r="G29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -8172,22 +8167,22 @@
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D30" t="s">
+        <v>421</v>
+      </c>
+      <c r="E30" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" t="s">
         <v>422</v>
       </c>
-      <c r="E30" t="s">
-        <v>381</v>
-      </c>
-      <c r="F30" t="s">
-        <v>423</v>
-      </c>
       <c r="G30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -8216,22 +8211,22 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D31" t="s">
+        <v>423</v>
+      </c>
+      <c r="E31" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" t="s">
         <v>424</v>
       </c>
-      <c r="E31" t="s">
-        <v>381</v>
-      </c>
-      <c r="F31" t="s">
-        <v>425</v>
-      </c>
       <c r="G31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -8260,22 +8255,22 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D32" t="s">
+        <v>425</v>
+      </c>
+      <c r="E32" t="s">
+        <v>380</v>
+      </c>
+      <c r="F32" t="s">
         <v>426</v>
       </c>
-      <c r="E32" t="s">
-        <v>381</v>
-      </c>
-      <c r="F32" t="s">
-        <v>427</v>
-      </c>
       <c r="G32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8304,22 +8299,22 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E33" t="s">
+        <v>380</v>
+      </c>
+      <c r="F33" t="s">
         <v>428</v>
       </c>
-      <c r="E33" t="s">
-        <v>381</v>
-      </c>
-      <c r="F33" t="s">
-        <v>429</v>
-      </c>
       <c r="G33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -8348,22 +8343,22 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D34" t="s">
+        <v>429</v>
+      </c>
+      <c r="E34" t="s">
+        <v>380</v>
+      </c>
+      <c r="F34" t="s">
         <v>430</v>
       </c>
-      <c r="E34" t="s">
-        <v>381</v>
-      </c>
-      <c r="F34" t="s">
-        <v>431</v>
-      </c>
       <c r="G34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -8392,22 +8387,22 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D35" t="s">
+        <v>431</v>
+      </c>
+      <c r="E35" t="s">
+        <v>380</v>
+      </c>
+      <c r="F35" t="s">
         <v>432</v>
       </c>
-      <c r="E35" t="s">
-        <v>381</v>
-      </c>
-      <c r="F35" t="s">
-        <v>433</v>
-      </c>
       <c r="G35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8436,22 +8431,22 @@
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D36" t="s">
+        <v>433</v>
+      </c>
+      <c r="E36" t="s">
+        <v>380</v>
+      </c>
+      <c r="F36" t="s">
         <v>434</v>
       </c>
-      <c r="E36" t="s">
-        <v>381</v>
-      </c>
-      <c r="F36" t="s">
-        <v>435</v>
-      </c>
       <c r="G36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8480,22 +8475,22 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D37" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" t="s">
+        <v>380</v>
+      </c>
+      <c r="F37" t="s">
         <v>436</v>
       </c>
-      <c r="E37" t="s">
-        <v>381</v>
-      </c>
-      <c r="F37" t="s">
-        <v>437</v>
-      </c>
       <c r="G37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8524,22 +8519,22 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D38" t="s">
+        <v>437</v>
+      </c>
+      <c r="E38" t="s">
+        <v>380</v>
+      </c>
+      <c r="F38" t="s">
         <v>438</v>
       </c>
-      <c r="E38" t="s">
-        <v>381</v>
-      </c>
-      <c r="F38" t="s">
-        <v>439</v>
-      </c>
       <c r="G38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8568,22 +8563,22 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D39" t="s">
+        <v>439</v>
+      </c>
+      <c r="E39" t="s">
+        <v>380</v>
+      </c>
+      <c r="F39" t="s">
         <v>440</v>
       </c>
-      <c r="E39" t="s">
-        <v>381</v>
-      </c>
-      <c r="F39" t="s">
-        <v>441</v>
-      </c>
       <c r="G39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -8612,22 +8607,22 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D40" t="s">
+        <v>441</v>
+      </c>
+      <c r="E40" t="s">
+        <v>380</v>
+      </c>
+      <c r="F40" t="s">
         <v>442</v>
       </c>
-      <c r="E40" t="s">
-        <v>381</v>
-      </c>
-      <c r="F40" t="s">
-        <v>443</v>
-      </c>
       <c r="G40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8656,22 +8651,22 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D41" t="s">
+        <v>443</v>
+      </c>
+      <c r="E41" t="s">
+        <v>380</v>
+      </c>
+      <c r="F41" t="s">
         <v>444</v>
       </c>
-      <c r="E41" t="s">
-        <v>381</v>
-      </c>
-      <c r="F41" t="s">
-        <v>445</v>
-      </c>
       <c r="G41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H41" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -8700,22 +8695,22 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D42" t="s">
+        <v>445</v>
+      </c>
+      <c r="E42" t="s">
+        <v>380</v>
+      </c>
+      <c r="F42" t="s">
         <v>446</v>
       </c>
-      <c r="E42" t="s">
-        <v>381</v>
-      </c>
-      <c r="F42" t="s">
-        <v>447</v>
-      </c>
       <c r="G42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -8744,22 +8739,22 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D43" t="s">
+        <v>447</v>
+      </c>
+      <c r="E43" t="s">
+        <v>380</v>
+      </c>
+      <c r="F43" t="s">
         <v>448</v>
       </c>
-      <c r="E43" t="s">
-        <v>381</v>
-      </c>
-      <c r="F43" t="s">
-        <v>449</v>
-      </c>
       <c r="G43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8788,22 +8783,22 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8832,22 +8827,22 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8876,22 +8871,22 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D46" t="s">
+        <v>451</v>
+      </c>
+      <c r="E46" t="s">
+        <v>380</v>
+      </c>
+      <c r="F46" t="s">
         <v>452</v>
       </c>
-      <c r="E46" t="s">
-        <v>381</v>
-      </c>
-      <c r="F46" t="s">
-        <v>453</v>
-      </c>
       <c r="G46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8920,22 +8915,22 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8964,22 +8959,22 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D48" t="s">
+        <v>454</v>
+      </c>
+      <c r="E48" t="s">
+        <v>380</v>
+      </c>
+      <c r="F48" t="s">
         <v>455</v>
       </c>
-      <c r="E48" t="s">
-        <v>381</v>
-      </c>
-      <c r="F48" t="s">
-        <v>456</v>
-      </c>
       <c r="G48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -9008,22 +9003,22 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D49" t="s">
+        <v>456</v>
+      </c>
+      <c r="E49" t="s">
+        <v>380</v>
+      </c>
+      <c r="F49" t="s">
         <v>457</v>
       </c>
-      <c r="E49" t="s">
-        <v>381</v>
-      </c>
-      <c r="F49" t="s">
-        <v>458</v>
-      </c>
       <c r="G49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -9052,22 +9047,22 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D50" t="s">
+        <v>458</v>
+      </c>
+      <c r="E50" t="s">
+        <v>380</v>
+      </c>
+      <c r="F50" t="s">
         <v>459</v>
       </c>
-      <c r="E50" t="s">
-        <v>381</v>
-      </c>
-      <c r="F50" t="s">
-        <v>460</v>
-      </c>
       <c r="G50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -9096,22 +9091,22 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D51" t="s">
+        <v>460</v>
+      </c>
+      <c r="E51" t="s">
+        <v>380</v>
+      </c>
+      <c r="F51" t="s">
         <v>461</v>
       </c>
-      <c r="E51" t="s">
-        <v>381</v>
-      </c>
-      <c r="F51" t="s">
-        <v>462</v>
-      </c>
       <c r="G51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -9140,22 +9135,22 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D52" t="s">
+        <v>462</v>
+      </c>
+      <c r="E52" t="s">
+        <v>380</v>
+      </c>
+      <c r="F52" t="s">
         <v>463</v>
       </c>
-      <c r="E52" t="s">
-        <v>381</v>
-      </c>
-      <c r="F52" t="s">
-        <v>464</v>
-      </c>
       <c r="G52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -9184,22 +9179,22 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D53" t="s">
+        <v>464</v>
+      </c>
+      <c r="E53" t="s">
+        <v>380</v>
+      </c>
+      <c r="F53" t="s">
         <v>465</v>
       </c>
-      <c r="E53" t="s">
-        <v>381</v>
-      </c>
-      <c r="F53" t="s">
-        <v>466</v>
-      </c>
       <c r="G53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -9228,22 +9223,22 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D54" t="s">
+        <v>466</v>
+      </c>
+      <c r="E54" t="s">
+        <v>380</v>
+      </c>
+      <c r="F54" t="s">
         <v>467</v>
       </c>
-      <c r="E54" t="s">
-        <v>381</v>
-      </c>
-      <c r="F54" t="s">
-        <v>468</v>
-      </c>
       <c r="G54" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -9272,22 +9267,22 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D55" t="s">
+        <v>468</v>
+      </c>
+      <c r="E55" t="s">
+        <v>380</v>
+      </c>
+      <c r="F55" t="s">
         <v>469</v>
       </c>
-      <c r="E55" t="s">
-        <v>381</v>
-      </c>
-      <c r="F55" t="s">
-        <v>470</v>
-      </c>
       <c r="G55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -9316,22 +9311,22 @@
         <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D56" t="s">
+        <v>470</v>
+      </c>
+      <c r="E56" t="s">
+        <v>383</v>
+      </c>
+      <c r="F56" t="s">
         <v>471</v>
       </c>
-      <c r="E56" t="s">
-        <v>384</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>472</v>
       </c>
-      <c r="G56" t="s">
-        <v>473</v>
-      </c>
       <c r="H56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -9360,22 +9355,22 @@
         <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D57" t="s">
+        <v>473</v>
+      </c>
+      <c r="E57" t="s">
+        <v>383</v>
+      </c>
+      <c r="F57" t="s">
         <v>474</v>
       </c>
-      <c r="E57" t="s">
-        <v>384</v>
-      </c>
-      <c r="F57" t="s">
-        <v>475</v>
-      </c>
       <c r="G57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -9404,22 +9399,22 @@
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D58" t="s">
+        <v>475</v>
+      </c>
+      <c r="E58" t="s">
+        <v>383</v>
+      </c>
+      <c r="F58" t="s">
         <v>476</v>
       </c>
-      <c r="E58" t="s">
-        <v>384</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>477</v>
       </c>
-      <c r="G58" t="s">
-        <v>478</v>
-      </c>
       <c r="H58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -9448,22 +9443,22 @@
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D59" t="s">
+        <v>478</v>
+      </c>
+      <c r="E59" t="s">
+        <v>383</v>
+      </c>
+      <c r="F59" t="s">
         <v>479</v>
       </c>
-      <c r="E59" t="s">
-        <v>384</v>
-      </c>
-      <c r="F59" t="s">
-        <v>480</v>
-      </c>
       <c r="G59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -9492,22 +9487,22 @@
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D60" t="s">
+        <v>480</v>
+      </c>
+      <c r="E60" t="s">
+        <v>383</v>
+      </c>
+      <c r="F60" t="s">
         <v>481</v>
       </c>
-      <c r="E60" t="s">
-        <v>384</v>
-      </c>
-      <c r="F60" t="s">
-        <v>482</v>
-      </c>
       <c r="G60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -9536,19 +9531,19 @@
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D61" t="s">
+        <v>482</v>
+      </c>
+      <c r="E61" t="s">
+        <v>470</v>
+      </c>
+      <c r="F61" t="s">
         <v>483</v>
       </c>
-      <c r="E61" t="s">
-        <v>471</v>
-      </c>
-      <c r="F61" t="s">
-        <v>484</v>
-      </c>
       <c r="H61" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -9577,19 +9572,19 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D62" t="s">
+        <v>484</v>
+      </c>
+      <c r="E62" t="s">
+        <v>470</v>
+      </c>
+      <c r="F62" t="s">
         <v>485</v>
       </c>
-      <c r="E62" t="s">
-        <v>471</v>
-      </c>
-      <c r="F62" t="s">
-        <v>486</v>
-      </c>
       <c r="H62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -9618,19 +9613,19 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D63" t="s">
+        <v>486</v>
+      </c>
+      <c r="E63" t="s">
+        <v>470</v>
+      </c>
+      <c r="F63" t="s">
         <v>487</v>
       </c>
-      <c r="E63" t="s">
-        <v>471</v>
-      </c>
-      <c r="F63" t="s">
-        <v>488</v>
-      </c>
       <c r="H63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -9659,19 +9654,19 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D64" t="s">
+        <v>488</v>
+      </c>
+      <c r="E64" t="s">
+        <v>475</v>
+      </c>
+      <c r="F64" t="s">
         <v>489</v>
       </c>
-      <c r="E64" t="s">
-        <v>476</v>
-      </c>
-      <c r="F64" t="s">
-        <v>490</v>
-      </c>
       <c r="H64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -9700,22 +9695,22 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D65" t="s">
+        <v>490</v>
+      </c>
+      <c r="E65" t="s">
+        <v>480</v>
+      </c>
+      <c r="F65" t="s">
         <v>491</v>
       </c>
-      <c r="E65" t="s">
-        <v>481</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>492</v>
       </c>
-      <c r="G65" t="s">
-        <v>493</v>
-      </c>
       <c r="H65" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -9744,22 +9739,22 @@
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D66" t="s">
+        <v>493</v>
+      </c>
+      <c r="E66" t="s">
+        <v>375</v>
+      </c>
+      <c r="F66" t="s">
         <v>494</v>
       </c>
-      <c r="E66" t="s">
-        <v>376</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>495</v>
       </c>
-      <c r="G66" t="s">
-        <v>496</v>
-      </c>
       <c r="H66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -9788,22 +9783,22 @@
         <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D67" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E67" t="s">
+        <v>377</v>
+      </c>
+      <c r="F67" t="s">
         <v>378</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>379</v>
       </c>
-      <c r="G67" t="s">
-        <v>380</v>
-      </c>
       <c r="H67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -9832,22 +9827,22 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D68" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E68" t="s">
+        <v>386</v>
+      </c>
+      <c r="F68" t="s">
         <v>387</v>
       </c>
-      <c r="F68" t="s">
-        <v>388</v>
-      </c>
       <c r="G68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -9876,16 +9871,16 @@
         <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F69" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -9914,13 +9909,13 @@
         <v>107</v>
       </c>
       <c r="D70" t="s">
+        <v>499</v>
+      </c>
+      <c r="E70" t="s">
         <v>500</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>501</v>
-      </c>
-      <c r="F70" t="s">
-        <v>502</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -9949,19 +9944,19 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D71">
         <v>85757</v>
       </c>
       <c r="E71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F71" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -9990,19 +9985,19 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D72">
         <v>85757</v>
       </c>
       <c r="E72" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H72" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -10031,19 +10026,19 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D73">
         <v>1357</v>
       </c>
       <c r="E73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F73" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -10072,22 +10067,22 @@
         <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D74" t="s">
+        <v>504</v>
+      </c>
+      <c r="E74" t="s">
+        <v>388</v>
+      </c>
+      <c r="F74" t="s">
         <v>505</v>
       </c>
-      <c r="E74" t="s">
-        <v>389</v>
-      </c>
-      <c r="F74" t="s">
-        <v>506</v>
-      </c>
       <c r="G74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -10116,22 +10111,22 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D75" t="s">
+        <v>506</v>
+      </c>
+      <c r="E75" t="s">
+        <v>445</v>
+      </c>
+      <c r="F75" t="s">
         <v>507</v>
       </c>
-      <c r="E75" t="s">
-        <v>446</v>
-      </c>
-      <c r="F75" t="s">
-        <v>508</v>
-      </c>
       <c r="G75" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -10160,22 +10155,22 @@
         <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D76" t="s">
+        <v>508</v>
+      </c>
+      <c r="E76" t="s">
+        <v>445</v>
+      </c>
+      <c r="F76" t="s">
         <v>509</v>
       </c>
-      <c r="E76" t="s">
-        <v>446</v>
-      </c>
-      <c r="F76" t="s">
-        <v>510</v>
-      </c>
       <c r="G76" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -10204,16 +10199,16 @@
         <v>38</v>
       </c>
       <c r="D77" t="s">
+        <v>510</v>
+      </c>
+      <c r="E77" t="s">
+        <v>375</v>
+      </c>
+      <c r="F77" t="s">
         <v>511</v>
       </c>
-      <c r="E77" t="s">
-        <v>376</v>
-      </c>
-      <c r="F77" t="s">
-        <v>512</v>
-      </c>
       <c r="G77" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -10242,22 +10237,22 @@
         <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D78" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E78" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F78" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G78" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -10286,22 +10281,22 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
+        <v>513</v>
+      </c>
+      <c r="E79" t="s">
+        <v>419</v>
+      </c>
+      <c r="F79" t="s">
         <v>514</v>
       </c>
-      <c r="E79" t="s">
-        <v>420</v>
-      </c>
-      <c r="F79" t="s">
-        <v>515</v>
-      </c>
       <c r="G79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -10330,22 +10325,22 @@
         <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D80" t="s">
+        <v>515</v>
+      </c>
+      <c r="E80" t="s">
+        <v>419</v>
+      </c>
+      <c r="F80" t="s">
         <v>516</v>
       </c>
-      <c r="E80" t="s">
-        <v>420</v>
-      </c>
-      <c r="F80" t="s">
-        <v>517</v>
-      </c>
       <c r="G80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -10374,22 +10369,22 @@
         <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D81" t="s">
+        <v>517</v>
+      </c>
+      <c r="E81" t="s">
+        <v>419</v>
+      </c>
+      <c r="F81" t="s">
         <v>518</v>
       </c>
-      <c r="E81" t="s">
-        <v>420</v>
-      </c>
-      <c r="F81" t="s">
-        <v>519</v>
-      </c>
       <c r="G81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -10418,19 +10413,19 @@
         <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D82" t="s">
+        <v>519</v>
+      </c>
+      <c r="E82" t="s">
+        <v>419</v>
+      </c>
+      <c r="F82" t="s">
         <v>520</v>
       </c>
-      <c r="E82" t="s">
-        <v>420</v>
-      </c>
-      <c r="F82" t="s">
-        <v>521</v>
-      </c>
       <c r="H82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -10459,22 +10454,22 @@
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D83" t="s">
+        <v>521</v>
+      </c>
+      <c r="E83" t="s">
+        <v>417</v>
+      </c>
+      <c r="F83" t="s">
         <v>522</v>
       </c>
-      <c r="E83" t="s">
-        <v>418</v>
-      </c>
-      <c r="F83" t="s">
-        <v>523</v>
-      </c>
       <c r="G83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -10503,22 +10498,22 @@
         <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D84" t="s">
+        <v>523</v>
+      </c>
+      <c r="E84" t="s">
+        <v>417</v>
+      </c>
+      <c r="F84" t="s">
         <v>524</v>
       </c>
-      <c r="E84" t="s">
-        <v>418</v>
-      </c>
-      <c r="F84" t="s">
-        <v>525</v>
-      </c>
       <c r="G84" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H84" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -10547,22 +10542,22 @@
         <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D85" t="s">
+        <v>525</v>
+      </c>
+      <c r="E85" t="s">
+        <v>398</v>
+      </c>
+      <c r="F85" t="s">
         <v>526</v>
       </c>
-      <c r="E85" t="s">
-        <v>399</v>
-      </c>
-      <c r="F85" t="s">
-        <v>527</v>
-      </c>
       <c r="G85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -10591,22 +10586,22 @@
         <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D86" t="s">
+        <v>527</v>
+      </c>
+      <c r="E86" t="s">
+        <v>398</v>
+      </c>
+      <c r="F86" t="s">
         <v>528</v>
       </c>
-      <c r="E86" t="s">
-        <v>399</v>
-      </c>
-      <c r="F86" t="s">
-        <v>529</v>
-      </c>
       <c r="G86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -10635,22 +10630,22 @@
         <v>47</v>
       </c>
       <c r="C87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D87" t="s">
+        <v>529</v>
+      </c>
+      <c r="E87" t="s">
+        <v>398</v>
+      </c>
+      <c r="F87" t="s">
         <v>530</v>
       </c>
-      <c r="E87" t="s">
-        <v>399</v>
-      </c>
-      <c r="F87" t="s">
-        <v>531</v>
-      </c>
       <c r="G87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -10679,22 +10674,22 @@
         <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D88" t="s">
+        <v>531</v>
+      </c>
+      <c r="E88" t="s">
+        <v>398</v>
+      </c>
+      <c r="F88" t="s">
         <v>532</v>
       </c>
-      <c r="E88" t="s">
-        <v>399</v>
-      </c>
-      <c r="F88" t="s">
-        <v>533</v>
-      </c>
       <c r="G88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -10723,22 +10718,22 @@
         <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D89" t="s">
+        <v>533</v>
+      </c>
+      <c r="E89" t="s">
+        <v>398</v>
+      </c>
+      <c r="F89" t="s">
         <v>534</v>
       </c>
-      <c r="E89" t="s">
-        <v>399</v>
-      </c>
-      <c r="F89" t="s">
-        <v>535</v>
-      </c>
       <c r="G89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -10767,22 +10762,22 @@
         <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D90" t="s">
+        <v>535</v>
+      </c>
+      <c r="E90" t="s">
+        <v>400</v>
+      </c>
+      <c r="F90" t="s">
         <v>536</v>
       </c>
-      <c r="E90" t="s">
-        <v>401</v>
-      </c>
-      <c r="F90" t="s">
-        <v>537</v>
-      </c>
       <c r="G90" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H90" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -10811,22 +10806,22 @@
         <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D91" t="s">
+        <v>537</v>
+      </c>
+      <c r="E91" t="s">
+        <v>400</v>
+      </c>
+      <c r="F91" t="s">
         <v>538</v>
       </c>
-      <c r="E91" t="s">
-        <v>401</v>
-      </c>
-      <c r="F91" t="s">
-        <v>539</v>
-      </c>
       <c r="G91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -10855,22 +10850,22 @@
         <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D92" t="s">
+        <v>539</v>
+      </c>
+      <c r="E92" t="s">
+        <v>400</v>
+      </c>
+      <c r="F92" t="s">
         <v>540</v>
       </c>
-      <c r="E92" t="s">
-        <v>401</v>
-      </c>
-      <c r="F92" t="s">
-        <v>541</v>
-      </c>
       <c r="G92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -10899,22 +10894,22 @@
         <v>49</v>
       </c>
       <c r="C93" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D93" t="s">
+        <v>541</v>
+      </c>
+      <c r="E93" t="s">
+        <v>402</v>
+      </c>
+      <c r="F93" t="s">
         <v>542</v>
       </c>
-      <c r="E93" t="s">
-        <v>403</v>
-      </c>
-      <c r="F93" t="s">
-        <v>543</v>
-      </c>
       <c r="G93" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H93" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -10943,22 +10938,22 @@
         <v>49</v>
       </c>
       <c r="C94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D94" t="s">
+        <v>543</v>
+      </c>
+      <c r="E94" t="s">
+        <v>402</v>
+      </c>
+      <c r="F94" t="s">
         <v>544</v>
       </c>
-      <c r="E94" t="s">
-        <v>403</v>
-      </c>
-      <c r="F94" t="s">
-        <v>545</v>
-      </c>
       <c r="G94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -10987,22 +10982,22 @@
         <v>49</v>
       </c>
       <c r="C95" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D95" t="s">
+        <v>545</v>
+      </c>
+      <c r="E95" t="s">
+        <v>402</v>
+      </c>
+      <c r="F95" t="s">
         <v>546</v>
       </c>
-      <c r="E95" t="s">
-        <v>403</v>
-      </c>
-      <c r="F95" t="s">
-        <v>547</v>
-      </c>
       <c r="G95" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H95" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -11031,22 +11026,22 @@
         <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D96" t="s">
+        <v>547</v>
+      </c>
+      <c r="E96" t="s">
+        <v>404</v>
+      </c>
+      <c r="F96" t="s">
         <v>548</v>
       </c>
-      <c r="E96" t="s">
-        <v>405</v>
-      </c>
-      <c r="F96" t="s">
-        <v>549</v>
-      </c>
       <c r="G96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -11075,22 +11070,22 @@
         <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D97" t="s">
+        <v>549</v>
+      </c>
+      <c r="E97" t="s">
+        <v>404</v>
+      </c>
+      <c r="F97" t="s">
         <v>550</v>
       </c>
-      <c r="E97" t="s">
-        <v>405</v>
-      </c>
-      <c r="F97" t="s">
-        <v>551</v>
-      </c>
       <c r="G97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -11119,22 +11114,22 @@
         <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D98" t="s">
+        <v>551</v>
+      </c>
+      <c r="E98" t="s">
         <v>552</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>553</v>
       </c>
-      <c r="F98" t="s">
-        <v>554</v>
-      </c>
       <c r="G98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -11163,22 +11158,22 @@
         <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D99" t="s">
+        <v>554</v>
+      </c>
+      <c r="E99" t="s">
         <v>555</v>
       </c>
-      <c r="E99" t="s">
-        <v>556</v>
-      </c>
       <c r="F99" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G99" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H99" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -11207,22 +11202,22 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D100" t="s">
+        <v>556</v>
+      </c>
+      <c r="E100" t="s">
+        <v>375</v>
+      </c>
+      <c r="F100" t="s">
         <v>557</v>
       </c>
-      <c r="E100" t="s">
-        <v>376</v>
-      </c>
-      <c r="F100" t="s">
-        <v>558</v>
-      </c>
       <c r="G100" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -11251,22 +11246,22 @@
         <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D101" t="s">
+        <v>558</v>
+      </c>
+      <c r="E101" t="s">
+        <v>383</v>
+      </c>
+      <c r="F101" t="s">
         <v>559</v>
       </c>
-      <c r="E101" t="s">
-        <v>384</v>
-      </c>
-      <c r="F101" t="s">
-        <v>560</v>
-      </c>
       <c r="G101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -11295,22 +11290,22 @@
         <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D102" t="s">
+        <v>560</v>
+      </c>
+      <c r="E102" t="s">
+        <v>558</v>
+      </c>
+      <c r="F102" t="s">
         <v>561</v>
       </c>
-      <c r="E102" t="s">
-        <v>559</v>
-      </c>
-      <c r="F102" t="s">
-        <v>562</v>
-      </c>
       <c r="G102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -11339,22 +11334,22 @@
         <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D103" t="s">
+        <v>562</v>
+      </c>
+      <c r="E103" t="s">
+        <v>558</v>
+      </c>
+      <c r="F103" t="s">
         <v>563</v>
       </c>
-      <c r="E103" t="s">
-        <v>559</v>
-      </c>
-      <c r="F103" t="s">
-        <v>564</v>
-      </c>
       <c r="G103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -11383,22 +11378,22 @@
         <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D104" t="s">
+        <v>564</v>
+      </c>
+      <c r="E104" t="s">
+        <v>558</v>
+      </c>
+      <c r="F104" t="s">
         <v>565</v>
       </c>
-      <c r="E104" t="s">
-        <v>559</v>
-      </c>
-      <c r="F104" t="s">
-        <v>566</v>
-      </c>
       <c r="G104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -11427,22 +11422,22 @@
         <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D105" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E105" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F105" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G105" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -11471,22 +11466,22 @@
         <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D106" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E106" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F106" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G106" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -11515,22 +11510,22 @@
         <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D107" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -11559,22 +11554,22 @@
         <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D108" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E108" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G108" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -11603,22 +11598,22 @@
         <v>52</v>
       </c>
       <c r="C109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D109" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F109" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G109" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -11647,22 +11642,22 @@
         <v>52</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D110" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E110" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F110" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G110" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -11688,25 +11683,25 @@
         <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D111" t="s">
+        <v>572</v>
+      </c>
+      <c r="E111" t="s">
+        <v>346</v>
+      </c>
+      <c r="F111" t="s">
         <v>573</v>
       </c>
-      <c r="E111" t="s">
-        <v>347</v>
-      </c>
-      <c r="F111" t="s">
-        <v>574</v>
-      </c>
       <c r="G111" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -11735,22 +11730,22 @@
         <v>167</v>
       </c>
       <c r="C112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D112" t="s">
+        <v>574</v>
+      </c>
+      <c r="E112" t="s">
+        <v>572</v>
+      </c>
+      <c r="F112" t="s">
         <v>575</v>
       </c>
-      <c r="E112" t="s">
-        <v>573</v>
-      </c>
-      <c r="F112" t="s">
-        <v>576</v>
-      </c>
       <c r="G112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -11765,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -11779,22 +11774,22 @@
         <v>168</v>
       </c>
       <c r="C113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -11809,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -11823,22 +11818,22 @@
         <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D114" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E114" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F114" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G114" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H114" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I114">
         <v>1</v>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\crawler-scrapy\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="14265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="579">
   <si>
     <t>所属分类</t>
   </si>
@@ -1763,19 +1768,17 @@
   </si>
   <si>
     <t>期刊论文</t>
+  </si>
+  <si>
+    <t>李易</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1825,14 +1828,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1846,31 +1841,8 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1880,17 +1852,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1898,110 +1860,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2014,194 +1889,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2237,261 +1926,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2523,69 +1973,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2593,9 +2016,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2606,131 +2026,121 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="超链接 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2752,7 +2162,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2807,7 +2217,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2862,7 +2272,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2917,7 +2327,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2972,7 +2382,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3027,7 +2437,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3065,7 +2475,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3086,7 +2496,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -3108,7 +2518,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3163,7 +2573,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3201,7 +2611,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3222,7 +2632,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3244,7 +2654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3299,7 +2709,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3337,7 +2747,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3359,7 +2769,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3631,19 +3041,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="4" customWidth="1"/>
@@ -3684,19 +3094,19 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -3704,13 +3114,13 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="A3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -3718,29 +3128,29 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13" t="s">
+      <c r="A4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>13</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="14" t="s">
+      <c r="A5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -3748,13 +3158,13 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17" t="s">
+      <c r="A6" s="46"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -3762,57 +3172,57 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17" t="s">
+      <c r="A7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:8">
-      <c r="A8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+    <row r="8" spans="1:8" ht="27">
+      <c r="A8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="19" t="s">
+    <row r="9" spans="1:8" ht="27">
+      <c r="A9" s="46"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="19" t="s">
+    <row r="10" spans="1:8" ht="27">
+      <c r="A10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -3820,15 +3230,15 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="20" t="s">
+      <c r="A11" s="46"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -3836,13 +3246,13 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="12" t="s">
+      <c r="A12" s="46"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -3850,15 +3260,15 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
+      <c r="A13" s="46"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="8" t="s">
@@ -3866,13 +3276,13 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="19" t="s">
+      <c r="A14" s="46"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -3880,15 +3290,15 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="46"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -3896,13 +3306,13 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="19" t="s">
+      <c r="A16" s="46"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -3910,13 +3320,13 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="19" t="s">
+      <c r="A17" s="46"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -3924,29 +3334,29 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
+      <c r="A18" s="46"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="22" t="s">
+      <c r="G18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
+      <c r="A19" s="46"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -3954,13 +3364,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
+      <c r="A20" s="46"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="8" t="s">
@@ -3968,15 +3378,15 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="20" t="s">
+      <c r="A21" s="46"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="8" t="s">
@@ -3984,13 +3394,13 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="12" t="s">
+      <c r="A22" s="46"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3998,60 +3408,60 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11" t="s">
+      <c r="A23" s="46"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="22" t="s">
+      <c r="G23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="19" t="s">
+      <c r="A24" s="46"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:8">
-      <c r="A25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11" t="s">
+    <row r="25" spans="1:8" ht="27">
+      <c r="A25" s="46"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" ht="27" spans="1:8">
-      <c r="A26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12" t="s">
+    <row r="26" spans="1:8" ht="27">
+      <c r="A26" s="46"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -4059,79 +3469,79 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11" t="s">
+      <c r="A27" s="46"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="22" t="s">
+      <c r="G27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="24" t="s">
+      <c r="A28" s="46"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="22" t="s">
+      <c r="G28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" ht="27" spans="1:8">
-      <c r="A29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11" t="s">
+    <row r="29" spans="1:8" ht="27">
+      <c r="A29" s="46"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" ht="27" spans="1:8">
-      <c r="A30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="25" t="s">
+    <row r="30" spans="1:8" ht="27">
+      <c r="A30" s="46"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:8">
-      <c r="A31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="25" t="s">
+    <row r="31" spans="1:8" ht="27">
+      <c r="A31" s="46"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -4139,59 +3549,59 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11" t="s">
+      <c r="A32" s="46"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:8">
-      <c r="A33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12" t="s">
+    <row r="33" spans="1:8" ht="27">
+      <c r="A33" s="46"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:8">
-      <c r="A34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11" t="s">
+    <row r="34" spans="1:8" ht="27">
+      <c r="A34" s="46"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="1:8">
-      <c r="A35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="26" t="s">
+    <row r="35" spans="1:8" ht="27">
+      <c r="A35" s="46"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -4199,59 +3609,59 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="26" t="s">
+      <c r="A36" s="46"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:8">
-      <c r="A37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11" t="s">
+    <row r="37" spans="1:8" ht="27">
+      <c r="A37" s="46"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="22" t="s">
+      <c r="G37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:8">
-      <c r="A38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="25" t="s">
+    <row r="38" spans="1:8" ht="27">
+      <c r="A38" s="46"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="22" t="s">
+      <c r="G38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11" t="s">
+      <c r="A39" s="46"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="8" t="s">
@@ -4259,13 +3669,13 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="26" t="s">
+      <c r="A40" s="46"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -4273,29 +3683,29 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="26" t="s">
+      <c r="A41" s="46"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11" t="s">
+    <row r="42" spans="1:8" ht="33">
+      <c r="A42" s="46"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="8" t="s">
@@ -4303,13 +3713,13 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="27" t="s">
+      <c r="A43" s="46"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -4317,15 +3727,15 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11" t="s">
+      <c r="A44" s="46"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -4333,29 +3743,29 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="27" t="s">
+      <c r="A45" s="46"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" ht="27" spans="1:8">
-      <c r="A46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11" t="s">
+    <row r="46" spans="1:8" ht="27">
+      <c r="A46" s="46"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="8" t="s">
@@ -4363,13 +3773,13 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="27" t="s">
+      <c r="A47" s="46"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="8" t="s">
@@ -4377,13 +3787,13 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="27" t="s">
+      <c r="A48" s="46"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="8" t="s">
@@ -4391,29 +3801,29 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="27" t="s">
+      <c r="A49" s="46"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11" t="s">
+    <row r="50" spans="1:8" ht="33">
+      <c r="A50" s="46"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="8" t="s">
@@ -4421,13 +3831,13 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="27" t="s">
+      <c r="A51" s="46"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="8" t="s">
@@ -4435,15 +3845,15 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11" t="s">
+      <c r="A52" s="46"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="8" t="s">
@@ -4451,13 +3861,13 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="27" t="s">
+      <c r="A53" s="46"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -4465,13 +3875,13 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="27" t="s">
+      <c r="A54" s="46"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -4479,15 +3889,15 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="11" t="s">
+      <c r="A55" s="46"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -4495,13 +3905,13 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="27" t="s">
+      <c r="A56" s="46"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -4509,15 +3919,15 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11" t="s">
+      <c r="A57" s="46"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -4525,13 +3935,13 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="27" t="s">
+      <c r="A58" s="46"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="8" t="s">
@@ -4539,15 +3949,15 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="11" t="s">
+      <c r="A59" s="46"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="8" t="s">
@@ -4555,13 +3965,13 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="27" t="s">
+      <c r="A60" s="46"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="8" t="s">
@@ -4569,15 +3979,15 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="11" t="s">
+      <c r="A61" s="46"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="8" t="s">
@@ -4585,13 +3995,13 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="27" t="s">
+      <c r="A62" s="46"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="8" t="s">
@@ -4599,13 +4009,13 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="27" t="s">
+      <c r="A63" s="46"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="8" t="s">
@@ -4613,15 +4023,15 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="11" t="s">
+      <c r="A64" s="46"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="8" t="s">
@@ -4629,59 +4039,59 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="27" t="s">
+      <c r="A65" s="46"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" ht="28.5" spans="1:8">
-      <c r="A66" s="9"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11" t="s">
+    <row r="66" spans="1:8" ht="33">
+      <c r="A66" s="46"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" ht="28.5" spans="1:8">
-      <c r="A67" s="9"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="27" t="s">
+    <row r="67" spans="1:8" ht="33">
+      <c r="A67" s="46"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" ht="42.75" spans="1:8">
-      <c r="A68" s="9"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11" t="s">
+    <row r="68" spans="1:8" ht="66">
+      <c r="A68" s="46"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E68" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="8" t="s">
@@ -4689,13 +4099,13 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="9"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="29" t="s">
+      <c r="A69" s="46"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="8" t="s">
@@ -4703,87 +4113,87 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="27" t="s">
+      <c r="A70" s="46"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" ht="28.5" spans="1:8">
-      <c r="A71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11" t="s">
+    <row r="71" spans="1:8" ht="33">
+      <c r="A71" s="46"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" ht="28.5" spans="1:8">
-      <c r="A72" s="9"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="27" t="s">
+    <row r="72" spans="1:8" ht="33">
+      <c r="A72" s="46"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G72" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" ht="28.5" spans="1:8">
-      <c r="A73" s="9"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11" t="s">
+    <row r="73" spans="1:8" ht="33">
+      <c r="A73" s="46"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G73" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" ht="28.5" spans="1:8">
-      <c r="A74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="27" t="s">
+    <row r="74" spans="1:8" ht="33">
+      <c r="A74" s="46"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="G74" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" ht="28.5" spans="1:8">
-      <c r="A75" s="9"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="27" t="s">
+    <row r="75" spans="1:8" ht="33">
+      <c r="A75" s="46"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="8" t="s">
@@ -4791,15 +4201,15 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="9"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="11" t="s">
+      <c r="A76" s="46"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G76" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="8" t="s">
@@ -4807,29 +4217,29 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="29" t="s">
+      <c r="A77" s="46"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" ht="57" spans="1:8">
-      <c r="A78" s="9"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="11" t="s">
+    <row r="78" spans="1:8" ht="66">
+      <c r="A78" s="46"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="G78" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="8" t="s">
@@ -4837,167 +4247,167 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="9"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="29" t="s">
+      <c r="A79" s="46"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" ht="81" spans="1:8">
+    <row r="80" spans="1:8" ht="99">
       <c r="A80" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="31" t="s">
+      <c r="D80" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="81" ht="28.5" spans="1:7">
-      <c r="A81" s="9" t="s">
+    <row r="81" spans="1:8" ht="33">
+      <c r="A81" s="46" t="s">
         <v>130</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C81" s="32" t="s">
+      <c r="C81" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="82" ht="28.5" spans="1:7">
-      <c r="A82" s="9"/>
+    <row r="82" spans="1:8" ht="33">
+      <c r="A82" s="46"/>
       <c r="B82" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C82" s="32" t="s">
+      <c r="C82" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E82" s="29" t="s">
+      <c r="E82" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="G82" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" ht="54" spans="1:7">
-      <c r="A83" s="34" t="s">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A83" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="37" t="s">
+      <c r="D83" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="38" t="s">
+      <c r="E83" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="F83" s="35"/>
-      <c r="G83" s="11" t="s">
+      <c r="F83" s="25"/>
+      <c r="G83" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1" ht="54" spans="1:7">
-      <c r="A84" s="34"/>
-      <c r="B84" s="35" t="s">
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A84" s="47"/>
+      <c r="B84" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F84" s="35"/>
-      <c r="G84" s="11" t="s">
+      <c r="F84" s="25"/>
+      <c r="G84" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" ht="99.75" spans="1:7">
-      <c r="A85" s="34"/>
-      <c r="B85" s="35" t="s">
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
+      <c r="A85" s="47"/>
+      <c r="B85" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="37" t="s">
+      <c r="D85" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E85" s="29" t="s">
+      <c r="E85" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="11" t="s">
+      <c r="F85" s="25"/>
+      <c r="G85" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" s="3" customFormat="1" ht="54" spans="1:8">
-      <c r="A86" s="34"/>
-      <c r="B86" s="35" t="s">
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A86" s="47"/>
+      <c r="B86" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="37" t="s">
+      <c r="D86" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="E86" s="29" t="s">
+      <c r="E86" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="35"/>
-      <c r="G86" s="11" t="s">
+      <c r="F86" s="25"/>
+      <c r="G86" s="10" t="s">
         <v>142</v>
       </c>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="46" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="49" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -5006,33 +4416,33 @@
       <c r="E87" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9" t="s">
+    <row r="88" spans="1:8">
+      <c r="A88" s="46"/>
+      <c r="B88" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="39"/>
+      <c r="C88" s="49"/>
       <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="G88" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="39"/>
+      <c r="G88" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="6" t="s">
         <v>16</v>
       </c>
@@ -5042,257 +4452,257 @@
       <c r="F89" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G89" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="39"/>
+      <c r="G89" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="29" t="s">
+      <c r="E90" s="20" t="s">
         <v>155</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G90" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" ht="28.5" spans="1:7">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="39"/>
+      <c r="G90" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="33">
+      <c r="A91" s="46"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="29" t="s">
+      <c r="E91" s="20" t="s">
         <v>157</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G91" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" ht="28.5" spans="1:7">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="39"/>
+      <c r="G91" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="33">
+      <c r="A92" s="46"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="40" t="s">
+      <c r="E92" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G92" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="39"/>
+      <c r="G92" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="46"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E93" s="20" t="s">
         <v>160</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G93" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="39"/>
+      <c r="G93" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="46"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="49"/>
       <c r="D94" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="20" t="s">
         <v>161</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G94" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="39"/>
+      <c r="G94" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E95" s="29" t="s">
+      <c r="E95" s="20" t="s">
         <v>162</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G95" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" ht="28.5" spans="1:7">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="39"/>
+      <c r="G95" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="33">
+      <c r="A96" s="46"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E96" s="41" t="s">
+      <c r="E96" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="G96" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" ht="28.5" spans="1:7">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="39"/>
+      <c r="G96" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="33">
+      <c r="A97" s="46"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="49"/>
       <c r="D97" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E97" s="41" t="s">
+      <c r="E97" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="G97" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="39"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="49"/>
       <c r="D98" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="29" t="s">
+      <c r="E98" s="20" t="s">
         <v>166</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G98" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="39"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="49"/>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="20" t="s">
         <v>168</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G99" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" ht="28.5" spans="1:7">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="39"/>
+      <c r="G99" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="33">
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="49"/>
       <c r="D100" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E100" s="41" t="s">
+      <c r="E100" s="30" t="s">
         <v>170</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="G100" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="39"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="29" t="s">
+      <c r="E101" s="20" t="s">
         <v>171</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G101" s="11" t="s">
+      <c r="G101" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="39"/>
+      <c r="A102" s="46"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="49"/>
       <c r="D102" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="29" t="s">
+      <c r="E102" s="20" t="s">
         <v>172</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G102" s="11" t="s">
+      <c r="G102" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="39"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="49"/>
       <c r="D103" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="29" t="s">
+      <c r="E103" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="G103" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" ht="28.5" spans="1:7">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="39"/>
+      <c r="G103" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="33">
+      <c r="A104" s="46"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="49"/>
       <c r="D104" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="41" t="s">
+      <c r="E104" s="30" t="s">
         <v>174</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G104" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" ht="28.5" spans="1:7">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="39"/>
+      <c r="G104" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="33">
+      <c r="A105" s="46"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="49"/>
       <c r="D105" s="6" t="s">
         <v>97</v>
       </c>
@@ -5302,127 +4712,127 @@
       <c r="F105" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G105" s="11" t="s">
+      <c r="G105" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="39"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="49"/>
       <c r="D106" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="20" t="s">
         <v>176</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G106" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" ht="28.5" spans="1:7">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="39"/>
+      <c r="G106" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="33">
+      <c r="A107" s="46"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="49"/>
       <c r="D107" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E107" s="29" t="s">
+      <c r="E107" s="20" t="s">
         <v>177</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="39"/>
+      <c r="A108" s="46"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E108" s="29" t="s">
+      <c r="E108" s="20" t="s">
         <v>179</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G108" s="11" t="s">
+      <c r="G108" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="39"/>
+      <c r="A109" s="46"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="E109" s="20" t="s">
         <v>180</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="G109" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="39"/>
+      <c r="A110" s="46"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="49"/>
       <c r="D110" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E110" s="29" t="s">
+      <c r="E110" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="G110" s="11" t="s">
+      <c r="G110" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="39"/>
+      <c r="A111" s="46"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="49"/>
       <c r="D111" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E111" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="G111" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" ht="28.5" spans="1:7">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="39"/>
+      <c r="G111" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="33">
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="49"/>
       <c r="D112" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="41" t="s">
+      <c r="E112" s="30" t="s">
         <v>184</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G112" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="39"/>
+      <c r="G112" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="46"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="49"/>
       <c r="D113" s="6" t="s">
         <v>73</v>
       </c>
@@ -5432,1218 +4842,1218 @@
       <c r="F113" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G113" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="39"/>
+      <c r="G113" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="46"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="49"/>
       <c r="D114" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E114" s="29" t="s">
+      <c r="E114" s="20" t="s">
         <v>187</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G114" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" ht="28.5" spans="1:7">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="39"/>
+      <c r="G114" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="33">
+      <c r="A115" s="46"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="49"/>
       <c r="D115" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="41" t="s">
+      <c r="E115" s="30" t="s">
         <v>188</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G115" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" ht="28.5" spans="1:7">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="39"/>
+      <c r="G115" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="33">
+      <c r="A116" s="46"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="49"/>
       <c r="D116" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E116" s="29" t="s">
+      <c r="E116" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G116" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" ht="28.5" spans="1:7">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="39"/>
+      <c r="G116" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="33">
+      <c r="A117" s="46"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="49"/>
       <c r="D117" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="29" t="s">
+      <c r="E117" s="20" t="s">
         <v>190</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G117" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="39"/>
+      <c r="G117" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="46"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="49"/>
       <c r="D118" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E118" s="41" t="s">
+      <c r="E118" s="30" t="s">
         <v>191</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G118" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" s="3" customFormat="1" spans="1:11">
-      <c r="A119" s="9"/>
-      <c r="B119" s="34" t="s">
+      <c r="G118" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A119" s="46"/>
+      <c r="B119" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="39"/>
-      <c r="D119" s="42" t="s">
+      <c r="C119" s="49"/>
+      <c r="D119" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="43" t="s">
+      <c r="E119" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="F119" s="35" t="s">
+      <c r="F119" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="G119" s="11" t="s">
+      <c r="G119" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H119" s="44"/>
-      <c r="I119" s="44"/>
-      <c r="J119" s="44"/>
-      <c r="K119" s="44"/>
-    </row>
-    <row r="120" s="3" customFormat="1" ht="54" spans="1:11">
-      <c r="A120" s="9"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="42" t="s">
+      <c r="H119" s="33"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="33"/>
+    </row>
+    <row r="120" spans="1:11" s="3" customFormat="1" ht="66">
+      <c r="A120" s="46"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="29" t="s">
+      <c r="E120" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="F120" s="43" t="s">
+      <c r="F120" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G120" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I120" s="44"/>
-      <c r="J120" s="44"/>
-      <c r="K120" s="44"/>
-    </row>
-    <row r="121" s="3" customFormat="1" spans="1:11">
-      <c r="A121" s="9"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="42" t="s">
+      <c r="I120" s="33"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="33"/>
+    </row>
+    <row r="121" spans="1:11" s="3" customFormat="1">
+      <c r="A121" s="46"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E121" s="43" t="s">
+      <c r="E121" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="F121" s="43" t="s">
+      <c r="F121" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="G121" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="44"/>
-      <c r="J121" s="44"/>
-      <c r="K121" s="44"/>
-    </row>
-    <row r="122" s="3" customFormat="1" spans="1:10">
-      <c r="A122" s="9"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="42" t="s">
+      <c r="G121" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="33"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="33"/>
+    </row>
+    <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A122" s="46"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E122" s="43" t="s">
+      <c r="E122" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F122" s="35" t="s">
+      <c r="F122" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="G122" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="44"/>
-      <c r="J122" s="44"/>
-    </row>
-    <row r="123" s="3" customFormat="1" ht="40.5" spans="1:10">
-      <c r="A123" s="9"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="42" t="s">
+      <c r="G122" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="33"/>
+      <c r="J122" s="33"/>
+    </row>
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A123" s="46"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="29" t="s">
+      <c r="E123" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="F123" s="43" t="s">
+      <c r="F123" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="G123" s="11" t="s">
+      <c r="G123" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I123" s="44"/>
-      <c r="J123" s="44"/>
-    </row>
-    <row r="124" s="3" customFormat="1" ht="42.75" spans="1:10">
-      <c r="A124" s="9"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="42" t="s">
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
+    </row>
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A124" s="46"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="49"/>
+      <c r="D124" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="E124" s="29" t="s">
+      <c r="E124" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F124" s="43" t="s">
+      <c r="F124" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="G124" s="11" t="s">
+      <c r="G124" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I124" s="44"/>
-      <c r="J124" s="44"/>
-    </row>
-    <row r="125" s="3" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A125" s="9"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="42" t="s">
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+    </row>
+    <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A125" s="46"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E125" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="F125" s="43" t="s">
+      <c r="F125" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G125" s="11" t="s">
+      <c r="G125" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I125" s="44"/>
-      <c r="J125" s="44"/>
-    </row>
-    <row r="126" s="3" customFormat="1" ht="42.75" spans="1:7">
-      <c r="A126" s="9"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="42" t="s">
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
+    </row>
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A126" s="46"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="29" t="s">
+      <c r="E126" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="F126" s="43" t="s">
+      <c r="F126" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G126" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" s="3" customFormat="1" ht="42.75" spans="1:7">
-      <c r="A127" s="9"/>
-      <c r="B127" s="34"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="45" t="s">
+      <c r="G126" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A127" s="46"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="49"/>
+      <c r="D127" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E127" s="29" t="s">
+      <c r="E127" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="F127" s="43" t="s">
+      <c r="F127" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G127" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" s="3" customFormat="1" spans="1:7">
-      <c r="A128" s="9"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="45" t="s">
+      <c r="G127" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="3" customFormat="1">
+      <c r="A128" s="46"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="29" t="s">
+      <c r="E128" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="F128" s="43" t="s">
+      <c r="F128" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G128" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" s="3" customFormat="1" ht="42.75" spans="1:10">
-      <c r="A129" s="9"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="45" t="s">
+      <c r="G128" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A129" s="46"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E129" s="29" t="s">
+      <c r="E129" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="F129" s="43" t="s">
+      <c r="F129" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G129" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="46"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="44"/>
-    </row>
-    <row r="130" s="3" customFormat="1" ht="42.75" spans="1:10">
-      <c r="A130" s="9"/>
-      <c r="B130" s="34"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="45" t="s">
+      <c r="G129" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="35"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="33"/>
+    </row>
+    <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A130" s="46"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="29" t="s">
+      <c r="E130" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F130" s="43" t="s">
+      <c r="F130" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="G130" s="11" t="s">
+      <c r="G130" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J130" s="44"/>
-    </row>
-    <row r="131" s="3" customFormat="1" ht="42.75" spans="1:7">
-      <c r="A131" s="9"/>
-      <c r="B131" s="34"/>
-      <c r="C131" s="39"/>
-      <c r="D131" s="45" t="s">
+      <c r="J130" s="33"/>
+    </row>
+    <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A131" s="46"/>
+      <c r="B131" s="47"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E131" s="43" t="s">
+      <c r="E131" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="F131" s="43" t="s">
+      <c r="F131" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="G131" s="11" t="s">
+      <c r="G131" s="10" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="132" s="3" customFormat="1" spans="1:7">
-      <c r="A132" s="9"/>
-      <c r="B132" s="34"/>
-      <c r="C132" s="39"/>
-      <c r="D132" s="45" t="s">
+    <row r="132" spans="1:10" s="3" customFormat="1">
+      <c r="A132" s="46"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E132" s="43" t="s">
+      <c r="E132" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F132" s="43"/>
-      <c r="G132" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" s="3" customFormat="1" ht="28.5" spans="1:7">
-      <c r="A133" s="9"/>
-      <c r="B133" s="34"/>
-      <c r="C133" s="39"/>
-      <c r="D133" s="45" t="s">
+      <c r="F132" s="32"/>
+      <c r="G132" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A133" s="46"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="E133" s="29" t="s">
+      <c r="E133" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F133" s="43" t="s">
+      <c r="F133" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G133" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" s="3" customFormat="1" ht="28.5" spans="1:9">
-      <c r="A134" s="9"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="39"/>
-      <c r="D134" s="45" t="s">
+      <c r="G133" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A134" s="46"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E134" s="29" t="s">
+      <c r="E134" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="F134" s="43" t="s">
+      <c r="F134" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G134" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="46"/>
-      <c r="I134" s="44"/>
-    </row>
-    <row r="135" s="3" customFormat="1" ht="28.5" spans="1:9">
-      <c r="A135" s="9"/>
-      <c r="B135" s="34"/>
-      <c r="C135" s="39"/>
-      <c r="D135" s="45" t="s">
+      <c r="G134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="35"/>
+      <c r="I134" s="33"/>
+    </row>
+    <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A135" s="46"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E135" s="29" t="s">
+      <c r="E135" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="F135" s="47" t="s">
+      <c r="F135" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="G135" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="46"/>
-      <c r="I135" s="44"/>
-    </row>
-    <row r="136" s="3" customFormat="1" ht="42.75" spans="1:9">
-      <c r="A136" s="9"/>
-      <c r="B136" s="34"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="42" t="s">
+      <c r="G135" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="35"/>
+      <c r="I135" s="33"/>
+    </row>
+    <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A136" s="46"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="49"/>
+      <c r="D136" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E136" s="29" t="s">
+      <c r="E136" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F136" s="47"/>
-      <c r="G136" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="46"/>
-      <c r="I136" s="44"/>
-    </row>
-    <row r="137" s="3" customFormat="1" ht="54" spans="1:7">
-      <c r="A137" s="9" t="s">
+      <c r="F136" s="36"/>
+      <c r="G136" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="35"/>
+      <c r="I136" s="33"/>
+    </row>
+    <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
+      <c r="A137" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C137" s="48" t="s">
+      <c r="C137" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="D137" s="49" t="s">
+      <c r="D137" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E137" s="29" t="s">
+      <c r="E137" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="F137" s="48"/>
-      <c r="G137" s="48"/>
-    </row>
-    <row r="138" s="3" customFormat="1" ht="81.75" spans="1:7">
-      <c r="A138" s="9"/>
-      <c r="B138" s="35" t="s">
+      <c r="F137" s="37"/>
+      <c r="G137" s="37"/>
+    </row>
+    <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A138" s="46"/>
+      <c r="B138" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C138" s="48" t="s">
+      <c r="C138" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="D138" s="49" t="s">
+      <c r="D138" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E138" s="29" t="s">
+      <c r="E138" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="F138" s="48"/>
-      <c r="G138" s="48"/>
-    </row>
-    <row r="139" s="3" customFormat="1" ht="81.75" spans="1:7">
-      <c r="A139" s="9"/>
-      <c r="B139" s="35" t="s">
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
+    </row>
+    <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A139" s="46"/>
+      <c r="B139" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C139" s="48" t="s">
+      <c r="C139" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="D139" s="49" t="s">
+      <c r="D139" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E139" s="29" t="s">
+      <c r="E139" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="F139" s="48"/>
-      <c r="G139" s="48"/>
-    </row>
-    <row r="140" s="3" customFormat="1" ht="40.5" spans="1:7">
-      <c r="A140" s="9"/>
-      <c r="B140" s="35" t="s">
+      <c r="F139" s="37"/>
+      <c r="G139" s="37"/>
+    </row>
+    <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A140" s="46"/>
+      <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="48" t="s">
+      <c r="C140" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="D140" s="49" t="s">
+      <c r="D140" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E140" s="29" t="s">
+      <c r="E140" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="F140" s="48"/>
-      <c r="G140" s="48"/>
-    </row>
-    <row r="141" s="3" customFormat="1" ht="67.5" spans="1:7">
-      <c r="A141" s="9"/>
-      <c r="B141" s="35" t="s">
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+    </row>
+    <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
+      <c r="A141" s="46"/>
+      <c r="B141" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C141" s="48" t="s">
+      <c r="C141" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="D141" s="49" t="s">
+      <c r="D141" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E141" s="29" t="s">
+      <c r="E141" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="F141" s="48"/>
-      <c r="G141" s="48"/>
-    </row>
-    <row r="142" s="3" customFormat="1" ht="94.5" spans="1:7">
-      <c r="A142" s="9"/>
-      <c r="B142" s="35" t="s">
+      <c r="F141" s="37"/>
+      <c r="G141" s="37"/>
+    </row>
+    <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
+      <c r="A142" s="46"/>
+      <c r="B142" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C142" s="48" t="s">
+      <c r="C142" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="D142" s="49" t="s">
+      <c r="D142" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E142" s="29" t="s">
+      <c r="E142" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
-    </row>
-    <row r="143" s="3" customFormat="1" ht="27" spans="1:7">
-      <c r="A143" s="9"/>
-      <c r="B143" s="35" t="s">
+      <c r="F142" s="37"/>
+      <c r="G142" s="37"/>
+    </row>
+    <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A143" s="46"/>
+      <c r="B143" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C143" s="48" t="s">
+      <c r="C143" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="D143" s="49" t="s">
+      <c r="D143" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E143" s="29" t="s">
+      <c r="E143" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="F143" s="48"/>
-      <c r="G143" s="48"/>
-    </row>
-    <row r="144" ht="40.5" spans="1:7">
-      <c r="A144" s="9"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="37"/>
+    </row>
+    <row r="144" spans="1:10" ht="49.5">
+      <c r="A144" s="46"/>
       <c r="B144" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C144" s="50" t="s">
+      <c r="C144" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="D144" s="49" t="s">
+      <c r="D144" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E144" s="51" t="s">
+      <c r="E144" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="G144" s="11" t="s">
+      <c r="G144" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="145" ht="56.25" spans="1:7">
-      <c r="A145" s="9" t="s">
+    <row r="145" spans="1:7" ht="66">
+      <c r="A145" s="46" t="s">
         <v>246</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C145" s="52" t="s">
+      <c r="C145" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D145" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="E145" s="29" t="s">
+      <c r="E145" s="20" t="s">
         <v>250</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G145" s="11" t="s">
+      <c r="G145" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="9"/>
-      <c r="C146" s="52"/>
-      <c r="D146" s="53" t="s">
+      <c r="A146" s="46"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="E146" s="29" t="s">
+      <c r="E146" s="20" t="s">
         <v>253</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G146" s="11" t="s">
+      <c r="G146" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="9"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="53" t="s">
+      <c r="A147" s="46"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="E147" s="29" t="s">
+      <c r="E147" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="G147" s="11" t="s">
+      <c r="G147" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="9"/>
-      <c r="C148" s="52"/>
-      <c r="D148" s="53" t="s">
+      <c r="A148" s="46"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="E148" s="29" t="s">
+      <c r="E148" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="G148" s="11" t="s">
+      <c r="G148" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="9"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="53" t="s">
+      <c r="A149" s="46"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="E149" s="29" t="s">
+      <c r="E149" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="G149" s="11" t="s">
+      <c r="G149" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="9"/>
-      <c r="C150" s="52"/>
-      <c r="D150" s="53" t="s">
+      <c r="A150" s="46"/>
+      <c r="C150" s="50"/>
+      <c r="D150" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="E150" s="29" t="s">
+      <c r="E150" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G150" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" ht="28.5" spans="1:7">
-      <c r="A151" s="9"/>
-      <c r="C151" s="52"/>
-      <c r="D151" s="53" t="s">
+      <c r="G150" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="33">
+      <c r="A151" s="46"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="41" t="s">
         <v>263</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="G151" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="9"/>
-      <c r="C152" s="52"/>
-      <c r="D152" s="53" t="s">
+      <c r="A152" s="46"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="E152" s="29" t="s">
+      <c r="E152" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="G152" s="11" t="s">
+      <c r="G152" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="9"/>
-      <c r="C153" s="52"/>
-      <c r="D153" s="53" t="s">
+      <c r="A153" s="46"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="E153" s="29" t="s">
+      <c r="E153" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="G153" s="11" t="s">
+      <c r="G153" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="9"/>
-      <c r="C154" s="52"/>
-      <c r="D154" s="53" t="s">
+      <c r="A154" s="46"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="E154" s="29" t="s">
+      <c r="E154" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="G154" s="11" t="s">
+      <c r="G154" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="9"/>
-      <c r="C155" s="52"/>
-      <c r="D155" s="53" t="s">
+      <c r="A155" s="46"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="E155" s="29" t="s">
+      <c r="E155" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="G155" s="11" t="s">
+      <c r="G155" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="9"/>
-      <c r="C156" s="52"/>
-      <c r="D156" s="53" t="s">
+      <c r="A156" s="46"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="E156" s="29" t="s">
+      <c r="E156" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="G156" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" ht="28.5" spans="1:7">
-      <c r="A157" s="9"/>
-      <c r="C157" s="52"/>
-      <c r="D157" s="53" t="s">
+      <c r="G156" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="33">
+      <c r="A157" s="46"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="E157" s="29" t="s">
+      <c r="E157" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="G157" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" ht="42.75" spans="1:7">
-      <c r="A158" s="9" t="s">
+      <c r="G157" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="49.5">
+      <c r="A158" s="46" t="s">
         <v>246</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C158" s="52" t="s">
+      <c r="C158" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D158" s="53" t="s">
+      <c r="D158" s="41" t="s">
         <v>252</v>
       </c>
       <c r="E158" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="G158" s="11" t="s">
+      <c r="G158" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="9"/>
-      <c r="C159" s="52"/>
-      <c r="D159" s="53" t="s">
+      <c r="A159" s="46"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="E159" s="29" t="s">
+      <c r="E159" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="G159" s="11" t="s">
+      <c r="G159" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="9"/>
-      <c r="C160" s="52"/>
-      <c r="D160" s="53" t="s">
+      <c r="A160" s="46"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="41" t="s">
         <v>265</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G160" s="11" t="s">
+      <c r="G160" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="9"/>
-      <c r="C161" s="52"/>
-      <c r="D161" s="53" t="s">
+      <c r="A161" s="46"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="E161" s="29" t="s">
+      <c r="E161" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G161" s="11" t="s">
+      <c r="G161" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="9"/>
-      <c r="C162" s="52"/>
-      <c r="D162" s="53" t="s">
+      <c r="A162" s="46"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="E162" s="29" t="s">
+      <c r="E162" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="G162" s="11" t="s">
+      <c r="G162" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="9"/>
-      <c r="C163" s="52"/>
-      <c r="D163" s="53" t="s">
+      <c r="A163" s="46"/>
+      <c r="C163" s="50"/>
+      <c r="D163" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="E163" s="29" t="s">
+      <c r="E163" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G163" s="11" t="s">
+      <c r="G163" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="9"/>
-      <c r="C164" s="52"/>
-      <c r="D164" s="53" t="s">
+      <c r="A164" s="46"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="E164" s="29" t="s">
+      <c r="E164" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="G164" s="11" t="s">
+      <c r="G164" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="46" t="s">
         <v>246</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C165" s="52" t="s">
+      <c r="C165" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="D165" s="53" t="s">
+      <c r="D165" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="E165" s="29" t="s">
+      <c r="E165" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="G165" s="11" t="s">
+      <c r="G165" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="9"/>
-      <c r="C166" s="52"/>
-      <c r="D166" s="53" t="s">
+      <c r="A166" s="46"/>
+      <c r="C166" s="50"/>
+      <c r="D166" s="41" t="s">
         <v>255</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G166" s="11" t="s">
+      <c r="G166" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="9"/>
-      <c r="C167" s="52"/>
-      <c r="D167" s="53" t="s">
+      <c r="A167" s="46"/>
+      <c r="C167" s="50"/>
+      <c r="D167" s="41" t="s">
         <v>257</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="G167" s="11" t="s">
+      <c r="G167" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="9"/>
-      <c r="C168" s="52"/>
-      <c r="D168" s="53" t="s">
+      <c r="A168" s="46"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="41" t="s">
         <v>259</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="G168" s="11" t="s">
+      <c r="G168" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="9"/>
-      <c r="C169" s="52"/>
-      <c r="D169" s="53" t="s">
+      <c r="A169" s="46"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="41" t="s">
         <v>291</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="G169" s="11" t="s">
+      <c r="G169" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="9"/>
-      <c r="C170" s="52"/>
-      <c r="D170" s="53" t="s">
+      <c r="A170" s="46"/>
+      <c r="C170" s="50"/>
+      <c r="D170" s="41" t="s">
         <v>263</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G170" s="11" t="s">
+      <c r="G170" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="9"/>
-      <c r="C171" s="52"/>
+      <c r="A171" s="46"/>
+      <c r="C171" s="50"/>
       <c r="D171" s="7" t="s">
         <v>294</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G171" s="11" t="s">
+      <c r="G171" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="9"/>
-      <c r="C172" s="52"/>
-      <c r="D172" s="53" t="s">
+      <c r="A172" s="46"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="41" t="s">
         <v>269</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G172" s="11" t="s">
+      <c r="G172" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="9"/>
-      <c r="C173" s="52"/>
-      <c r="D173" s="53" t="s">
+      <c r="A173" s="46"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="41" t="s">
         <v>271</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G173" s="11" t="s">
+      <c r="G173" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="9"/>
-      <c r="C174" s="52"/>
-      <c r="D174" s="53" t="s">
+      <c r="A174" s="46"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="41" t="s">
         <v>273</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G174" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="9"/>
-      <c r="C175" s="52"/>
-      <c r="D175" s="53" t="s">
+      <c r="G174" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="33">
+      <c r="A175" s="46"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="41" t="s">
         <v>275</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G175" s="11" t="s">
+      <c r="G175" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="46" t="s">
         <v>246</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="52" t="s">
+      <c r="C176" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="D176" s="53" t="s">
+      <c r="D176" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="E176" s="29" t="s">
+      <c r="E176" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="G176" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="9"/>
-      <c r="C177" s="52"/>
-      <c r="D177" s="53" t="s">
+      <c r="G176" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="46"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="41" t="s">
         <v>255</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G177" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="9"/>
-      <c r="C178" s="52"/>
-      <c r="D178" s="53" t="s">
+      <c r="G177" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="46"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="41" t="s">
         <v>257</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G178" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="9"/>
-      <c r="C179" s="52"/>
-      <c r="D179" s="53" t="s">
+      <c r="G178" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="46"/>
+      <c r="C179" s="50"/>
+      <c r="D179" s="41" t="s">
         <v>259</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="G179" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="9"/>
-      <c r="C180" s="52"/>
-      <c r="D180" s="53" t="s">
+      <c r="G179" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="46"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="41" t="s">
         <v>291</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="G180" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="9"/>
-      <c r="C181" s="52"/>
-      <c r="D181" s="53" t="s">
+      <c r="G180" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="46"/>
+      <c r="C181" s="50"/>
+      <c r="D181" s="41" t="s">
         <v>263</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G181" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="9"/>
-      <c r="C182" s="52"/>
-      <c r="D182" s="53" t="s">
+      <c r="G181" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="46"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="41" t="s">
         <v>267</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G182" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" ht="57" spans="1:7">
-      <c r="A183" s="9"/>
-      <c r="C183" s="52"/>
+      <c r="G182" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="66">
+      <c r="A183" s="46"/>
+      <c r="C183" s="50"/>
       <c r="D183" s="7" t="s">
         <v>294</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G183" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="9"/>
-      <c r="C184" s="52"/>
-      <c r="D184" s="53" t="s">
+      <c r="G183" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="46"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="41" t="s">
         <v>269</v>
       </c>
       <c r="E184" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G184" s="11" t="s">
+      <c r="G184" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="9"/>
-      <c r="C185" s="52"/>
-      <c r="D185" s="53" t="s">
+    <row r="185" spans="1:8" ht="33">
+      <c r="A185" s="46"/>
+      <c r="C185" s="50"/>
+      <c r="D185" s="41" t="s">
         <v>275</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G185" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" ht="54" spans="1:8">
-      <c r="A186" s="49" t="s">
+      <c r="G185" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="66">
+      <c r="A186" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C186" s="54" t="s">
+      <c r="C186" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D186" s="49" t="s">
+      <c r="D186" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="E186" s="51" t="s">
+      <c r="E186" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="G186" s="11" t="s">
+      <c r="G186" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H186" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="187" ht="81" spans="1:8">
-      <c r="A187" s="55" t="s">
+    <row r="187" spans="1:8" ht="99">
+      <c r="A187" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="C187" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="D187" s="49" t="s">
+      <c r="D187" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="E187" s="51" t="s">
+      <c r="E187" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="G187" s="11" t="s">
+      <c r="G187" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H187" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="188" ht="54" spans="1:8">
-      <c r="A188" s="55" t="s">
+    <row r="188" spans="1:8" ht="66">
+      <c r="A188" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="C188" s="54" t="s">
+      <c r="C188" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="D188" s="49" t="s">
+      <c r="D188" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="E188" s="51" t="s">
+      <c r="E188" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="G188" s="11" t="s">
+      <c r="G188" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H188" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="189" ht="40.5" spans="1:8">
-      <c r="A189" s="55" t="s">
+    <row r="189" spans="1:8" ht="49.5">
+      <c r="A189" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="C189" s="54" t="s">
+      <c r="C189" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="D189" s="49" t="s">
+      <c r="D189" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="E189" s="51" t="s">
+      <c r="E189" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="G189" s="11" t="s">
+      <c r="G189" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="190" ht="67.5" spans="1:8">
+    <row r="190" spans="1:8" ht="82.5">
       <c r="A190" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C190" s="54" t="s">
+      <c r="C190" s="42" t="s">
         <v>327</v>
       </c>
       <c r="D190" s="6" t="s">
@@ -6652,109 +6062,111 @@
       <c r="E190" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G190" s="11" t="s">
+      <c r="G190" s="10" t="s">
         <v>129</v>
       </c>
       <c r="H190" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="191" ht="40.5" spans="1:7">
-      <c r="A191" s="9" t="s">
+    <row r="191" spans="1:8" ht="49.5">
+      <c r="A191" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C191" s="56" t="s">
+      <c r="C191" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E191" s="29" t="s">
+      <c r="E191" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="G191" s="11" t="s">
+      <c r="G191" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="192" ht="67.5" spans="1:7">
-      <c r="A192" s="9"/>
-      <c r="B192" s="11" t="s">
+    <row r="192" spans="1:8" ht="82.5">
+      <c r="A192" s="46"/>
+      <c r="B192" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C192" s="56" t="s">
+      <c r="C192" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E192" s="57" t="s">
+      <c r="E192" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="G192" s="11" t="s">
+      <c r="G192" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="9"/>
-      <c r="B193" s="11" t="s">
+      <c r="A193" s="46"/>
+      <c r="B193" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C193" s="56" t="s">
+      <c r="C193" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D193" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E193" s="29" t="s">
+      <c r="E193" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="G193" s="11" t="s">
+      <c r="G193" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="194" ht="83.25" spans="1:7">
+    <row r="194" spans="1:7" ht="99">
       <c r="A194" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C194" s="56" t="s">
+      <c r="C194" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="E194" s="29" t="s">
+      <c r="E194" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="G194" s="11" t="s">
+      <c r="G194" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="7:7">
-      <c r="G195" s="11"/>
+    <row r="195" spans="1:7">
+      <c r="G195" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:G200">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="D1:G200"/>
   <mergeCells count="50">
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6771,82 +6183,77 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D80" r:id="rId1" display="知网-科技报告" tooltip="http://r.cnki.net/KNS/brief/result.aspx?dbPrefix=kjbg"/>
-    <hyperlink ref="G119" r:id="rId2" display="是" tooltip="http://www.ccgp-heilongj.gov.cn/xwzs!queryGd.action"/>
-    <hyperlink ref="E8" r:id="rId3" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw2407/nw42927/index.html" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw2407/nw42927/index.html"/>
-    <hyperlink ref="E6" r:id="rId4" display="http://www.beijing.gov.cn/zhengce/gwywj/"/>
-    <hyperlink ref="E7" r:id="rId5" display="http://www.beijing.gov.cn/zhengce/dfxfg/"/>
-    <hyperlink ref="E9" r:id="rId6" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw10800/index.html" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw10800/index.html"/>
-    <hyperlink ref="E11" r:id="rId7" display="http://www.tj.gov.cn/zw/szfwj/"/>
-    <hyperlink ref="E12" r:id="rId8" display="http://www.tj.gov.cn/zw/zcjd/"/>
-    <hyperlink ref="E13" r:id="rId9" display="http://www.cq.gov.cn/zwgk/szfwj" tooltip="http://www.cq.gov.cn/zwgk/szfwj"/>
-    <hyperlink ref="E14" r:id="rId10" display="http://www.cq.gov.cn/zwgk/zcwjjd"/>
-    <hyperlink ref="E15" r:id="rId11" display="http://www.hlj.gov.cn/gkml/ztfl.html" tooltip="http://www.hlj.gov.cn/gkml/ztfl.html"/>
-    <hyperlink ref="E18" r:id="rId12" display="http://xxgk.jl.gov.cn/" tooltip="http://xxgk.jl.gov.cn/"/>
-    <hyperlink ref="E21" r:id="rId13" display="http://www.ln.gov.cn/zfxx/zfwj/" tooltip="http://www.ln.gov.cn/zfxx/zfwj/"/>
-    <hyperlink ref="E23" r:id="rId14" display="http://www.nmg.gov.cn/col/col1686/index.html" tooltip="http://www.nmg.gov.cn/col/col1686/index.html"/>
-    <hyperlink ref="E22" r:id="rId15" display="http://www.ln.gov.cn/zfxx/zcjd/" tooltip="http://www.ln.gov.cn/zfxx/zcjd/"/>
-    <hyperlink ref="E20" r:id="rId16" display="http://www.jl.gov.cn/zw/jd/" tooltip="http://www.jl.gov.cn/zw/jd/"/>
-    <hyperlink ref="E19" r:id="rId17" display="http://www.jl.gov.cn/szfzt/zcfg/" tooltip="http://www.jl.gov.cn/szfzt/zcfg/"/>
-    <hyperlink ref="E17" r:id="rId18" display="http://www.hlj.gov.cn/zwfb/zfgz/" tooltip="http://www.hlj.gov.cn/zwfb/zfgz/"/>
-    <hyperlink ref="E2" r:id="rId19" display="http://www.gov.cn/zhengce/zuixin.htm" tooltip="http://www.gov.cn/zhengce/zuixin.htm"/>
-    <hyperlink ref="E3" r:id="rId20" display="http://www.gov.cn/zhengce/jiedu/index.htm"/>
-    <hyperlink ref="E4" r:id="rId21" display="http://www.gov.cn/zhengce/xxgkzl.htm" tooltip="http://www.gov.cn/zhengce/xxgkzl.htm"/>
-    <hyperlink ref="E10" r:id="rId22" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw41893/index.html"/>
-    <hyperlink ref="E24" r:id="rId23" display="http://www.nmg.gov.cn/col/col428/index.html" tooltip="http://www.nmg.gov.cn/col/col428/index.html"/>
-    <hyperlink ref="E25" r:id="rId24" display="http://info.hebei.gov.cn/eportal/ui?pageId=6817552" tooltip="http://info.hebei.gov.cn/eportal/ui?pageId=6817552"/>
-    <hyperlink ref="E27" r:id="rId25" display="http://www.henan.gov.cn/zwgk/zcjd/bmjd/" tooltip="http://www.henan.gov.cn/zwgk/zcjd/bmjd/"/>
-    <hyperlink ref="E28" r:id="rId26" display="http://www.henan.gov.cn/zwgk/fgwj/szfl/" tooltip="http://www.henan.gov.cn/zwgk/fgwj/szfl/"/>
-    <hyperlink ref="E29" r:id="rId27" display="http://www.shandong.gov.cn/col/col2266/index.html" tooltip="http://www.shandong.gov.cn/col/col2266/index.html"/>
-    <hyperlink ref="E30" r:id="rId28" display="http://www.shandong.gov.cn/col/col2262/index.html"/>
-    <hyperlink ref="E32" r:id="rId29" display="http://www.shanxi.gov.cn/zw/zfgkzl/zfxxgkgd/" tooltip="http://www.shanxi.gov.cn/zw/zfgkzl/zfxxgkgd/"/>
-    <hyperlink ref="E33" r:id="rId30" display="http://www.shanxi.gov.cn/yw/zcjd/latest_1447.shtml" tooltip="http://www.shanxi.gov.cn/yw/zcjd/latest_1447.shtml"/>
-    <hyperlink ref="E34" r:id="rId31" display="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1454" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1454"/>
-    <hyperlink ref="E39" r:id="rId32" display="http://www.nx.gov.cn/zwgk/gfxwj/" tooltip="http://www.nx.gov.cn/zwgk/gfxwj/"/>
-    <hyperlink ref="E38" r:id="rId33" display="http://www.gansu.gov.cn/col/col4745/index.html" tooltip="http://www.gansu.gov.cn/col/col4745/index.html"/>
-    <hyperlink ref="E36" r:id="rId34" display="http://zwgk.qh.gov.cn/szfjdhy/bmjd/" tooltip="http://zwgk.qh.gov.cn/szfjdhy/bmjd/"/>
-    <hyperlink ref="E35" r:id="rId35" display="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1229" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1229"/>
-    <hyperlink ref="E41" r:id="rId36" display="http://www.nx.gov.cn/zwgk/qzfwj/" tooltip="http://www.nx.gov.cn/zwgk/qzfwj/"/>
-    <hyperlink ref="E40" r:id="rId37" display="http://www.nx.gov.cn/zwxx_11337/zcjd/"/>
-    <hyperlink ref="E37" r:id="rId38" display="http://www.gansu.gov.cn/col/col4784/index.html" tooltip="http://www.gansu.gov.cn/col/col4784/index.html"/>
-    <hyperlink ref="E31" r:id="rId28" display="http://www.shandong.gov.cn/col/col2262/index.html" tooltip="http://www.shandong.gov.cn/col/col2262/index.html"/>
-    <hyperlink ref="E26" r:id="rId39" display="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html" tooltip="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html"/>
-    <hyperlink ref="E46" r:id="rId40" display="http://www.jiangsu.gov.cn/col/col32646/index.html"/>
-    <hyperlink ref="E16" r:id="rId41" display="http://www.hlj.gov.cn/zwfb/zcjd/" tooltip="http://www.hlj.gov.cn/zwfb/zcjd/"/>
+    <hyperlink ref="D80" r:id="rId1" tooltip="http://r.cnki.net/KNS/brief/result.aspx?dbPrefix=kjbg"/>
+    <hyperlink ref="G119" r:id="rId2" tooltip="http://www.ccgp-heilongj.gov.cn/xwzs!queryGd.action"/>
+    <hyperlink ref="E8" r:id="rId3" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw2407/nw42927/index.html"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw10800/index.html"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9" tooltip="http://www.cq.gov.cn/zwgk/szfwj"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11" tooltip="http://www.hlj.gov.cn/gkml/ztfl.html"/>
+    <hyperlink ref="E18" r:id="rId12" tooltip="http://xxgk.jl.gov.cn/"/>
+    <hyperlink ref="E21" r:id="rId13" tooltip="http://www.ln.gov.cn/zfxx/zfwj/"/>
+    <hyperlink ref="E23" r:id="rId14" tooltip="http://www.nmg.gov.cn/col/col1686/index.html"/>
+    <hyperlink ref="E22" r:id="rId15" tooltip="http://www.ln.gov.cn/zfxx/zcjd/"/>
+    <hyperlink ref="E20" r:id="rId16" tooltip="http://www.jl.gov.cn/zw/jd/"/>
+    <hyperlink ref="E19" r:id="rId17" tooltip="http://www.jl.gov.cn/szfzt/zcfg/"/>
+    <hyperlink ref="E17" r:id="rId18" tooltip="http://www.hlj.gov.cn/zwfb/zfgz/"/>
+    <hyperlink ref="E2" r:id="rId19" tooltip="http://www.gov.cn/zhengce/zuixin.htm"/>
+    <hyperlink ref="E3" r:id="rId20"/>
+    <hyperlink ref="E4" r:id="rId21" tooltip="http://www.gov.cn/zhengce/xxgkzl.htm"/>
+    <hyperlink ref="E10" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23" tooltip="http://www.nmg.gov.cn/col/col428/index.html"/>
+    <hyperlink ref="E25" r:id="rId24" tooltip="http://info.hebei.gov.cn/eportal/ui?pageId=6817552"/>
+    <hyperlink ref="E27" r:id="rId25" tooltip="http://www.henan.gov.cn/zwgk/zcjd/bmjd/"/>
+    <hyperlink ref="E28" r:id="rId26" tooltip="http://www.henan.gov.cn/zwgk/fgwj/szfl/"/>
+    <hyperlink ref="E29" r:id="rId27" tooltip="http://www.shandong.gov.cn/col/col2266/index.html"/>
+    <hyperlink ref="E30" r:id="rId28"/>
+    <hyperlink ref="E32" r:id="rId29" tooltip="http://www.shanxi.gov.cn/zw/zfgkzl/zfxxgkgd/"/>
+    <hyperlink ref="E33" r:id="rId30" tooltip="http://www.shanxi.gov.cn/yw/zcjd/latest_1447.shtml"/>
+    <hyperlink ref="E34" r:id="rId31" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1454"/>
+    <hyperlink ref="E39" r:id="rId32" tooltip="http://www.nx.gov.cn/zwgk/gfxwj/"/>
+    <hyperlink ref="E38" r:id="rId33" tooltip="http://www.gansu.gov.cn/col/col4745/index.html"/>
+    <hyperlink ref="E36" r:id="rId34" tooltip="http://zwgk.qh.gov.cn/szfjdhy/bmjd/"/>
+    <hyperlink ref="E35" r:id="rId35" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1229"/>
+    <hyperlink ref="E41" r:id="rId36" tooltip="http://www.nx.gov.cn/zwgk/qzfwj/"/>
+    <hyperlink ref="E40" r:id="rId37"/>
+    <hyperlink ref="E37" r:id="rId38" tooltip="http://www.gansu.gov.cn/col/col4784/index.html"/>
+    <hyperlink ref="E31" r:id="rId39" tooltip="http://www.shandong.gov.cn/col/col2262/index.html"/>
+    <hyperlink ref="E26" r:id="rId40" tooltip="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html"/>
+    <hyperlink ref="E46" r:id="rId41"/>
+    <hyperlink ref="E16" r:id="rId42" tooltip="http://www.hlj.gov.cn/zwfb/zcjd/"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -6866,16 +6273,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -6884,32 +6290,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11855,25 +11259,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\crawler-scrapy\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="581">
   <si>
     <t>所属分类</t>
   </si>
@@ -1771,6 +1771,14 @@
   </si>
   <si>
     <t>李易</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王建（李易）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王建（李易）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1876,7 +1884,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1886,6 +1894,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,7 +1955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2080,23 +2094,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2110,14 +2121,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3049,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -3094,13 +3111,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -3114,9 +3131,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="46"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="55"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
@@ -3128,9 +3145,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="46"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="55"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
@@ -3142,9 +3159,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="46"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="52" t="s">
+      <c r="A5" s="55"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="51" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -3158,9 +3175,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="55"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
@@ -3172,9 +3189,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="46"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="53"/>
+      <c r="A7" s="55"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
@@ -3186,12 +3203,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="46"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="51" t="s">
+      <c r="A8" s="55"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="46" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -3202,10 +3219,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="46"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="56" t="s">
+      <c r="A9" s="55"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="46" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -3216,10 +3233,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="46"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="56" t="s">
+      <c r="A10" s="55"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="46" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -3230,9 +3247,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="46"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="54" t="s">
+      <c r="A11" s="55"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="53" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3246,9 +3263,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="46"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="55"/>
+      <c r="A12" s="55"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
@@ -3260,12 +3277,12 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="46"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="51" t="s">
+      <c r="A13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="46" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -3276,10 +3293,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="46"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="56" t="s">
+      <c r="A14" s="55"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="46" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -3290,12 +3307,12 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="46"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="51" t="s">
+      <c r="A15" s="55"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="46" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -3306,10 +3323,10 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="46"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="56" t="s">
+      <c r="A16" s="55"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="46" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -3320,10 +3337,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="46"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="56" t="s">
+      <c r="A17" s="55"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="46" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="10" t="s">
@@ -3334,12 +3351,12 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="46"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="51" t="s">
+      <c r="A18" s="55"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="48" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -3350,9 +3367,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="46"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="51"/>
+      <c r="A19" s="55"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="11" t="s">
         <v>37</v>
       </c>
@@ -3364,9 +3381,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="46"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51"/>
+      <c r="A20" s="55"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="11" t="s">
         <v>38</v>
       </c>
@@ -3378,9 +3395,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="46"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="54" t="s">
+      <c r="A21" s="55"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="53" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -3394,9 +3411,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="46"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="55"/>
+      <c r="A22" s="55"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="11" t="s">
         <v>41</v>
       </c>
@@ -3408,12 +3425,12 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="46"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="51" t="s">
+      <c r="A23" s="55"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="48" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="10" t="s">
@@ -3424,10 +3441,10 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="46"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="56" t="s">
+      <c r="A24" s="55"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="46" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="10" t="s">
@@ -3438,9 +3455,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="46"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="51" t="s">
+      <c r="A25" s="55"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="49" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -3454,9 +3471,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="46"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="51"/>
+      <c r="A26" s="55"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="11" t="s">
         <v>47</v>
       </c>
@@ -3469,12 +3486,12 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="46"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="51" t="s">
+      <c r="A27" s="55"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="48" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="16" t="s">
@@ -3488,10 +3505,10 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="46"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="58" t="s">
+      <c r="A28" s="55"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="48" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="16" t="s">
@@ -3505,12 +3522,12 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="46"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="51" t="s">
+      <c r="A29" s="55"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="46" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="10" t="s">
@@ -3521,10 +3538,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="46"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="57" t="s">
+      <c r="A30" s="55"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="47" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -3535,10 +3552,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="46"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="57" t="s">
+      <c r="A31" s="55"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="47" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -3549,9 +3566,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="46"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="51" t="s">
+      <c r="A32" s="55"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="49" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -3565,9 +3582,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="46"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="51"/>
+      <c r="A33" s="55"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="11" t="s">
         <v>57</v>
       </c>
@@ -3579,9 +3596,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="46"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="51" t="s">
+      <c r="A34" s="55"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="49" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="18" t="s">
@@ -3595,9 +3612,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="46"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="51"/>
+      <c r="A35" s="55"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="49"/>
       <c r="E35" s="18" t="s">
         <v>60</v>
       </c>
@@ -3609,9 +3626,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="46"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="51"/>
+      <c r="A36" s="55"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="18" t="s">
         <v>61</v>
       </c>
@@ -3623,9 +3640,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="46"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="51" t="s">
+      <c r="A37" s="55"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="49" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="17" t="s">
@@ -3639,9 +3656,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="46"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="51"/>
+      <c r="A38" s="55"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="49"/>
       <c r="E38" s="17" t="s">
         <v>64</v>
       </c>
@@ -3653,9 +3670,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="46"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="51" t="s">
+      <c r="A39" s="55"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="49" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="18" t="s">
@@ -3669,9 +3686,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="46"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="51"/>
+      <c r="A40" s="55"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="18" t="s">
         <v>67</v>
       </c>
@@ -3683,9 +3700,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="46"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="51"/>
+      <c r="A41" s="55"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="18" t="s">
         <v>68</v>
       </c>
@@ -3697,9 +3714,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="46"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="51" t="s">
+      <c r="A42" s="55"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="49" t="s">
         <v>70</v>
       </c>
       <c r="E42" s="19" t="s">
@@ -3713,9 +3730,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="46"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="51"/>
+      <c r="A43" s="55"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="19" t="s">
         <v>72</v>
       </c>
@@ -3727,9 +3744,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="46"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="51" t="s">
+      <c r="A44" s="55"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="49" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="19" t="s">
@@ -3743,9 +3760,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="46"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="51"/>
+      <c r="A45" s="55"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="19" t="s">
         <v>75</v>
       </c>
@@ -3757,12 +3774,12 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="46"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="51" t="s">
+      <c r="A46" s="55"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="47" t="s">
         <v>77</v>
       </c>
       <c r="G46" s="10" t="s">
@@ -3773,9 +3790,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="46"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="51"/>
+      <c r="A47" s="55"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="49"/>
       <c r="E47" s="19" t="s">
         <v>78</v>
       </c>
@@ -3787,9 +3804,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="46"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="51"/>
+      <c r="A48" s="55"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="19" t="s">
         <v>79</v>
       </c>
@@ -3801,9 +3818,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="46"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="51"/>
+      <c r="A49" s="55"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="19" t="s">
         <v>80</v>
       </c>
@@ -3815,9 +3832,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="46"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="51" t="s">
+      <c r="A50" s="55"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="49" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="19" t="s">
@@ -3826,28 +3843,28 @@
       <c r="G50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>69</v>
+      <c r="H50" s="59" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="46"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="51"/>
+      <c r="A51" s="55"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="19" t="s">
         <v>83</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>69</v>
+      <c r="H51" s="59" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="46"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="51" t="s">
+      <c r="A52" s="55"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="49" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="19" t="s">
@@ -3856,42 +3873,42 @@
       <c r="G52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>69</v>
+      <c r="H52" s="59" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="46"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="51"/>
+      <c r="A53" s="55"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="19" t="s">
         <v>86</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>69</v>
+      <c r="H53" s="59" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="46"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="51"/>
+      <c r="A54" s="55"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="49"/>
       <c r="E54" s="19" t="s">
         <v>87</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>69</v>
+      <c r="H54" s="59" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="46"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="51" t="s">
+      <c r="A55" s="55"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="49" t="s">
         <v>88</v>
       </c>
       <c r="E55" s="19" t="s">
@@ -3905,9 +3922,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="46"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="51"/>
+      <c r="A56" s="55"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="49"/>
       <c r="E56" s="19" t="s">
         <v>90</v>
       </c>
@@ -3919,9 +3936,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="46"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="51" t="s">
+      <c r="A57" s="55"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="49" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="19" t="s">
@@ -3935,9 +3952,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="46"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="51"/>
+      <c r="A58" s="55"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="49"/>
       <c r="E58" s="19" t="s">
         <v>93</v>
       </c>
@@ -3949,9 +3966,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="46"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="51" t="s">
+      <c r="A59" s="55"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="49" t="s">
         <v>94</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -3965,9 +3982,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="46"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="51"/>
+      <c r="A60" s="55"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="49"/>
       <c r="E60" s="19" t="s">
         <v>96</v>
       </c>
@@ -3979,9 +3996,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="46"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="51" t="s">
+      <c r="A61" s="55"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="49" t="s">
         <v>97</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -3995,9 +4012,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="46"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="51"/>
+      <c r="A62" s="55"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="49"/>
       <c r="E62" s="19" t="s">
         <v>99</v>
       </c>
@@ -4009,9 +4026,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="46"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="51"/>
+      <c r="A63" s="55"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="49"/>
       <c r="E63" s="19" t="s">
         <v>100</v>
       </c>
@@ -4023,9 +4040,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="46"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="51" t="s">
+      <c r="A64" s="55"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="49" t="s">
         <v>101</v>
       </c>
       <c r="E64" s="19" t="s">
@@ -4039,9 +4056,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="46"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="51"/>
+      <c r="A65" s="55"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="19" t="s">
         <v>103</v>
       </c>
@@ -4053,9 +4070,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="46"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="51" t="s">
+      <c r="A66" s="55"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="49" t="s">
         <v>104</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -4069,9 +4086,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="46"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="51"/>
+      <c r="A67" s="55"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="49"/>
       <c r="E67" s="19" t="s">
         <v>106</v>
       </c>
@@ -4083,9 +4100,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="46"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="51" t="s">
+      <c r="A68" s="55"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="49" t="s">
         <v>107</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -4099,9 +4116,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="46"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="51"/>
+      <c r="A69" s="55"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="49"/>
       <c r="E69" s="20" t="s">
         <v>109</v>
       </c>
@@ -4113,9 +4130,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="46"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="51"/>
+      <c r="A70" s="55"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="49"/>
       <c r="E70" s="19" t="s">
         <v>110</v>
       </c>
@@ -4127,9 +4144,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="46"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="51" t="s">
+      <c r="A71" s="55"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="49" t="s">
         <v>111</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -4143,9 +4160,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="46"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="51"/>
+      <c r="A72" s="55"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="19" t="s">
         <v>113</v>
       </c>
@@ -4157,9 +4174,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="46"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="51" t="s">
+      <c r="A73" s="55"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="49" t="s">
         <v>114</v>
       </c>
       <c r="E73" s="19" t="s">
@@ -4173,9 +4190,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="46"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="51"/>
+      <c r="A74" s="55"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="49"/>
       <c r="E74" s="19" t="s">
         <v>116</v>
       </c>
@@ -4187,9 +4204,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="46"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="51"/>
+      <c r="A75" s="55"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="49"/>
       <c r="E75" s="19" t="s">
         <v>117</v>
       </c>
@@ -4201,9 +4218,9 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="46"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="51" t="s">
+      <c r="A76" s="55"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="49" t="s">
         <v>118</v>
       </c>
       <c r="E76" s="20" t="s">
@@ -4217,9 +4234,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="46"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="51"/>
+      <c r="A77" s="55"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="49"/>
       <c r="E77" s="20" t="s">
         <v>120</v>
       </c>
@@ -4231,9 +4248,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="46"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="51" t="s">
+      <c r="A78" s="55"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="49" t="s">
         <v>121</v>
       </c>
       <c r="E78" s="20" t="s">
@@ -4247,9 +4264,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="46"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="51"/>
+      <c r="A79" s="55"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="49"/>
       <c r="E79" s="20" t="s">
         <v>123</v>
       </c>
@@ -4284,7 +4301,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="55" t="s">
         <v>130</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -4304,7 +4321,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="46"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="4" t="s">
         <v>135</v>
       </c>
@@ -4322,7 +4339,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="56" t="s">
         <v>136</v>
       </c>
       <c r="B83" s="25" t="s">
@@ -4343,7 +4360,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="47"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="25" t="s">
         <v>140</v>
       </c>
@@ -4362,7 +4379,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="47"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="25" t="s">
         <v>143</v>
       </c>
@@ -4381,7 +4398,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="47"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="25" t="s">
         <v>145</v>
       </c>
@@ -4401,13 +4418,13 @@
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="C87" s="58" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -4424,11 +4441,11 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="46"/>
-      <c r="B88" s="46" t="s">
+      <c r="A88" s="55"/>
+      <c r="B88" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="49"/>
+      <c r="C88" s="58"/>
       <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
@@ -4440,9 +4457,9 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="46"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="49"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="58"/>
       <c r="D89" s="6" t="s">
         <v>16</v>
       </c>
@@ -4457,9 +4474,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="46"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="49"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="58"/>
       <c r="D90" s="6" t="s">
         <v>24</v>
       </c>
@@ -4474,9 +4491,9 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="46"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="49"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="58"/>
       <c r="D91" s="6" t="s">
         <v>45</v>
       </c>
@@ -4491,9 +4508,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="46"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="49"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="58"/>
       <c r="D92" s="6" t="s">
         <v>55</v>
       </c>
@@ -4505,9 +4522,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="46"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="49"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="58"/>
       <c r="D93" s="6" t="s">
         <v>42</v>
       </c>
@@ -4522,9 +4539,9 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="46"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="49"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="58"/>
       <c r="D94" s="6" t="s">
         <v>39</v>
       </c>
@@ -4539,9 +4556,9 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="46"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="49"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="58"/>
       <c r="D95" s="6" t="s">
         <v>34</v>
       </c>
@@ -4556,9 +4573,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="33">
-      <c r="A96" s="46"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="49"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="58"/>
       <c r="D96" s="6" t="s">
         <v>30</v>
       </c>
@@ -4570,9 +4587,9 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="33">
-      <c r="A97" s="46"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="49"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="58"/>
       <c r="D97" s="6" t="s">
         <v>164</v>
       </c>
@@ -4584,9 +4601,9 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="46"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="49"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="58"/>
       <c r="D98" s="6" t="s">
         <v>76</v>
       </c>
@@ -4601,9 +4618,9 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="46"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="49"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="58"/>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
@@ -4618,9 +4635,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="33">
-      <c r="A100" s="46"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="49"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="58"/>
       <c r="D100" s="6" t="s">
         <v>114</v>
       </c>
@@ -4635,9 +4652,9 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="46"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="49"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="58"/>
       <c r="D101" s="6" t="s">
         <v>118</v>
       </c>
@@ -4652,9 +4669,9 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="46"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="49"/>
+      <c r="A102" s="55"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="58"/>
       <c r="D102" s="6" t="s">
         <v>81</v>
       </c>
@@ -4669,9 +4686,9 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="46"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="49"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="6" t="s">
         <v>52</v>
       </c>
@@ -4683,9 +4700,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="33">
-      <c r="A104" s="46"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="49"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="58"/>
       <c r="D104" s="6" t="s">
         <v>94</v>
       </c>
@@ -4700,9 +4717,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="33">
-      <c r="A105" s="46"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="49"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="58"/>
       <c r="D105" s="6" t="s">
         <v>97</v>
       </c>
@@ -4717,9 +4734,9 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="46"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="49"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="58"/>
       <c r="D106" s="6" t="s">
         <v>91</v>
       </c>
@@ -4734,9 +4751,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="33">
-      <c r="A107" s="46"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="49"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="58"/>
       <c r="D107" s="6" t="s">
         <v>88</v>
       </c>
@@ -4751,9 +4768,9 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="46"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="49"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="58"/>
       <c r="D108" s="6" t="s">
         <v>48</v>
       </c>
@@ -4768,9 +4785,9 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="46"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="49"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="58"/>
       <c r="D109" s="6" t="s">
         <v>111</v>
       </c>
@@ -4785,9 +4802,9 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="46"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="49"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="58"/>
       <c r="D110" s="6" t="s">
         <v>27</v>
       </c>
@@ -4799,9 +4816,9 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="46"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="49"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="58"/>
       <c r="D111" s="6" t="s">
         <v>101</v>
       </c>
@@ -4813,9 +4830,9 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="33">
-      <c r="A112" s="46"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="49"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="58"/>
       <c r="D112" s="6" t="s">
         <v>104</v>
       </c>
@@ -4830,9 +4847,9 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="46"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="49"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="58"/>
       <c r="D113" s="6" t="s">
         <v>73</v>
       </c>
@@ -4847,9 +4864,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="46"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="49"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="58"/>
       <c r="D114" s="6" t="s">
         <v>121</v>
       </c>
@@ -4864,9 +4881,9 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="46"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="49"/>
+      <c r="A115" s="55"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="58"/>
       <c r="D115" s="6" t="s">
         <v>62</v>
       </c>
@@ -4881,9 +4898,9 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="46"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="49"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="58"/>
       <c r="D116" s="6" t="s">
         <v>58</v>
       </c>
@@ -4898,9 +4915,9 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="46"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="49"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="58"/>
       <c r="D117" s="6" t="s">
         <v>65</v>
       </c>
@@ -4915,9 +4932,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="46"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="49"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="58"/>
       <c r="D118" s="6" t="s">
         <v>107</v>
       </c>
@@ -4932,11 +4949,11 @@
       </c>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="46"/>
-      <c r="B119" s="47" t="s">
+      <c r="A119" s="55"/>
+      <c r="B119" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="49"/>
+      <c r="C119" s="58"/>
       <c r="D119" s="31" t="s">
         <v>30</v>
       </c>
@@ -4955,9 +4972,9 @@
       <c r="K119" s="33"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="66">
-      <c r="A120" s="46"/>
-      <c r="B120" s="47"/>
-      <c r="C120" s="49"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="58"/>
       <c r="D120" s="31" t="s">
         <v>39</v>
       </c>
@@ -4975,9 +4992,9 @@
       <c r="K120" s="33"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="46"/>
-      <c r="B121" s="47"/>
-      <c r="C121" s="49"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="31" t="s">
         <v>94</v>
       </c>
@@ -4995,9 +5012,9 @@
       <c r="K121" s="33"/>
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="46"/>
-      <c r="B122" s="47"/>
-      <c r="C122" s="49"/>
+      <c r="A122" s="55"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="58"/>
       <c r="D122" s="31" t="s">
         <v>107</v>
       </c>
@@ -5014,9 +5031,9 @@
       <c r="J122" s="33"/>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A123" s="46"/>
-      <c r="B123" s="47"/>
-      <c r="C123" s="49"/>
+      <c r="A123" s="55"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="31" t="s">
         <v>42</v>
       </c>
@@ -5033,9 +5050,9 @@
       <c r="J123" s="33"/>
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="46"/>
-      <c r="B124" s="47"/>
-      <c r="C124" s="49"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="58"/>
       <c r="D124" s="31" t="s">
         <v>121</v>
       </c>
@@ -5052,9 +5069,9 @@
       <c r="J124" s="33"/>
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="46"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="49"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="31" t="s">
         <v>62</v>
       </c>
@@ -5071,9 +5088,9 @@
       <c r="J125" s="33"/>
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="46"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="49"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="58"/>
       <c r="D126" s="31" t="s">
         <v>58</v>
       </c>
@@ -5088,9 +5105,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="46"/>
-      <c r="B127" s="47"/>
-      <c r="C127" s="49"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="58"/>
       <c r="D127" s="34" t="s">
         <v>70</v>
       </c>
@@ -5105,9 +5122,9 @@
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="46"/>
-      <c r="B128" s="47"/>
-      <c r="C128" s="49"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="58"/>
       <c r="D128" s="34" t="s">
         <v>76</v>
       </c>
@@ -5122,9 +5139,9 @@
       </c>
     </row>
     <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="46"/>
-      <c r="B129" s="47"/>
-      <c r="C129" s="49"/>
+      <c r="A129" s="55"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="34" t="s">
         <v>97</v>
       </c>
@@ -5142,9 +5159,9 @@
       <c r="J129" s="33"/>
     </row>
     <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="46"/>
-      <c r="B130" s="47"/>
-      <c r="C130" s="49"/>
+      <c r="A130" s="55"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="58"/>
       <c r="D130" s="34" t="s">
         <v>101</v>
       </c>
@@ -5160,9 +5177,9 @@
       <c r="J130" s="33"/>
     </row>
     <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="46"/>
-      <c r="B131" s="47"/>
-      <c r="C131" s="49"/>
+      <c r="A131" s="55"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="58"/>
       <c r="D131" s="34" t="s">
         <v>81</v>
       </c>
@@ -5177,9 +5194,9 @@
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="46"/>
-      <c r="B132" s="47"/>
-      <c r="C132" s="49"/>
+      <c r="A132" s="55"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="58"/>
       <c r="D132" s="34" t="s">
         <v>114</v>
       </c>
@@ -5192,9 +5209,9 @@
       </c>
     </row>
     <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="46"/>
-      <c r="B133" s="47"/>
-      <c r="C133" s="49"/>
+      <c r="A133" s="55"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="58"/>
       <c r="D133" s="34" t="s">
         <v>118</v>
       </c>
@@ -5209,9 +5226,9 @@
       </c>
     </row>
     <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="46"/>
-      <c r="B134" s="47"/>
-      <c r="C134" s="49"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="58"/>
       <c r="D134" s="34" t="s">
         <v>104</v>
       </c>
@@ -5228,9 +5245,9 @@
       <c r="I134" s="33"/>
     </row>
     <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="46"/>
-      <c r="B135" s="47"/>
-      <c r="C135" s="49"/>
+      <c r="A135" s="55"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="58"/>
       <c r="D135" s="34" t="s">
         <v>84</v>
       </c>
@@ -5247,9 +5264,9 @@
       <c r="I135" s="33"/>
     </row>
     <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="46"/>
-      <c r="B136" s="47"/>
-      <c r="C136" s="49"/>
+      <c r="A136" s="55"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="58"/>
       <c r="D136" s="31" t="s">
         <v>73</v>
       </c>
@@ -5264,7 +5281,7 @@
       <c r="I136" s="33"/>
     </row>
     <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="46" t="s">
+      <c r="A137" s="55" t="s">
         <v>222</v>
       </c>
       <c r="B137" s="25" t="s">
@@ -5283,7 +5300,7 @@
       <c r="G137" s="37"/>
     </row>
     <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="46"/>
+      <c r="A138" s="55"/>
       <c r="B138" s="25" t="s">
         <v>227</v>
       </c>
@@ -5300,7 +5317,7 @@
       <c r="G138" s="37"/>
     </row>
     <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="46"/>
+      <c r="A139" s="55"/>
       <c r="B139" s="25" t="s">
         <v>229</v>
       </c>
@@ -5317,7 +5334,7 @@
       <c r="G139" s="37"/>
     </row>
     <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="46"/>
+      <c r="A140" s="55"/>
       <c r="B140" s="25" t="s">
         <v>231</v>
       </c>
@@ -5334,7 +5351,7 @@
       <c r="G140" s="37"/>
     </row>
     <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="46"/>
+      <c r="A141" s="55"/>
       <c r="B141" s="25" t="s">
         <v>234</v>
       </c>
@@ -5351,7 +5368,7 @@
       <c r="G141" s="37"/>
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="46"/>
+      <c r="A142" s="55"/>
       <c r="B142" s="25" t="s">
         <v>237</v>
       </c>
@@ -5368,7 +5385,7 @@
       <c r="G142" s="37"/>
     </row>
     <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="46"/>
+      <c r="A143" s="55"/>
       <c r="B143" s="25" t="s">
         <v>240</v>
       </c>
@@ -5385,7 +5402,7 @@
       <c r="G143" s="37"/>
     </row>
     <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="46"/>
+      <c r="A144" s="55"/>
       <c r="B144" s="4" t="s">
         <v>243</v>
       </c>
@@ -5403,7 +5420,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="66">
-      <c r="A145" s="46" t="s">
+      <c r="A145" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -5426,7 +5443,7 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="46"/>
+      <c r="A146" s="55"/>
       <c r="C146" s="50"/>
       <c r="D146" s="41" t="s">
         <v>252</v>
@@ -5442,7 +5459,7 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="46"/>
+      <c r="A147" s="55"/>
       <c r="C147" s="50"/>
       <c r="D147" s="41" t="s">
         <v>255</v>
@@ -5455,7 +5472,7 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="46"/>
+      <c r="A148" s="55"/>
       <c r="C148" s="50"/>
       <c r="D148" s="41" t="s">
         <v>257</v>
@@ -5468,7 +5485,7 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="46"/>
+      <c r="A149" s="55"/>
       <c r="C149" s="50"/>
       <c r="D149" s="41" t="s">
         <v>259</v>
@@ -5481,7 +5498,7 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="46"/>
+      <c r="A150" s="55"/>
       <c r="C150" s="50"/>
       <c r="D150" s="41" t="s">
         <v>261</v>
@@ -5494,7 +5511,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="33">
-      <c r="A151" s="46"/>
+      <c r="A151" s="55"/>
       <c r="C151" s="50"/>
       <c r="D151" s="41" t="s">
         <v>263</v>
@@ -5507,7 +5524,7 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="46"/>
+      <c r="A152" s="55"/>
       <c r="C152" s="50"/>
       <c r="D152" s="41" t="s">
         <v>265</v>
@@ -5520,7 +5537,7 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="46"/>
+      <c r="A153" s="55"/>
       <c r="C153" s="50"/>
       <c r="D153" s="41" t="s">
         <v>267</v>
@@ -5533,7 +5550,7 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="46"/>
+      <c r="A154" s="55"/>
       <c r="C154" s="50"/>
       <c r="D154" s="41" t="s">
         <v>269</v>
@@ -5546,7 +5563,7 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="46"/>
+      <c r="A155" s="55"/>
       <c r="C155" s="50"/>
       <c r="D155" s="41" t="s">
         <v>271</v>
@@ -5559,7 +5576,7 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="46"/>
+      <c r="A156" s="55"/>
       <c r="C156" s="50"/>
       <c r="D156" s="41" t="s">
         <v>273</v>
@@ -5572,7 +5589,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="33">
-      <c r="A157" s="46"/>
+      <c r="A157" s="55"/>
       <c r="C157" s="50"/>
       <c r="D157" s="41" t="s">
         <v>275</v>
@@ -5585,7 +5602,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="49.5">
-      <c r="A158" s="46" t="s">
+      <c r="A158" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B158" s="4" t="s">
@@ -5605,7 +5622,7 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="46"/>
+      <c r="A159" s="55"/>
       <c r="C159" s="50"/>
       <c r="D159" s="41" t="s">
         <v>261</v>
@@ -5618,7 +5635,7 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="46"/>
+      <c r="A160" s="55"/>
       <c r="C160" s="50"/>
       <c r="D160" s="41" t="s">
         <v>265</v>
@@ -5631,7 +5648,7 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="46"/>
+      <c r="A161" s="55"/>
       <c r="C161" s="50"/>
       <c r="D161" s="41" t="s">
         <v>267</v>
@@ -5644,7 +5661,7 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="46"/>
+      <c r="A162" s="55"/>
       <c r="C162" s="50"/>
       <c r="D162" s="41" t="s">
         <v>269</v>
@@ -5657,7 +5674,7 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="46"/>
+      <c r="A163" s="55"/>
       <c r="C163" s="50"/>
       <c r="D163" s="41" t="s">
         <v>271</v>
@@ -5670,7 +5687,7 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="46"/>
+      <c r="A164" s="55"/>
       <c r="C164" s="50"/>
       <c r="D164" s="41" t="s">
         <v>273</v>
@@ -5683,7 +5700,7 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="46" t="s">
+      <c r="A165" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B165" s="4" t="s">
@@ -5703,7 +5720,7 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="46"/>
+      <c r="A166" s="55"/>
       <c r="C166" s="50"/>
       <c r="D166" s="41" t="s">
         <v>255</v>
@@ -5716,7 +5733,7 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="46"/>
+      <c r="A167" s="55"/>
       <c r="C167" s="50"/>
       <c r="D167" s="41" t="s">
         <v>257</v>
@@ -5729,7 +5746,7 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="46"/>
+      <c r="A168" s="55"/>
       <c r="C168" s="50"/>
       <c r="D168" s="41" t="s">
         <v>259</v>
@@ -5742,7 +5759,7 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="46"/>
+      <c r="A169" s="55"/>
       <c r="C169" s="50"/>
       <c r="D169" s="41" t="s">
         <v>291</v>
@@ -5755,7 +5772,7 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="46"/>
+      <c r="A170" s="55"/>
       <c r="C170" s="50"/>
       <c r="D170" s="41" t="s">
         <v>263</v>
@@ -5768,7 +5785,7 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="46"/>
+      <c r="A171" s="55"/>
       <c r="C171" s="50"/>
       <c r="D171" s="7" t="s">
         <v>294</v>
@@ -5781,7 +5798,7 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="46"/>
+      <c r="A172" s="55"/>
       <c r="C172" s="50"/>
       <c r="D172" s="41" t="s">
         <v>269</v>
@@ -5794,7 +5811,7 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="46"/>
+      <c r="A173" s="55"/>
       <c r="C173" s="50"/>
       <c r="D173" s="41" t="s">
         <v>271</v>
@@ -5807,7 +5824,7 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="46"/>
+      <c r="A174" s="55"/>
       <c r="C174" s="50"/>
       <c r="D174" s="41" t="s">
         <v>273</v>
@@ -5820,7 +5837,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="33">
-      <c r="A175" s="46"/>
+      <c r="A175" s="55"/>
       <c r="C175" s="50"/>
       <c r="D175" s="41" t="s">
         <v>275</v>
@@ -5833,7 +5850,7 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="46" t="s">
+      <c r="A176" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -5853,7 +5870,7 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="46"/>
+      <c r="A177" s="55"/>
       <c r="C177" s="50"/>
       <c r="D177" s="41" t="s">
         <v>255</v>
@@ -5866,7 +5883,7 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="46"/>
+      <c r="A178" s="55"/>
       <c r="C178" s="50"/>
       <c r="D178" s="41" t="s">
         <v>257</v>
@@ -5879,7 +5896,7 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="46"/>
+      <c r="A179" s="55"/>
       <c r="C179" s="50"/>
       <c r="D179" s="41" t="s">
         <v>259</v>
@@ -5892,7 +5909,7 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="46"/>
+      <c r="A180" s="55"/>
       <c r="C180" s="50"/>
       <c r="D180" s="41" t="s">
         <v>291</v>
@@ -5905,7 +5922,7 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="46"/>
+      <c r="A181" s="55"/>
       <c r="C181" s="50"/>
       <c r="D181" s="41" t="s">
         <v>263</v>
@@ -5918,7 +5935,7 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="46"/>
+      <c r="A182" s="55"/>
       <c r="C182" s="50"/>
       <c r="D182" s="41" t="s">
         <v>267</v>
@@ -5931,7 +5948,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="46"/>
+      <c r="A183" s="55"/>
       <c r="C183" s="50"/>
       <c r="D183" s="7" t="s">
         <v>294</v>
@@ -5944,7 +5961,7 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="46"/>
+      <c r="A184" s="55"/>
       <c r="C184" s="50"/>
       <c r="D184" s="41" t="s">
         <v>269</v>
@@ -5957,7 +5974,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="46"/>
+      <c r="A185" s="55"/>
       <c r="C185" s="50"/>
       <c r="D185" s="41" t="s">
         <v>275</v>
@@ -6070,7 +6087,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="46" t="s">
+      <c r="A191" s="55" t="s">
         <v>330</v>
       </c>
       <c r="B191" s="10" t="s">
@@ -6090,7 +6107,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="46"/>
+      <c r="A192" s="55"/>
       <c r="B192" s="10" t="s">
         <v>334</v>
       </c>
@@ -6108,7 +6125,7 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="46"/>
+      <c r="A193" s="55"/>
       <c r="B193" s="10" t="s">
         <v>337</v>
       </c>
@@ -6148,25 +6165,21 @@
   </sheetData>
   <autoFilter ref="D1:G200"/>
   <mergeCells count="50">
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6183,21 +6196,25 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\crawler-scrapy\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$G$200</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="582">
   <si>
     <t>所属分类</t>
   </si>
@@ -1770,15 +1770,18 @@
     <t>期刊论文</t>
   </si>
   <si>
-    <t>李易</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>王建（李易）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>王建（李易）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘毅（李易）</t>
+  </si>
+  <si>
+    <t>刘毅（李易）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -2001,9 +2004,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2103,22 +2103,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2133,7 +2118,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3066,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50:H54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -3111,13 +3114,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -3131,9 +3134,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="55"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
@@ -3145,23 +3148,23 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="55"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>578</v>
+      <c r="H4" s="59" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="55"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="51" t="s">
+      <c r="A5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -3175,9 +3178,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="55"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
@@ -3189,9 +3192,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="55"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="49"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
@@ -3203,12 +3206,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="55"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="49" t="s">
+      <c r="A8" s="49"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="45" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -3219,10 +3222,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="55"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="46" t="s">
+      <c r="A9" s="49"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -3233,10 +3236,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="55"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="46" t="s">
+      <c r="A10" s="49"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -3247,9 +3250,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="55"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="53" t="s">
+      <c r="A11" s="49"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="57" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3263,9 +3266,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="55"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="54"/>
+      <c r="A12" s="49"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
@@ -3277,12 +3280,12 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="55"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="49"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="45" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -3293,10 +3296,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="55"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="46" t="s">
+      <c r="A14" s="49"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="45" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -3307,12 +3310,12 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="55"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="49" t="s">
+      <c r="A15" s="49"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="45" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -3323,10 +3326,10 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="55"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="46" t="s">
+      <c r="A16" s="49"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="45" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -3337,10 +3340,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="55"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="46" t="s">
+      <c r="A17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="45" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="10" t="s">
@@ -3351,25 +3354,25 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="55"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="49"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="47" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>36</v>
+      <c r="H18" s="59" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="55"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="49"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="11" t="s">
         <v>37</v>
       </c>
@@ -3381,9 +3384,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="55"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="49"/>
+      <c r="A20" s="49"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="11" t="s">
         <v>38</v>
       </c>
@@ -3395,9 +3398,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="55"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="53" t="s">
+      <c r="A21" s="49"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="57" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -3411,9 +3414,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="55"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="54"/>
+      <c r="A22" s="49"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="11" t="s">
         <v>41</v>
       </c>
@@ -3425,26 +3428,26 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="55"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="49" t="s">
+      <c r="A23" s="49"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="47" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>36</v>
+      <c r="H23" s="59" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="55"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="46" t="s">
+      <c r="A24" s="49"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="45" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="10" t="s">
@@ -3455,9 +3458,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="55"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="49"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="54" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -3471,13 +3474,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="55"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="49"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="10" t="s">
         <v>12</v>
       </c>
@@ -3486,48 +3489,48 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="55"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="49"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>50</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>36</v>
+      <c r="H27" s="59" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="55"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="48" t="s">
+      <c r="A28" s="49"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>50</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>36</v>
+      <c r="H28" s="59" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="55"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="49"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="45" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="10" t="s">
@@ -3538,10 +3541,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="55"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="47" t="s">
+      <c r="A30" s="49"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="46" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -3552,10 +3555,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="55"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="47" t="s">
+      <c r="A31" s="49"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="46" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -3566,9 +3569,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="55"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="49" t="s">
+      <c r="A32" s="49"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="54" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -3582,9 +3585,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="55"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="49"/>
+      <c r="A33" s="49"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="11" t="s">
         <v>57</v>
       </c>
@@ -3596,12 +3599,12 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="55"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="49"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="10" t="s">
@@ -3612,10 +3615,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="55"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="18" t="s">
+      <c r="A35" s="49"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="17" t="s">
         <v>60</v>
       </c>
       <c r="G35" s="10" t="s">
@@ -3626,10 +3629,10 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="55"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="18" t="s">
+      <c r="A36" s="49"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="17" t="s">
         <v>61</v>
       </c>
       <c r="G36" s="10" t="s">
@@ -3640,42 +3643,42 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="55"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="49" t="s">
+      <c r="A37" s="49"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="15" t="s">
-        <v>36</v>
+      <c r="H37" s="59" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="55"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="17" t="s">
+      <c r="A38" s="49"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="16" t="s">
         <v>64</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="15" t="s">
-        <v>36</v>
+      <c r="H38" s="59" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="55"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="49" t="s">
+      <c r="A39" s="49"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>66</v>
       </c>
       <c r="G39" s="10" t="s">
@@ -3686,10 +3689,10 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="55"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="18" t="s">
+      <c r="A40" s="49"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G40" s="10" t="s">
@@ -3700,10 +3703,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="55"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="18" t="s">
+      <c r="A41" s="49"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G41" s="10" t="s">
@@ -3714,12 +3717,12 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="55"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="49"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>71</v>
       </c>
       <c r="G42" s="10" t="s">
@@ -3730,10 +3733,10 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="55"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="19" t="s">
+      <c r="A43" s="49"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G43" s="10" t="s">
@@ -3744,12 +3747,12 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="55"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="49" t="s">
+      <c r="A44" s="49"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>74</v>
       </c>
       <c r="G44" s="10" t="s">
@@ -3760,10 +3763,10 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="55"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="19" t="s">
+      <c r="A45" s="49"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="18" t="s">
         <v>75</v>
       </c>
       <c r="G45" s="10" t="s">
@@ -3774,12 +3777,12 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="55"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="49"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="46" t="s">
         <v>77</v>
       </c>
       <c r="G46" s="10" t="s">
@@ -3790,10 +3793,10 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="55"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="19" t="s">
+      <c r="A47" s="49"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="18" t="s">
         <v>78</v>
       </c>
       <c r="G47" s="10" t="s">
@@ -3804,10 +3807,10 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="55"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="19" t="s">
+      <c r="A48" s="49"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G48" s="10" t="s">
@@ -3818,10 +3821,10 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="55"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="19" t="s">
+      <c r="A49" s="49"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="18" t="s">
         <v>80</v>
       </c>
       <c r="G49" s="10" t="s">
@@ -3832,86 +3835,86 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="55"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="49"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>82</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="59" t="s">
+      <c r="H50" s="48" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="49"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="48" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="55"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="59" t="s">
-        <v>580</v>
-      </c>
-    </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="55"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="49" t="s">
+      <c r="A52" s="49"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>85</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="59" t="s">
-        <v>579</v>
+      <c r="H52" s="48" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="55"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="19" t="s">
+      <c r="A53" s="49"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="18" t="s">
         <v>86</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="59" t="s">
-        <v>579</v>
+      <c r="H53" s="48" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="55"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="19" t="s">
+      <c r="A54" s="49"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="18" t="s">
         <v>87</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="59" t="s">
-        <v>579</v>
+      <c r="H54" s="48" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="55"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="49" t="s">
+      <c r="A55" s="49"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>89</v>
       </c>
       <c r="G55" s="10" t="s">
@@ -3922,10 +3925,10 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="55"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="19" t="s">
+      <c r="A56" s="49"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="18" t="s">
         <v>90</v>
       </c>
       <c r="G56" s="10" t="s">
@@ -3936,12 +3939,12 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="55"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="49" t="s">
+      <c r="A57" s="49"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="18" t="s">
         <v>92</v>
       </c>
       <c r="G57" s="10" t="s">
@@ -3952,10 +3955,10 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="55"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="19" t="s">
+      <c r="A58" s="49"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G58" s="10" t="s">
@@ -3966,12 +3969,12 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="55"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="49"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G59" s="10" t="s">
@@ -3982,10 +3985,10 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="55"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="19" t="s">
+      <c r="A60" s="49"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="18" t="s">
         <v>96</v>
       </c>
       <c r="G60" s="10" t="s">
@@ -3996,12 +3999,12 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="55"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="49" t="s">
+      <c r="A61" s="49"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>98</v>
       </c>
       <c r="G61" s="10" t="s">
@@ -4012,10 +4015,10 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="55"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="19" t="s">
+      <c r="A62" s="49"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="18" t="s">
         <v>99</v>
       </c>
       <c r="G62" s="10" t="s">
@@ -4026,10 +4029,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="55"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="19" t="s">
+      <c r="A63" s="49"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="18" t="s">
         <v>100</v>
       </c>
       <c r="G63" s="10" t="s">
@@ -4040,12 +4043,12 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="55"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="49" t="s">
+      <c r="A64" s="49"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="18" t="s">
         <v>102</v>
       </c>
       <c r="G64" s="10" t="s">
@@ -4056,10 +4059,10 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="55"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="19" t="s">
+      <c r="A65" s="49"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="18" t="s">
         <v>103</v>
       </c>
       <c r="G65" s="10" t="s">
@@ -4070,12 +4073,12 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="55"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="49"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="18" t="s">
         <v>105</v>
       </c>
       <c r="G66" s="10" t="s">
@@ -4086,10 +4089,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="55"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="19" t="s">
+      <c r="A67" s="49"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="18" t="s">
         <v>106</v>
       </c>
       <c r="G67" s="10" t="s">
@@ -4100,12 +4103,12 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="55"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="49" t="s">
+      <c r="A68" s="49"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="18" t="s">
         <v>108</v>
       </c>
       <c r="G68" s="10" t="s">
@@ -4116,10 +4119,10 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="55"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="20" t="s">
+      <c r="A69" s="49"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="19" t="s">
         <v>109</v>
       </c>
       <c r="G69" s="10" t="s">
@@ -4130,10 +4133,10 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="55"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="19" t="s">
+      <c r="A70" s="49"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="18" t="s">
         <v>110</v>
       </c>
       <c r="G70" s="10" t="s">
@@ -4144,12 +4147,12 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="55"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="49" t="s">
+      <c r="A71" s="49"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="18" t="s">
         <v>112</v>
       </c>
       <c r="G71" s="10" t="s">
@@ -4160,10 +4163,10 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="55"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="19" t="s">
+      <c r="A72" s="49"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="18" t="s">
         <v>113</v>
       </c>
       <c r="G72" s="10" t="s">
@@ -4174,12 +4177,12 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="55"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="49" t="s">
+      <c r="A73" s="49"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="18" t="s">
         <v>115</v>
       </c>
       <c r="G73" s="10" t="s">
@@ -4190,10 +4193,10 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="55"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="19" t="s">
+      <c r="A74" s="49"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="18" t="s">
         <v>116</v>
       </c>
       <c r="G74" s="10" t="s">
@@ -4204,10 +4207,10 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="55"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="19" t="s">
+      <c r="A75" s="49"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="18" t="s">
         <v>117</v>
       </c>
       <c r="G75" s="10" t="s">
@@ -4218,12 +4221,12 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="55"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="49" t="s">
+      <c r="A76" s="49"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="20" t="s">
+      <c r="E76" s="19" t="s">
         <v>119</v>
       </c>
       <c r="G76" s="10" t="s">
@@ -4234,10 +4237,10 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="55"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="20" t="s">
+      <c r="A77" s="49"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="19" t="s">
         <v>120</v>
       </c>
       <c r="G77" s="10" t="s">
@@ -4248,12 +4251,12 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="55"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="49" t="s">
+      <c r="A78" s="49"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="20" t="s">
+      <c r="E78" s="19" t="s">
         <v>122</v>
       </c>
       <c r="G78" s="10" t="s">
@@ -4264,10 +4267,10 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="55"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="20" t="s">
+      <c r="A79" s="49"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="19" t="s">
         <v>123</v>
       </c>
       <c r="G79" s="10" t="s">
@@ -4284,13 +4287,13 @@
       <c r="B80" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="19" t="s">
         <v>128</v>
       </c>
       <c r="G80" s="10" t="s">
@@ -4301,19 +4304,19 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="49" t="s">
         <v>130</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E81" s="20" t="s">
+      <c r="E81" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G81" s="10" t="s">
@@ -4321,17 +4324,17 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="55"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E82" s="20" t="s">
+      <c r="E82" s="19" t="s">
         <v>134</v>
       </c>
       <c r="G82" s="10" t="s">
@@ -4339,92 +4342,92 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="D83" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F83" s="25"/>
+      <c r="F83" s="24"/>
       <c r="G83" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="56"/>
-      <c r="B84" s="25" t="s">
+      <c r="A84" s="50"/>
+      <c r="B84" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E84" s="20" t="s">
+      <c r="E84" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="F84" s="25"/>
+      <c r="F84" s="24"/>
       <c r="G84" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="56"/>
-      <c r="B85" s="25" t="s">
+      <c r="A85" s="50"/>
+      <c r="B85" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="27" t="s">
+      <c r="D85" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E85" s="20" t="s">
+      <c r="E85" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F85" s="25"/>
+      <c r="F85" s="24"/>
       <c r="G85" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="56"/>
-      <c r="B86" s="25" t="s">
+      <c r="A86" s="50"/>
+      <c r="B86" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E86" s="20" t="s">
+      <c r="E86" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="25"/>
+      <c r="F86" s="24"/>
       <c r="G86" s="10" t="s">
         <v>142</v>
       </c>
       <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="49" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="52" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -4441,15 +4444,15 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="55"/>
-      <c r="B88" s="55" t="s">
+      <c r="A88" s="49"/>
+      <c r="B88" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="58"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="E88" s="19" t="s">
         <v>152</v>
       </c>
       <c r="G88" s="10" t="s">
@@ -4457,9 +4460,9 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="55"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="58"/>
+      <c r="A89" s="49"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="6" t="s">
         <v>16</v>
       </c>
@@ -4474,13 +4477,13 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="55"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="58"/>
+      <c r="A90" s="49"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="52"/>
       <c r="D90" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="20" t="s">
+      <c r="E90" s="19" t="s">
         <v>155</v>
       </c>
       <c r="F90" s="4" t="s">
@@ -4491,13 +4494,13 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="58"/>
+      <c r="A91" s="49"/>
+      <c r="B91" s="49"/>
+      <c r="C91" s="52"/>
       <c r="D91" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="20" t="s">
+      <c r="E91" s="19" t="s">
         <v>157</v>
       </c>
       <c r="F91" s="4" t="s">
@@ -4508,13 +4511,13 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="55"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="58"/>
+      <c r="A92" s="49"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="E92" s="28" t="s">
         <v>159</v>
       </c>
       <c r="G92" s="10" t="s">
@@ -4522,13 +4525,13 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="55"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="58"/>
+      <c r="A93" s="49"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="19" t="s">
         <v>160</v>
       </c>
       <c r="F93" s="4" t="s">
@@ -4539,13 +4542,13 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="55"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="58"/>
+      <c r="A94" s="49"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="19" t="s">
         <v>161</v>
       </c>
       <c r="F94" s="4" t="s">
@@ -4556,13 +4559,13 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="55"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="58"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E95" s="20" t="s">
+      <c r="E95" s="19" t="s">
         <v>162</v>
       </c>
       <c r="F95" s="4" t="s">
@@ -4573,13 +4576,13 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="33">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="58"/>
+      <c r="A96" s="49"/>
+      <c r="B96" s="49"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E96" s="30" t="s">
+      <c r="E96" s="29" t="s">
         <v>163</v>
       </c>
       <c r="G96" s="10" t="s">
@@ -4587,13 +4590,13 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="33">
-      <c r="A97" s="55"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="58"/>
+      <c r="A97" s="49"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E97" s="30" t="s">
+      <c r="E97" s="29" t="s">
         <v>165</v>
       </c>
       <c r="G97" s="10" t="s">
@@ -4601,13 +4604,13 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="58"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="49"/>
+      <c r="C98" s="52"/>
       <c r="D98" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="19" t="s">
         <v>166</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -4618,13 +4621,13 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="55"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="58"/>
+      <c r="A99" s="49"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="19" t="s">
         <v>168</v>
       </c>
       <c r="F99" s="4" t="s">
@@ -4635,13 +4638,13 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="33">
-      <c r="A100" s="55"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="58"/>
+      <c r="A100" s="49"/>
+      <c r="B100" s="49"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="29" t="s">
         <v>170</v>
       </c>
       <c r="F100" s="4" t="s">
@@ -4652,13 +4655,13 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="55"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="58"/>
+      <c r="A101" s="49"/>
+      <c r="B101" s="49"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="19" t="s">
         <v>171</v>
       </c>
       <c r="F101" s="4" t="s">
@@ -4669,13 +4672,13 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="55"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="58"/>
+      <c r="A102" s="49"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="52"/>
       <c r="D102" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="19" t="s">
         <v>172</v>
       </c>
       <c r="F102" s="4" t="s">
@@ -4686,13 +4689,13 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="55"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="58"/>
+      <c r="A103" s="49"/>
+      <c r="B103" s="49"/>
+      <c r="C103" s="52"/>
       <c r="D103" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E103" s="19" t="s">
         <v>173</v>
       </c>
       <c r="G103" s="10" t="s">
@@ -4700,13 +4703,13 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="33">
-      <c r="A104" s="55"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
+      <c r="A104" s="49"/>
+      <c r="B104" s="49"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="29" t="s">
         <v>174</v>
       </c>
       <c r="F104" s="4" t="s">
@@ -4717,9 +4720,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="33">
-      <c r="A105" s="55"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="58"/>
+      <c r="A105" s="49"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="52"/>
       <c r="D105" s="6" t="s">
         <v>97</v>
       </c>
@@ -4734,13 +4737,13 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="55"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
+      <c r="A106" s="49"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="52"/>
       <c r="D106" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="19" t="s">
         <v>176</v>
       </c>
       <c r="F106" s="4" t="s">
@@ -4751,13 +4754,13 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="33">
-      <c r="A107" s="55"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="58"/>
+      <c r="A107" s="49"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="52"/>
       <c r="D107" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="19" t="s">
         <v>177</v>
       </c>
       <c r="F107" s="4" t="s">
@@ -4768,13 +4771,13 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="55"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="58"/>
+      <c r="A108" s="49"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="52"/>
       <c r="D108" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="19" t="s">
         <v>179</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -4785,13 +4788,13 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="58"/>
+      <c r="A109" s="49"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="52"/>
       <c r="D109" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="19" t="s">
         <v>180</v>
       </c>
       <c r="F109" s="4" t="s">
@@ -4802,13 +4805,13 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="55"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="58"/>
+      <c r="A110" s="49"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="52"/>
       <c r="D110" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E110" s="20" t="s">
+      <c r="E110" s="19" t="s">
         <v>182</v>
       </c>
       <c r="G110" s="10" t="s">
@@ -4816,13 +4819,13 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="55"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="58"/>
+      <c r="A111" s="49"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="52"/>
       <c r="D111" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E111" s="20" t="s">
+      <c r="E111" s="19" t="s">
         <v>183</v>
       </c>
       <c r="G111" s="10" t="s">
@@ -4830,13 +4833,13 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="33">
-      <c r="A112" s="55"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="52"/>
       <c r="D112" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="30" t="s">
+      <c r="E112" s="29" t="s">
         <v>184</v>
       </c>
       <c r="F112" s="4" t="s">
@@ -4847,9 +4850,9 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="55"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="58"/>
+      <c r="A113" s="49"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="52"/>
       <c r="D113" s="6" t="s">
         <v>73</v>
       </c>
@@ -4864,13 +4867,13 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="55"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="58"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="52"/>
       <c r="D114" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E114" s="19" t="s">
         <v>187</v>
       </c>
       <c r="F114" s="4" t="s">
@@ -4881,13 +4884,13 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="55"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="58"/>
+      <c r="A115" s="49"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="52"/>
       <c r="D115" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="29" t="s">
         <v>188</v>
       </c>
       <c r="F115" s="4" t="s">
@@ -4898,13 +4901,13 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="55"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="58"/>
+      <c r="A116" s="49"/>
+      <c r="B116" s="49"/>
+      <c r="C116" s="52"/>
       <c r="D116" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="19" t="s">
         <v>189</v>
       </c>
       <c r="F116" s="4" t="s">
@@ -4915,13 +4918,13 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="55"/>
-      <c r="B117" s="55"/>
-      <c r="C117" s="58"/>
+      <c r="A117" s="49"/>
+      <c r="B117" s="49"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="20" t="s">
+      <c r="E117" s="19" t="s">
         <v>190</v>
       </c>
       <c r="F117" s="4" t="s">
@@ -4932,13 +4935,13 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="55"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="58"/>
+      <c r="A118" s="49"/>
+      <c r="B118" s="49"/>
+      <c r="C118" s="52"/>
       <c r="D118" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E118" s="30" t="s">
+      <c r="E118" s="29" t="s">
         <v>191</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -4949,155 +4952,155 @@
       </c>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="55"/>
-      <c r="B119" s="56" t="s">
+      <c r="A119" s="49"/>
+      <c r="B119" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="58"/>
-      <c r="D119" s="31" t="s">
+      <c r="C119" s="52"/>
+      <c r="D119" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="32" t="s">
+      <c r="E119" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="F119" s="25" t="s">
+      <c r="F119" s="24" t="s">
         <v>194</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="33"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="32"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="66">
-      <c r="A120" s="55"/>
-      <c r="B120" s="56"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="31" t="s">
+      <c r="A120" s="49"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E120" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="F120" s="32" t="s">
+      <c r="F120" s="31" t="s">
         <v>196</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I120" s="33"/>
-      <c r="J120" s="33"/>
-      <c r="K120" s="33"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="55"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="31" t="s">
+      <c r="A121" s="49"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="52"/>
+      <c r="D121" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E121" s="32" t="s">
+      <c r="E121" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="F121" s="32" t="s">
+      <c r="F121" s="31" t="s">
         <v>198</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I121" s="33"/>
-      <c r="J121" s="33"/>
-      <c r="K121" s="33"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32"/>
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="55"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="31" t="s">
+      <c r="A122" s="49"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E122" s="32" t="s">
+      <c r="E122" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="F122" s="25" t="s">
+      <c r="F122" s="24" t="s">
         <v>200</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I122" s="33"/>
-      <c r="J122" s="33"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A123" s="55"/>
-      <c r="B123" s="56"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="31" t="s">
+      <c r="A123" s="49"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F123" s="32" t="s">
+      <c r="F123" s="31" t="s">
         <v>202</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I123" s="33"/>
-      <c r="J123" s="33"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="55"/>
-      <c r="B124" s="56"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="31" t="s">
+      <c r="A124" s="49"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E124" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="F124" s="32" t="s">
+      <c r="F124" s="31" t="s">
         <v>204</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="32"/>
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="55"/>
-      <c r="B125" s="56"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="31" t="s">
+      <c r="A125" s="49"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E125" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="F125" s="32" t="s">
+      <c r="F125" s="31" t="s">
         <v>206</v>
       </c>
       <c r="G125" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I125" s="33"/>
-      <c r="J125" s="33"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="55"/>
-      <c r="B126" s="56"/>
-      <c r="C126" s="58"/>
-      <c r="D126" s="31" t="s">
+      <c r="A126" s="49"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="20" t="s">
+      <c r="E126" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F126" s="32" t="s">
+      <c r="F126" s="31" t="s">
         <v>169</v>
       </c>
       <c r="G126" s="10" t="s">
@@ -5105,16 +5108,16 @@
       </c>
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="55"/>
-      <c r="B127" s="56"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="34" t="s">
+      <c r="A127" s="49"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E127" s="20" t="s">
+      <c r="E127" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F127" s="32" t="s">
+      <c r="F127" s="31" t="s">
         <v>169</v>
       </c>
       <c r="G127" s="10" t="s">
@@ -5122,16 +5125,16 @@
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="55"/>
-      <c r="B128" s="56"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="34" t="s">
+      <c r="A128" s="49"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="20" t="s">
+      <c r="E128" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="F128" s="32" t="s">
+      <c r="F128" s="31" t="s">
         <v>169</v>
       </c>
       <c r="G128" s="10" t="s">
@@ -5139,54 +5142,54 @@
       </c>
     </row>
     <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="55"/>
-      <c r="B129" s="56"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="34" t="s">
+      <c r="A129" s="49"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="52"/>
+      <c r="D129" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="E129" s="20" t="s">
+      <c r="E129" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F129" s="32" t="s">
+      <c r="F129" s="31" t="s">
         <v>169</v>
       </c>
       <c r="G129" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="35"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="33"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
     </row>
     <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="55"/>
-      <c r="B130" s="56"/>
-      <c r="C130" s="58"/>
-      <c r="D130" s="34" t="s">
+      <c r="A130" s="49"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="20" t="s">
+      <c r="E130" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F130" s="32" t="s">
+      <c r="F130" s="31" t="s">
         <v>212</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J130" s="33"/>
+      <c r="J130" s="32"/>
     </row>
     <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="55"/>
-      <c r="B131" s="56"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="34" t="s">
+      <c r="A131" s="49"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E131" s="32" t="s">
+      <c r="E131" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="F131" s="32" t="s">
+      <c r="F131" s="31" t="s">
         <v>214</v>
       </c>
       <c r="G131" s="10" t="s">
@@ -5194,31 +5197,31 @@
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="55"/>
-      <c r="B132" s="56"/>
-      <c r="C132" s="58"/>
-      <c r="D132" s="34" t="s">
+      <c r="A132" s="49"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E132" s="32" t="s">
+      <c r="E132" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="F132" s="32"/>
+      <c r="F132" s="31"/>
       <c r="G132" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="55"/>
-      <c r="B133" s="56"/>
-      <c r="C133" s="58"/>
-      <c r="D133" s="34" t="s">
+      <c r="A133" s="49"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="E133" s="20" t="s">
+      <c r="E133" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="F133" s="32" t="s">
+      <c r="F133" s="31" t="s">
         <v>169</v>
       </c>
       <c r="G133" s="10" t="s">
@@ -5226,193 +5229,193 @@
       </c>
     </row>
     <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="55"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="34" t="s">
+      <c r="A134" s="49"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="E134" s="20" t="s">
+      <c r="E134" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F134" s="32" t="s">
+      <c r="F134" s="31" t="s">
         <v>169</v>
       </c>
       <c r="G134" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="35"/>
-      <c r="I134" s="33"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="32"/>
     </row>
     <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="55"/>
-      <c r="B135" s="56"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="34" t="s">
+      <c r="A135" s="49"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E135" s="20" t="s">
+      <c r="E135" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F135" s="36" t="s">
+      <c r="F135" s="35" t="s">
         <v>220</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="35"/>
-      <c r="I135" s="33"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="32"/>
     </row>
     <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="55"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="31" t="s">
+      <c r="A136" s="49"/>
+      <c r="B136" s="50"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E136" s="20" t="s">
+      <c r="E136" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="F136" s="36"/>
+      <c r="F136" s="35"/>
       <c r="G136" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H136" s="35"/>
-      <c r="I136" s="33"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="32"/>
     </row>
     <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B137" s="25" t="s">
+      <c r="B137" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C137" s="37" t="s">
+      <c r="C137" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="D137" s="38" t="s">
+      <c r="D137" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E137" s="20" t="s">
+      <c r="E137" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
     </row>
     <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="55"/>
-      <c r="B138" s="25" t="s">
+      <c r="A138" s="49"/>
+      <c r="B138" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C138" s="37" t="s">
+      <c r="C138" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="D138" s="38" t="s">
+      <c r="D138" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E138" s="20" t="s">
+      <c r="E138" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="36"/>
     </row>
     <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="55"/>
-      <c r="B139" s="25" t="s">
+      <c r="A139" s="49"/>
+      <c r="B139" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C139" s="37" t="s">
+      <c r="C139" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="D139" s="38" t="s">
+      <c r="D139" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E139" s="20" t="s">
+      <c r="E139" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
     </row>
     <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="55"/>
-      <c r="B140" s="25" t="s">
+      <c r="A140" s="49"/>
+      <c r="B140" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="37" t="s">
+      <c r="C140" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="D140" s="38" t="s">
+      <c r="D140" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E140" s="20" t="s">
+      <c r="E140" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
     </row>
     <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="55"/>
-      <c r="B141" s="25" t="s">
+      <c r="A141" s="49"/>
+      <c r="B141" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C141" s="37" t="s">
+      <c r="C141" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="D141" s="38" t="s">
+      <c r="D141" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E141" s="20" t="s">
+      <c r="E141" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="55"/>
-      <c r="B142" s="25" t="s">
+      <c r="A142" s="49"/>
+      <c r="B142" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C142" s="37" t="s">
+      <c r="C142" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="D142" s="38" t="s">
+      <c r="D142" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E142" s="20" t="s">
+      <c r="E142" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="36"/>
     </row>
     <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="55"/>
-      <c r="B143" s="25" t="s">
+      <c r="A143" s="49"/>
+      <c r="B143" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="C143" s="37" t="s">
+      <c r="C143" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="D143" s="38" t="s">
+      <c r="D143" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E143" s="20" t="s">
+      <c r="E143" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
     </row>
     <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="55"/>
+      <c r="A144" s="49"/>
       <c r="B144" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C144" s="39" t="s">
+      <c r="C144" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="D144" s="38" t="s">
+      <c r="D144" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E144" s="40" t="s">
+      <c r="E144" s="39" t="s">
         <v>245</v>
       </c>
       <c r="G144" s="10" t="s">
@@ -5420,19 +5423,19 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="66">
-      <c r="A145" s="55" t="s">
+      <c r="A145" s="49" t="s">
         <v>246</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C145" s="50" t="s">
+      <c r="C145" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="D145" s="41" t="s">
+      <c r="D145" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="E145" s="20" t="s">
+      <c r="E145" s="19" t="s">
         <v>250</v>
       </c>
       <c r="F145" s="5" t="s">
@@ -5443,12 +5446,12 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="55"/>
-      <c r="C146" s="50"/>
-      <c r="D146" s="41" t="s">
+      <c r="A146" s="49"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="E146" s="20" t="s">
+      <c r="E146" s="19" t="s">
         <v>253</v>
       </c>
       <c r="F146" s="4" t="s">
@@ -5459,12 +5462,12 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="55"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="41" t="s">
+      <c r="A147" s="49"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="E147" s="20" t="s">
+      <c r="E147" s="19" t="s">
         <v>256</v>
       </c>
       <c r="G147" s="10" t="s">
@@ -5472,12 +5475,12 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="55"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="41" t="s">
+      <c r="A148" s="49"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="E148" s="20" t="s">
+      <c r="E148" s="19" t="s">
         <v>258</v>
       </c>
       <c r="G148" s="10" t="s">
@@ -5485,12 +5488,12 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="55"/>
-      <c r="C149" s="50"/>
-      <c r="D149" s="41" t="s">
+      <c r="A149" s="49"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E149" s="20" t="s">
+      <c r="E149" s="19" t="s">
         <v>260</v>
       </c>
       <c r="G149" s="10" t="s">
@@ -5498,12 +5501,12 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="55"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="41" t="s">
+      <c r="A150" s="49"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="E150" s="20" t="s">
+      <c r="E150" s="19" t="s">
         <v>262</v>
       </c>
       <c r="G150" s="10" t="s">
@@ -5511,9 +5514,9 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="33">
-      <c r="A151" s="55"/>
-      <c r="C151" s="50"/>
-      <c r="D151" s="41" t="s">
+      <c r="A151" s="49"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="40" t="s">
         <v>263</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -5524,12 +5527,12 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="55"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="41" t="s">
+      <c r="A152" s="49"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="E152" s="20" t="s">
+      <c r="E152" s="19" t="s">
         <v>266</v>
       </c>
       <c r="G152" s="10" t="s">
@@ -5537,12 +5540,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="55"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="41" t="s">
+      <c r="A153" s="49"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="E153" s="20" t="s">
+      <c r="E153" s="19" t="s">
         <v>268</v>
       </c>
       <c r="G153" s="10" t="s">
@@ -5550,12 +5553,12 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="55"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="41" t="s">
+      <c r="A154" s="49"/>
+      <c r="C154" s="53"/>
+      <c r="D154" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="E154" s="20" t="s">
+      <c r="E154" s="19" t="s">
         <v>270</v>
       </c>
       <c r="G154" s="10" t="s">
@@ -5563,12 +5566,12 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="55"/>
-      <c r="C155" s="50"/>
-      <c r="D155" s="41" t="s">
+      <c r="A155" s="49"/>
+      <c r="C155" s="53"/>
+      <c r="D155" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="E155" s="20" t="s">
+      <c r="E155" s="19" t="s">
         <v>272</v>
       </c>
       <c r="G155" s="10" t="s">
@@ -5576,12 +5579,12 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="55"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="41" t="s">
+      <c r="A156" s="49"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="E156" s="20" t="s">
+      <c r="E156" s="19" t="s">
         <v>274</v>
       </c>
       <c r="G156" s="10" t="s">
@@ -5589,12 +5592,12 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="33">
-      <c r="A157" s="55"/>
-      <c r="C157" s="50"/>
-      <c r="D157" s="41" t="s">
+      <c r="A157" s="49"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="E157" s="20" t="s">
+      <c r="E157" s="19" t="s">
         <v>276</v>
       </c>
       <c r="G157" s="10" t="s">
@@ -5602,16 +5605,16 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="49.5">
-      <c r="A158" s="55" t="s">
+      <c r="A158" s="49" t="s">
         <v>246</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C158" s="50" t="s">
+      <c r="C158" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="D158" s="41" t="s">
+      <c r="D158" s="40" t="s">
         <v>252</v>
       </c>
       <c r="E158" s="7" t="s">
@@ -5622,12 +5625,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="55"/>
-      <c r="C159" s="50"/>
-      <c r="D159" s="41" t="s">
+      <c r="A159" s="49"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="E159" s="20" t="s">
+      <c r="E159" s="19" t="s">
         <v>280</v>
       </c>
       <c r="G159" s="10" t="s">
@@ -5635,9 +5638,9 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="55"/>
-      <c r="C160" s="50"/>
-      <c r="D160" s="41" t="s">
+      <c r="A160" s="49"/>
+      <c r="C160" s="53"/>
+      <c r="D160" s="40" t="s">
         <v>265</v>
       </c>
       <c r="E160" s="7" t="s">
@@ -5648,12 +5651,12 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="55"/>
-      <c r="C161" s="50"/>
-      <c r="D161" s="41" t="s">
+      <c r="A161" s="49"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="E161" s="20" t="s">
+      <c r="E161" s="19" t="s">
         <v>282</v>
       </c>
       <c r="G161" s="10" t="s">
@@ -5661,12 +5664,12 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="55"/>
-      <c r="C162" s="50"/>
-      <c r="D162" s="41" t="s">
+      <c r="A162" s="49"/>
+      <c r="C162" s="53"/>
+      <c r="D162" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="E162" s="20" t="s">
+      <c r="E162" s="19" t="s">
         <v>283</v>
       </c>
       <c r="G162" s="10" t="s">
@@ -5674,12 +5677,12 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="55"/>
-      <c r="C163" s="50"/>
-      <c r="D163" s="41" t="s">
+      <c r="A163" s="49"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="E163" s="20" t="s">
+      <c r="E163" s="19" t="s">
         <v>284</v>
       </c>
       <c r="G163" s="10" t="s">
@@ -5687,12 +5690,12 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="55"/>
-      <c r="C164" s="50"/>
-      <c r="D164" s="41" t="s">
+      <c r="A164" s="49"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="E164" s="20" t="s">
+      <c r="E164" s="19" t="s">
         <v>285</v>
       </c>
       <c r="G164" s="10" t="s">
@@ -5700,19 +5703,19 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="55" t="s">
+      <c r="A165" s="49" t="s">
         <v>246</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C165" s="50" t="s">
+      <c r="C165" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="D165" s="41" t="s">
+      <c r="D165" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="E165" s="20" t="s">
+      <c r="E165" s="19" t="s">
         <v>287</v>
       </c>
       <c r="G165" s="10" t="s">
@@ -5720,9 +5723,9 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="55"/>
-      <c r="C166" s="50"/>
-      <c r="D166" s="41" t="s">
+      <c r="A166" s="49"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="40" t="s">
         <v>255</v>
       </c>
       <c r="E166" s="7" t="s">
@@ -5733,9 +5736,9 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="55"/>
-      <c r="C167" s="50"/>
-      <c r="D167" s="41" t="s">
+      <c r="A167" s="49"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="40" t="s">
         <v>257</v>
       </c>
       <c r="E167" s="7" t="s">
@@ -5746,9 +5749,9 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="55"/>
-      <c r="C168" s="50"/>
-      <c r="D168" s="41" t="s">
+      <c r="A168" s="49"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="40" t="s">
         <v>259</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5759,9 +5762,9 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="55"/>
-      <c r="C169" s="50"/>
-      <c r="D169" s="41" t="s">
+      <c r="A169" s="49"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="40" t="s">
         <v>291</v>
       </c>
       <c r="E169" s="7" t="s">
@@ -5772,9 +5775,9 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="55"/>
-      <c r="C170" s="50"/>
-      <c r="D170" s="41" t="s">
+      <c r="A170" s="49"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="40" t="s">
         <v>263</v>
       </c>
       <c r="E170" s="7" t="s">
@@ -5785,8 +5788,8 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="55"/>
-      <c r="C171" s="50"/>
+      <c r="A171" s="49"/>
+      <c r="C171" s="53"/>
       <c r="D171" s="7" t="s">
         <v>294</v>
       </c>
@@ -5798,9 +5801,9 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="55"/>
-      <c r="C172" s="50"/>
-      <c r="D172" s="41" t="s">
+      <c r="A172" s="49"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="40" t="s">
         <v>269</v>
       </c>
       <c r="E172" s="7" t="s">
@@ -5811,9 +5814,9 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="55"/>
-      <c r="C173" s="50"/>
-      <c r="D173" s="41" t="s">
+      <c r="A173" s="49"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="40" t="s">
         <v>271</v>
       </c>
       <c r="E173" s="7" t="s">
@@ -5824,9 +5827,9 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="55"/>
-      <c r="C174" s="50"/>
-      <c r="D174" s="41" t="s">
+      <c r="A174" s="49"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="40" t="s">
         <v>273</v>
       </c>
       <c r="E174" s="7" t="s">
@@ -5837,9 +5840,9 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="33">
-      <c r="A175" s="55"/>
-      <c r="C175" s="50"/>
-      <c r="D175" s="41" t="s">
+      <c r="A175" s="49"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="40" t="s">
         <v>275</v>
       </c>
       <c r="E175" s="7" t="s">
@@ -5850,19 +5853,19 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="55" t="s">
+      <c r="A176" s="49" t="s">
         <v>246</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="50" t="s">
+      <c r="C176" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="D176" s="41" t="s">
+      <c r="D176" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="E176" s="20" t="s">
+      <c r="E176" s="19" t="s">
         <v>301</v>
       </c>
       <c r="G176" s="10" t="s">
@@ -5870,9 +5873,9 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="55"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="41" t="s">
+      <c r="A177" s="49"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="40" t="s">
         <v>255</v>
       </c>
       <c r="E177" s="7" t="s">
@@ -5883,9 +5886,9 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="55"/>
-      <c r="C178" s="50"/>
-      <c r="D178" s="41" t="s">
+      <c r="A178" s="49"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="40" t="s">
         <v>257</v>
       </c>
       <c r="E178" s="7" t="s">
@@ -5896,9 +5899,9 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="55"/>
-      <c r="C179" s="50"/>
-      <c r="D179" s="41" t="s">
+      <c r="A179" s="49"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="40" t="s">
         <v>259</v>
       </c>
       <c r="E179" s="7" t="s">
@@ -5909,9 +5912,9 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="55"/>
-      <c r="C180" s="50"/>
-      <c r="D180" s="41" t="s">
+      <c r="A180" s="49"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="40" t="s">
         <v>291</v>
       </c>
       <c r="E180" s="7" t="s">
@@ -5922,9 +5925,9 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="55"/>
-      <c r="C181" s="50"/>
-      <c r="D181" s="41" t="s">
+      <c r="A181" s="49"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="40" t="s">
         <v>263</v>
       </c>
       <c r="E181" s="7" t="s">
@@ -5935,9 +5938,9 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="55"/>
-      <c r="C182" s="50"/>
-      <c r="D182" s="41" t="s">
+      <c r="A182" s="49"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="40" t="s">
         <v>267</v>
       </c>
       <c r="E182" s="7" t="s">
@@ -5948,8 +5951,8 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="55"/>
-      <c r="C183" s="50"/>
+      <c r="A183" s="49"/>
+      <c r="C183" s="53"/>
       <c r="D183" s="7" t="s">
         <v>294</v>
       </c>
@@ -5961,9 +5964,9 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="55"/>
-      <c r="C184" s="50"/>
-      <c r="D184" s="41" t="s">
+      <c r="A184" s="49"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="40" t="s">
         <v>269</v>
       </c>
       <c r="E184" s="7" t="s">
@@ -5974,9 +5977,9 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="55"/>
-      <c r="C185" s="50"/>
-      <c r="D185" s="41" t="s">
+      <c r="A185" s="49"/>
+      <c r="C185" s="53"/>
+      <c r="D185" s="40" t="s">
         <v>275</v>
       </c>
       <c r="E185" s="7" t="s">
@@ -5987,16 +5990,16 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="66">
-      <c r="A186" s="38" t="s">
+      <c r="A186" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="C186" s="42" t="s">
+      <c r="C186" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="D186" s="38" t="s">
+      <c r="D186" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="E186" s="40" t="s">
+      <c r="E186" s="39" t="s">
         <v>313</v>
       </c>
       <c r="G186" s="10" t="s">
@@ -6007,16 +6010,16 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="99">
-      <c r="A187" s="43" t="s">
+      <c r="A187" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="C187" s="42" t="s">
+      <c r="C187" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="D187" s="38" t="s">
+      <c r="D187" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="E187" s="40" t="s">
+      <c r="E187" s="39" t="s">
         <v>317</v>
       </c>
       <c r="G187" s="10" t="s">
@@ -6027,16 +6030,16 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="66">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="C188" s="42" t="s">
+      <c r="C188" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="D188" s="38" t="s">
+      <c r="D188" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="E188" s="40" t="s">
+      <c r="E188" s="39" t="s">
         <v>321</v>
       </c>
       <c r="G188" s="10" t="s">
@@ -6047,16 +6050,16 @@
       </c>
     </row>
     <row r="189" spans="1:8" ht="49.5">
-      <c r="A189" s="43" t="s">
+      <c r="A189" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="C189" s="42" t="s">
+      <c r="C189" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="D189" s="38" t="s">
+      <c r="D189" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="E189" s="40" t="s">
+      <c r="E189" s="39" t="s">
         <v>325</v>
       </c>
       <c r="G189" s="10" t="s">
@@ -6070,7 +6073,7 @@
       <c r="A190" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C190" s="42" t="s">
+      <c r="C190" s="41" t="s">
         <v>327</v>
       </c>
       <c r="D190" s="6" t="s">
@@ -6087,19 +6090,19 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="55" t="s">
+      <c r="A191" s="49" t="s">
         <v>330</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C191" s="44" t="s">
+      <c r="C191" s="43" t="s">
         <v>332</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E191" s="20" t="s">
+      <c r="E191" s="19" t="s">
         <v>333</v>
       </c>
       <c r="G191" s="10" t="s">
@@ -6107,17 +6110,17 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="55"/>
+      <c r="A192" s="49"/>
       <c r="B192" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C192" s="44" t="s">
+      <c r="C192" s="43" t="s">
         <v>335</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E192" s="45" t="s">
+      <c r="E192" s="44" t="s">
         <v>336</v>
       </c>
       <c r="G192" s="10" t="s">
@@ -6125,17 +6128,17 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="55"/>
+      <c r="A193" s="49"/>
       <c r="B193" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C193" s="44" t="s">
+      <c r="C193" s="43" t="s">
         <v>338</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E193" s="20" t="s">
+      <c r="E193" s="19" t="s">
         <v>339</v>
       </c>
       <c r="G193" s="10" t="s">
@@ -6146,13 +6149,13 @@
       <c r="A194" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C194" s="44" t="s">
+      <c r="C194" s="43" t="s">
         <v>341</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="E194" s="20" t="s">
+      <c r="E194" s="19" t="s">
         <v>343</v>
       </c>
       <c r="G194" s="10" t="s">
@@ -6165,21 +6168,25 @@
   </sheetData>
   <autoFilter ref="D1:G200"/>
   <mergeCells count="50">
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6196,25 +6203,21 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\crawler-scrapy\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="586">
   <si>
     <t>所属分类</t>
   </si>
@@ -1782,6 +1782,22 @@
   </si>
   <si>
     <t>刘毅（李易）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>王建</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘毅</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘毅</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘毅</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1896,18 +1912,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1930,19 +1946,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFDADBDA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDADBDA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDADBDA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1958,7 +1961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1992,25 +1995,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2061,9 +2052,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2103,8 +2091,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2118,26 +2115,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3069,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -3114,104 +3129,109 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="49"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="11" t="s">
+      <c r="A3" s="47"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="49"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="12" t="s">
+      <c r="A4" s="47"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="44" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="49"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="55" t="s">
+      <c r="A5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="F5" s="53"/>
+      <c r="G5" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="49"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="47"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="49"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="14" t="s">
+      <c r="A7" s="47"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="49"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="54" t="s">
+      <c r="A8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="40" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -3222,10 +3242,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="49"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="45" t="s">
+      <c r="A9" s="47"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="40" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -3236,10 +3256,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="49"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="45" t="s">
+      <c r="A10" s="47"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="40" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -3250,42 +3270,44 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="49"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="57" t="s">
+      <c r="A11" s="47"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="53"/>
+      <c r="G11" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="49"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="11" t="s">
+      <c r="A12" s="47"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="F12" s="53"/>
+      <c r="G12" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="49"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="54" t="s">
+      <c r="A13" s="47"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="40" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -3296,10 +3318,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="49"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="45" t="s">
+      <c r="A14" s="47"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="40" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -3310,12 +3332,12 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="49"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="54" t="s">
+      <c r="A15" s="47"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="40" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -3326,10 +3348,10 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="49"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="45" t="s">
+      <c r="A16" s="47"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="40" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -3340,10 +3362,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="49"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="45" t="s">
+      <c r="A17" s="47"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="40" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="10" t="s">
@@ -3354,100 +3376,104 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="49"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="54" t="s">
+      <c r="A18" s="47"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="42" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="44" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="49"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="11" t="s">
+      <c r="A19" s="47"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="F19" s="53"/>
+      <c r="G19" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="49"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="11" t="s">
+      <c r="A20" s="47"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="F20" s="53"/>
+      <c r="G20" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="49"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="57" t="s">
+      <c r="A21" s="47"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="F21" s="53"/>
+      <c r="G21" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="49"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="11" t="s">
+      <c r="A22" s="47"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="F22" s="53"/>
+      <c r="G22" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="49"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="54" t="s">
+      <c r="A23" s="47"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="42" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="44" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="49"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="45" t="s">
+      <c r="A24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="40" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="10" t="s">
@@ -3458,79 +3484,80 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="49"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="54" t="s">
+      <c r="A25" s="47"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="F25" s="53"/>
+      <c r="G25" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="49"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="11" t="s">
+      <c r="A26" s="47"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="F26" s="60"/>
+      <c r="G26" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="49"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="54" t="s">
+      <c r="A27" s="47"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="44" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="49"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="47" t="s">
+      <c r="A28" s="47"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="12" t="s">
         <v>50</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="44" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="49"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="54" t="s">
+      <c r="A29" s="47"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="40" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="10" t="s">
@@ -3541,10 +3568,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="49"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="46" t="s">
+      <c r="A30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="41" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -3555,10 +3582,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="49"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="46" t="s">
+      <c r="A31" s="47"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="41" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -3569,694 +3596,733 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="49"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="54" t="s">
+      <c r="A32" s="47"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="F32" s="53"/>
+      <c r="G32" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="49"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="11" t="s">
+      <c r="A33" s="47"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="F33" s="53"/>
+      <c r="G33" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="49"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="54" t="s">
+      <c r="A34" s="47"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="F34" s="53"/>
+      <c r="G34" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="49"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="17" t="s">
+      <c r="A35" s="47"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="8" t="s">
+      <c r="F35" s="53"/>
+      <c r="G35" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="49"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="17" t="s">
+      <c r="A36" s="47"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="8" t="s">
+      <c r="F36" s="53"/>
+      <c r="G36" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="49"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="54" t="s">
+      <c r="A37" s="47"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="H37" s="44" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="49"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="16" t="s">
+      <c r="A38" s="47"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="13" t="s">
         <v>64</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="44" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="49"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="54" t="s">
+      <c r="A39" s="47"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="8" t="s">
+      <c r="F39" s="53"/>
+      <c r="G39" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="49"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="17" t="s">
+      <c r="A40" s="47"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>13</v>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="55" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="49"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="17" t="s">
+      <c r="A41" s="47"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="8" t="s">
+      <c r="F41" s="53"/>
+      <c r="G41" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="33">
+      <c r="A42" s="47"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="53"/>
+      <c r="G42" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="49"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="8" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="47"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="53"/>
+      <c r="G43" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="49"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="8" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="47"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="49"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="8" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="47"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="53"/>
+      <c r="G45" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="49"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="8" t="s">
+    <row r="46" spans="1:8" ht="27">
+      <c r="A46" s="47"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="53"/>
+      <c r="G46" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="49"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="8" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="47"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="53"/>
+      <c r="G47" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="49"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="8" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="47"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="49"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="8" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="47"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="49"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="8" t="s">
+    <row r="50" spans="1:8" ht="33">
+      <c r="A50" s="47"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="47"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="47"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="47"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="47"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="47"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="53"/>
+      <c r="G55" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="49"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="49"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="48" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="49"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="49"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="49"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="49"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="8" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="47"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" s="53"/>
+      <c r="G56" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="49"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="8" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="47"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="53"/>
+      <c r="G57" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="49"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="8" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="47"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="53"/>
+      <c r="G58" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="49"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="8" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="47"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="53"/>
+      <c r="G59" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="49"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="8" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="47"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="53"/>
+      <c r="G60" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="49"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="8" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="47"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" s="53"/>
+      <c r="G61" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="49"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="8" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="47"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="49"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="8" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="47"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" s="53"/>
+      <c r="G63" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="49"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="8" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="47"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="49"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="8" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="47"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="53"/>
+      <c r="G65" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="49"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="8" t="s">
+    <row r="66" spans="1:8" ht="33">
+      <c r="A66" s="47"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="53"/>
+      <c r="G66" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="49"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="8" t="s">
+    <row r="67" spans="1:8" ht="33">
+      <c r="A67" s="47"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="49"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="8" t="s">
+    <row r="68" spans="1:8" ht="66">
+      <c r="A68" s="47"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="53"/>
+      <c r="G68" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="49"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="8" t="s">
+    <row r="69" spans="1:8">
+      <c r="A69" s="47"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69" s="53"/>
+      <c r="G69" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="49"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="8" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="47"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" s="53"/>
+      <c r="G70" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="49"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="8" t="s">
+    <row r="71" spans="1:8" ht="33">
+      <c r="A71" s="47"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" s="53"/>
+      <c r="G71" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="49"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="8" t="s">
+    <row r="72" spans="1:8" ht="33">
+      <c r="A72" s="47"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="49"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="8" t="s">
+    <row r="73" spans="1:8" ht="33">
+      <c r="A73" s="47"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="49"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="8" t="s">
+    <row r="74" spans="1:8" ht="33">
+      <c r="A74" s="47"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="53"/>
+      <c r="G74" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="49"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="8" t="s">
+    <row r="75" spans="1:8" ht="33">
+      <c r="A75" s="47"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="53"/>
+      <c r="G75" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="49"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="8" t="s">
+    <row r="76" spans="1:8">
+      <c r="A76" s="47"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="53"/>
+      <c r="G76" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="49"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="8" t="s">
+    <row r="77" spans="1:8">
+      <c r="A77" s="47"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" s="53"/>
+      <c r="G77" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="49"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="49"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="54" t="s">
+      <c r="A78" s="47"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="19" t="s">
+      <c r="E78" s="15" t="s">
         <v>122</v>
       </c>
       <c r="G78" s="10" t="s">
@@ -4267,10 +4333,10 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="49"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="19" t="s">
+      <c r="A79" s="47"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="15" t="s">
         <v>123</v>
       </c>
       <c r="G79" s="10" t="s">
@@ -4287,13 +4353,13 @@
       <c r="B80" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="15" t="s">
         <v>128</v>
       </c>
       <c r="G80" s="10" t="s">
@@ -4304,130 +4370,147 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="47" t="s">
         <v>130</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="15" t="s">
         <v>134</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H81" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="49"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="15" t="s">
         <v>134</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H82" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="50" t="s">
+      <c r="A83" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="27" t="s">
+      <c r="E83" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F83" s="24"/>
+      <c r="F83" s="20"/>
       <c r="G83" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H83" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="50"/>
-      <c r="B84" s="24" t="s">
+      <c r="A84" s="48"/>
+      <c r="B84" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F84" s="24"/>
+      <c r="F84" s="20"/>
       <c r="G84" s="10" t="s">
         <v>142</v>
       </c>
+      <c r="H84" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="50"/>
-      <c r="B85" s="24" t="s">
+      <c r="A85" s="48"/>
+      <c r="B85" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F85" s="24"/>
+      <c r="F85" s="20"/>
       <c r="G85" s="10" t="s">
         <v>142</v>
       </c>
+      <c r="H85" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="50"/>
-      <c r="B86" s="24" t="s">
+      <c r="A86" s="48"/>
+      <c r="B86" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C86" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="24"/>
+      <c r="F86" s="20"/>
       <c r="G86" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H86" s="8"/>
+      <c r="H86" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="47" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="50" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -4444,25 +4527,28 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49" t="s">
+      <c r="A88" s="47"/>
+      <c r="B88" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="52"/>
+      <c r="C88" s="50"/>
       <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E88" s="15" t="s">
         <v>152</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H88" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="52"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="50"/>
       <c r="D89" s="6" t="s">
         <v>16</v>
       </c>
@@ -4475,15 +4561,18 @@
       <c r="G89" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H89" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="52"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="50"/>
       <c r="D90" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="E90" s="15" t="s">
         <v>155</v>
       </c>
       <c r="F90" s="4" t="s">
@@ -4492,15 +4581,18 @@
       <c r="G90" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H90" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="52"/>
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="50"/>
       <c r="D91" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="E91" s="15" t="s">
         <v>157</v>
       </c>
       <c r="F91" s="4" t="s">
@@ -4509,29 +4601,35 @@
       <c r="G91" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H91" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="52"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="50"/>
       <c r="D92" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="28" t="s">
+      <c r="E92" s="24" t="s">
         <v>159</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H92" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="49"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="52"/>
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="50"/>
       <c r="D93" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="E93" s="15" t="s">
         <v>160</v>
       </c>
       <c r="F93" s="4" t="s">
@@ -4540,15 +4638,18 @@
       <c r="G93" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H93" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="52"/>
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="50"/>
       <c r="D94" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="15" t="s">
         <v>161</v>
       </c>
       <c r="F94" s="4" t="s">
@@ -4557,15 +4658,18 @@
       <c r="G94" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H94" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="52"/>
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="50"/>
       <c r="D95" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="15" t="s">
         <v>162</v>
       </c>
       <c r="F95" s="4" t="s">
@@ -4574,43 +4678,52 @@
       <c r="G95" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H95" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="33">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="52"/>
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="50"/>
       <c r="D96" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="25" t="s">
         <v>163</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="33">
-      <c r="A97" s="49"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="52"/>
+      <c r="H96" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="33">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="50"/>
       <c r="D97" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="25" t="s">
         <v>165</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="52"/>
+      <c r="H97" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="47"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="50"/>
       <c r="D98" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="E98" s="15" t="s">
         <v>166</v>
       </c>
       <c r="F98" s="4" t="s">
@@ -4619,15 +4732,18 @@
       <c r="G98" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="52"/>
+      <c r="H98" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="47"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="50"/>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E99" s="19" t="s">
+      <c r="E99" s="15" t="s">
         <v>168</v>
       </c>
       <c r="F99" s="4" t="s">
@@ -4636,15 +4752,18 @@
       <c r="G99" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="33">
-      <c r="A100" s="49"/>
-      <c r="B100" s="49"/>
-      <c r="C100" s="52"/>
+      <c r="H99" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="33">
+      <c r="A100" s="47"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="50"/>
       <c r="D100" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E100" s="29" t="s">
+      <c r="E100" s="25" t="s">
         <v>170</v>
       </c>
       <c r="F100" s="4" t="s">
@@ -4653,15 +4772,18 @@
       <c r="G100" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="49"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="52"/>
+      <c r="H100" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="47"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="50"/>
       <c r="D101" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="E101" s="15" t="s">
         <v>171</v>
       </c>
       <c r="F101" s="4" t="s">
@@ -4670,15 +4792,18 @@
       <c r="G101" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="49"/>
-      <c r="B102" s="49"/>
-      <c r="C102" s="52"/>
+      <c r="H101" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="47"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="50"/>
       <c r="D102" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="E102" s="15" t="s">
         <v>172</v>
       </c>
       <c r="F102" s="4" t="s">
@@ -4687,29 +4812,35 @@
       <c r="G102" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="49"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="52"/>
+      <c r="H102" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="47"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="50"/>
       <c r="D103" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="15" t="s">
         <v>173</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="33">
-      <c r="A104" s="49"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="52"/>
+      <c r="H103" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="33">
+      <c r="A104" s="47"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="50"/>
       <c r="D104" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E104" s="29" t="s">
+      <c r="E104" s="25" t="s">
         <v>174</v>
       </c>
       <c r="F104" s="4" t="s">
@@ -4718,11 +4849,14 @@
       <c r="G104" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="33">
-      <c r="A105" s="49"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="52"/>
+      <c r="H104" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="33">
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="50"/>
       <c r="D105" s="6" t="s">
         <v>97</v>
       </c>
@@ -4735,15 +4869,18 @@
       <c r="G105" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="49"/>
-      <c r="B106" s="49"/>
-      <c r="C106" s="52"/>
+      <c r="H105" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="47"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="50"/>
       <c r="D106" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="15" t="s">
         <v>176</v>
       </c>
       <c r="F106" s="4" t="s">
@@ -4752,15 +4889,18 @@
       <c r="G106" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="33">
-      <c r="A107" s="49"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="52"/>
+      <c r="H106" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="33">
+      <c r="A107" s="47"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="50"/>
       <c r="D107" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="15" t="s">
         <v>177</v>
       </c>
       <c r="F107" s="4" t="s">
@@ -4769,15 +4909,18 @@
       <c r="G107" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="49"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="52"/>
+      <c r="H107" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="47"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="50"/>
       <c r="D108" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="15" t="s">
         <v>179</v>
       </c>
       <c r="F108" s="4" t="s">
@@ -4786,15 +4929,18 @@
       <c r="G108" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="49"/>
-      <c r="B109" s="49"/>
-      <c r="C109" s="52"/>
+      <c r="H108" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="47"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="50"/>
       <c r="D109" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="E109" s="15" t="s">
         <v>180</v>
       </c>
       <c r="F109" s="4" t="s">
@@ -4803,43 +4949,52 @@
       <c r="G109" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="49"/>
-      <c r="B110" s="49"/>
-      <c r="C110" s="52"/>
+      <c r="H109" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="47"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="50"/>
       <c r="D110" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="15" t="s">
         <v>182</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="49"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="52"/>
+      <c r="H110" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="47"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="50"/>
       <c r="D111" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="E111" s="15" t="s">
         <v>183</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="33">
-      <c r="A112" s="49"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="52"/>
+      <c r="H111" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="33">
+      <c r="A112" s="47"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="50"/>
       <c r="D112" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="29" t="s">
+      <c r="E112" s="25" t="s">
         <v>184</v>
       </c>
       <c r="F112" s="4" t="s">
@@ -4848,11 +5003,14 @@
       <c r="G112" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H112" s="8" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="49"/>
-      <c r="B113" s="49"/>
-      <c r="C113" s="52"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="50"/>
       <c r="D113" s="6" t="s">
         <v>73</v>
       </c>
@@ -4865,15 +5023,18 @@
       <c r="G113" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H113" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="49"/>
-      <c r="B114" s="49"/>
-      <c r="C114" s="52"/>
+      <c r="A114" s="47"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="50"/>
       <c r="D114" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E114" s="19" t="s">
+      <c r="E114" s="15" t="s">
         <v>187</v>
       </c>
       <c r="F114" s="4" t="s">
@@ -4882,15 +5043,18 @@
       <c r="G114" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H114" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="49"/>
-      <c r="B115" s="49"/>
-      <c r="C115" s="52"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="50"/>
       <c r="D115" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="29" t="s">
+      <c r="E115" s="25" t="s">
         <v>188</v>
       </c>
       <c r="F115" s="4" t="s">
@@ -4899,15 +5063,18 @@
       <c r="G115" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H115" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="49"/>
-      <c r="B116" s="49"/>
-      <c r="C116" s="52"/>
+      <c r="A116" s="47"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="50"/>
       <c r="D116" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E116" s="15" t="s">
         <v>189</v>
       </c>
       <c r="F116" s="4" t="s">
@@ -4916,15 +5083,18 @@
       <c r="G116" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H116" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="49"/>
-      <c r="B117" s="49"/>
-      <c r="C117" s="52"/>
+      <c r="A117" s="47"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="50"/>
       <c r="D117" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="E117" s="15" t="s">
         <v>190</v>
       </c>
       <c r="F117" s="4" t="s">
@@ -4933,15 +5103,18 @@
       <c r="G117" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H117" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="49"/>
-      <c r="B118" s="49"/>
-      <c r="C118" s="52"/>
+      <c r="A118" s="47"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="50"/>
       <c r="D118" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E118" s="25" t="s">
         <v>191</v>
       </c>
       <c r="F118" s="4" t="s">
@@ -4950,492 +5123,568 @@
       <c r="G118" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H118" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="49"/>
-      <c r="B119" s="50" t="s">
+      <c r="A119" s="47"/>
+      <c r="B119" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="52"/>
-      <c r="D119" s="30" t="s">
+      <c r="C119" s="50"/>
+      <c r="D119" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="31" t="s">
+      <c r="E119" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F119" s="24" t="s">
+      <c r="F119" s="20" t="s">
         <v>194</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="32"/>
+      <c r="H119" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="28"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="66">
-      <c r="A120" s="49"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="30" t="s">
+      <c r="A120" s="47"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="19" t="s">
+      <c r="E120" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="F120" s="31" t="s">
+      <c r="F120" s="27" t="s">
         <v>196</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I120" s="32"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="32"/>
+      <c r="H120" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="49"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="52"/>
-      <c r="D121" s="30" t="s">
+      <c r="A121" s="47"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E121" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="F121" s="31" t="s">
+      <c r="F121" s="27" t="s">
         <v>198</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I121" s="32"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="32"/>
+      <c r="H121" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="28"/>
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="49"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="52"/>
-      <c r="D122" s="30" t="s">
+      <c r="A122" s="47"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="F122" s="24" t="s">
+      <c r="F122" s="20" t="s">
         <v>200</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I122" s="32"/>
-      <c r="J122" s="32"/>
+      <c r="H122" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A123" s="49"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="30" t="s">
+      <c r="A123" s="47"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="19" t="s">
+      <c r="E123" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F123" s="31" t="s">
+      <c r="F123" s="27" t="s">
         <v>202</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I123" s="32"/>
-      <c r="J123" s="32"/>
+      <c r="H123" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="49"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="30" t="s">
+      <c r="A124" s="47"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E124" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="F124" s="31" t="s">
+      <c r="F124" s="27" t="s">
         <v>204</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I124" s="32"/>
-      <c r="J124" s="32"/>
+      <c r="H124" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="49"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="52"/>
-      <c r="D125" s="30" t="s">
+      <c r="A125" s="47"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F125" s="31" t="s">
+      <c r="F125" s="27" t="s">
         <v>206</v>
       </c>
       <c r="G125" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I125" s="32"/>
-      <c r="J125" s="32"/>
+      <c r="H125" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="49"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="30" t="s">
+      <c r="A126" s="47"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="19" t="s">
+      <c r="E126" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F126" s="31" t="s">
+      <c r="F126" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G126" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H126" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="49"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="33" t="s">
+      <c r="A127" s="47"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F127" s="31" t="s">
+      <c r="F127" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G127" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H127" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="49"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="33" t="s">
+      <c r="A128" s="47"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="F128" s="31" t="s">
+      <c r="F128" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G128" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H128" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="49"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="33" t="s">
+      <c r="A129" s="47"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E129" s="19" t="s">
+      <c r="E129" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="F129" s="31" t="s">
+      <c r="F129" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G129" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="34"/>
-      <c r="I129" s="32"/>
-      <c r="J129" s="32"/>
+      <c r="H129" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
     </row>
     <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="49"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="33" t="s">
+      <c r="A130" s="47"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E130" s="19" t="s">
+      <c r="E130" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="F130" s="31" t="s">
+      <c r="F130" s="27" t="s">
         <v>212</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J130" s="32"/>
+      <c r="H130" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="J130" s="28"/>
     </row>
     <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="49"/>
-      <c r="B131" s="50"/>
-      <c r="C131" s="52"/>
-      <c r="D131" s="33" t="s">
+      <c r="A131" s="47"/>
+      <c r="B131" s="48"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E131" s="31" t="s">
+      <c r="E131" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F131" s="31" t="s">
+      <c r="F131" s="27" t="s">
         <v>214</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>215</v>
       </c>
+      <c r="H131" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="49"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="52"/>
-      <c r="D132" s="33" t="s">
+      <c r="A132" s="47"/>
+      <c r="B132" s="48"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="F132" s="31"/>
+      <c r="F132" s="27"/>
       <c r="G132" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H132" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="49"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="52"/>
-      <c r="D133" s="33" t="s">
+      <c r="A133" s="47"/>
+      <c r="B133" s="48"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E133" s="19" t="s">
+      <c r="E133" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="F133" s="31" t="s">
+      <c r="F133" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="H133" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="49"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="33" t="s">
+      <c r="A134" s="47"/>
+      <c r="B134" s="48"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E134" s="19" t="s">
+      <c r="E134" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="F134" s="31" t="s">
+      <c r="F134" s="27" t="s">
         <v>169</v>
       </c>
       <c r="G134" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="34"/>
-      <c r="I134" s="32"/>
+      <c r="H134" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I134" s="28"/>
     </row>
     <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="49"/>
-      <c r="B135" s="50"/>
-      <c r="C135" s="52"/>
-      <c r="D135" s="33" t="s">
+      <c r="A135" s="47"/>
+      <c r="B135" s="48"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E135" s="19" t="s">
+      <c r="E135" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="F135" s="35" t="s">
+      <c r="F135" s="30" t="s">
         <v>220</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="34"/>
-      <c r="I135" s="32"/>
+      <c r="H135" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I135" s="28"/>
     </row>
     <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="49"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="52"/>
-      <c r="D136" s="30" t="s">
+      <c r="A136" s="47"/>
+      <c r="B136" s="48"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E136" s="19" t="s">
+      <c r="E136" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F136" s="35"/>
+      <c r="F136" s="30"/>
       <c r="G136" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H136" s="34"/>
-      <c r="I136" s="32"/>
+      <c r="H136" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I136" s="28"/>
     </row>
     <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="49" t="s">
+      <c r="A137" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="B137" s="24" t="s">
+      <c r="B137" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C137" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="D137" s="37" t="s">
+      <c r="D137" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E137" s="19" t="s">
+      <c r="E137" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="49"/>
-      <c r="B138" s="24" t="s">
+      <c r="A138" s="47"/>
+      <c r="B138" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C138" s="36" t="s">
+      <c r="C138" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="D138" s="37" t="s">
+      <c r="D138" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E138" s="19" t="s">
+      <c r="E138" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="49"/>
-      <c r="B139" s="24" t="s">
+      <c r="A139" s="47"/>
+      <c r="B139" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C139" s="36" t="s">
+      <c r="C139" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="D139" s="37" t="s">
+      <c r="D139" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E139" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="F139" s="36"/>
-      <c r="G139" s="36"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="49"/>
-      <c r="B140" s="24" t="s">
+      <c r="A140" s="47"/>
+      <c r="B140" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="36" t="s">
+      <c r="C140" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D140" s="37" t="s">
+      <c r="D140" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E140" s="19" t="s">
+      <c r="E140" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F140" s="36"/>
-      <c r="G140" s="36"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="49"/>
-      <c r="B141" s="24" t="s">
+      <c r="A141" s="47"/>
+      <c r="B141" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C141" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="D141" s="37" t="s">
+      <c r="D141" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E141" s="19" t="s">
+      <c r="E141" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="49"/>
-      <c r="B142" s="24" t="s">
+      <c r="A142" s="47"/>
+      <c r="B142" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C142" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="D142" s="37" t="s">
+      <c r="D142" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E142" s="19" t="s">
+      <c r="E142" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="49"/>
-      <c r="B143" s="24" t="s">
+      <c r="A143" s="47"/>
+      <c r="B143" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="D143" s="37" t="s">
+      <c r="D143" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E143" s="19" t="s">
+      <c r="E143" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="49"/>
+      <c r="A144" s="47"/>
       <c r="B144" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C144" s="38" t="s">
+      <c r="C144" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="D144" s="37" t="s">
+      <c r="D144" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E144" s="39" t="s">
+      <c r="E144" s="34" t="s">
         <v>245</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H144" s="28" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="145" spans="1:7" ht="66">
-      <c r="A145" s="49" t="s">
+      <c r="A145" s="47" t="s">
         <v>246</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C145" s="53" t="s">
+      <c r="C145" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="D145" s="40" t="s">
+      <c r="D145" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="E145" s="19" t="s">
+      <c r="E145" s="15" t="s">
         <v>250</v>
       </c>
       <c r="F145" s="5" t="s">
@@ -5446,12 +5695,12 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="49"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="40" t="s">
+      <c r="A146" s="47"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="E146" s="19" t="s">
+      <c r="E146" s="15" t="s">
         <v>253</v>
       </c>
       <c r="F146" s="4" t="s">
@@ -5462,12 +5711,12 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="49"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="40" t="s">
+      <c r="A147" s="47"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E147" s="19" t="s">
+      <c r="E147" s="15" t="s">
         <v>256</v>
       </c>
       <c r="G147" s="10" t="s">
@@ -5475,12 +5724,12 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="49"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="40" t="s">
+      <c r="A148" s="47"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="E148" s="19" t="s">
+      <c r="E148" s="15" t="s">
         <v>258</v>
       </c>
       <c r="G148" s="10" t="s">
@@ -5488,12 +5737,12 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="49"/>
-      <c r="C149" s="53"/>
-      <c r="D149" s="40" t="s">
+      <c r="A149" s="47"/>
+      <c r="C149" s="46"/>
+      <c r="D149" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="E149" s="19" t="s">
+      <c r="E149" s="15" t="s">
         <v>260</v>
       </c>
       <c r="G149" s="10" t="s">
@@ -5501,12 +5750,12 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="49"/>
-      <c r="C150" s="53"/>
-      <c r="D150" s="40" t="s">
+      <c r="A150" s="47"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="E150" s="19" t="s">
+      <c r="E150" s="15" t="s">
         <v>262</v>
       </c>
       <c r="G150" s="10" t="s">
@@ -5514,9 +5763,9 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="33">
-      <c r="A151" s="49"/>
-      <c r="C151" s="53"/>
-      <c r="D151" s="40" t="s">
+      <c r="A151" s="47"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="35" t="s">
         <v>263</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -5527,12 +5776,12 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="49"/>
-      <c r="C152" s="53"/>
-      <c r="D152" s="40" t="s">
+      <c r="A152" s="47"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="E152" s="19" t="s">
+      <c r="E152" s="15" t="s">
         <v>266</v>
       </c>
       <c r="G152" s="10" t="s">
@@ -5540,12 +5789,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="49"/>
-      <c r="C153" s="53"/>
-      <c r="D153" s="40" t="s">
+      <c r="A153" s="47"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="E153" s="19" t="s">
+      <c r="E153" s="15" t="s">
         <v>268</v>
       </c>
       <c r="G153" s="10" t="s">
@@ -5553,12 +5802,12 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="49"/>
-      <c r="C154" s="53"/>
-      <c r="D154" s="40" t="s">
+      <c r="A154" s="47"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="E154" s="19" t="s">
+      <c r="E154" s="15" t="s">
         <v>270</v>
       </c>
       <c r="G154" s="10" t="s">
@@ -5566,12 +5815,12 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="49"/>
-      <c r="C155" s="53"/>
-      <c r="D155" s="40" t="s">
+      <c r="A155" s="47"/>
+      <c r="C155" s="46"/>
+      <c r="D155" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="E155" s="19" t="s">
+      <c r="E155" s="15" t="s">
         <v>272</v>
       </c>
       <c r="G155" s="10" t="s">
@@ -5579,12 +5828,12 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="49"/>
-      <c r="C156" s="53"/>
-      <c r="D156" s="40" t="s">
+      <c r="A156" s="47"/>
+      <c r="C156" s="46"/>
+      <c r="D156" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="E156" s="19" t="s">
+      <c r="E156" s="15" t="s">
         <v>274</v>
       </c>
       <c r="G156" s="10" t="s">
@@ -5592,12 +5841,12 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="33">
-      <c r="A157" s="49"/>
-      <c r="C157" s="53"/>
-      <c r="D157" s="40" t="s">
+      <c r="A157" s="47"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="E157" s="19" t="s">
+      <c r="E157" s="15" t="s">
         <v>276</v>
       </c>
       <c r="G157" s="10" t="s">
@@ -5605,16 +5854,16 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="49.5">
-      <c r="A158" s="49" t="s">
+      <c r="A158" s="47" t="s">
         <v>246</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C158" s="53" t="s">
+      <c r="C158" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="D158" s="40" t="s">
+      <c r="D158" s="35" t="s">
         <v>252</v>
       </c>
       <c r="E158" s="7" t="s">
@@ -5625,12 +5874,12 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="49"/>
-      <c r="C159" s="53"/>
-      <c r="D159" s="40" t="s">
+      <c r="A159" s="47"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="E159" s="19" t="s">
+      <c r="E159" s="15" t="s">
         <v>280</v>
       </c>
       <c r="G159" s="10" t="s">
@@ -5638,9 +5887,9 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="49"/>
-      <c r="C160" s="53"/>
-      <c r="D160" s="40" t="s">
+      <c r="A160" s="47"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="35" t="s">
         <v>265</v>
       </c>
       <c r="E160" s="7" t="s">
@@ -5651,12 +5900,12 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="49"/>
-      <c r="C161" s="53"/>
-      <c r="D161" s="40" t="s">
+      <c r="A161" s="47"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="E161" s="19" t="s">
+      <c r="E161" s="15" t="s">
         <v>282</v>
       </c>
       <c r="G161" s="10" t="s">
@@ -5664,12 +5913,12 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="49"/>
-      <c r="C162" s="53"/>
-      <c r="D162" s="40" t="s">
+      <c r="A162" s="47"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="E162" s="19" t="s">
+      <c r="E162" s="15" t="s">
         <v>283</v>
       </c>
       <c r="G162" s="10" t="s">
@@ -5677,12 +5926,12 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="49"/>
-      <c r="C163" s="53"/>
-      <c r="D163" s="40" t="s">
+      <c r="A163" s="47"/>
+      <c r="C163" s="46"/>
+      <c r="D163" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="E163" s="19" t="s">
+      <c r="E163" s="15" t="s">
         <v>284</v>
       </c>
       <c r="G163" s="10" t="s">
@@ -5690,12 +5939,12 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="49"/>
-      <c r="C164" s="53"/>
-      <c r="D164" s="40" t="s">
+      <c r="A164" s="47"/>
+      <c r="C164" s="46"/>
+      <c r="D164" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="E164" s="19" t="s">
+      <c r="E164" s="15" t="s">
         <v>285</v>
       </c>
       <c r="G164" s="10" t="s">
@@ -5703,19 +5952,19 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="49" t="s">
+      <c r="A165" s="47" t="s">
         <v>246</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C165" s="53" t="s">
+      <c r="C165" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D165" s="40" t="s">
+      <c r="D165" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="E165" s="19" t="s">
+      <c r="E165" s="15" t="s">
         <v>287</v>
       </c>
       <c r="G165" s="10" t="s">
@@ -5723,9 +5972,9 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="49"/>
-      <c r="C166" s="53"/>
-      <c r="D166" s="40" t="s">
+      <c r="A166" s="47"/>
+      <c r="C166" s="46"/>
+      <c r="D166" s="35" t="s">
         <v>255</v>
       </c>
       <c r="E166" s="7" t="s">
@@ -5736,9 +5985,9 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="49"/>
-      <c r="C167" s="53"/>
-      <c r="D167" s="40" t="s">
+      <c r="A167" s="47"/>
+      <c r="C167" s="46"/>
+      <c r="D167" s="35" t="s">
         <v>257</v>
       </c>
       <c r="E167" s="7" t="s">
@@ -5749,9 +5998,9 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="49"/>
-      <c r="C168" s="53"/>
-      <c r="D168" s="40" t="s">
+      <c r="A168" s="47"/>
+      <c r="C168" s="46"/>
+      <c r="D168" s="35" t="s">
         <v>259</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -5762,9 +6011,9 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="49"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="40" t="s">
+      <c r="A169" s="47"/>
+      <c r="C169" s="46"/>
+      <c r="D169" s="35" t="s">
         <v>291</v>
       </c>
       <c r="E169" s="7" t="s">
@@ -5775,9 +6024,9 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="49"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="40" t="s">
+      <c r="A170" s="47"/>
+      <c r="C170" s="46"/>
+      <c r="D170" s="35" t="s">
         <v>263</v>
       </c>
       <c r="E170" s="7" t="s">
@@ -5788,8 +6037,8 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="49"/>
-      <c r="C171" s="53"/>
+      <c r="A171" s="47"/>
+      <c r="C171" s="46"/>
       <c r="D171" s="7" t="s">
         <v>294</v>
       </c>
@@ -5801,9 +6050,9 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="49"/>
-      <c r="C172" s="53"/>
-      <c r="D172" s="40" t="s">
+      <c r="A172" s="47"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="35" t="s">
         <v>269</v>
       </c>
       <c r="E172" s="7" t="s">
@@ -5814,9 +6063,9 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="49"/>
-      <c r="C173" s="53"/>
-      <c r="D173" s="40" t="s">
+      <c r="A173" s="47"/>
+      <c r="C173" s="46"/>
+      <c r="D173" s="35" t="s">
         <v>271</v>
       </c>
       <c r="E173" s="7" t="s">
@@ -5827,9 +6076,9 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="49"/>
-      <c r="C174" s="53"/>
-      <c r="D174" s="40" t="s">
+      <c r="A174" s="47"/>
+      <c r="C174" s="46"/>
+      <c r="D174" s="35" t="s">
         <v>273</v>
       </c>
       <c r="E174" s="7" t="s">
@@ -5840,9 +6089,9 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="33">
-      <c r="A175" s="49"/>
-      <c r="C175" s="53"/>
-      <c r="D175" s="40" t="s">
+      <c r="A175" s="47"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="35" t="s">
         <v>275</v>
       </c>
       <c r="E175" s="7" t="s">
@@ -5853,19 +6102,19 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="49" t="s">
+      <c r="A176" s="47" t="s">
         <v>246</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="53" t="s">
+      <c r="C176" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D176" s="40" t="s">
+      <c r="D176" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="E176" s="19" t="s">
+      <c r="E176" s="15" t="s">
         <v>301</v>
       </c>
       <c r="G176" s="10" t="s">
@@ -5873,9 +6122,9 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="49"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="40" t="s">
+      <c r="A177" s="47"/>
+      <c r="C177" s="46"/>
+      <c r="D177" s="35" t="s">
         <v>255</v>
       </c>
       <c r="E177" s="7" t="s">
@@ -5886,9 +6135,9 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="49"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="40" t="s">
+      <c r="A178" s="47"/>
+      <c r="C178" s="46"/>
+      <c r="D178" s="35" t="s">
         <v>257</v>
       </c>
       <c r="E178" s="7" t="s">
@@ -5899,9 +6148,9 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="49"/>
-      <c r="C179" s="53"/>
-      <c r="D179" s="40" t="s">
+      <c r="A179" s="47"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="35" t="s">
         <v>259</v>
       </c>
       <c r="E179" s="7" t="s">
@@ -5912,9 +6161,9 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="49"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="40" t="s">
+      <c r="A180" s="47"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="35" t="s">
         <v>291</v>
       </c>
       <c r="E180" s="7" t="s">
@@ -5925,9 +6174,9 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="49"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="40" t="s">
+      <c r="A181" s="47"/>
+      <c r="C181" s="46"/>
+      <c r="D181" s="35" t="s">
         <v>263</v>
       </c>
       <c r="E181" s="7" t="s">
@@ -5938,9 +6187,9 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="49"/>
-      <c r="C182" s="53"/>
-      <c r="D182" s="40" t="s">
+      <c r="A182" s="47"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="35" t="s">
         <v>267</v>
       </c>
       <c r="E182" s="7" t="s">
@@ -5951,8 +6200,8 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="49"/>
-      <c r="C183" s="53"/>
+      <c r="A183" s="47"/>
+      <c r="C183" s="46"/>
       <c r="D183" s="7" t="s">
         <v>294</v>
       </c>
@@ -5964,9 +6213,9 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="49"/>
-      <c r="C184" s="53"/>
-      <c r="D184" s="40" t="s">
+      <c r="A184" s="47"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="35" t="s">
         <v>269</v>
       </c>
       <c r="E184" s="7" t="s">
@@ -5977,9 +6226,9 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="49"/>
-      <c r="C185" s="53"/>
-      <c r="D185" s="40" t="s">
+      <c r="A185" s="47"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="35" t="s">
         <v>275</v>
       </c>
       <c r="E185" s="7" t="s">
@@ -5990,16 +6239,16 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="66">
-      <c r="A186" s="37" t="s">
+      <c r="A186" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="C186" s="41" t="s">
+      <c r="C186" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="D186" s="37" t="s">
+      <c r="D186" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="E186" s="39" t="s">
+      <c r="E186" s="34" t="s">
         <v>313</v>
       </c>
       <c r="G186" s="10" t="s">
@@ -6010,16 +6259,16 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="99">
-      <c r="A187" s="42" t="s">
+      <c r="A187" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="C187" s="41" t="s">
+      <c r="C187" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="D187" s="37" t="s">
+      <c r="D187" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E187" s="39" t="s">
+      <c r="E187" s="34" t="s">
         <v>317</v>
       </c>
       <c r="G187" s="10" t="s">
@@ -6030,16 +6279,16 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="66">
-      <c r="A188" s="42" t="s">
+      <c r="A188" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="C188" s="41" t="s">
+      <c r="C188" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="D188" s="37" t="s">
+      <c r="D188" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="E188" s="39" t="s">
+      <c r="E188" s="34" t="s">
         <v>321</v>
       </c>
       <c r="G188" s="10" t="s">
@@ -6050,16 +6299,16 @@
       </c>
     </row>
     <row r="189" spans="1:8" ht="49.5">
-      <c r="A189" s="42" t="s">
+      <c r="A189" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="C189" s="41" t="s">
+      <c r="C189" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="D189" s="37" t="s">
+      <c r="D189" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="E189" s="39" t="s">
+      <c r="E189" s="34" t="s">
         <v>325</v>
       </c>
       <c r="G189" s="10" t="s">
@@ -6073,7 +6322,7 @@
       <c r="A190" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C190" s="41" t="s">
+      <c r="C190" s="36" t="s">
         <v>327</v>
       </c>
       <c r="D190" s="6" t="s">
@@ -6090,19 +6339,19 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="49" t="s">
+      <c r="A191" s="47" t="s">
         <v>330</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C191" s="43" t="s">
+      <c r="C191" s="38" t="s">
         <v>332</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E191" s="19" t="s">
+      <c r="E191" s="15" t="s">
         <v>333</v>
       </c>
       <c r="G191" s="10" t="s">
@@ -6110,17 +6359,17 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="49"/>
+      <c r="A192" s="47"/>
       <c r="B192" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C192" s="43" t="s">
+      <c r="C192" s="38" t="s">
         <v>335</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E192" s="44" t="s">
+      <c r="E192" s="39" t="s">
         <v>336</v>
       </c>
       <c r="G192" s="10" t="s">
@@ -6128,17 +6377,17 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="49"/>
+      <c r="A193" s="47"/>
       <c r="B193" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C193" s="43" t="s">
+      <c r="C193" s="38" t="s">
         <v>338</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E193" s="19" t="s">
+      <c r="E193" s="15" t="s">
         <v>339</v>
       </c>
       <c r="G193" s="10" t="s">
@@ -6149,13 +6398,13 @@
       <c r="A194" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C194" s="43" t="s">
+      <c r="C194" s="38" t="s">
         <v>341</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="E194" s="19" t="s">
+      <c r="E194" s="15" t="s">
         <v>343</v>
       </c>
       <c r="G194" s="10" t="s">
@@ -6168,25 +6417,21 @@
   </sheetData>
   <autoFilter ref="D1:G200"/>
   <mergeCells count="50">
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6203,21 +6448,25 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -2097,27 +2097,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2145,14 +2124,35 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3084,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -3129,45 +3129,45 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="55" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="47"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="59" t="s">
+      <c r="A3" s="55"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="55" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="47"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="55"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
@@ -3179,56 +3179,56 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="47"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="55"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="55" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="47"/>
-      <c r="C6" s="49"/>
+      <c r="A6" s="55"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="62"/>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="55" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="47"/>
-      <c r="C7" s="49"/>
+      <c r="A7" s="55"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="62"/>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="55" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="47"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="45" t="s">
+      <c r="A8" s="55"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="60" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="40" t="s">
@@ -3242,9 +3242,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="47"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="45"/>
+      <c r="A9" s="55"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="40" t="s">
         <v>22</v>
       </c>
@@ -3256,9 +3256,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="47"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="55"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="40" t="s">
         <v>23</v>
       </c>
@@ -3270,41 +3270,41 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="47"/>
-      <c r="C11" s="49"/>
+      <c r="A11" s="55"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="55" t="s">
+      <c r="F11" s="46"/>
+      <c r="G11" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="47"/>
-      <c r="C12" s="49"/>
+      <c r="A12" s="55"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="62"/>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="55" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="47"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="45" t="s">
+      <c r="A13" s="55"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="60" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="40" t="s">
@@ -3318,9 +3318,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="47"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="45"/>
+      <c r="A14" s="55"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="40" t="s">
         <v>29</v>
       </c>
@@ -3332,9 +3332,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="47"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="45" t="s">
+      <c r="A15" s="55"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="40" t="s">
@@ -3348,9 +3348,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="47"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="55"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="40" t="s">
         <v>32</v>
       </c>
@@ -3362,9 +3362,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="47"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="45"/>
+      <c r="A17" s="55"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="40" t="s">
         <v>33</v>
       </c>
@@ -3376,9 +3376,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="47"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="60" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="42" t="s">
@@ -3392,71 +3392,71 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="47"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="59" t="s">
+      <c r="A19" s="55"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="55" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="47"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="59" t="s">
+      <c r="A20" s="55"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="55" t="s">
+      <c r="F20" s="46"/>
+      <c r="G20" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="47"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="55"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="55" t="s">
+      <c r="F21" s="46"/>
+      <c r="G21" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="47"/>
-      <c r="C22" s="49"/>
+      <c r="A22" s="55"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="62"/>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="55" t="s">
+      <c r="F22" s="46"/>
+      <c r="G22" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="47"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="45" t="s">
+      <c r="A23" s="55"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="60" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="42" t="s">
@@ -3470,9 +3470,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="47"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="55"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="40" t="s">
         <v>44</v>
       </c>
@@ -3484,41 +3484,41 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="47"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="51" t="s">
+      <c r="A25" s="55"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="55" t="s">
+      <c r="F25" s="46"/>
+      <c r="G25" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="47"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="59" t="s">
+      <c r="A26" s="55"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="55" t="s">
+      <c r="F26" s="53"/>
+      <c r="G26" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="47"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45" t="s">
+      <c r="A27" s="55"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="60" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="42" t="s">
@@ -3535,9 +3535,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="47"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="45"/>
+      <c r="A28" s="55"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="42" t="s">
         <v>51</v>
       </c>
@@ -3552,9 +3552,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="47"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="45" t="s">
+      <c r="A29" s="55"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="60" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="40" t="s">
@@ -3568,9 +3568,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="47"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="45"/>
+      <c r="A30" s="55"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="41" t="s">
         <v>54</v>
       </c>
@@ -3582,9 +3582,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="47"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="55"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="41" t="s">
         <v>54</v>
       </c>
@@ -3596,88 +3596,88 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="47"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="51" t="s">
+      <c r="A32" s="55"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="55" t="s">
+      <c r="F32" s="46"/>
+      <c r="G32" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="47"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="59" t="s">
+      <c r="A33" s="55"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="55" t="s">
+      <c r="F33" s="46"/>
+      <c r="G33" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="47"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="51" t="s">
+      <c r="A34" s="55"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="55" t="s">
+      <c r="F34" s="46"/>
+      <c r="G34" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="47"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="58" t="s">
+      <c r="A35" s="55"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="55" t="s">
+      <c r="F35" s="46"/>
+      <c r="G35" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="47"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="58" t="s">
+      <c r="A36" s="55"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="55" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="47"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="45" t="s">
+      <c r="A37" s="55"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="60" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -3691,9 +3691,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="47"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="45"/>
+      <c r="A38" s="55"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="13" t="s">
         <v>64</v>
       </c>
@@ -3705,182 +3705,182 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="47"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="51" t="s">
+      <c r="A39" s="55"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="55" t="s">
+      <c r="F39" s="46"/>
+      <c r="G39" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="47"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="58" t="s">
+      <c r="A40" s="55"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="55" t="s">
+      <c r="F40" s="46"/>
+      <c r="G40" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="48" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="47"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="58" t="s">
+      <c r="A41" s="55"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="55" t="s">
+      <c r="F41" s="46"/>
+      <c r="G41" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="48" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="47"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="51" t="s">
+      <c r="A42" s="55"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="55" t="s">
+      <c r="F42" s="46"/>
+      <c r="G42" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="47"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52" t="s">
+      <c r="A43" s="55"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="55" t="s">
+      <c r="F43" s="46"/>
+      <c r="G43" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="47"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="51" t="s">
+      <c r="A44" s="55"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="55" t="s">
+      <c r="F44" s="46"/>
+      <c r="G44" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="47"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="52" t="s">
+      <c r="A45" s="55"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="55" t="s">
+      <c r="F45" s="46"/>
+      <c r="G45" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="47"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="51" t="s">
+      <c r="A46" s="55"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="55" t="s">
+      <c r="F46" s="46"/>
+      <c r="G46" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="47"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="52" t="s">
+      <c r="A47" s="55"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="55" t="s">
+      <c r="F47" s="46"/>
+      <c r="G47" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="47"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52" t="s">
+      <c r="A48" s="55"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="55" t="s">
+      <c r="F48" s="46"/>
+      <c r="G48" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="47"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="52" t="s">
+      <c r="A49" s="55"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="55" t="s">
+      <c r="F49" s="46"/>
+      <c r="G49" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="47"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="45" t="s">
+      <c r="A50" s="55"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="60" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="14" t="s">
@@ -3894,9 +3894,9 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="47"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="45"/>
+      <c r="A51" s="55"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="14" t="s">
         <v>83</v>
       </c>
@@ -3908,9 +3908,9 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="47"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="45" t="s">
+      <c r="A52" s="55"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="60" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="14" t="s">
@@ -3924,9 +3924,9 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="47"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="45"/>
+      <c r="A53" s="55"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="14" t="s">
         <v>86</v>
       </c>
@@ -3938,9 +3938,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="47"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="45"/>
+      <c r="A54" s="55"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="60"/>
       <c r="E54" s="14" t="s">
         <v>87</v>
       </c>
@@ -3952,397 +3952,399 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="47"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="51" t="s">
+      <c r="A55" s="55"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="53"/>
-      <c r="G55" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="55" t="s">
+      <c r="F55" s="46"/>
+      <c r="G55" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="47"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="52" t="s">
+      <c r="A56" s="55"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="55" t="s">
+      <c r="F56" s="46"/>
+      <c r="G56" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="47"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="51" t="s">
+      <c r="A57" s="55"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="55" t="s">
+      <c r="F57" s="46"/>
+      <c r="G57" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="47"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52" t="s">
+      <c r="A58" s="55"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="55" t="s">
+      <c r="F58" s="46"/>
+      <c r="G58" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="47"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="51" t="s">
+      <c r="A59" s="55"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="55" t="s">
+      <c r="F59" s="46"/>
+      <c r="G59" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="47"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52" t="s">
+      <c r="A60" s="55"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="55" t="s">
+      <c r="F60" s="46"/>
+      <c r="G60" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="47"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="51" t="s">
+      <c r="A61" s="55"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="53"/>
-      <c r="G61" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="55" t="s">
+      <c r="F61" s="46"/>
+      <c r="G61" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="47"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52" t="s">
+      <c r="A62" s="55"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="55" t="s">
+      <c r="F62" s="46"/>
+      <c r="G62" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="47"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52" t="s">
+      <c r="A63" s="55"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="F63" s="53"/>
-      <c r="G63" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="55" t="s">
+      <c r="F63" s="46"/>
+      <c r="G63" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="47"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="51" t="s">
+      <c r="A64" s="55"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="55" t="s">
+      <c r="F64" s="46"/>
+      <c r="G64" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="47"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52" t="s">
+      <c r="A65" s="55"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="55" t="s">
+      <c r="F65" s="46"/>
+      <c r="G65" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="47"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="51" t="s">
+      <c r="A66" s="55"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="E66" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="55" t="s">
+      <c r="F66" s="46"/>
+      <c r="G66" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="47"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="52" t="s">
+      <c r="A67" s="55"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="53"/>
-      <c r="G67" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="55" t="s">
+      <c r="F67" s="46"/>
+      <c r="G67" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="47"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="51" t="s">
+      <c r="A68" s="55"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="55" t="s">
+      <c r="F68" s="46"/>
+      <c r="G68" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="47"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="57" t="s">
+      <c r="A69" s="55"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="G69" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="55" t="s">
+      <c r="F69" s="46"/>
+      <c r="G69" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="47"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="52" t="s">
+      <c r="A70" s="55"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="55" t="s">
+      <c r="F70" s="46"/>
+      <c r="G70" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="47"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="51" t="s">
+      <c r="A71" s="55"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="55" t="s">
+      <c r="F71" s="46"/>
+      <c r="G71" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="47"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52" t="s">
+      <c r="A72" s="55"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="55" t="s">
+      <c r="F72" s="46"/>
+      <c r="G72" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="47"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="51" t="s">
+      <c r="A73" s="55"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E73" s="52" t="s">
+      <c r="E73" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="55" t="s">
+      <c r="F73" s="46"/>
+      <c r="G73" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="47"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="52" t="s">
+      <c r="A74" s="55"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="55" t="s">
+      <c r="F74" s="46"/>
+      <c r="G74" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="47"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="52" t="s">
+      <c r="A75" s="55"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="55" t="s">
+      <c r="F75" s="46"/>
+      <c r="G75" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="47"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="51" t="s">
+      <c r="A76" s="55"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="57" t="s">
+      <c r="E76" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="55" t="s">
+      <c r="F76" s="46"/>
+      <c r="G76" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="47"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="57" t="s">
+      <c r="A77" s="55"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F77" s="53"/>
-      <c r="G77" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="55" t="s">
+      <c r="F77" s="46"/>
+      <c r="G77" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="47"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="45" t="s">
+      <c r="A78" s="55"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="G78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="8" t="s">
+      <c r="F78" s="46"/>
+      <c r="G78" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="48" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="47"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="15" t="s">
+      <c r="A79" s="55"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="G79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="8" t="s">
+      <c r="F79" s="46"/>
+      <c r="G79" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="48" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4370,7 +4372,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="55" t="s">
         <v>130</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -4393,7 +4395,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="47"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="4" t="s">
         <v>135</v>
       </c>
@@ -4414,7 +4416,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="56" t="s">
         <v>136</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -4438,7 +4440,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="48"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="20" t="s">
         <v>140</v>
       </c>
@@ -4460,7 +4462,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="48"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="20" t="s">
         <v>143</v>
       </c>
@@ -4482,7 +4484,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="48"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="20" t="s">
         <v>145</v>
       </c>
@@ -4504,13 +4506,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="58" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -4527,11 +4529,11 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47" t="s">
+      <c r="A88" s="55"/>
+      <c r="B88" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="50"/>
+      <c r="C88" s="58"/>
       <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
@@ -4546,9 +4548,9 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="50"/>
+      <c r="A89" s="55"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="58"/>
       <c r="D89" s="6" t="s">
         <v>16</v>
       </c>
@@ -4566,9 +4568,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="50"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="58"/>
       <c r="D90" s="6" t="s">
         <v>24</v>
       </c>
@@ -4586,9 +4588,9 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="47"/>
-      <c r="B91" s="47"/>
-      <c r="C91" s="50"/>
+      <c r="A91" s="55"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="58"/>
       <c r="D91" s="6" t="s">
         <v>45</v>
       </c>
@@ -4606,9 +4608,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="50"/>
+      <c r="A92" s="55"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="58"/>
       <c r="D92" s="6" t="s">
         <v>55</v>
       </c>
@@ -4623,9 +4625,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="47"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="50"/>
+      <c r="A93" s="55"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="58"/>
       <c r="D93" s="6" t="s">
         <v>42</v>
       </c>
@@ -4643,9 +4645,9 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="47"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="50"/>
+      <c r="A94" s="55"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="58"/>
       <c r="D94" s="6" t="s">
         <v>39</v>
       </c>
@@ -4663,9 +4665,9 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="50"/>
+      <c r="A95" s="55"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="58"/>
       <c r="D95" s="6" t="s">
         <v>34</v>
       </c>
@@ -4683,9 +4685,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="33">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="50"/>
+      <c r="A96" s="55"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="58"/>
       <c r="D96" s="6" t="s">
         <v>30</v>
       </c>
@@ -4700,9 +4702,9 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="33">
-      <c r="A97" s="47"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="50"/>
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="58"/>
       <c r="D97" s="6" t="s">
         <v>164</v>
       </c>
@@ -4717,9 +4719,9 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="47"/>
-      <c r="B98" s="47"/>
-      <c r="C98" s="50"/>
+      <c r="A98" s="55"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="58"/>
       <c r="D98" s="6" t="s">
         <v>76</v>
       </c>
@@ -4737,9 +4739,9 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="47"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="50"/>
+      <c r="A99" s="55"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="58"/>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
@@ -4757,9 +4759,9 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="33">
-      <c r="A100" s="47"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="50"/>
+      <c r="A100" s="55"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="58"/>
       <c r="D100" s="6" t="s">
         <v>114</v>
       </c>
@@ -4777,9 +4779,9 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="47"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="50"/>
+      <c r="A101" s="55"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="58"/>
       <c r="D101" s="6" t="s">
         <v>118</v>
       </c>
@@ -4797,9 +4799,9 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="47"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="50"/>
+      <c r="A102" s="55"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="58"/>
       <c r="D102" s="6" t="s">
         <v>81</v>
       </c>
@@ -4817,9 +4819,9 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="47"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="50"/>
+      <c r="A103" s="55"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="6" t="s">
         <v>52</v>
       </c>
@@ -4834,9 +4836,9 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="33">
-      <c r="A104" s="47"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="50"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="58"/>
       <c r="D104" s="6" t="s">
         <v>94</v>
       </c>
@@ -4854,9 +4856,9 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="33">
-      <c r="A105" s="47"/>
-      <c r="B105" s="47"/>
-      <c r="C105" s="50"/>
+      <c r="A105" s="55"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="58"/>
       <c r="D105" s="6" t="s">
         <v>97</v>
       </c>
@@ -4874,9 +4876,9 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="47"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="50"/>
+      <c r="A106" s="55"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="58"/>
       <c r="D106" s="6" t="s">
         <v>91</v>
       </c>
@@ -4894,9 +4896,9 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="33">
-      <c r="A107" s="47"/>
-      <c r="B107" s="47"/>
-      <c r="C107" s="50"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="58"/>
       <c r="D107" s="6" t="s">
         <v>88</v>
       </c>
@@ -4914,9 +4916,9 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="47"/>
-      <c r="B108" s="47"/>
-      <c r="C108" s="50"/>
+      <c r="A108" s="55"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="58"/>
       <c r="D108" s="6" t="s">
         <v>48</v>
       </c>
@@ -4934,9 +4936,9 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="47"/>
-      <c r="B109" s="47"/>
-      <c r="C109" s="50"/>
+      <c r="A109" s="55"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="58"/>
       <c r="D109" s="6" t="s">
         <v>111</v>
       </c>
@@ -4954,9 +4956,9 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="47"/>
-      <c r="B110" s="47"/>
-      <c r="C110" s="50"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="58"/>
       <c r="D110" s="6" t="s">
         <v>27</v>
       </c>
@@ -4971,9 +4973,9 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="47"/>
-      <c r="B111" s="47"/>
-      <c r="C111" s="50"/>
+      <c r="A111" s="55"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="58"/>
       <c r="D111" s="6" t="s">
         <v>101</v>
       </c>
@@ -4988,9 +4990,9 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="33">
-      <c r="A112" s="47"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="50"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="58"/>
       <c r="D112" s="6" t="s">
         <v>104</v>
       </c>
@@ -5008,9 +5010,9 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="47"/>
-      <c r="B113" s="47"/>
-      <c r="C113" s="50"/>
+      <c r="A113" s="55"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="58"/>
       <c r="D113" s="6" t="s">
         <v>73</v>
       </c>
@@ -5028,9 +5030,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="47"/>
-      <c r="B114" s="47"/>
-      <c r="C114" s="50"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="58"/>
       <c r="D114" s="6" t="s">
         <v>121</v>
       </c>
@@ -5048,9 +5050,9 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="47"/>
-      <c r="B115" s="47"/>
-      <c r="C115" s="50"/>
+      <c r="A115" s="55"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="58"/>
       <c r="D115" s="6" t="s">
         <v>62</v>
       </c>
@@ -5068,9 +5070,9 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="50"/>
+      <c r="A116" s="55"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="58"/>
       <c r="D116" s="6" t="s">
         <v>58</v>
       </c>
@@ -5088,9 +5090,9 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="50"/>
+      <c r="A117" s="55"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="58"/>
       <c r="D117" s="6" t="s">
         <v>65</v>
       </c>
@@ -5108,9 +5110,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="47"/>
-      <c r="B118" s="47"/>
-      <c r="C118" s="50"/>
+      <c r="A118" s="55"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="58"/>
       <c r="D118" s="6" t="s">
         <v>107</v>
       </c>
@@ -5128,11 +5130,11 @@
       </c>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="47"/>
-      <c r="B119" s="48" t="s">
+      <c r="A119" s="55"/>
+      <c r="B119" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="50"/>
+      <c r="C119" s="58"/>
       <c r="D119" s="26" t="s">
         <v>30</v>
       </c>
@@ -5153,9 +5155,9 @@
       <c r="K119" s="28"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="66">
-      <c r="A120" s="47"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="50"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="58"/>
       <c r="D120" s="26" t="s">
         <v>39</v>
       </c>
@@ -5176,9 +5178,9 @@
       <c r="K120" s="28"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="47"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="50"/>
+      <c r="A121" s="55"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="26" t="s">
         <v>94</v>
       </c>
@@ -5199,9 +5201,9 @@
       <c r="K121" s="28"/>
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="47"/>
-      <c r="B122" s="48"/>
-      <c r="C122" s="50"/>
+      <c r="A122" s="55"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="58"/>
       <c r="D122" s="26" t="s">
         <v>107</v>
       </c>
@@ -5221,9 +5223,9 @@
       <c r="J122" s="28"/>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A123" s="47"/>
-      <c r="B123" s="48"/>
-      <c r="C123" s="50"/>
+      <c r="A123" s="55"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="26" t="s">
         <v>42</v>
       </c>
@@ -5243,9 +5245,9 @@
       <c r="J123" s="28"/>
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="47"/>
-      <c r="B124" s="48"/>
-      <c r="C124" s="50"/>
+      <c r="A124" s="55"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="58"/>
       <c r="D124" s="26" t="s">
         <v>121</v>
       </c>
@@ -5265,9 +5267,9 @@
       <c r="J124" s="28"/>
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="47"/>
-      <c r="B125" s="48"/>
-      <c r="C125" s="50"/>
+      <c r="A125" s="55"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="26" t="s">
         <v>62</v>
       </c>
@@ -5287,9 +5289,9 @@
       <c r="J125" s="28"/>
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="47"/>
-      <c r="B126" s="48"/>
-      <c r="C126" s="50"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="58"/>
       <c r="D126" s="26" t="s">
         <v>58</v>
       </c>
@@ -5307,9 +5309,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="47"/>
-      <c r="B127" s="48"/>
-      <c r="C127" s="50"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="58"/>
       <c r="D127" s="29" t="s">
         <v>70</v>
       </c>
@@ -5327,9 +5329,9 @@
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="47"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="50"/>
+      <c r="A128" s="55"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="58"/>
       <c r="D128" s="29" t="s">
         <v>76</v>
       </c>
@@ -5347,9 +5349,9 @@
       </c>
     </row>
     <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="47"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="50"/>
+      <c r="A129" s="55"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="29" t="s">
         <v>97</v>
       </c>
@@ -5369,9 +5371,9 @@
       <c r="J129" s="28"/>
     </row>
     <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="47"/>
-      <c r="B130" s="48"/>
-      <c r="C130" s="50"/>
+      <c r="A130" s="55"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="58"/>
       <c r="D130" s="29" t="s">
         <v>101</v>
       </c>
@@ -5390,9 +5392,9 @@
       <c r="J130" s="28"/>
     </row>
     <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="47"/>
-      <c r="B131" s="48"/>
-      <c r="C131" s="50"/>
+      <c r="A131" s="55"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="58"/>
       <c r="D131" s="29" t="s">
         <v>81</v>
       </c>
@@ -5410,9 +5412,9 @@
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="47"/>
-      <c r="B132" s="48"/>
-      <c r="C132" s="50"/>
+      <c r="A132" s="55"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="58"/>
       <c r="D132" s="29" t="s">
         <v>114</v>
       </c>
@@ -5428,9 +5430,9 @@
       </c>
     </row>
     <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="47"/>
-      <c r="B133" s="48"/>
-      <c r="C133" s="50"/>
+      <c r="A133" s="55"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="58"/>
       <c r="D133" s="29" t="s">
         <v>118</v>
       </c>
@@ -5448,9 +5450,9 @@
       </c>
     </row>
     <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="47"/>
-      <c r="B134" s="48"/>
-      <c r="C134" s="50"/>
+      <c r="A134" s="55"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="58"/>
       <c r="D134" s="29" t="s">
         <v>104</v>
       </c>
@@ -5469,9 +5471,9 @@
       <c r="I134" s="28"/>
     </row>
     <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="47"/>
-      <c r="B135" s="48"/>
-      <c r="C135" s="50"/>
+      <c r="A135" s="55"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="58"/>
       <c r="D135" s="29" t="s">
         <v>84</v>
       </c>
@@ -5490,9 +5492,9 @@
       <c r="I135" s="28"/>
     </row>
     <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="47"/>
-      <c r="B136" s="48"/>
-      <c r="C136" s="50"/>
+      <c r="A136" s="55"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="58"/>
       <c r="D136" s="26" t="s">
         <v>73</v>
       </c>
@@ -5509,7 +5511,7 @@
       <c r="I136" s="28"/>
     </row>
     <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="47" t="s">
+      <c r="A137" s="55" t="s">
         <v>222</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -5531,7 +5533,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="47"/>
+      <c r="A138" s="55"/>
       <c r="B138" s="20" t="s">
         <v>227</v>
       </c>
@@ -5551,7 +5553,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="47"/>
+      <c r="A139" s="55"/>
       <c r="B139" s="20" t="s">
         <v>229</v>
       </c>
@@ -5571,7 +5573,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="47"/>
+      <c r="A140" s="55"/>
       <c r="B140" s="20" t="s">
         <v>231</v>
       </c>
@@ -5591,7 +5593,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="47"/>
+      <c r="A141" s="55"/>
       <c r="B141" s="20" t="s">
         <v>234</v>
       </c>
@@ -5611,7 +5613,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="47"/>
+      <c r="A142" s="55"/>
       <c r="B142" s="20" t="s">
         <v>237</v>
       </c>
@@ -5631,7 +5633,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="47"/>
+      <c r="A143" s="55"/>
       <c r="B143" s="20" t="s">
         <v>240</v>
       </c>
@@ -5651,7 +5653,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="47"/>
+      <c r="A144" s="55"/>
       <c r="B144" s="4" t="s">
         <v>243</v>
       </c>
@@ -5672,13 +5674,13 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="66">
-      <c r="A145" s="47" t="s">
+      <c r="A145" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C145" s="46" t="s">
+      <c r="C145" s="59" t="s">
         <v>248</v>
       </c>
       <c r="D145" s="35" t="s">
@@ -5695,8 +5697,8 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="47"/>
-      <c r="C146" s="46"/>
+      <c r="A146" s="55"/>
+      <c r="C146" s="59"/>
       <c r="D146" s="35" t="s">
         <v>252</v>
       </c>
@@ -5711,8 +5713,8 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="47"/>
-      <c r="C147" s="46"/>
+      <c r="A147" s="55"/>
+      <c r="C147" s="59"/>
       <c r="D147" s="35" t="s">
         <v>255</v>
       </c>
@@ -5724,8 +5726,8 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="47"/>
-      <c r="C148" s="46"/>
+      <c r="A148" s="55"/>
+      <c r="C148" s="59"/>
       <c r="D148" s="35" t="s">
         <v>257</v>
       </c>
@@ -5737,8 +5739,8 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="47"/>
-      <c r="C149" s="46"/>
+      <c r="A149" s="55"/>
+      <c r="C149" s="59"/>
       <c r="D149" s="35" t="s">
         <v>259</v>
       </c>
@@ -5750,8 +5752,8 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="47"/>
-      <c r="C150" s="46"/>
+      <c r="A150" s="55"/>
+      <c r="C150" s="59"/>
       <c r="D150" s="35" t="s">
         <v>261</v>
       </c>
@@ -5763,8 +5765,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="33">
-      <c r="A151" s="47"/>
-      <c r="C151" s="46"/>
+      <c r="A151" s="55"/>
+      <c r="C151" s="59"/>
       <c r="D151" s="35" t="s">
         <v>263</v>
       </c>
@@ -5776,8 +5778,8 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="47"/>
-      <c r="C152" s="46"/>
+      <c r="A152" s="55"/>
+      <c r="C152" s="59"/>
       <c r="D152" s="35" t="s">
         <v>265</v>
       </c>
@@ -5789,8 +5791,8 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="47"/>
-      <c r="C153" s="46"/>
+      <c r="A153" s="55"/>
+      <c r="C153" s="59"/>
       <c r="D153" s="35" t="s">
         <v>267</v>
       </c>
@@ -5802,8 +5804,8 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="47"/>
-      <c r="C154" s="46"/>
+      <c r="A154" s="55"/>
+      <c r="C154" s="59"/>
       <c r="D154" s="35" t="s">
         <v>269</v>
       </c>
@@ -5815,8 +5817,8 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="47"/>
-      <c r="C155" s="46"/>
+      <c r="A155" s="55"/>
+      <c r="C155" s="59"/>
       <c r="D155" s="35" t="s">
         <v>271</v>
       </c>
@@ -5828,8 +5830,8 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="47"/>
-      <c r="C156" s="46"/>
+      <c r="A156" s="55"/>
+      <c r="C156" s="59"/>
       <c r="D156" s="35" t="s">
         <v>273</v>
       </c>
@@ -5841,8 +5843,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="33">
-      <c r="A157" s="47"/>
-      <c r="C157" s="46"/>
+      <c r="A157" s="55"/>
+      <c r="C157" s="59"/>
       <c r="D157" s="35" t="s">
         <v>275</v>
       </c>
@@ -5854,13 +5856,13 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="49.5">
-      <c r="A158" s="47" t="s">
+      <c r="A158" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C158" s="46" t="s">
+      <c r="C158" s="59" t="s">
         <v>278</v>
       </c>
       <c r="D158" s="35" t="s">
@@ -5874,8 +5876,8 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="47"/>
-      <c r="C159" s="46"/>
+      <c r="A159" s="55"/>
+      <c r="C159" s="59"/>
       <c r="D159" s="35" t="s">
         <v>261</v>
       </c>
@@ -5887,8 +5889,8 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="47"/>
-      <c r="C160" s="46"/>
+      <c r="A160" s="55"/>
+      <c r="C160" s="59"/>
       <c r="D160" s="35" t="s">
         <v>265</v>
       </c>
@@ -5900,8 +5902,8 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="47"/>
-      <c r="C161" s="46"/>
+      <c r="A161" s="55"/>
+      <c r="C161" s="59"/>
       <c r="D161" s="35" t="s">
         <v>267</v>
       </c>
@@ -5913,8 +5915,8 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="47"/>
-      <c r="C162" s="46"/>
+      <c r="A162" s="55"/>
+      <c r="C162" s="59"/>
       <c r="D162" s="35" t="s">
         <v>269</v>
       </c>
@@ -5926,8 +5928,8 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="47"/>
-      <c r="C163" s="46"/>
+      <c r="A163" s="55"/>
+      <c r="C163" s="59"/>
       <c r="D163" s="35" t="s">
         <v>271</v>
       </c>
@@ -5939,8 +5941,8 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="47"/>
-      <c r="C164" s="46"/>
+      <c r="A164" s="55"/>
+      <c r="C164" s="59"/>
       <c r="D164" s="35" t="s">
         <v>273</v>
       </c>
@@ -5952,13 +5954,13 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="47" t="s">
+      <c r="A165" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C165" s="46" t="s">
+      <c r="C165" s="59" t="s">
         <v>241</v>
       </c>
       <c r="D165" s="35" t="s">
@@ -5972,8 +5974,8 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="47"/>
-      <c r="C166" s="46"/>
+      <c r="A166" s="55"/>
+      <c r="C166" s="59"/>
       <c r="D166" s="35" t="s">
         <v>255</v>
       </c>
@@ -5985,8 +5987,8 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="47"/>
-      <c r="C167" s="46"/>
+      <c r="A167" s="55"/>
+      <c r="C167" s="59"/>
       <c r="D167" s="35" t="s">
         <v>257</v>
       </c>
@@ -5998,8 +6000,8 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="47"/>
-      <c r="C168" s="46"/>
+      <c r="A168" s="55"/>
+      <c r="C168" s="59"/>
       <c r="D168" s="35" t="s">
         <v>259</v>
       </c>
@@ -6011,8 +6013,8 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="47"/>
-      <c r="C169" s="46"/>
+      <c r="A169" s="55"/>
+      <c r="C169" s="59"/>
       <c r="D169" s="35" t="s">
         <v>291</v>
       </c>
@@ -6024,8 +6026,8 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="47"/>
-      <c r="C170" s="46"/>
+      <c r="A170" s="55"/>
+      <c r="C170" s="59"/>
       <c r="D170" s="35" t="s">
         <v>263</v>
       </c>
@@ -6037,8 +6039,8 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="47"/>
-      <c r="C171" s="46"/>
+      <c r="A171" s="55"/>
+      <c r="C171" s="59"/>
       <c r="D171" s="7" t="s">
         <v>294</v>
       </c>
@@ -6050,8 +6052,8 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="47"/>
-      <c r="C172" s="46"/>
+      <c r="A172" s="55"/>
+      <c r="C172" s="59"/>
       <c r="D172" s="35" t="s">
         <v>269</v>
       </c>
@@ -6063,8 +6065,8 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="47"/>
-      <c r="C173" s="46"/>
+      <c r="A173" s="55"/>
+      <c r="C173" s="59"/>
       <c r="D173" s="35" t="s">
         <v>271</v>
       </c>
@@ -6076,8 +6078,8 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="47"/>
-      <c r="C174" s="46"/>
+      <c r="A174" s="55"/>
+      <c r="C174" s="59"/>
       <c r="D174" s="35" t="s">
         <v>273</v>
       </c>
@@ -6089,8 +6091,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="33">
-      <c r="A175" s="47"/>
-      <c r="C175" s="46"/>
+      <c r="A175" s="55"/>
+      <c r="C175" s="59"/>
       <c r="D175" s="35" t="s">
         <v>275</v>
       </c>
@@ -6102,13 +6104,13 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="47" t="s">
+      <c r="A176" s="55" t="s">
         <v>246</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="46" t="s">
+      <c r="C176" s="59" t="s">
         <v>241</v>
       </c>
       <c r="D176" s="35" t="s">
@@ -6122,8 +6124,8 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="47"/>
-      <c r="C177" s="46"/>
+      <c r="A177" s="55"/>
+      <c r="C177" s="59"/>
       <c r="D177" s="35" t="s">
         <v>255</v>
       </c>
@@ -6135,8 +6137,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="47"/>
-      <c r="C178" s="46"/>
+      <c r="A178" s="55"/>
+      <c r="C178" s="59"/>
       <c r="D178" s="35" t="s">
         <v>257</v>
       </c>
@@ -6148,8 +6150,8 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="47"/>
-      <c r="C179" s="46"/>
+      <c r="A179" s="55"/>
+      <c r="C179" s="59"/>
       <c r="D179" s="35" t="s">
         <v>259</v>
       </c>
@@ -6161,8 +6163,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="47"/>
-      <c r="C180" s="46"/>
+      <c r="A180" s="55"/>
+      <c r="C180" s="59"/>
       <c r="D180" s="35" t="s">
         <v>291</v>
       </c>
@@ -6174,8 +6176,8 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="47"/>
-      <c r="C181" s="46"/>
+      <c r="A181" s="55"/>
+      <c r="C181" s="59"/>
       <c r="D181" s="35" t="s">
         <v>263</v>
       </c>
@@ -6187,8 +6189,8 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="47"/>
-      <c r="C182" s="46"/>
+      <c r="A182" s="55"/>
+      <c r="C182" s="59"/>
       <c r="D182" s="35" t="s">
         <v>267</v>
       </c>
@@ -6200,8 +6202,8 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="47"/>
-      <c r="C183" s="46"/>
+      <c r="A183" s="55"/>
+      <c r="C183" s="59"/>
       <c r="D183" s="7" t="s">
         <v>294</v>
       </c>
@@ -6213,8 +6215,8 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="47"/>
-      <c r="C184" s="46"/>
+      <c r="A184" s="55"/>
+      <c r="C184" s="59"/>
       <c r="D184" s="35" t="s">
         <v>269</v>
       </c>
@@ -6226,8 +6228,8 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="47"/>
-      <c r="C185" s="46"/>
+      <c r="A185" s="55"/>
+      <c r="C185" s="59"/>
       <c r="D185" s="35" t="s">
         <v>275</v>
       </c>
@@ -6339,7 +6341,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="47" t="s">
+      <c r="A191" s="55" t="s">
         <v>330</v>
       </c>
       <c r="B191" s="10" t="s">
@@ -6359,7 +6361,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="47"/>
+      <c r="A192" s="55"/>
       <c r="B192" s="10" t="s">
         <v>334</v>
       </c>
@@ -6377,7 +6379,7 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="47"/>
+      <c r="A193" s="55"/>
       <c r="B193" s="10" t="s">
         <v>337</v>
       </c>
@@ -6417,21 +6419,25 @@
   </sheetData>
   <autoFilter ref="D1:G200"/>
   <mergeCells count="50">
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6448,25 +6454,21 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\crawler-scrapy\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1961,7 +1961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2127,6 +2127,24 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2139,20 +2157,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3084,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78:H79"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -3129,13 +3135,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="57" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -3150,9 +3156,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="55"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="52" t="s">
         <v>14</v>
       </c>
@@ -3165,9 +3171,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="55"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="60"/>
+      <c r="A4" s="61"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="11" t="s">
         <v>15</v>
       </c>
@@ -3179,9 +3185,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="55"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="61" t="s">
+      <c r="A5" s="61"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="59" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="54" t="s">
@@ -3196,9 +3202,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="55"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="61"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="52" t="s">
         <v>18</v>
       </c>
@@ -3211,9 +3217,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="55"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="62"/>
+      <c r="A7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="52" t="s">
         <v>19</v>
       </c>
@@ -3226,53 +3232,56 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="55"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="60" t="s">
+      <c r="A8" s="61"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="55"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="40" t="s">
+      <c r="A9" s="61"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="55"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="40" t="s">
+      <c r="A10" s="61"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="48" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="55"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="61" t="s">
+      <c r="A11" s="61"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="59" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -3287,9 +3296,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="55"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="61"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="52" t="s">
         <v>26</v>
       </c>
@@ -3302,9 +3311,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="55"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="60" t="s">
+      <c r="A13" s="61"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="57" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="40" t="s">
@@ -3318,9 +3327,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="55"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="60"/>
+      <c r="A14" s="61"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="40" t="s">
         <v>29</v>
       </c>
@@ -3332,9 +3341,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="55"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="60" t="s">
+      <c r="A15" s="61"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="57" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="40" t="s">
@@ -3348,9 +3357,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="55"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="60"/>
+      <c r="A16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="40" t="s">
         <v>32</v>
       </c>
@@ -3362,9 +3371,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="55"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="60"/>
+      <c r="A17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="40" t="s">
         <v>33</v>
       </c>
@@ -3376,9 +3385,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="55"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="60" t="s">
+      <c r="A18" s="61"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="57" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="42" t="s">
@@ -3392,9 +3401,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="55"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="60"/>
+      <c r="A19" s="61"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="52" t="s">
         <v>37</v>
       </c>
@@ -3407,9 +3416,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="55"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="60"/>
+      <c r="A20" s="61"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="52" t="s">
         <v>38</v>
       </c>
@@ -3422,9 +3431,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="55"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="61" t="s">
+      <c r="A21" s="61"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="52" t="s">
@@ -3439,9 +3448,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="55"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="62"/>
+      <c r="A22" s="61"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="52" t="s">
         <v>41</v>
       </c>
@@ -3454,9 +3463,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="55"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="60" t="s">
+      <c r="A23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="42" t="s">
@@ -3470,9 +3479,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="55"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="60"/>
+      <c r="A24" s="61"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="40" t="s">
         <v>44</v>
       </c>
@@ -3484,9 +3493,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="55"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="63" t="s">
+      <c r="A25" s="61"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="56" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="52" t="s">
@@ -3501,9 +3510,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="55"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="63"/>
+      <c r="A26" s="61"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="52" t="s">
         <v>47</v>
       </c>
@@ -3516,9 +3525,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="55"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="60" t="s">
+      <c r="A27" s="61"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="57" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="42" t="s">
@@ -3535,9 +3544,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="55"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="60"/>
+      <c r="A28" s="61"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="42" t="s">
         <v>51</v>
       </c>
@@ -3552,9 +3561,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="55"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="60" t="s">
+      <c r="A29" s="61"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="57" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="40" t="s">
@@ -3568,9 +3577,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="55"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="60"/>
+      <c r="A30" s="61"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="41" t="s">
         <v>54</v>
       </c>
@@ -3582,9 +3591,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="55"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="60"/>
+      <c r="A31" s="61"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="41" t="s">
         <v>54</v>
       </c>
@@ -3596,9 +3605,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="55"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="63" t="s">
+      <c r="A32" s="61"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="56" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="52" t="s">
@@ -3613,9 +3622,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="55"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="63"/>
+      <c r="A33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="52" t="s">
         <v>57</v>
       </c>
@@ -3628,9 +3637,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="55"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="63" t="s">
+      <c r="A34" s="61"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="56" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="51" t="s">
@@ -3645,9 +3654,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="55"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="63"/>
+      <c r="A35" s="61"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="51" t="s">
         <v>60</v>
       </c>
@@ -3660,9 +3669,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="55"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="63"/>
+      <c r="A36" s="61"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="56"/>
       <c r="E36" s="51" t="s">
         <v>61</v>
       </c>
@@ -3675,9 +3684,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="55"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="60" t="s">
+      <c r="A37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="57" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="13" t="s">
@@ -3691,9 +3700,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="55"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="60"/>
+      <c r="A38" s="61"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="13" t="s">
         <v>64</v>
       </c>
@@ -3705,9 +3714,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="55"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="63" t="s">
+      <c r="A39" s="61"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="56" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="51" t="s">
@@ -3722,9 +3731,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="55"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="63"/>
+      <c r="A40" s="61"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="51" t="s">
         <v>67</v>
       </c>
@@ -3737,9 +3746,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="55"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="63"/>
+      <c r="A41" s="61"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="51" t="s">
         <v>68</v>
       </c>
@@ -3752,9 +3761,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="55"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="63" t="s">
+      <c r="A42" s="61"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="56" t="s">
         <v>70</v>
       </c>
       <c r="E42" s="45" t="s">
@@ -3769,9 +3778,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="55"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="63"/>
+      <c r="A43" s="61"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="56"/>
       <c r="E43" s="45" t="s">
         <v>72</v>
       </c>
@@ -3784,9 +3793,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="55"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="63" t="s">
+      <c r="A44" s="61"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="56" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="45" t="s">
@@ -3801,9 +3810,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="55"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="63"/>
+      <c r="A45" s="61"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="56"/>
       <c r="E45" s="45" t="s">
         <v>75</v>
       </c>
@@ -3816,9 +3825,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="55"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="63" t="s">
+      <c r="A46" s="61"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="56" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="49" t="s">
@@ -3833,9 +3842,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="55"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="63"/>
+      <c r="A47" s="61"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="45" t="s">
         <v>78</v>
       </c>
@@ -3848,9 +3857,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="55"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="63"/>
+      <c r="A48" s="61"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="56"/>
       <c r="E48" s="45" t="s">
         <v>79</v>
       </c>
@@ -3863,9 +3872,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="55"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="63"/>
+      <c r="A49" s="61"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="56"/>
       <c r="E49" s="45" t="s">
         <v>80</v>
       </c>
@@ -3878,9 +3887,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="55"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="60" t="s">
+      <c r="A50" s="61"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="57" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="14" t="s">
@@ -3894,9 +3903,9 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="55"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="60"/>
+      <c r="A51" s="61"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="14" t="s">
         <v>83</v>
       </c>
@@ -3908,9 +3917,9 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="55"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="60" t="s">
+      <c r="A52" s="61"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="57" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="14" t="s">
@@ -3924,9 +3933,9 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="55"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="60"/>
+      <c r="A53" s="61"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="14" t="s">
         <v>86</v>
       </c>
@@ -3938,9 +3947,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="55"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="60"/>
+      <c r="A54" s="61"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="14" t="s">
         <v>87</v>
       </c>
@@ -3952,9 +3961,9 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="55"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="63" t="s">
+      <c r="A55" s="61"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="56" t="s">
         <v>88</v>
       </c>
       <c r="E55" s="45" t="s">
@@ -3969,9 +3978,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="55"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="63"/>
+      <c r="A56" s="61"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="56"/>
       <c r="E56" s="45" t="s">
         <v>90</v>
       </c>
@@ -3984,9 +3993,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="55"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="63" t="s">
+      <c r="A57" s="61"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="56" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="45" t="s">
@@ -4001,9 +4010,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="55"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="63"/>
+      <c r="A58" s="61"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="45" t="s">
         <v>93</v>
       </c>
@@ -4016,9 +4025,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="55"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="63" t="s">
+      <c r="A59" s="61"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="56" t="s">
         <v>94</v>
       </c>
       <c r="E59" s="45" t="s">
@@ -4033,9 +4042,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="55"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="63"/>
+      <c r="A60" s="61"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="45" t="s">
         <v>96</v>
       </c>
@@ -4048,9 +4057,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="55"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="63" t="s">
+      <c r="A61" s="61"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="56" t="s">
         <v>97</v>
       </c>
       <c r="E61" s="45" t="s">
@@ -4065,9 +4074,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="55"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="63"/>
+      <c r="A62" s="61"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="45" t="s">
         <v>99</v>
       </c>
@@ -4080,9 +4089,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="55"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="63"/>
+      <c r="A63" s="61"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="56"/>
       <c r="E63" s="45" t="s">
         <v>100</v>
       </c>
@@ -4095,9 +4104,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="55"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="63" t="s">
+      <c r="A64" s="61"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="56" t="s">
         <v>101</v>
       </c>
       <c r="E64" s="45" t="s">
@@ -4112,9 +4121,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="55"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="63"/>
+      <c r="A65" s="61"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="56"/>
       <c r="E65" s="45" t="s">
         <v>103</v>
       </c>
@@ -4127,9 +4136,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="55"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="63" t="s">
+      <c r="A66" s="61"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="56" t="s">
         <v>104</v>
       </c>
       <c r="E66" s="45" t="s">
@@ -4144,9 +4153,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="55"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="63"/>
+      <c r="A67" s="61"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="56"/>
       <c r="E67" s="45" t="s">
         <v>106</v>
       </c>
@@ -4159,9 +4168,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="55"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="63" t="s">
+      <c r="A68" s="61"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="56" t="s">
         <v>107</v>
       </c>
       <c r="E68" s="45" t="s">
@@ -4176,9 +4185,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="55"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="63"/>
+      <c r="A69" s="61"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="56"/>
       <c r="E69" s="50" t="s">
         <v>109</v>
       </c>
@@ -4191,9 +4200,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="55"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="63"/>
+      <c r="A70" s="61"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="56"/>
       <c r="E70" s="45" t="s">
         <v>110</v>
       </c>
@@ -4206,9 +4215,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="55"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="63" t="s">
+      <c r="A71" s="61"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="56" t="s">
         <v>111</v>
       </c>
       <c r="E71" s="45" t="s">
@@ -4223,9 +4232,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="55"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="63"/>
+      <c r="A72" s="61"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="56"/>
       <c r="E72" s="45" t="s">
         <v>113</v>
       </c>
@@ -4238,9 +4247,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="55"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="63" t="s">
+      <c r="A73" s="61"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="56" t="s">
         <v>114</v>
       </c>
       <c r="E73" s="45" t="s">
@@ -4255,9 +4264,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="55"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="63"/>
+      <c r="A74" s="61"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="56"/>
       <c r="E74" s="45" t="s">
         <v>116</v>
       </c>
@@ -4270,9 +4279,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="55"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="63"/>
+      <c r="A75" s="61"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="56"/>
       <c r="E75" s="45" t="s">
         <v>117</v>
       </c>
@@ -4285,9 +4294,9 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="55"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="63" t="s">
+      <c r="A76" s="61"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="56" t="s">
         <v>118</v>
       </c>
       <c r="E76" s="50" t="s">
@@ -4302,9 +4311,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="55"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="63"/>
+      <c r="A77" s="61"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="56"/>
       <c r="E77" s="50" t="s">
         <v>120</v>
       </c>
@@ -4317,9 +4326,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="55"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="63" t="s">
+      <c r="A78" s="61"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="56" t="s">
         <v>121</v>
       </c>
       <c r="E78" s="50" t="s">
@@ -4334,9 +4343,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="55"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="63"/>
+      <c r="A79" s="61"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="56"/>
       <c r="E79" s="50" t="s">
         <v>123</v>
       </c>
@@ -4372,7 +4381,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="55" t="s">
+      <c r="A81" s="61" t="s">
         <v>130</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -4395,7 +4404,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="55"/>
+      <c r="A82" s="61"/>
       <c r="B82" s="4" t="s">
         <v>135</v>
       </c>
@@ -4416,7 +4425,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="62" t="s">
         <v>136</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -4440,7 +4449,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="56"/>
+      <c r="A84" s="62"/>
       <c r="B84" s="20" t="s">
         <v>140</v>
       </c>
@@ -4462,7 +4471,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="56"/>
+      <c r="A85" s="62"/>
       <c r="B85" s="20" t="s">
         <v>143</v>
       </c>
@@ -4484,7 +4493,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="56"/>
+      <c r="A86" s="62"/>
       <c r="B86" s="20" t="s">
         <v>145</v>
       </c>
@@ -4506,13 +4515,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="55" t="s">
+      <c r="A87" s="61" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="64" t="s">
         <v>149</v>
       </c>
       <c r="D87" s="6" t="s">
@@ -4529,11 +4538,11 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="55"/>
-      <c r="B88" s="55" t="s">
+      <c r="A88" s="61"/>
+      <c r="B88" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="58"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
@@ -4548,9 +4557,9 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="55"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="58"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="64"/>
       <c r="D89" s="6" t="s">
         <v>16</v>
       </c>
@@ -4568,9 +4577,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="55"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="58"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="61"/>
+      <c r="C90" s="64"/>
       <c r="D90" s="6" t="s">
         <v>24</v>
       </c>
@@ -4588,9 +4597,9 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="58"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="64"/>
       <c r="D91" s="6" t="s">
         <v>45</v>
       </c>
@@ -4608,9 +4617,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="55"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="58"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="64"/>
       <c r="D92" s="6" t="s">
         <v>55</v>
       </c>
@@ -4625,9 +4634,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="55"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="58"/>
+      <c r="A93" s="61"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="6" t="s">
         <v>42</v>
       </c>
@@ -4645,9 +4654,9 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="55"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="58"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="64"/>
       <c r="D94" s="6" t="s">
         <v>39</v>
       </c>
@@ -4665,9 +4674,9 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="55"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="58"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="64"/>
       <c r="D95" s="6" t="s">
         <v>34</v>
       </c>
@@ -4685,9 +4694,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="33">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="58"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="64"/>
       <c r="D96" s="6" t="s">
         <v>30</v>
       </c>
@@ -4702,9 +4711,9 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="33">
-      <c r="A97" s="55"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="58"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="64"/>
       <c r="D97" s="6" t="s">
         <v>164</v>
       </c>
@@ -4719,9 +4728,9 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="58"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="64"/>
       <c r="D98" s="6" t="s">
         <v>76</v>
       </c>
@@ -4739,9 +4748,9 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="55"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="58"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="64"/>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
@@ -4759,9 +4768,9 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="33">
-      <c r="A100" s="55"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="58"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="64"/>
       <c r="D100" s="6" t="s">
         <v>114</v>
       </c>
@@ -4779,9 +4788,9 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="55"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="58"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="64"/>
       <c r="D101" s="6" t="s">
         <v>118</v>
       </c>
@@ -4799,9 +4808,9 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="55"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="58"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="61"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="6" t="s">
         <v>81</v>
       </c>
@@ -4819,9 +4828,9 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="55"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="58"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="64"/>
       <c r="D103" s="6" t="s">
         <v>52</v>
       </c>
@@ -4836,9 +4845,9 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="33">
-      <c r="A104" s="55"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="58"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="6" t="s">
         <v>94</v>
       </c>
@@ -4856,9 +4865,9 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="33">
-      <c r="A105" s="55"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="58"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="6" t="s">
         <v>97</v>
       </c>
@@ -4876,9 +4885,9 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="55"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="58"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="6" t="s">
         <v>91</v>
       </c>
@@ -4896,9 +4905,9 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="33">
-      <c r="A107" s="55"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="58"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="6" t="s">
         <v>88</v>
       </c>
@@ -4916,9 +4925,9 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="55"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="58"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="64"/>
       <c r="D108" s="6" t="s">
         <v>48</v>
       </c>
@@ -4936,9 +4945,9 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="58"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="64"/>
       <c r="D109" s="6" t="s">
         <v>111</v>
       </c>
@@ -4956,9 +4965,9 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="55"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="58"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="64"/>
       <c r="D110" s="6" t="s">
         <v>27</v>
       </c>
@@ -4973,9 +4982,9 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="55"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="58"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="64"/>
       <c r="D111" s="6" t="s">
         <v>101</v>
       </c>
@@ -4990,9 +4999,9 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="33">
-      <c r="A112" s="55"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="64"/>
       <c r="D112" s="6" t="s">
         <v>104</v>
       </c>
@@ -5010,9 +5019,9 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="55"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="58"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="64"/>
       <c r="D113" s="6" t="s">
         <v>73</v>
       </c>
@@ -5030,9 +5039,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="55"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="58"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="64"/>
       <c r="D114" s="6" t="s">
         <v>121</v>
       </c>
@@ -5050,9 +5059,9 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="55"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="58"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="64"/>
       <c r="D115" s="6" t="s">
         <v>62</v>
       </c>
@@ -5070,9 +5079,9 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="55"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="58"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="61"/>
+      <c r="C116" s="64"/>
       <c r="D116" s="6" t="s">
         <v>58</v>
       </c>
@@ -5090,9 +5099,9 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="55"/>
-      <c r="B117" s="55"/>
-      <c r="C117" s="58"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="64"/>
       <c r="D117" s="6" t="s">
         <v>65</v>
       </c>
@@ -5110,9 +5119,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="55"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="58"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="64"/>
       <c r="D118" s="6" t="s">
         <v>107</v>
       </c>
@@ -5130,11 +5139,11 @@
       </c>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="55"/>
-      <c r="B119" s="56" t="s">
+      <c r="A119" s="61"/>
+      <c r="B119" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="C119" s="58"/>
+      <c r="C119" s="64"/>
       <c r="D119" s="26" t="s">
         <v>30</v>
       </c>
@@ -5155,9 +5164,9 @@
       <c r="K119" s="28"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="66">
-      <c r="A120" s="55"/>
-      <c r="B120" s="56"/>
-      <c r="C120" s="58"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="64"/>
       <c r="D120" s="26" t="s">
         <v>39</v>
       </c>
@@ -5178,9 +5187,9 @@
       <c r="K120" s="28"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="55"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="64"/>
       <c r="D121" s="26" t="s">
         <v>94</v>
       </c>
@@ -5201,9 +5210,9 @@
       <c r="K121" s="28"/>
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="55"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="58"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="64"/>
       <c r="D122" s="26" t="s">
         <v>107</v>
       </c>
@@ -5223,9 +5232,9 @@
       <c r="J122" s="28"/>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A123" s="55"/>
-      <c r="B123" s="56"/>
-      <c r="C123" s="58"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="64"/>
       <c r="D123" s="26" t="s">
         <v>42</v>
       </c>
@@ -5245,9 +5254,9 @@
       <c r="J123" s="28"/>
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="55"/>
-      <c r="B124" s="56"/>
-      <c r="C124" s="58"/>
+      <c r="A124" s="61"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="64"/>
       <c r="D124" s="26" t="s">
         <v>121</v>
       </c>
@@ -5267,9 +5276,9 @@
       <c r="J124" s="28"/>
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="55"/>
-      <c r="B125" s="56"/>
-      <c r="C125" s="58"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="64"/>
       <c r="D125" s="26" t="s">
         <v>62</v>
       </c>
@@ -5289,9 +5298,9 @@
       <c r="J125" s="28"/>
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="55"/>
-      <c r="B126" s="56"/>
-      <c r="C126" s="58"/>
+      <c r="A126" s="61"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="64"/>
       <c r="D126" s="26" t="s">
         <v>58</v>
       </c>
@@ -5309,9 +5318,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="55"/>
-      <c r="B127" s="56"/>
-      <c r="C127" s="58"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="64"/>
       <c r="D127" s="29" t="s">
         <v>70</v>
       </c>
@@ -5329,9 +5338,9 @@
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="55"/>
-      <c r="B128" s="56"/>
-      <c r="C128" s="58"/>
+      <c r="A128" s="61"/>
+      <c r="B128" s="62"/>
+      <c r="C128" s="64"/>
       <c r="D128" s="29" t="s">
         <v>76</v>
       </c>
@@ -5349,9 +5358,9 @@
       </c>
     </row>
     <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="55"/>
-      <c r="B129" s="56"/>
-      <c r="C129" s="58"/>
+      <c r="A129" s="61"/>
+      <c r="B129" s="62"/>
+      <c r="C129" s="64"/>
       <c r="D129" s="29" t="s">
         <v>97</v>
       </c>
@@ -5371,9 +5380,9 @@
       <c r="J129" s="28"/>
     </row>
     <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="55"/>
-      <c r="B130" s="56"/>
-      <c r="C130" s="58"/>
+      <c r="A130" s="61"/>
+      <c r="B130" s="62"/>
+      <c r="C130" s="64"/>
       <c r="D130" s="29" t="s">
         <v>101</v>
       </c>
@@ -5392,9 +5401,9 @@
       <c r="J130" s="28"/>
     </row>
     <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="55"/>
-      <c r="B131" s="56"/>
-      <c r="C131" s="58"/>
+      <c r="A131" s="61"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="64"/>
       <c r="D131" s="29" t="s">
         <v>81</v>
       </c>
@@ -5412,9 +5421,9 @@
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="55"/>
-      <c r="B132" s="56"/>
-      <c r="C132" s="58"/>
+      <c r="A132" s="61"/>
+      <c r="B132" s="62"/>
+      <c r="C132" s="64"/>
       <c r="D132" s="29" t="s">
         <v>114</v>
       </c>
@@ -5430,9 +5439,9 @@
       </c>
     </row>
     <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="55"/>
-      <c r="B133" s="56"/>
-      <c r="C133" s="58"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="62"/>
+      <c r="C133" s="64"/>
       <c r="D133" s="29" t="s">
         <v>118</v>
       </c>
@@ -5450,9 +5459,9 @@
       </c>
     </row>
     <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="55"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="58"/>
+      <c r="A134" s="61"/>
+      <c r="B134" s="62"/>
+      <c r="C134" s="64"/>
       <c r="D134" s="29" t="s">
         <v>104</v>
       </c>
@@ -5471,9 +5480,9 @@
       <c r="I134" s="28"/>
     </row>
     <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="55"/>
-      <c r="B135" s="56"/>
-      <c r="C135" s="58"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="64"/>
       <c r="D135" s="29" t="s">
         <v>84</v>
       </c>
@@ -5492,9 +5501,9 @@
       <c r="I135" s="28"/>
     </row>
     <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="55"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="58"/>
+      <c r="A136" s="61"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="64"/>
       <c r="D136" s="26" t="s">
         <v>73</v>
       </c>
@@ -5511,7 +5520,7 @@
       <c r="I136" s="28"/>
     </row>
     <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="61" t="s">
         <v>222</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -5533,7 +5542,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="55"/>
+      <c r="A138" s="61"/>
       <c r="B138" s="20" t="s">
         <v>227</v>
       </c>
@@ -5553,7 +5562,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="55"/>
+      <c r="A139" s="61"/>
       <c r="B139" s="20" t="s">
         <v>229</v>
       </c>
@@ -5573,7 +5582,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="55"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="20" t="s">
         <v>231</v>
       </c>
@@ -5593,7 +5602,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="55"/>
+      <c r="A141" s="61"/>
       <c r="B141" s="20" t="s">
         <v>234</v>
       </c>
@@ -5613,7 +5622,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="55"/>
+      <c r="A142" s="61"/>
       <c r="B142" s="20" t="s">
         <v>237</v>
       </c>
@@ -5633,7 +5642,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="55"/>
+      <c r="A143" s="61"/>
       <c r="B143" s="20" t="s">
         <v>240</v>
       </c>
@@ -5653,7 +5662,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="55"/>
+      <c r="A144" s="61"/>
       <c r="B144" s="4" t="s">
         <v>243</v>
       </c>
@@ -5674,13 +5683,13 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="66">
-      <c r="A145" s="55" t="s">
+      <c r="A145" s="61" t="s">
         <v>246</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C145" s="59" t="s">
+      <c r="C145" s="58" t="s">
         <v>248</v>
       </c>
       <c r="D145" s="35" t="s">
@@ -5697,8 +5706,8 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="55"/>
-      <c r="C146" s="59"/>
+      <c r="A146" s="61"/>
+      <c r="C146" s="58"/>
       <c r="D146" s="35" t="s">
         <v>252</v>
       </c>
@@ -5713,8 +5722,8 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="55"/>
-      <c r="C147" s="59"/>
+      <c r="A147" s="61"/>
+      <c r="C147" s="58"/>
       <c r="D147" s="35" t="s">
         <v>255</v>
       </c>
@@ -5726,8 +5735,8 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="55"/>
-      <c r="C148" s="59"/>
+      <c r="A148" s="61"/>
+      <c r="C148" s="58"/>
       <c r="D148" s="35" t="s">
         <v>257</v>
       </c>
@@ -5739,8 +5748,8 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="55"/>
-      <c r="C149" s="59"/>
+      <c r="A149" s="61"/>
+      <c r="C149" s="58"/>
       <c r="D149" s="35" t="s">
         <v>259</v>
       </c>
@@ -5752,8 +5761,8 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="55"/>
-      <c r="C150" s="59"/>
+      <c r="A150" s="61"/>
+      <c r="C150" s="58"/>
       <c r="D150" s="35" t="s">
         <v>261</v>
       </c>
@@ -5765,8 +5774,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" ht="33">
-      <c r="A151" s="55"/>
-      <c r="C151" s="59"/>
+      <c r="A151" s="61"/>
+      <c r="C151" s="58"/>
       <c r="D151" s="35" t="s">
         <v>263</v>
       </c>
@@ -5778,8 +5787,8 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="55"/>
-      <c r="C152" s="59"/>
+      <c r="A152" s="61"/>
+      <c r="C152" s="58"/>
       <c r="D152" s="35" t="s">
         <v>265</v>
       </c>
@@ -5791,8 +5800,8 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="55"/>
-      <c r="C153" s="59"/>
+      <c r="A153" s="61"/>
+      <c r="C153" s="58"/>
       <c r="D153" s="35" t="s">
         <v>267</v>
       </c>
@@ -5804,8 +5813,8 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="55"/>
-      <c r="C154" s="59"/>
+      <c r="A154" s="61"/>
+      <c r="C154" s="58"/>
       <c r="D154" s="35" t="s">
         <v>269</v>
       </c>
@@ -5817,8 +5826,8 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="55"/>
-      <c r="C155" s="59"/>
+      <c r="A155" s="61"/>
+      <c r="C155" s="58"/>
       <c r="D155" s="35" t="s">
         <v>271</v>
       </c>
@@ -5830,8 +5839,8 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="55"/>
-      <c r="C156" s="59"/>
+      <c r="A156" s="61"/>
+      <c r="C156" s="58"/>
       <c r="D156" s="35" t="s">
         <v>273</v>
       </c>
@@ -5843,8 +5852,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" ht="33">
-      <c r="A157" s="55"/>
-      <c r="C157" s="59"/>
+      <c r="A157" s="61"/>
+      <c r="C157" s="58"/>
       <c r="D157" s="35" t="s">
         <v>275</v>
       </c>
@@ -5856,13 +5865,13 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="49.5">
-      <c r="A158" s="55" t="s">
+      <c r="A158" s="61" t="s">
         <v>246</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C158" s="59" t="s">
+      <c r="C158" s="58" t="s">
         <v>278</v>
       </c>
       <c r="D158" s="35" t="s">
@@ -5876,8 +5885,8 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="55"/>
-      <c r="C159" s="59"/>
+      <c r="A159" s="61"/>
+      <c r="C159" s="58"/>
       <c r="D159" s="35" t="s">
         <v>261</v>
       </c>
@@ -5889,8 +5898,8 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="55"/>
-      <c r="C160" s="59"/>
+      <c r="A160" s="61"/>
+      <c r="C160" s="58"/>
       <c r="D160" s="35" t="s">
         <v>265</v>
       </c>
@@ -5902,8 +5911,8 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="55"/>
-      <c r="C161" s="59"/>
+      <c r="A161" s="61"/>
+      <c r="C161" s="58"/>
       <c r="D161" s="35" t="s">
         <v>267</v>
       </c>
@@ -5915,8 +5924,8 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="55"/>
-      <c r="C162" s="59"/>
+      <c r="A162" s="61"/>
+      <c r="C162" s="58"/>
       <c r="D162" s="35" t="s">
         <v>269</v>
       </c>
@@ -5928,8 +5937,8 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="55"/>
-      <c r="C163" s="59"/>
+      <c r="A163" s="61"/>
+      <c r="C163" s="58"/>
       <c r="D163" s="35" t="s">
         <v>271</v>
       </c>
@@ -5941,8 +5950,8 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="55"/>
-      <c r="C164" s="59"/>
+      <c r="A164" s="61"/>
+      <c r="C164" s="58"/>
       <c r="D164" s="35" t="s">
         <v>273</v>
       </c>
@@ -5954,13 +5963,13 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="55" t="s">
+      <c r="A165" s="61" t="s">
         <v>246</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C165" s="59" t="s">
+      <c r="C165" s="58" t="s">
         <v>241</v>
       </c>
       <c r="D165" s="35" t="s">
@@ -5974,8 +5983,8 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="55"/>
-      <c r="C166" s="59"/>
+      <c r="A166" s="61"/>
+      <c r="C166" s="58"/>
       <c r="D166" s="35" t="s">
         <v>255</v>
       </c>
@@ -5987,8 +5996,8 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="55"/>
-      <c r="C167" s="59"/>
+      <c r="A167" s="61"/>
+      <c r="C167" s="58"/>
       <c r="D167" s="35" t="s">
         <v>257</v>
       </c>
@@ -6000,8 +6009,8 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="55"/>
-      <c r="C168" s="59"/>
+      <c r="A168" s="61"/>
+      <c r="C168" s="58"/>
       <c r="D168" s="35" t="s">
         <v>259</v>
       </c>
@@ -6013,8 +6022,8 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="55"/>
-      <c r="C169" s="59"/>
+      <c r="A169" s="61"/>
+      <c r="C169" s="58"/>
       <c r="D169" s="35" t="s">
         <v>291</v>
       </c>
@@ -6026,8 +6035,8 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="55"/>
-      <c r="C170" s="59"/>
+      <c r="A170" s="61"/>
+      <c r="C170" s="58"/>
       <c r="D170" s="35" t="s">
         <v>263</v>
       </c>
@@ -6039,8 +6048,8 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="55"/>
-      <c r="C171" s="59"/>
+      <c r="A171" s="61"/>
+      <c r="C171" s="58"/>
       <c r="D171" s="7" t="s">
         <v>294</v>
       </c>
@@ -6052,8 +6061,8 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="55"/>
-      <c r="C172" s="59"/>
+      <c r="A172" s="61"/>
+      <c r="C172" s="58"/>
       <c r="D172" s="35" t="s">
         <v>269</v>
       </c>
@@ -6065,8 +6074,8 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="55"/>
-      <c r="C173" s="59"/>
+      <c r="A173" s="61"/>
+      <c r="C173" s="58"/>
       <c r="D173" s="35" t="s">
         <v>271</v>
       </c>
@@ -6078,8 +6087,8 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="55"/>
-      <c r="C174" s="59"/>
+      <c r="A174" s="61"/>
+      <c r="C174" s="58"/>
       <c r="D174" s="35" t="s">
         <v>273</v>
       </c>
@@ -6091,8 +6100,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="33">
-      <c r="A175" s="55"/>
-      <c r="C175" s="59"/>
+      <c r="A175" s="61"/>
+      <c r="C175" s="58"/>
       <c r="D175" s="35" t="s">
         <v>275</v>
       </c>
@@ -6104,13 +6113,13 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="55" t="s">
+      <c r="A176" s="61" t="s">
         <v>246</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C176" s="59" t="s">
+      <c r="C176" s="58" t="s">
         <v>241</v>
       </c>
       <c r="D176" s="35" t="s">
@@ -6124,8 +6133,8 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="55"/>
-      <c r="C177" s="59"/>
+      <c r="A177" s="61"/>
+      <c r="C177" s="58"/>
       <c r="D177" s="35" t="s">
         <v>255</v>
       </c>
@@ -6137,8 +6146,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="55"/>
-      <c r="C178" s="59"/>
+      <c r="A178" s="61"/>
+      <c r="C178" s="58"/>
       <c r="D178" s="35" t="s">
         <v>257</v>
       </c>
@@ -6150,8 +6159,8 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="55"/>
-      <c r="C179" s="59"/>
+      <c r="A179" s="61"/>
+      <c r="C179" s="58"/>
       <c r="D179" s="35" t="s">
         <v>259</v>
       </c>
@@ -6163,8 +6172,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="55"/>
-      <c r="C180" s="59"/>
+      <c r="A180" s="61"/>
+      <c r="C180" s="58"/>
       <c r="D180" s="35" t="s">
         <v>291</v>
       </c>
@@ -6176,8 +6185,8 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="55"/>
-      <c r="C181" s="59"/>
+      <c r="A181" s="61"/>
+      <c r="C181" s="58"/>
       <c r="D181" s="35" t="s">
         <v>263</v>
       </c>
@@ -6189,8 +6198,8 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="55"/>
-      <c r="C182" s="59"/>
+      <c r="A182" s="61"/>
+      <c r="C182" s="58"/>
       <c r="D182" s="35" t="s">
         <v>267</v>
       </c>
@@ -6202,8 +6211,8 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="55"/>
-      <c r="C183" s="59"/>
+      <c r="A183" s="61"/>
+      <c r="C183" s="58"/>
       <c r="D183" s="7" t="s">
         <v>294</v>
       </c>
@@ -6215,8 +6224,8 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="55"/>
-      <c r="C184" s="59"/>
+      <c r="A184" s="61"/>
+      <c r="C184" s="58"/>
       <c r="D184" s="35" t="s">
         <v>269</v>
       </c>
@@ -6228,8 +6237,8 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="55"/>
-      <c r="C185" s="59"/>
+      <c r="A185" s="61"/>
+      <c r="C185" s="58"/>
       <c r="D185" s="35" t="s">
         <v>275</v>
       </c>
@@ -6341,7 +6350,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="55" t="s">
+      <c r="A191" s="61" t="s">
         <v>330</v>
       </c>
       <c r="B191" s="10" t="s">
@@ -6361,7 +6370,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="55"/>
+      <c r="A192" s="61"/>
       <c r="B192" s="10" t="s">
         <v>334</v>
       </c>
@@ -6379,7 +6388,7 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="55"/>
+      <c r="A193" s="61"/>
       <c r="B193" s="10" t="s">
         <v>337</v>
       </c>
@@ -6419,25 +6428,21 @@
   </sheetData>
   <autoFilter ref="D1:G200"/>
   <mergeCells count="50">
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6454,21 +6459,25 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -3162,7 +3162,7 @@
   <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I112" sqref="I107:I112"/>
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -5173,8 +5173,8 @@
       <c r="G116" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="53" t="s">
-        <v>71</v>
+      <c r="H116" s="30" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="33">

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14265"/>
+    <workbookView windowWidth="24000" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,6 +536,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>时间区间为</t>
     </r>
     <r>
@@ -623,6 +624,9 @@
     <t>http://xa.sxggzyjy.cn/jydt/trading.html</t>
   </si>
   <si>
+    <t>http://ggzyjy.gansu.gov.cn/f/newprovince/annogoods/list</t>
+  </si>
+  <si>
     <t>http://www.qhggzyjy.gov.cn/ggzy/jyxx/001002/001002001/secondPage.html</t>
   </si>
   <si>
@@ -1794,17 +1798,19 @@
   </si>
   <si>
     <t>期刊论文</t>
-  </si>
-  <si>
-    <t>http://ggzyjy.gansu.gov.cn/f/newprovince/annogoods/list</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1873,14 +1879,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
@@ -1907,26 +1905,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1945,8 +2072,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1969,22 +2282,261 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2022,9 +2574,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2033,22 +2588,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2057,22 +2615,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2081,10 +2639,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2096,6 +2654,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2105,154 +2666,182 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="超链接 2" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="超链接 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2274,7 +2863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2329,7 +2918,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2384,7 +2973,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2439,7 +3028,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2494,7 +3083,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2549,7 +3138,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2587,7 +3176,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2608,7 +3197,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -2630,7 +3219,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2685,7 +3274,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2723,7 +3312,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2744,7 +3333,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2766,7 +3355,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2821,7 +3410,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2859,7 +3448,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -2881,7 +3470,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3153,19 +3742,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="6" customWidth="1"/>
@@ -3206,20 +3795,20 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -3227,14 +3816,14 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="67"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="13" t="s">
+      <c r="A3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -3242,30 +3831,30 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="67"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="16" t="s">
+      <c r="A4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="67"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="77" t="s">
+      <c r="A5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -3273,14 +3862,14 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="67"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="13" t="s">
+      <c r="A6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -3288,61 +3877,61 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="67"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="13" t="s">
+      <c r="A7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="67"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="79" t="s">
+    <row r="8" ht="27" spans="1:8">
+      <c r="A8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="67"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="19" t="s">
+    <row r="9" ht="27" spans="1:8">
+      <c r="A9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="67"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="19" t="s">
+    <row r="10" ht="27" spans="1:8">
+      <c r="A10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -3350,16 +3939,16 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="67"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="77" t="s">
+      <c r="A11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -3367,14 +3956,14 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="67"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="13" t="s">
+      <c r="A12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -3382,15 +3971,15 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="67"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="76" t="s">
+      <c r="A13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -3398,13 +3987,13 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="67"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="20" t="s">
+      <c r="A14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -3412,15 +4001,15 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="67"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="76" t="s">
+      <c r="A15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -3428,13 +4017,13 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="67"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="20" t="s">
+      <c r="A16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -3442,13 +4031,13 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="67"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="20" t="s">
+      <c r="A17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -3456,30 +4045,30 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="67"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="76" t="s">
+      <c r="A18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="G18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="67"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="13" t="s">
+      <c r="A19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -3487,14 +4076,14 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="67"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="13" t="s">
+      <c r="A20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -3502,16 +4091,16 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="67"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="77" t="s">
+      <c r="A21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="15"/>
+      <c r="G21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -3519,14 +4108,14 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="67"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="13" t="s">
+      <c r="A22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -3534,61 +4123,61 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="67"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="76" t="s">
+      <c r="A23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="G23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="67"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="20" t="s">
+      <c r="A24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="67"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="79" t="s">
+    <row r="25" ht="27" spans="1:8">
+      <c r="A25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="15"/>
+      <c r="G25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="67"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="13" t="s">
+    <row r="26" ht="27" spans="1:8">
+      <c r="A26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="15" t="s">
+      <c r="F26" s="24"/>
+      <c r="G26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -3596,79 +4185,79 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="67"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="76" t="s">
+      <c r="A27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="17" t="s">
+      <c r="G27" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="67"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="21" t="s">
+      <c r="A28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="17" t="s">
+      <c r="G28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="67"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="76" t="s">
+    <row r="29" ht="27" spans="1:8">
+      <c r="A29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="67"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="24" t="s">
+    <row r="30" ht="27" spans="1:8">
+      <c r="A30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="67"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="24" t="s">
+    <row r="31" ht="27" spans="1:8">
+      <c r="A31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="10" t="s">
@@ -3676,63 +4265,63 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="67"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="79" t="s">
+      <c r="A32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="15"/>
+      <c r="G32" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="67"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="13" t="s">
+    <row r="33" ht="27" spans="1:8">
+      <c r="A33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15" t="s">
+      <c r="F33" s="15"/>
+      <c r="G33" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="67"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="79" t="s">
+    <row r="34" ht="27" spans="1:8">
+      <c r="A34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="15"/>
+      <c r="G34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="67"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="25" t="s">
+    <row r="35" ht="27" spans="1:8">
+      <c r="A35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15" t="s">
+      <c r="F35" s="15"/>
+      <c r="G35" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -3740,61 +4329,61 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="67"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="25" t="s">
+      <c r="A36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15" t="s">
+      <c r="F36" s="15"/>
+      <c r="G36" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="67"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="76" t="s">
+    <row r="37" ht="27" spans="1:8">
+      <c r="A37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="G37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="67"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="26" t="s">
+    <row r="38" ht="27" spans="1:8">
+      <c r="A38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="17" t="s">
+      <c r="G38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="67"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="79" t="s">
+      <c r="A39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15" t="s">
+      <c r="F39" s="15"/>
+      <c r="G39" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -3802,14 +4391,14 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="67"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="25" t="s">
+      <c r="A40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -3817,31 +4406,31 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="67"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="25" t="s">
+      <c r="A41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15" t="s">
+      <c r="F41" s="15"/>
+      <c r="G41" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="67"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="79" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15" t="s">
+      <c r="F42" s="15"/>
+      <c r="G42" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -3849,14 +4438,14 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="67"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="27" t="s">
+      <c r="A43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15" t="s">
+      <c r="F43" s="15"/>
+      <c r="G43" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -3864,16 +4453,16 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="67"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="79" t="s">
+      <c r="A44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -3881,31 +4470,31 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="67"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="27" t="s">
+      <c r="A45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15" t="s">
+      <c r="F45" s="15"/>
+      <c r="G45" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="67"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="79" t="s">
+    <row r="46" ht="27" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15" t="s">
+      <c r="F46" s="15"/>
+      <c r="G46" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -3913,14 +4502,14 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="67"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="27" t="s">
+      <c r="A47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15" t="s">
+      <c r="F47" s="15"/>
+      <c r="G47" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -3928,14 +4517,14 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="67"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="27" t="s">
+      <c r="A48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15" t="s">
+      <c r="F48" s="15"/>
+      <c r="G48" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -3943,105 +4532,105 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="67"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="27" t="s">
+      <c r="A49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15" t="s">
+      <c r="F49" s="15"/>
+      <c r="G49" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="67"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="76" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="30" t="s">
+      <c r="G50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="67"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="29" t="s">
+      <c r="A51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="30" t="s">
+      <c r="G51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="67"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="76" t="s">
+      <c r="A52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="30" t="s">
+      <c r="G52" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="67"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="29" t="s">
+      <c r="A53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="30" t="s">
+      <c r="G53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="67"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="29" t="s">
+      <c r="A54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="30" t="s">
+      <c r="G54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="67"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="79" t="s">
+      <c r="A55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15" t="s">
+      <c r="F55" s="15"/>
+      <c r="G55" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -4049,14 +4638,14 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="67"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="27" t="s">
+      <c r="A56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15" t="s">
+      <c r="F56" s="15"/>
+      <c r="G56" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="4" t="s">
@@ -4064,16 +4653,16 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="67"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="79" t="s">
+      <c r="A57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15" t="s">
+      <c r="F57" s="15"/>
+      <c r="G57" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -4081,14 +4670,14 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="67"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="27" t="s">
+      <c r="A58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15" t="s">
+      <c r="F58" s="15"/>
+      <c r="G58" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -4096,16 +4685,16 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="67"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="79" t="s">
+      <c r="A59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="15" t="s">
+      <c r="F59" s="15"/>
+      <c r="G59" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -4113,14 +4702,14 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="67"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="27" t="s">
+      <c r="A60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="15" t="s">
+      <c r="F60" s="15"/>
+      <c r="G60" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -4128,16 +4717,16 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="67"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="79" t="s">
+      <c r="A61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="15" t="s">
+      <c r="F61" s="15"/>
+      <c r="G61" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -4145,14 +4734,14 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="67"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="27" t="s">
+      <c r="A62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="15" t="s">
+      <c r="F62" s="15"/>
+      <c r="G62" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -4160,14 +4749,14 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="67"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="27" t="s">
+      <c r="A63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="15" t="s">
+      <c r="F63" s="15"/>
+      <c r="G63" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -4175,16 +4764,16 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="67"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="79" t="s">
+      <c r="A64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="15" t="s">
+      <c r="F64" s="15"/>
+      <c r="G64" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
@@ -4192,63 +4781,63 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="67"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="27" t="s">
+      <c r="A65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="15" t="s">
+      <c r="F65" s="15"/>
+      <c r="G65" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="67"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="79" t="s">
+    <row r="66" ht="28.5" spans="1:8">
+      <c r="A66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="15" t="s">
+      <c r="F66" s="15"/>
+      <c r="G66" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="67"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="27" t="s">
+    <row r="67" ht="28.5" spans="1:8">
+      <c r="A67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="15" t="s">
+      <c r="F67" s="15"/>
+      <c r="G67" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="67"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="79" t="s">
+    <row r="68" ht="42.75" spans="1:8">
+      <c r="A68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E68" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="14"/>
-      <c r="G68" s="15" t="s">
+      <c r="F68" s="15"/>
+      <c r="G68" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="4" t="s">
@@ -4256,14 +4845,14 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="67"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="31" t="s">
+      <c r="A69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="15" t="s">
+      <c r="F69" s="15"/>
+      <c r="G69" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -4271,93 +4860,93 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="67"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="27" t="s">
+      <c r="A70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="15" t="s">
+      <c r="F70" s="15"/>
+      <c r="G70" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="67"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="79" t="s">
+    <row r="71" ht="28.5" spans="1:8">
+      <c r="A71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="15" t="s">
+      <c r="F71" s="15"/>
+      <c r="G71" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="67"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="27" t="s">
+    <row r="72" ht="28.5" spans="1:8">
+      <c r="A72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="15" t="s">
+      <c r="F72" s="15"/>
+      <c r="G72" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="67"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="79" t="s">
+    <row r="73" ht="28.5" spans="1:8">
+      <c r="A73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="15" t="s">
+      <c r="F73" s="15"/>
+      <c r="G73" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="67"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="27" t="s">
+    <row r="74" ht="28.5" spans="1:8">
+      <c r="A74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="15" t="s">
+      <c r="F74" s="15"/>
+      <c r="G74" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="67"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="27" t="s">
+    <row r="75" ht="28.5" spans="1:8">
+      <c r="A75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="15" t="s">
+      <c r="F75" s="15"/>
+      <c r="G75" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -4365,16 +4954,16 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="67"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="79" t="s">
+      <c r="A76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="15" t="s">
+      <c r="F76" s="15"/>
+      <c r="G76" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="4" t="s">
@@ -4382,31 +4971,31 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="67"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="31" t="s">
+      <c r="A77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="15" t="s">
+      <c r="F77" s="15"/>
+      <c r="G77" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="67"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="79" t="s">
+    <row r="78" ht="57" spans="1:8">
+      <c r="A78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="15" t="s">
+      <c r="F78" s="15"/>
+      <c r="G78" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="4" t="s">
@@ -4414,171 +5003,171 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="67"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="79"/>
-      <c r="E79" s="31" t="s">
+      <c r="A79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="15" t="s">
+      <c r="F79" s="15"/>
+      <c r="G79" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="99">
+    <row r="80" ht="81" spans="1:8">
       <c r="A80" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="C80" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="G80" s="12" t="s">
+      <c r="G80" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="67" t="s">
+    <row r="81" ht="28.5" spans="1:8">
+      <c r="A81" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="G81" s="12" t="s">
+      <c r="G81" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="67"/>
+    <row r="82" ht="28.5" spans="1:8">
+      <c r="A82" s="11"/>
       <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="34" t="s">
+      <c r="E82" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="G82" s="12" t="s">
+      <c r="G82" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="68" t="s">
+    <row r="83" s="3" customFormat="1" ht="54" spans="1:8">
+      <c r="A83" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D83" s="39" t="s">
+      <c r="D83" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="12" t="s">
+      <c r="F83" s="40"/>
+      <c r="G83" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="68"/>
-      <c r="B84" s="37" t="s">
+    <row r="84" s="3" customFormat="1" ht="54" spans="1:8">
+      <c r="A84" s="39"/>
+      <c r="B84" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C84" s="38" t="s">
+      <c r="C84" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="12" t="s">
+      <c r="F84" s="40"/>
+      <c r="G84" s="13" t="s">
         <v>144</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="68"/>
-      <c r="B85" s="37" t="s">
+    <row r="85" s="3" customFormat="1" ht="99.75" spans="1:8">
+      <c r="A85" s="39"/>
+      <c r="B85" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C85" s="38" t="s">
+      <c r="C85" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E85" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="12" t="s">
+      <c r="F85" s="40"/>
+      <c r="G85" s="13" t="s">
         <v>144</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="68"/>
-      <c r="B86" s="37" t="s">
+    <row r="86" s="3" customFormat="1" ht="54" spans="1:8">
+      <c r="A86" s="39"/>
+      <c r="B86" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="38" t="s">
+      <c r="C86" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="D86" s="39" t="s">
+      <c r="D86" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E86" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="F86" s="37"/>
-      <c r="G86" s="12" t="s">
+      <c r="F86" s="40"/>
+      <c r="G86" s="13" t="s">
         <v>144</v>
       </c>
       <c r="H86" s="10" t="s">
@@ -4586,13 +5175,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="67" t="s">
+      <c r="A87" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="72" t="s">
+      <c r="C87" s="44" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -4601,7 +5190,7 @@
       <c r="E87" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G87" s="12" t="s">
+      <c r="G87" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H87" s="10" t="s">
@@ -4609,38 +5198,38 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="67"/>
-      <c r="B88" s="67" t="s">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="72"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E88" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="G88" s="12" t="s">
+      <c r="G88" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="69"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="41" t="s">
+    <row r="89" s="4" customFormat="1" spans="1:8">
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="G89" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="4" t="s">
@@ -4648,57 +5237,57 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="67"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="72"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="44"/>
       <c r="D90" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="42" t="s">
+      <c r="E90" s="48" t="s">
         <v>157</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G90" s="12" t="s">
+      <c r="G90" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="67"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="72"/>
-      <c r="D91" s="43" t="s">
+    <row r="91" ht="28.5" spans="1:8">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="44" t="s">
+      <c r="E91" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="F91" s="45" t="s">
+      <c r="F91" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G91" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="67"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="43" t="s">
+    <row r="92" ht="28.5" spans="1:8">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="46" t="s">
+      <c r="E92" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="F92" s="47"/>
-      <c r="G92" s="12" t="s">
+      <c r="F92" s="53"/>
+      <c r="G92" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="10" t="s">
@@ -4706,244 +5295,245 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="67"/>
-      <c r="B93" s="67"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="43" t="s">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="17" t="s">
         <v>162</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G93" s="12" t="s">
+      <c r="G93" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="41" t="s">
+    <row r="94" s="4" customFormat="1" ht="27" spans="1:8">
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="69"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="41" t="s">
+    <row r="95" s="4" customFormat="1" spans="1:8">
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E95" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F95" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G95" s="15" t="s">
+      <c r="G95" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="41" t="s">
+    <row r="96" s="4" customFormat="1" ht="27" spans="1:8">
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="48" t="s">
+      <c r="E96" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="F96" s="14"/>
-      <c r="G96" s="15" t="s">
+      <c r="F96" s="15"/>
+      <c r="G96" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="27">
-      <c r="A97" s="67"/>
-      <c r="B97" s="67"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="43" t="s">
+    <row r="97" ht="27" spans="1:8">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="45" t="s">
+      <c r="F97" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="G97" s="12" t="s">
+      <c r="G97" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="5" customFormat="1">
-      <c r="A98" s="70"/>
-      <c r="B98" s="70"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="43" t="s">
+    <row r="98" s="5" customFormat="1" spans="1:8">
+      <c r="A98" s="56"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F98" s="45" t="s">
+      <c r="F98" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="G98" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="51" t="s">
+      <c r="G98" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="67"/>
-      <c r="B99" s="67"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="8" t="s">
+    <row r="99" s="4" customFormat="1" spans="1:8">
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G99" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="10" t="s">
+      <c r="G99" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="33">
-      <c r="A100" s="67"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="72"/>
+    <row r="100" ht="28.5" spans="1:8">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="44"/>
       <c r="D100" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E100" s="52" t="s">
+      <c r="E100" s="60" t="s">
         <v>173</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G100" s="12" t="s">
+      <c r="G100" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="67"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="8" t="s">
+    <row r="101" s="4" customFormat="1" spans="1:8">
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="E101" s="34" t="s">
+      <c r="E101" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G101" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="10" t="s">
+      <c r="G101" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="67"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="72"/>
+    <row r="102" spans="1:8">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="34" t="s">
+      <c r="E102" s="36" t="s">
         <v>175</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G102" s="12" t="s">
+      <c r="G102" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="67"/>
-      <c r="B103" s="67"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="8" t="s">
+    <row r="103" s="4" customFormat="1" spans="1:8">
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="34" t="s">
+      <c r="E103" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="G103" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="10" t="s">
+      <c r="F103" s="15"/>
+      <c r="G103" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="33">
-      <c r="A104" s="67"/>
-      <c r="B104" s="67"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="8" t="s">
+    <row r="104" s="4" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E104" s="52" t="s">
+      <c r="E104" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G104" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="10" t="s">
+      <c r="G104" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="33">
-      <c r="A105" s="67"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="72"/>
+    <row r="105" ht="28.5" spans="1:8">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="44"/>
       <c r="D105" s="8" t="s">
         <v>98</v>
       </c>
@@ -4953,1579 +5543,1577 @@
       <c r="F105" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G105" s="12" t="s">
+      <c r="G105" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="67"/>
-      <c r="B106" s="67"/>
-      <c r="C106" s="72"/>
+    <row r="106" spans="1:8">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="44"/>
       <c r="D106" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="34" t="s">
+      <c r="E106" s="36" t="s">
         <v>179</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="12" t="s">
+      <c r="G106" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="33">
-      <c r="A107" s="67"/>
-      <c r="B107" s="67"/>
-      <c r="C107" s="72"/>
+    <row r="107" ht="28.5" spans="1:9">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="44"/>
       <c r="D107" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E107" s="34" t="s">
+      <c r="E107" s="36" t="s">
         <v>180</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G107" s="12" t="s">
+      <c r="G107" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I107" s="81"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="67"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="8" t="s">
+      <c r="I107" s="67"/>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="1:8">
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E108" s="34" t="s">
+      <c r="E108" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G108" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="10" t="s">
+      <c r="G108" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="67"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="72"/>
-      <c r="D109" s="8" t="s">
+    <row r="109" s="4" customFormat="1" spans="1:8">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E109" s="34" t="s">
+      <c r="E109" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G109" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="10" t="s">
+      <c r="G109" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="67"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="72"/>
+    <row r="110" spans="1:8">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="44"/>
       <c r="D110" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="G110" s="12" t="s">
+      <c r="G110" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="67"/>
-      <c r="B111" s="67"/>
-      <c r="C111" s="72"/>
+    <row r="111" ht="16.5" spans="1:9">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="44"/>
       <c r="D111" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="G111" s="12" t="s">
+      <c r="G111" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I111" s="81"/>
-    </row>
-    <row r="112" spans="1:9" ht="33">
-      <c r="A112" s="67"/>
-      <c r="B112" s="67"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="8" t="s">
+      <c r="I111" s="67"/>
+    </row>
+    <row r="112" s="4" customFormat="1" ht="28.5" spans="1:9">
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="E112" s="52" t="s">
+      <c r="E112" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="G112" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="10" t="s">
+      <c r="G112" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="81"/>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="67"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="41" t="s">
+      <c r="I112" s="68"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E113" s="31" t="s">
+      <c r="E113" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G113" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="80" t="s">
+      <c r="G113" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="67"/>
-      <c r="B114" s="67"/>
-      <c r="C114" s="72"/>
-      <c r="D114" s="41" t="s">
+    <row r="114" spans="1:8">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="F114" s="14" t="s">
+      <c r="F114" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="G114" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="80" t="s">
+      <c r="G114" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="67"/>
-      <c r="B115" s="67"/>
-      <c r="C115" s="72"/>
+    <row r="115" spans="1:8">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="44"/>
       <c r="D115" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="34" t="s">
-        <v>580</v>
+      <c r="E115" s="36" t="s">
+        <v>191</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G115" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="30" t="s">
+      <c r="G115" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="67"/>
-      <c r="B116" s="67"/>
-      <c r="C116" s="72"/>
+    <row r="116" ht="28.5" spans="1:8">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="44"/>
       <c r="D116" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E116" s="34" t="s">
-        <v>191</v>
+      <c r="E116" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G116" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="30" t="s">
+      <c r="G116" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="67"/>
-      <c r="B117" s="67"/>
-      <c r="C117" s="72"/>
+    <row r="117" ht="28.5" spans="1:8">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="44"/>
       <c r="D117" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="34" t="s">
-        <v>192</v>
+      <c r="E117" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G117" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="53" t="s">
+      <c r="G117" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="67"/>
-      <c r="B118" s="67"/>
-      <c r="C118" s="72"/>
+    <row r="118" spans="1:8">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="44"/>
       <c r="D118" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="52" t="s">
-        <v>193</v>
+      <c r="E118" s="60" t="s">
+        <v>194</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G118" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="53" t="s">
+      <c r="G118" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="67"/>
-      <c r="B119" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C119" s="72"/>
-      <c r="D119" s="54" t="s">
+    <row r="119" s="3" customFormat="1" spans="1:11">
+      <c r="A119" s="11"/>
+      <c r="B119" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="44"/>
+      <c r="D119" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E119" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F119" s="37" t="s">
+      <c r="E119" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="G119" s="12" t="s">
+      <c r="F119" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G119" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H119" s="53" t="s">
+      <c r="H119" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I119" s="53"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="53"/>
-    </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" ht="66">
-      <c r="A120" s="67"/>
-      <c r="B120" s="68"/>
-      <c r="C120" s="72"/>
-      <c r="D120" s="54" t="s">
+      <c r="I119" s="63"/>
+      <c r="J119" s="63"/>
+      <c r="K119" s="63"/>
+    </row>
+    <row r="120" s="3" customFormat="1" ht="28.5" spans="1:11">
+      <c r="A120" s="11"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F120" s="55" t="s">
+      <c r="E120" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G120" s="12" t="s">
+      <c r="F120" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="G120" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H120" s="53" t="s">
+      <c r="H120" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
-    </row>
-    <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="67"/>
-      <c r="B121" s="68"/>
-      <c r="C121" s="72"/>
-      <c r="D121" s="54" t="s">
+      <c r="I120" s="63"/>
+      <c r="J120" s="63"/>
+      <c r="K120" s="63"/>
+    </row>
+    <row r="121" s="3" customFormat="1" spans="1:11">
+      <c r="A121" s="11"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="E121" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="F121" s="55" t="s">
+      <c r="E121" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="G121" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="53" t="s">
+      <c r="F121" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-    </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="67"/>
-      <c r="B122" s="68"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="54" t="s">
+      <c r="I121" s="63"/>
+      <c r="J121" s="63"/>
+      <c r="K121" s="63"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:10">
+      <c r="A122" s="11"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="E122" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="F122" s="37" t="s">
+      <c r="E122" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="G122" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="53" t="s">
+      <c r="F122" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-    </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A123" s="67"/>
-      <c r="B123" s="68"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="54" t="s">
+      <c r="I122" s="63"/>
+      <c r="J122" s="63"/>
+    </row>
+    <row r="123" s="3" customFormat="1" ht="27" spans="1:10">
+      <c r="A123" s="11"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="F123" s="55" t="s">
+      <c r="E123" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="G123" s="12" t="s">
+      <c r="F123" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="G123" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="53" t="s">
+      <c r="H123" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-    </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="67"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="72"/>
-      <c r="D124" s="54" t="s">
+      <c r="I123" s="63"/>
+      <c r="J123" s="63"/>
+    </row>
+    <row r="124" s="3" customFormat="1" ht="42.75" spans="1:10">
+      <c r="A124" s="11"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E124" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="F124" s="55" t="s">
+      <c r="E124" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="G124" s="12" t="s">
+      <c r="F124" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="G124" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H124" s="53" t="s">
+      <c r="H124" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I124" s="53"/>
-      <c r="J124" s="53"/>
-    </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="67"/>
-      <c r="B125" s="68"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="54" t="s">
+      <c r="I124" s="63"/>
+      <c r="J124" s="63"/>
+    </row>
+    <row r="125" s="3" customFormat="1" ht="28.5" spans="1:10">
+      <c r="A125" s="11"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F125" s="55" t="s">
+      <c r="E125" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="G125" s="12" t="s">
+      <c r="F125" s="65" t="s">
+        <v>209</v>
+      </c>
+      <c r="G125" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H125" s="53" t="s">
+      <c r="H125" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I125" s="53"/>
-      <c r="J125" s="53"/>
-    </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="67"/>
-      <c r="B126" s="68"/>
-      <c r="C126" s="72"/>
-      <c r="D126" s="54" t="s">
+      <c r="I125" s="63"/>
+      <c r="J125" s="63"/>
+    </row>
+    <row r="126" s="3" customFormat="1" ht="42.75" spans="1:8">
+      <c r="A126" s="11"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="F126" s="55" t="s">
+      <c r="E126" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F126" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="G126" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" s="53" t="s">
+      <c r="G126" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="67"/>
-      <c r="B127" s="68"/>
-      <c r="C127" s="72"/>
-      <c r="D127" s="56" t="s">
+    <row r="127" s="3" customFormat="1" ht="42.75" spans="1:8">
+      <c r="A127" s="11"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E127" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="F127" s="55" t="s">
+      <c r="E127" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F127" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="G127" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="53" t="s">
+      <c r="G127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="67"/>
-      <c r="B128" s="68"/>
-      <c r="C128" s="72"/>
-      <c r="D128" s="56" t="s">
+    <row r="128" s="3" customFormat="1" spans="1:8">
+      <c r="A128" s="11"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="F128" s="55" t="s">
+      <c r="E128" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F128" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="G128" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="53" t="s">
+      <c r="G128" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="67"/>
-      <c r="B129" s="68"/>
-      <c r="C129" s="72"/>
-      <c r="D129" s="56" t="s">
+    <row r="129" s="3" customFormat="1" ht="42.75" spans="1:10">
+      <c r="A129" s="11"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E129" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F129" s="55" t="s">
+      <c r="E129" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F129" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="G129" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="53" t="s">
+      <c r="G129" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I129" s="53"/>
-      <c r="J129" s="53"/>
-    </row>
-    <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="67"/>
-      <c r="B130" s="68"/>
-      <c r="C130" s="72"/>
-      <c r="D130" s="56" t="s">
+      <c r="I129" s="63"/>
+      <c r="J129" s="63"/>
+    </row>
+    <row r="130" s="3" customFormat="1" ht="42.75" spans="1:10">
+      <c r="A130" s="11"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="E130" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="F130" s="55" t="s">
+      <c r="E130" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="G130" s="12" t="s">
+      <c r="F130" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="G130" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H130" s="53" t="s">
+      <c r="H130" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="J130" s="53"/>
-    </row>
-    <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="67"/>
-      <c r="B131" s="68"/>
-      <c r="C131" s="72"/>
-      <c r="D131" s="56" t="s">
+      <c r="J130" s="63"/>
+    </row>
+    <row r="131" s="3" customFormat="1" ht="42.75" spans="1:8">
+      <c r="A131" s="11"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E131" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="F131" s="55" t="s">
+      <c r="E131" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="F131" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="H131" s="53" t="s">
+      <c r="G131" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H131" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="67"/>
-      <c r="B132" s="68"/>
-      <c r="C132" s="72"/>
-      <c r="D132" s="56" t="s">
+    <row r="132" s="3" customFormat="1" spans="1:8">
+      <c r="A132" s="11"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="E132" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="F132" s="55"/>
-      <c r="G132" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="53" t="s">
+      <c r="E132" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="F132" s="65"/>
+      <c r="G132" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="67"/>
-      <c r="B133" s="68"/>
-      <c r="C133" s="72"/>
-      <c r="D133" s="56" t="s">
+    <row r="133" s="3" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A133" s="11"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E133" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="F133" s="55" t="s">
+      <c r="E133" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="F133" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="G133" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" s="53" t="s">
+      <c r="G133" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="67"/>
-      <c r="B134" s="68"/>
-      <c r="C134" s="72"/>
-      <c r="D134" s="56" t="s">
+    <row r="134" s="3" customFormat="1" ht="28.5" spans="1:9">
+      <c r="A134" s="11"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="E134" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="F134" s="55" t="s">
+      <c r="E134" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="F134" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="G134" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="53" t="s">
+      <c r="G134" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I134" s="53"/>
-    </row>
-    <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="67"/>
-      <c r="B135" s="68"/>
-      <c r="C135" s="72"/>
-      <c r="D135" s="56" t="s">
+      <c r="I134" s="63"/>
+    </row>
+    <row r="135" s="3" customFormat="1" ht="28.5" spans="1:9">
+      <c r="A135" s="11"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E135" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="F135" s="57" t="s">
+      <c r="E135" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="G135" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="53" t="s">
+      <c r="F135" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I135" s="53"/>
-    </row>
-    <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="67"/>
-      <c r="B136" s="68"/>
-      <c r="C136" s="72"/>
-      <c r="D136" s="54" t="s">
+      <c r="I135" s="63"/>
+    </row>
+    <row r="136" s="3" customFormat="1" ht="42.75" spans="1:9">
+      <c r="A136" s="11"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E136" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="F136" s="57"/>
-      <c r="G136" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="53" t="s">
+      <c r="E136" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F136" s="69"/>
+      <c r="G136" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I136" s="53"/>
-    </row>
-    <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="B137" s="37" t="s">
+      <c r="I136" s="63"/>
+    </row>
+    <row r="137" s="3" customFormat="1" ht="54" spans="1:8">
+      <c r="A137" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C137" s="58" t="s">
+      <c r="B137" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="D137" s="59" t="s">
+      <c r="C137" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="E137" s="34" t="s">
+      <c r="D137" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="F137" s="58"/>
-      <c r="G137" s="58"/>
-      <c r="H137" s="53" t="s">
+      <c r="E137" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F137" s="70"/>
+      <c r="G137" s="70"/>
+      <c r="H137" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="67"/>
-      <c r="B138" s="37" t="s">
+    <row r="138" s="3" customFormat="1" ht="81.75" spans="1:8">
+      <c r="A138" s="11"/>
+      <c r="B138" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C138" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="E138" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D138" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E138" s="34" t="s">
+      <c r="F138" s="70"/>
+      <c r="G138" s="70"/>
+      <c r="H138" s="63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" s="3" customFormat="1" ht="81.75" spans="1:8">
+      <c r="A139" s="11"/>
+      <c r="B139" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C139" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D139" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="F138" s="58"/>
-      <c r="G138" s="58"/>
-      <c r="H138" s="53" t="s">
+      <c r="E139" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F139" s="70"/>
+      <c r="G139" s="70"/>
+      <c r="H139" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="67"/>
-      <c r="B139" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="C139" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="D139" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E139" s="34" t="s">
+    <row r="140" s="3" customFormat="1" ht="40.5" spans="1:8">
+      <c r="A140" s="11"/>
+      <c r="B140" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C140" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="D140" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="F139" s="58"/>
-      <c r="G139" s="58"/>
-      <c r="H139" s="53" t="s">
+      <c r="E140" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="F140" s="70"/>
+      <c r="G140" s="70"/>
+      <c r="H140" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="67"/>
-      <c r="B140" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="C140" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="D140" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E140" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="F140" s="58"/>
-      <c r="G140" s="58"/>
-      <c r="H140" s="53" t="s">
+    <row r="141" s="3" customFormat="1" ht="67.5" spans="1:8">
+      <c r="A141" s="11"/>
+      <c r="B141" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C141" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="D141" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="E141" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F141" s="70"/>
+      <c r="G141" s="70"/>
+      <c r="H141" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="67"/>
-      <c r="B141" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C141" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="D141" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E141" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="F141" s="58"/>
-      <c r="G141" s="58"/>
-      <c r="H141" s="53" t="s">
+    <row r="142" s="3" customFormat="1" ht="94.5" spans="1:8">
+      <c r="A142" s="11"/>
+      <c r="B142" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C142" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="D142" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="F142" s="70"/>
+      <c r="G142" s="70"/>
+      <c r="H142" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="67"/>
-      <c r="B142" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C142" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="D142" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E142" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="F142" s="58"/>
-      <c r="G142" s="58"/>
-      <c r="H142" s="53" t="s">
+    <row r="143" s="3" customFormat="1" ht="27" spans="1:8">
+      <c r="A143" s="11"/>
+      <c r="B143" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="D143" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="E143" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F143" s="70"/>
+      <c r="G143" s="70"/>
+      <c r="H143" s="63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="67"/>
-      <c r="B143" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="C143" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="D143" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E143" s="34" t="s">
+    <row r="144" ht="40.5" spans="1:8">
+      <c r="A144" s="11"/>
+      <c r="B144" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C144" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D144" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="E144" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H144" s="63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" ht="42" spans="1:7">
+      <c r="A145" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C145" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D145" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="E145" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="11"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="E146" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="11"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="E147" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="11"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E148" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="11"/>
+      <c r="C149" s="74"/>
+      <c r="D149" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="E149" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G149" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="11"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="E150" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G150" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" ht="28.5" spans="1:7">
+      <c r="A151" s="11"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="11"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="E152" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="11"/>
+      <c r="C153" s="74"/>
+      <c r="D153" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="E153" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="11"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E154" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="G154" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="11"/>
+      <c r="C155" s="74"/>
+      <c r="D155" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="E155" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G155" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="11"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="E156" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G156" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" ht="28.5" spans="1:7">
+      <c r="A157" s="11"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="E157" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" ht="42.75" spans="1:7">
+      <c r="A158" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C158" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="D158" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="11"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="E159" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="11"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="11"/>
+      <c r="C161" s="74"/>
+      <c r="D161" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="E161" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G161" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="11"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E162" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G162" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="11"/>
+      <c r="C163" s="74"/>
+      <c r="D163" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="E163" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G163" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="11"/>
+      <c r="C164" s="74"/>
+      <c r="D164" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="E164" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G164" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C165" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="F143" s="58"/>
-      <c r="G143" s="58"/>
-      <c r="H143" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="67"/>
-      <c r="B144" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C144" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="D144" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E144" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="G144" s="12" t="s">
+      <c r="D165" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="E165" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G165" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="11"/>
+      <c r="C166" s="74"/>
+      <c r="D166" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G166" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="11"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="11"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G168" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="11"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="11"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G170" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="11"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G171" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="11"/>
+      <c r="C172" s="74"/>
+      <c r="D172" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G172" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H144" s="53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="66">
-      <c r="A145" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B145" s="6" t="s">
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="11"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G173" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="11"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G174" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="11"/>
+      <c r="C175" s="74"/>
+      <c r="D175" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G175" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C145" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="D145" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="E145" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G145" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="67"/>
-      <c r="C146" s="75"/>
-      <c r="D146" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="E146" s="34" t="s">
+      <c r="B176" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C176" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D176" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="F146" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="G146" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="67"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="E147" s="34" t="s">
+      <c r="E176" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G176" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="11"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="G147" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="67"/>
-      <c r="C148" s="75"/>
-      <c r="D148" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E148" s="34" t="s">
+      <c r="E177" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G177" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="11"/>
+      <c r="C178" s="74"/>
+      <c r="D178" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="G148" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="67"/>
-      <c r="C149" s="75"/>
-      <c r="D149" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="E149" s="34" t="s">
+      <c r="E178" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G178" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="11"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="G149" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="67"/>
-      <c r="C150" s="75"/>
-      <c r="D150" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E150" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="G150" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="33">
-      <c r="A151" s="67"/>
-      <c r="C151" s="75"/>
-      <c r="D151" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="E151" s="9" t="s">
+      <c r="E179" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="11"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G180" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="11"/>
+      <c r="C181" s="74"/>
+      <c r="D181" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="G151" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="67"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="E152" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="G152" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="67"/>
-      <c r="C153" s="75"/>
-      <c r="D153" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="E153" s="34" t="s">
+      <c r="E181" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G181" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="11"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="G153" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="67"/>
-      <c r="C154" s="75"/>
-      <c r="D154" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="E154" s="34" t="s">
+      <c r="E182" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="G182" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" ht="57" spans="1:7">
+      <c r="A183" s="11"/>
+      <c r="C183" s="74"/>
+      <c r="D183" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G183" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="11"/>
+      <c r="C184" s="74"/>
+      <c r="D184" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="G154" s="12" t="s">
+      <c r="E184" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="G184" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="67"/>
-      <c r="C155" s="75"/>
-      <c r="D155" s="62" t="s">
-        <v>273</v>
-      </c>
-      <c r="E155" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="G155" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="67"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="E156" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="G156" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="33">
-      <c r="A157" s="67"/>
-      <c r="C157" s="75"/>
-      <c r="D157" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="E157" s="34" t="s">
+    <row r="185" spans="1:7">
+      <c r="A185" s="11"/>
+      <c r="C185" s="74"/>
+      <c r="D185" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="G157" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="49.5">
-      <c r="A158" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C158" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="D158" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G158" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="67"/>
-      <c r="C159" s="75"/>
-      <c r="D159" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="E159" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="67"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G160" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="67"/>
-      <c r="C161" s="75"/>
-      <c r="D161" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="E161" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="G161" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="67"/>
-      <c r="C162" s="75"/>
-      <c r="D162" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="E162" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G162" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="67"/>
-      <c r="C163" s="75"/>
-      <c r="D163" s="62" t="s">
-        <v>273</v>
-      </c>
-      <c r="E163" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="G163" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="67"/>
-      <c r="C164" s="75"/>
-      <c r="D164" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="E164" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G164" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C165" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="D165" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="E165" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="G165" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="67"/>
-      <c r="C166" s="75"/>
-      <c r="D166" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="G166" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="67"/>
-      <c r="C167" s="75"/>
-      <c r="D167" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="G167" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="67"/>
-      <c r="C168" s="75"/>
-      <c r="D168" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G168" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="67"/>
-      <c r="C169" s="75"/>
-      <c r="D169" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G169" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="67"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="G170" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="67"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G171" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="67"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G172" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="67"/>
-      <c r="C173" s="75"/>
-      <c r="D173" s="62" t="s">
-        <v>273</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G173" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="67"/>
-      <c r="C174" s="75"/>
-      <c r="D174" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="E174" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G174" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="33">
-      <c r="A175" s="67"/>
-      <c r="C175" s="75"/>
-      <c r="D175" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="G175" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C176" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="D176" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="E176" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="G176" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="67"/>
-      <c r="C177" s="75"/>
-      <c r="D177" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="G177" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="67"/>
-      <c r="C178" s="75"/>
-      <c r="D178" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E178" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="G178" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="67"/>
-      <c r="C179" s="75"/>
-      <c r="D179" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="G179" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="67"/>
-      <c r="C180" s="75"/>
-      <c r="D180" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="E180" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="G180" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="67"/>
-      <c r="C181" s="75"/>
-      <c r="D181" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="G181" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="67"/>
-      <c r="C182" s="75"/>
-      <c r="D182" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G182" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="67"/>
-      <c r="C183" s="75"/>
-      <c r="D183" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="G183" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="67"/>
-      <c r="C184" s="75"/>
-      <c r="D184" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="G184" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="67"/>
-      <c r="C185" s="75"/>
-      <c r="D185" s="62" t="s">
-        <v>277</v>
-      </c>
       <c r="E185" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="G185" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="66">
-      <c r="A186" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="C186" s="63" t="s">
+      <c r="G185" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" ht="54" spans="1:8">
+      <c r="A186" s="71" t="s">
         <v>314</v>
       </c>
-      <c r="D186" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="E186" s="61" t="s">
+      <c r="C186" s="76" t="s">
         <v>315</v>
       </c>
-      <c r="G186" s="12" t="s">
+      <c r="D186" s="71" t="s">
+        <v>314</v>
+      </c>
+      <c r="E186" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="G186" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H186" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="99">
-      <c r="A187" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="C187" s="63" t="s">
+    <row r="187" ht="81" spans="1:8">
+      <c r="A187" s="77" t="s">
         <v>317</v>
       </c>
-      <c r="D187" s="59" t="s">
+      <c r="C187" s="76" t="s">
         <v>318</v>
       </c>
-      <c r="E187" s="61" t="s">
+      <c r="D187" s="71" t="s">
         <v>319</v>
       </c>
-      <c r="G187" s="12" t="s">
+      <c r="E187" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="G187" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H187" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="66">
-      <c r="A188" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="C188" s="63" t="s">
+    <row r="188" ht="54" spans="1:8">
+      <c r="A188" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="D188" s="59" t="s">
+      <c r="C188" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="E188" s="61" t="s">
+      <c r="D188" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="G188" s="12" t="s">
+      <c r="E188" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="G188" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H188" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="49.5">
-      <c r="A189" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="C189" s="63" t="s">
+    <row r="189" ht="40.5" spans="1:8">
+      <c r="A189" s="77" t="s">
         <v>325</v>
       </c>
-      <c r="D189" s="59" t="s">
+      <c r="C189" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="E189" s="61" t="s">
+      <c r="D189" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="G189" s="12" t="s">
+      <c r="E189" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="G189" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H189" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="82.5">
+    <row r="190" ht="67.5" spans="1:8">
       <c r="A190" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C190" s="63" t="s">
         <v>329</v>
       </c>
+      <c r="C190" s="76" t="s">
+        <v>330</v>
+      </c>
       <c r="D190" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G190" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="G190" s="13" t="s">
         <v>130</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="67" t="s">
-        <v>332</v>
-      </c>
-      <c r="B191" s="12" t="s">
+    <row r="191" ht="40.5" spans="1:7">
+      <c r="A191" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C191" s="65" t="s">
+      <c r="B191" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D191" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="E191" s="34" t="s">
+      <c r="C191" s="78" t="s">
         <v>335</v>
       </c>
-      <c r="G191" s="12" t="s">
+      <c r="D191" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E191" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="G191" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="67"/>
-      <c r="B192" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="C192" s="65" t="s">
+    <row r="192" ht="67.5" spans="1:7">
+      <c r="A192" s="11"/>
+      <c r="B192" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D192" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E192" s="66" t="s">
+      <c r="C192" s="78" t="s">
         <v>338</v>
       </c>
-      <c r="G192" s="12" t="s">
+      <c r="D192" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E192" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="G192" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="67"/>
-      <c r="B193" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="C193" s="65" t="s">
+      <c r="A193" s="11"/>
+      <c r="B193" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D193" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E193" s="34" t="s">
+      <c r="C193" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G193" s="12" t="s">
+      <c r="D193" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E193" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="G193" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="99">
+    <row r="194" ht="83.25" spans="1:7">
       <c r="A194" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C194" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="D194" s="12" t="s">
+      <c r="C194" s="78" t="s">
         <v>344</v>
       </c>
-      <c r="E194" s="34" t="s">
+      <c r="D194" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="G194" s="12" t="s">
+      <c r="E194" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="G194" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
-      <c r="G195" s="12"/>
+    <row r="195" spans="7:7">
+      <c r="G195" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H195"/>
+  <autoFilter ref="H1:H195">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6542,85 +7130,90 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D80" r:id="rId1" tooltip="http://r.cnki.net/KNS/brief/result.aspx?dbPrefix=kjbg"/>
-    <hyperlink ref="G119" r:id="rId2" tooltip="http://www.ccgp-heilongj.gov.cn/xwzs!queryGd.action"/>
-    <hyperlink ref="E8" r:id="rId3" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw2407/nw42927/index.html"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw10800/index.html"/>
-    <hyperlink ref="E11" r:id="rId7"/>
-    <hyperlink ref="E12" r:id="rId8"/>
-    <hyperlink ref="E13" r:id="rId9" tooltip="http://www.cq.gov.cn/zwgk/szfwj"/>
-    <hyperlink ref="E14" r:id="rId10"/>
-    <hyperlink ref="E15" r:id="rId11" tooltip="http://www.hlj.gov.cn/gkml/ztfl.html"/>
-    <hyperlink ref="E18" r:id="rId12" tooltip="http://xxgk.jl.gov.cn/"/>
-    <hyperlink ref="E21" r:id="rId13" tooltip="http://www.ln.gov.cn/zfxx/zfwj/"/>
-    <hyperlink ref="E23" r:id="rId14" tooltip="http://www.nmg.gov.cn/col/col1686/index.html"/>
-    <hyperlink ref="E22" r:id="rId15" tooltip="http://www.ln.gov.cn/zfxx/zcjd/"/>
-    <hyperlink ref="E20" r:id="rId16" tooltip="http://www.jl.gov.cn/zw/jd/"/>
-    <hyperlink ref="E19" r:id="rId17" tooltip="http://www.jl.gov.cn/szfzt/zcfg/"/>
-    <hyperlink ref="E17" r:id="rId18" tooltip="http://www.hlj.gov.cn/zwfb/zfgz/"/>
-    <hyperlink ref="E2" r:id="rId19" tooltip="http://www.gov.cn/zhengce/zuixin.htm"/>
-    <hyperlink ref="E3" r:id="rId20"/>
-    <hyperlink ref="E4" r:id="rId21" tooltip="http://www.gov.cn/zhengce/xxgkzl.htm"/>
-    <hyperlink ref="E10" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23" tooltip="http://www.nmg.gov.cn/col/col428/index.html"/>
-    <hyperlink ref="E25" r:id="rId24" tooltip="http://info.hebei.gov.cn/eportal/ui?pageId=6817552"/>
-    <hyperlink ref="E27" r:id="rId25" tooltip="http://www.henan.gov.cn/zwgk/zcjd/bmjd/"/>
-    <hyperlink ref="E28" r:id="rId26" tooltip="http://www.henan.gov.cn/zwgk/fgwj/szfl/"/>
-    <hyperlink ref="E29" r:id="rId27" tooltip="http://www.shandong.gov.cn/col/col2266/index.html"/>
-    <hyperlink ref="E30" r:id="rId28"/>
-    <hyperlink ref="E32" r:id="rId29" tooltip="http://www.shanxi.gov.cn/zw/zfgkzl/zfxxgkgd/"/>
-    <hyperlink ref="E33" r:id="rId30" tooltip="http://www.shanxi.gov.cn/yw/zcjd/latest_1447.shtml"/>
-    <hyperlink ref="E34" r:id="rId31" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1454"/>
-    <hyperlink ref="E39" r:id="rId32" tooltip="http://www.nx.gov.cn/zwgk/gfxwj/"/>
-    <hyperlink ref="E38" r:id="rId33" tooltip="http://www.gansu.gov.cn/col/col4745/index.html"/>
-    <hyperlink ref="E36" r:id="rId34" tooltip="http://zwgk.qh.gov.cn/szfjdhy/bmjd/"/>
-    <hyperlink ref="E35" r:id="rId35" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1229"/>
-    <hyperlink ref="E41" r:id="rId36" tooltip="http://www.nx.gov.cn/zwgk/qzfwj/"/>
-    <hyperlink ref="E40" r:id="rId37"/>
-    <hyperlink ref="E37" r:id="rId38" tooltip="http://www.gansu.gov.cn/col/col4784/index.html"/>
-    <hyperlink ref="E31" r:id="rId39" tooltip="http://www.shandong.gov.cn/col/col2262/index.html"/>
-    <hyperlink ref="E26" r:id="rId40" tooltip="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html"/>
-    <hyperlink ref="E46" r:id="rId41"/>
-    <hyperlink ref="E16" r:id="rId42" tooltip="http://www.hlj.gov.cn/zwfb/zcjd/"/>
-    <hyperlink ref="E90" r:id="rId43"/>
-    <hyperlink ref="E93" r:id="rId44"/>
-    <hyperlink ref="E94" r:id="rId45"/>
-    <hyperlink ref="E95" r:id="rId46"/>
-    <hyperlink ref="E96" r:id="rId47"/>
-    <hyperlink ref="E97" r:id="rId48"/>
-    <hyperlink ref="E98" r:id="rId49"/>
-    <hyperlink ref="E115" r:id="rId50"/>
+    <hyperlink ref="D80" r:id="rId1" display="知网-科技报告" tooltip="http://r.cnki.net/KNS/brief/result.aspx?dbPrefix=kjbg"/>
+    <hyperlink ref="G119" r:id="rId2" display="是" tooltip="http://www.ccgp-heilongj.gov.cn/xwzs!queryGd.action"/>
+    <hyperlink ref="E8" r:id="rId3" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw2407/nw42927/index.html" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw2407/nw42927/index.html"/>
+    <hyperlink ref="E6" r:id="rId4" display="http://www.beijing.gov.cn/zhengce/gwywj/"/>
+    <hyperlink ref="E7" r:id="rId5" display="http://www.beijing.gov.cn/zhengce/dfxfg/"/>
+    <hyperlink ref="E9" r:id="rId6" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw10800/index.html" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw10800/index.html"/>
+    <hyperlink ref="E11" r:id="rId7" display="http://www.tj.gov.cn/zw/szfwj/"/>
+    <hyperlink ref="E12" r:id="rId8" display="http://www.tj.gov.cn/zw/zcjd/"/>
+    <hyperlink ref="E13" r:id="rId9" display="http://www.cq.gov.cn/zwgk/szfwj" tooltip="http://www.cq.gov.cn/zwgk/szfwj"/>
+    <hyperlink ref="E14" r:id="rId10" display="http://www.cq.gov.cn/zwgk/zcwjjd"/>
+    <hyperlink ref="E15" r:id="rId11" display="http://www.hlj.gov.cn/gkml/ztfl.html" tooltip="http://www.hlj.gov.cn/gkml/ztfl.html"/>
+    <hyperlink ref="E18" r:id="rId12" display="http://xxgk.jl.gov.cn/" tooltip="http://xxgk.jl.gov.cn/"/>
+    <hyperlink ref="E21" r:id="rId13" display="http://www.ln.gov.cn/zfxx/zfwj/" tooltip="http://www.ln.gov.cn/zfxx/zfwj/"/>
+    <hyperlink ref="E23" r:id="rId14" display="http://www.nmg.gov.cn/col/col1686/index.html" tooltip="http://www.nmg.gov.cn/col/col1686/index.html"/>
+    <hyperlink ref="E22" r:id="rId15" display="http://www.ln.gov.cn/zfxx/zcjd/" tooltip="http://www.ln.gov.cn/zfxx/zcjd/"/>
+    <hyperlink ref="E20" r:id="rId16" display="http://www.jl.gov.cn/zw/jd/" tooltip="http://www.jl.gov.cn/zw/jd/"/>
+    <hyperlink ref="E19" r:id="rId17" display="http://www.jl.gov.cn/szfzt/zcfg/" tooltip="http://www.jl.gov.cn/szfzt/zcfg/"/>
+    <hyperlink ref="E17" r:id="rId18" display="http://www.hlj.gov.cn/zwfb/zfgz/" tooltip="http://www.hlj.gov.cn/zwfb/zfgz/"/>
+    <hyperlink ref="E2" r:id="rId19" display="http://www.gov.cn/zhengce/zuixin.htm" tooltip="http://www.gov.cn/zhengce/zuixin.htm"/>
+    <hyperlink ref="E3" r:id="rId20" display="http://www.gov.cn/zhengce/jiedu/index.htm"/>
+    <hyperlink ref="E4" r:id="rId21" display="http://www.gov.cn/zhengce/xxgkzl.htm" tooltip="http://www.gov.cn/zhengce/xxgkzl.htm"/>
+    <hyperlink ref="E10" r:id="rId22" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw41893/index.html"/>
+    <hyperlink ref="E24" r:id="rId23" display="http://www.nmg.gov.cn/col/col428/index.html" tooltip="http://www.nmg.gov.cn/col/col428/index.html"/>
+    <hyperlink ref="E25" r:id="rId24" display="http://info.hebei.gov.cn/eportal/ui?pageId=6817552" tooltip="http://info.hebei.gov.cn/eportal/ui?pageId=6817552"/>
+    <hyperlink ref="E27" r:id="rId25" display="http://www.henan.gov.cn/zwgk/zcjd/bmjd/" tooltip="http://www.henan.gov.cn/zwgk/zcjd/bmjd/"/>
+    <hyperlink ref="E28" r:id="rId26" display="http://www.henan.gov.cn/zwgk/fgwj/szfl/" tooltip="http://www.henan.gov.cn/zwgk/fgwj/szfl/"/>
+    <hyperlink ref="E29" r:id="rId27" display="http://www.shandong.gov.cn/col/col2266/index.html" tooltip="http://www.shandong.gov.cn/col/col2266/index.html"/>
+    <hyperlink ref="E30" r:id="rId28" display="http://www.shandong.gov.cn/col/col2262/index.html"/>
+    <hyperlink ref="E32" r:id="rId29" display="http://www.shanxi.gov.cn/zw/zfgkzl/zfxxgkgd/" tooltip="http://www.shanxi.gov.cn/zw/zfgkzl/zfxxgkgd/"/>
+    <hyperlink ref="E33" r:id="rId30" display="http://www.shanxi.gov.cn/yw/zcjd/latest_1447.shtml" tooltip="http://www.shanxi.gov.cn/yw/zcjd/latest_1447.shtml"/>
+    <hyperlink ref="E34" r:id="rId31" display="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1454" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1454"/>
+    <hyperlink ref="E39" r:id="rId32" display="http://www.nx.gov.cn/zwgk/gfxwj/" tooltip="http://www.nx.gov.cn/zwgk/gfxwj/"/>
+    <hyperlink ref="E38" r:id="rId33" display="http://www.gansu.gov.cn/col/col4745/index.html" tooltip="http://www.gansu.gov.cn/col/col4745/index.html"/>
+    <hyperlink ref="E36" r:id="rId34" display="http://zwgk.qh.gov.cn/szfjdhy/bmjd/" tooltip="http://zwgk.qh.gov.cn/szfjdhy/bmjd/"/>
+    <hyperlink ref="E35" r:id="rId35" display="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1229" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1229"/>
+    <hyperlink ref="E41" r:id="rId36" display="http://www.nx.gov.cn/zwgk/qzfwj/" tooltip="http://www.nx.gov.cn/zwgk/qzfwj/"/>
+    <hyperlink ref="E40" r:id="rId37" display="http://www.nx.gov.cn/zwxx_11337/zcjd/"/>
+    <hyperlink ref="E37" r:id="rId38" display="http://www.gansu.gov.cn/col/col4784/index.html" tooltip="http://www.gansu.gov.cn/col/col4784/index.html"/>
+    <hyperlink ref="E31" r:id="rId28" display="http://www.shandong.gov.cn/col/col2262/index.html" tooltip="http://www.shandong.gov.cn/col/col2262/index.html"/>
+    <hyperlink ref="E26" r:id="rId39" display="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html" tooltip="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html"/>
+    <hyperlink ref="E46" r:id="rId40" display="http://www.jiangsu.gov.cn/col/col32646/index.html"/>
+    <hyperlink ref="E16" r:id="rId41" display="http://www.hlj.gov.cn/zwfb/zcjd/" tooltip="http://www.hlj.gov.cn/zwfb/zcjd/"/>
+    <hyperlink ref="E90" r:id="rId42" display="http://60.28.163.169/jyxx/index.jhtml"/>
+    <hyperlink ref="E93" r:id="rId43" display="http://ggzyjy.nmg.gov.cn/jyxx/jsgcZbgg"/>
+    <hyperlink ref="E94" r:id="rId44" display="http://www.lnsggzy.com/003/secondpageDeal.html"/>
+    <hyperlink ref="E95" r:id="rId45" display="http://www.jlsggzyjy.gov.cn/jlsztb/jyxx/"/>
+    <hyperlink ref="E96" r:id="rId46" display="http://www.hljggzyjyw.gov.cn/trade/tradezfcg?cid=E92C3437-9CB8-40FB-BC5C-E78A6E4E475D"/>
+    <hyperlink ref="E97" r:id="rId47" display="https://www.bidcenter.com.cn/zhaobiao/area_1050_1169_1/"/>
+    <hyperlink ref="E98" r:id="rId48" display="http://221.226.253.51/jyxx/tradeInfonew.html"/>
+    <hyperlink ref="E115" r:id="rId49" display="http://ggzyjy.gansu.gov.cn/f/newprovince/annogoods/list"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -6628,7 +7221,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6636,19 +7229,20 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -6657,30 +7251,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6698,22 +7294,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -6742,19 +7338,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6783,19 +7379,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6824,19 +7420,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6862,25 +7458,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6909,19 +7505,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6950,19 +7546,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6991,19 +7587,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7029,25 +7625,25 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7073,25 +7669,25 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7120,22 +7716,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7161,25 +7757,25 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -7205,25 +7801,25 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7249,25 +7845,25 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7296,22 +7892,22 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -7340,22 +7936,22 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -7384,19 +7980,19 @@
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E17" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H17" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -7425,19 +8021,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H18" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -7466,19 +8062,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -7507,19 +8103,19 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -7548,19 +8144,19 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H21" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -7589,19 +8185,19 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E22" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -7630,22 +8226,22 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -7674,22 +8270,22 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E24" t="s">
+        <v>383</v>
+      </c>
+      <c r="F24" t="s">
+        <v>413</v>
+      </c>
+      <c r="G24" t="s">
         <v>411</v>
       </c>
-      <c r="E24" t="s">
-        <v>382</v>
-      </c>
-      <c r="F24" t="s">
-        <v>412</v>
-      </c>
-      <c r="G24" t="s">
-        <v>410</v>
-      </c>
       <c r="H24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7718,22 +8314,22 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D25" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G25" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -7762,22 +8358,22 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -7806,22 +8402,22 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -7850,22 +8446,22 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -7894,22 +8490,22 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -7938,22 +8534,22 @@
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F30" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H30" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -7982,22 +8578,22 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D31" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -8026,22 +8622,22 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D32" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E32" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F32" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G32" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8070,22 +8666,22 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D33" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E33" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F33" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G33" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H33" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -8114,22 +8710,22 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D34" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E34" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -8158,22 +8754,22 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D35" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F35" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8202,22 +8798,22 @@
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D36" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F36" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8246,22 +8842,22 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D37" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F37" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G37" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8290,22 +8886,22 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D38" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E38" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F38" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G38" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8334,22 +8930,22 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D39" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E39" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F39" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G39" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H39" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -8378,22 +8974,22 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E40" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F40" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G40" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8422,22 +9018,22 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D41" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E41" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F41" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G41" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -8466,22 +9062,22 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D42" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E42" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F42" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G42" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H42" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -8510,22 +9106,22 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D43" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F43" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H43" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8554,22 +9150,22 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D44" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E44" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F44" t="s">
         <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H44" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8598,22 +9194,22 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D45" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E45" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F45" t="s">
         <v>138</v>
       </c>
       <c r="G45" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8642,22 +9238,22 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D46" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E46" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F46" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G46" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8686,22 +9282,22 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D47" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E47" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F47" t="s">
         <v>149</v>
       </c>
       <c r="G47" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8730,22 +9326,22 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D48" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E48" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F48" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G48" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8774,22 +9370,22 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D49" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F49" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8818,22 +9414,22 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D50" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E50" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F50" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G50" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H50" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8862,22 +9458,22 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D51" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E51" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F51" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G51" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8906,22 +9502,22 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D52" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E52" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F52" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G52" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H52" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -8950,22 +9546,22 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D53" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E53" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F53" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G53" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -8994,22 +9590,22 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D54" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E54" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F54" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G54" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -9038,22 +9634,22 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D55" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F55" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G55" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H55" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -9082,22 +9678,22 @@
         <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D56" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E56" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F56" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G56" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H56" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -9126,22 +9722,22 @@
         <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D57" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E57" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F57" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H57" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -9170,22 +9766,22 @@
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D58" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F58" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -9214,22 +9810,22 @@
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D59" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F59" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G59" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H59" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -9258,22 +9854,22 @@
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D60" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E60" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F60" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G60" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H60" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -9302,19 +9898,19 @@
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D61" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E61" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F61" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -9343,19 +9939,19 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D62" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F62" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H62" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -9384,19 +9980,19 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D63" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E63" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F63" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -9425,19 +10021,19 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D64" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E64" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F64" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -9466,22 +10062,22 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D65" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E65" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G65" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H65" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -9510,22 +10106,22 @@
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D66" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E66" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F66" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G66" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -9554,22 +10150,22 @@
         <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D67" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E67" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F67" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G67" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H67" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -9598,22 +10194,22 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D68" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E68" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F68" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G68" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H68" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -9642,16 +10238,16 @@
         <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E69" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F69" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G69" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -9680,13 +10276,13 @@
         <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E70" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F70" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -9715,19 +10311,19 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D71">
         <v>85757</v>
       </c>
       <c r="E71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F71" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -9756,19 +10352,19 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D72">
         <v>85757</v>
       </c>
       <c r="E72" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F72" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H72" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -9797,19 +10393,19 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D73">
         <v>1357</v>
       </c>
       <c r="E73" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F73" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H73" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -9838,22 +10434,22 @@
         <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D74" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E74" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F74" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -9882,22 +10478,22 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D75" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E75" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F75" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G75" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H75" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -9926,22 +10522,22 @@
         <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D76" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E76" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F76" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G76" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -9970,16 +10566,16 @@
         <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E77" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F77" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G77" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -10008,22 +10604,22 @@
         <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D78" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E78" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F78" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G78" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H78" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -10052,22 +10648,22 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D79" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E79" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F79" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G79" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H79" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -10096,22 +10692,22 @@
         <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D80" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E80" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F80" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G80" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H80" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -10140,22 +10736,22 @@
         <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D81" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E81" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F81" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H81" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -10184,19 +10780,19 @@
         <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D82" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E82" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F82" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H82" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -10225,22 +10821,22 @@
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D83" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E83" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F83" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -10269,22 +10865,22 @@
         <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D84" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E84" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F84" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H84" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -10313,22 +10909,22 @@
         <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D85" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E85" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F85" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -10357,22 +10953,22 @@
         <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D86" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E86" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F86" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G86" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H86" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -10401,22 +10997,22 @@
         <v>47</v>
       </c>
       <c r="C87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D87" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E87" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F87" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -10445,22 +11041,22 @@
         <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D88" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E88" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F88" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G88" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H88" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -10489,22 +11085,22 @@
         <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D89" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E89" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F89" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -10533,22 +11129,22 @@
         <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D90" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E90" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F90" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G90" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H90" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -10577,22 +11173,22 @@
         <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D91" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E91" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F91" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G91" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H91" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -10621,22 +11217,22 @@
         <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D92" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F92" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G92" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H92" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -10665,22 +11261,22 @@
         <v>49</v>
       </c>
       <c r="C93" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D93" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E93" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F93" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G93" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H93" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -10709,22 +11305,22 @@
         <v>49</v>
       </c>
       <c r="C94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D94" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E94" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F94" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -10753,22 +11349,22 @@
         <v>49</v>
       </c>
       <c r="C95" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D95" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E95" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F95" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G95" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H95" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -10797,22 +11393,22 @@
         <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D96" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E96" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F96" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G96" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H96" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -10841,22 +11437,22 @@
         <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D97" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E97" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F97" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G97" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H97" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -10885,22 +11481,22 @@
         <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D98" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E98" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F98" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G98" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H98" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -10929,22 +11525,22 @@
         <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D99" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E99" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F99" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G99" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H99" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -10973,22 +11569,22 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D100" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F100" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H100" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -11017,22 +11613,22 @@
         <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D101" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E101" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F101" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G101" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H101" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -11061,22 +11657,22 @@
         <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D102" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E102" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F102" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -11105,22 +11701,22 @@
         <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D103" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E103" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F103" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G103" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H103" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -11149,22 +11745,22 @@
         <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D104" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E104" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F104" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G104" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H104" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -11193,22 +11789,22 @@
         <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D105" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E105" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G105" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H105" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -11237,22 +11833,22 @@
         <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D106" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F106" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G106" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H106" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -11281,22 +11877,22 @@
         <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D107" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E107" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F107" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G107" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H107" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -11325,22 +11921,22 @@
         <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D108" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E108" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F108" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G108" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H108" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -11369,22 +11965,22 @@
         <v>52</v>
       </c>
       <c r="C109" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D109" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E109" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F109" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G109" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H109" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -11413,22 +12009,22 @@
         <v>52</v>
       </c>
       <c r="C110" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D110" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E110" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F110" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G110" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H110" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -11454,25 +12050,25 @@
         <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D111" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F111" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G111" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H111" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -11501,22 +12097,22 @@
         <v>167</v>
       </c>
       <c r="C112" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D112" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E112" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F112" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G112" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H112" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -11531,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -11545,22 +12141,22 @@
         <v>168</v>
       </c>
       <c r="C113" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D113" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E113" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F113" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G113" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H113" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -11575,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -11589,22 +12185,22 @@
         <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D114" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E114" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F114" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G114" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H114" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -11626,24 +12222,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="14265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1803,14 +1808,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1913,147 +1912,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2072,194 +1941,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2282,261 +1965,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2574,12 +2018,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2588,25 +2029,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2615,19 +2050,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2639,10 +2074,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2654,9 +2089,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2666,22 +2098,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2693,23 +2116,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2723,19 +2140,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2744,31 +2161,28 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2777,71 +2191,67 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="超链接 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2863,7 +2273,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2918,7 +2328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2973,7 +2383,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3028,7 +2438,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3083,7 +2493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3138,7 +2548,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3176,7 +2586,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3197,7 +2607,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -3219,7 +2629,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3274,7 +2684,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3312,7 +2722,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3333,7 +2743,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3355,7 +2765,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3410,7 +2820,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3448,7 +2858,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3470,7 +2880,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3742,19 +3152,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100:F100"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118:H118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="6" customWidth="1"/>
@@ -3795,20 +3205,20 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -3816,14 +3226,14 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="A3" s="70"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -3831,30 +3241,30 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="17" t="s">
+      <c r="A4" s="70"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="19" t="s">
+      <c r="A5" s="70"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -3862,14 +3272,14 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="70"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -3877,61 +3287,61 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="14" t="s">
+      <c r="A7" s="70"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:8">
-      <c r="A8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="16" t="s">
+    <row r="8" spans="1:8" ht="27">
+      <c r="A8" s="70"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="22" t="s">
+    <row r="9" spans="1:8" ht="27">
+      <c r="A9" s="70"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:8">
-      <c r="A10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="22" t="s">
+    <row r="10" spans="1:8" ht="27">
+      <c r="A10" s="70"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -3939,16 +3349,16 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="70"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -3956,14 +3366,14 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="14" t="s">
+      <c r="A12" s="70"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -3971,15 +3381,15 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
+      <c r="A13" s="70"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -3987,13 +3397,13 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="23" t="s">
+      <c r="A14" s="70"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -4001,15 +3411,15 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
+      <c r="A15" s="70"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -4017,13 +3427,13 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="23" t="s">
+      <c r="A16" s="70"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -4031,13 +3441,13 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="23" t="s">
+      <c r="A17" s="70"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -4045,30 +3455,30 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13" t="s">
+      <c r="A18" s="70"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="18" t="s">
+      <c r="G18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14" t="s">
+      <c r="A19" s="70"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -4076,14 +3486,14 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14" t="s">
+      <c r="A20" s="70"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -4091,16 +3501,16 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="19" t="s">
+      <c r="A21" s="70"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -4108,14 +3518,14 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="14" t="s">
+      <c r="A22" s="70"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -4123,61 +3533,61 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
+      <c r="A23" s="70"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="23" t="s">
+      <c r="A24" s="70"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:8">
-      <c r="A25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="16" t="s">
+    <row r="25" spans="1:8" ht="27">
+      <c r="A25" s="70"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" ht="27" spans="1:8">
-      <c r="A26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14" t="s">
+    <row r="26" spans="1:8" ht="27">
+      <c r="A26" s="70"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="16" t="s">
+      <c r="F26" s="21"/>
+      <c r="G26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="4" t="s">
@@ -4185,79 +3595,79 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
+      <c r="A27" s="70"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="18" t="s">
+      <c r="G27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="17" t="s">
+      <c r="A28" s="70"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="18" t="s">
+      <c r="G28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="27" spans="1:8">
-      <c r="A29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13" t="s">
+    <row r="29" spans="1:8" ht="27">
+      <c r="A29" s="70"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" ht="27" spans="1:8">
-      <c r="A30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="26" t="s">
+    <row r="30" spans="1:8" ht="27">
+      <c r="A30" s="70"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:8">
-      <c r="A31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="26" t="s">
+    <row r="31" spans="1:8" ht="27">
+      <c r="A31" s="70"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="10" t="s">
@@ -4265,63 +3675,63 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="16" t="s">
+      <c r="A32" s="70"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:8">
-      <c r="A33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="14" t="s">
+    <row r="33" spans="1:8" ht="27">
+      <c r="A33" s="70"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:8">
-      <c r="A34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="16" t="s">
+    <row r="34" spans="1:8" ht="27">
+      <c r="A34" s="70"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="1:8">
-      <c r="A35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="27" t="s">
+    <row r="35" spans="1:8" ht="27">
+      <c r="A35" s="70"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -4329,61 +3739,61 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="27" t="s">
+      <c r="A36" s="70"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:8">
-      <c r="A37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13" t="s">
+    <row r="37" spans="1:8" ht="27">
+      <c r="A37" s="70"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="18" t="s">
+      <c r="G37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:8">
-      <c r="A38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="28" t="s">
+    <row r="38" spans="1:8" ht="27">
+      <c r="A38" s="70"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="18" t="s">
+      <c r="G38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="16" t="s">
+      <c r="A39" s="70"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -4391,14 +3801,14 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="27" t="s">
+      <c r="A40" s="70"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -4406,31 +3816,31 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="27" t="s">
+      <c r="A41" s="70"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="16" t="s">
+    <row r="42" spans="1:8" ht="33">
+      <c r="A42" s="70"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16" t="s">
+      <c r="F42" s="14"/>
+      <c r="G42" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="4" t="s">
@@ -4438,14 +3848,14 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="29" t="s">
+      <c r="A43" s="70"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="16" t="s">
+      <c r="F43" s="14"/>
+      <c r="G43" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="4" t="s">
@@ -4453,16 +3863,16 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="16" t="s">
+      <c r="A44" s="70"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="16" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="4" t="s">
@@ -4470,31 +3880,31 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="29" t="s">
+      <c r="A45" s="70"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="16" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" ht="27" spans="1:8">
-      <c r="A46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="16" t="s">
+    <row r="46" spans="1:8" ht="27">
+      <c r="A46" s="70"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E46" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="15"/>
-      <c r="G46" s="16" t="s">
+      <c r="F46" s="14"/>
+      <c r="G46" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -4502,14 +3912,14 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="29" t="s">
+      <c r="A47" s="70"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16" t="s">
+      <c r="F47" s="14"/>
+      <c r="G47" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -4517,14 +3927,14 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="29" t="s">
+      <c r="A48" s="70"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="16" t="s">
+      <c r="F48" s="14"/>
+      <c r="G48" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -4532,105 +3942,105 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="29" t="s">
+      <c r="A49" s="70"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="16" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13" t="s">
+    <row r="50" spans="1:8" ht="33">
+      <c r="A50" s="70"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="32" t="s">
+      <c r="G50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="31" t="s">
+      <c r="A51" s="70"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="32" t="s">
+      <c r="G51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13" t="s">
+      <c r="A52" s="70"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="32" t="s">
+      <c r="G52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="31" t="s">
+      <c r="A53" s="70"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="32" t="s">
+      <c r="G53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="31" t="s">
+      <c r="A54" s="70"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="32" t="s">
+      <c r="G54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="16" t="s">
+      <c r="A55" s="70"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="16" t="s">
+      <c r="F55" s="14"/>
+      <c r="G55" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="4" t="s">
@@ -4638,14 +4048,14 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="29" t="s">
+      <c r="A56" s="70"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="16" t="s">
+      <c r="F56" s="14"/>
+      <c r="G56" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="4" t="s">
@@ -4653,16 +4063,16 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="16" t="s">
+      <c r="A57" s="70"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="16" t="s">
+      <c r="F57" s="14"/>
+      <c r="G57" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="4" t="s">
@@ -4670,14 +4080,14 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="29" t="s">
+      <c r="A58" s="70"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="16" t="s">
+      <c r="F58" s="14"/>
+      <c r="G58" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="4" t="s">
@@ -4685,16 +4095,16 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="16" t="s">
+      <c r="A59" s="70"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E59" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="16" t="s">
+      <c r="F59" s="14"/>
+      <c r="G59" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="4" t="s">
@@ -4702,14 +4112,14 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="29" t="s">
+      <c r="A60" s="70"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="16" t="s">
+      <c r="F60" s="14"/>
+      <c r="G60" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -4717,16 +4127,16 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="16" t="s">
+      <c r="A61" s="70"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="16" t="s">
+      <c r="F61" s="14"/>
+      <c r="G61" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H61" s="4" t="s">
@@ -4734,14 +4144,14 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="29" t="s">
+      <c r="A62" s="70"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F62" s="15"/>
-      <c r="G62" s="16" t="s">
+      <c r="F62" s="14"/>
+      <c r="G62" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -4749,14 +4159,14 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="29" t="s">
+      <c r="A63" s="70"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="16" t="s">
+      <c r="F63" s="14"/>
+      <c r="G63" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H63" s="4" t="s">
@@ -4764,16 +4174,16 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="16" t="s">
+      <c r="A64" s="70"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F64" s="15"/>
-      <c r="G64" s="16" t="s">
+      <c r="F64" s="14"/>
+      <c r="G64" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
@@ -4781,63 +4191,63 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="29" t="s">
+      <c r="A65" s="70"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="16" t="s">
+      <c r="F65" s="14"/>
+      <c r="G65" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" ht="28.5" spans="1:8">
-      <c r="A66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="16" t="s">
+    <row r="66" spans="1:8" ht="33">
+      <c r="A66" s="70"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="16" t="s">
+      <c r="F66" s="14"/>
+      <c r="G66" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" ht="28.5" spans="1:8">
-      <c r="A67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="29" t="s">
+    <row r="67" spans="1:8" ht="33">
+      <c r="A67" s="70"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="16" t="s">
+      <c r="F67" s="14"/>
+      <c r="G67" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" ht="42.75" spans="1:8">
-      <c r="A68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="16" t="s">
+    <row r="68" spans="1:8" ht="66">
+      <c r="A68" s="70"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="16" t="s">
+      <c r="F68" s="14"/>
+      <c r="G68" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="4" t="s">
@@ -4845,14 +4255,14 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="33" t="s">
+      <c r="A69" s="70"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="16" t="s">
+      <c r="F69" s="14"/>
+      <c r="G69" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="4" t="s">
@@ -4860,93 +4270,93 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="29" t="s">
+      <c r="A70" s="70"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="16" t="s">
+      <c r="F70" s="14"/>
+      <c r="G70" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" ht="28.5" spans="1:8">
-      <c r="A71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="16" t="s">
+    <row r="71" spans="1:8" ht="33">
+      <c r="A71" s="70"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="16" t="s">
+      <c r="F71" s="14"/>
+      <c r="G71" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" ht="28.5" spans="1:8">
-      <c r="A72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="29" t="s">
+    <row r="72" spans="1:8" ht="33">
+      <c r="A72" s="70"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="15"/>
-      <c r="G72" s="16" t="s">
+      <c r="F72" s="14"/>
+      <c r="G72" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" ht="28.5" spans="1:8">
-      <c r="A73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="16" t="s">
+    <row r="73" spans="1:8" ht="33">
+      <c r="A73" s="70"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="16" t="s">
+      <c r="F73" s="14"/>
+      <c r="G73" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" ht="28.5" spans="1:8">
-      <c r="A74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="29" t="s">
+    <row r="74" spans="1:8" ht="33">
+      <c r="A74" s="70"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="15"/>
-      <c r="G74" s="16" t="s">
+      <c r="F74" s="14"/>
+      <c r="G74" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" ht="28.5" spans="1:8">
-      <c r="A75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="29" t="s">
+    <row r="75" spans="1:8" ht="33">
+      <c r="A75" s="70"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="82"/>
+      <c r="E75" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="16" t="s">
+      <c r="F75" s="14"/>
+      <c r="G75" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="4" t="s">
@@ -4954,16 +4364,16 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="16" t="s">
+      <c r="A76" s="70"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="16" t="s">
+      <c r="F76" s="14"/>
+      <c r="G76" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H76" s="4" t="s">
@@ -4971,31 +4381,31 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="33" t="s">
+      <c r="A77" s="70"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="82"/>
+      <c r="E77" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="16" t="s">
+      <c r="F77" s="14"/>
+      <c r="G77" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" ht="57" spans="1:8">
-      <c r="A78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="16" t="s">
+    <row r="78" spans="1:8" ht="66">
+      <c r="A78" s="70"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="33" t="s">
+      <c r="E78" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="16" t="s">
+      <c r="F78" s="14"/>
+      <c r="G78" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H78" s="4" t="s">
@@ -5003,171 +4413,171 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="33" t="s">
+      <c r="A79" s="70"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="16" t="s">
+      <c r="F79" s="14"/>
+      <c r="G79" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" ht="81" spans="1:8">
+    <row r="80" spans="1:8" ht="99">
       <c r="A80" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="35" t="s">
+      <c r="D80" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="36" t="s">
+      <c r="E80" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="G80" s="13" t="s">
+      <c r="G80" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" ht="28.5" spans="1:8">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:8" ht="33">
+      <c r="A81" s="70" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E81" s="36" t="s">
+      <c r="E81" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G81" s="13" t="s">
+      <c r="G81" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" ht="28.5" spans="1:8">
-      <c r="A82" s="11"/>
+    <row r="82" spans="1:8" ht="33">
+      <c r="A82" s="70"/>
       <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C82" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="D82" s="38" t="s">
+      <c r="D82" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="36" t="s">
+      <c r="E82" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G82" s="13" t="s">
+      <c r="G82" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" ht="54" spans="1:8">
-      <c r="A83" s="39" t="s">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A83" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D83" s="42" t="s">
+      <c r="D83" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="43" t="s">
+      <c r="E83" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="40"/>
-      <c r="G83" s="13" t="s">
+      <c r="F83" s="36"/>
+      <c r="G83" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1" ht="54" spans="1:8">
-      <c r="A84" s="39"/>
-      <c r="B84" s="40" t="s">
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A84" s="71"/>
+      <c r="B84" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F84" s="40"/>
-      <c r="G84" s="13" t="s">
+      <c r="F84" s="36"/>
+      <c r="G84" s="12" t="s">
         <v>144</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" ht="99.75" spans="1:8">
-      <c r="A85" s="39"/>
-      <c r="B85" s="40" t="s">
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
+      <c r="A85" s="71"/>
+      <c r="B85" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D85" s="42" t="s">
+      <c r="D85" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="F85" s="40"/>
-      <c r="G85" s="13" t="s">
+      <c r="F85" s="36"/>
+      <c r="G85" s="12" t="s">
         <v>144</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" s="3" customFormat="1" ht="54" spans="1:8">
-      <c r="A86" s="39"/>
-      <c r="B86" s="40" t="s">
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A86" s="71"/>
+      <c r="B86" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D86" s="42" t="s">
+      <c r="D86" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="E86" s="36" t="s">
+      <c r="E86" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="F86" s="40"/>
-      <c r="G86" s="13" t="s">
+      <c r="F86" s="36"/>
+      <c r="G86" s="12" t="s">
         <v>144</v>
       </c>
       <c r="H86" s="10" t="s">
@@ -5175,13 +4585,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="70" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="44" t="s">
+      <c r="C87" s="75" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -5190,7 +4600,7 @@
       <c r="E87" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="G87" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H87" s="10" t="s">
@@ -5198,38 +4608,38 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11" t="s">
+      <c r="A88" s="70"/>
+      <c r="B88" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="44"/>
+      <c r="C88" s="75"/>
       <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" s="4" customFormat="1" spans="1:8">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="47" t="s">
+    <row r="89" spans="1:8" s="4" customFormat="1">
+      <c r="A89" s="72"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="33" t="s">
+      <c r="E89" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G89" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="4" t="s">
@@ -5237,57 +4647,57 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="44"/>
+      <c r="A90" s="70"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="75"/>
       <c r="D90" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="48" t="s">
+      <c r="E90" s="41" t="s">
         <v>157</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G90" s="13" t="s">
+      <c r="G90" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="91" ht="28.5" spans="1:8">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="49" t="s">
+    <row r="91" spans="1:8" ht="33">
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="E91" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="F91" s="51" t="s">
+      <c r="F91" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="G91" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" ht="28.5" spans="1:8">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="49" t="s">
+    <row r="92" spans="1:8" ht="33">
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="52" t="s">
+      <c r="E92" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="F92" s="53"/>
-      <c r="G92" s="13" t="s">
+      <c r="F92" s="46"/>
+      <c r="G92" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H92" s="10" t="s">
@@ -5295,245 +4705,245 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="49" t="s">
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E93" s="16" t="s">
         <v>162</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G93" s="13" t="s">
+      <c r="G93" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" s="4" customFormat="1" ht="27" spans="1:8">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="47" t="s">
+    <row r="94" spans="1:8" s="4" customFormat="1" ht="27">
+      <c r="A94" s="72"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="54" t="s">
+      <c r="E94" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" s="4" customFormat="1" spans="1:8">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="47" t="s">
+    <row r="95" spans="1:8" s="4" customFormat="1">
+      <c r="A95" s="72"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E95" s="54" t="s">
+      <c r="E95" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G95" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="96" s="4" customFormat="1" ht="27" spans="1:8">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="47" t="s">
+    <row r="96" spans="1:8" s="4" customFormat="1" ht="27">
+      <c r="A96" s="72"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="54" t="s">
+      <c r="E96" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="F96" s="15"/>
-      <c r="G96" s="16" t="s">
+      <c r="F96" s="14"/>
+      <c r="G96" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="97" ht="27" spans="1:8">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="49" t="s">
+    <row r="97" spans="1:9" ht="27">
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="55" t="s">
+      <c r="E97" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="51" t="s">
+      <c r="F97" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G97" s="13" t="s">
+      <c r="G97" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="98" s="5" customFormat="1" spans="1:8">
-      <c r="A98" s="56"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="49" t="s">
+    <row r="98" spans="1:9" s="5" customFormat="1">
+      <c r="A98" s="73"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F98" s="51" t="s">
+      <c r="F98" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="G98" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="59" t="s">
+      <c r="G98" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="50" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" s="4" customFormat="1" spans="1:8">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="47" t="s">
+    <row r="99" spans="1:9" s="4" customFormat="1">
+      <c r="A99" s="72"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="F99" s="15" t="s">
+      <c r="F99" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G99" s="16" t="s">
+      <c r="G99" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" ht="28.5" spans="1:8">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="44"/>
+    <row r="100" spans="1:9" ht="33">
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="75"/>
       <c r="D100" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E100" s="60" t="s">
+      <c r="E100" s="51" t="s">
         <v>173</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G100" s="13" t="s">
+      <c r="G100" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" s="4" customFormat="1" spans="1:8">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="47" t="s">
+    <row r="101" spans="1:9" s="4" customFormat="1">
+      <c r="A101" s="72"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="E101" s="33" t="s">
+      <c r="E101" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="F101" s="15" t="s">
+      <c r="F101" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G101" s="16" t="s">
+      <c r="G101" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="44"/>
+    <row r="102" spans="1:9">
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="75"/>
       <c r="D102" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="36" t="s">
+      <c r="E102" s="33" t="s">
         <v>175</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="G102" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" s="4" customFormat="1" spans="1:8">
-      <c r="A103" s="45"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="47" t="s">
+    <row r="103" spans="1:9" s="4" customFormat="1">
+      <c r="A103" s="72"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="33" t="s">
+      <c r="E103" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="16" t="s">
+      <c r="F103" s="14"/>
+      <c r="G103" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" s="4" customFormat="1" ht="28.5" spans="1:8">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="47" t="s">
+    <row r="104" spans="1:9" s="4" customFormat="1" ht="33">
+      <c r="A104" s="72"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E104" s="61" t="s">
+      <c r="E104" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="F104" s="15" t="s">
+      <c r="F104" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G104" s="16" t="s">
+      <c r="G104" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="105" ht="28.5" spans="1:8">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="44"/>
+    <row r="105" spans="1:9" ht="33">
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="75"/>
       <c r="D105" s="8" t="s">
         <v>98</v>
       </c>
@@ -5543,1466 +4953,1466 @@
       <c r="F105" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G105" s="13" t="s">
+      <c r="G105" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H105" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="44"/>
+    <row r="106" spans="1:9">
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="75"/>
       <c r="D106" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="36" t="s">
+      <c r="E106" s="33" t="s">
         <v>179</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G106" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H106" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" ht="28.5" spans="1:9">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="44"/>
+    <row r="107" spans="1:9" ht="33">
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="75"/>
       <c r="D107" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E107" s="36" t="s">
+      <c r="E107" s="33" t="s">
         <v>180</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G107" s="13" t="s">
+      <c r="G107" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I107" s="67"/>
-    </row>
-    <row r="108" s="4" customFormat="1" spans="1:8">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="47" t="s">
+      <c r="I107" s="58"/>
+    </row>
+    <row r="108" spans="1:9" s="4" customFormat="1">
+      <c r="A108" s="72"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E108" s="33" t="s">
+      <c r="E108" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="F108" s="15" t="s">
+      <c r="F108" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G108" s="16" t="s">
+      <c r="G108" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" s="4" customFormat="1" spans="1:8">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="47" t="s">
+    <row r="109" spans="1:9" s="4" customFormat="1">
+      <c r="A109" s="72"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="E109" s="33" t="s">
+      <c r="E109" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="F109" s="15" t="s">
+      <c r="F109" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G109" s="16" t="s">
+      <c r="G109" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="44"/>
+    <row r="110" spans="1:9">
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="75"/>
       <c r="D110" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="36" t="s">
+      <c r="E110" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="G110" s="13" t="s">
+      <c r="G110" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="44"/>
+    <row r="111" spans="1:9">
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="75"/>
       <c r="D111" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="G111" s="13" t="s">
+      <c r="G111" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H111" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I111" s="67"/>
-    </row>
-    <row r="112" s="4" customFormat="1" ht="28.5" spans="1:9">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="47" t="s">
+      <c r="I111" s="58"/>
+    </row>
+    <row r="112" spans="1:9" s="4" customFormat="1" ht="33">
+      <c r="A112" s="72"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E112" s="61" t="s">
+      <c r="E112" s="52" t="s">
         <v>187</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F112" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G112" s="16" t="s">
+      <c r="G112" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="68"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="47" t="s">
+      <c r="I112" s="59"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="75"/>
+      <c r="D113" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E113" s="33" t="s">
+      <c r="E113" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F113" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G113" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="62" t="s">
+      <c r="G113" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="47" t="s">
+    <row r="114" spans="1:11">
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="75"/>
+      <c r="D114" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="E114" s="33" t="s">
+      <c r="E114" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="F114" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G114" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="62" t="s">
+      <c r="G114" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="44"/>
+    <row r="115" spans="1:11" ht="33">
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="75"/>
       <c r="D115" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="36" t="s">
+      <c r="E115" s="33" t="s">
         <v>191</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G115" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="32" t="s">
+      <c r="G115" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" ht="28.5" spans="1:8">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="44"/>
+    <row r="116" spans="1:11" ht="33">
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="75"/>
       <c r="D116" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E116" s="36" t="s">
+      <c r="E116" s="33" t="s">
         <v>192</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G116" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="32" t="s">
+      <c r="G116" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" ht="28.5" spans="1:8">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="8" t="s">
+    <row r="117" spans="1:11" ht="33">
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="75"/>
+      <c r="D117" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="36" t="s">
+      <c r="E117" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G117" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="63" t="s">
+      <c r="G117" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="8" t="s">
+    <row r="118" spans="1:11">
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="75"/>
+      <c r="D118" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="60" t="s">
+      <c r="E118" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G118" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="63" t="s">
+      <c r="G118" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" s="3" customFormat="1" spans="1:11">
-      <c r="A119" s="11"/>
-      <c r="B119" s="39" t="s">
+    <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A119" s="70"/>
+      <c r="B119" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="C119" s="44"/>
-      <c r="D119" s="64" t="s">
+      <c r="C119" s="75"/>
+      <c r="D119" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E119" s="65" t="s">
+      <c r="E119" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="F119" s="40" t="s">
+      <c r="F119" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="G119" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H119" s="63" t="s">
+      <c r="H119" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I119" s="63"/>
-      <c r="J119" s="63"/>
-      <c r="K119" s="63"/>
-    </row>
-    <row r="120" s="3" customFormat="1" ht="28.5" spans="1:11">
-      <c r="A120" s="11"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="64" t="s">
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+    </row>
+    <row r="120" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A120" s="70"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="75"/>
+      <c r="D120" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="36" t="s">
+      <c r="E120" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="F120" s="65" t="s">
+      <c r="F120" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="G120" s="13" t="s">
+      <c r="G120" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H120" s="63" t="s">
+      <c r="H120" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I120" s="63"/>
-      <c r="J120" s="63"/>
-      <c r="K120" s="63"/>
-    </row>
-    <row r="121" s="3" customFormat="1" spans="1:11">
-      <c r="A121" s="11"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="64" t="s">
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="54"/>
+    </row>
+    <row r="121" spans="1:11" s="3" customFormat="1">
+      <c r="A121" s="70"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="75"/>
+      <c r="D121" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="E121" s="65" t="s">
+      <c r="E121" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="F121" s="65" t="s">
+      <c r="F121" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="G121" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="63" t="s">
+      <c r="G121" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I121" s="63"/>
-      <c r="J121" s="63"/>
-      <c r="K121" s="63"/>
-    </row>
-    <row r="122" s="3" customFormat="1" spans="1:10">
-      <c r="A122" s="11"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="64" t="s">
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+    </row>
+    <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A122" s="70"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="75"/>
+      <c r="D122" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E122" s="65" t="s">
+      <c r="E122" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="F122" s="40" t="s">
+      <c r="F122" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="G122" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="63" t="s">
+      <c r="G122" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I122" s="63"/>
-      <c r="J122" s="63"/>
-    </row>
-    <row r="123" s="3" customFormat="1" ht="27" spans="1:10">
-      <c r="A123" s="11"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="64" t="s">
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+    </row>
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A123" s="70"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="75"/>
+      <c r="D123" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="36" t="s">
+      <c r="E123" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="F123" s="65" t="s">
+      <c r="F123" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="G123" s="13" t="s">
+      <c r="G123" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="63" t="s">
+      <c r="H123" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I123" s="63"/>
-      <c r="J123" s="63"/>
-    </row>
-    <row r="124" s="3" customFormat="1" ht="42.75" spans="1:10">
-      <c r="A124" s="11"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="64" t="s">
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+    </row>
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A124" s="70"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="75"/>
+      <c r="D124" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="E124" s="36" t="s">
+      <c r="E124" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F124" s="65" t="s">
+      <c r="F124" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="G124" s="13" t="s">
+      <c r="G124" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H124" s="63" t="s">
+      <c r="H124" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I124" s="63"/>
-      <c r="J124" s="63"/>
-    </row>
-    <row r="125" s="3" customFormat="1" ht="28.5" spans="1:10">
-      <c r="A125" s="11"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="64" t="s">
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+    </row>
+    <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A125" s="70"/>
+      <c r="B125" s="71"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="36" t="s">
+      <c r="E125" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F125" s="65" t="s">
+      <c r="F125" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="G125" s="13" t="s">
+      <c r="G125" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H125" s="63" t="s">
+      <c r="H125" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I125" s="63"/>
-      <c r="J125" s="63"/>
-    </row>
-    <row r="126" s="3" customFormat="1" ht="42.75" spans="1:8">
-      <c r="A126" s="11"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="64" t="s">
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+    </row>
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A126" s="70"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="75"/>
+      <c r="D126" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="36" t="s">
+      <c r="E126" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="F126" s="65" t="s">
+      <c r="F126" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="G126" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" s="63" t="s">
+      <c r="G126" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="127" s="3" customFormat="1" ht="42.75" spans="1:8">
-      <c r="A127" s="11"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="66" t="s">
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A127" s="70"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="75"/>
+      <c r="D127" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E127" s="36" t="s">
+      <c r="E127" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F127" s="65" t="s">
+      <c r="F127" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="G127" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="63" t="s">
+      <c r="G127" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="128" s="3" customFormat="1" spans="1:8">
-      <c r="A128" s="11"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="66" t="s">
+    <row r="128" spans="1:11" s="3" customFormat="1">
+      <c r="A128" s="70"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="75"/>
+      <c r="D128" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="36" t="s">
+      <c r="E128" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="F128" s="65" t="s">
+      <c r="F128" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="G128" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="63" t="s">
+      <c r="G128" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="129" s="3" customFormat="1" ht="42.75" spans="1:10">
-      <c r="A129" s="11"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="66" t="s">
+    <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A129" s="70"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="75"/>
+      <c r="D129" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="E129" s="36" t="s">
+      <c r="E129" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="F129" s="65" t="s">
+      <c r="F129" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="G129" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="63" t="s">
+      <c r="G129" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I129" s="63"/>
-      <c r="J129" s="63"/>
-    </row>
-    <row r="130" s="3" customFormat="1" ht="42.75" spans="1:10">
-      <c r="A130" s="11"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="66" t="s">
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+    </row>
+    <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A130" s="70"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="75"/>
+      <c r="D130" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E130" s="36" t="s">
+      <c r="E130" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="F130" s="65" t="s">
+      <c r="F130" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="G130" s="13" t="s">
+      <c r="G130" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H130" s="63" t="s">
+      <c r="H130" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="J130" s="63"/>
-    </row>
-    <row r="131" s="3" customFormat="1" ht="42.75" spans="1:8">
-      <c r="A131" s="11"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="66" t="s">
+      <c r="J130" s="54"/>
+    </row>
+    <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A131" s="70"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="75"/>
+      <c r="D131" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E131" s="65" t="s">
+      <c r="E131" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="F131" s="65" t="s">
+      <c r="F131" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="G131" s="13" t="s">
+      <c r="G131" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="H131" s="63" t="s">
+      <c r="H131" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="132" s="3" customFormat="1" spans="1:8">
-      <c r="A132" s="11"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="66" t="s">
+    <row r="132" spans="1:10" s="3" customFormat="1">
+      <c r="A132" s="70"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="E132" s="65" t="s">
+      <c r="E132" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="F132" s="65"/>
-      <c r="G132" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="63" t="s">
+      <c r="F132" s="56"/>
+      <c r="G132" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="133" s="3" customFormat="1" ht="28.5" spans="1:8">
-      <c r="A133" s="11"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="66" t="s">
+    <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A133" s="70"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="E133" s="36" t="s">
+      <c r="E133" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="F133" s="65" t="s">
+      <c r="F133" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="G133" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" s="63" t="s">
+      <c r="G133" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="134" s="3" customFormat="1" ht="28.5" spans="1:9">
-      <c r="A134" s="11"/>
-      <c r="B134" s="39"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="66" t="s">
+    <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A134" s="70"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E134" s="36" t="s">
+      <c r="E134" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F134" s="65" t="s">
+      <c r="F134" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="G134" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="63" t="s">
+      <c r="G134" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I134" s="63"/>
-    </row>
-    <row r="135" s="3" customFormat="1" ht="28.5" spans="1:9">
-      <c r="A135" s="11"/>
-      <c r="B135" s="39"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="66" t="s">
+      <c r="I134" s="54"/>
+    </row>
+    <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A135" s="70"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="75"/>
+      <c r="D135" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E135" s="36" t="s">
+      <c r="E135" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F135" s="69" t="s">
+      <c r="F135" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="G135" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="63" t="s">
+      <c r="G135" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I135" s="63"/>
-    </row>
-    <row r="136" s="3" customFormat="1" ht="42.75" spans="1:9">
-      <c r="A136" s="11"/>
-      <c r="B136" s="39"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="64" t="s">
+      <c r="I135" s="54"/>
+    </row>
+    <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A136" s="70"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="75"/>
+      <c r="D136" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E136" s="36" t="s">
+      <c r="E136" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="F136" s="69"/>
-      <c r="G136" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="63" t="s">
+      <c r="F136" s="60"/>
+      <c r="G136" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I136" s="63"/>
-    </row>
-    <row r="137" s="3" customFormat="1" ht="54" spans="1:8">
-      <c r="A137" s="11" t="s">
+      <c r="I136" s="54"/>
+    </row>
+    <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
+      <c r="A137" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="B137" s="40" t="s">
+      <c r="B137" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C137" s="70" t="s">
+      <c r="C137" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="D137" s="71" t="s">
+      <c r="D137" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="E137" s="36" t="s">
+      <c r="E137" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="F137" s="70"/>
-      <c r="G137" s="70"/>
-      <c r="H137" s="63" t="s">
+      <c r="F137" s="61"/>
+      <c r="G137" s="61"/>
+      <c r="H137" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="138" s="3" customFormat="1" ht="81.75" spans="1:8">
-      <c r="A138" s="11"/>
-      <c r="B138" s="40" t="s">
+    <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A138" s="70"/>
+      <c r="B138" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="C138" s="70" t="s">
+      <c r="C138" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="D138" s="71" t="s">
+      <c r="D138" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="E138" s="36" t="s">
+      <c r="E138" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="F138" s="70"/>
-      <c r="G138" s="70"/>
-      <c r="H138" s="63" t="s">
+      <c r="F138" s="61"/>
+      <c r="G138" s="61"/>
+      <c r="H138" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" s="3" customFormat="1" ht="81.75" spans="1:8">
-      <c r="A139" s="11"/>
-      <c r="B139" s="40" t="s">
+    <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A139" s="70"/>
+      <c r="B139" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="C139" s="70" t="s">
+      <c r="C139" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="D139" s="71" t="s">
+      <c r="D139" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="E139" s="36" t="s">
+      <c r="E139" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="F139" s="70"/>
-      <c r="G139" s="70"/>
-      <c r="H139" s="63" t="s">
+      <c r="F139" s="61"/>
+      <c r="G139" s="61"/>
+      <c r="H139" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" s="3" customFormat="1" ht="40.5" spans="1:8">
-      <c r="A140" s="11"/>
-      <c r="B140" s="40" t="s">
+    <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A140" s="70"/>
+      <c r="B140" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="C140" s="70" t="s">
+      <c r="C140" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="D140" s="71" t="s">
+      <c r="D140" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="E140" s="36" t="s">
+      <c r="E140" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="F140" s="70"/>
-      <c r="G140" s="70"/>
-      <c r="H140" s="63" t="s">
+      <c r="F140" s="61"/>
+      <c r="G140" s="61"/>
+      <c r="H140" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="141" s="3" customFormat="1" ht="67.5" spans="1:8">
-      <c r="A141" s="11"/>
-      <c r="B141" s="40" t="s">
+    <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
+      <c r="A141" s="70"/>
+      <c r="B141" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="C141" s="70" t="s">
+      <c r="C141" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="D141" s="71" t="s">
+      <c r="D141" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="E141" s="36" t="s">
+      <c r="E141" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="F141" s="70"/>
-      <c r="G141" s="70"/>
-      <c r="H141" s="63" t="s">
+      <c r="F141" s="61"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="142" s="3" customFormat="1" ht="94.5" spans="1:8">
-      <c r="A142" s="11"/>
-      <c r="B142" s="40" t="s">
+    <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
+      <c r="A142" s="70"/>
+      <c r="B142" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="C142" s="70" t="s">
+      <c r="C142" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="D142" s="71" t="s">
+      <c r="D142" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="E142" s="36" t="s">
+      <c r="E142" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="F142" s="70"/>
-      <c r="G142" s="70"/>
-      <c r="H142" s="63" t="s">
+      <c r="F142" s="61"/>
+      <c r="G142" s="61"/>
+      <c r="H142" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="143" s="3" customFormat="1" ht="27" spans="1:8">
-      <c r="A143" s="11"/>
-      <c r="B143" s="40" t="s">
+    <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A143" s="70"/>
+      <c r="B143" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="C143" s="70" t="s">
+      <c r="C143" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="D143" s="71" t="s">
+      <c r="D143" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="E143" s="36" t="s">
+      <c r="E143" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="F143" s="70"/>
-      <c r="G143" s="70"/>
-      <c r="H143" s="63" t="s">
+      <c r="F143" s="61"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="144" ht="40.5" spans="1:8">
-      <c r="A144" s="11"/>
+    <row r="144" spans="1:10" ht="49.5">
+      <c r="A144" s="70"/>
       <c r="B144" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="72" t="s">
+      <c r="C144" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D144" s="71" t="s">
+      <c r="D144" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="E144" s="73" t="s">
+      <c r="E144" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="G144" s="13" t="s">
+      <c r="G144" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H144" s="63" t="s">
+      <c r="H144" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="145" ht="42" spans="1:7">
-      <c r="A145" s="11" t="s">
+    <row r="145" spans="1:7" ht="49.5">
+      <c r="A145" s="70" t="s">
         <v>249</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C145" s="74" t="s">
+      <c r="C145" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="D145" s="75" t="s">
+      <c r="D145" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="E145" s="36" t="s">
+      <c r="E145" s="33" t="s">
         <v>253</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G145" s="13" t="s">
+      <c r="G145" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="11"/>
-      <c r="C146" s="74"/>
-      <c r="D146" s="75" t="s">
+      <c r="A146" s="70"/>
+      <c r="C146" s="78"/>
+      <c r="D146" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="E146" s="36" t="s">
+      <c r="E146" s="33" t="s">
         <v>256</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G146" s="13" t="s">
+      <c r="G146" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="11"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="75" t="s">
+      <c r="A147" s="70"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="E147" s="36" t="s">
+      <c r="E147" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="G147" s="13" t="s">
+      <c r="G147" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="11"/>
-      <c r="C148" s="74"/>
-      <c r="D148" s="75" t="s">
+      <c r="A148" s="70"/>
+      <c r="C148" s="78"/>
+      <c r="D148" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="E148" s="36" t="s">
+      <c r="E148" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="G148" s="13" t="s">
+      <c r="G148" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="11"/>
-      <c r="C149" s="74"/>
-      <c r="D149" s="75" t="s">
+      <c r="A149" s="70"/>
+      <c r="C149" s="78"/>
+      <c r="D149" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="E149" s="36" t="s">
+      <c r="E149" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="G149" s="13" t="s">
+      <c r="G149" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="11"/>
-      <c r="C150" s="74"/>
-      <c r="D150" s="75" t="s">
+      <c r="A150" s="70"/>
+      <c r="C150" s="78"/>
+      <c r="D150" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="E150" s="36" t="s">
+      <c r="E150" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="G150" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" ht="28.5" spans="1:7">
-      <c r="A151" s="11"/>
-      <c r="C151" s="74"/>
-      <c r="D151" s="75" t="s">
+      <c r="G150" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="33">
+      <c r="A151" s="70"/>
+      <c r="C151" s="78"/>
+      <c r="D151" s="65" t="s">
         <v>266</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G151" s="13" t="s">
+      <c r="G151" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="11"/>
-      <c r="C152" s="74"/>
-      <c r="D152" s="75" t="s">
+      <c r="A152" s="70"/>
+      <c r="C152" s="78"/>
+      <c r="D152" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="E152" s="36" t="s">
+      <c r="E152" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="G152" s="13" t="s">
+      <c r="G152" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="11"/>
-      <c r="C153" s="74"/>
-      <c r="D153" s="75" t="s">
+      <c r="A153" s="70"/>
+      <c r="C153" s="78"/>
+      <c r="D153" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E153" s="36" t="s">
+      <c r="E153" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="G153" s="13" t="s">
+      <c r="G153" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="11"/>
-      <c r="C154" s="74"/>
-      <c r="D154" s="75" t="s">
+      <c r="A154" s="70"/>
+      <c r="C154" s="78"/>
+      <c r="D154" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="E154" s="36" t="s">
+      <c r="E154" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="G154" s="13" t="s">
+      <c r="G154" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="11"/>
-      <c r="C155" s="74"/>
-      <c r="D155" s="75" t="s">
+      <c r="A155" s="70"/>
+      <c r="C155" s="78"/>
+      <c r="D155" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="E155" s="36" t="s">
+      <c r="E155" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="G155" s="13" t="s">
+      <c r="G155" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="11"/>
-      <c r="C156" s="74"/>
-      <c r="D156" s="75" t="s">
+      <c r="A156" s="70"/>
+      <c r="C156" s="78"/>
+      <c r="D156" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="E156" s="36" t="s">
+      <c r="E156" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="G156" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" ht="28.5" spans="1:7">
-      <c r="A157" s="11"/>
-      <c r="C157" s="74"/>
-      <c r="D157" s="75" t="s">
+      <c r="G156" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="33">
+      <c r="A157" s="70"/>
+      <c r="C157" s="78"/>
+      <c r="D157" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="E157" s="36" t="s">
+      <c r="E157" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="G157" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" ht="42.75" spans="1:7">
-      <c r="A158" s="11" t="s">
+      <c r="G157" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="49.5">
+      <c r="A158" s="70" t="s">
         <v>249</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C158" s="74" t="s">
+      <c r="C158" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="D158" s="75" t="s">
+      <c r="D158" s="65" t="s">
         <v>255</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="G158" s="13" t="s">
+      <c r="G158" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="11"/>
-      <c r="C159" s="74"/>
-      <c r="D159" s="75" t="s">
+      <c r="A159" s="70"/>
+      <c r="C159" s="78"/>
+      <c r="D159" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="E159" s="36" t="s">
+      <c r="E159" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="G159" s="13" t="s">
+      <c r="G159" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="11"/>
-      <c r="C160" s="74"/>
-      <c r="D160" s="75" t="s">
+      <c r="A160" s="70"/>
+      <c r="C160" s="78"/>
+      <c r="D160" s="65" t="s">
         <v>268</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G160" s="13" t="s">
+      <c r="G160" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="11"/>
-      <c r="C161" s="74"/>
-      <c r="D161" s="75" t="s">
+      <c r="A161" s="70"/>
+      <c r="C161" s="78"/>
+      <c r="D161" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E161" s="36" t="s">
+      <c r="E161" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="G161" s="13" t="s">
+      <c r="G161" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="11"/>
-      <c r="C162" s="74"/>
-      <c r="D162" s="75" t="s">
+      <c r="A162" s="70"/>
+      <c r="C162" s="78"/>
+      <c r="D162" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="E162" s="36" t="s">
+      <c r="E162" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="G162" s="13" t="s">
+      <c r="G162" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="11"/>
-      <c r="C163" s="74"/>
-      <c r="D163" s="75" t="s">
+      <c r="A163" s="70"/>
+      <c r="C163" s="78"/>
+      <c r="D163" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="E163" s="36" t="s">
+      <c r="E163" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="G163" s="13" t="s">
+      <c r="G163" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="11"/>
-      <c r="C164" s="74"/>
-      <c r="D164" s="75" t="s">
+      <c r="A164" s="70"/>
+      <c r="C164" s="78"/>
+      <c r="D164" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="E164" s="36" t="s">
+      <c r="E164" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="G164" s="13" t="s">
+      <c r="G164" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="70" t="s">
         <v>249</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C165" s="74" t="s">
+      <c r="C165" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="D165" s="75" t="s">
+      <c r="D165" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="E165" s="36" t="s">
+      <c r="E165" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="G165" s="13" t="s">
+      <c r="G165" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="11"/>
-      <c r="C166" s="74"/>
-      <c r="D166" s="75" t="s">
+      <c r="A166" s="70"/>
+      <c r="C166" s="78"/>
+      <c r="D166" s="65" t="s">
         <v>258</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="G166" s="13" t="s">
+      <c r="G166" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="11"/>
-      <c r="C167" s="74"/>
-      <c r="D167" s="75" t="s">
+      <c r="A167" s="70"/>
+      <c r="C167" s="78"/>
+      <c r="D167" s="65" t="s">
         <v>260</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="G167" s="13" t="s">
+      <c r="G167" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="11"/>
-      <c r="C168" s="74"/>
-      <c r="D168" s="75" t="s">
+      <c r="A168" s="70"/>
+      <c r="C168" s="78"/>
+      <c r="D168" s="65" t="s">
         <v>262</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G168" s="13" t="s">
+      <c r="G168" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="11"/>
-      <c r="C169" s="74"/>
-      <c r="D169" s="75" t="s">
+      <c r="A169" s="70"/>
+      <c r="C169" s="78"/>
+      <c r="D169" s="65" t="s">
         <v>294</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="G169" s="13" t="s">
+      <c r="G169" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="11"/>
-      <c r="C170" s="74"/>
-      <c r="D170" s="75" t="s">
+      <c r="A170" s="70"/>
+      <c r="C170" s="78"/>
+      <c r="D170" s="65" t="s">
         <v>266</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G170" s="13" t="s">
+      <c r="G170" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="11"/>
-      <c r="C171" s="74"/>
+      <c r="A171" s="70"/>
+      <c r="C171" s="78"/>
       <c r="D171" s="9" t="s">
         <v>297</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="G171" s="13" t="s">
+      <c r="G171" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="11"/>
-      <c r="C172" s="74"/>
-      <c r="D172" s="75" t="s">
+      <c r="A172" s="70"/>
+      <c r="C172" s="78"/>
+      <c r="D172" s="65" t="s">
         <v>272</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G172" s="13" t="s">
+      <c r="G172" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="11"/>
-      <c r="C173" s="74"/>
-      <c r="D173" s="75" t="s">
+      <c r="A173" s="70"/>
+      <c r="C173" s="78"/>
+      <c r="D173" s="65" t="s">
         <v>274</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G173" s="13" t="s">
+      <c r="G173" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="11"/>
-      <c r="C174" s="74"/>
-      <c r="D174" s="75" t="s">
+      <c r="A174" s="70"/>
+      <c r="C174" s="78"/>
+      <c r="D174" s="65" t="s">
         <v>276</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="G174" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="11"/>
-      <c r="C175" s="74"/>
-      <c r="D175" s="75" t="s">
+      <c r="G174" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="33">
+      <c r="A175" s="70"/>
+      <c r="C175" s="78"/>
+      <c r="D175" s="65" t="s">
         <v>278</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="G175" s="13" t="s">
+      <c r="G175" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="70" t="s">
         <v>249</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C176" s="74" t="s">
+      <c r="C176" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="D176" s="75" t="s">
+      <c r="D176" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="E176" s="36" t="s">
+      <c r="E176" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="G176" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="11"/>
-      <c r="C177" s="74"/>
-      <c r="D177" s="75" t="s">
+      <c r="G176" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="70"/>
+      <c r="C177" s="78"/>
+      <c r="D177" s="65" t="s">
         <v>258</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G177" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="11"/>
-      <c r="C178" s="74"/>
-      <c r="D178" s="75" t="s">
+      <c r="G177" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="70"/>
+      <c r="C178" s="78"/>
+      <c r="D178" s="65" t="s">
         <v>260</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G178" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="11"/>
-      <c r="C179" s="74"/>
-      <c r="D179" s="75" t="s">
+      <c r="G178" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="70"/>
+      <c r="C179" s="78"/>
+      <c r="D179" s="65" t="s">
         <v>262</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="G179" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="11"/>
-      <c r="C180" s="74"/>
-      <c r="D180" s="75" t="s">
+      <c r="G179" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="70"/>
+      <c r="C180" s="78"/>
+      <c r="D180" s="65" t="s">
         <v>294</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="G180" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="11"/>
-      <c r="C181" s="74"/>
-      <c r="D181" s="75" t="s">
+      <c r="G180" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="70"/>
+      <c r="C181" s="78"/>
+      <c r="D181" s="65" t="s">
         <v>266</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G181" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="11"/>
-      <c r="C182" s="74"/>
-      <c r="D182" s="75" t="s">
+      <c r="G181" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="70"/>
+      <c r="C182" s="78"/>
+      <c r="D182" s="65" t="s">
         <v>270</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="G182" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" ht="57" spans="1:7">
-      <c r="A183" s="11"/>
-      <c r="C183" s="74"/>
+      <c r="G182" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="66">
+      <c r="A183" s="70"/>
+      <c r="C183" s="78"/>
       <c r="D183" s="9" t="s">
         <v>297</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="G183" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="11"/>
-      <c r="C184" s="74"/>
-      <c r="D184" s="75" t="s">
+      <c r="G183" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="70"/>
+      <c r="C184" s="78"/>
+      <c r="D184" s="65" t="s">
         <v>272</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G184" s="13" t="s">
+      <c r="G184" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="11"/>
-      <c r="C185" s="74"/>
-      <c r="D185" s="75" t="s">
+    <row r="185" spans="1:8" ht="33">
+      <c r="A185" s="70"/>
+      <c r="C185" s="78"/>
+      <c r="D185" s="65" t="s">
         <v>278</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="G185" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" ht="54" spans="1:8">
-      <c r="A186" s="71" t="s">
+      <c r="G185" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="66">
+      <c r="A186" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="C186" s="76" t="s">
+      <c r="C186" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="D186" s="71" t="s">
+      <c r="D186" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="E186" s="73" t="s">
+      <c r="E186" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="G186" s="13" t="s">
+      <c r="G186" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H186" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="187" ht="81" spans="1:8">
-      <c r="A187" s="77" t="s">
+    <row r="187" spans="1:8" ht="99">
+      <c r="A187" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="C187" s="76" t="s">
+      <c r="C187" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="D187" s="71" t="s">
+      <c r="D187" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="E187" s="73" t="s">
+      <c r="E187" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="G187" s="13" t="s">
+      <c r="G187" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H187" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="188" ht="54" spans="1:8">
-      <c r="A188" s="77" t="s">
+    <row r="188" spans="1:8" ht="66">
+      <c r="A188" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="C188" s="76" t="s">
+      <c r="C188" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="D188" s="71" t="s">
+      <c r="D188" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="E188" s="73" t="s">
+      <c r="E188" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="G188" s="13" t="s">
+      <c r="G188" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H188" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="189" ht="40.5" spans="1:8">
-      <c r="A189" s="77" t="s">
+    <row r="189" spans="1:8" ht="49.5">
+      <c r="A189" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="C189" s="76" t="s">
+      <c r="C189" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="D189" s="71" t="s">
+      <c r="D189" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="E189" s="73" t="s">
+      <c r="E189" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="G189" s="13" t="s">
+      <c r="G189" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H189" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="190" ht="67.5" spans="1:8">
+    <row r="190" spans="1:8" ht="82.5">
       <c r="A190" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C190" s="76" t="s">
+      <c r="C190" s="66" t="s">
         <v>330</v>
       </c>
       <c r="D190" s="8" t="s">
@@ -7011,109 +6421,111 @@
       <c r="E190" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G190" s="13" t="s">
+      <c r="G190" s="12" t="s">
         <v>130</v>
       </c>
       <c r="H190" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="191" ht="40.5" spans="1:7">
-      <c r="A191" s="11" t="s">
+    <row r="191" spans="1:8" ht="49.5">
+      <c r="A191" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="B191" s="13" t="s">
+      <c r="B191" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C191" s="78" t="s">
+      <c r="C191" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="D191" s="13" t="s">
+      <c r="D191" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="E191" s="36" t="s">
+      <c r="E191" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="G191" s="13" t="s">
+      <c r="G191" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="192" ht="67.5" spans="1:7">
-      <c r="A192" s="11"/>
-      <c r="B192" s="13" t="s">
+    <row r="192" spans="1:8" ht="82.5">
+      <c r="A192" s="70"/>
+      <c r="B192" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C192" s="78" t="s">
+      <c r="C192" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="D192" s="13" t="s">
+      <c r="D192" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="E192" s="79" t="s">
+      <c r="E192" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="G192" s="13" t="s">
+      <c r="G192" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="11"/>
-      <c r="B193" s="13" t="s">
+      <c r="A193" s="70"/>
+      <c r="B193" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C193" s="78" t="s">
+      <c r="C193" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="D193" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="E193" s="36" t="s">
+      <c r="E193" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="G193" s="13" t="s">
+      <c r="G193" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="194" ht="83.25" spans="1:7">
+    <row r="194" spans="1:7" ht="99">
       <c r="A194" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C194" s="78" t="s">
+      <c r="C194" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D194" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E194" s="36" t="s">
+      <c r="E194" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="G194" s="13" t="s">
+      <c r="G194" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="7:7">
-      <c r="G195" s="13"/>
+    <row r="195" spans="1:7">
+      <c r="G195" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H195">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="H1:H195"/>
   <mergeCells count="50">
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -7130,90 +6542,85 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D80" r:id="rId1" display="知网-科技报告" tooltip="http://r.cnki.net/KNS/brief/result.aspx?dbPrefix=kjbg"/>
-    <hyperlink ref="G119" r:id="rId2" display="是" tooltip="http://www.ccgp-heilongj.gov.cn/xwzs!queryGd.action"/>
-    <hyperlink ref="E8" r:id="rId3" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw2407/nw42927/index.html" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw2407/nw42927/index.html"/>
-    <hyperlink ref="E6" r:id="rId4" display="http://www.beijing.gov.cn/zhengce/gwywj/"/>
-    <hyperlink ref="E7" r:id="rId5" display="http://www.beijing.gov.cn/zhengce/dfxfg/"/>
-    <hyperlink ref="E9" r:id="rId6" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw10800/index.html" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw10800/index.html"/>
-    <hyperlink ref="E11" r:id="rId7" display="http://www.tj.gov.cn/zw/szfwj/"/>
-    <hyperlink ref="E12" r:id="rId8" display="http://www.tj.gov.cn/zw/zcjd/"/>
-    <hyperlink ref="E13" r:id="rId9" display="http://www.cq.gov.cn/zwgk/szfwj" tooltip="http://www.cq.gov.cn/zwgk/szfwj"/>
-    <hyperlink ref="E14" r:id="rId10" display="http://www.cq.gov.cn/zwgk/zcwjjd"/>
-    <hyperlink ref="E15" r:id="rId11" display="http://www.hlj.gov.cn/gkml/ztfl.html" tooltip="http://www.hlj.gov.cn/gkml/ztfl.html"/>
-    <hyperlink ref="E18" r:id="rId12" display="http://xxgk.jl.gov.cn/" tooltip="http://xxgk.jl.gov.cn/"/>
-    <hyperlink ref="E21" r:id="rId13" display="http://www.ln.gov.cn/zfxx/zfwj/" tooltip="http://www.ln.gov.cn/zfxx/zfwj/"/>
-    <hyperlink ref="E23" r:id="rId14" display="http://www.nmg.gov.cn/col/col1686/index.html" tooltip="http://www.nmg.gov.cn/col/col1686/index.html"/>
-    <hyperlink ref="E22" r:id="rId15" display="http://www.ln.gov.cn/zfxx/zcjd/" tooltip="http://www.ln.gov.cn/zfxx/zcjd/"/>
-    <hyperlink ref="E20" r:id="rId16" display="http://www.jl.gov.cn/zw/jd/" tooltip="http://www.jl.gov.cn/zw/jd/"/>
-    <hyperlink ref="E19" r:id="rId17" display="http://www.jl.gov.cn/szfzt/zcfg/" tooltip="http://www.jl.gov.cn/szfzt/zcfg/"/>
-    <hyperlink ref="E17" r:id="rId18" display="http://www.hlj.gov.cn/zwfb/zfgz/" tooltip="http://www.hlj.gov.cn/zwfb/zfgz/"/>
-    <hyperlink ref="E2" r:id="rId19" display="http://www.gov.cn/zhengce/zuixin.htm" tooltip="http://www.gov.cn/zhengce/zuixin.htm"/>
-    <hyperlink ref="E3" r:id="rId20" display="http://www.gov.cn/zhengce/jiedu/index.htm"/>
-    <hyperlink ref="E4" r:id="rId21" display="http://www.gov.cn/zhengce/xxgkzl.htm" tooltip="http://www.gov.cn/zhengce/xxgkzl.htm"/>
-    <hyperlink ref="E10" r:id="rId22" display="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw41893/index.html"/>
-    <hyperlink ref="E24" r:id="rId23" display="http://www.nmg.gov.cn/col/col428/index.html" tooltip="http://www.nmg.gov.cn/col/col428/index.html"/>
-    <hyperlink ref="E25" r:id="rId24" display="http://info.hebei.gov.cn/eportal/ui?pageId=6817552" tooltip="http://info.hebei.gov.cn/eportal/ui?pageId=6817552"/>
-    <hyperlink ref="E27" r:id="rId25" display="http://www.henan.gov.cn/zwgk/zcjd/bmjd/" tooltip="http://www.henan.gov.cn/zwgk/zcjd/bmjd/"/>
-    <hyperlink ref="E28" r:id="rId26" display="http://www.henan.gov.cn/zwgk/fgwj/szfl/" tooltip="http://www.henan.gov.cn/zwgk/fgwj/szfl/"/>
-    <hyperlink ref="E29" r:id="rId27" display="http://www.shandong.gov.cn/col/col2266/index.html" tooltip="http://www.shandong.gov.cn/col/col2266/index.html"/>
-    <hyperlink ref="E30" r:id="rId28" display="http://www.shandong.gov.cn/col/col2262/index.html"/>
-    <hyperlink ref="E32" r:id="rId29" display="http://www.shanxi.gov.cn/zw/zfgkzl/zfxxgkgd/" tooltip="http://www.shanxi.gov.cn/zw/zfgkzl/zfxxgkgd/"/>
-    <hyperlink ref="E33" r:id="rId30" display="http://www.shanxi.gov.cn/yw/zcjd/latest_1447.shtml" tooltip="http://www.shanxi.gov.cn/yw/zcjd/latest_1447.shtml"/>
-    <hyperlink ref="E34" r:id="rId31" display="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1454" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1454"/>
-    <hyperlink ref="E39" r:id="rId32" display="http://www.nx.gov.cn/zwgk/gfxwj/" tooltip="http://www.nx.gov.cn/zwgk/gfxwj/"/>
-    <hyperlink ref="E38" r:id="rId33" display="http://www.gansu.gov.cn/col/col4745/index.html" tooltip="http://www.gansu.gov.cn/col/col4745/index.html"/>
-    <hyperlink ref="E36" r:id="rId34" display="http://zwgk.qh.gov.cn/szfjdhy/bmjd/" tooltip="http://zwgk.qh.gov.cn/szfjdhy/bmjd/"/>
-    <hyperlink ref="E35" r:id="rId35" display="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1229" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1229"/>
-    <hyperlink ref="E41" r:id="rId36" display="http://www.nx.gov.cn/zwgk/qzfwj/" tooltip="http://www.nx.gov.cn/zwgk/qzfwj/"/>
-    <hyperlink ref="E40" r:id="rId37" display="http://www.nx.gov.cn/zwxx_11337/zcjd/"/>
-    <hyperlink ref="E37" r:id="rId38" display="http://www.gansu.gov.cn/col/col4784/index.html" tooltip="http://www.gansu.gov.cn/col/col4784/index.html"/>
-    <hyperlink ref="E31" r:id="rId28" display="http://www.shandong.gov.cn/col/col2262/index.html" tooltip="http://www.shandong.gov.cn/col/col2262/index.html"/>
-    <hyperlink ref="E26" r:id="rId39" display="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html" tooltip="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html"/>
-    <hyperlink ref="E46" r:id="rId40" display="http://www.jiangsu.gov.cn/col/col32646/index.html"/>
-    <hyperlink ref="E16" r:id="rId41" display="http://www.hlj.gov.cn/zwfb/zcjd/" tooltip="http://www.hlj.gov.cn/zwfb/zcjd/"/>
-    <hyperlink ref="E90" r:id="rId42" display="http://60.28.163.169/jyxx/index.jhtml"/>
-    <hyperlink ref="E93" r:id="rId43" display="http://ggzyjy.nmg.gov.cn/jyxx/jsgcZbgg"/>
-    <hyperlink ref="E94" r:id="rId44" display="http://www.lnsggzy.com/003/secondpageDeal.html"/>
-    <hyperlink ref="E95" r:id="rId45" display="http://www.jlsggzyjy.gov.cn/jlsztb/jyxx/"/>
-    <hyperlink ref="E96" r:id="rId46" display="http://www.hljggzyjyw.gov.cn/trade/tradezfcg?cid=E92C3437-9CB8-40FB-BC5C-E78A6E4E475D"/>
-    <hyperlink ref="E97" r:id="rId47" display="https://www.bidcenter.com.cn/zhaobiao/area_1050_1169_1/"/>
-    <hyperlink ref="E98" r:id="rId48" display="http://221.226.253.51/jyxx/tradeInfonew.html"/>
-    <hyperlink ref="E115" r:id="rId49" display="http://ggzyjy.gansu.gov.cn/f/newprovince/annogoods/list"/>
+    <hyperlink ref="D80" r:id="rId1" tooltip="http://r.cnki.net/KNS/brief/result.aspx?dbPrefix=kjbg"/>
+    <hyperlink ref="G119" r:id="rId2" tooltip="http://www.ccgp-heilongj.gov.cn/xwzs!queryGd.action"/>
+    <hyperlink ref="E8" r:id="rId3" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw2407/nw42927/index.html"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6" tooltip="http://www.shanghai.gov.cn/nw2/nw2314/nw2319/nw10800/index.html"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9" tooltip="http://www.cq.gov.cn/zwgk/szfwj"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11" tooltip="http://www.hlj.gov.cn/gkml/ztfl.html"/>
+    <hyperlink ref="E18" r:id="rId12" tooltip="http://xxgk.jl.gov.cn/"/>
+    <hyperlink ref="E21" r:id="rId13" tooltip="http://www.ln.gov.cn/zfxx/zfwj/"/>
+    <hyperlink ref="E23" r:id="rId14" tooltip="http://www.nmg.gov.cn/col/col1686/index.html"/>
+    <hyperlink ref="E22" r:id="rId15" tooltip="http://www.ln.gov.cn/zfxx/zcjd/"/>
+    <hyperlink ref="E20" r:id="rId16" tooltip="http://www.jl.gov.cn/zw/jd/"/>
+    <hyperlink ref="E19" r:id="rId17" tooltip="http://www.jl.gov.cn/szfzt/zcfg/"/>
+    <hyperlink ref="E17" r:id="rId18" tooltip="http://www.hlj.gov.cn/zwfb/zfgz/"/>
+    <hyperlink ref="E2" r:id="rId19" tooltip="http://www.gov.cn/zhengce/zuixin.htm"/>
+    <hyperlink ref="E3" r:id="rId20"/>
+    <hyperlink ref="E4" r:id="rId21" tooltip="http://www.gov.cn/zhengce/xxgkzl.htm"/>
+    <hyperlink ref="E10" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23" tooltip="http://www.nmg.gov.cn/col/col428/index.html"/>
+    <hyperlink ref="E25" r:id="rId24" tooltip="http://info.hebei.gov.cn/eportal/ui?pageId=6817552"/>
+    <hyperlink ref="E27" r:id="rId25" tooltip="http://www.henan.gov.cn/zwgk/zcjd/bmjd/"/>
+    <hyperlink ref="E28" r:id="rId26" tooltip="http://www.henan.gov.cn/zwgk/fgwj/szfl/"/>
+    <hyperlink ref="E29" r:id="rId27" tooltip="http://www.shandong.gov.cn/col/col2266/index.html"/>
+    <hyperlink ref="E30" r:id="rId28"/>
+    <hyperlink ref="E32" r:id="rId29" tooltip="http://www.shanxi.gov.cn/zw/zfgkzl/zfxxgkgd/"/>
+    <hyperlink ref="E33" r:id="rId30" tooltip="http://www.shanxi.gov.cn/yw/zcjd/latest_1447.shtml"/>
+    <hyperlink ref="E34" r:id="rId31" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1454"/>
+    <hyperlink ref="E39" r:id="rId32" tooltip="http://www.nx.gov.cn/zwgk/gfxwj/"/>
+    <hyperlink ref="E38" r:id="rId33" tooltip="http://www.gansu.gov.cn/col/col4745/index.html"/>
+    <hyperlink ref="E36" r:id="rId34" tooltip="http://zwgk.qh.gov.cn/szfjdhy/bmjd/"/>
+    <hyperlink ref="E35" r:id="rId35" tooltip="http://zwgk.qh.gov.cn/zdgk/zwgkzfxxgkml/?id=1229"/>
+    <hyperlink ref="E41" r:id="rId36" tooltip="http://www.nx.gov.cn/zwgk/qzfwj/"/>
+    <hyperlink ref="E40" r:id="rId37"/>
+    <hyperlink ref="E37" r:id="rId38" tooltip="http://www.gansu.gov.cn/col/col4784/index.html"/>
+    <hyperlink ref="E31" r:id="rId39" tooltip="http://www.shandong.gov.cn/col/col2262/index.html"/>
+    <hyperlink ref="E26" r:id="rId40" tooltip="http://info.hebei.gov.cn/hbszfxxgk/6806024/6807473/6806145/6807917/index.html"/>
+    <hyperlink ref="E46" r:id="rId41"/>
+    <hyperlink ref="E16" r:id="rId42" tooltip="http://www.hlj.gov.cn/zwfb/zcjd/"/>
+    <hyperlink ref="E90" r:id="rId43"/>
+    <hyperlink ref="E93" r:id="rId44"/>
+    <hyperlink ref="E94" r:id="rId45"/>
+    <hyperlink ref="E95" r:id="rId46"/>
+    <hyperlink ref="E96" r:id="rId47"/>
+    <hyperlink ref="E97" r:id="rId48"/>
+    <hyperlink ref="E98" r:id="rId49"/>
+    <hyperlink ref="E115" r:id="rId50"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A74"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -7233,16 +6640,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -7251,32 +6657,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12222,25 +11626,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\crawler-scrapy\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -531,9 +531,6 @@
     <t>上海市</t>
   </si>
   <si>
-    <t>https://www.bidcenter.com.cn/zhaobiao/area_1050_1169_1/</t>
-  </si>
-  <si>
     <t>需要登录</t>
   </si>
   <si>
@@ -545,6 +542,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>时间区间为</t>
@@ -554,7 +552,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei Light"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>19</t>
     </r>
@@ -563,6 +561,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年全部的</t>
@@ -590,9 +589,6 @@
     <t>http://www.gzzb.gd.cn/cms/wz/view/index/layout2/zfcglist.jsp?siteId=1&amp;channelId=456</t>
   </si>
   <si>
-    <t>http://gxggzy.gxzf.gov.cn/gxzbw/showinfo/jyxx.aspx?QuYu=450001&amp;categoryNum=001010001</t>
-  </si>
-  <si>
     <t>http://www.hnsggzy.com/gczb/index.jhtml</t>
   </si>
   <si>
@@ -609,12 +605,6 @@
   </si>
   <si>
     <t>17年-19年</t>
-  </si>
-  <si>
-    <t>https://www.cqggzy.com/jyxx/jyxx-page.html</t>
-  </si>
-  <si>
-    <t>https://www.ynggzy.com/jyxx/jsgcZbgg</t>
   </si>
   <si>
     <t>http://ggzy.guizhou.gov.cn/queryContent-jyxx.jspx?channelId=75</t>
@@ -1803,6 +1793,22 @@
   </si>
   <si>
     <t>期刊论文</t>
+  </si>
+  <si>
+    <t>http://gxggzy.gxzf.gov.cn/gxzbw/showinfo/jyxx.aspx?QuYu=450001&amp;categoryNum=001010001</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cqggzy.com/jyxx/jyxx-page.html</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ynggzy.com/jyxx/jsgcZbgg</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bidcenter.com.cn/zhaobiao/area_1050_1169_1/</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1821,24 +1827,26 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1847,31 +1855,35 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1879,13 +1891,14 @@
       <u/>
       <sz val="11"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1893,6 +1906,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1900,24 +1914,27 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1980,7 +1997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2125,13 +2142,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,16 +2202,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2215,20 +2241,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3160,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118:H118"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -3205,13 +3219,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="69" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3226,9 +3240,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="70"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
@@ -3241,9 +3255,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="70"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="73"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
@@ -3255,9 +3269,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="70"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="80" t="s">
+      <c r="A5" s="73"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="71" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -3272,9 +3286,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="70"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="81"/>
+      <c r="A6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3287,9 +3301,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="70"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="81"/>
+      <c r="A7" s="73"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3302,9 +3316,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="70"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="82" t="s">
+      <c r="A8" s="73"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="68" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -3319,9 +3333,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="70"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="82"/>
+      <c r="A9" s="73"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="19" t="s">
         <v>23</v>
       </c>
@@ -3334,9 +3348,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="70"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="82"/>
+      <c r="A10" s="73"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
@@ -3349,9 +3363,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="70"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="80" t="s">
+      <c r="A11" s="73"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="71" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -3366,9 +3380,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="70"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="81"/>
+      <c r="A12" s="73"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3381,9 +3395,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="70"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="79" t="s">
+      <c r="A13" s="73"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="69" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -3397,9 +3411,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="70"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="79"/>
+      <c r="A14" s="73"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
@@ -3411,9 +3425,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="70"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="79" t="s">
+      <c r="A15" s="73"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="69" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -3427,9 +3441,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="70"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="79"/>
+      <c r="A16" s="73"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
@@ -3441,9 +3455,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="70"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="79"/>
+      <c r="A17" s="73"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="20" t="s">
         <v>34</v>
       </c>
@@ -3455,9 +3469,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="70"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="79" t="s">
+      <c r="A18" s="73"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="69" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -3471,9 +3485,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="70"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="79"/>
+      <c r="A19" s="73"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="13" t="s">
         <v>37</v>
       </c>
@@ -3486,9 +3500,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="70"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="79"/>
+      <c r="A20" s="73"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
@@ -3501,9 +3515,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="70"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="80" t="s">
+      <c r="A21" s="73"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="71" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -3518,9 +3532,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="70"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="73"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="13" t="s">
         <v>41</v>
       </c>
@@ -3533,9 +3547,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="70"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="79" t="s">
+      <c r="A23" s="73"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="69" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -3549,9 +3563,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="70"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="79"/>
+      <c r="A24" s="73"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
@@ -3563,9 +3577,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="70"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="82" t="s">
+      <c r="A25" s="73"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="68" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -3580,9 +3594,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="70"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="82"/>
+      <c r="A26" s="73"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
@@ -3595,9 +3609,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="70"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="79" t="s">
+      <c r="A27" s="73"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="69" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3614,9 +3628,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="70"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="79"/>
+      <c r="A28" s="73"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="16" t="s">
         <v>51</v>
       </c>
@@ -3631,9 +3645,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="70"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="79" t="s">
+      <c r="A29" s="73"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="69" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -3647,9 +3661,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="70"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="79"/>
+      <c r="A30" s="73"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="23" t="s">
         <v>54</v>
       </c>
@@ -3661,9 +3675,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="70"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="79"/>
+      <c r="A31" s="73"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
@@ -3675,9 +3689,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="70"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="82" t="s">
+      <c r="A32" s="73"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="68" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3692,9 +3706,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="70"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="82"/>
+      <c r="A33" s="73"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
@@ -3707,9 +3721,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="70"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="82" t="s">
+      <c r="A34" s="73"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="68" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -3724,9 +3738,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="70"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="82"/>
+      <c r="A35" s="73"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="24" t="s">
         <v>60</v>
       </c>
@@ -3739,9 +3753,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="70"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="82"/>
+      <c r="A36" s="73"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
@@ -3754,9 +3768,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="70"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="79" t="s">
+      <c r="A37" s="73"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="69" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="25" t="s">
@@ -3770,9 +3784,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="70"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="79"/>
+      <c r="A38" s="73"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="69"/>
       <c r="E38" s="25" t="s">
         <v>64</v>
       </c>
@@ -3784,9 +3798,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="70"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="82" t="s">
+      <c r="A39" s="73"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="68" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -3801,9 +3815,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="70"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="82"/>
+      <c r="A40" s="73"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="24" t="s">
         <v>67</v>
       </c>
@@ -3816,9 +3830,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="70"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="82"/>
+      <c r="A41" s="73"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="24" t="s">
         <v>68</v>
       </c>
@@ -3831,9 +3845,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="70"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="82" t="s">
+      <c r="A42" s="73"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="68" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -3848,9 +3862,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="70"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="82"/>
+      <c r="A43" s="73"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="68"/>
       <c r="E43" s="26" t="s">
         <v>72</v>
       </c>
@@ -3863,9 +3877,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="70"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="82" t="s">
+      <c r="A44" s="73"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="68" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -3880,9 +3894,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="70"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="82"/>
+      <c r="A45" s="73"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="26" t="s">
         <v>75</v>
       </c>
@@ -3895,9 +3909,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="70"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="82" t="s">
+      <c r="A46" s="73"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="68" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="27" t="s">
@@ -3912,9 +3926,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="70"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="82"/>
+      <c r="A47" s="73"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="68"/>
       <c r="E47" s="26" t="s">
         <v>78</v>
       </c>
@@ -3927,9 +3941,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="70"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="82"/>
+      <c r="A48" s="73"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="68"/>
       <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
@@ -3942,9 +3956,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="70"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="82"/>
+      <c r="A49" s="73"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="68"/>
       <c r="E49" s="26" t="s">
         <v>80</v>
       </c>
@@ -3957,9 +3971,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="70"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="79" t="s">
+      <c r="A50" s="73"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="69" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="28" t="s">
@@ -3973,9 +3987,9 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="70"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="79"/>
+      <c r="A51" s="73"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="28" t="s">
         <v>84</v>
       </c>
@@ -3987,9 +4001,9 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="70"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="79" t="s">
+      <c r="A52" s="73"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="69" t="s">
         <v>85</v>
       </c>
       <c r="E52" s="28" t="s">
@@ -4003,9 +4017,9 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="70"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="79"/>
+      <c r="A53" s="73"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="28" t="s">
         <v>87</v>
       </c>
@@ -4017,9 +4031,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="70"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="79"/>
+      <c r="A54" s="73"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="28" t="s">
         <v>88</v>
       </c>
@@ -4031,9 +4045,9 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="70"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="82" t="s">
+      <c r="A55" s="73"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="68" t="s">
         <v>89</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -4048,9 +4062,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="70"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="82"/>
+      <c r="A56" s="73"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="68"/>
       <c r="E56" s="26" t="s">
         <v>91</v>
       </c>
@@ -4063,9 +4077,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="70"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="82" t="s">
+      <c r="A57" s="73"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="68" t="s">
         <v>92</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -4080,9 +4094,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="70"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="82"/>
+      <c r="A58" s="73"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="26" t="s">
         <v>94</v>
       </c>
@@ -4095,9 +4109,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="70"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="82" t="s">
+      <c r="A59" s="73"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="68" t="s">
         <v>95</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4112,9 +4126,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="70"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="82"/>
+      <c r="A60" s="73"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="26" t="s">
         <v>97</v>
       </c>
@@ -4127,9 +4141,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="70"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="82" t="s">
+      <c r="A61" s="73"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="68" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -4144,9 +4158,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="70"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="82"/>
+      <c r="A62" s="73"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="26" t="s">
         <v>100</v>
       </c>
@@ -4159,9 +4173,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="70"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="82"/>
+      <c r="A63" s="73"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="68"/>
       <c r="E63" s="26" t="s">
         <v>101</v>
       </c>
@@ -4174,9 +4188,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="70"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="82" t="s">
+      <c r="A64" s="73"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="68" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -4191,9 +4205,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="70"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="82"/>
+      <c r="A65" s="73"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="68"/>
       <c r="E65" s="26" t="s">
         <v>104</v>
       </c>
@@ -4206,9 +4220,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="70"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="82" t="s">
+      <c r="A66" s="73"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="68" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -4223,9 +4237,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="70"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="82"/>
+      <c r="A67" s="73"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="68"/>
       <c r="E67" s="26" t="s">
         <v>107</v>
       </c>
@@ -4238,9 +4252,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="70"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="82" t="s">
+      <c r="A68" s="73"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="68" t="s">
         <v>108</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -4255,9 +4269,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="70"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="82"/>
+      <c r="A69" s="73"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="30" t="s">
         <v>110</v>
       </c>
@@ -4270,9 +4284,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="70"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="82"/>
+      <c r="A70" s="73"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="26" t="s">
         <v>111</v>
       </c>
@@ -4285,9 +4299,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="70"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="82" t="s">
+      <c r="A71" s="73"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -4302,9 +4316,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="70"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="82"/>
+      <c r="A72" s="73"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="68"/>
       <c r="E72" s="26" t="s">
         <v>114</v>
       </c>
@@ -4317,9 +4331,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="70"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="82" t="s">
+      <c r="A73" s="73"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="68" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -4334,9 +4348,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="70"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="82"/>
+      <c r="A74" s="73"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="68"/>
       <c r="E74" s="26" t="s">
         <v>117</v>
       </c>
@@ -4349,9 +4363,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="70"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="82"/>
+      <c r="A75" s="73"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="68"/>
       <c r="E75" s="26" t="s">
         <v>118</v>
       </c>
@@ -4364,9 +4378,9 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="70"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="82" t="s">
+      <c r="A76" s="73"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="68" t="s">
         <v>119</v>
       </c>
       <c r="E76" s="30" t="s">
@@ -4381,9 +4395,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="70"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="82"/>
+      <c r="A77" s="73"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="68"/>
       <c r="E77" s="30" t="s">
         <v>121</v>
       </c>
@@ -4396,9 +4410,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="70"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="82" t="s">
+      <c r="A78" s="73"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="68" t="s">
         <v>122</v>
       </c>
       <c r="E78" s="30" t="s">
@@ -4413,9 +4427,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="70"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="82"/>
+      <c r="A79" s="73"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="68"/>
       <c r="E79" s="30" t="s">
         <v>124</v>
       </c>
@@ -4451,7 +4465,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="70" t="s">
+      <c r="A81" s="73" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4474,7 +4488,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="70"/>
+      <c r="A82" s="73"/>
       <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
@@ -4495,7 +4509,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="76" t="s">
         <v>138</v>
       </c>
       <c r="B83" s="36" t="s">
@@ -4519,7 +4533,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="71"/>
+      <c r="A84" s="76"/>
       <c r="B84" s="36" t="s">
         <v>142</v>
       </c>
@@ -4541,7 +4555,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="71"/>
+      <c r="A85" s="76"/>
       <c r="B85" s="36" t="s">
         <v>145</v>
       </c>
@@ -4563,7 +4577,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="71"/>
+      <c r="A86" s="76"/>
       <c r="B86" s="36" t="s">
         <v>147</v>
       </c>
@@ -4585,13 +4599,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="70" t="s">
+      <c r="A87" s="73" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="78" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -4608,11 +4622,11 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="70"/>
-      <c r="B88" s="70" t="s">
+      <c r="A88" s="73"/>
+      <c r="B88" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="75"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
@@ -4627,9 +4641,9 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="72"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="76"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="40" t="s">
         <v>17</v>
       </c>
@@ -4647,9 +4661,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="70"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="75"/>
+      <c r="A90" s="73"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="8" t="s">
         <v>25</v>
       </c>
@@ -4667,9 +4681,9 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="75"/>
+      <c r="A91" s="73"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="42" t="s">
         <v>45</v>
       </c>
@@ -4687,9 +4701,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="75"/>
+      <c r="A92" s="73"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="78"/>
       <c r="D92" s="42" t="s">
         <v>55</v>
       </c>
@@ -4705,9 +4719,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="75"/>
+      <c r="A93" s="73"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="42" t="s">
         <v>42</v>
       </c>
@@ -4725,9 +4739,9 @@
       </c>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A94" s="72"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="76"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="79"/>
       <c r="D94" s="40" t="s">
         <v>39</v>
       </c>
@@ -4745,9 +4759,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="72"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="76"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="79"/>
       <c r="D95" s="40" t="s">
         <v>35</v>
       </c>
@@ -4765,9 +4779,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A96" s="72"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="76"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="79"/>
       <c r="D96" s="40" t="s">
         <v>31</v>
       </c>
@@ -4783,57 +4797,57 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="27">
-      <c r="A97" s="70"/>
-      <c r="B97" s="70"/>
-      <c r="C97" s="75"/>
+      <c r="A97" s="73"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="78"/>
       <c r="D97" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="81" t="s">
+        <v>580</v>
+      </c>
+      <c r="F97" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="44" t="s">
-        <v>168</v>
-      </c>
       <c r="G97" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H97" s="10" t="s">
-        <v>13</v>
+      <c r="H97" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="5" customFormat="1">
-      <c r="A98" s="73"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="77"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="80"/>
       <c r="D98" s="42" t="s">
         <v>76</v>
       </c>
       <c r="E98" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F98" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="F98" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="G98" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="50" t="s">
-        <v>13</v>
+      <c r="G98" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1">
-      <c r="A99" s="72"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="76"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="79"/>
       <c r="D99" s="40" t="s">
         <v>85</v>
       </c>
       <c r="E99" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>172</v>
       </c>
       <c r="G99" s="15" t="s">
         <v>12</v>
@@ -4843,14 +4857,14 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="33">
-      <c r="A100" s="70"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="75"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="78"/>
       <c r="D100" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E100" s="51" t="s">
-        <v>173</v>
+      <c r="E100" s="49" t="s">
+        <v>172</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>158</v>
@@ -4858,19 +4872,19 @@
       <c r="G100" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H100" s="10" t="s">
-        <v>13</v>
+      <c r="H100" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="4" customFormat="1">
-      <c r="A101" s="72"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="76"/>
+      <c r="A101" s="74"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="79"/>
       <c r="D101" s="40" t="s">
         <v>119</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>158</v>
@@ -4883,14 +4897,14 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="70"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="75"/>
+      <c r="A102" s="73"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="78"/>
       <c r="D102" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>158</v>
@@ -4898,19 +4912,19 @@
       <c r="G102" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="10" t="s">
-        <v>13</v>
+      <c r="H102" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="4" customFormat="1">
-      <c r="A103" s="72"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="76"/>
+      <c r="A103" s="74"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="79"/>
       <c r="D103" s="40" t="s">
         <v>52</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="15" t="s">
@@ -4921,14 +4935,14 @@
       </c>
     </row>
     <row r="104" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A104" s="72"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="76"/>
+      <c r="A104" s="74"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="79"/>
       <c r="D104" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E104" s="52" t="s">
-        <v>177</v>
+      <c r="E104" s="50" t="s">
+        <v>176</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>158</v>
@@ -4940,15 +4954,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="33">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="75"/>
+    <row r="105" spans="1:9" ht="27">
+      <c r="A105" s="73"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="78"/>
       <c r="D105" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>178</v>
+      <c r="E105" s="81" t="s">
+        <v>577</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>158</v>
@@ -4956,19 +4970,19 @@
       <c r="G105" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H105" s="10" t="s">
-        <v>13</v>
+      <c r="H105" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="75"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="78"/>
       <c r="D106" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>158</v>
@@ -4981,17 +4995,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="33">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="75"/>
+      <c r="A107" s="73"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G107" s="12" t="s">
         <v>12</v>
@@ -4999,17 +5013,17 @@
       <c r="H107" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I107" s="58"/>
+      <c r="I107" s="56"/>
     </row>
     <row r="108" spans="1:9" s="4" customFormat="1">
-      <c r="A108" s="72"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="76"/>
+      <c r="A108" s="74"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="79"/>
       <c r="D108" s="40" t="s">
         <v>48</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>158</v>
@@ -5022,17 +5036,17 @@
       </c>
     </row>
     <row r="109" spans="1:9" s="4" customFormat="1">
-      <c r="A109" s="72"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="76"/>
+      <c r="A109" s="74"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="79"/>
       <c r="D109" s="40" t="s">
         <v>112</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G109" s="15" t="s">
         <v>12</v>
@@ -5042,52 +5056,52 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="75"/>
+      <c r="A110" s="73"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="78"/>
       <c r="D110" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="33" t="s">
-        <v>185</v>
+      <c r="E110" s="41" t="s">
+        <v>578</v>
       </c>
       <c r="G110" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="10" t="s">
-        <v>13</v>
+      <c r="H110" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="75"/>
+      <c r="A111" s="73"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="78"/>
       <c r="D111" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E111" s="33" t="s">
-        <v>186</v>
+      <c r="E111" s="41" t="s">
+        <v>579</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" s="58"/>
+      <c r="H111" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="56"/>
     </row>
     <row r="112" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A112" s="72"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="76"/>
+      <c r="A112" s="74"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="79"/>
       <c r="D112" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E112" s="52" t="s">
-        <v>187</v>
+      <c r="E112" s="50" t="s">
+        <v>183</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G112" s="15" t="s">
         <v>12</v>
@@ -5095,57 +5109,57 @@
       <c r="H112" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="59"/>
+      <c r="I112" s="57"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="75"/>
+      <c r="A113" s="73"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="78"/>
       <c r="D113" s="40" t="s">
         <v>73</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G113" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H113" s="53" t="s">
+      <c r="H113" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="75"/>
+      <c r="A114" s="73"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="78"/>
       <c r="D114" s="40" t="s">
         <v>122</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G114" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="53" t="s">
+      <c r="H114" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="75"/>
+      <c r="A115" s="73"/>
+      <c r="B115" s="73"/>
+      <c r="C115" s="78"/>
       <c r="D115" s="8" t="s">
         <v>62</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>158</v>
@@ -5158,14 +5172,14 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="75"/>
+      <c r="A116" s="73"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="78"/>
       <c r="D116" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>158</v>
@@ -5178,14 +5192,14 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="75"/>
+      <c r="A117" s="73"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="78"/>
       <c r="D117" s="40" t="s">
         <v>65</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>158</v>
@@ -5193,19 +5207,19 @@
       <c r="G117" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H117" s="53" t="s">
+      <c r="H117" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="75"/>
+      <c r="A118" s="73"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="78"/>
       <c r="D118" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="52" t="s">
-        <v>194</v>
+      <c r="E118" s="50" t="s">
+        <v>190</v>
       </c>
       <c r="F118" s="14" t="s">
         <v>160</v>
@@ -5213,1133 +5227,1133 @@
       <c r="G118" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H118" s="53" t="s">
+      <c r="H118" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="70"/>
-      <c r="B119" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="C119" s="75"/>
-      <c r="D119" s="55" t="s">
+      <c r="A119" s="73"/>
+      <c r="B119" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C119" s="78"/>
+      <c r="D119" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E119" s="56" t="s">
-        <v>196</v>
+      <c r="E119" s="54" t="s">
+        <v>192</v>
       </c>
       <c r="F119" s="36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G119" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H119" s="54" t="s">
+      <c r="H119" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
+      <c r="I119" s="52"/>
+      <c r="J119" s="52"/>
+      <c r="K119" s="52"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A120" s="70"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="75"/>
-      <c r="D120" s="55" t="s">
+      <c r="A120" s="73"/>
+      <c r="B120" s="76"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="53" t="s">
         <v>39</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="F120" s="56" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="F120" s="54" t="s">
+        <v>195</v>
       </c>
       <c r="G120" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H120" s="54" t="s">
+      <c r="H120" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
+      <c r="I120" s="52"/>
+      <c r="J120" s="52"/>
+      <c r="K120" s="52"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="70"/>
-      <c r="B121" s="71"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="55" t="s">
+      <c r="A121" s="73"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E121" s="56" t="s">
+      <c r="E121" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F121" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I121" s="52"/>
+      <c r="J121" s="52"/>
+      <c r="K121" s="52"/>
+    </row>
+    <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A122" s="73"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E122" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="F122" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122" s="52"/>
+      <c r="J122" s="52"/>
+    </row>
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A123" s="73"/>
+      <c r="B123" s="76"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E123" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="F121" s="56" t="s">
+      <c r="F123" s="54" t="s">
         <v>201</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-    </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="70"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="75"/>
-      <c r="D122" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E122" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="F122" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-    </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A123" s="70"/>
-      <c r="B123" s="71"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="E123" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="F123" s="56" t="s">
-        <v>205</v>
       </c>
       <c r="G123" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="54" t="s">
+      <c r="H123" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="52"/>
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="70"/>
-      <c r="B124" s="71"/>
-      <c r="C124" s="75"/>
-      <c r="D124" s="55" t="s">
+      <c r="A124" s="73"/>
+      <c r="B124" s="76"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="53" t="s">
         <v>122</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F124" s="56" t="s">
-        <v>207</v>
+        <v>202</v>
+      </c>
+      <c r="F124" s="54" t="s">
+        <v>203</v>
       </c>
       <c r="G124" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H124" s="54" t="s">
+      <c r="H124" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I124" s="54"/>
-      <c r="J124" s="54"/>
+      <c r="I124" s="52"/>
+      <c r="J124" s="52"/>
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="70"/>
-      <c r="B125" s="71"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="55" t="s">
+      <c r="A125" s="73"/>
+      <c r="B125" s="76"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="53" t="s">
         <v>62</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F125" s="56" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="F125" s="54" t="s">
+        <v>205</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H125" s="54" t="s">
+      <c r="H125" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
+      <c r="I125" s="52"/>
+      <c r="J125" s="52"/>
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="70"/>
-      <c r="B126" s="71"/>
-      <c r="C126" s="75"/>
-      <c r="D126" s="55" t="s">
+      <c r="A126" s="73"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="78"/>
+      <c r="D126" s="53" t="s">
         <v>58</v>
       </c>
       <c r="E126" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="F126" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A127" s="73"/>
+      <c r="B127" s="76"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F127" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="3" customFormat="1">
+      <c r="A128" s="73"/>
+      <c r="B128" s="76"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F128" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A129" s="73"/>
+      <c r="B129" s="76"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F129" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I129" s="52"/>
+      <c r="J129" s="52"/>
+    </row>
+    <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A130" s="73"/>
+      <c r="B130" s="76"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E130" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="F126" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="G126" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" s="54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="70"/>
-      <c r="B127" s="71"/>
-      <c r="C127" s="75"/>
-      <c r="D127" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E127" s="33" t="s">
+      <c r="F130" s="54" t="s">
         <v>211</v>
-      </c>
-      <c r="F127" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="70"/>
-      <c r="B128" s="71"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E128" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F128" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="70"/>
-      <c r="B129" s="71"/>
-      <c r="C129" s="75"/>
-      <c r="D129" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="F129" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="G129" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I129" s="54"/>
-      <c r="J129" s="54"/>
-    </row>
-    <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="70"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="75"/>
-      <c r="D130" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="F130" s="56" t="s">
-        <v>215</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H130" s="54" t="s">
+      <c r="H130" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="J130" s="54"/>
+      <c r="J130" s="52"/>
     </row>
     <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="70"/>
-      <c r="B131" s="71"/>
-      <c r="C131" s="75"/>
-      <c r="D131" s="57" t="s">
+      <c r="A131" s="73"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E131" s="56" t="s">
+      <c r="E131" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="F131" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H131" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="3" customFormat="1">
+      <c r="A132" s="73"/>
+      <c r="B132" s="76"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="F132" s="54"/>
+      <c r="G132" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A133" s="73"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="F131" s="56" t="s">
+      <c r="F133" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A134" s="73"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E134" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="F134" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I134" s="52"/>
+    </row>
+    <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A135" s="73"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="78"/>
+      <c r="D135" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E135" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H131" s="54" t="s">
+      <c r="F135" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="70"/>
-      <c r="B132" s="71"/>
-      <c r="C132" s="75"/>
-      <c r="D132" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="E132" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F132" s="56"/>
-      <c r="G132" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="54" t="s">
+      <c r="I135" s="52"/>
+    </row>
+    <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A136" s="73"/>
+      <c r="B136" s="76"/>
+      <c r="C136" s="78"/>
+      <c r="D136" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F136" s="58"/>
+      <c r="G136" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="70"/>
-      <c r="B133" s="71"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F133" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="G133" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" s="54" t="s">
+      <c r="I136" s="52"/>
+    </row>
+    <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
+      <c r="A137" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="B137" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C137" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="D137" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F137" s="59"/>
+      <c r="G137" s="59"/>
+      <c r="H137" s="52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="70"/>
-      <c r="B134" s="71"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="F134" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="G134" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="54" t="s">
+    <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A138" s="73"/>
+      <c r="B138" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C138" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D138" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F138" s="59"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I134" s="54"/>
-    </row>
-    <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="70"/>
-      <c r="B135" s="71"/>
-      <c r="C135" s="75"/>
-      <c r="D135" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E135" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="F135" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="G135" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="54" t="s">
+    </row>
+    <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A139" s="73"/>
+      <c r="B139" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C139" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D139" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F139" s="59"/>
+      <c r="G139" s="59"/>
+      <c r="H139" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I135" s="54"/>
-    </row>
-    <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="70"/>
-      <c r="B136" s="71"/>
-      <c r="C136" s="75"/>
-      <c r="D136" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="E136" s="33" t="s">
+    </row>
+    <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A140" s="73"/>
+      <c r="B140" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D140" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="F136" s="60"/>
-      <c r="G136" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="54" t="s">
+      <c r="E140" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F140" s="59"/>
+      <c r="G140" s="59"/>
+      <c r="H140" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I136" s="54"/>
-    </row>
-    <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="B137" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C137" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="D137" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="E137" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F137" s="61"/>
-      <c r="G137" s="61"/>
-      <c r="H137" s="54" t="s">
+    </row>
+    <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
+      <c r="A141" s="73"/>
+      <c r="B141" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C141" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="D141" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E141" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F141" s="59"/>
+      <c r="G141" s="59"/>
+      <c r="H141" s="52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="70"/>
-      <c r="B138" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="C138" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="D138" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F138" s="61"/>
-      <c r="G138" s="61"/>
-      <c r="H138" s="54" t="s">
+    <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
+      <c r="A142" s="73"/>
+      <c r="B142" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D142" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E142" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F142" s="59"/>
+      <c r="G142" s="59"/>
+      <c r="H142" s="52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="70"/>
-      <c r="B139" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C139" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="D139" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="E139" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F139" s="61"/>
-      <c r="G139" s="61"/>
-      <c r="H139" s="54" t="s">
+    <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A143" s="73"/>
+      <c r="B143" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C143" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D143" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E143" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F143" s="59"/>
+      <c r="G143" s="59"/>
+      <c r="H143" s="52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="70"/>
-      <c r="B140" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="C140" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="D140" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="E140" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="F140" s="61"/>
-      <c r="G140" s="61"/>
-      <c r="H140" s="54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="70"/>
-      <c r="B141" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="C141" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="D141" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="E141" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F141" s="61"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="70"/>
-      <c r="B142" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C142" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="D142" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="E142" s="33" t="s">
+    <row r="144" spans="1:10" ht="49.5">
+      <c r="A144" s="73"/>
+      <c r="B144" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F142" s="61"/>
-      <c r="G142" s="61"/>
-      <c r="H142" s="54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="70"/>
-      <c r="B143" s="36" t="s">
+      <c r="C144" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="C143" s="61" t="s">
+      <c r="D144" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E144" s="62" t="s">
         <v>244</v>
-      </c>
-      <c r="D143" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="E143" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F143" s="61"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="70"/>
-      <c r="B144" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C144" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="D144" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="E144" s="64" t="s">
-        <v>248</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H144" s="54" t="s">
+      <c r="H144" s="52" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="49.5">
-      <c r="A145" s="70" t="s">
+      <c r="A145" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C145" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="D145" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="E145" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="F145" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C145" s="78" t="s">
+      <c r="G145" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="73"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="D145" s="65" t="s">
+      <c r="E146" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="E145" s="33" t="s">
+      <c r="F146" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="G146" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="73"/>
+      <c r="C147" s="70"/>
+      <c r="D147" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="G145" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="70"/>
-      <c r="C146" s="78"/>
-      <c r="D146" s="65" t="s">
+      <c r="E147" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="E146" s="33" t="s">
+      <c r="G147" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="73"/>
+      <c r="C148" s="70"/>
+      <c r="D148" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="F146" s="6" t="s">
+      <c r="E148" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="G146" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="70"/>
-      <c r="C147" s="78"/>
-      <c r="D147" s="65" t="s">
+      <c r="G148" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="73"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="E147" s="33" t="s">
+      <c r="E149" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="G147" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="70"/>
-      <c r="C148" s="78"/>
-      <c r="D148" s="65" t="s">
+      <c r="G149" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="73"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="E148" s="33" t="s">
+      <c r="E150" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="G148" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="70"/>
-      <c r="C149" s="78"/>
-      <c r="D149" s="65" t="s">
+      <c r="G150" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="33">
+      <c r="A151" s="73"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="E149" s="33" t="s">
+      <c r="E151" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G149" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="70"/>
-      <c r="C150" s="78"/>
-      <c r="D150" s="65" t="s">
+      <c r="G151" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="73"/>
+      <c r="C152" s="70"/>
+      <c r="D152" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="E150" s="33" t="s">
+      <c r="E152" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="G150" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="33">
-      <c r="A151" s="70"/>
-      <c r="C151" s="78"/>
-      <c r="D151" s="65" t="s">
+      <c r="G152" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="73"/>
+      <c r="C153" s="70"/>
+      <c r="D153" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E153" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="G151" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="70"/>
-      <c r="C152" s="78"/>
-      <c r="D152" s="65" t="s">
+      <c r="G153" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="73"/>
+      <c r="C154" s="70"/>
+      <c r="D154" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="E152" s="33" t="s">
+      <c r="E154" s="33" t="s">
         <v>269</v>
-      </c>
-      <c r="G152" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="70"/>
-      <c r="C153" s="78"/>
-      <c r="D153" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G153" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="70"/>
-      <c r="C154" s="78"/>
-      <c r="D154" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="E154" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="G154" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="70"/>
-      <c r="C155" s="78"/>
-      <c r="D155" s="65" t="s">
-        <v>274</v>
+      <c r="A155" s="73"/>
+      <c r="C155" s="70"/>
+      <c r="D155" s="63" t="s">
+        <v>270</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G155" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="70"/>
-      <c r="C156" s="78"/>
-      <c r="D156" s="65" t="s">
+      <c r="A156" s="73"/>
+      <c r="C156" s="70"/>
+      <c r="D156" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="E156" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="33">
+      <c r="A157" s="73"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="E157" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="49.5">
+      <c r="A158" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E156" s="33" t="s">
+      <c r="C158" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="G156" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="33">
-      <c r="A157" s="70"/>
-      <c r="C157" s="78"/>
-      <c r="D157" s="65" t="s">
+      <c r="D158" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="E158" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E157" s="33" t="s">
+      <c r="G158" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="73"/>
+      <c r="C159" s="70"/>
+      <c r="D159" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E159" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="G157" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="49.5">
-      <c r="A158" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="B158" s="6" t="s">
+      <c r="G159" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="73"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E160" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C158" s="78" t="s">
+      <c r="G160" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="73"/>
+      <c r="C161" s="70"/>
+      <c r="D161" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E161" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="D158" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="E158" s="9" t="s">
+      <c r="G161" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="73"/>
+      <c r="C162" s="70"/>
+      <c r="D162" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E162" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="G158" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="70"/>
-      <c r="C159" s="78"/>
-      <c r="D159" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="E159" s="33" t="s">
+      <c r="G162" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="73"/>
+      <c r="C163" s="70"/>
+      <c r="D163" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E163" s="33" t="s">
         <v>283</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="70"/>
-      <c r="C160" s="78"/>
-      <c r="D160" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G160" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="70"/>
-      <c r="C161" s="78"/>
-      <c r="D161" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="E161" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="G161" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="70"/>
-      <c r="C162" s="78"/>
-      <c r="D162" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="E162" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="G162" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="70"/>
-      <c r="C163" s="78"/>
-      <c r="D163" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="E163" s="33" t="s">
-        <v>287</v>
       </c>
       <c r="G163" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="70"/>
-      <c r="C164" s="78"/>
-      <c r="D164" s="65" t="s">
-        <v>276</v>
+      <c r="A164" s="73"/>
+      <c r="C164" s="70"/>
+      <c r="D164" s="63" t="s">
+        <v>272</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G164" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="70" t="s">
-        <v>249</v>
+      <c r="A165" s="73" t="s">
+        <v>245</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C165" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D165" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="E165" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="73"/>
+      <c r="C166" s="70"/>
+      <c r="D166" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="73"/>
+      <c r="C167" s="70"/>
+      <c r="D167" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="73"/>
+      <c r="C168" s="70"/>
+      <c r="D168" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="E168" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C165" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="D165" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="E165" s="33" t="s">
+      <c r="G168" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="73"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="G165" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="70"/>
-      <c r="C166" s="78"/>
-      <c r="D166" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="E166" s="9" t="s">
+      <c r="E169" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="G166" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="70"/>
-      <c r="C167" s="78"/>
-      <c r="D167" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="E167" s="9" t="s">
+      <c r="G169" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="73"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E170" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="G167" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="70"/>
-      <c r="C168" s="78"/>
-      <c r="D168" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="E168" s="9" t="s">
+      <c r="G170" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="73"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G168" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="70"/>
-      <c r="C169" s="78"/>
-      <c r="D169" s="65" t="s">
+      <c r="E171" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="G171" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="73"/>
+      <c r="C172" s="70"/>
+      <c r="D172" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E172" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="G169" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="70"/>
-      <c r="C170" s="78"/>
-      <c r="D170" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="G170" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="70"/>
-      <c r="C171" s="78"/>
-      <c r="D171" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G171" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="70"/>
-      <c r="C172" s="78"/>
-      <c r="D172" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>299</v>
       </c>
       <c r="G172" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="70"/>
-      <c r="C173" s="78"/>
-      <c r="D173" s="65" t="s">
-        <v>274</v>
+      <c r="A173" s="73"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="63" t="s">
+        <v>270</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G173" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="70"/>
-      <c r="C174" s="78"/>
-      <c r="D174" s="65" t="s">
-        <v>276</v>
+      <c r="A174" s="73"/>
+      <c r="C174" s="70"/>
+      <c r="D174" s="63" t="s">
+        <v>272</v>
       </c>
       <c r="E174" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="33">
+      <c r="A175" s="73"/>
+      <c r="C175" s="70"/>
+      <c r="D175" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C176" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D176" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="E176" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="73"/>
+      <c r="C177" s="70"/>
+      <c r="D177" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="E177" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="G174" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="33">
-      <c r="A175" s="70"/>
-      <c r="C175" s="78"/>
-      <c r="D175" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="E175" s="9" t="s">
+      <c r="G177" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="73"/>
+      <c r="C178" s="70"/>
+      <c r="D178" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="E178" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="G175" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="B176" s="6" t="s">
+      <c r="G178" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="73"/>
+      <c r="C179" s="70"/>
+      <c r="D179" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="E179" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C176" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="D176" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="E176" s="33" t="s">
+      <c r="G179" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="73"/>
+      <c r="C180" s="70"/>
+      <c r="D180" s="63" t="s">
+        <v>290</v>
+      </c>
+      <c r="E180" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="G176" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="70"/>
-      <c r="C177" s="78"/>
-      <c r="D177" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="E177" s="9" t="s">
+      <c r="G180" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="73"/>
+      <c r="C181" s="70"/>
+      <c r="D181" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E181" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G177" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="70"/>
-      <c r="C178" s="78"/>
-      <c r="D178" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="E178" s="9" t="s">
+      <c r="G181" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="73"/>
+      <c r="C182" s="70"/>
+      <c r="D182" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E182" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G178" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="70"/>
-      <c r="C179" s="78"/>
-      <c r="D179" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="E179" s="9" t="s">
+      <c r="G182" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="66">
+      <c r="A183" s="73"/>
+      <c r="C183" s="70"/>
+      <c r="D183" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E183" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="G179" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="70"/>
-      <c r="C180" s="78"/>
-      <c r="D180" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="E180" s="9" t="s">
+      <c r="G183" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="73"/>
+      <c r="C184" s="70"/>
+      <c r="D184" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E184" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="G180" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="70"/>
-      <c r="C181" s="78"/>
-      <c r="D181" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G181" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="70"/>
-      <c r="C182" s="78"/>
-      <c r="D182" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="G182" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="70"/>
-      <c r="C183" s="78"/>
-      <c r="D183" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="G183" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="70"/>
-      <c r="C184" s="78"/>
-      <c r="D184" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>312</v>
       </c>
       <c r="G184" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="70"/>
-      <c r="C185" s="78"/>
-      <c r="D185" s="65" t="s">
-        <v>278</v>
+      <c r="A185" s="73"/>
+      <c r="C185" s="70"/>
+      <c r="D185" s="63" t="s">
+        <v>274</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G185" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="66">
-      <c r="A186" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="C186" s="66" t="s">
-        <v>315</v>
-      </c>
-      <c r="D186" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="E186" s="64" t="s">
-        <v>316</v>
+      <c r="A186" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C186" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="D186" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="E186" s="62" t="s">
+        <v>312</v>
       </c>
       <c r="G186" s="12" t="s">
         <v>130</v>
@@ -6349,17 +6363,17 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="99">
-      <c r="A187" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="C187" s="66" t="s">
-        <v>318</v>
-      </c>
-      <c r="D187" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="E187" s="64" t="s">
-        <v>320</v>
+      <c r="A187" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="C187" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D187" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="E187" s="62" t="s">
+        <v>316</v>
       </c>
       <c r="G187" s="12" t="s">
         <v>130</v>
@@ -6369,17 +6383,17 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="66">
-      <c r="A188" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="C188" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="D188" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="E188" s="64" t="s">
-        <v>324</v>
+      <c r="A188" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="C188" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D188" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="E188" s="62" t="s">
+        <v>320</v>
       </c>
       <c r="G188" s="12" t="s">
         <v>130</v>
@@ -6389,17 +6403,17 @@
       </c>
     </row>
     <row r="189" spans="1:8" ht="49.5">
-      <c r="A189" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="C189" s="66" t="s">
-        <v>326</v>
-      </c>
-      <c r="D189" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="E189" s="64" t="s">
-        <v>328</v>
+      <c r="A189" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C189" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="D189" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="E189" s="62" t="s">
+        <v>324</v>
       </c>
       <c r="G189" s="12" t="s">
         <v>130</v>
@@ -6410,16 +6424,16 @@
     </row>
     <row r="190" spans="1:8" ht="82.5">
       <c r="A190" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C190" s="66" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="C190" s="64" t="s">
+        <v>326</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G190" s="12" t="s">
         <v>130</v>
@@ -6429,56 +6443,56 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="70" t="s">
-        <v>333</v>
+      <c r="A191" s="73" t="s">
+        <v>329</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="C191" s="68" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+      <c r="C191" s="66" t="s">
+        <v>331</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G191" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="70"/>
+      <c r="A192" s="73"/>
       <c r="B192" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C192" s="68" t="s">
-        <v>338</v>
+        <v>333</v>
+      </c>
+      <c r="C192" s="66" t="s">
+        <v>334</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="E192" s="69" t="s">
-        <v>339</v>
+        <v>333</v>
+      </c>
+      <c r="E192" s="67" t="s">
+        <v>335</v>
       </c>
       <c r="G192" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="70"/>
+      <c r="A193" s="73"/>
       <c r="B193" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="C193" s="68" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="C193" s="66" t="s">
+        <v>337</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G193" s="12" t="s">
         <v>144</v>
@@ -6486,16 +6500,16 @@
     </row>
     <row r="194" spans="1:7" ht="99">
       <c r="A194" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C194" s="68" t="s">
-        <v>344</v>
+        <v>339</v>
+      </c>
+      <c r="C194" s="66" t="s">
+        <v>340</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E194" s="33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G194" s="12" t="s">
         <v>130</v>
@@ -6507,25 +6521,21 @@
   </sheetData>
   <autoFilter ref="H1:H195"/>
   <mergeCells count="50">
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6542,21 +6552,25 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -6610,6 +6624,9 @@
     <hyperlink ref="E97" r:id="rId48"/>
     <hyperlink ref="E98" r:id="rId49"/>
     <hyperlink ref="E115" r:id="rId50"/>
+    <hyperlink ref="E105" r:id="rId51"/>
+    <hyperlink ref="E110" r:id="rId52"/>
+    <hyperlink ref="E111" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6628,7 +6645,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6636,7 +6653,7 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -6698,22 +6715,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -6742,19 +6759,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" t="s">
         <v>349</v>
       </c>
-      <c r="D2" t="s">
-        <v>353</v>
-      </c>
       <c r="E2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" t="s">
         <v>350</v>
       </c>
-      <c r="F2" t="s">
-        <v>354</v>
-      </c>
       <c r="G2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6783,19 +6800,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -6824,19 +6841,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6862,25 +6879,25 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -6909,19 +6926,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6950,19 +6967,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -6991,19 +7008,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7029,25 +7046,25 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7073,25 +7090,25 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7120,22 +7137,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7161,25 +7178,25 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -7205,25 +7222,25 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C13" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D13" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G13" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H13" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7249,25 +7266,25 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F14" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7296,22 +7313,22 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F15" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H15" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -7340,22 +7357,22 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G16" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H16" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -7384,19 +7401,19 @@
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D17" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -7425,19 +7442,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F18" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H18" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -7466,19 +7483,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D19" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E19" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F19" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -7507,19 +7524,19 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -7548,19 +7565,19 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D21" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F21" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H21" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -7589,19 +7606,19 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E22" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F22" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -7630,22 +7647,22 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D23" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E23" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G23" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H23" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -7674,22 +7691,22 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D24" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E24" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F24" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G24" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7718,22 +7735,22 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D25" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E25" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G25" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H25" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -7762,22 +7779,22 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D26" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F26" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G26" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H26" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -7806,22 +7823,22 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D27" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E27" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H27" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -7850,22 +7867,22 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D28" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E28" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F28" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G28" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H28" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -7894,22 +7911,22 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E29" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F29" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G29" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -7938,22 +7955,22 @@
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D30" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E30" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F30" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G30" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -7982,22 +7999,22 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D31" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E31" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F31" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G31" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H31" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -8026,22 +8043,22 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G32" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8070,22 +8087,22 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F33" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G33" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H33" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -8114,22 +8131,22 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D34" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E34" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F34" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G34" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H34" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -8158,22 +8175,22 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D35" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E35" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F35" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G35" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H35" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8202,22 +8219,22 @@
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D36" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E36" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G36" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H36" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8246,22 +8263,22 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D37" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E37" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G37" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H37" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8290,22 +8307,22 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D38" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E38" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F38" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H38" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8334,22 +8351,22 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D39" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E39" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F39" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G39" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H39" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -8378,22 +8395,22 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D40" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E40" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F40" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G40" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H40" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8422,22 +8439,22 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D41" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F41" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H41" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -8466,22 +8483,22 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D42" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E42" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F42" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G42" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H42" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -8510,22 +8527,22 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D43" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E43" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F43" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G43" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H43" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8554,22 +8571,22 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D44" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E44" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F44" t="s">
         <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H44" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8598,22 +8615,22 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D45" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E45" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F45" t="s">
         <v>138</v>
       </c>
       <c r="G45" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H45" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8642,22 +8659,22 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D46" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E46" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F46" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G46" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H46" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8686,22 +8703,22 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D47" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E47" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F47" t="s">
         <v>149</v>
       </c>
       <c r="G47" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H47" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8730,22 +8747,22 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D48" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E48" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F48" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G48" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H48" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8774,22 +8791,22 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D49" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E49" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F49" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G49" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H49" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -8818,22 +8835,22 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D50" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E50" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F50" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G50" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H50" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -8862,22 +8879,22 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D51" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E51" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F51" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G51" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H51" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -8906,22 +8923,22 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D52" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E52" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F52" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G52" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H52" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -8950,22 +8967,22 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D53" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E53" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F53" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G53" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H53" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -8994,22 +9011,22 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D54" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E54" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F54" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G54" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H54" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -9038,22 +9055,22 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D55" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E55" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F55" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G55" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H55" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -9082,22 +9099,22 @@
         <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D56" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E56" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F56" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G56" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H56" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -9126,22 +9143,22 @@
         <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D57" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E57" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F57" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G57" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H57" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -9170,22 +9187,22 @@
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D58" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E58" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F58" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G58" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H58" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -9214,22 +9231,22 @@
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D59" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F59" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G59" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H59" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -9258,22 +9275,22 @@
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D60" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E60" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F60" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H60" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -9302,19 +9319,19 @@
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D61" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E61" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F61" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H61" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -9343,19 +9360,19 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D62" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E62" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F62" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H62" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -9384,19 +9401,19 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D63" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E63" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F63" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H63" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -9425,19 +9442,19 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D64" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E64" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F64" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H64" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -9466,22 +9483,22 @@
         <v>88</v>
       </c>
       <c r="C65" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D65" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E65" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G65" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H65" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -9510,22 +9527,22 @@
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D66" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E66" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F66" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G66" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H66" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -9554,22 +9571,22 @@
         <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D67" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E67" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F67" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G67" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H67" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -9598,22 +9615,22 @@
         <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D68" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E68" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F68" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G68" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H68" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -9642,16 +9659,16 @@
         <v>52</v>
       </c>
       <c r="D69" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E69" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F69" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G69" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -9680,13 +9697,13 @@
         <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E70" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F70" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -9715,19 +9732,19 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D71">
         <v>85757</v>
       </c>
       <c r="E71" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F71" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H71" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -9756,19 +9773,19 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D72">
         <v>85757</v>
       </c>
       <c r="E72" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F72" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H72" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -9797,19 +9814,19 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D73">
         <v>1357</v>
       </c>
       <c r="E73" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F73" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H73" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -9838,22 +9855,22 @@
         <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D74" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E74" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F74" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G74" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H74" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -9882,22 +9899,22 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D75" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E75" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F75" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G75" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H75" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -9926,22 +9943,22 @@
         <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D76" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E76" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F76" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G76" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H76" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -9970,16 +9987,16 @@
         <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E77" t="s">
+        <v>374</v>
+      </c>
+      <c r="F77" t="s">
+        <v>510</v>
+      </c>
+      <c r="G77" t="s">
         <v>378</v>
-      </c>
-      <c r="F77" t="s">
-        <v>514</v>
-      </c>
-      <c r="G77" t="s">
-        <v>382</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -10008,22 +10025,22 @@
         <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D78" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E78" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F78" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G78" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H78" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -10052,22 +10069,22 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D79" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E79" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F79" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G79" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H79" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -10096,22 +10113,22 @@
         <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D80" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E80" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F80" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G80" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H80" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -10140,22 +10157,22 @@
         <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D81" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E81" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F81" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G81" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H81" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -10184,19 +10201,19 @@
         <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D82" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E82" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F82" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H82" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -10225,22 +10242,22 @@
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D83" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E83" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F83" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G83" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H83" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -10269,22 +10286,22 @@
         <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D84" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E84" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F84" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G84" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H84" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -10313,22 +10330,22 @@
         <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D85" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E85" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F85" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G85" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H85" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -10357,22 +10374,22 @@
         <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D86" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E86" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F86" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G86" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H86" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -10401,22 +10418,22 @@
         <v>47</v>
       </c>
       <c r="C87" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D87" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E87" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F87" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G87" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H87" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -10445,22 +10462,22 @@
         <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D88" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E88" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F88" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G88" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H88" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -10489,22 +10506,22 @@
         <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D89" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E89" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F89" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G89" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H89" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -10533,22 +10550,22 @@
         <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D90" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E90" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F90" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G90" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H90" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -10577,22 +10594,22 @@
         <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D91" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E91" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F91" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G91" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H91" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -10621,22 +10638,22 @@
         <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D92" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E92" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F92" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G92" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H92" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -10665,22 +10682,22 @@
         <v>49</v>
       </c>
       <c r="C93" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D93" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E93" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F93" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G93" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H93" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -10709,22 +10726,22 @@
         <v>49</v>
       </c>
       <c r="C94" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D94" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E94" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F94" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G94" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H94" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -10753,22 +10770,22 @@
         <v>49</v>
       </c>
       <c r="C95" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D95" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E95" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F95" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G95" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H95" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -10797,22 +10814,22 @@
         <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E96" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F96" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G96" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H96" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -10841,22 +10858,22 @@
         <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D97" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E97" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F97" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G97" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H97" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -10885,22 +10902,22 @@
         <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D98" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E98" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F98" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G98" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H98" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -10929,22 +10946,22 @@
         <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D99" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E99" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F99" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G99" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H99" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -10973,22 +10990,22 @@
         <v>38</v>
       </c>
       <c r="C100" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D100" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E100" t="s">
+        <v>374</v>
+      </c>
+      <c r="F100" t="s">
+        <v>556</v>
+      </c>
+      <c r="G100" t="s">
         <v>378</v>
       </c>
-      <c r="F100" t="s">
-        <v>560</v>
-      </c>
-      <c r="G100" t="s">
-        <v>382</v>
-      </c>
       <c r="H100" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -11017,22 +11034,22 @@
         <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D101" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E101" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F101" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G101" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H101" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -11061,22 +11078,22 @@
         <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D102" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E102" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F102" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G102" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H102" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -11105,22 +11122,22 @@
         <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D103" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E103" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F103" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G103" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H103" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -11149,22 +11166,22 @@
         <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D104" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E104" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F104" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G104" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H104" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -11193,22 +11210,22 @@
         <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D105" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E105" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F105" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G105" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H105" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -11237,22 +11254,22 @@
         <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D106" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E106" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F106" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G106" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H106" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -11281,22 +11298,22 @@
         <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D107" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E107" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F107" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G107" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H107" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -11325,22 +11342,22 @@
         <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D108" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E108" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G108" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H108" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -11369,22 +11386,22 @@
         <v>52</v>
       </c>
       <c r="C109" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D109" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E109" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F109" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G109" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H109" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -11413,22 +11430,22 @@
         <v>52</v>
       </c>
       <c r="C110" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D110" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E110" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F110" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G110" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H110" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -11454,25 +11471,25 @@
         <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C111" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D111" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E111" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F111" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G111" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H111" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -11501,22 +11518,22 @@
         <v>167</v>
       </c>
       <c r="C112" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D112" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E112" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F112" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G112" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H112" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -11531,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -11545,22 +11562,22 @@
         <v>168</v>
       </c>
       <c r="C113" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D113" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E113" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F113" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G113" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H113" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -11575,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -11589,22 +11606,22 @@
         <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D114" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E114" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F114" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G114" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H114" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I114">
         <v>1</v>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\crawler-scrapy\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\crawler-scrapy\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2202,31 +2202,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2241,8 +2229,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3174,11 +3174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="6" customWidth="1"/>
@@ -3219,13 +3219,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="78" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3240,9 +3240,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="69"/>
+      <c r="A3" s="69"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
@@ -3255,9 +3255,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="73"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="69"/>
+      <c r="A4" s="69"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
@@ -3269,9 +3269,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="73"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="71" t="s">
+      <c r="A5" s="69"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="79" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -3286,9 +3286,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="73"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="72"/>
+      <c r="A6" s="69"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3301,9 +3301,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="73"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="72"/>
+      <c r="A7" s="69"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3316,9 +3316,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="73"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="68" t="s">
+      <c r="A8" s="69"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="81" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -3333,9 +3333,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="73"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="68"/>
+      <c r="A9" s="69"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="19" t="s">
         <v>23</v>
       </c>
@@ -3348,9 +3348,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="73"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="68"/>
+      <c r="A10" s="69"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
@@ -3363,9 +3363,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="73"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="71" t="s">
+      <c r="A11" s="69"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="79" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -3380,9 +3380,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="73"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="72"/>
+      <c r="A12" s="69"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3395,9 +3395,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="73"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="69" t="s">
+      <c r="A13" s="69"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="78" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -3411,9 +3411,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="73"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="69"/>
+      <c r="A14" s="69"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
@@ -3425,9 +3425,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="73"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="69" t="s">
+      <c r="A15" s="69"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="78" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -3441,9 +3441,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="73"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="69"/>
+      <c r="A16" s="69"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
@@ -3455,9 +3455,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="73"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="69"/>
+      <c r="A17" s="69"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="20" t="s">
         <v>34</v>
       </c>
@@ -3469,9 +3469,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="73"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="69" t="s">
+      <c r="A18" s="69"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="78" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -3485,9 +3485,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="73"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="69"/>
+      <c r="A19" s="69"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="13" t="s">
         <v>37</v>
       </c>
@@ -3500,9 +3500,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="73"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="69"/>
+      <c r="A20" s="69"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
@@ -3515,9 +3515,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="73"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="71" t="s">
+      <c r="A21" s="69"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="79" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -3532,9 +3532,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="73"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="72"/>
+      <c r="A22" s="69"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="13" t="s">
         <v>41</v>
       </c>
@@ -3547,9 +3547,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="73"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="69" t="s">
+      <c r="A23" s="69"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="78" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -3563,9 +3563,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="73"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="69"/>
+      <c r="A24" s="69"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
@@ -3577,9 +3577,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="73"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="68" t="s">
+      <c r="A25" s="69"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="81" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -3594,9 +3594,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="73"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="68"/>
+      <c r="A26" s="69"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
@@ -3609,9 +3609,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="73"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="69" t="s">
+      <c r="A27" s="69"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="78" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3628,9 +3628,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="73"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="69"/>
+      <c r="A28" s="69"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="16" t="s">
         <v>51</v>
       </c>
@@ -3645,9 +3645,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="73"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="69" t="s">
+      <c r="A29" s="69"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="78" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -3661,9 +3661,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="73"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="69"/>
+      <c r="A30" s="69"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="23" t="s">
         <v>54</v>
       </c>
@@ -3675,9 +3675,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="73"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="69"/>
+      <c r="A31" s="69"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
@@ -3689,9 +3689,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="73"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="68" t="s">
+      <c r="A32" s="69"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="81" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3706,9 +3706,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="73"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="68"/>
+      <c r="A33" s="69"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
@@ -3721,9 +3721,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="73"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="68" t="s">
+      <c r="A34" s="69"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="81" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -3738,9 +3738,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="73"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="68"/>
+      <c r="A35" s="69"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="81"/>
       <c r="E35" s="24" t="s">
         <v>60</v>
       </c>
@@ -3753,9 +3753,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="73"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="68"/>
+      <c r="A36" s="69"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="81"/>
       <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
@@ -3768,9 +3768,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="73"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="69" t="s">
+      <c r="A37" s="69"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="78" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="25" t="s">
@@ -3784,9 +3784,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="73"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="69"/>
+      <c r="A38" s="69"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="25" t="s">
         <v>64</v>
       </c>
@@ -3798,9 +3798,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="73"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="68" t="s">
+      <c r="A39" s="69"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="81" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -3815,9 +3815,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="73"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="68"/>
+      <c r="A40" s="69"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="81"/>
       <c r="E40" s="24" t="s">
         <v>67</v>
       </c>
@@ -3830,9 +3830,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="73"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="68"/>
+      <c r="A41" s="69"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="81"/>
       <c r="E41" s="24" t="s">
         <v>68</v>
       </c>
@@ -3844,10 +3844,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="73"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="68" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="69"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="81" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -3862,9 +3862,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="73"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="68"/>
+      <c r="A43" s="69"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="81"/>
       <c r="E43" s="26" t="s">
         <v>72</v>
       </c>
@@ -3877,9 +3877,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="73"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="68" t="s">
+      <c r="A44" s="69"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="81" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -3894,9 +3894,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="73"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="68"/>
+      <c r="A45" s="69"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="81"/>
       <c r="E45" s="26" t="s">
         <v>75</v>
       </c>
@@ -3909,9 +3909,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="73"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="68" t="s">
+      <c r="A46" s="69"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="81" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="27" t="s">
@@ -3926,9 +3926,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="73"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="68"/>
+      <c r="A47" s="69"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="81"/>
       <c r="E47" s="26" t="s">
         <v>78</v>
       </c>
@@ -3941,9 +3941,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="73"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="68"/>
+      <c r="A48" s="69"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="81"/>
       <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
@@ -3956,9 +3956,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="73"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="68"/>
+      <c r="A49" s="69"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="81"/>
       <c r="E49" s="26" t="s">
         <v>80</v>
       </c>
@@ -3970,10 +3970,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="73"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="69" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="69"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="78" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="28" t="s">
@@ -3987,9 +3987,9 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="73"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="69"/>
+      <c r="A51" s="69"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="28" t="s">
         <v>84</v>
       </c>
@@ -4001,9 +4001,9 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="73"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="69" t="s">
+      <c r="A52" s="69"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="78" t="s">
         <v>85</v>
       </c>
       <c r="E52" s="28" t="s">
@@ -4017,9 +4017,9 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="73"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="69"/>
+      <c r="A53" s="69"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="78"/>
       <c r="E53" s="28" t="s">
         <v>87</v>
       </c>
@@ -4031,9 +4031,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="73"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="69"/>
+      <c r="A54" s="69"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="78"/>
       <c r="E54" s="28" t="s">
         <v>88</v>
       </c>
@@ -4045,9 +4045,9 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="73"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="68" t="s">
+      <c r="A55" s="69"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="81" t="s">
         <v>89</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -4062,9 +4062,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="73"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="68"/>
+      <c r="A56" s="69"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="81"/>
       <c r="E56" s="26" t="s">
         <v>91</v>
       </c>
@@ -4077,9 +4077,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="73"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="68" t="s">
+      <c r="A57" s="69"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="81" t="s">
         <v>92</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -4094,9 +4094,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="73"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="68"/>
+      <c r="A58" s="69"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="81"/>
       <c r="E58" s="26" t="s">
         <v>94</v>
       </c>
@@ -4109,9 +4109,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="73"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="68" t="s">
+      <c r="A59" s="69"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="81" t="s">
         <v>95</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4126,9 +4126,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="73"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="68"/>
+      <c r="A60" s="69"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="81"/>
       <c r="E60" s="26" t="s">
         <v>97</v>
       </c>
@@ -4141,9 +4141,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="73"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="68" t="s">
+      <c r="A61" s="69"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="81" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -4158,9 +4158,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="73"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="68"/>
+      <c r="A62" s="69"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="26" t="s">
         <v>100</v>
       </c>
@@ -4173,9 +4173,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="73"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="68"/>
+      <c r="A63" s="69"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="26" t="s">
         <v>101</v>
       </c>
@@ -4188,9 +4188,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="73"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="68" t="s">
+      <c r="A64" s="69"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="81" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -4205,9 +4205,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="73"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="68"/>
+      <c r="A65" s="69"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="81"/>
       <c r="E65" s="26" t="s">
         <v>104</v>
       </c>
@@ -4219,10 +4219,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="73"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="68" t="s">
+    <row r="66" spans="1:8" ht="30">
+      <c r="A66" s="69"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="81" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -4236,10 +4236,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="73"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="68"/>
+    <row r="67" spans="1:8">
+      <c r="A67" s="69"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="81"/>
       <c r="E67" s="26" t="s">
         <v>107</v>
       </c>
@@ -4251,10 +4251,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="73"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="68" t="s">
+    <row r="68" spans="1:8" ht="45">
+      <c r="A68" s="69"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="81" t="s">
         <v>108</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -4269,9 +4269,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="73"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="68"/>
+      <c r="A69" s="69"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="81"/>
       <c r="E69" s="30" t="s">
         <v>110</v>
       </c>
@@ -4284,9 +4284,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="73"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="68"/>
+      <c r="A70" s="69"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="81"/>
       <c r="E70" s="26" t="s">
         <v>111</v>
       </c>
@@ -4298,10 +4298,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="73"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="68" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="69"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -4315,10 +4315,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="73"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="68"/>
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="69"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="81"/>
       <c r="E72" s="26" t="s">
         <v>114</v>
       </c>
@@ -4330,10 +4330,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="73"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="68" t="s">
+    <row r="73" spans="1:8" ht="30">
+      <c r="A73" s="69"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="81" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -4347,10 +4347,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="73"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="68"/>
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="69"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="81"/>
       <c r="E74" s="26" t="s">
         <v>117</v>
       </c>
@@ -4362,10 +4362,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="73"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="68"/>
+    <row r="75" spans="1:8" ht="30">
+      <c r="A75" s="69"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="81"/>
       <c r="E75" s="26" t="s">
         <v>118</v>
       </c>
@@ -4378,9 +4378,9 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="73"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="68" t="s">
+      <c r="A76" s="69"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="81" t="s">
         <v>119</v>
       </c>
       <c r="E76" s="30" t="s">
@@ -4395,9 +4395,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="73"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="68"/>
+      <c r="A77" s="69"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="81"/>
       <c r="E77" s="30" t="s">
         <v>121</v>
       </c>
@@ -4409,10 +4409,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="73"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="68" t="s">
+    <row r="78" spans="1:8" ht="60">
+      <c r="A78" s="69"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="81" t="s">
         <v>122</v>
       </c>
       <c r="E78" s="30" t="s">
@@ -4427,9 +4427,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="73"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="68"/>
+      <c r="A79" s="69"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="81"/>
       <c r="E79" s="30" t="s">
         <v>124</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="99">
+    <row r="80" spans="1:8" ht="90">
       <c r="A80" s="11" t="s">
         <v>125</v>
       </c>
@@ -4464,8 +4464,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="73" t="s">
+    <row r="81" spans="1:8" ht="30">
+      <c r="A81" s="69" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4487,8 +4487,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="73"/>
+    <row r="82" spans="1:8" ht="30">
+      <c r="A82" s="69"/>
       <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
@@ -4508,8 +4508,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="76" t="s">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="60">
+      <c r="A83" s="70" t="s">
         <v>138</v>
       </c>
       <c r="B83" s="36" t="s">
@@ -4532,8 +4532,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="76"/>
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="60">
+      <c r="A84" s="70"/>
       <c r="B84" s="36" t="s">
         <v>142</v>
       </c>
@@ -4554,8 +4554,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="76"/>
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="90">
+      <c r="A85" s="70"/>
       <c r="B85" s="36" t="s">
         <v>145</v>
       </c>
@@ -4576,8 +4576,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="76"/>
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="60">
+      <c r="A86" s="70"/>
       <c r="B86" s="36" t="s">
         <v>147</v>
       </c>
@@ -4599,13 +4599,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="69" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="74" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -4622,11 +4622,11 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="73"/>
-      <c r="B88" s="73" t="s">
+      <c r="A88" s="69"/>
+      <c r="B88" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="78"/>
+      <c r="C88" s="74"/>
       <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
@@ -4641,9 +4641,9 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="74"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="79"/>
+      <c r="A89" s="71"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="75"/>
       <c r="D89" s="40" t="s">
         <v>17</v>
       </c>
@@ -4661,9 +4661,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="73"/>
-      <c r="B90" s="73"/>
-      <c r="C90" s="78"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="74"/>
       <c r="D90" s="8" t="s">
         <v>25</v>
       </c>
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="73"/>
-      <c r="B91" s="73"/>
-      <c r="C91" s="78"/>
+    <row r="91" spans="1:8" ht="30">
+      <c r="A91" s="69"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="74"/>
       <c r="D91" s="42" t="s">
         <v>45</v>
       </c>
@@ -4700,10 +4700,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="73"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="78"/>
+    <row r="92" spans="1:8">
+      <c r="A92" s="69"/>
+      <c r="B92" s="69"/>
+      <c r="C92" s="74"/>
       <c r="D92" s="42" t="s">
         <v>55</v>
       </c>
@@ -4719,9 +4719,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="73"/>
-      <c r="B93" s="73"/>
-      <c r="C93" s="78"/>
+      <c r="A93" s="69"/>
+      <c r="B93" s="69"/>
+      <c r="C93" s="74"/>
       <c r="D93" s="42" t="s">
         <v>42</v>
       </c>
@@ -4739,9 +4739,9 @@
       </c>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A94" s="74"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="79"/>
+      <c r="A94" s="71"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="75"/>
       <c r="D94" s="40" t="s">
         <v>39</v>
       </c>
@@ -4759,9 +4759,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="74"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="79"/>
+      <c r="A95" s="71"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="75"/>
       <c r="D95" s="40" t="s">
         <v>35</v>
       </c>
@@ -4779,9 +4779,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A96" s="74"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="79"/>
+      <c r="A96" s="71"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="75"/>
       <c r="D96" s="40" t="s">
         <v>31</v>
       </c>
@@ -4797,13 +4797,13 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="27">
-      <c r="A97" s="73"/>
-      <c r="B97" s="73"/>
-      <c r="C97" s="78"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="74"/>
       <c r="D97" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="81" t="s">
+      <c r="E97" s="68" t="s">
         <v>580</v>
       </c>
       <c r="F97" s="44" t="s">
@@ -4817,9 +4817,9 @@
       </c>
     </row>
     <row r="98" spans="1:9" s="5" customFormat="1">
-      <c r="A98" s="75"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="80"/>
+      <c r="A98" s="72"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="76"/>
       <c r="D98" s="42" t="s">
         <v>76</v>
       </c>
@@ -4837,9 +4837,9 @@
       </c>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1">
-      <c r="A99" s="74"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="79"/>
+      <c r="A99" s="71"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="75"/>
       <c r="D99" s="40" t="s">
         <v>85</v>
       </c>
@@ -4856,10 +4856,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="33">
-      <c r="A100" s="73"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="78"/>
+    <row r="100" spans="1:9" ht="30">
+      <c r="A100" s="69"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="74"/>
       <c r="D100" s="8" t="s">
         <v>115</v>
       </c>
@@ -4877,9 +4877,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" s="4" customFormat="1">
-      <c r="A101" s="74"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="79"/>
+      <c r="A101" s="71"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="75"/>
       <c r="D101" s="40" t="s">
         <v>119</v>
       </c>
@@ -4897,9 +4897,9 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
-      <c r="B102" s="73"/>
-      <c r="C102" s="78"/>
+      <c r="A102" s="69"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="74"/>
       <c r="D102" s="8" t="s">
         <v>81</v>
       </c>
@@ -4917,9 +4917,9 @@
       </c>
     </row>
     <row r="103" spans="1:9" s="4" customFormat="1">
-      <c r="A103" s="74"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="79"/>
+      <c r="A103" s="71"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="75"/>
       <c r="D103" s="40" t="s">
         <v>52</v>
       </c>
@@ -4934,10 +4934,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A104" s="74"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="79"/>
+    <row r="104" spans="1:9" s="4" customFormat="1" ht="30">
+      <c r="A104" s="71"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="75"/>
       <c r="D104" s="40" t="s">
         <v>95</v>
       </c>
@@ -4955,13 +4955,13 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="27">
-      <c r="A105" s="73"/>
-      <c r="B105" s="73"/>
-      <c r="C105" s="78"/>
+      <c r="A105" s="69"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="74"/>
       <c r="D105" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E105" s="81" t="s">
+      <c r="E105" s="68" t="s">
         <v>577</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -4975,9 +4975,9 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="73"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="78"/>
+      <c r="A106" s="69"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="74"/>
       <c r="D106" s="8" t="s">
         <v>92</v>
       </c>
@@ -4994,10 +4994,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="33">
-      <c r="A107" s="73"/>
-      <c r="B107" s="73"/>
-      <c r="C107" s="78"/>
+    <row r="107" spans="1:9" ht="30">
+      <c r="A107" s="69"/>
+      <c r="B107" s="69"/>
+      <c r="C107" s="74"/>
       <c r="D107" s="8" t="s">
         <v>89</v>
       </c>
@@ -5016,9 +5016,9 @@
       <c r="I107" s="56"/>
     </row>
     <row r="108" spans="1:9" s="4" customFormat="1">
-      <c r="A108" s="74"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="79"/>
+      <c r="A108" s="71"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="75"/>
       <c r="D108" s="40" t="s">
         <v>48</v>
       </c>
@@ -5036,9 +5036,9 @@
       </c>
     </row>
     <row r="109" spans="1:9" s="4" customFormat="1">
-      <c r="A109" s="74"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="79"/>
+      <c r="A109" s="71"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="75"/>
       <c r="D109" s="40" t="s">
         <v>112</v>
       </c>
@@ -5056,9 +5056,9 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="73"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="78"/>
+      <c r="A110" s="69"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="74"/>
       <c r="D110" s="8" t="s">
         <v>28</v>
       </c>
@@ -5072,10 +5072,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="73"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="78"/>
+    <row r="111" spans="1:9" ht="16.5">
+      <c r="A111" s="69"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="74"/>
       <c r="D111" s="8" t="s">
         <v>102</v>
       </c>
@@ -5090,10 +5090,10 @@
       </c>
       <c r="I111" s="56"/>
     </row>
-    <row r="112" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A112" s="74"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="79"/>
+    <row r="112" spans="1:9" s="4" customFormat="1" ht="30">
+      <c r="A112" s="71"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="75"/>
       <c r="D112" s="40" t="s">
         <v>105</v>
       </c>
@@ -5112,9 +5112,9 @@
       <c r="I112" s="57"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="73"/>
-      <c r="B113" s="73"/>
-      <c r="C113" s="78"/>
+      <c r="A113" s="69"/>
+      <c r="B113" s="69"/>
+      <c r="C113" s="74"/>
       <c r="D113" s="40" t="s">
         <v>73</v>
       </c>
@@ -5132,9 +5132,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="73"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="78"/>
+      <c r="A114" s="69"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="74"/>
       <c r="D114" s="40" t="s">
         <v>122</v>
       </c>
@@ -5151,10 +5151,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="73"/>
-      <c r="B115" s="73"/>
-      <c r="C115" s="78"/>
+    <row r="115" spans="1:11">
+      <c r="A115" s="69"/>
+      <c r="B115" s="69"/>
+      <c r="C115" s="74"/>
       <c r="D115" s="8" t="s">
         <v>62</v>
       </c>
@@ -5171,10 +5171,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="73"/>
-      <c r="B116" s="73"/>
-      <c r="C116" s="78"/>
+    <row r="116" spans="1:11" ht="30">
+      <c r="A116" s="69"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="74"/>
       <c r="D116" s="8" t="s">
         <v>58</v>
       </c>
@@ -5191,10 +5191,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="73"/>
-      <c r="B117" s="73"/>
-      <c r="C117" s="78"/>
+    <row r="117" spans="1:11">
+      <c r="A117" s="69"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="74"/>
       <c r="D117" s="40" t="s">
         <v>65</v>
       </c>
@@ -5212,9 +5212,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="73"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="78"/>
+      <c r="A118" s="69"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="74"/>
       <c r="D118" s="40" t="s">
         <v>108</v>
       </c>
@@ -5231,12 +5231,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="73"/>
-      <c r="B119" s="76" t="s">
+    <row r="119" spans="1:11" s="3" customFormat="1">
+      <c r="A119" s="69"/>
+      <c r="B119" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="C119" s="78"/>
+      <c r="C119" s="74"/>
       <c r="D119" s="53" t="s">
         <v>31</v>
       </c>
@@ -5249,17 +5249,17 @@
       <c r="G119" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H119" s="52" t="s">
-        <v>71</v>
+      <c r="H119" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I119" s="52"/>
       <c r="J119" s="52"/>
       <c r="K119" s="52"/>
     </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A120" s="73"/>
-      <c r="B120" s="76"/>
-      <c r="C120" s="78"/>
+    <row r="120" spans="1:11" s="3" customFormat="1" ht="30">
+      <c r="A120" s="69"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="74"/>
       <c r="D120" s="53" t="s">
         <v>39</v>
       </c>
@@ -5272,17 +5272,17 @@
       <c r="G120" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H120" s="52" t="s">
-        <v>71</v>
+      <c r="H120" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I120" s="52"/>
       <c r="J120" s="52"/>
       <c r="K120" s="52"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="73"/>
-      <c r="B121" s="76"/>
-      <c r="C121" s="78"/>
+      <c r="A121" s="69"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="74"/>
       <c r="D121" s="53" t="s">
         <v>95</v>
       </c>
@@ -5295,17 +5295,17 @@
       <c r="G121" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="52" t="s">
-        <v>71</v>
+      <c r="H121" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I121" s="52"/>
       <c r="J121" s="52"/>
       <c r="K121" s="52"/>
     </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="73"/>
-      <c r="B122" s="76"/>
-      <c r="C122" s="78"/>
+    <row r="122" spans="1:11" s="3" customFormat="1">
+      <c r="A122" s="69"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="74"/>
       <c r="D122" s="53" t="s">
         <v>108</v>
       </c>
@@ -5318,16 +5318,16 @@
       <c r="G122" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H122" s="52" t="s">
+      <c r="H122" s="51" t="s">
         <v>71</v>
       </c>
       <c r="I122" s="52"/>
       <c r="J122" s="52"/>
     </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A123" s="73"/>
-      <c r="B123" s="76"/>
-      <c r="C123" s="78"/>
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="30">
+      <c r="A123" s="69"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="74"/>
       <c r="D123" s="53" t="s">
         <v>42</v>
       </c>
@@ -5340,16 +5340,16 @@
       <c r="G123" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="52" t="s">
-        <v>71</v>
+      <c r="H123" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I123" s="52"/>
       <c r="J123" s="52"/>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="73"/>
-      <c r="B124" s="76"/>
-      <c r="C124" s="78"/>
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="30">
+      <c r="A124" s="69"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="74"/>
       <c r="D124" s="53" t="s">
         <v>122</v>
       </c>
@@ -5362,16 +5362,16 @@
       <c r="G124" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H124" s="52" t="s">
-        <v>71</v>
+      <c r="H124" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I124" s="52"/>
       <c r="J124" s="52"/>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="73"/>
-      <c r="B125" s="76"/>
-      <c r="C125" s="78"/>
+    <row r="125" spans="1:11" s="3" customFormat="1">
+      <c r="A125" s="69"/>
+      <c r="B125" s="70"/>
+      <c r="C125" s="74"/>
       <c r="D125" s="53" t="s">
         <v>62</v>
       </c>
@@ -5384,16 +5384,16 @@
       <c r="G125" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H125" s="52" t="s">
-        <v>71</v>
+      <c r="H125" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I125" s="52"/>
       <c r="J125" s="52"/>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="73"/>
-      <c r="B126" s="76"/>
-      <c r="C126" s="78"/>
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="45">
+      <c r="A126" s="69"/>
+      <c r="B126" s="70"/>
+      <c r="C126" s="74"/>
       <c r="D126" s="53" t="s">
         <v>58</v>
       </c>
@@ -5406,14 +5406,14 @@
       <c r="G126" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H126" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="73"/>
-      <c r="B127" s="76"/>
-      <c r="C127" s="78"/>
+      <c r="H126" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="45">
+      <c r="A127" s="69"/>
+      <c r="B127" s="70"/>
+      <c r="C127" s="74"/>
       <c r="D127" s="55" t="s">
         <v>69</v>
       </c>
@@ -5426,14 +5426,14 @@
       <c r="G127" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="52" t="s">
-        <v>71</v>
+      <c r="H127" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="73"/>
-      <c r="B128" s="76"/>
-      <c r="C128" s="78"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="74"/>
       <c r="D128" s="55" t="s">
         <v>76</v>
       </c>
@@ -5446,14 +5446,14 @@
       <c r="G128" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H128" s="52" t="s">
+      <c r="H128" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="73"/>
-      <c r="B129" s="76"/>
-      <c r="C129" s="78"/>
+    <row r="129" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A129" s="69"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="74"/>
       <c r="D129" s="55" t="s">
         <v>98</v>
       </c>
@@ -5466,16 +5466,16 @@
       <c r="G129" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H129" s="52" t="s">
+      <c r="H129" s="51" t="s">
         <v>71</v>
       </c>
       <c r="I129" s="52"/>
       <c r="J129" s="52"/>
     </row>
-    <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="73"/>
-      <c r="B130" s="76"/>
-      <c r="C130" s="78"/>
+    <row r="130" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A130" s="69"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="74"/>
       <c r="D130" s="55" t="s">
         <v>102</v>
       </c>
@@ -5488,15 +5488,15 @@
       <c r="G130" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H130" s="52" t="s">
-        <v>71</v>
+      <c r="H130" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="J130" s="52"/>
     </row>
-    <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="73"/>
-      <c r="B131" s="76"/>
-      <c r="C131" s="78"/>
+    <row r="131" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A131" s="69"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="74"/>
       <c r="D131" s="55" t="s">
         <v>81</v>
       </c>
@@ -5509,14 +5509,14 @@
       <c r="G131" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H131" s="52" t="s">
-        <v>71</v>
+      <c r="H131" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="73"/>
-      <c r="B132" s="76"/>
-      <c r="C132" s="78"/>
+      <c r="A132" s="69"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="74"/>
       <c r="D132" s="55" t="s">
         <v>115</v>
       </c>
@@ -5527,14 +5527,14 @@
       <c r="G132" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="73"/>
-      <c r="B133" s="76"/>
-      <c r="C133" s="78"/>
+      <c r="H132" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A133" s="69"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="74"/>
       <c r="D133" s="55" t="s">
         <v>119</v>
       </c>
@@ -5551,10 +5551,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="73"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="78"/>
+    <row r="134" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A134" s="69"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="74"/>
       <c r="D134" s="55" t="s">
         <v>105</v>
       </c>
@@ -5567,15 +5567,15 @@
       <c r="G134" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="52" t="s">
-        <v>71</v>
+      <c r="H134" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I134" s="52"/>
     </row>
-    <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="73"/>
-      <c r="B135" s="76"/>
-      <c r="C135" s="78"/>
+    <row r="135" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A135" s="69"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="74"/>
       <c r="D135" s="55" t="s">
         <v>85</v>
       </c>
@@ -5588,15 +5588,15 @@
       <c r="G135" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="52" t="s">
-        <v>71</v>
+      <c r="H135" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I135" s="52"/>
     </row>
-    <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="73"/>
-      <c r="B136" s="76"/>
-      <c r="C136" s="78"/>
+    <row r="136" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A136" s="69"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="74"/>
       <c r="D136" s="53" t="s">
         <v>73</v>
       </c>
@@ -5607,13 +5607,13 @@
       <c r="G136" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H136" s="52" t="s">
-        <v>71</v>
+      <c r="H136" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="I136" s="52"/>
     </row>
-    <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="73" t="s">
+    <row r="137" spans="1:10" s="3" customFormat="1" ht="60">
+      <c r="A137" s="69" t="s">
         <v>221</v>
       </c>
       <c r="B137" s="36" t="s">
@@ -5634,8 +5634,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="73"/>
+    <row r="138" spans="1:10" s="3" customFormat="1" ht="90">
+      <c r="A138" s="69"/>
       <c r="B138" s="36" t="s">
         <v>226</v>
       </c>
@@ -5654,8 +5654,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="73"/>
+    <row r="139" spans="1:10" s="3" customFormat="1" ht="90">
+      <c r="A139" s="69"/>
       <c r="B139" s="36" t="s">
         <v>228</v>
       </c>
@@ -5674,8 +5674,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="73"/>
+    <row r="140" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A140" s="69"/>
       <c r="B140" s="36" t="s">
         <v>230</v>
       </c>
@@ -5694,8 +5694,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="73"/>
+    <row r="141" spans="1:10" s="3" customFormat="1" ht="75">
+      <c r="A141" s="69"/>
       <c r="B141" s="36" t="s">
         <v>233</v>
       </c>
@@ -5714,8 +5714,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="73"/>
+    <row r="142" spans="1:10" s="3" customFormat="1" ht="105">
+      <c r="A142" s="69"/>
       <c r="B142" s="36" t="s">
         <v>236</v>
       </c>
@@ -5734,8 +5734,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="73"/>
+    <row r="143" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A143" s="69"/>
       <c r="B143" s="36" t="s">
         <v>239</v>
       </c>
@@ -5754,8 +5754,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="73"/>
+    <row r="144" spans="1:10" ht="45">
+      <c r="A144" s="69"/>
       <c r="B144" s="6" t="s">
         <v>242</v>
       </c>
@@ -5775,14 +5775,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="49.5">
-      <c r="A145" s="73" t="s">
+    <row r="145" spans="1:7" ht="45">
+      <c r="A145" s="69" t="s">
         <v>245</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="70" t="s">
+      <c r="C145" s="77" t="s">
         <v>247</v>
       </c>
       <c r="D145" s="63" t="s">
@@ -5799,8 +5799,8 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="73"/>
-      <c r="C146" s="70"/>
+      <c r="A146" s="69"/>
+      <c r="C146" s="77"/>
       <c r="D146" s="63" t="s">
         <v>251</v>
       </c>
@@ -5815,8 +5815,8 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="73"/>
-      <c r="C147" s="70"/>
+      <c r="A147" s="69"/>
+      <c r="C147" s="77"/>
       <c r="D147" s="63" t="s">
         <v>254</v>
       </c>
@@ -5828,8 +5828,8 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="73"/>
-      <c r="C148" s="70"/>
+      <c r="A148" s="69"/>
+      <c r="C148" s="77"/>
       <c r="D148" s="63" t="s">
         <v>256</v>
       </c>
@@ -5841,8 +5841,8 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="73"/>
-      <c r="C149" s="70"/>
+      <c r="A149" s="69"/>
+      <c r="C149" s="77"/>
       <c r="D149" s="63" t="s">
         <v>258</v>
       </c>
@@ -5854,8 +5854,8 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="73"/>
-      <c r="C150" s="70"/>
+      <c r="A150" s="69"/>
+      <c r="C150" s="77"/>
       <c r="D150" s="63" t="s">
         <v>260</v>
       </c>
@@ -5866,9 +5866,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="33">
-      <c r="A151" s="73"/>
-      <c r="C151" s="70"/>
+    <row r="151" spans="1:7" ht="30">
+      <c r="A151" s="69"/>
+      <c r="C151" s="77"/>
       <c r="D151" s="63" t="s">
         <v>262</v>
       </c>
@@ -5880,8 +5880,8 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="73"/>
-      <c r="C152" s="70"/>
+      <c r="A152" s="69"/>
+      <c r="C152" s="77"/>
       <c r="D152" s="63" t="s">
         <v>264</v>
       </c>
@@ -5893,8 +5893,8 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="73"/>
-      <c r="C153" s="70"/>
+      <c r="A153" s="69"/>
+      <c r="C153" s="77"/>
       <c r="D153" s="63" t="s">
         <v>266</v>
       </c>
@@ -5906,8 +5906,8 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="73"/>
-      <c r="C154" s="70"/>
+      <c r="A154" s="69"/>
+      <c r="C154" s="77"/>
       <c r="D154" s="63" t="s">
         <v>268</v>
       </c>
@@ -5919,8 +5919,8 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="73"/>
-      <c r="C155" s="70"/>
+      <c r="A155" s="69"/>
+      <c r="C155" s="77"/>
       <c r="D155" s="63" t="s">
         <v>270</v>
       </c>
@@ -5932,8 +5932,8 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="73"/>
-      <c r="C156" s="70"/>
+      <c r="A156" s="69"/>
+      <c r="C156" s="77"/>
       <c r="D156" s="63" t="s">
         <v>272</v>
       </c>
@@ -5944,9 +5944,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="33">
-      <c r="A157" s="73"/>
-      <c r="C157" s="70"/>
+    <row r="157" spans="1:7" ht="30">
+      <c r="A157" s="69"/>
+      <c r="C157" s="77"/>
       <c r="D157" s="63" t="s">
         <v>274</v>
       </c>
@@ -5957,14 +5957,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="49.5">
-      <c r="A158" s="73" t="s">
+    <row r="158" spans="1:7" ht="45">
+      <c r="A158" s="69" t="s">
         <v>245</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C158" s="70" t="s">
+      <c r="C158" s="77" t="s">
         <v>277</v>
       </c>
       <c r="D158" s="63" t="s">
@@ -5978,8 +5978,8 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="73"/>
-      <c r="C159" s="70"/>
+      <c r="A159" s="69"/>
+      <c r="C159" s="77"/>
       <c r="D159" s="63" t="s">
         <v>260</v>
       </c>
@@ -5991,8 +5991,8 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="73"/>
-      <c r="C160" s="70"/>
+      <c r="A160" s="69"/>
+      <c r="C160" s="77"/>
       <c r="D160" s="63" t="s">
         <v>264</v>
       </c>
@@ -6004,8 +6004,8 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="73"/>
-      <c r="C161" s="70"/>
+      <c r="A161" s="69"/>
+      <c r="C161" s="77"/>
       <c r="D161" s="63" t="s">
         <v>266</v>
       </c>
@@ -6017,8 +6017,8 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="73"/>
-      <c r="C162" s="70"/>
+      <c r="A162" s="69"/>
+      <c r="C162" s="77"/>
       <c r="D162" s="63" t="s">
         <v>268</v>
       </c>
@@ -6030,8 +6030,8 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="73"/>
-      <c r="C163" s="70"/>
+      <c r="A163" s="69"/>
+      <c r="C163" s="77"/>
       <c r="D163" s="63" t="s">
         <v>270</v>
       </c>
@@ -6043,8 +6043,8 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="73"/>
-      <c r="C164" s="70"/>
+      <c r="A164" s="69"/>
+      <c r="C164" s="77"/>
       <c r="D164" s="63" t="s">
         <v>272</v>
       </c>
@@ -6056,13 +6056,13 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="73" t="s">
+      <c r="A165" s="69" t="s">
         <v>245</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C165" s="70" t="s">
+      <c r="C165" s="77" t="s">
         <v>240</v>
       </c>
       <c r="D165" s="63" t="s">
@@ -6076,8 +6076,8 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="73"/>
-      <c r="C166" s="70"/>
+      <c r="A166" s="69"/>
+      <c r="C166" s="77"/>
       <c r="D166" s="63" t="s">
         <v>254</v>
       </c>
@@ -6089,8 +6089,8 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="73"/>
-      <c r="C167" s="70"/>
+      <c r="A167" s="69"/>
+      <c r="C167" s="77"/>
       <c r="D167" s="63" t="s">
         <v>256</v>
       </c>
@@ -6102,8 +6102,8 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="73"/>
-      <c r="C168" s="70"/>
+      <c r="A168" s="69"/>
+      <c r="C168" s="77"/>
       <c r="D168" s="63" t="s">
         <v>258</v>
       </c>
@@ -6115,8 +6115,8 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="73"/>
-      <c r="C169" s="70"/>
+      <c r="A169" s="69"/>
+      <c r="C169" s="77"/>
       <c r="D169" s="63" t="s">
         <v>290</v>
       </c>
@@ -6128,8 +6128,8 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="73"/>
-      <c r="C170" s="70"/>
+      <c r="A170" s="69"/>
+      <c r="C170" s="77"/>
       <c r="D170" s="63" t="s">
         <v>262</v>
       </c>
@@ -6141,8 +6141,8 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="73"/>
-      <c r="C171" s="70"/>
+      <c r="A171" s="69"/>
+      <c r="C171" s="77"/>
       <c r="D171" s="9" t="s">
         <v>293</v>
       </c>
@@ -6154,8 +6154,8 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="73"/>
-      <c r="C172" s="70"/>
+      <c r="A172" s="69"/>
+      <c r="C172" s="77"/>
       <c r="D172" s="63" t="s">
         <v>268</v>
       </c>
@@ -6167,8 +6167,8 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="73"/>
-      <c r="C173" s="70"/>
+      <c r="A173" s="69"/>
+      <c r="C173" s="77"/>
       <c r="D173" s="63" t="s">
         <v>270</v>
       </c>
@@ -6180,8 +6180,8 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="73"/>
-      <c r="C174" s="70"/>
+      <c r="A174" s="69"/>
+      <c r="C174" s="77"/>
       <c r="D174" s="63" t="s">
         <v>272</v>
       </c>
@@ -6192,9 +6192,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="33">
-      <c r="A175" s="73"/>
-      <c r="C175" s="70"/>
+    <row r="175" spans="1:7">
+      <c r="A175" s="69"/>
+      <c r="C175" s="77"/>
       <c r="D175" s="63" t="s">
         <v>274</v>
       </c>
@@ -6206,13 +6206,13 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="73" t="s">
+      <c r="A176" s="69" t="s">
         <v>245</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C176" s="70" t="s">
+      <c r="C176" s="77" t="s">
         <v>240</v>
       </c>
       <c r="D176" s="63" t="s">
@@ -6226,8 +6226,8 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="73"/>
-      <c r="C177" s="70"/>
+      <c r="A177" s="69"/>
+      <c r="C177" s="77"/>
       <c r="D177" s="63" t="s">
         <v>254</v>
       </c>
@@ -6239,8 +6239,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="73"/>
-      <c r="C178" s="70"/>
+      <c r="A178" s="69"/>
+      <c r="C178" s="77"/>
       <c r="D178" s="63" t="s">
         <v>256</v>
       </c>
@@ -6252,8 +6252,8 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="73"/>
-      <c r="C179" s="70"/>
+      <c r="A179" s="69"/>
+      <c r="C179" s="77"/>
       <c r="D179" s="63" t="s">
         <v>258</v>
       </c>
@@ -6265,8 +6265,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="73"/>
-      <c r="C180" s="70"/>
+      <c r="A180" s="69"/>
+      <c r="C180" s="77"/>
       <c r="D180" s="63" t="s">
         <v>290</v>
       </c>
@@ -6278,8 +6278,8 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="73"/>
-      <c r="C181" s="70"/>
+      <c r="A181" s="69"/>
+      <c r="C181" s="77"/>
       <c r="D181" s="63" t="s">
         <v>262</v>
       </c>
@@ -6291,8 +6291,8 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="73"/>
-      <c r="C182" s="70"/>
+      <c r="A182" s="69"/>
+      <c r="C182" s="77"/>
       <c r="D182" s="63" t="s">
         <v>266</v>
       </c>
@@ -6303,9 +6303,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="73"/>
-      <c r="C183" s="70"/>
+    <row r="183" spans="1:8" ht="30">
+      <c r="A183" s="69"/>
+      <c r="C183" s="77"/>
       <c r="D183" s="9" t="s">
         <v>293</v>
       </c>
@@ -6317,8 +6317,8 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="73"/>
-      <c r="C184" s="70"/>
+      <c r="A184" s="69"/>
+      <c r="C184" s="77"/>
       <c r="D184" s="63" t="s">
         <v>268</v>
       </c>
@@ -6329,9 +6329,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="73"/>
-      <c r="C185" s="70"/>
+    <row r="185" spans="1:8">
+      <c r="A185" s="69"/>
+      <c r="C185" s="77"/>
       <c r="D185" s="63" t="s">
         <v>274</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="66">
+    <row r="186" spans="1:8" ht="60">
       <c r="A186" s="60" t="s">
         <v>310</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="99">
+    <row r="187" spans="1:8" ht="90">
       <c r="A187" s="65" t="s">
         <v>313</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="66">
+    <row r="188" spans="1:8" ht="60">
       <c r="A188" s="65" t="s">
         <v>317</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="49.5">
+    <row r="189" spans="1:8" ht="45">
       <c r="A189" s="65" t="s">
         <v>321</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="82.5">
+    <row r="190" spans="1:8" ht="75">
       <c r="A190" s="11" t="s">
         <v>325</v>
       </c>
@@ -6442,8 +6442,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="73" t="s">
+    <row r="191" spans="1:8" ht="45">
+      <c r="A191" s="69" t="s">
         <v>329</v>
       </c>
       <c r="B191" s="12" t="s">
@@ -6462,8 +6462,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="73"/>
+    <row r="192" spans="1:8" ht="75">
+      <c r="A192" s="69"/>
       <c r="B192" s="12" t="s">
         <v>333</v>
       </c>
@@ -6481,7 +6481,7 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="73"/>
+      <c r="A193" s="69"/>
       <c r="B193" s="12" t="s">
         <v>336</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="99">
+    <row r="194" spans="1:7" ht="90">
       <c r="A194" s="11" t="s">
         <v>339</v>
       </c>
@@ -6521,21 +6521,25 @@
   </sheetData>
   <autoFilter ref="H1:H195"/>
   <mergeCells count="50">
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6552,25 +6556,21 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -11660,7 +11660,7 @@
   <sheetData/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\crawler-scrapy\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2205,16 +2205,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2228,21 +2243,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3174,11 +3174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="6" customWidth="1"/>
@@ -3219,13 +3219,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="70" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3240,9 +3240,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="69"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="78"/>
+      <c r="A3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
@@ -3255,9 +3255,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="69"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="74"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
@@ -3269,9 +3269,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="69"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="79" t="s">
+      <c r="A5" s="74"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="72" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -3286,9 +3286,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="69"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="80"/>
+      <c r="A6" s="74"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3301,9 +3301,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="69"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="80"/>
+      <c r="A7" s="74"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3316,9 +3316,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="69"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="81" t="s">
+      <c r="A8" s="74"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -3333,9 +3333,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="69"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="81"/>
+      <c r="A9" s="74"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="19" t="s">
         <v>23</v>
       </c>
@@ -3348,9 +3348,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="69"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="81"/>
+      <c r="A10" s="74"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
@@ -3363,9 +3363,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="69"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="79" t="s">
+      <c r="A11" s="74"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="72" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -3380,9 +3380,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="69"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="80"/>
+      <c r="A12" s="74"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3395,9 +3395,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="69"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="78" t="s">
+      <c r="A13" s="74"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="70" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -3411,9 +3411,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="69"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="78"/>
+      <c r="A14" s="74"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
@@ -3425,9 +3425,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="69"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="78" t="s">
+      <c r="A15" s="74"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="70" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -3441,9 +3441,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="69"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="78"/>
+      <c r="A16" s="74"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
@@ -3455,9 +3455,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="69"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="78"/>
+      <c r="A17" s="74"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="20" t="s">
         <v>34</v>
       </c>
@@ -3469,9 +3469,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="69"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="78" t="s">
+      <c r="A18" s="74"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="70" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -3485,9 +3485,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="69"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="78"/>
+      <c r="A19" s="74"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="13" t="s">
         <v>37</v>
       </c>
@@ -3500,9 +3500,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="69"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="78"/>
+      <c r="A20" s="74"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
@@ -3515,9 +3515,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="69"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="79" t="s">
+      <c r="A21" s="74"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -3532,9 +3532,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="69"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="80"/>
+      <c r="A22" s="74"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="13" t="s">
         <v>41</v>
       </c>
@@ -3547,9 +3547,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="69"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="78" t="s">
+      <c r="A23" s="74"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="70" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -3563,9 +3563,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="69"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="78"/>
+      <c r="A24" s="74"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
@@ -3577,9 +3577,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="69"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="81" t="s">
+      <c r="A25" s="74"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="69" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -3594,9 +3594,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="69"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="81"/>
+      <c r="A26" s="74"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
@@ -3609,9 +3609,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="69"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="78" t="s">
+      <c r="A27" s="74"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="70" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3628,9 +3628,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="69"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="78"/>
+      <c r="A28" s="74"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="16" t="s">
         <v>51</v>
       </c>
@@ -3645,9 +3645,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="69"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="78" t="s">
+      <c r="A29" s="74"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="70" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -3661,9 +3661,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="69"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="78"/>
+      <c r="A30" s="74"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="23" t="s">
         <v>54</v>
       </c>
@@ -3675,9 +3675,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="69"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="78"/>
+      <c r="A31" s="74"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
@@ -3689,9 +3689,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="69"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="81" t="s">
+      <c r="A32" s="74"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="69" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3706,9 +3706,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="69"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="81"/>
+      <c r="A33" s="74"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
@@ -3721,9 +3721,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="69"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="81" t="s">
+      <c r="A34" s="74"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="69" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -3738,9 +3738,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="69"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="81"/>
+      <c r="A35" s="74"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="24" t="s">
         <v>60</v>
       </c>
@@ -3753,9 +3753,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="69"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="81"/>
+      <c r="A36" s="74"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
@@ -3768,9 +3768,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="69"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="78" t="s">
+      <c r="A37" s="74"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="70" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="25" t="s">
@@ -3784,9 +3784,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="69"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="78"/>
+      <c r="A38" s="74"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="25" t="s">
         <v>64</v>
       </c>
@@ -3798,9 +3798,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="69"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="81" t="s">
+      <c r="A39" s="74"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="69" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -3815,9 +3815,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="69"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="81"/>
+      <c r="A40" s="74"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="24" t="s">
         <v>67</v>
       </c>
@@ -3830,9 +3830,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="69"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="81"/>
+      <c r="A41" s="74"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="24" t="s">
         <v>68</v>
       </c>
@@ -3844,10 +3844,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="69"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="81" t="s">
+    <row r="42" spans="1:8" ht="33">
+      <c r="A42" s="74"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="69" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -3862,9 +3862,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="69"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="81"/>
+      <c r="A43" s="74"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="69"/>
       <c r="E43" s="26" t="s">
         <v>72</v>
       </c>
@@ -3877,9 +3877,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="69"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="81" t="s">
+      <c r="A44" s="74"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="69" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -3894,9 +3894,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="69"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="81"/>
+      <c r="A45" s="74"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="26" t="s">
         <v>75</v>
       </c>
@@ -3909,9 +3909,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="69"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="81" t="s">
+      <c r="A46" s="74"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="69" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="27" t="s">
@@ -3926,9 +3926,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="69"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="81"/>
+      <c r="A47" s="74"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="69"/>
       <c r="E47" s="26" t="s">
         <v>78</v>
       </c>
@@ -3941,9 +3941,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="69"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="81"/>
+      <c r="A48" s="74"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="69"/>
       <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
@@ -3956,9 +3956,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="69"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="81"/>
+      <c r="A49" s="74"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="69"/>
       <c r="E49" s="26" t="s">
         <v>80</v>
       </c>
@@ -3970,10 +3970,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="69"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="78" t="s">
+    <row r="50" spans="1:8" ht="33">
+      <c r="A50" s="74"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="70" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="28" t="s">
@@ -3987,9 +3987,9 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="69"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="78"/>
+      <c r="A51" s="74"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="28" t="s">
         <v>84</v>
       </c>
@@ -4001,9 +4001,9 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="69"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="78" t="s">
+      <c r="A52" s="74"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="70" t="s">
         <v>85</v>
       </c>
       <c r="E52" s="28" t="s">
@@ -4017,9 +4017,9 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="69"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="78"/>
+      <c r="A53" s="74"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="70"/>
       <c r="E53" s="28" t="s">
         <v>87</v>
       </c>
@@ -4031,9 +4031,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="69"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="78"/>
+      <c r="A54" s="74"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="28" t="s">
         <v>88</v>
       </c>
@@ -4045,9 +4045,9 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="69"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="81" t="s">
+      <c r="A55" s="74"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="69" t="s">
         <v>89</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -4062,9 +4062,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="69"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="81"/>
+      <c r="A56" s="74"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="69"/>
       <c r="E56" s="26" t="s">
         <v>91</v>
       </c>
@@ -4077,9 +4077,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="69"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="81" t="s">
+      <c r="A57" s="74"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="69" t="s">
         <v>92</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -4094,9 +4094,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="69"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="81"/>
+      <c r="A58" s="74"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="69"/>
       <c r="E58" s="26" t="s">
         <v>94</v>
       </c>
@@ -4109,9 +4109,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="69"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="81" t="s">
+      <c r="A59" s="74"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="69" t="s">
         <v>95</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4126,9 +4126,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="69"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="81"/>
+      <c r="A60" s="74"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="69"/>
       <c r="E60" s="26" t="s">
         <v>97</v>
       </c>
@@ -4141,9 +4141,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="69"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="81" t="s">
+      <c r="A61" s="74"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="69" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -4158,9 +4158,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="69"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="81"/>
+      <c r="A62" s="74"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="69"/>
       <c r="E62" s="26" t="s">
         <v>100</v>
       </c>
@@ -4173,9 +4173,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="69"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="81"/>
+      <c r="A63" s="74"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="69"/>
       <c r="E63" s="26" t="s">
         <v>101</v>
       </c>
@@ -4188,9 +4188,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="69"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="81" t="s">
+      <c r="A64" s="74"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="69" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -4205,9 +4205,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="69"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="81"/>
+      <c r="A65" s="74"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="69"/>
       <c r="E65" s="26" t="s">
         <v>104</v>
       </c>
@@ -4219,10 +4219,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30">
-      <c r="A66" s="69"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="81" t="s">
+    <row r="66" spans="1:8" ht="33">
+      <c r="A66" s="74"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="69" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -4236,10 +4236,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="69"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="81"/>
+    <row r="67" spans="1:8" ht="33">
+      <c r="A67" s="74"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="69"/>
       <c r="E67" s="26" t="s">
         <v>107</v>
       </c>
@@ -4251,10 +4251,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45">
-      <c r="A68" s="69"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="81" t="s">
+    <row r="68" spans="1:8" ht="66">
+      <c r="A68" s="74"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="69" t="s">
         <v>108</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -4269,9 +4269,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="69"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="81"/>
+      <c r="A69" s="74"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="69"/>
       <c r="E69" s="30" t="s">
         <v>110</v>
       </c>
@@ -4284,9 +4284,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="69"/>
-      <c r="C70" s="73"/>
-      <c r="D70" s="81"/>
+      <c r="A70" s="74"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="69"/>
       <c r="E70" s="26" t="s">
         <v>111</v>
       </c>
@@ -4298,10 +4298,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="69"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="81" t="s">
+    <row r="71" spans="1:8" ht="33">
+      <c r="A71" s="74"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -4315,10 +4315,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="69"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="81"/>
+    <row r="72" spans="1:8" ht="33">
+      <c r="A72" s="74"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="69"/>
       <c r="E72" s="26" t="s">
         <v>114</v>
       </c>
@@ -4330,10 +4330,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="69"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="81" t="s">
+    <row r="73" spans="1:8" ht="33">
+      <c r="A73" s="74"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="69" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -4347,10 +4347,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="69"/>
-      <c r="C74" s="73"/>
-      <c r="D74" s="81"/>
+    <row r="74" spans="1:8" ht="33">
+      <c r="A74" s="74"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="69"/>
       <c r="E74" s="26" t="s">
         <v>117</v>
       </c>
@@ -4362,10 +4362,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="69"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="81"/>
+    <row r="75" spans="1:8" ht="33">
+      <c r="A75" s="74"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="69"/>
       <c r="E75" s="26" t="s">
         <v>118</v>
       </c>
@@ -4378,9 +4378,9 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="69"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="81" t="s">
+      <c r="A76" s="74"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="69" t="s">
         <v>119</v>
       </c>
       <c r="E76" s="30" t="s">
@@ -4395,9 +4395,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="69"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="81"/>
+      <c r="A77" s="74"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="69"/>
       <c r="E77" s="30" t="s">
         <v>121</v>
       </c>
@@ -4409,10 +4409,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="60">
-      <c r="A78" s="69"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="81" t="s">
+    <row r="78" spans="1:8" ht="66">
+      <c r="A78" s="74"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="69" t="s">
         <v>122</v>
       </c>
       <c r="E78" s="30" t="s">
@@ -4427,9 +4427,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="69"/>
-      <c r="C79" s="73"/>
-      <c r="D79" s="81"/>
+      <c r="A79" s="74"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="69"/>
       <c r="E79" s="30" t="s">
         <v>124</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="90">
+    <row r="80" spans="1:8" ht="99">
       <c r="A80" s="11" t="s">
         <v>125</v>
       </c>
@@ -4464,8 +4464,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30">
-      <c r="A81" s="69" t="s">
+    <row r="81" spans="1:8" ht="33">
+      <c r="A81" s="74" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4487,8 +4487,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30">
-      <c r="A82" s="69"/>
+    <row r="82" spans="1:8" ht="33">
+      <c r="A82" s="74"/>
       <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
@@ -4508,8 +4508,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" ht="60">
-      <c r="A83" s="70" t="s">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A83" s="77" t="s">
         <v>138</v>
       </c>
       <c r="B83" s="36" t="s">
@@ -4532,8 +4532,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="60">
-      <c r="A84" s="70"/>
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A84" s="77"/>
       <c r="B84" s="36" t="s">
         <v>142</v>
       </c>
@@ -4554,8 +4554,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="90">
-      <c r="A85" s="70"/>
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
+      <c r="A85" s="77"/>
       <c r="B85" s="36" t="s">
         <v>145</v>
       </c>
@@ -4576,8 +4576,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="60">
-      <c r="A86" s="70"/>
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A86" s="77"/>
       <c r="B86" s="36" t="s">
         <v>147</v>
       </c>
@@ -4599,13 +4599,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="69" t="s">
+      <c r="A87" s="74" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="74" t="s">
+      <c r="C87" s="79" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -4622,11 +4622,11 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69" t="s">
+      <c r="A88" s="74"/>
+      <c r="B88" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="74"/>
+      <c r="C88" s="79"/>
       <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
@@ -4641,9 +4641,9 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="71"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="75"/>
+      <c r="A89" s="75"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="80"/>
       <c r="D89" s="40" t="s">
         <v>17</v>
       </c>
@@ -4661,9 +4661,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="74"/>
+      <c r="A90" s="74"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="79"/>
       <c r="D90" s="8" t="s">
         <v>25</v>
       </c>
@@ -4680,10 +4680,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30">
-      <c r="A91" s="69"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="74"/>
+    <row r="91" spans="1:8" ht="33">
+      <c r="A91" s="74"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="79"/>
       <c r="D91" s="42" t="s">
         <v>45</v>
       </c>
@@ -4696,14 +4696,14 @@
       <c r="G91" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="69"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="74"/>
+      <c r="H91" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="33">
+      <c r="A92" s="74"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="42" t="s">
         <v>55</v>
       </c>
@@ -4714,14 +4714,14 @@
       <c r="G92" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="10" t="s">
-        <v>13</v>
+      <c r="H92" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="69"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="74"/>
+      <c r="A93" s="74"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="79"/>
       <c r="D93" s="42" t="s">
         <v>42</v>
       </c>
@@ -4734,14 +4734,14 @@
       <c r="G93" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H93" s="10" t="s">
-        <v>13</v>
+      <c r="H93" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="75"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="80"/>
       <c r="D94" s="40" t="s">
         <v>39</v>
       </c>
@@ -4759,9 +4759,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="71"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="75"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="80"/>
       <c r="D95" s="40" t="s">
         <v>35</v>
       </c>
@@ -4779,9 +4779,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="75"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="80"/>
       <c r="D96" s="40" t="s">
         <v>31</v>
       </c>
@@ -4797,9 +4797,9 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="27">
-      <c r="A97" s="69"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="74"/>
+      <c r="A97" s="74"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="79"/>
       <c r="D97" s="42" t="s">
         <v>166</v>
       </c>
@@ -4817,9 +4817,9 @@
       </c>
     </row>
     <row r="98" spans="1:9" s="5" customFormat="1">
-      <c r="A98" s="72"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="76"/>
+      <c r="A98" s="76"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="81"/>
       <c r="D98" s="42" t="s">
         <v>76</v>
       </c>
@@ -4837,9 +4837,9 @@
       </c>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1">
-      <c r="A99" s="71"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="75"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="80"/>
       <c r="D99" s="40" t="s">
         <v>85</v>
       </c>
@@ -4856,10 +4856,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="30">
-      <c r="A100" s="69"/>
-      <c r="B100" s="69"/>
-      <c r="C100" s="74"/>
+    <row r="100" spans="1:9" ht="33">
+      <c r="A100" s="74"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="79"/>
       <c r="D100" s="8" t="s">
         <v>115</v>
       </c>
@@ -4877,9 +4877,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" s="4" customFormat="1">
-      <c r="A101" s="71"/>
-      <c r="B101" s="71"/>
-      <c r="C101" s="75"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="80"/>
       <c r="D101" s="40" t="s">
         <v>119</v>
       </c>
@@ -4897,9 +4897,9 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="69"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="74"/>
+      <c r="A102" s="74"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="79"/>
       <c r="D102" s="8" t="s">
         <v>81</v>
       </c>
@@ -4917,9 +4917,9 @@
       </c>
     </row>
     <row r="103" spans="1:9" s="4" customFormat="1">
-      <c r="A103" s="71"/>
-      <c r="B103" s="71"/>
-      <c r="C103" s="75"/>
+      <c r="A103" s="75"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="80"/>
       <c r="D103" s="40" t="s">
         <v>52</v>
       </c>
@@ -4934,10 +4934,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="4" customFormat="1" ht="30">
-      <c r="A104" s="71"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="75"/>
+    <row r="104" spans="1:9" s="4" customFormat="1" ht="33">
+      <c r="A104" s="75"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="80"/>
       <c r="D104" s="40" t="s">
         <v>95</v>
       </c>
@@ -4955,9 +4955,9 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="27">
-      <c r="A105" s="69"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="74"/>
+      <c r="A105" s="74"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="79"/>
       <c r="D105" s="8" t="s">
         <v>98</v>
       </c>
@@ -4975,9 +4975,9 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="69"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="74"/>
+      <c r="A106" s="74"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="79"/>
       <c r="D106" s="8" t="s">
         <v>92</v>
       </c>
@@ -4994,10 +4994,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="30">
-      <c r="A107" s="69"/>
-      <c r="B107" s="69"/>
-      <c r="C107" s="74"/>
+    <row r="107" spans="1:9" ht="33">
+      <c r="A107" s="74"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="79"/>
       <c r="D107" s="8" t="s">
         <v>89</v>
       </c>
@@ -5016,9 +5016,9 @@
       <c r="I107" s="56"/>
     </row>
     <row r="108" spans="1:9" s="4" customFormat="1">
-      <c r="A108" s="71"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="75"/>
+      <c r="A108" s="75"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="80"/>
       <c r="D108" s="40" t="s">
         <v>48</v>
       </c>
@@ -5036,9 +5036,9 @@
       </c>
     </row>
     <row r="109" spans="1:9" s="4" customFormat="1">
-      <c r="A109" s="71"/>
-      <c r="B109" s="71"/>
-      <c r="C109" s="75"/>
+      <c r="A109" s="75"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="80"/>
       <c r="D109" s="40" t="s">
         <v>112</v>
       </c>
@@ -5056,9 +5056,9 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="69"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="74"/>
+      <c r="A110" s="74"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="79"/>
       <c r="D110" s="8" t="s">
         <v>28</v>
       </c>
@@ -5072,10 +5072,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5">
-      <c r="A111" s="69"/>
-      <c r="B111" s="69"/>
-      <c r="C111" s="74"/>
+    <row r="111" spans="1:9">
+      <c r="A111" s="74"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="79"/>
       <c r="D111" s="8" t="s">
         <v>102</v>
       </c>
@@ -5090,10 +5090,10 @@
       </c>
       <c r="I111" s="56"/>
     </row>
-    <row r="112" spans="1:9" s="4" customFormat="1" ht="30">
-      <c r="A112" s="71"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="75"/>
+    <row r="112" spans="1:9" s="4" customFormat="1" ht="33">
+      <c r="A112" s="75"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="80"/>
       <c r="D112" s="40" t="s">
         <v>105</v>
       </c>
@@ -5112,9 +5112,9 @@
       <c r="I112" s="57"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="69"/>
-      <c r="B113" s="69"/>
-      <c r="C113" s="74"/>
+      <c r="A113" s="74"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="79"/>
       <c r="D113" s="40" t="s">
         <v>73</v>
       </c>
@@ -5132,9 +5132,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="69"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="74"/>
+      <c r="A114" s="74"/>
+      <c r="B114" s="74"/>
+      <c r="C114" s="79"/>
       <c r="D114" s="40" t="s">
         <v>122</v>
       </c>
@@ -5151,10 +5151,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="69"/>
-      <c r="B115" s="69"/>
-      <c r="C115" s="74"/>
+    <row r="115" spans="1:11" ht="33">
+      <c r="A115" s="74"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="79"/>
       <c r="D115" s="8" t="s">
         <v>62</v>
       </c>
@@ -5171,10 +5171,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30">
-      <c r="A116" s="69"/>
-      <c r="B116" s="69"/>
-      <c r="C116" s="74"/>
+    <row r="116" spans="1:11" ht="33">
+      <c r="A116" s="74"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="79"/>
       <c r="D116" s="8" t="s">
         <v>58</v>
       </c>
@@ -5191,10 +5191,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="69"/>
-      <c r="B117" s="69"/>
-      <c r="C117" s="74"/>
+    <row r="117" spans="1:11" ht="33">
+      <c r="A117" s="74"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="79"/>
       <c r="D117" s="40" t="s">
         <v>65</v>
       </c>
@@ -5212,9 +5212,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="69"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="74"/>
+      <c r="A118" s="74"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="79"/>
       <c r="D118" s="40" t="s">
         <v>108</v>
       </c>
@@ -5231,12 +5231,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1">
-      <c r="A119" s="69"/>
-      <c r="B119" s="70" t="s">
+    <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A119" s="74"/>
+      <c r="B119" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C119" s="74"/>
+      <c r="C119" s="79"/>
       <c r="D119" s="53" t="s">
         <v>31</v>
       </c>
@@ -5256,10 +5256,10 @@
       <c r="J119" s="52"/>
       <c r="K119" s="52"/>
     </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A120" s="69"/>
-      <c r="B120" s="70"/>
-      <c r="C120" s="74"/>
+    <row r="120" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A120" s="74"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="79"/>
       <c r="D120" s="53" t="s">
         <v>39</v>
       </c>
@@ -5280,9 +5280,9 @@
       <c r="K120" s="52"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="69"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="74"/>
+      <c r="A121" s="74"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="79"/>
       <c r="D121" s="53" t="s">
         <v>95</v>
       </c>
@@ -5302,10 +5302,10 @@
       <c r="J121" s="52"/>
       <c r="K121" s="52"/>
     </row>
-    <row r="122" spans="1:11" s="3" customFormat="1">
-      <c r="A122" s="69"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="74"/>
+    <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A122" s="74"/>
+      <c r="B122" s="77"/>
+      <c r="C122" s="79"/>
       <c r="D122" s="53" t="s">
         <v>108</v>
       </c>
@@ -5324,10 +5324,10 @@
       <c r="I122" s="52"/>
       <c r="J122" s="52"/>
     </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A123" s="69"/>
-      <c r="B123" s="70"/>
-      <c r="C123" s="74"/>
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A123" s="74"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="79"/>
       <c r="D123" s="53" t="s">
         <v>42</v>
       </c>
@@ -5346,10 +5346,10 @@
       <c r="I123" s="52"/>
       <c r="J123" s="52"/>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A124" s="69"/>
-      <c r="B124" s="70"/>
-      <c r="C124" s="74"/>
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A124" s="74"/>
+      <c r="B124" s="77"/>
+      <c r="C124" s="79"/>
       <c r="D124" s="53" t="s">
         <v>122</v>
       </c>
@@ -5368,10 +5368,10 @@
       <c r="I124" s="52"/>
       <c r="J124" s="52"/>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1">
-      <c r="A125" s="69"/>
-      <c r="B125" s="70"/>
-      <c r="C125" s="74"/>
+    <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A125" s="74"/>
+      <c r="B125" s="77"/>
+      <c r="C125" s="79"/>
       <c r="D125" s="53" t="s">
         <v>62</v>
       </c>
@@ -5390,10 +5390,10 @@
       <c r="I125" s="52"/>
       <c r="J125" s="52"/>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="45">
-      <c r="A126" s="69"/>
-      <c r="B126" s="70"/>
-      <c r="C126" s="74"/>
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A126" s="74"/>
+      <c r="B126" s="77"/>
+      <c r="C126" s="79"/>
       <c r="D126" s="53" t="s">
         <v>58</v>
       </c>
@@ -5410,10 +5410,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="45">
-      <c r="A127" s="69"/>
-      <c r="B127" s="70"/>
-      <c r="C127" s="74"/>
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A127" s="74"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="79"/>
       <c r="D127" s="55" t="s">
         <v>69</v>
       </c>
@@ -5431,9 +5431,9 @@
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="69"/>
-      <c r="B128" s="70"/>
-      <c r="C128" s="74"/>
+      <c r="A128" s="74"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="79"/>
       <c r="D128" s="55" t="s">
         <v>76</v>
       </c>
@@ -5450,10 +5450,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A129" s="69"/>
-      <c r="B129" s="70"/>
-      <c r="C129" s="74"/>
+    <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A129" s="74"/>
+      <c r="B129" s="77"/>
+      <c r="C129" s="79"/>
       <c r="D129" s="55" t="s">
         <v>98</v>
       </c>
@@ -5472,10 +5472,10 @@
       <c r="I129" s="52"/>
       <c r="J129" s="52"/>
     </row>
-    <row r="130" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A130" s="69"/>
-      <c r="B130" s="70"/>
-      <c r="C130" s="74"/>
+    <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A130" s="74"/>
+      <c r="B130" s="77"/>
+      <c r="C130" s="79"/>
       <c r="D130" s="55" t="s">
         <v>102</v>
       </c>
@@ -5493,10 +5493,10 @@
       </c>
       <c r="J130" s="52"/>
     </row>
-    <row r="131" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A131" s="69"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="74"/>
+    <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A131" s="74"/>
+      <c r="B131" s="77"/>
+      <c r="C131" s="79"/>
       <c r="D131" s="55" t="s">
         <v>81</v>
       </c>
@@ -5514,9 +5514,9 @@
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="69"/>
-      <c r="B132" s="70"/>
-      <c r="C132" s="74"/>
+      <c r="A132" s="74"/>
+      <c r="B132" s="77"/>
+      <c r="C132" s="79"/>
       <c r="D132" s="55" t="s">
         <v>115</v>
       </c>
@@ -5531,10 +5531,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="A133" s="69"/>
-      <c r="B133" s="70"/>
-      <c r="C133" s="74"/>
+    <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A133" s="74"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="79"/>
       <c r="D133" s="55" t="s">
         <v>119</v>
       </c>
@@ -5551,10 +5551,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="A134" s="69"/>
-      <c r="B134" s="70"/>
-      <c r="C134" s="74"/>
+    <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A134" s="74"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="79"/>
       <c r="D134" s="55" t="s">
         <v>105</v>
       </c>
@@ -5572,10 +5572,10 @@
       </c>
       <c r="I134" s="52"/>
     </row>
-    <row r="135" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="A135" s="69"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="74"/>
+    <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A135" s="74"/>
+      <c r="B135" s="77"/>
+      <c r="C135" s="79"/>
       <c r="D135" s="55" t="s">
         <v>85</v>
       </c>
@@ -5593,10 +5593,10 @@
       </c>
       <c r="I135" s="52"/>
     </row>
-    <row r="136" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A136" s="69"/>
-      <c r="B136" s="70"/>
-      <c r="C136" s="74"/>
+    <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A136" s="74"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="79"/>
       <c r="D136" s="53" t="s">
         <v>73</v>
       </c>
@@ -5612,8 +5612,8 @@
       </c>
       <c r="I136" s="52"/>
     </row>
-    <row r="137" spans="1:10" s="3" customFormat="1" ht="60">
-      <c r="A137" s="69" t="s">
+    <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
+      <c r="A137" s="74" t="s">
         <v>221</v>
       </c>
       <c r="B137" s="36" t="s">
@@ -5634,8 +5634,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="3" customFormat="1" ht="90">
-      <c r="A138" s="69"/>
+    <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A138" s="74"/>
       <c r="B138" s="36" t="s">
         <v>226</v>
       </c>
@@ -5654,8 +5654,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="3" customFormat="1" ht="90">
-      <c r="A139" s="69"/>
+    <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A139" s="74"/>
       <c r="B139" s="36" t="s">
         <v>228</v>
       </c>
@@ -5674,8 +5674,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A140" s="69"/>
+    <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A140" s="74"/>
       <c r="B140" s="36" t="s">
         <v>230</v>
       </c>
@@ -5694,8 +5694,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="3" customFormat="1" ht="75">
-      <c r="A141" s="69"/>
+    <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
+      <c r="A141" s="74"/>
       <c r="B141" s="36" t="s">
         <v>233</v>
       </c>
@@ -5714,8 +5714,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="3" customFormat="1" ht="105">
-      <c r="A142" s="69"/>
+    <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
+      <c r="A142" s="74"/>
       <c r="B142" s="36" t="s">
         <v>236</v>
       </c>
@@ -5734,8 +5734,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="A143" s="69"/>
+    <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A143" s="74"/>
       <c r="B143" s="36" t="s">
         <v>239</v>
       </c>
@@ -5754,8 +5754,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="45">
-      <c r="A144" s="69"/>
+    <row r="144" spans="1:10" ht="49.5">
+      <c r="A144" s="74"/>
       <c r="B144" s="6" t="s">
         <v>242</v>
       </c>
@@ -5775,14 +5775,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="45">
-      <c r="A145" s="69" t="s">
+    <row r="145" spans="1:7" ht="49.5">
+      <c r="A145" s="74" t="s">
         <v>245</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="77" t="s">
+      <c r="C145" s="71" t="s">
         <v>247</v>
       </c>
       <c r="D145" s="63" t="s">
@@ -5799,8 +5799,8 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="69"/>
-      <c r="C146" s="77"/>
+      <c r="A146" s="74"/>
+      <c r="C146" s="71"/>
       <c r="D146" s="63" t="s">
         <v>251</v>
       </c>
@@ -5815,8 +5815,8 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="69"/>
-      <c r="C147" s="77"/>
+      <c r="A147" s="74"/>
+      <c r="C147" s="71"/>
       <c r="D147" s="63" t="s">
         <v>254</v>
       </c>
@@ -5828,8 +5828,8 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="69"/>
-      <c r="C148" s="77"/>
+      <c r="A148" s="74"/>
+      <c r="C148" s="71"/>
       <c r="D148" s="63" t="s">
         <v>256</v>
       </c>
@@ -5841,8 +5841,8 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="69"/>
-      <c r="C149" s="77"/>
+      <c r="A149" s="74"/>
+      <c r="C149" s="71"/>
       <c r="D149" s="63" t="s">
         <v>258</v>
       </c>
@@ -5854,8 +5854,8 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="69"/>
-      <c r="C150" s="77"/>
+      <c r="A150" s="74"/>
+      <c r="C150" s="71"/>
       <c r="D150" s="63" t="s">
         <v>260</v>
       </c>
@@ -5866,9 +5866,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="30">
-      <c r="A151" s="69"/>
-      <c r="C151" s="77"/>
+    <row r="151" spans="1:7" ht="33">
+      <c r="A151" s="74"/>
+      <c r="C151" s="71"/>
       <c r="D151" s="63" t="s">
         <v>262</v>
       </c>
@@ -5880,8 +5880,8 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="69"/>
-      <c r="C152" s="77"/>
+      <c r="A152" s="74"/>
+      <c r="C152" s="71"/>
       <c r="D152" s="63" t="s">
         <v>264</v>
       </c>
@@ -5893,8 +5893,8 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="69"/>
-      <c r="C153" s="77"/>
+      <c r="A153" s="74"/>
+      <c r="C153" s="71"/>
       <c r="D153" s="63" t="s">
         <v>266</v>
       </c>
@@ -5906,8 +5906,8 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="69"/>
-      <c r="C154" s="77"/>
+      <c r="A154" s="74"/>
+      <c r="C154" s="71"/>
       <c r="D154" s="63" t="s">
         <v>268</v>
       </c>
@@ -5919,8 +5919,8 @@
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="69"/>
-      <c r="C155" s="77"/>
+      <c r="A155" s="74"/>
+      <c r="C155" s="71"/>
       <c r="D155" s="63" t="s">
         <v>270</v>
       </c>
@@ -5932,8 +5932,8 @@
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="69"/>
-      <c r="C156" s="77"/>
+      <c r="A156" s="74"/>
+      <c r="C156" s="71"/>
       <c r="D156" s="63" t="s">
         <v>272</v>
       </c>
@@ -5944,9 +5944,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30">
-      <c r="A157" s="69"/>
-      <c r="C157" s="77"/>
+    <row r="157" spans="1:7" ht="33">
+      <c r="A157" s="74"/>
+      <c r="C157" s="71"/>
       <c r="D157" s="63" t="s">
         <v>274</v>
       </c>
@@ -5957,14 +5957,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="45">
-      <c r="A158" s="69" t="s">
+    <row r="158" spans="1:7" ht="49.5">
+      <c r="A158" s="74" t="s">
         <v>245</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C158" s="77" t="s">
+      <c r="C158" s="71" t="s">
         <v>277</v>
       </c>
       <c r="D158" s="63" t="s">
@@ -5978,8 +5978,8 @@
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="69"/>
-      <c r="C159" s="77"/>
+      <c r="A159" s="74"/>
+      <c r="C159" s="71"/>
       <c r="D159" s="63" t="s">
         <v>260</v>
       </c>
@@ -5991,8 +5991,8 @@
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="69"/>
-      <c r="C160" s="77"/>
+      <c r="A160" s="74"/>
+      <c r="C160" s="71"/>
       <c r="D160" s="63" t="s">
         <v>264</v>
       </c>
@@ -6004,8 +6004,8 @@
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="69"/>
-      <c r="C161" s="77"/>
+      <c r="A161" s="74"/>
+      <c r="C161" s="71"/>
       <c r="D161" s="63" t="s">
         <v>266</v>
       </c>
@@ -6017,8 +6017,8 @@
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="69"/>
-      <c r="C162" s="77"/>
+      <c r="A162" s="74"/>
+      <c r="C162" s="71"/>
       <c r="D162" s="63" t="s">
         <v>268</v>
       </c>
@@ -6030,8 +6030,8 @@
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="69"/>
-      <c r="C163" s="77"/>
+      <c r="A163" s="74"/>
+      <c r="C163" s="71"/>
       <c r="D163" s="63" t="s">
         <v>270</v>
       </c>
@@ -6043,8 +6043,8 @@
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="69"/>
-      <c r="C164" s="77"/>
+      <c r="A164" s="74"/>
+      <c r="C164" s="71"/>
       <c r="D164" s="63" t="s">
         <v>272</v>
       </c>
@@ -6056,13 +6056,13 @@
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="69" t="s">
+      <c r="A165" s="74" t="s">
         <v>245</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C165" s="77" t="s">
+      <c r="C165" s="71" t="s">
         <v>240</v>
       </c>
       <c r="D165" s="63" t="s">
@@ -6076,8 +6076,8 @@
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="69"/>
-      <c r="C166" s="77"/>
+      <c r="A166" s="74"/>
+      <c r="C166" s="71"/>
       <c r="D166" s="63" t="s">
         <v>254</v>
       </c>
@@ -6089,8 +6089,8 @@
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="69"/>
-      <c r="C167" s="77"/>
+      <c r="A167" s="74"/>
+      <c r="C167" s="71"/>
       <c r="D167" s="63" t="s">
         <v>256</v>
       </c>
@@ -6102,8 +6102,8 @@
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="69"/>
-      <c r="C168" s="77"/>
+      <c r="A168" s="74"/>
+      <c r="C168" s="71"/>
       <c r="D168" s="63" t="s">
         <v>258</v>
       </c>
@@ -6115,8 +6115,8 @@
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="69"/>
-      <c r="C169" s="77"/>
+      <c r="A169" s="74"/>
+      <c r="C169" s="71"/>
       <c r="D169" s="63" t="s">
         <v>290</v>
       </c>
@@ -6128,8 +6128,8 @@
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="69"/>
-      <c r="C170" s="77"/>
+      <c r="A170" s="74"/>
+      <c r="C170" s="71"/>
       <c r="D170" s="63" t="s">
         <v>262</v>
       </c>
@@ -6141,8 +6141,8 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="69"/>
-      <c r="C171" s="77"/>
+      <c r="A171" s="74"/>
+      <c r="C171" s="71"/>
       <c r="D171" s="9" t="s">
         <v>293</v>
       </c>
@@ -6154,8 +6154,8 @@
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="69"/>
-      <c r="C172" s="77"/>
+      <c r="A172" s="74"/>
+      <c r="C172" s="71"/>
       <c r="D172" s="63" t="s">
         <v>268</v>
       </c>
@@ -6167,8 +6167,8 @@
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="69"/>
-      <c r="C173" s="77"/>
+      <c r="A173" s="74"/>
+      <c r="C173" s="71"/>
       <c r="D173" s="63" t="s">
         <v>270</v>
       </c>
@@ -6180,8 +6180,8 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="69"/>
-      <c r="C174" s="77"/>
+      <c r="A174" s="74"/>
+      <c r="C174" s="71"/>
       <c r="D174" s="63" t="s">
         <v>272</v>
       </c>
@@ -6192,9 +6192,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="69"/>
-      <c r="C175" s="77"/>
+    <row r="175" spans="1:7" ht="33">
+      <c r="A175" s="74"/>
+      <c r="C175" s="71"/>
       <c r="D175" s="63" t="s">
         <v>274</v>
       </c>
@@ -6206,13 +6206,13 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="69" t="s">
+      <c r="A176" s="74" t="s">
         <v>245</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C176" s="77" t="s">
+      <c r="C176" s="71" t="s">
         <v>240</v>
       </c>
       <c r="D176" s="63" t="s">
@@ -6226,8 +6226,8 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="69"/>
-      <c r="C177" s="77"/>
+      <c r="A177" s="74"/>
+      <c r="C177" s="71"/>
       <c r="D177" s="63" t="s">
         <v>254</v>
       </c>
@@ -6239,8 +6239,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="69"/>
-      <c r="C178" s="77"/>
+      <c r="A178" s="74"/>
+      <c r="C178" s="71"/>
       <c r="D178" s="63" t="s">
         <v>256</v>
       </c>
@@ -6252,8 +6252,8 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="69"/>
-      <c r="C179" s="77"/>
+      <c r="A179" s="74"/>
+      <c r="C179" s="71"/>
       <c r="D179" s="63" t="s">
         <v>258</v>
       </c>
@@ -6265,8 +6265,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="69"/>
-      <c r="C180" s="77"/>
+      <c r="A180" s="74"/>
+      <c r="C180" s="71"/>
       <c r="D180" s="63" t="s">
         <v>290</v>
       </c>
@@ -6278,8 +6278,8 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="69"/>
-      <c r="C181" s="77"/>
+      <c r="A181" s="74"/>
+      <c r="C181" s="71"/>
       <c r="D181" s="63" t="s">
         <v>262</v>
       </c>
@@ -6291,8 +6291,8 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="69"/>
-      <c r="C182" s="77"/>
+      <c r="A182" s="74"/>
+      <c r="C182" s="71"/>
       <c r="D182" s="63" t="s">
         <v>266</v>
       </c>
@@ -6303,9 +6303,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="30">
-      <c r="A183" s="69"/>
-      <c r="C183" s="77"/>
+    <row r="183" spans="1:8" ht="66">
+      <c r="A183" s="74"/>
+      <c r="C183" s="71"/>
       <c r="D183" s="9" t="s">
         <v>293</v>
       </c>
@@ -6317,8 +6317,8 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="69"/>
-      <c r="C184" s="77"/>
+      <c r="A184" s="74"/>
+      <c r="C184" s="71"/>
       <c r="D184" s="63" t="s">
         <v>268</v>
       </c>
@@ -6329,9 +6329,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="69"/>
-      <c r="C185" s="77"/>
+    <row r="185" spans="1:8" ht="33">
+      <c r="A185" s="74"/>
+      <c r="C185" s="71"/>
       <c r="D185" s="63" t="s">
         <v>274</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="60">
+    <row r="186" spans="1:8" ht="66">
       <c r="A186" s="60" t="s">
         <v>310</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="90">
+    <row r="187" spans="1:8" ht="99">
       <c r="A187" s="65" t="s">
         <v>313</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="60">
+    <row r="188" spans="1:8" ht="66">
       <c r="A188" s="65" t="s">
         <v>317</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="45">
+    <row r="189" spans="1:8" ht="49.5">
       <c r="A189" s="65" t="s">
         <v>321</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="75">
+    <row r="190" spans="1:8" ht="82.5">
       <c r="A190" s="11" t="s">
         <v>325</v>
       </c>
@@ -6442,8 +6442,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="45">
-      <c r="A191" s="69" t="s">
+    <row r="191" spans="1:8" ht="49.5">
+      <c r="A191" s="74" t="s">
         <v>329</v>
       </c>
       <c r="B191" s="12" t="s">
@@ -6462,8 +6462,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="75">
-      <c r="A192" s="69"/>
+    <row r="192" spans="1:8" ht="82.5">
+      <c r="A192" s="74"/>
       <c r="B192" s="12" t="s">
         <v>333</v>
       </c>
@@ -6481,7 +6481,7 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="69"/>
+      <c r="A193" s="74"/>
       <c r="B193" s="12" t="s">
         <v>336</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="90">
+    <row r="194" spans="1:7" ht="99">
       <c r="A194" s="11" t="s">
         <v>339</v>
       </c>
@@ -6521,25 +6521,21 @@
   </sheetData>
   <autoFilter ref="H1:H195"/>
   <mergeCells count="50">
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6556,21 +6552,25 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="582">
   <si>
     <t>所属分类</t>
   </si>
@@ -1808,6 +1808,10 @@
   </si>
   <si>
     <t>https://www.bidcenter.com.cn/zhaobiao/area_1050_1169_1/</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘毅</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1997,7 +2001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2208,28 +2212,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,6 +2235,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3174,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N129" sqref="N129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -3219,13 +3232,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="79" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3240,9 +3253,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="74"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="70"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
@@ -3255,9 +3268,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="74"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="70"/>
+      <c r="A4" s="70"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
@@ -3269,9 +3282,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="74"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="72" t="s">
+      <c r="A5" s="70"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="80" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -3286,9 +3299,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="74"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="73"/>
+      <c r="A6" s="70"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3301,9 +3314,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="74"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="73"/>
+      <c r="A7" s="70"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3316,9 +3329,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="74"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="69" t="s">
+      <c r="A8" s="70"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="82" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -3333,9 +3346,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="74"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="69"/>
+      <c r="A9" s="70"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="19" t="s">
         <v>23</v>
       </c>
@@ -3348,9 +3361,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="74"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="69"/>
+      <c r="A10" s="70"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
@@ -3363,9 +3376,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="74"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="72" t="s">
+      <c r="A11" s="70"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="80" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -3380,9 +3393,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="74"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="73"/>
+      <c r="A12" s="70"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3395,9 +3408,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="74"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="70" t="s">
+      <c r="A13" s="70"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="79" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -3411,9 +3424,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="74"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="70"/>
+      <c r="A14" s="70"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
@@ -3425,9 +3438,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="74"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="70" t="s">
+      <c r="A15" s="70"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="79" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -3441,9 +3454,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="74"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="70"/>
+      <c r="A16" s="70"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
@@ -3455,9 +3468,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="74"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="70"/>
+      <c r="A17" s="70"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="20" t="s">
         <v>34</v>
       </c>
@@ -3469,9 +3482,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="74"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="70" t="s">
+      <c r="A18" s="70"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="79" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -3485,9 +3498,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="74"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="70"/>
+      <c r="A19" s="70"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="13" t="s">
         <v>37</v>
       </c>
@@ -3500,9 +3513,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="74"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="70"/>
+      <c r="A20" s="70"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
@@ -3515,9 +3528,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="74"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="72" t="s">
+      <c r="A21" s="70"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -3532,9 +3545,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="74"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="73"/>
+      <c r="A22" s="70"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="81"/>
       <c r="E22" s="13" t="s">
         <v>41</v>
       </c>
@@ -3547,9 +3560,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="74"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="70" t="s">
+      <c r="A23" s="70"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="79" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -3563,9 +3576,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="74"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="70"/>
+      <c r="A24" s="70"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
@@ -3577,9 +3590,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="74"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="69" t="s">
+      <c r="A25" s="70"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="82" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -3594,9 +3607,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="74"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="69"/>
+      <c r="A26" s="70"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
@@ -3609,9 +3622,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="74"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="70" t="s">
+      <c r="A27" s="70"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="79" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3628,9 +3641,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="74"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="70"/>
+      <c r="A28" s="70"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="16" t="s">
         <v>51</v>
       </c>
@@ -3645,9 +3658,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="74"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="70" t="s">
+      <c r="A29" s="70"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="79" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -3661,9 +3674,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="74"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="70"/>
+      <c r="A30" s="70"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="23" t="s">
         <v>54</v>
       </c>
@@ -3675,9 +3688,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="74"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="70"/>
+      <c r="A31" s="70"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
@@ -3689,9 +3702,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="74"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="69" t="s">
+      <c r="A32" s="70"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="82" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3706,9 +3719,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="74"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="69"/>
+      <c r="A33" s="70"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
@@ -3721,9 +3734,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="74"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="69" t="s">
+      <c r="A34" s="70"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="82" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -3738,9 +3751,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="74"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="69"/>
+      <c r="A35" s="70"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="24" t="s">
         <v>60</v>
       </c>
@@ -3753,9 +3766,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="74"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="69"/>
+      <c r="A36" s="70"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
@@ -3768,9 +3781,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="74"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="70" t="s">
+      <c r="A37" s="70"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="79" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="25" t="s">
@@ -3784,9 +3797,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="74"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="70"/>
+      <c r="A38" s="70"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="25" t="s">
         <v>64</v>
       </c>
@@ -3798,9 +3811,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="74"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="69" t="s">
+      <c r="A39" s="70"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="82" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -3815,9 +3828,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="74"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="69"/>
+      <c r="A40" s="70"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="82"/>
       <c r="E40" s="24" t="s">
         <v>67</v>
       </c>
@@ -3830,9 +3843,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="74"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="69"/>
+      <c r="A41" s="70"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="24" t="s">
         <v>68</v>
       </c>
@@ -3845,9 +3858,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="74"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="69" t="s">
+      <c r="A42" s="70"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="82" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -3862,9 +3875,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="74"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="69"/>
+      <c r="A43" s="70"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="82"/>
       <c r="E43" s="26" t="s">
         <v>72</v>
       </c>
@@ -3877,9 +3890,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="74"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="69" t="s">
+      <c r="A44" s="70"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="82" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -3894,9 +3907,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="74"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="69"/>
+      <c r="A45" s="70"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="82"/>
       <c r="E45" s="26" t="s">
         <v>75</v>
       </c>
@@ -3909,9 +3922,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="74"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="69" t="s">
+      <c r="A46" s="70"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="82" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="27" t="s">
@@ -3926,9 +3939,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="74"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="69"/>
+      <c r="A47" s="70"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="82"/>
       <c r="E47" s="26" t="s">
         <v>78</v>
       </c>
@@ -3941,9 +3954,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="74"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="69"/>
+      <c r="A48" s="70"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
@@ -3956,9 +3969,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="74"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="69"/>
+      <c r="A49" s="70"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="26" t="s">
         <v>80</v>
       </c>
@@ -3971,9 +3984,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="74"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="70" t="s">
+      <c r="A50" s="70"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="79" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="28" t="s">
@@ -3987,9 +4000,9 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="74"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="70"/>
+      <c r="A51" s="70"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="79"/>
       <c r="E51" s="28" t="s">
         <v>84</v>
       </c>
@@ -4001,9 +4014,9 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="74"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="70" t="s">
+      <c r="A52" s="70"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="79" t="s">
         <v>85</v>
       </c>
       <c r="E52" s="28" t="s">
@@ -4017,9 +4030,9 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="74"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="70"/>
+      <c r="A53" s="70"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="79"/>
       <c r="E53" s="28" t="s">
         <v>87</v>
       </c>
@@ -4031,9 +4044,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="74"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="70"/>
+      <c r="A54" s="70"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="28" t="s">
         <v>88</v>
       </c>
@@ -4045,9 +4058,9 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="74"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="69" t="s">
+      <c r="A55" s="70"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="82" t="s">
         <v>89</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -4062,9 +4075,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="74"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="69"/>
+      <c r="A56" s="70"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="82"/>
       <c r="E56" s="26" t="s">
         <v>91</v>
       </c>
@@ -4077,9 +4090,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="74"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="69" t="s">
+      <c r="A57" s="70"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="82" t="s">
         <v>92</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -4094,9 +4107,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="74"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="69"/>
+      <c r="A58" s="70"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="82"/>
       <c r="E58" s="26" t="s">
         <v>94</v>
       </c>
@@ -4109,9 +4122,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="74"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="69" t="s">
+      <c r="A59" s="70"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="82" t="s">
         <v>95</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4126,9 +4139,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="74"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="69"/>
+      <c r="A60" s="70"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="82"/>
       <c r="E60" s="26" t="s">
         <v>97</v>
       </c>
@@ -4141,9 +4154,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="74"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="69" t="s">
+      <c r="A61" s="70"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -4158,9 +4171,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="74"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="69"/>
+      <c r="A62" s="70"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="82"/>
       <c r="E62" s="26" t="s">
         <v>100</v>
       </c>
@@ -4173,9 +4186,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="74"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="69"/>
+      <c r="A63" s="70"/>
+      <c r="C63" s="74"/>
+      <c r="D63" s="82"/>
       <c r="E63" s="26" t="s">
         <v>101</v>
       </c>
@@ -4188,9 +4201,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="74"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="69" t="s">
+      <c r="A64" s="70"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="82" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -4205,9 +4218,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="74"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="69"/>
+      <c r="A65" s="70"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="82"/>
       <c r="E65" s="26" t="s">
         <v>104</v>
       </c>
@@ -4220,9 +4233,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="74"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="69" t="s">
+      <c r="A66" s="70"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="82" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -4237,9 +4250,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="74"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="69"/>
+      <c r="A67" s="70"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="82"/>
       <c r="E67" s="26" t="s">
         <v>107</v>
       </c>
@@ -4252,9 +4265,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="74"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="69" t="s">
+      <c r="A68" s="70"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="82" t="s">
         <v>108</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -4269,9 +4282,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="74"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="69"/>
+      <c r="A69" s="70"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="82"/>
       <c r="E69" s="30" t="s">
         <v>110</v>
       </c>
@@ -4284,9 +4297,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="74"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="69"/>
+      <c r="A70" s="70"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="82"/>
       <c r="E70" s="26" t="s">
         <v>111</v>
       </c>
@@ -4299,9 +4312,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="74"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="69" t="s">
+      <c r="A71" s="70"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="82" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -4316,9 +4329,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="74"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="69"/>
+      <c r="A72" s="70"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="82"/>
       <c r="E72" s="26" t="s">
         <v>114</v>
       </c>
@@ -4331,9 +4344,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="74"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="69" t="s">
+      <c r="A73" s="70"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="82" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -4348,9 +4361,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="74"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="69"/>
+      <c r="A74" s="70"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="82"/>
       <c r="E74" s="26" t="s">
         <v>117</v>
       </c>
@@ -4363,9 +4376,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="74"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="69"/>
+      <c r="A75" s="70"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="82"/>
       <c r="E75" s="26" t="s">
         <v>118</v>
       </c>
@@ -4378,9 +4391,9 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="74"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="69" t="s">
+      <c r="A76" s="70"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="82" t="s">
         <v>119</v>
       </c>
       <c r="E76" s="30" t="s">
@@ -4395,9 +4408,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="74"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="69"/>
+      <c r="A77" s="70"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="82"/>
       <c r="E77" s="30" t="s">
         <v>121</v>
       </c>
@@ -4410,9 +4423,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="74"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="69" t="s">
+      <c r="A78" s="70"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="82" t="s">
         <v>122</v>
       </c>
       <c r="E78" s="30" t="s">
@@ -4427,9 +4440,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="74"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="69"/>
+      <c r="A79" s="70"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="82"/>
       <c r="E79" s="30" t="s">
         <v>124</v>
       </c>
@@ -4465,7 +4478,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="74" t="s">
+      <c r="A81" s="70" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4488,7 +4501,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="74"/>
+      <c r="A82" s="70"/>
       <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
@@ -4509,7 +4522,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="77" t="s">
+      <c r="A83" s="71" t="s">
         <v>138</v>
       </c>
       <c r="B83" s="36" t="s">
@@ -4533,7 +4546,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="77"/>
+      <c r="A84" s="71"/>
       <c r="B84" s="36" t="s">
         <v>142</v>
       </c>
@@ -4555,7 +4568,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="77"/>
+      <c r="A85" s="71"/>
       <c r="B85" s="36" t="s">
         <v>145</v>
       </c>
@@ -4577,7 +4590,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="77"/>
+      <c r="A86" s="71"/>
       <c r="B86" s="36" t="s">
         <v>147</v>
       </c>
@@ -4599,13 +4612,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="74" t="s">
+      <c r="A87" s="70" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="75" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -4622,11 +4635,11 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="74"/>
-      <c r="B88" s="74" t="s">
+      <c r="A88" s="70"/>
+      <c r="B88" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="79"/>
+      <c r="C88" s="75"/>
       <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
@@ -4641,9 +4654,9 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="75"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="80"/>
+      <c r="A89" s="72"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="76"/>
       <c r="D89" s="40" t="s">
         <v>17</v>
       </c>
@@ -4661,9 +4674,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="74"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="79"/>
+      <c r="A90" s="70"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="75"/>
       <c r="D90" s="8" t="s">
         <v>25</v>
       </c>
@@ -4681,9 +4694,9 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="74"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="79"/>
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="75"/>
       <c r="D91" s="42" t="s">
         <v>45</v>
       </c>
@@ -4701,9 +4714,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="74"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="79"/>
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="75"/>
       <c r="D92" s="42" t="s">
         <v>55</v>
       </c>
@@ -4719,9 +4732,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="74"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="79"/>
+      <c r="A93" s="70"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="75"/>
       <c r="D93" s="42" t="s">
         <v>42</v>
       </c>
@@ -4739,9 +4752,9 @@
       </c>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A94" s="75"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="80"/>
+      <c r="A94" s="72"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="76"/>
       <c r="D94" s="40" t="s">
         <v>39</v>
       </c>
@@ -4759,9 +4772,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="75"/>
-      <c r="B95" s="75"/>
-      <c r="C95" s="80"/>
+      <c r="A95" s="72"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="76"/>
       <c r="D95" s="40" t="s">
         <v>35</v>
       </c>
@@ -4779,9 +4792,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A96" s="75"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="80"/>
+      <c r="A96" s="72"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="76"/>
       <c r="D96" s="40" t="s">
         <v>31</v>
       </c>
@@ -4797,9 +4810,9 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="27">
-      <c r="A97" s="74"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="79"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="75"/>
       <c r="D97" s="42" t="s">
         <v>166</v>
       </c>
@@ -4817,9 +4830,9 @@
       </c>
     </row>
     <row r="98" spans="1:9" s="5" customFormat="1">
-      <c r="A98" s="76"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="81"/>
+      <c r="A98" s="73"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="77"/>
       <c r="D98" s="42" t="s">
         <v>76</v>
       </c>
@@ -4837,9 +4850,9 @@
       </c>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1">
-      <c r="A99" s="75"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="80"/>
+      <c r="A99" s="72"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="76"/>
       <c r="D99" s="40" t="s">
         <v>85</v>
       </c>
@@ -4857,9 +4870,9 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="33">
-      <c r="A100" s="74"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="79"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="75"/>
       <c r="D100" s="8" t="s">
         <v>115</v>
       </c>
@@ -4877,9 +4890,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" s="4" customFormat="1">
-      <c r="A101" s="75"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="80"/>
+      <c r="A101" s="72"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="76"/>
       <c r="D101" s="40" t="s">
         <v>119</v>
       </c>
@@ -4897,9 +4910,9 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="74"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="79"/>
+      <c r="A102" s="70"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="75"/>
       <c r="D102" s="8" t="s">
         <v>81</v>
       </c>
@@ -4917,9 +4930,9 @@
       </c>
     </row>
     <row r="103" spans="1:9" s="4" customFormat="1">
-      <c r="A103" s="75"/>
-      <c r="B103" s="75"/>
-      <c r="C103" s="80"/>
+      <c r="A103" s="72"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="76"/>
       <c r="D103" s="40" t="s">
         <v>52</v>
       </c>
@@ -4935,9 +4948,9 @@
       </c>
     </row>
     <row r="104" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A104" s="75"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="80"/>
+      <c r="A104" s="72"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="76"/>
       <c r="D104" s="40" t="s">
         <v>95</v>
       </c>
@@ -4955,9 +4968,9 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="27">
-      <c r="A105" s="74"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="79"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="75"/>
       <c r="D105" s="8" t="s">
         <v>98</v>
       </c>
@@ -4975,9 +4988,9 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="74"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="79"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="75"/>
       <c r="D106" s="8" t="s">
         <v>92</v>
       </c>
@@ -4995,9 +5008,9 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="33">
-      <c r="A107" s="74"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="79"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="75"/>
       <c r="D107" s="8" t="s">
         <v>89</v>
       </c>
@@ -5016,9 +5029,9 @@
       <c r="I107" s="56"/>
     </row>
     <row r="108" spans="1:9" s="4" customFormat="1">
-      <c r="A108" s="75"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="80"/>
+      <c r="A108" s="72"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="76"/>
       <c r="D108" s="40" t="s">
         <v>48</v>
       </c>
@@ -5036,9 +5049,9 @@
       </c>
     </row>
     <row r="109" spans="1:9" s="4" customFormat="1">
-      <c r="A109" s="75"/>
-      <c r="B109" s="75"/>
-      <c r="C109" s="80"/>
+      <c r="A109" s="72"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="76"/>
       <c r="D109" s="40" t="s">
         <v>112</v>
       </c>
@@ -5056,9 +5069,9 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="74"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="79"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="75"/>
       <c r="D110" s="8" t="s">
         <v>28</v>
       </c>
@@ -5073,9 +5086,9 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="74"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="79"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="75"/>
       <c r="D111" s="8" t="s">
         <v>102</v>
       </c>
@@ -5091,9 +5104,9 @@
       <c r="I111" s="56"/>
     </row>
     <row r="112" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A112" s="75"/>
-      <c r="B112" s="75"/>
-      <c r="C112" s="80"/>
+      <c r="A112" s="72"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="76"/>
       <c r="D112" s="40" t="s">
         <v>105</v>
       </c>
@@ -5112,9 +5125,9 @@
       <c r="I112" s="57"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="74"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="79"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="75"/>
       <c r="D113" s="40" t="s">
         <v>73</v>
       </c>
@@ -5132,9 +5145,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="74"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="79"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="75"/>
       <c r="D114" s="40" t="s">
         <v>122</v>
       </c>
@@ -5152,9 +5165,9 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="74"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="79"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="75"/>
       <c r="D115" s="8" t="s">
         <v>62</v>
       </c>
@@ -5172,9 +5185,9 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="74"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="79"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="75"/>
       <c r="D116" s="8" t="s">
         <v>58</v>
       </c>
@@ -5192,9 +5205,9 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="74"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="79"/>
+      <c r="A117" s="70"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="75"/>
       <c r="D117" s="40" t="s">
         <v>65</v>
       </c>
@@ -5212,9 +5225,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="74"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="79"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="75"/>
       <c r="D118" s="40" t="s">
         <v>108</v>
       </c>
@@ -5232,11 +5245,11 @@
       </c>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="74"/>
-      <c r="B119" s="77" t="s">
+      <c r="A119" s="70"/>
+      <c r="B119" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="C119" s="79"/>
+      <c r="C119" s="75"/>
       <c r="D119" s="53" t="s">
         <v>31</v>
       </c>
@@ -5257,9 +5270,9 @@
       <c r="K119" s="52"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A120" s="74"/>
-      <c r="B120" s="77"/>
-      <c r="C120" s="79"/>
+      <c r="A120" s="70"/>
+      <c r="B120" s="71"/>
+      <c r="C120" s="75"/>
       <c r="D120" s="53" t="s">
         <v>39</v>
       </c>
@@ -5280,9 +5293,9 @@
       <c r="K120" s="52"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="74"/>
-      <c r="B121" s="77"/>
-      <c r="C121" s="79"/>
+      <c r="A121" s="70"/>
+      <c r="B121" s="71"/>
+      <c r="C121" s="75"/>
       <c r="D121" s="53" t="s">
         <v>95</v>
       </c>
@@ -5303,9 +5316,9 @@
       <c r="K121" s="52"/>
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="74"/>
-      <c r="B122" s="77"/>
-      <c r="C122" s="79"/>
+      <c r="A122" s="70"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="75"/>
       <c r="D122" s="53" t="s">
         <v>108</v>
       </c>
@@ -5325,9 +5338,9 @@
       <c r="J122" s="52"/>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A123" s="74"/>
-      <c r="B123" s="77"/>
-      <c r="C123" s="79"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="75"/>
       <c r="D123" s="53" t="s">
         <v>42</v>
       </c>
@@ -5347,9 +5360,9 @@
       <c r="J123" s="52"/>
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="74"/>
-      <c r="B124" s="77"/>
-      <c r="C124" s="79"/>
+      <c r="A124" s="70"/>
+      <c r="B124" s="71"/>
+      <c r="C124" s="75"/>
       <c r="D124" s="53" t="s">
         <v>122</v>
       </c>
@@ -5369,9 +5382,9 @@
       <c r="J124" s="52"/>
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="74"/>
-      <c r="B125" s="77"/>
-      <c r="C125" s="79"/>
+      <c r="A125" s="70"/>
+      <c r="B125" s="71"/>
+      <c r="C125" s="75"/>
       <c r="D125" s="53" t="s">
         <v>62</v>
       </c>
@@ -5391,9 +5404,9 @@
       <c r="J125" s="52"/>
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="74"/>
-      <c r="B126" s="77"/>
-      <c r="C126" s="79"/>
+      <c r="A126" s="70"/>
+      <c r="B126" s="71"/>
+      <c r="C126" s="75"/>
       <c r="D126" s="53" t="s">
         <v>58</v>
       </c>
@@ -5411,9 +5424,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="74"/>
-      <c r="B127" s="77"/>
-      <c r="C127" s="79"/>
+      <c r="A127" s="70"/>
+      <c r="B127" s="71"/>
+      <c r="C127" s="75"/>
       <c r="D127" s="55" t="s">
         <v>69</v>
       </c>
@@ -5431,19 +5444,19 @@
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="74"/>
-      <c r="B128" s="77"/>
-      <c r="C128" s="79"/>
-      <c r="D128" s="55" t="s">
+      <c r="A128" s="70"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="75"/>
+      <c r="D128" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="33" t="s">
+      <c r="E128" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="F128" s="54" t="s">
+      <c r="F128" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="G128" s="12" t="s">
+      <c r="G128" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H128" s="51" t="s">
@@ -5451,19 +5464,19 @@
       </c>
     </row>
     <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="74"/>
-      <c r="B129" s="77"/>
-      <c r="C129" s="79"/>
-      <c r="D129" s="55" t="s">
+      <c r="A129" s="70"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="75"/>
+      <c r="D129" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="E129" s="33" t="s">
+      <c r="E129" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="F129" s="54" t="s">
+      <c r="F129" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="G129" s="12" t="s">
+      <c r="G129" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H129" s="51" t="s">
@@ -5473,9 +5486,9 @@
       <c r="J129" s="52"/>
     </row>
     <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="74"/>
-      <c r="B130" s="77"/>
-      <c r="C130" s="79"/>
+      <c r="A130" s="70"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="75"/>
       <c r="D130" s="55" t="s">
         <v>102</v>
       </c>
@@ -5494,9 +5507,9 @@
       <c r="J130" s="52"/>
     </row>
     <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="74"/>
-      <c r="B131" s="77"/>
-      <c r="C131" s="79"/>
+      <c r="A131" s="70"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="75"/>
       <c r="D131" s="55" t="s">
         <v>81</v>
       </c>
@@ -5514,9 +5527,9 @@
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="74"/>
-      <c r="B132" s="77"/>
-      <c r="C132" s="79"/>
+      <c r="A132" s="70"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="75"/>
       <c r="D132" s="55" t="s">
         <v>115</v>
       </c>
@@ -5532,29 +5545,29 @@
       </c>
     </row>
     <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="74"/>
-      <c r="B133" s="77"/>
-      <c r="C133" s="79"/>
-      <c r="D133" s="55" t="s">
+      <c r="A133" s="70"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="75"/>
+      <c r="D133" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="E133" s="33" t="s">
+      <c r="E133" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="F133" s="54" t="s">
+      <c r="F133" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="G133" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" s="52" t="s">
+      <c r="G133" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="74"/>
-      <c r="B134" s="77"/>
-      <c r="C134" s="79"/>
+      <c r="A134" s="70"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="75"/>
       <c r="D134" s="55" t="s">
         <v>105</v>
       </c>
@@ -5573,9 +5586,9 @@
       <c r="I134" s="52"/>
     </row>
     <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="74"/>
-      <c r="B135" s="77"/>
-      <c r="C135" s="79"/>
+      <c r="A135" s="70"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="75"/>
       <c r="D135" s="55" t="s">
         <v>85</v>
       </c>
@@ -5594,9 +5607,9 @@
       <c r="I135" s="52"/>
     </row>
     <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="74"/>
-      <c r="B136" s="77"/>
-      <c r="C136" s="79"/>
+      <c r="A136" s="70"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="75"/>
       <c r="D136" s="53" t="s">
         <v>73</v>
       </c>
@@ -5613,7 +5626,7 @@
       <c r="I136" s="52"/>
     </row>
     <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="74" t="s">
+      <c r="A137" s="70" t="s">
         <v>221</v>
       </c>
       <c r="B137" s="36" t="s">
@@ -5635,7 +5648,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="74"/>
+      <c r="A138" s="70"/>
       <c r="B138" s="36" t="s">
         <v>226</v>
       </c>
@@ -5655,7 +5668,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="74"/>
+      <c r="A139" s="70"/>
       <c r="B139" s="36" t="s">
         <v>228</v>
       </c>
@@ -5675,7 +5688,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="74"/>
+      <c r="A140" s="70"/>
       <c r="B140" s="36" t="s">
         <v>230</v>
       </c>
@@ -5695,7 +5708,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="74"/>
+      <c r="A141" s="70"/>
       <c r="B141" s="36" t="s">
         <v>233</v>
       </c>
@@ -5715,7 +5728,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="74"/>
+      <c r="A142" s="70"/>
       <c r="B142" s="36" t="s">
         <v>236</v>
       </c>
@@ -5735,7 +5748,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="74"/>
+      <c r="A143" s="70"/>
       <c r="B143" s="36" t="s">
         <v>239</v>
       </c>
@@ -5755,7 +5768,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="74"/>
+      <c r="A144" s="70"/>
       <c r="B144" s="6" t="s">
         <v>242</v>
       </c>
@@ -5775,14 +5788,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="49.5">
-      <c r="A145" s="74" t="s">
+    <row r="145" spans="1:8" ht="49.5">
+      <c r="A145" s="70" t="s">
         <v>245</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="71" t="s">
+      <c r="C145" s="78" t="s">
         <v>247</v>
       </c>
       <c r="D145" s="63" t="s">
@@ -5797,10 +5810,13 @@
       <c r="G145" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="74"/>
-      <c r="C146" s="71"/>
+      <c r="H145" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="70"/>
+      <c r="C146" s="78"/>
       <c r="D146" s="63" t="s">
         <v>251</v>
       </c>
@@ -5813,10 +5829,13 @@
       <c r="G146" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="74"/>
-      <c r="C147" s="71"/>
+      <c r="H146" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="70"/>
+      <c r="C147" s="78"/>
       <c r="D147" s="63" t="s">
         <v>254</v>
       </c>
@@ -5826,10 +5845,13 @@
       <c r="G147" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="74"/>
-      <c r="C148" s="71"/>
+      <c r="H147" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="70"/>
+      <c r="C148" s="78"/>
       <c r="D148" s="63" t="s">
         <v>256</v>
       </c>
@@ -5839,10 +5861,13 @@
       <c r="G148" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="74"/>
-      <c r="C149" s="71"/>
+      <c r="H148" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="70"/>
+      <c r="C149" s="78"/>
       <c r="D149" s="63" t="s">
         <v>258</v>
       </c>
@@ -5852,10 +5877,13 @@
       <c r="G149" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="74"/>
-      <c r="C150" s="71"/>
+      <c r="H149" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="70"/>
+      <c r="C150" s="78"/>
       <c r="D150" s="63" t="s">
         <v>260</v>
       </c>
@@ -5865,10 +5893,13 @@
       <c r="G150" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="33">
-      <c r="A151" s="74"/>
-      <c r="C151" s="71"/>
+      <c r="H150" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="33">
+      <c r="A151" s="70"/>
+      <c r="C151" s="78"/>
       <c r="D151" s="63" t="s">
         <v>262</v>
       </c>
@@ -5878,10 +5909,13 @@
       <c r="G151" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="74"/>
-      <c r="C152" s="71"/>
+      <c r="H151" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="70"/>
+      <c r="C152" s="78"/>
       <c r="D152" s="63" t="s">
         <v>264</v>
       </c>
@@ -5891,10 +5925,13 @@
       <c r="G152" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="74"/>
-      <c r="C153" s="71"/>
+      <c r="H152" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="70"/>
+      <c r="C153" s="78"/>
       <c r="D153" s="63" t="s">
         <v>266</v>
       </c>
@@ -5904,10 +5941,13 @@
       <c r="G153" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="74"/>
-      <c r="C154" s="71"/>
+      <c r="H153" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="70"/>
+      <c r="C154" s="78"/>
       <c r="D154" s="63" t="s">
         <v>268</v>
       </c>
@@ -5917,10 +5957,13 @@
       <c r="G154" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="74"/>
-      <c r="C155" s="71"/>
+      <c r="H154" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="70"/>
+      <c r="C155" s="78"/>
       <c r="D155" s="63" t="s">
         <v>270</v>
       </c>
@@ -5930,10 +5973,13 @@
       <c r="G155" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="74"/>
-      <c r="C156" s="71"/>
+      <c r="H155" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="70"/>
+      <c r="C156" s="78"/>
       <c r="D156" s="63" t="s">
         <v>272</v>
       </c>
@@ -5943,10 +5989,13 @@
       <c r="G156" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="33">
-      <c r="A157" s="74"/>
-      <c r="C157" s="71"/>
+      <c r="H156" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="33">
+      <c r="A157" s="70"/>
+      <c r="C157" s="78"/>
       <c r="D157" s="63" t="s">
         <v>274</v>
       </c>
@@ -5956,15 +6005,18 @@
       <c r="G157" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="49.5">
-      <c r="A158" s="74" t="s">
+      <c r="H157" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="49.5">
+      <c r="A158" s="70" t="s">
         <v>245</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C158" s="71" t="s">
+      <c r="C158" s="78" t="s">
         <v>277</v>
       </c>
       <c r="D158" s="63" t="s">
@@ -5976,10 +6028,13 @@
       <c r="G158" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="74"/>
-      <c r="C159" s="71"/>
+      <c r="H158" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="70"/>
+      <c r="C159" s="78"/>
       <c r="D159" s="63" t="s">
         <v>260</v>
       </c>
@@ -5989,10 +6044,13 @@
       <c r="G159" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="74"/>
-      <c r="C160" s="71"/>
+      <c r="H159" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="70"/>
+      <c r="C160" s="78"/>
       <c r="D160" s="63" t="s">
         <v>264</v>
       </c>
@@ -6002,10 +6060,13 @@
       <c r="G160" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="74"/>
-      <c r="C161" s="71"/>
+      <c r="H160" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="70"/>
+      <c r="C161" s="78"/>
       <c r="D161" s="63" t="s">
         <v>266</v>
       </c>
@@ -6015,10 +6076,13 @@
       <c r="G161" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="74"/>
-      <c r="C162" s="71"/>
+      <c r="H161" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="70"/>
+      <c r="C162" s="78"/>
       <c r="D162" s="63" t="s">
         <v>268</v>
       </c>
@@ -6028,10 +6092,13 @@
       <c r="G162" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="74"/>
-      <c r="C163" s="71"/>
+      <c r="H162" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="70"/>
+      <c r="C163" s="78"/>
       <c r="D163" s="63" t="s">
         <v>270</v>
       </c>
@@ -6041,10 +6108,13 @@
       <c r="G163" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="74"/>
-      <c r="C164" s="71"/>
+      <c r="H163" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="70"/>
+      <c r="C164" s="78"/>
       <c r="D164" s="63" t="s">
         <v>272</v>
       </c>
@@ -6054,15 +6124,18 @@
       <c r="G164" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="74" t="s">
+      <c r="H164" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="70" t="s">
         <v>245</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C165" s="71" t="s">
+      <c r="C165" s="78" t="s">
         <v>240</v>
       </c>
       <c r="D165" s="63" t="s">
@@ -6074,10 +6147,13 @@
       <c r="G165" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="74"/>
-      <c r="C166" s="71"/>
+      <c r="H165" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="70"/>
+      <c r="C166" s="78"/>
       <c r="D166" s="63" t="s">
         <v>254</v>
       </c>
@@ -6087,10 +6163,13 @@
       <c r="G166" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="74"/>
-      <c r="C167" s="71"/>
+      <c r="H166" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="70"/>
+      <c r="C167" s="78"/>
       <c r="D167" s="63" t="s">
         <v>256</v>
       </c>
@@ -6100,10 +6179,13 @@
       <c r="G167" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="74"/>
-      <c r="C168" s="71"/>
+      <c r="H167" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="70"/>
+      <c r="C168" s="78"/>
       <c r="D168" s="63" t="s">
         <v>258</v>
       </c>
@@ -6113,10 +6195,13 @@
       <c r="G168" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="74"/>
-      <c r="C169" s="71"/>
+      <c r="H168" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="70"/>
+      <c r="C169" s="78"/>
       <c r="D169" s="63" t="s">
         <v>290</v>
       </c>
@@ -6126,10 +6211,13 @@
       <c r="G169" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="74"/>
-      <c r="C170" s="71"/>
+      <c r="H169" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="70"/>
+      <c r="C170" s="78"/>
       <c r="D170" s="63" t="s">
         <v>262</v>
       </c>
@@ -6139,10 +6227,13 @@
       <c r="G170" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="74"/>
-      <c r="C171" s="71"/>
+      <c r="H170" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="70"/>
+      <c r="C171" s="78"/>
       <c r="D171" s="9" t="s">
         <v>293</v>
       </c>
@@ -6152,10 +6243,13 @@
       <c r="G171" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="74"/>
-      <c r="C172" s="71"/>
+      <c r="H171" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="70"/>
+      <c r="C172" s="78"/>
       <c r="D172" s="63" t="s">
         <v>268</v>
       </c>
@@ -6165,10 +6259,13 @@
       <c r="G172" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="74"/>
-      <c r="C173" s="71"/>
+      <c r="H172" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="70"/>
+      <c r="C173" s="78"/>
       <c r="D173" s="63" t="s">
         <v>270</v>
       </c>
@@ -6178,10 +6275,13 @@
       <c r="G173" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="74"/>
-      <c r="C174" s="71"/>
+      <c r="H173" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="70"/>
+      <c r="C174" s="78"/>
       <c r="D174" s="63" t="s">
         <v>272</v>
       </c>
@@ -6191,10 +6291,13 @@
       <c r="G174" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="33">
-      <c r="A175" s="74"/>
-      <c r="C175" s="71"/>
+      <c r="H174" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="33">
+      <c r="A175" s="70"/>
+      <c r="C175" s="78"/>
       <c r="D175" s="63" t="s">
         <v>274</v>
       </c>
@@ -6204,15 +6307,18 @@
       <c r="G175" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="74" t="s">
+      <c r="H175" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="70" t="s">
         <v>245</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C176" s="71" t="s">
+      <c r="C176" s="78" t="s">
         <v>240</v>
       </c>
       <c r="D176" s="63" t="s">
@@ -6224,10 +6330,13 @@
       <c r="G176" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="H176" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="74"/>
-      <c r="C177" s="71"/>
+      <c r="A177" s="70"/>
+      <c r="C177" s="78"/>
       <c r="D177" s="63" t="s">
         <v>254</v>
       </c>
@@ -6237,10 +6346,13 @@
       <c r="G177" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="H177" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="74"/>
-      <c r="C178" s="71"/>
+      <c r="A178" s="70"/>
+      <c r="C178" s="78"/>
       <c r="D178" s="63" t="s">
         <v>256</v>
       </c>
@@ -6250,10 +6362,13 @@
       <c r="G178" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="H178" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="74"/>
-      <c r="C179" s="71"/>
+      <c r="A179" s="70"/>
+      <c r="C179" s="78"/>
       <c r="D179" s="63" t="s">
         <v>258</v>
       </c>
@@ -6263,10 +6378,13 @@
       <c r="G179" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="H179" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="74"/>
-      <c r="C180" s="71"/>
+      <c r="A180" s="70"/>
+      <c r="C180" s="78"/>
       <c r="D180" s="63" t="s">
         <v>290</v>
       </c>
@@ -6276,10 +6394,13 @@
       <c r="G180" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="H180" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="74"/>
-      <c r="C181" s="71"/>
+      <c r="A181" s="70"/>
+      <c r="C181" s="78"/>
       <c r="D181" s="63" t="s">
         <v>262</v>
       </c>
@@ -6289,10 +6410,13 @@
       <c r="G181" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="H181" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="74"/>
-      <c r="C182" s="71"/>
+      <c r="A182" s="70"/>
+      <c r="C182" s="78"/>
       <c r="D182" s="63" t="s">
         <v>266</v>
       </c>
@@ -6302,10 +6426,13 @@
       <c r="G182" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="H182" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="74"/>
-      <c r="C183" s="71"/>
+      <c r="A183" s="70"/>
+      <c r="C183" s="78"/>
       <c r="D183" s="9" t="s">
         <v>293</v>
       </c>
@@ -6315,10 +6442,13 @@
       <c r="G183" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="H183" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="74"/>
-      <c r="C184" s="71"/>
+      <c r="A184" s="70"/>
+      <c r="C184" s="78"/>
       <c r="D184" s="63" t="s">
         <v>268</v>
       </c>
@@ -6328,10 +6458,13 @@
       <c r="G184" s="12" t="s">
         <v>130</v>
       </c>
+      <c r="H184" s="52" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="74"/>
-      <c r="C185" s="71"/>
+      <c r="A185" s="70"/>
+      <c r="C185" s="78"/>
       <c r="D185" s="63" t="s">
         <v>274</v>
       </c>
@@ -6340,6 +6473,9 @@
       </c>
       <c r="G185" s="12" t="s">
         <v>12</v>
+      </c>
+      <c r="H185" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="66">
@@ -6443,7 +6579,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="74" t="s">
+      <c r="A191" s="70" t="s">
         <v>329</v>
       </c>
       <c r="B191" s="12" t="s">
@@ -6461,9 +6597,12 @@
       <c r="G191" s="12" t="s">
         <v>130</v>
       </c>
+      <c r="H191" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="74"/>
+      <c r="A192" s="70"/>
       <c r="B192" s="12" t="s">
         <v>333</v>
       </c>
@@ -6479,9 +6618,12 @@
       <c r="G192" s="12" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="74"/>
+      <c r="H192" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="70"/>
       <c r="B193" s="12" t="s">
         <v>336</v>
       </c>
@@ -6497,8 +6639,11 @@
       <c r="G193" s="12" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="99">
+      <c r="H193" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="99">
       <c r="A194" s="11" t="s">
         <v>339</v>
       </c>
@@ -6514,28 +6659,35 @@
       <c r="G194" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="G195" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H195"/>
   <mergeCells count="50">
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6552,25 +6704,21 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\crawler-scrapy\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2001,7 +2001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2212,16 +2212,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2235,27 +2259,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3187,11 +3190,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N129" sqref="N129"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H54" sqref="E53:H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="6" customWidth="1"/>
@@ -3232,13 +3235,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="74" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3253,9 +3256,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="70"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="78"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
@@ -3268,9 +3271,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="70"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="79"/>
+      <c r="A4" s="78"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
@@ -3282,9 +3285,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="70"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="80" t="s">
+      <c r="A5" s="78"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="76" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -3299,9 +3302,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="70"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="81"/>
+      <c r="A6" s="78"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3314,9 +3317,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="70"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="81"/>
+      <c r="A7" s="78"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3329,9 +3332,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="70"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="82" t="s">
+      <c r="A8" s="78"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="73" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -3346,9 +3349,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="70"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="82"/>
+      <c r="A9" s="78"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="19" t="s">
         <v>23</v>
       </c>
@@ -3361,9 +3364,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="70"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="82"/>
+      <c r="A10" s="78"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
@@ -3376,9 +3379,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="70"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="80" t="s">
+      <c r="A11" s="78"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="76" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -3393,9 +3396,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="70"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="81"/>
+      <c r="A12" s="78"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3408,9 +3411,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="70"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="79" t="s">
+      <c r="A13" s="78"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="74" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -3424,9 +3427,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="70"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="79"/>
+      <c r="A14" s="78"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
@@ -3438,9 +3441,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="70"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="79" t="s">
+      <c r="A15" s="78"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="74" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -3454,9 +3457,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="70"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="79"/>
+      <c r="A16" s="78"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
@@ -3468,9 +3471,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="70"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="79"/>
+      <c r="A17" s="78"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="20" t="s">
         <v>34</v>
       </c>
@@ -3482,9 +3485,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="70"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="79" t="s">
+      <c r="A18" s="78"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="74" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -3498,9 +3501,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="70"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="79"/>
+      <c r="A19" s="78"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="13" t="s">
         <v>37</v>
       </c>
@@ -3513,9 +3516,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="70"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="79"/>
+      <c r="A20" s="78"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
@@ -3528,9 +3531,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="70"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="80" t="s">
+      <c r="A21" s="78"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -3545,9 +3548,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="70"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="78"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="13" t="s">
         <v>41</v>
       </c>
@@ -3560,9 +3563,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="70"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="79" t="s">
+      <c r="A23" s="78"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="74" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -3576,9 +3579,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="70"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="79"/>
+      <c r="A24" s="78"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
@@ -3590,9 +3593,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="70"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="82" t="s">
+      <c r="A25" s="78"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="73" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -3607,9 +3610,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="70"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="82"/>
+      <c r="A26" s="78"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
@@ -3622,9 +3625,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="70"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="79" t="s">
+      <c r="A27" s="78"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="74" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3641,9 +3644,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="70"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="79"/>
+      <c r="A28" s="78"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="16" t="s">
         <v>51</v>
       </c>
@@ -3658,9 +3661,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="70"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="79" t="s">
+      <c r="A29" s="78"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="74" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -3674,9 +3677,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="70"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="79"/>
+      <c r="A30" s="78"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="23" t="s">
         <v>54</v>
       </c>
@@ -3688,9 +3691,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="70"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="79"/>
+      <c r="A31" s="78"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
@@ -3702,9 +3705,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="70"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="82" t="s">
+      <c r="A32" s="78"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="73" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3719,9 +3722,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="70"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="82"/>
+      <c r="A33" s="78"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
@@ -3734,9 +3737,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="70"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="82" t="s">
+      <c r="A34" s="78"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="73" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -3751,9 +3754,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="70"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="82"/>
+      <c r="A35" s="78"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="24" t="s">
         <v>60</v>
       </c>
@@ -3766,9 +3769,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="70"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="82"/>
+      <c r="A36" s="78"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
@@ -3781,9 +3784,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="70"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="79" t="s">
+      <c r="A37" s="78"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="25" t="s">
@@ -3797,9 +3800,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="70"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="79"/>
+      <c r="A38" s="78"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="25" t="s">
         <v>64</v>
       </c>
@@ -3811,9 +3814,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="70"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="82" t="s">
+      <c r="A39" s="78"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="73" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -3828,9 +3831,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="70"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="82"/>
+      <c r="A40" s="78"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="73"/>
       <c r="E40" s="24" t="s">
         <v>67</v>
       </c>
@@ -3843,9 +3846,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="70"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="82"/>
+      <c r="A41" s="78"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="73"/>
       <c r="E41" s="24" t="s">
         <v>68</v>
       </c>
@@ -3857,10 +3860,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="70"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="82" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="78"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="73" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -3875,9 +3878,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="70"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="82"/>
+      <c r="A43" s="78"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="26" t="s">
         <v>72</v>
       </c>
@@ -3890,9 +3893,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="70"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="82" t="s">
+      <c r="A44" s="78"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="73" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -3907,9 +3910,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="70"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="82"/>
+      <c r="A45" s="78"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="73"/>
       <c r="E45" s="26" t="s">
         <v>75</v>
       </c>
@@ -3922,9 +3925,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="70"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="82" t="s">
+      <c r="A46" s="78"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="73" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="27" t="s">
@@ -3939,9 +3942,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="70"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="82"/>
+      <c r="A47" s="78"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="73"/>
       <c r="E47" s="26" t="s">
         <v>78</v>
       </c>
@@ -3954,9 +3957,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="70"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="82"/>
+      <c r="A48" s="78"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="73"/>
       <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
@@ -3969,9 +3972,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="70"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="82"/>
+      <c r="A49" s="78"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="26" t="s">
         <v>80</v>
       </c>
@@ -3983,40 +3986,42 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="70"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="79" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="78"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>83</v>
+      <c r="F50" s="14"/>
+      <c r="G50" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="70"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="28" t="s">
+      <c r="A51" s="78"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>83</v>
+      <c r="F51" s="14"/>
+      <c r="G51" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="70"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="79" t="s">
+      <c r="A52" s="78"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="74" t="s">
         <v>85</v>
       </c>
       <c r="E52" s="28" t="s">
@@ -4030,37 +4035,39 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="70"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="28" t="s">
+      <c r="A53" s="78"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>83</v>
+      <c r="F53" s="14"/>
+      <c r="G53" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="70"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="28" t="s">
+      <c r="A54" s="78"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>83</v>
+      <c r="F54" s="14"/>
+      <c r="G54" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="70"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="82" t="s">
+      <c r="A55" s="78"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="73" t="s">
         <v>89</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -4075,9 +4082,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="70"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="82"/>
+      <c r="A56" s="78"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="73"/>
       <c r="E56" s="26" t="s">
         <v>91</v>
       </c>
@@ -4090,9 +4097,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="70"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="82" t="s">
+      <c r="A57" s="78"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="73" t="s">
         <v>92</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -4107,9 +4114,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="70"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="82"/>
+      <c r="A58" s="78"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="73"/>
       <c r="E58" s="26" t="s">
         <v>94</v>
       </c>
@@ -4122,9 +4129,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="70"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="82" t="s">
+      <c r="A59" s="78"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="73" t="s">
         <v>95</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4139,9 +4146,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="70"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="82"/>
+      <c r="A60" s="78"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="73"/>
       <c r="E60" s="26" t="s">
         <v>97</v>
       </c>
@@ -4154,9 +4161,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="70"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="82" t="s">
+      <c r="A61" s="78"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="73" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -4171,9 +4178,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="70"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="82"/>
+      <c r="A62" s="78"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="26" t="s">
         <v>100</v>
       </c>
@@ -4186,9 +4193,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="70"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="82"/>
+      <c r="A63" s="78"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="73"/>
       <c r="E63" s="26" t="s">
         <v>101</v>
       </c>
@@ -4201,9 +4208,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="70"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="82" t="s">
+      <c r="A64" s="78"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="73" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -4218,9 +4225,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="70"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="82"/>
+      <c r="A65" s="78"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="73"/>
       <c r="E65" s="26" t="s">
         <v>104</v>
       </c>
@@ -4232,10 +4239,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="70"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="82" t="s">
+    <row r="66" spans="1:8" ht="30">
+      <c r="A66" s="78"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="73" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -4249,10 +4256,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="70"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="82"/>
+    <row r="67" spans="1:8">
+      <c r="A67" s="78"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="73"/>
       <c r="E67" s="26" t="s">
         <v>107</v>
       </c>
@@ -4264,10 +4271,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="70"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="82" t="s">
+    <row r="68" spans="1:8" ht="45">
+      <c r="A68" s="78"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="73" t="s">
         <v>108</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -4282,9 +4289,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="70"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="82"/>
+      <c r="A69" s="78"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="73"/>
       <c r="E69" s="30" t="s">
         <v>110</v>
       </c>
@@ -4297,9 +4304,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="70"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="82"/>
+      <c r="A70" s="78"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="73"/>
       <c r="E70" s="26" t="s">
         <v>111</v>
       </c>
@@ -4311,10 +4318,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="70"/>
-      <c r="C71" s="74"/>
-      <c r="D71" s="82" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="78"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -4328,10 +4335,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="70"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="82"/>
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="78"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="73"/>
       <c r="E72" s="26" t="s">
         <v>114</v>
       </c>
@@ -4343,10 +4350,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="70"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="82" t="s">
+    <row r="73" spans="1:8" ht="30">
+      <c r="A73" s="78"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="73" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -4360,10 +4367,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="70"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="82"/>
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="78"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="73"/>
       <c r="E74" s="26" t="s">
         <v>117</v>
       </c>
@@ -4375,10 +4382,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="70"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="82"/>
+    <row r="75" spans="1:8" ht="30">
+      <c r="A75" s="78"/>
+      <c r="C75" s="82"/>
+      <c r="D75" s="73"/>
       <c r="E75" s="26" t="s">
         <v>118</v>
       </c>
@@ -4391,9 +4398,9 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="70"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="82" t="s">
+      <c r="A76" s="78"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="73" t="s">
         <v>119</v>
       </c>
       <c r="E76" s="30" t="s">
@@ -4408,9 +4415,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="70"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="82"/>
+      <c r="A77" s="78"/>
+      <c r="C77" s="82"/>
+      <c r="D77" s="73"/>
       <c r="E77" s="30" t="s">
         <v>121</v>
       </c>
@@ -4422,10 +4429,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="70"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="82" t="s">
+    <row r="78" spans="1:8" ht="60">
+      <c r="A78" s="78"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="73" t="s">
         <v>122</v>
       </c>
       <c r="E78" s="30" t="s">
@@ -4440,9 +4447,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="70"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="82"/>
+      <c r="A79" s="78"/>
+      <c r="C79" s="82"/>
+      <c r="D79" s="73"/>
       <c r="E79" s="30" t="s">
         <v>124</v>
       </c>
@@ -4454,7 +4461,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="99">
+    <row r="80" spans="1:8" ht="90">
       <c r="A80" s="11" t="s">
         <v>125</v>
       </c>
@@ -4477,8 +4484,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="70" t="s">
+    <row r="81" spans="1:8" ht="30">
+      <c r="A81" s="78" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4500,8 +4507,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="70"/>
+    <row r="82" spans="1:8" ht="30">
+      <c r="A82" s="78"/>
       <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
@@ -4521,8 +4528,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="71" t="s">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="60">
+      <c r="A83" s="81" t="s">
         <v>138</v>
       </c>
       <c r="B83" s="36" t="s">
@@ -4545,8 +4552,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="71"/>
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="60">
+      <c r="A84" s="81"/>
       <c r="B84" s="36" t="s">
         <v>142</v>
       </c>
@@ -4567,8 +4574,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="71"/>
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="90">
+      <c r="A85" s="81"/>
       <c r="B85" s="36" t="s">
         <v>145</v>
       </c>
@@ -4589,8 +4596,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="71"/>
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="60">
+      <c r="A86" s="81"/>
       <c r="B86" s="36" t="s">
         <v>147</v>
       </c>
@@ -4612,13 +4619,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="70" t="s">
+      <c r="A87" s="78" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="75" t="s">
+      <c r="C87" s="83" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -4635,11 +4642,11 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="70"/>
-      <c r="B88" s="70" t="s">
+      <c r="A88" s="78"/>
+      <c r="B88" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="75"/>
+      <c r="C88" s="83"/>
       <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
@@ -4654,9 +4661,9 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="72"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="76"/>
+      <c r="A89" s="79"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="84"/>
       <c r="D89" s="40" t="s">
         <v>17</v>
       </c>
@@ -4674,9 +4681,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="70"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="75"/>
+      <c r="A90" s="78"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="83"/>
       <c r="D90" s="8" t="s">
         <v>25</v>
       </c>
@@ -4693,10 +4700,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="70"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="75"/>
+    <row r="91" spans="1:8" ht="30">
+      <c r="A91" s="78"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="83"/>
       <c r="D91" s="42" t="s">
         <v>45</v>
       </c>
@@ -4713,10 +4720,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="75"/>
+    <row r="92" spans="1:8">
+      <c r="A92" s="78"/>
+      <c r="B92" s="78"/>
+      <c r="C92" s="83"/>
       <c r="D92" s="42" t="s">
         <v>55</v>
       </c>
@@ -4732,9 +4739,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="70"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="75"/>
+      <c r="A93" s="78"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="83"/>
       <c r="D93" s="42" t="s">
         <v>42</v>
       </c>
@@ -4752,9 +4759,9 @@
       </c>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A94" s="72"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="76"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="84"/>
       <c r="D94" s="40" t="s">
         <v>39</v>
       </c>
@@ -4772,9 +4779,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="72"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="76"/>
+      <c r="A95" s="79"/>
+      <c r="B95" s="79"/>
+      <c r="C95" s="84"/>
       <c r="D95" s="40" t="s">
         <v>35</v>
       </c>
@@ -4792,9 +4799,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A96" s="72"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="76"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="84"/>
       <c r="D96" s="40" t="s">
         <v>31</v>
       </c>
@@ -4810,9 +4817,9 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="27">
-      <c r="A97" s="70"/>
-      <c r="B97" s="70"/>
-      <c r="C97" s="75"/>
+      <c r="A97" s="78"/>
+      <c r="B97" s="78"/>
+      <c r="C97" s="83"/>
       <c r="D97" s="42" t="s">
         <v>166</v>
       </c>
@@ -4830,9 +4837,9 @@
       </c>
     </row>
     <row r="98" spans="1:9" s="5" customFormat="1">
-      <c r="A98" s="73"/>
-      <c r="B98" s="73"/>
-      <c r="C98" s="77"/>
+      <c r="A98" s="80"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="85"/>
       <c r="D98" s="42" t="s">
         <v>76</v>
       </c>
@@ -4850,9 +4857,9 @@
       </c>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1">
-      <c r="A99" s="72"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="76"/>
+      <c r="A99" s="79"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="84"/>
       <c r="D99" s="40" t="s">
         <v>85</v>
       </c>
@@ -4869,10 +4876,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="33">
-      <c r="A100" s="70"/>
-      <c r="B100" s="70"/>
-      <c r="C100" s="75"/>
+    <row r="100" spans="1:9" ht="30">
+      <c r="A100" s="78"/>
+      <c r="B100" s="78"/>
+      <c r="C100" s="83"/>
       <c r="D100" s="8" t="s">
         <v>115</v>
       </c>
@@ -4890,9 +4897,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" s="4" customFormat="1">
-      <c r="A101" s="72"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="76"/>
+      <c r="A101" s="79"/>
+      <c r="B101" s="79"/>
+      <c r="C101" s="84"/>
       <c r="D101" s="40" t="s">
         <v>119</v>
       </c>
@@ -4910,9 +4917,9 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="70"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="75"/>
+      <c r="A102" s="78"/>
+      <c r="B102" s="78"/>
+      <c r="C102" s="83"/>
       <c r="D102" s="8" t="s">
         <v>81</v>
       </c>
@@ -4930,9 +4937,9 @@
       </c>
     </row>
     <row r="103" spans="1:9" s="4" customFormat="1">
-      <c r="A103" s="72"/>
-      <c r="B103" s="72"/>
-      <c r="C103" s="76"/>
+      <c r="A103" s="79"/>
+      <c r="B103" s="79"/>
+      <c r="C103" s="84"/>
       <c r="D103" s="40" t="s">
         <v>52</v>
       </c>
@@ -4947,10 +4954,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A104" s="72"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="76"/>
+    <row r="104" spans="1:9" s="4" customFormat="1" ht="30">
+      <c r="A104" s="79"/>
+      <c r="B104" s="79"/>
+      <c r="C104" s="84"/>
       <c r="D104" s="40" t="s">
         <v>95</v>
       </c>
@@ -4968,9 +4975,9 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="27">
-      <c r="A105" s="70"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="75"/>
+      <c r="A105" s="78"/>
+      <c r="B105" s="78"/>
+      <c r="C105" s="83"/>
       <c r="D105" s="8" t="s">
         <v>98</v>
       </c>
@@ -4988,9 +4995,9 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="70"/>
-      <c r="B106" s="70"/>
-      <c r="C106" s="75"/>
+      <c r="A106" s="78"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="83"/>
       <c r="D106" s="8" t="s">
         <v>92</v>
       </c>
@@ -5007,10 +5014,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="33">
-      <c r="A107" s="70"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="75"/>
+    <row r="107" spans="1:9" ht="30">
+      <c r="A107" s="78"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="83"/>
       <c r="D107" s="8" t="s">
         <v>89</v>
       </c>
@@ -5029,9 +5036,9 @@
       <c r="I107" s="56"/>
     </row>
     <row r="108" spans="1:9" s="4" customFormat="1">
-      <c r="A108" s="72"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="76"/>
+      <c r="A108" s="79"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="84"/>
       <c r="D108" s="40" t="s">
         <v>48</v>
       </c>
@@ -5049,9 +5056,9 @@
       </c>
     </row>
     <row r="109" spans="1:9" s="4" customFormat="1">
-      <c r="A109" s="72"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="76"/>
+      <c r="A109" s="79"/>
+      <c r="B109" s="79"/>
+      <c r="C109" s="84"/>
       <c r="D109" s="40" t="s">
         <v>112</v>
       </c>
@@ -5069,9 +5076,9 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="70"/>
-      <c r="B110" s="70"/>
-      <c r="C110" s="75"/>
+      <c r="A110" s="78"/>
+      <c r="B110" s="78"/>
+      <c r="C110" s="83"/>
       <c r="D110" s="8" t="s">
         <v>28</v>
       </c>
@@ -5085,10 +5092,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="70"/>
-      <c r="B111" s="70"/>
-      <c r="C111" s="75"/>
+    <row r="111" spans="1:9" ht="16.5">
+      <c r="A111" s="78"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="83"/>
       <c r="D111" s="8" t="s">
         <v>102</v>
       </c>
@@ -5103,10 +5110,10 @@
       </c>
       <c r="I111" s="56"/>
     </row>
-    <row r="112" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A112" s="72"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="76"/>
+    <row r="112" spans="1:9" s="4" customFormat="1" ht="30">
+      <c r="A112" s="79"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="84"/>
       <c r="D112" s="40" t="s">
         <v>105</v>
       </c>
@@ -5125,9 +5132,9 @@
       <c r="I112" s="57"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="70"/>
-      <c r="B113" s="70"/>
-      <c r="C113" s="75"/>
+      <c r="A113" s="78"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="83"/>
       <c r="D113" s="40" t="s">
         <v>73</v>
       </c>
@@ -5145,9 +5152,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="70"/>
-      <c r="B114" s="70"/>
-      <c r="C114" s="75"/>
+      <c r="A114" s="78"/>
+      <c r="B114" s="78"/>
+      <c r="C114" s="83"/>
       <c r="D114" s="40" t="s">
         <v>122</v>
       </c>
@@ -5164,10 +5171,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="70"/>
-      <c r="B115" s="70"/>
-      <c r="C115" s="75"/>
+    <row r="115" spans="1:11">
+      <c r="A115" s="78"/>
+      <c r="B115" s="78"/>
+      <c r="C115" s="83"/>
       <c r="D115" s="8" t="s">
         <v>62</v>
       </c>
@@ -5184,10 +5191,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="70"/>
-      <c r="B116" s="70"/>
-      <c r="C116" s="75"/>
+    <row r="116" spans="1:11" ht="30">
+      <c r="A116" s="78"/>
+      <c r="B116" s="78"/>
+      <c r="C116" s="83"/>
       <c r="D116" s="8" t="s">
         <v>58</v>
       </c>
@@ -5204,10 +5211,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="70"/>
-      <c r="B117" s="70"/>
-      <c r="C117" s="75"/>
+    <row r="117" spans="1:11">
+      <c r="A117" s="78"/>
+      <c r="B117" s="78"/>
+      <c r="C117" s="83"/>
       <c r="D117" s="40" t="s">
         <v>65</v>
       </c>
@@ -5225,9 +5232,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="70"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="75"/>
+      <c r="A118" s="78"/>
+      <c r="B118" s="78"/>
+      <c r="C118" s="83"/>
       <c r="D118" s="40" t="s">
         <v>108</v>
       </c>
@@ -5244,12 +5251,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="70"/>
-      <c r="B119" s="71" t="s">
+    <row r="119" spans="1:11" s="3" customFormat="1">
+      <c r="A119" s="78"/>
+      <c r="B119" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="C119" s="75"/>
+      <c r="C119" s="83"/>
       <c r="D119" s="53" t="s">
         <v>31</v>
       </c>
@@ -5269,10 +5276,10 @@
       <c r="J119" s="52"/>
       <c r="K119" s="52"/>
     </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A120" s="70"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="75"/>
+    <row r="120" spans="1:11" s="3" customFormat="1" ht="30">
+      <c r="A120" s="78"/>
+      <c r="B120" s="81"/>
+      <c r="C120" s="83"/>
       <c r="D120" s="53" t="s">
         <v>39</v>
       </c>
@@ -5293,9 +5300,9 @@
       <c r="K120" s="52"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="70"/>
-      <c r="B121" s="71"/>
-      <c r="C121" s="75"/>
+      <c r="A121" s="78"/>
+      <c r="B121" s="81"/>
+      <c r="C121" s="83"/>
       <c r="D121" s="53" t="s">
         <v>95</v>
       </c>
@@ -5315,10 +5322,10 @@
       <c r="J121" s="52"/>
       <c r="K121" s="52"/>
     </row>
-    <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="70"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="75"/>
+    <row r="122" spans="1:11" s="3" customFormat="1">
+      <c r="A122" s="78"/>
+      <c r="B122" s="81"/>
+      <c r="C122" s="83"/>
       <c r="D122" s="53" t="s">
         <v>108</v>
       </c>
@@ -5337,10 +5344,10 @@
       <c r="I122" s="52"/>
       <c r="J122" s="52"/>
     </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A123" s="70"/>
-      <c r="B123" s="71"/>
-      <c r="C123" s="75"/>
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="30">
+      <c r="A123" s="78"/>
+      <c r="B123" s="81"/>
+      <c r="C123" s="83"/>
       <c r="D123" s="53" t="s">
         <v>42</v>
       </c>
@@ -5359,10 +5366,10 @@
       <c r="I123" s="52"/>
       <c r="J123" s="52"/>
     </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="70"/>
-      <c r="B124" s="71"/>
-      <c r="C124" s="75"/>
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="30">
+      <c r="A124" s="78"/>
+      <c r="B124" s="81"/>
+      <c r="C124" s="83"/>
       <c r="D124" s="53" t="s">
         <v>122</v>
       </c>
@@ -5381,10 +5388,10 @@
       <c r="I124" s="52"/>
       <c r="J124" s="52"/>
     </row>
-    <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="70"/>
-      <c r="B125" s="71"/>
-      <c r="C125" s="75"/>
+    <row r="125" spans="1:11" s="3" customFormat="1">
+      <c r="A125" s="78"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="83"/>
       <c r="D125" s="53" t="s">
         <v>62</v>
       </c>
@@ -5403,10 +5410,10 @@
       <c r="I125" s="52"/>
       <c r="J125" s="52"/>
     </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="70"/>
-      <c r="B126" s="71"/>
-      <c r="C126" s="75"/>
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="45">
+      <c r="A126" s="78"/>
+      <c r="B126" s="81"/>
+      <c r="C126" s="83"/>
       <c r="D126" s="53" t="s">
         <v>58</v>
       </c>
@@ -5423,10 +5430,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="70"/>
-      <c r="B127" s="71"/>
-      <c r="C127" s="75"/>
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="45">
+      <c r="A127" s="78"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="83"/>
       <c r="D127" s="55" t="s">
         <v>69</v>
       </c>
@@ -5444,16 +5451,16 @@
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="70"/>
-      <c r="B128" s="71"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="83" t="s">
+      <c r="A128" s="78"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="83"/>
+      <c r="D128" s="71" t="s">
         <v>76</v>
       </c>
       <c r="E128" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="F128" s="84" t="s">
+      <c r="F128" s="72" t="s">
         <v>171</v>
       </c>
       <c r="G128" s="69" t="s">
@@ -5463,17 +5470,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="70"/>
-      <c r="B129" s="71"/>
-      <c r="C129" s="75"/>
-      <c r="D129" s="83" t="s">
+    <row r="129" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A129" s="78"/>
+      <c r="B129" s="81"/>
+      <c r="C129" s="83"/>
+      <c r="D129" s="71" t="s">
         <v>98</v>
       </c>
       <c r="E129" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="F129" s="84" t="s">
+      <c r="F129" s="72" t="s">
         <v>171</v>
       </c>
       <c r="G129" s="69" t="s">
@@ -5485,10 +5492,10 @@
       <c r="I129" s="52"/>
       <c r="J129" s="52"/>
     </row>
-    <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="70"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="75"/>
+    <row r="130" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A130" s="78"/>
+      <c r="B130" s="81"/>
+      <c r="C130" s="83"/>
       <c r="D130" s="55" t="s">
         <v>102</v>
       </c>
@@ -5506,10 +5513,10 @@
       </c>
       <c r="J130" s="52"/>
     </row>
-    <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="70"/>
-      <c r="B131" s="71"/>
-      <c r="C131" s="75"/>
+    <row r="131" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A131" s="78"/>
+      <c r="B131" s="81"/>
+      <c r="C131" s="83"/>
       <c r="D131" s="55" t="s">
         <v>81</v>
       </c>
@@ -5527,9 +5534,9 @@
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="70"/>
-      <c r="B132" s="71"/>
-      <c r="C132" s="75"/>
+      <c r="A132" s="78"/>
+      <c r="B132" s="81"/>
+      <c r="C132" s="83"/>
       <c r="D132" s="55" t="s">
         <v>115</v>
       </c>
@@ -5544,17 +5551,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="70"/>
-      <c r="B133" s="71"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="83" t="s">
+    <row r="133" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A133" s="78"/>
+      <c r="B133" s="81"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="71" t="s">
         <v>119</v>
       </c>
       <c r="E133" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="F133" s="84" t="s">
+      <c r="F133" s="72" t="s">
         <v>171</v>
       </c>
       <c r="G133" s="69" t="s">
@@ -5564,10 +5571,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="70"/>
-      <c r="B134" s="71"/>
-      <c r="C134" s="75"/>
+    <row r="134" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A134" s="78"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="83"/>
       <c r="D134" s="55" t="s">
         <v>105</v>
       </c>
@@ -5585,10 +5592,10 @@
       </c>
       <c r="I134" s="52"/>
     </row>
-    <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="70"/>
-      <c r="B135" s="71"/>
-      <c r="C135" s="75"/>
+    <row r="135" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A135" s="78"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="83"/>
       <c r="D135" s="55" t="s">
         <v>85</v>
       </c>
@@ -5606,10 +5613,10 @@
       </c>
       <c r="I135" s="52"/>
     </row>
-    <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="70"/>
-      <c r="B136" s="71"/>
-      <c r="C136" s="75"/>
+    <row r="136" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A136" s="78"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="83"/>
       <c r="D136" s="53" t="s">
         <v>73</v>
       </c>
@@ -5625,8 +5632,8 @@
       </c>
       <c r="I136" s="52"/>
     </row>
-    <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="70" t="s">
+    <row r="137" spans="1:10" s="3" customFormat="1" ht="60">
+      <c r="A137" s="78" t="s">
         <v>221</v>
       </c>
       <c r="B137" s="36" t="s">
@@ -5647,8 +5654,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="70"/>
+    <row r="138" spans="1:10" s="3" customFormat="1" ht="90">
+      <c r="A138" s="78"/>
       <c r="B138" s="36" t="s">
         <v>226</v>
       </c>
@@ -5667,8 +5674,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="70"/>
+    <row r="139" spans="1:10" s="3" customFormat="1" ht="90">
+      <c r="A139" s="78"/>
       <c r="B139" s="36" t="s">
         <v>228</v>
       </c>
@@ -5687,8 +5694,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="70"/>
+    <row r="140" spans="1:10" s="3" customFormat="1" ht="45">
+      <c r="A140" s="78"/>
       <c r="B140" s="36" t="s">
         <v>230</v>
       </c>
@@ -5707,8 +5714,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="70"/>
+    <row r="141" spans="1:10" s="3" customFormat="1" ht="75">
+      <c r="A141" s="78"/>
       <c r="B141" s="36" t="s">
         <v>233</v>
       </c>
@@ -5727,8 +5734,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="70"/>
+    <row r="142" spans="1:10" s="3" customFormat="1" ht="105">
+      <c r="A142" s="78"/>
       <c r="B142" s="36" t="s">
         <v>236</v>
       </c>
@@ -5747,8 +5754,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="70"/>
+    <row r="143" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A143" s="78"/>
       <c r="B143" s="36" t="s">
         <v>239</v>
       </c>
@@ -5767,8 +5774,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="70"/>
+    <row r="144" spans="1:10" ht="45">
+      <c r="A144" s="78"/>
       <c r="B144" s="6" t="s">
         <v>242</v>
       </c>
@@ -5788,14 +5795,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="49.5">
-      <c r="A145" s="70" t="s">
+    <row r="145" spans="1:8" ht="45">
+      <c r="A145" s="78" t="s">
         <v>245</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="78" t="s">
+      <c r="C145" s="75" t="s">
         <v>247</v>
       </c>
       <c r="D145" s="63" t="s">
@@ -5815,8 +5822,8 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="70"/>
-      <c r="C146" s="78"/>
+      <c r="A146" s="78"/>
+      <c r="C146" s="75"/>
       <c r="D146" s="63" t="s">
         <v>251</v>
       </c>
@@ -5834,8 +5841,8 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="70"/>
-      <c r="C147" s="78"/>
+      <c r="A147" s="78"/>
+      <c r="C147" s="75"/>
       <c r="D147" s="63" t="s">
         <v>254</v>
       </c>
@@ -5850,8 +5857,8 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="70"/>
-      <c r="C148" s="78"/>
+      <c r="A148" s="78"/>
+      <c r="C148" s="75"/>
       <c r="D148" s="63" t="s">
         <v>256</v>
       </c>
@@ -5866,8 +5873,8 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="70"/>
-      <c r="C149" s="78"/>
+      <c r="A149" s="78"/>
+      <c r="C149" s="75"/>
       <c r="D149" s="63" t="s">
         <v>258</v>
       </c>
@@ -5882,8 +5889,8 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="70"/>
-      <c r="C150" s="78"/>
+      <c r="A150" s="78"/>
+      <c r="C150" s="75"/>
       <c r="D150" s="63" t="s">
         <v>260</v>
       </c>
@@ -5897,9 +5904,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="33">
-      <c r="A151" s="70"/>
-      <c r="C151" s="78"/>
+    <row r="151" spans="1:8" ht="30">
+      <c r="A151" s="78"/>
+      <c r="C151" s="75"/>
       <c r="D151" s="63" t="s">
         <v>262</v>
       </c>
@@ -5914,8 +5921,8 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="70"/>
-      <c r="C152" s="78"/>
+      <c r="A152" s="78"/>
+      <c r="C152" s="75"/>
       <c r="D152" s="63" t="s">
         <v>264</v>
       </c>
@@ -5930,8 +5937,8 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="70"/>
-      <c r="C153" s="78"/>
+      <c r="A153" s="78"/>
+      <c r="C153" s="75"/>
       <c r="D153" s="63" t="s">
         <v>266</v>
       </c>
@@ -5946,8 +5953,8 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="70"/>
-      <c r="C154" s="78"/>
+      <c r="A154" s="78"/>
+      <c r="C154" s="75"/>
       <c r="D154" s="63" t="s">
         <v>268</v>
       </c>
@@ -5962,8 +5969,8 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="70"/>
-      <c r="C155" s="78"/>
+      <c r="A155" s="78"/>
+      <c r="C155" s="75"/>
       <c r="D155" s="63" t="s">
         <v>270</v>
       </c>
@@ -5978,8 +5985,8 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="70"/>
-      <c r="C156" s="78"/>
+      <c r="A156" s="78"/>
+      <c r="C156" s="75"/>
       <c r="D156" s="63" t="s">
         <v>272</v>
       </c>
@@ -5993,9 +6000,9 @@
         <v>581</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="33">
-      <c r="A157" s="70"/>
-      <c r="C157" s="78"/>
+    <row r="157" spans="1:8" ht="30">
+      <c r="A157" s="78"/>
+      <c r="C157" s="75"/>
       <c r="D157" s="63" t="s">
         <v>274</v>
       </c>
@@ -6009,14 +6016,14 @@
         <v>581</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="49.5">
-      <c r="A158" s="70" t="s">
+    <row r="158" spans="1:8" ht="45">
+      <c r="A158" s="78" t="s">
         <v>245</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C158" s="78" t="s">
+      <c r="C158" s="75" t="s">
         <v>277</v>
       </c>
       <c r="D158" s="63" t="s">
@@ -6033,8 +6040,8 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="70"/>
-      <c r="C159" s="78"/>
+      <c r="A159" s="78"/>
+      <c r="C159" s="75"/>
       <c r="D159" s="63" t="s">
         <v>260</v>
       </c>
@@ -6049,8 +6056,8 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="70"/>
-      <c r="C160" s="78"/>
+      <c r="A160" s="78"/>
+      <c r="C160" s="75"/>
       <c r="D160" s="63" t="s">
         <v>264</v>
       </c>
@@ -6065,8 +6072,8 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="70"/>
-      <c r="C161" s="78"/>
+      <c r="A161" s="78"/>
+      <c r="C161" s="75"/>
       <c r="D161" s="63" t="s">
         <v>266</v>
       </c>
@@ -6081,8 +6088,8 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="70"/>
-      <c r="C162" s="78"/>
+      <c r="A162" s="78"/>
+      <c r="C162" s="75"/>
       <c r="D162" s="63" t="s">
         <v>268</v>
       </c>
@@ -6097,8 +6104,8 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="70"/>
-      <c r="C163" s="78"/>
+      <c r="A163" s="78"/>
+      <c r="C163" s="75"/>
       <c r="D163" s="63" t="s">
         <v>270</v>
       </c>
@@ -6113,8 +6120,8 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="70"/>
-      <c r="C164" s="78"/>
+      <c r="A164" s="78"/>
+      <c r="C164" s="75"/>
       <c r="D164" s="63" t="s">
         <v>272</v>
       </c>
@@ -6129,13 +6136,13 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="70" t="s">
+      <c r="A165" s="78" t="s">
         <v>245</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C165" s="78" t="s">
+      <c r="C165" s="75" t="s">
         <v>240</v>
       </c>
       <c r="D165" s="63" t="s">
@@ -6152,8 +6159,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="70"/>
-      <c r="C166" s="78"/>
+      <c r="A166" s="78"/>
+      <c r="C166" s="75"/>
       <c r="D166" s="63" t="s">
         <v>254</v>
       </c>
@@ -6168,8 +6175,8 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="70"/>
-      <c r="C167" s="78"/>
+      <c r="A167" s="78"/>
+      <c r="C167" s="75"/>
       <c r="D167" s="63" t="s">
         <v>256</v>
       </c>
@@ -6184,8 +6191,8 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="70"/>
-      <c r="C168" s="78"/>
+      <c r="A168" s="78"/>
+      <c r="C168" s="75"/>
       <c r="D168" s="63" t="s">
         <v>258</v>
       </c>
@@ -6200,8 +6207,8 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="70"/>
-      <c r="C169" s="78"/>
+      <c r="A169" s="78"/>
+      <c r="C169" s="75"/>
       <c r="D169" s="63" t="s">
         <v>290</v>
       </c>
@@ -6216,8 +6223,8 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="70"/>
-      <c r="C170" s="78"/>
+      <c r="A170" s="78"/>
+      <c r="C170" s="75"/>
       <c r="D170" s="63" t="s">
         <v>262</v>
       </c>
@@ -6232,8 +6239,8 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="70"/>
-      <c r="C171" s="78"/>
+      <c r="A171" s="78"/>
+      <c r="C171" s="75"/>
       <c r="D171" s="9" t="s">
         <v>293</v>
       </c>
@@ -6248,8 +6255,8 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="70"/>
-      <c r="C172" s="78"/>
+      <c r="A172" s="78"/>
+      <c r="C172" s="75"/>
       <c r="D172" s="63" t="s">
         <v>268</v>
       </c>
@@ -6264,8 +6271,8 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="70"/>
-      <c r="C173" s="78"/>
+      <c r="A173" s="78"/>
+      <c r="C173" s="75"/>
       <c r="D173" s="63" t="s">
         <v>270</v>
       </c>
@@ -6280,8 +6287,8 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="70"/>
-      <c r="C174" s="78"/>
+      <c r="A174" s="78"/>
+      <c r="C174" s="75"/>
       <c r="D174" s="63" t="s">
         <v>272</v>
       </c>
@@ -6295,9 +6302,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="33">
-      <c r="A175" s="70"/>
-      <c r="C175" s="78"/>
+    <row r="175" spans="1:8">
+      <c r="A175" s="78"/>
+      <c r="C175" s="75"/>
       <c r="D175" s="63" t="s">
         <v>274</v>
       </c>
@@ -6312,13 +6319,13 @@
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="70" t="s">
+      <c r="A176" s="78" t="s">
         <v>245</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C176" s="78" t="s">
+      <c r="C176" s="75" t="s">
         <v>240</v>
       </c>
       <c r="D176" s="63" t="s">
@@ -6335,8 +6342,8 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="70"/>
-      <c r="C177" s="78"/>
+      <c r="A177" s="78"/>
+      <c r="C177" s="75"/>
       <c r="D177" s="63" t="s">
         <v>254</v>
       </c>
@@ -6351,8 +6358,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="70"/>
-      <c r="C178" s="78"/>
+      <c r="A178" s="78"/>
+      <c r="C178" s="75"/>
       <c r="D178" s="63" t="s">
         <v>256</v>
       </c>
@@ -6367,8 +6374,8 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="70"/>
-      <c r="C179" s="78"/>
+      <c r="A179" s="78"/>
+      <c r="C179" s="75"/>
       <c r="D179" s="63" t="s">
         <v>258</v>
       </c>
@@ -6383,8 +6390,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="70"/>
-      <c r="C180" s="78"/>
+      <c r="A180" s="78"/>
+      <c r="C180" s="75"/>
       <c r="D180" s="63" t="s">
         <v>290</v>
       </c>
@@ -6399,8 +6406,8 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="70"/>
-      <c r="C181" s="78"/>
+      <c r="A181" s="78"/>
+      <c r="C181" s="75"/>
       <c r="D181" s="63" t="s">
         <v>262</v>
       </c>
@@ -6415,8 +6422,8 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="70"/>
-      <c r="C182" s="78"/>
+      <c r="A182" s="78"/>
+      <c r="C182" s="75"/>
       <c r="D182" s="63" t="s">
         <v>266</v>
       </c>
@@ -6430,9 +6437,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="70"/>
-      <c r="C183" s="78"/>
+    <row r="183" spans="1:8" ht="30">
+      <c r="A183" s="78"/>
+      <c r="C183" s="75"/>
       <c r="D183" s="9" t="s">
         <v>293</v>
       </c>
@@ -6447,8 +6454,8 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="70"/>
-      <c r="C184" s="78"/>
+      <c r="A184" s="78"/>
+      <c r="C184" s="75"/>
       <c r="D184" s="63" t="s">
         <v>268</v>
       </c>
@@ -6462,9 +6469,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="70"/>
-      <c r="C185" s="78"/>
+    <row r="185" spans="1:8">
+      <c r="A185" s="78"/>
+      <c r="C185" s="75"/>
       <c r="D185" s="63" t="s">
         <v>274</v>
       </c>
@@ -6478,7 +6485,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="66">
+    <row r="186" spans="1:8" ht="60">
       <c r="A186" s="60" t="s">
         <v>310</v>
       </c>
@@ -6498,7 +6505,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="99">
+    <row r="187" spans="1:8" ht="90">
       <c r="A187" s="65" t="s">
         <v>313</v>
       </c>
@@ -6518,7 +6525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="66">
+    <row r="188" spans="1:8" ht="60">
       <c r="A188" s="65" t="s">
         <v>317</v>
       </c>
@@ -6538,7 +6545,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="49.5">
+    <row r="189" spans="1:8" ht="45">
       <c r="A189" s="65" t="s">
         <v>321</v>
       </c>
@@ -6558,7 +6565,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="82.5">
+    <row r="190" spans="1:8" ht="75">
       <c r="A190" s="11" t="s">
         <v>325</v>
       </c>
@@ -6578,8 +6585,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="70" t="s">
+    <row r="191" spans="1:8" ht="45">
+      <c r="A191" s="78" t="s">
         <v>329</v>
       </c>
       <c r="B191" s="12" t="s">
@@ -6601,8 +6608,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="70"/>
+    <row r="192" spans="1:8" ht="75">
+      <c r="A192" s="78"/>
       <c r="B192" s="12" t="s">
         <v>333</v>
       </c>
@@ -6623,7 +6630,7 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="70"/>
+      <c r="A193" s="78"/>
       <c r="B193" s="12" t="s">
         <v>336</v>
       </c>
@@ -6643,7 +6650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="99">
+    <row r="194" spans="1:8" ht="90">
       <c r="A194" s="11" t="s">
         <v>339</v>
       </c>
@@ -6669,25 +6676,21 @@
   </sheetData>
   <autoFilter ref="H1:H195"/>
   <mergeCells count="50">
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6704,21 +6707,25 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\crawler-scrapy\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\code\python\crawler-scrapy\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2086,9 +2086,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2224,28 +2221,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2259,6 +2244,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3190,11 +3190,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H54" sqref="E53:H54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="6" customWidth="1"/>
@@ -3235,13 +3235,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="82" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3256,9 +3256,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="78"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="74"/>
+      <c r="A3" s="73"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
@@ -3271,9 +3271,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="78"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="74"/>
+      <c r="A4" s="73"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
@@ -3285,9 +3285,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="78"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="76" t="s">
+      <c r="A5" s="73"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="83" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -3302,9 +3302,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="78"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="77"/>
+      <c r="A6" s="73"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3317,9 +3317,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="78"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="77"/>
+      <c r="A7" s="73"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3332,9 +3332,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="78"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="73" t="s">
+      <c r="A8" s="73"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="85" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -3349,9 +3349,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="78"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="73"/>
+      <c r="A9" s="73"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="19" t="s">
         <v>23</v>
       </c>
@@ -3364,9 +3364,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="78"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="73"/>
+      <c r="A10" s="73"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
@@ -3379,9 +3379,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="78"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="76" t="s">
+      <c r="A11" s="73"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="83" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -3396,9 +3396,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="78"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="77"/>
+      <c r="A12" s="73"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3411,9 +3411,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="78"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="74" t="s">
+      <c r="A13" s="73"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="82" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -3427,9 +3427,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="78"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="74"/>
+      <c r="A14" s="73"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
@@ -3441,9 +3441,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="78"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="74" t="s">
+      <c r="A15" s="73"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="82" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -3457,9 +3457,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="78"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="73"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
@@ -3471,9 +3471,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="78"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="73"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="20" t="s">
         <v>34</v>
       </c>
@@ -3485,9 +3485,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="78"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="74" t="s">
+      <c r="A18" s="73"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="82" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -3501,9 +3501,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="78"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="74"/>
+      <c r="A19" s="73"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="13" t="s">
         <v>37</v>
       </c>
@@ -3516,9 +3516,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="78"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="74"/>
+      <c r="A20" s="73"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
@@ -3531,9 +3531,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="78"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="76" t="s">
+      <c r="A21" s="73"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="83" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -3548,9 +3548,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="78"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="77"/>
+      <c r="A22" s="73"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="13" t="s">
         <v>41</v>
       </c>
@@ -3563,9 +3563,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="78"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="74" t="s">
+      <c r="A23" s="73"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="82" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -3579,9 +3579,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="78"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="74"/>
+      <c r="A24" s="73"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
@@ -3593,9 +3593,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="78"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="73" t="s">
+      <c r="A25" s="73"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="85" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -3610,9 +3610,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="78"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="73"/>
+      <c r="A26" s="73"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
@@ -3625,9 +3625,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="78"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="74" t="s">
+      <c r="A27" s="73"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="82" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3644,9 +3644,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="78"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="74"/>
+      <c r="A28" s="73"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="16" t="s">
         <v>51</v>
       </c>
@@ -3661,9 +3661,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="78"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="74" t="s">
+      <c r="A29" s="73"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="82" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -3677,9 +3677,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="78"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="74"/>
+      <c r="A30" s="73"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="23" t="s">
         <v>54</v>
       </c>
@@ -3691,9 +3691,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="78"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="74"/>
+      <c r="A31" s="73"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
@@ -3705,9 +3705,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="78"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="73" t="s">
+      <c r="A32" s="73"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="85" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3722,9 +3722,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="78"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="73"/>
+      <c r="A33" s="73"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
@@ -3737,9 +3737,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="78"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="73" t="s">
+      <c r="A34" s="73"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="85" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -3754,9 +3754,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="78"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="73"/>
+      <c r="A35" s="73"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="85"/>
       <c r="E35" s="24" t="s">
         <v>60</v>
       </c>
@@ -3769,9 +3769,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="78"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="73"/>
+      <c r="A36" s="73"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
@@ -3784,9 +3784,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="78"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="74" t="s">
+      <c r="A37" s="73"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="82" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="25" t="s">
@@ -3800,9 +3800,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="78"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="74"/>
+      <c r="A38" s="73"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="82"/>
       <c r="E38" s="25" t="s">
         <v>64</v>
       </c>
@@ -3814,9 +3814,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="78"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="73" t="s">
+      <c r="A39" s="73"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="85" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -3831,9 +3831,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="78"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="73"/>
+      <c r="A40" s="73"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="24" t="s">
         <v>67</v>
       </c>
@@ -3846,9 +3846,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="78"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="73"/>
+      <c r="A41" s="73"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="85"/>
       <c r="E41" s="24" t="s">
         <v>68</v>
       </c>
@@ -3860,10 +3860,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="78"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="73" t="s">
+    <row r="42" spans="1:8" ht="33">
+      <c r="A42" s="73"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="85" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -3878,9 +3878,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="78"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="73"/>
+      <c r="A43" s="73"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="85"/>
       <c r="E43" s="26" t="s">
         <v>72</v>
       </c>
@@ -3893,9 +3893,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="78"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="73" t="s">
+      <c r="A44" s="73"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="85" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -3910,9 +3910,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="78"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="73"/>
+      <c r="A45" s="73"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="26" t="s">
         <v>75</v>
       </c>
@@ -3925,9 +3925,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="78"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="73" t="s">
+      <c r="A46" s="73"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="27" t="s">
@@ -3942,9 +3942,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="78"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="73"/>
+      <c r="A47" s="73"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="85"/>
       <c r="E47" s="26" t="s">
         <v>78</v>
       </c>
@@ -3957,9 +3957,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="78"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="73"/>
+      <c r="A48" s="73"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
@@ -3972,9 +3972,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="78"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="73"/>
+      <c r="A49" s="73"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="85"/>
       <c r="E49" s="26" t="s">
         <v>80</v>
       </c>
@@ -3986,17 +3986,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="78"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="73" t="s">
+    <row r="50" spans="1:8" ht="33">
+      <c r="A50" s="73"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="85" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="26" t="s">
         <v>82</v>
       </c>
       <c r="F50" s="14"/>
-      <c r="G50" s="70" t="s">
+      <c r="G50" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="4" t="s">
@@ -4004,14 +4004,14 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="78"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="73"/>
+      <c r="A51" s="73"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="26" t="s">
         <v>84</v>
       </c>
       <c r="F51" s="14"/>
-      <c r="G51" s="70" t="s">
+      <c r="G51" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="4" t="s">
@@ -4019,30 +4019,31 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="78"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="74" t="s">
+      <c r="A52" s="73"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>83</v>
+      <c r="F52" s="14"/>
+      <c r="G52" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="78"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="74"/>
+      <c r="A53" s="73"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="85"/>
       <c r="E53" s="26" t="s">
         <v>87</v>
       </c>
       <c r="F53" s="14"/>
-      <c r="G53" s="70" t="s">
+      <c r="G53" s="72" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="4" t="s">
@@ -4050,14 +4051,14 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="78"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="74"/>
+      <c r="A54" s="73"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="85"/>
       <c r="E54" s="26" t="s">
         <v>88</v>
       </c>
       <c r="F54" s="14"/>
-      <c r="G54" s="70" t="s">
+      <c r="G54" s="72" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -4065,9 +4066,9 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="78"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="73" t="s">
+      <c r="A55" s="73"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="85" t="s">
         <v>89</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -4082,9 +4083,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="78"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="73"/>
+      <c r="A56" s="73"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="26" t="s">
         <v>91</v>
       </c>
@@ -4097,9 +4098,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="78"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="73" t="s">
+      <c r="A57" s="73"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="85" t="s">
         <v>92</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -4114,9 +4115,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="78"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="73"/>
+      <c r="A58" s="73"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="85"/>
       <c r="E58" s="26" t="s">
         <v>94</v>
       </c>
@@ -4129,9 +4130,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="78"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="73" t="s">
+      <c r="A59" s="73"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="85" t="s">
         <v>95</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4146,9 +4147,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="78"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="73"/>
+      <c r="A60" s="73"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="85"/>
       <c r="E60" s="26" t="s">
         <v>97</v>
       </c>
@@ -4161,9 +4162,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="78"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="73" t="s">
+      <c r="A61" s="73"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="85" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -4178,9 +4179,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="78"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="73"/>
+      <c r="A62" s="73"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="85"/>
       <c r="E62" s="26" t="s">
         <v>100</v>
       </c>
@@ -4193,9 +4194,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="78"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="73"/>
+      <c r="A63" s="73"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="85"/>
       <c r="E63" s="26" t="s">
         <v>101</v>
       </c>
@@ -4208,9 +4209,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="78"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="73" t="s">
+      <c r="A64" s="73"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="85" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -4225,9 +4226,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="78"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="73"/>
+      <c r="A65" s="73"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="85"/>
       <c r="E65" s="26" t="s">
         <v>104</v>
       </c>
@@ -4239,10 +4240,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30">
-      <c r="A66" s="78"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="73" t="s">
+    <row r="66" spans="1:8" ht="33">
+      <c r="A66" s="73"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="85" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -4256,10 +4257,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="78"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="73"/>
+    <row r="67" spans="1:8" ht="33">
+      <c r="A67" s="73"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="85"/>
       <c r="E67" s="26" t="s">
         <v>107</v>
       </c>
@@ -4271,10 +4272,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45">
-      <c r="A68" s="78"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="73" t="s">
+    <row r="68" spans="1:8" ht="66">
+      <c r="A68" s="73"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="85" t="s">
         <v>108</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -4289,10 +4290,10 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="78"/>
-      <c r="C69" s="82"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="30" t="s">
+      <c r="A69" s="73"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="29" t="s">
         <v>110</v>
       </c>
       <c r="F69" s="14"/>
@@ -4304,9 +4305,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="78"/>
-      <c r="C70" s="82"/>
-      <c r="D70" s="73"/>
+      <c r="A70" s="73"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="85"/>
       <c r="E70" s="26" t="s">
         <v>111</v>
       </c>
@@ -4318,10 +4319,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="78"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="73" t="s">
+    <row r="71" spans="1:8" ht="33">
+      <c r="A71" s="73"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -4335,10 +4336,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="78"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="73"/>
+    <row r="72" spans="1:8" ht="33">
+      <c r="A72" s="73"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="85"/>
       <c r="E72" s="26" t="s">
         <v>114</v>
       </c>
@@ -4350,10 +4351,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="78"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="73" t="s">
+    <row r="73" spans="1:8" ht="33">
+      <c r="A73" s="73"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="85" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -4367,10 +4368,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="78"/>
-      <c r="C74" s="82"/>
-      <c r="D74" s="73"/>
+    <row r="74" spans="1:8" ht="33">
+      <c r="A74" s="73"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="85"/>
       <c r="E74" s="26" t="s">
         <v>117</v>
       </c>
@@ -4382,10 +4383,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="78"/>
-      <c r="C75" s="82"/>
-      <c r="D75" s="73"/>
+    <row r="75" spans="1:8" ht="33">
+      <c r="A75" s="73"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="85"/>
       <c r="E75" s="26" t="s">
         <v>118</v>
       </c>
@@ -4398,12 +4399,12 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="78"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="73" t="s">
+      <c r="A76" s="73"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E76" s="29" t="s">
         <v>120</v>
       </c>
       <c r="F76" s="14"/>
@@ -4415,10 +4416,10 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="78"/>
-      <c r="C77" s="82"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="30" t="s">
+      <c r="A77" s="73"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="29" t="s">
         <v>121</v>
       </c>
       <c r="F77" s="14"/>
@@ -4429,13 +4430,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="60">
-      <c r="A78" s="78"/>
-      <c r="C78" s="82"/>
-      <c r="D78" s="73" t="s">
+    <row r="78" spans="1:8" ht="66">
+      <c r="A78" s="73"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="30" t="s">
+      <c r="E78" s="29" t="s">
         <v>123</v>
       </c>
       <c r="F78" s="14"/>
@@ -4447,10 +4448,10 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="78"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="30" t="s">
+      <c r="A79" s="73"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="29" t="s">
         <v>124</v>
       </c>
       <c r="F79" s="14"/>
@@ -4461,20 +4462,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="90">
+    <row r="80" spans="1:8" ht="99">
       <c r="A80" s="11" t="s">
         <v>125</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D80" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="32" t="s">
         <v>129</v>
       </c>
       <c r="G80" s="12" t="s">
@@ -4484,20 +4485,20 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30">
-      <c r="A81" s="78" t="s">
+    <row r="81" spans="1:8" ht="33">
+      <c r="A81" s="73" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E81" s="33" t="s">
+      <c r="E81" s="32" t="s">
         <v>136</v>
       </c>
       <c r="G81" s="12" t="s">
@@ -4507,18 +4508,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30">
-      <c r="A82" s="78"/>
+    <row r="82" spans="1:8" ht="33">
+      <c r="A82" s="73"/>
       <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="33" t="s">
+      <c r="E82" s="32" t="s">
         <v>136</v>
       </c>
       <c r="G82" s="12" t="s">
@@ -4528,23 +4529,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" ht="60">
-      <c r="A83" s="81" t="s">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A83" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="36" t="s">
+      <c r="B83" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D83" s="38" t="s">
+      <c r="D83" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F83" s="36"/>
+      <c r="F83" s="35"/>
       <c r="G83" s="12" t="s">
         <v>130</v>
       </c>
@@ -4552,21 +4553,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="60">
-      <c r="A84" s="81"/>
-      <c r="B84" s="36" t="s">
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A84" s="74"/>
+      <c r="B84" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C84" s="37" t="s">
+      <c r="C84" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="E84" s="33" t="s">
+      <c r="E84" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="F84" s="36"/>
+      <c r="F84" s="35"/>
       <c r="G84" s="12" t="s">
         <v>144</v>
       </c>
@@ -4574,21 +4575,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="90">
-      <c r="A85" s="81"/>
-      <c r="B85" s="36" t="s">
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
+      <c r="A85" s="74"/>
+      <c r="B85" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F85" s="36"/>
+      <c r="F85" s="35"/>
       <c r="G85" s="12" t="s">
         <v>144</v>
       </c>
@@ -4596,21 +4597,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="60">
-      <c r="A86" s="81"/>
-      <c r="B86" s="36" t="s">
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
+      <c r="A86" s="74"/>
+      <c r="B86" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D86" s="38" t="s">
+      <c r="D86" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="E86" s="33" t="s">
+      <c r="E86" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F86" s="36"/>
+      <c r="F86" s="35"/>
       <c r="G86" s="12" t="s">
         <v>144</v>
       </c>
@@ -4619,13 +4620,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="78" t="s">
+      <c r="A87" s="73" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="83" t="s">
+      <c r="C87" s="78" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -4642,15 +4643,15 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="78"/>
-      <c r="B88" s="78" t="s">
+      <c r="A88" s="73"/>
+      <c r="B88" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="83"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="33" t="s">
+      <c r="E88" s="32" t="s">
         <v>154</v>
       </c>
       <c r="G88" s="12" t="s">
@@ -4661,13 +4662,13 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="79"/>
-      <c r="B89" s="79"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="40" t="s">
+      <c r="A89" s="75"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E89" s="30" t="s">
+      <c r="E89" s="29" t="s">
         <v>155</v>
       </c>
       <c r="F89" s="14" t="s">
@@ -4681,13 +4682,13 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="78"/>
-      <c r="B90" s="78"/>
-      <c r="C90" s="83"/>
+      <c r="A90" s="73"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="41" t="s">
+      <c r="E90" s="40" t="s">
         <v>157</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -4700,17 +4701,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30">
-      <c r="A91" s="78"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="83"/>
-      <c r="D91" s="42" t="s">
+    <row r="91" spans="1:8" ht="33">
+      <c r="A91" s="73"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="43" t="s">
+      <c r="E91" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F91" s="44" t="s">
+      <c r="F91" s="43" t="s">
         <v>160</v>
       </c>
       <c r="G91" s="12" t="s">
@@ -4720,17 +4721,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="78"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="42" t="s">
+    <row r="92" spans="1:8" ht="33">
+      <c r="A92" s="73"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="45" t="s">
+      <c r="E92" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="F92" s="46"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="12" t="s">
         <v>12</v>
       </c>
@@ -4739,10 +4740,10 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="78"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="42" t="s">
+      <c r="A93" s="73"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="41" t="s">
         <v>42</v>
       </c>
       <c r="E93" s="16" t="s">
@@ -4759,13 +4760,13 @@
       </c>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A94" s="79"/>
-      <c r="B94" s="79"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="40" t="s">
+      <c r="A94" s="75"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E94" s="47" t="s">
+      <c r="E94" s="46" t="s">
         <v>163</v>
       </c>
       <c r="F94" s="14" t="s">
@@ -4779,13 +4780,13 @@
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="79"/>
-      <c r="B95" s="79"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="40" t="s">
+      <c r="A95" s="75"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E95" s="47" t="s">
+      <c r="E95" s="46" t="s">
         <v>164</v>
       </c>
       <c r="F95" s="14" t="s">
@@ -4799,13 +4800,13 @@
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A96" s="79"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="40" t="s">
+      <c r="A96" s="75"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="46" t="s">
         <v>165</v>
       </c>
       <c r="F96" s="14"/>
@@ -4817,16 +4818,16 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="27">
-      <c r="A97" s="78"/>
-      <c r="B97" s="78"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="42" t="s">
+      <c r="A97" s="73"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="68" t="s">
+      <c r="E97" s="67" t="s">
         <v>580</v>
       </c>
-      <c r="F97" s="44" t="s">
+      <c r="F97" s="43" t="s">
         <v>167</v>
       </c>
       <c r="G97" s="12" t="s">
@@ -4837,19 +4838,19 @@
       </c>
     </row>
     <row r="98" spans="1:9" s="5" customFormat="1">
-      <c r="A98" s="80"/>
-      <c r="B98" s="80"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="42" t="s">
+      <c r="A98" s="76"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F98" s="44" t="s">
+      <c r="F98" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="G98" s="48" t="s">
+      <c r="G98" s="47" t="s">
         <v>12</v>
       </c>
       <c r="H98" s="17" t="s">
@@ -4857,13 +4858,13 @@
       </c>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1">
-      <c r="A99" s="79"/>
-      <c r="B99" s="79"/>
-      <c r="C99" s="84"/>
-      <c r="D99" s="40" t="s">
+      <c r="A99" s="75"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="29" t="s">
         <v>170</v>
       </c>
       <c r="F99" s="14" t="s">
@@ -4876,14 +4877,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="30">
-      <c r="A100" s="78"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="83"/>
+    <row r="100" spans="1:9" ht="33">
+      <c r="A100" s="73"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="78"/>
       <c r="D100" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="48" t="s">
         <v>172</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -4897,13 +4898,13 @@
       </c>
     </row>
     <row r="101" spans="1:9" s="4" customFormat="1">
-      <c r="A101" s="79"/>
-      <c r="B101" s="79"/>
-      <c r="C101" s="84"/>
-      <c r="D101" s="40" t="s">
+      <c r="A101" s="75"/>
+      <c r="B101" s="75"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E101" s="29" t="s">
         <v>173</v>
       </c>
       <c r="F101" s="14" t="s">
@@ -4917,13 +4918,13 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="78"/>
-      <c r="B102" s="78"/>
-      <c r="C102" s="83"/>
+      <c r="A102" s="73"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="78"/>
       <c r="D102" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E102" s="33" t="s">
+      <c r="E102" s="32" t="s">
         <v>174</v>
       </c>
       <c r="F102" s="6" t="s">
@@ -4937,13 +4938,13 @@
       </c>
     </row>
     <row r="103" spans="1:9" s="4" customFormat="1">
-      <c r="A103" s="79"/>
-      <c r="B103" s="79"/>
-      <c r="C103" s="84"/>
-      <c r="D103" s="40" t="s">
+      <c r="A103" s="75"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="29" t="s">
         <v>175</v>
       </c>
       <c r="F103" s="14"/>
@@ -4954,14 +4955,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="4" customFormat="1" ht="30">
-      <c r="A104" s="79"/>
-      <c r="B104" s="79"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="40" t="s">
+    <row r="104" spans="1:9" s="4" customFormat="1" ht="33">
+      <c r="A104" s="75"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="E104" s="50" t="s">
+      <c r="E104" s="49" t="s">
         <v>176</v>
       </c>
       <c r="F104" s="14" t="s">
@@ -4975,13 +4976,13 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="27">
-      <c r="A105" s="78"/>
-      <c r="B105" s="78"/>
-      <c r="C105" s="83"/>
+      <c r="A105" s="73"/>
+      <c r="B105" s="73"/>
+      <c r="C105" s="78"/>
       <c r="D105" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E105" s="68" t="s">
+      <c r="E105" s="67" t="s">
         <v>577</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -4995,13 +4996,13 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="78"/>
-      <c r="B106" s="78"/>
-      <c r="C106" s="83"/>
+      <c r="A106" s="73"/>
+      <c r="B106" s="73"/>
+      <c r="C106" s="78"/>
       <c r="D106" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="33" t="s">
+      <c r="E106" s="32" t="s">
         <v>177</v>
       </c>
       <c r="F106" s="6" t="s">
@@ -5014,14 +5015,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="30">
-      <c r="A107" s="78"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="83"/>
+    <row r="107" spans="1:9" ht="33">
+      <c r="A107" s="73"/>
+      <c r="B107" s="73"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E107" s="33" t="s">
+      <c r="E107" s="32" t="s">
         <v>178</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -5033,16 +5034,16 @@
       <c r="H107" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I107" s="56"/>
+      <c r="I107" s="55"/>
     </row>
     <row r="108" spans="1:9" s="4" customFormat="1">
-      <c r="A108" s="79"/>
-      <c r="B108" s="79"/>
-      <c r="C108" s="84"/>
-      <c r="D108" s="40" t="s">
+      <c r="A108" s="75"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="29" t="s">
         <v>180</v>
       </c>
       <c r="F108" s="14" t="s">
@@ -5056,13 +5057,13 @@
       </c>
     </row>
     <row r="109" spans="1:9" s="4" customFormat="1">
-      <c r="A109" s="79"/>
-      <c r="B109" s="79"/>
-      <c r="C109" s="84"/>
-      <c r="D109" s="40" t="s">
+      <c r="A109" s="75"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="79"/>
+      <c r="D109" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="E109" s="29" t="s">
         <v>181</v>
       </c>
       <c r="F109" s="14" t="s">
@@ -5076,13 +5077,13 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="78"/>
-      <c r="B110" s="78"/>
-      <c r="C110" s="83"/>
+      <c r="A110" s="73"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="78"/>
       <c r="D110" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="41" t="s">
+      <c r="E110" s="40" t="s">
         <v>578</v>
       </c>
       <c r="G110" s="12" t="s">
@@ -5092,14 +5093,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5">
-      <c r="A111" s="78"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="83"/>
+    <row r="111" spans="1:9">
+      <c r="A111" s="73"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="78"/>
       <c r="D111" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="E111" s="40" t="s">
         <v>579</v>
       </c>
       <c r="G111" s="12" t="s">
@@ -5108,16 +5109,16 @@
       <c r="H111" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I111" s="56"/>
-    </row>
-    <row r="112" spans="1:9" s="4" customFormat="1" ht="30">
-      <c r="A112" s="79"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="84"/>
-      <c r="D112" s="40" t="s">
+      <c r="I111" s="55"/>
+    </row>
+    <row r="112" spans="1:9" s="4" customFormat="1" ht="33">
+      <c r="A112" s="75"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E112" s="50" t="s">
+      <c r="E112" s="49" t="s">
         <v>183</v>
       </c>
       <c r="F112" s="14" t="s">
@@ -5129,16 +5130,16 @@
       <c r="H112" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="57"/>
+      <c r="I112" s="56"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="83"/>
-      <c r="D113" s="40" t="s">
+      <c r="A113" s="73"/>
+      <c r="B113" s="73"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="29" t="s">
         <v>185</v>
       </c>
       <c r="F113" s="14" t="s">
@@ -5147,18 +5148,18 @@
       <c r="G113" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H113" s="51" t="s">
+      <c r="H113" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="78"/>
-      <c r="B114" s="78"/>
-      <c r="C114" s="83"/>
-      <c r="D114" s="40" t="s">
+      <c r="A114" s="73"/>
+      <c r="B114" s="73"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="29" t="s">
         <v>186</v>
       </c>
       <c r="F114" s="14" t="s">
@@ -5167,18 +5168,18 @@
       <c r="G114" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="51" t="s">
+      <c r="H114" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="78"/>
-      <c r="B115" s="78"/>
-      <c r="C115" s="83"/>
+    <row r="115" spans="1:11" ht="33">
+      <c r="A115" s="73"/>
+      <c r="B115" s="73"/>
+      <c r="C115" s="78"/>
       <c r="D115" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="33" t="s">
+      <c r="E115" s="32" t="s">
         <v>187</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -5187,18 +5188,18 @@
       <c r="G115" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="29" t="s">
+      <c r="H115" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="30">
-      <c r="A116" s="78"/>
-      <c r="B116" s="78"/>
-      <c r="C116" s="83"/>
+    <row r="116" spans="1:11" ht="33">
+      <c r="A116" s="73"/>
+      <c r="B116" s="73"/>
+      <c r="C116" s="78"/>
       <c r="D116" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E116" s="33" t="s">
+      <c r="E116" s="32" t="s">
         <v>188</v>
       </c>
       <c r="F116" s="6" t="s">
@@ -5207,18 +5208,18 @@
       <c r="G116" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="29" t="s">
+      <c r="H116" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="78"/>
-      <c r="B117" s="78"/>
-      <c r="C117" s="83"/>
-      <c r="D117" s="40" t="s">
+    <row r="117" spans="1:11" ht="33">
+      <c r="A117" s="73"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="29" t="s">
         <v>189</v>
       </c>
       <c r="F117" s="14" t="s">
@@ -5227,18 +5228,18 @@
       <c r="G117" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H117" s="51" t="s">
+      <c r="H117" s="50" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="78"/>
-      <c r="B118" s="78"/>
-      <c r="C118" s="83"/>
-      <c r="D118" s="40" t="s">
+      <c r="A118" s="73"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="50" t="s">
+      <c r="E118" s="49" t="s">
         <v>190</v>
       </c>
       <c r="F118" s="14" t="s">
@@ -5247,568 +5248,568 @@
       <c r="G118" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H118" s="51" t="s">
+      <c r="H118" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="3" customFormat="1">
-      <c r="A119" s="78"/>
-      <c r="B119" s="81" t="s">
+    <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A119" s="73"/>
+      <c r="B119" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="C119" s="83"/>
-      <c r="D119" s="53" t="s">
+      <c r="C119" s="78"/>
+      <c r="D119" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E119" s="54" t="s">
+      <c r="E119" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="F119" s="36" t="s">
+      <c r="F119" s="35" t="s">
         <v>193</v>
       </c>
       <c r="G119" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H119" s="29" t="s">
+      <c r="H119" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I119" s="52"/>
-      <c r="J119" s="52"/>
-      <c r="K119" s="52"/>
-    </row>
-    <row r="120" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A120" s="78"/>
-      <c r="B120" s="81"/>
-      <c r="C120" s="83"/>
-      <c r="D120" s="53" t="s">
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+    </row>
+    <row r="120" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A120" s="73"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="78"/>
+      <c r="D120" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E120" s="33" t="s">
+      <c r="E120" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F120" s="54" t="s">
+      <c r="F120" s="53" t="s">
         <v>195</v>
       </c>
       <c r="G120" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H120" s="29" t="s">
+      <c r="H120" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I120" s="52"/>
-      <c r="J120" s="52"/>
-      <c r="K120" s="52"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="78"/>
-      <c r="B121" s="81"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="53" t="s">
+      <c r="A121" s="73"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="78"/>
+      <c r="D121" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E121" s="54" t="s">
+      <c r="E121" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="F121" s="54" t="s">
+      <c r="F121" s="53" t="s">
         <v>197</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="29" t="s">
+      <c r="H121" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I121" s="52"/>
-      <c r="J121" s="52"/>
-      <c r="K121" s="52"/>
-    </row>
-    <row r="122" spans="1:11" s="3" customFormat="1">
-      <c r="A122" s="78"/>
-      <c r="B122" s="81"/>
-      <c r="C122" s="83"/>
-      <c r="D122" s="53" t="s">
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+      <c r="K121" s="51"/>
+    </row>
+    <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A122" s="73"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E122" s="54" t="s">
+      <c r="E122" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="F122" s="36" t="s">
+      <c r="F122" s="35" t="s">
         <v>199</v>
       </c>
       <c r="G122" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H122" s="51" t="s">
+      <c r="H122" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I122" s="52"/>
-      <c r="J122" s="52"/>
-    </row>
-    <row r="123" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A123" s="78"/>
-      <c r="B123" s="81"/>
-      <c r="C123" s="83"/>
-      <c r="D123" s="53" t="s">
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+    </row>
+    <row r="123" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A123" s="73"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E123" s="33" t="s">
+      <c r="E123" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F123" s="54" t="s">
+      <c r="F123" s="53" t="s">
         <v>201</v>
       </c>
       <c r="G123" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H123" s="29" t="s">
+      <c r="H123" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I123" s="52"/>
-      <c r="J123" s="52"/>
-    </row>
-    <row r="124" spans="1:11" s="3" customFormat="1" ht="30">
-      <c r="A124" s="78"/>
-      <c r="B124" s="81"/>
-      <c r="C124" s="83"/>
-      <c r="D124" s="53" t="s">
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
+    </row>
+    <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A124" s="73"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="78"/>
+      <c r="D124" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E124" s="33" t="s">
+      <c r="E124" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="F124" s="54" t="s">
+      <c r="F124" s="53" t="s">
         <v>203</v>
       </c>
       <c r="G124" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H124" s="29" t="s">
+      <c r="H124" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I124" s="52"/>
-      <c r="J124" s="52"/>
-    </row>
-    <row r="125" spans="1:11" s="3" customFormat="1">
-      <c r="A125" s="78"/>
-      <c r="B125" s="81"/>
-      <c r="C125" s="83"/>
-      <c r="D125" s="53" t="s">
+      <c r="I124" s="51"/>
+      <c r="J124" s="51"/>
+    </row>
+    <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
+      <c r="A125" s="73"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="78"/>
+      <c r="D125" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E125" s="33" t="s">
+      <c r="E125" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F125" s="54" t="s">
+      <c r="F125" s="53" t="s">
         <v>205</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H125" s="29" t="s">
+      <c r="H125" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I125" s="52"/>
-      <c r="J125" s="52"/>
-    </row>
-    <row r="126" spans="1:11" s="3" customFormat="1" ht="45">
-      <c r="A126" s="78"/>
-      <c r="B126" s="81"/>
-      <c r="C126" s="83"/>
-      <c r="D126" s="53" t="s">
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
+    </row>
+    <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A126" s="73"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="78"/>
+      <c r="D126" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="33" t="s">
+      <c r="E126" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F126" s="54" t="s">
+      <c r="F126" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H126" s="29" t="s">
+      <c r="H126" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="3" customFormat="1" ht="45">
-      <c r="A127" s="78"/>
-      <c r="B127" s="81"/>
-      <c r="C127" s="83"/>
-      <c r="D127" s="55" t="s">
+    <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
+      <c r="A127" s="73"/>
+      <c r="B127" s="74"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E127" s="33" t="s">
+      <c r="E127" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F127" s="54" t="s">
+      <c r="F127" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="29" t="s">
+      <c r="H127" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="78"/>
-      <c r="B128" s="81"/>
-      <c r="C128" s="83"/>
-      <c r="D128" s="71" t="s">
+      <c r="A128" s="73"/>
+      <c r="B128" s="74"/>
+      <c r="C128" s="78"/>
+      <c r="D128" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E128" s="30" t="s">
+      <c r="E128" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="F128" s="72" t="s">
+      <c r="F128" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="G128" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="51" t="s">
+      <c r="G128" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A129" s="78"/>
-      <c r="B129" s="81"/>
-      <c r="C129" s="83"/>
-      <c r="D129" s="71" t="s">
+    <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A129" s="73"/>
+      <c r="B129" s="74"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="E129" s="30" t="s">
+      <c r="E129" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F129" s="72" t="s">
+      <c r="F129" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="G129" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="51" t="s">
+      <c r="G129" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="I129" s="52"/>
-      <c r="J129" s="52"/>
-    </row>
-    <row r="130" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A130" s="78"/>
-      <c r="B130" s="81"/>
-      <c r="C130" s="83"/>
-      <c r="D130" s="55" t="s">
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
+    </row>
+    <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A130" s="73"/>
+      <c r="B130" s="74"/>
+      <c r="C130" s="78"/>
+      <c r="D130" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="E130" s="33" t="s">
+      <c r="E130" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F130" s="54" t="s">
+      <c r="F130" s="53" t="s">
         <v>211</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H130" s="29" t="s">
+      <c r="H130" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="J130" s="52"/>
-    </row>
-    <row r="131" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A131" s="78"/>
-      <c r="B131" s="81"/>
-      <c r="C131" s="83"/>
-      <c r="D131" s="55" t="s">
+      <c r="J130" s="51"/>
+    </row>
+    <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A131" s="73"/>
+      <c r="B131" s="74"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E131" s="54" t="s">
+      <c r="E131" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="F131" s="54" t="s">
+      <c r="F131" s="53" t="s">
         <v>213</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H131" s="29" t="s">
+      <c r="H131" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="78"/>
-      <c r="B132" s="81"/>
-      <c r="C132" s="83"/>
-      <c r="D132" s="55" t="s">
+      <c r="A132" s="73"/>
+      <c r="B132" s="74"/>
+      <c r="C132" s="78"/>
+      <c r="D132" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="E132" s="54" t="s">
+      <c r="E132" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="F132" s="54"/>
+      <c r="F132" s="53"/>
       <c r="G132" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="29" t="s">
+      <c r="H132" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="A133" s="78"/>
-      <c r="B133" s="81"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="71" t="s">
+    <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A133" s="73"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="E133" s="30" t="s">
+      <c r="E133" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="F133" s="72" t="s">
+      <c r="F133" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="G133" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" s="51" t="s">
+      <c r="G133" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="A134" s="78"/>
-      <c r="B134" s="81"/>
-      <c r="C134" s="83"/>
-      <c r="D134" s="55" t="s">
+    <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A134" s="73"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="78"/>
+      <c r="D134" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="E134" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="F134" s="54" t="s">
+      <c r="F134" s="53" t="s">
         <v>171</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="29" t="s">
+      <c r="H134" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I134" s="52"/>
-    </row>
-    <row r="135" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="A135" s="78"/>
-      <c r="B135" s="81"/>
-      <c r="C135" s="83"/>
-      <c r="D135" s="55" t="s">
+      <c r="I134" s="51"/>
+    </row>
+    <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A135" s="73"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="78"/>
+      <c r="D135" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E135" s="33" t="s">
+      <c r="E135" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="F135" s="58" t="s">
+      <c r="F135" s="57" t="s">
         <v>219</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="29" t="s">
+      <c r="H135" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I135" s="52"/>
-    </row>
-    <row r="136" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A136" s="78"/>
-      <c r="B136" s="81"/>
-      <c r="C136" s="83"/>
-      <c r="D136" s="53" t="s">
+      <c r="I135" s="51"/>
+    </row>
+    <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A136" s="73"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="78"/>
+      <c r="D136" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="E136" s="33" t="s">
+      <c r="E136" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="F136" s="58"/>
+      <c r="F136" s="57"/>
       <c r="G136" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H136" s="29" t="s">
+      <c r="H136" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I136" s="52"/>
-    </row>
-    <row r="137" spans="1:10" s="3" customFormat="1" ht="60">
-      <c r="A137" s="78" t="s">
+      <c r="I136" s="51"/>
+    </row>
+    <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
+      <c r="A137" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="B137" s="36" t="s">
+      <c r="B137" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="C137" s="59" t="s">
+      <c r="C137" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="D137" s="60" t="s">
+      <c r="D137" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E137" s="33" t="s">
+      <c r="E137" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="F137" s="59"/>
-      <c r="G137" s="59"/>
-      <c r="H137" s="52" t="s">
+      <c r="F137" s="58"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="3" customFormat="1" ht="90">
-      <c r="A138" s="78"/>
-      <c r="B138" s="36" t="s">
+    <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A138" s="73"/>
+      <c r="B138" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="C138" s="59" t="s">
+      <c r="C138" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="D138" s="60" t="s">
+      <c r="D138" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E138" s="33" t="s">
+      <c r="E138" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="F138" s="59"/>
-      <c r="G138" s="59"/>
-      <c r="H138" s="52" t="s">
+      <c r="F138" s="58"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="3" customFormat="1" ht="90">
-      <c r="A139" s="78"/>
-      <c r="B139" s="36" t="s">
+    <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
+      <c r="A139" s="73"/>
+      <c r="B139" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="C139" s="59" t="s">
+      <c r="C139" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="D139" s="60" t="s">
+      <c r="D139" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="E139" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="F139" s="59"/>
-      <c r="G139" s="59"/>
-      <c r="H139" s="52" t="s">
+      <c r="F139" s="58"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="3" customFormat="1" ht="45">
-      <c r="A140" s="78"/>
-      <c r="B140" s="36" t="s">
+    <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
+      <c r="A140" s="73"/>
+      <c r="B140" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="C140" s="59" t="s">
+      <c r="C140" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="D140" s="60" t="s">
+      <c r="D140" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E140" s="33" t="s">
+      <c r="E140" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="F140" s="59"/>
-      <c r="G140" s="59"/>
-      <c r="H140" s="52" t="s">
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="3" customFormat="1" ht="75">
-      <c r="A141" s="78"/>
-      <c r="B141" s="36" t="s">
+    <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
+      <c r="A141" s="73"/>
+      <c r="B141" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C141" s="59" t="s">
+      <c r="C141" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="D141" s="60" t="s">
+      <c r="D141" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E141" s="33" t="s">
+      <c r="E141" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59"/>
-      <c r="H141" s="52" t="s">
+      <c r="F141" s="58"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="3" customFormat="1" ht="105">
-      <c r="A142" s="78"/>
-      <c r="B142" s="36" t="s">
+    <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
+      <c r="A142" s="73"/>
+      <c r="B142" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="C142" s="59" t="s">
+      <c r="C142" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="D142" s="60" t="s">
+      <c r="D142" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E142" s="33" t="s">
+      <c r="E142" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="F142" s="59"/>
-      <c r="G142" s="59"/>
-      <c r="H142" s="52" t="s">
+      <c r="F142" s="58"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="A143" s="78"/>
-      <c r="B143" s="36" t="s">
+    <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
+      <c r="A143" s="73"/>
+      <c r="B143" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="C143" s="59" t="s">
+      <c r="C143" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="D143" s="60" t="s">
+      <c r="D143" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E143" s="33" t="s">
+      <c r="E143" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="F143" s="59"/>
-      <c r="G143" s="59"/>
-      <c r="H143" s="52" t="s">
+      <c r="F143" s="58"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="45">
-      <c r="A144" s="78"/>
+    <row r="144" spans="1:10" ht="49.5">
+      <c r="A144" s="73"/>
       <c r="B144" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C144" s="61" t="s">
+      <c r="C144" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="D144" s="60" t="s">
+      <c r="D144" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="E144" s="62" t="s">
+      <c r="E144" s="61" t="s">
         <v>244</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H144" s="52" t="s">
+      <c r="H144" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="45">
-      <c r="A145" s="78" t="s">
+    <row r="145" spans="1:8" ht="49.5">
+      <c r="A145" s="73" t="s">
         <v>245</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="75" t="s">
+      <c r="C145" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="D145" s="63" t="s">
+      <c r="D145" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="E145" s="33" t="s">
+      <c r="E145" s="32" t="s">
         <v>249</v>
       </c>
       <c r="F145" s="7" t="s">
@@ -5822,12 +5823,12 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="78"/>
-      <c r="C146" s="75"/>
-      <c r="D146" s="63" t="s">
+      <c r="A146" s="73"/>
+      <c r="C146" s="81"/>
+      <c r="D146" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="E146" s="33" t="s">
+      <c r="E146" s="32" t="s">
         <v>252</v>
       </c>
       <c r="F146" s="6" t="s">
@@ -5841,12 +5842,12 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="78"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="63" t="s">
+      <c r="A147" s="73"/>
+      <c r="C147" s="81"/>
+      <c r="D147" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="E147" s="33" t="s">
+      <c r="E147" s="32" t="s">
         <v>255</v>
       </c>
       <c r="G147" s="12" t="s">
@@ -5857,12 +5858,12 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="78"/>
-      <c r="C148" s="75"/>
-      <c r="D148" s="63" t="s">
+      <c r="A148" s="73"/>
+      <c r="C148" s="81"/>
+      <c r="D148" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="E148" s="33" t="s">
+      <c r="E148" s="32" t="s">
         <v>257</v>
       </c>
       <c r="G148" s="12" t="s">
@@ -5873,12 +5874,12 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="78"/>
-      <c r="C149" s="75"/>
-      <c r="D149" s="63" t="s">
+      <c r="A149" s="73"/>
+      <c r="C149" s="81"/>
+      <c r="D149" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="E149" s="33" t="s">
+      <c r="E149" s="32" t="s">
         <v>259</v>
       </c>
       <c r="G149" s="12" t="s">
@@ -5889,12 +5890,12 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="78"/>
-      <c r="C150" s="75"/>
-      <c r="D150" s="63" t="s">
+      <c r="A150" s="73"/>
+      <c r="C150" s="81"/>
+      <c r="D150" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="E150" s="33" t="s">
+      <c r="E150" s="32" t="s">
         <v>261</v>
       </c>
       <c r="G150" s="12" t="s">
@@ -5904,10 +5905,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="30">
-      <c r="A151" s="78"/>
-      <c r="C151" s="75"/>
-      <c r="D151" s="63" t="s">
+    <row r="151" spans="1:8" ht="33">
+      <c r="A151" s="73"/>
+      <c r="C151" s="81"/>
+      <c r="D151" s="62" t="s">
         <v>262</v>
       </c>
       <c r="E151" s="9" t="s">
@@ -5921,12 +5922,12 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="78"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="63" t="s">
+      <c r="A152" s="73"/>
+      <c r="C152" s="81"/>
+      <c r="D152" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="E152" s="33" t="s">
+      <c r="E152" s="32" t="s">
         <v>265</v>
       </c>
       <c r="G152" s="12" t="s">
@@ -5937,12 +5938,12 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="78"/>
-      <c r="C153" s="75"/>
-      <c r="D153" s="63" t="s">
+      <c r="A153" s="73"/>
+      <c r="C153" s="81"/>
+      <c r="D153" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="E153" s="33" t="s">
+      <c r="E153" s="32" t="s">
         <v>267</v>
       </c>
       <c r="G153" s="12" t="s">
@@ -5953,12 +5954,12 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="78"/>
-      <c r="C154" s="75"/>
-      <c r="D154" s="63" t="s">
+      <c r="A154" s="73"/>
+      <c r="C154" s="81"/>
+      <c r="D154" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="E154" s="33" t="s">
+      <c r="E154" s="32" t="s">
         <v>269</v>
       </c>
       <c r="G154" s="12" t="s">
@@ -5969,12 +5970,12 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="78"/>
-      <c r="C155" s="75"/>
-      <c r="D155" s="63" t="s">
+      <c r="A155" s="73"/>
+      <c r="C155" s="81"/>
+      <c r="D155" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="E155" s="33" t="s">
+      <c r="E155" s="32" t="s">
         <v>271</v>
       </c>
       <c r="G155" s="12" t="s">
@@ -5985,12 +5986,12 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="78"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="63" t="s">
+      <c r="A156" s="73"/>
+      <c r="C156" s="81"/>
+      <c r="D156" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="E156" s="33" t="s">
+      <c r="E156" s="32" t="s">
         <v>273</v>
       </c>
       <c r="G156" s="12" t="s">
@@ -6000,13 +6001,13 @@
         <v>581</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="30">
-      <c r="A157" s="78"/>
-      <c r="C157" s="75"/>
-      <c r="D157" s="63" t="s">
+    <row r="157" spans="1:8" ht="33">
+      <c r="A157" s="73"/>
+      <c r="C157" s="81"/>
+      <c r="D157" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="E157" s="33" t="s">
+      <c r="E157" s="32" t="s">
         <v>275</v>
       </c>
       <c r="G157" s="12" t="s">
@@ -6016,17 +6017,17 @@
         <v>581</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="45">
-      <c r="A158" s="78" t="s">
+    <row r="158" spans="1:8" ht="49.5">
+      <c r="A158" s="73" t="s">
         <v>245</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C158" s="75" t="s">
+      <c r="C158" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="D158" s="63" t="s">
+      <c r="D158" s="62" t="s">
         <v>251</v>
       </c>
       <c r="E158" s="9" t="s">
@@ -6040,12 +6041,12 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="78"/>
-      <c r="C159" s="75"/>
-      <c r="D159" s="63" t="s">
+      <c r="A159" s="73"/>
+      <c r="C159" s="81"/>
+      <c r="D159" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="E159" s="33" t="s">
+      <c r="E159" s="32" t="s">
         <v>279</v>
       </c>
       <c r="G159" s="12" t="s">
@@ -6056,9 +6057,9 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="78"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="63" t="s">
+      <c r="A160" s="73"/>
+      <c r="C160" s="81"/>
+      <c r="D160" s="62" t="s">
         <v>264</v>
       </c>
       <c r="E160" s="9" t="s">
@@ -6072,12 +6073,12 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="78"/>
-      <c r="C161" s="75"/>
-      <c r="D161" s="63" t="s">
+      <c r="A161" s="73"/>
+      <c r="C161" s="81"/>
+      <c r="D161" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="E161" s="33" t="s">
+      <c r="E161" s="32" t="s">
         <v>281</v>
       </c>
       <c r="G161" s="12" t="s">
@@ -6088,12 +6089,12 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="78"/>
-      <c r="C162" s="75"/>
-      <c r="D162" s="63" t="s">
+      <c r="A162" s="73"/>
+      <c r="C162" s="81"/>
+      <c r="D162" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="E162" s="33" t="s">
+      <c r="E162" s="32" t="s">
         <v>282</v>
       </c>
       <c r="G162" s="12" t="s">
@@ -6104,12 +6105,12 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="78"/>
-      <c r="C163" s="75"/>
-      <c r="D163" s="63" t="s">
+      <c r="A163" s="73"/>
+      <c r="C163" s="81"/>
+      <c r="D163" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="E163" s="33" t="s">
+      <c r="E163" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G163" s="12" t="s">
@@ -6120,12 +6121,12 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="78"/>
-      <c r="C164" s="75"/>
-      <c r="D164" s="63" t="s">
+      <c r="A164" s="73"/>
+      <c r="C164" s="81"/>
+      <c r="D164" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="E164" s="33" t="s">
+      <c r="E164" s="32" t="s">
         <v>284</v>
       </c>
       <c r="G164" s="12" t="s">
@@ -6136,32 +6137,32 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="78" t="s">
+      <c r="A165" s="73" t="s">
         <v>245</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C165" s="75" t="s">
+      <c r="C165" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="D165" s="63" t="s">
+      <c r="D165" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="E165" s="33" t="s">
+      <c r="E165" s="32" t="s">
         <v>286</v>
       </c>
       <c r="G165" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H165" s="52" t="s">
+      <c r="H165" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="78"/>
-      <c r="C166" s="75"/>
-      <c r="D166" s="63" t="s">
+      <c r="A166" s="73"/>
+      <c r="C166" s="81"/>
+      <c r="D166" s="62" t="s">
         <v>254</v>
       </c>
       <c r="E166" s="9" t="s">
@@ -6170,14 +6171,14 @@
       <c r="G166" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H166" s="52" t="s">
+      <c r="H166" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="78"/>
-      <c r="C167" s="75"/>
-      <c r="D167" s="63" t="s">
+      <c r="A167" s="73"/>
+      <c r="C167" s="81"/>
+      <c r="D167" s="62" t="s">
         <v>256</v>
       </c>
       <c r="E167" s="9" t="s">
@@ -6186,14 +6187,14 @@
       <c r="G167" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H167" s="52" t="s">
+      <c r="H167" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="78"/>
-      <c r="C168" s="75"/>
-      <c r="D168" s="63" t="s">
+      <c r="A168" s="73"/>
+      <c r="C168" s="81"/>
+      <c r="D168" s="62" t="s">
         <v>258</v>
       </c>
       <c r="E168" s="9" t="s">
@@ -6202,14 +6203,14 @@
       <c r="G168" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H168" s="52" t="s">
+      <c r="H168" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="78"/>
-      <c r="C169" s="75"/>
-      <c r="D169" s="63" t="s">
+      <c r="A169" s="73"/>
+      <c r="C169" s="81"/>
+      <c r="D169" s="62" t="s">
         <v>290</v>
       </c>
       <c r="E169" s="9" t="s">
@@ -6218,14 +6219,14 @@
       <c r="G169" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H169" s="52" t="s">
+      <c r="H169" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="78"/>
-      <c r="C170" s="75"/>
-      <c r="D170" s="63" t="s">
+      <c r="A170" s="73"/>
+      <c r="C170" s="81"/>
+      <c r="D170" s="62" t="s">
         <v>262</v>
       </c>
       <c r="E170" s="9" t="s">
@@ -6234,13 +6235,13 @@
       <c r="G170" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H170" s="52" t="s">
+      <c r="H170" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="78"/>
-      <c r="C171" s="75"/>
+      <c r="A171" s="73"/>
+      <c r="C171" s="81"/>
       <c r="D171" s="9" t="s">
         <v>293</v>
       </c>
@@ -6250,14 +6251,14 @@
       <c r="G171" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H171" s="52" t="s">
+      <c r="H171" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="78"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="63" t="s">
+      <c r="A172" s="73"/>
+      <c r="C172" s="81"/>
+      <c r="D172" s="62" t="s">
         <v>268</v>
       </c>
       <c r="E172" s="9" t="s">
@@ -6266,14 +6267,14 @@
       <c r="G172" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H172" s="52" t="s">
+      <c r="H172" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="78"/>
-      <c r="C173" s="75"/>
-      <c r="D173" s="63" t="s">
+      <c r="A173" s="73"/>
+      <c r="C173" s="81"/>
+      <c r="D173" s="62" t="s">
         <v>270</v>
       </c>
       <c r="E173" s="9" t="s">
@@ -6282,14 +6283,14 @@
       <c r="G173" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H173" s="52" t="s">
+      <c r="H173" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="78"/>
-      <c r="C174" s="75"/>
-      <c r="D174" s="63" t="s">
+      <c r="A174" s="73"/>
+      <c r="C174" s="81"/>
+      <c r="D174" s="62" t="s">
         <v>272</v>
       </c>
       <c r="E174" s="9" t="s">
@@ -6298,14 +6299,14 @@
       <c r="G174" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H174" s="52" t="s">
+      <c r="H174" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="78"/>
-      <c r="C175" s="75"/>
-      <c r="D175" s="63" t="s">
+    <row r="175" spans="1:8" ht="33">
+      <c r="A175" s="73"/>
+      <c r="C175" s="81"/>
+      <c r="D175" s="62" t="s">
         <v>274</v>
       </c>
       <c r="E175" s="9" t="s">
@@ -6314,37 +6315,37 @@
       <c r="G175" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H175" s="52" t="s">
+      <c r="H175" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="78" t="s">
+      <c r="A176" s="73" t="s">
         <v>245</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C176" s="75" t="s">
+      <c r="C176" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="D176" s="63" t="s">
+      <c r="D176" s="62" t="s">
         <v>251</v>
       </c>
-      <c r="E176" s="33" t="s">
+      <c r="E176" s="32" t="s">
         <v>300</v>
       </c>
       <c r="G176" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H176" s="52" t="s">
+      <c r="H176" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="78"/>
-      <c r="C177" s="75"/>
-      <c r="D177" s="63" t="s">
+      <c r="A177" s="73"/>
+      <c r="C177" s="81"/>
+      <c r="D177" s="62" t="s">
         <v>254</v>
       </c>
       <c r="E177" s="9" t="s">
@@ -6353,14 +6354,14 @@
       <c r="G177" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H177" s="52" t="s">
+      <c r="H177" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="78"/>
-      <c r="C178" s="75"/>
-      <c r="D178" s="63" t="s">
+      <c r="A178" s="73"/>
+      <c r="C178" s="81"/>
+      <c r="D178" s="62" t="s">
         <v>256</v>
       </c>
       <c r="E178" s="9" t="s">
@@ -6369,14 +6370,14 @@
       <c r="G178" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H178" s="52" t="s">
+      <c r="H178" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="78"/>
-      <c r="C179" s="75"/>
-      <c r="D179" s="63" t="s">
+      <c r="A179" s="73"/>
+      <c r="C179" s="81"/>
+      <c r="D179" s="62" t="s">
         <v>258</v>
       </c>
       <c r="E179" s="9" t="s">
@@ -6385,14 +6386,14 @@
       <c r="G179" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H179" s="52" t="s">
+      <c r="H179" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="78"/>
-      <c r="C180" s="75"/>
-      <c r="D180" s="63" t="s">
+      <c r="A180" s="73"/>
+      <c r="C180" s="81"/>
+      <c r="D180" s="62" t="s">
         <v>290</v>
       </c>
       <c r="E180" s="9" t="s">
@@ -6401,14 +6402,14 @@
       <c r="G180" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H180" s="52" t="s">
+      <c r="H180" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="78"/>
-      <c r="C181" s="75"/>
-      <c r="D181" s="63" t="s">
+      <c r="A181" s="73"/>
+      <c r="C181" s="81"/>
+      <c r="D181" s="62" t="s">
         <v>262</v>
       </c>
       <c r="E181" s="9" t="s">
@@ -6417,14 +6418,14 @@
       <c r="G181" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="52" t="s">
+      <c r="H181" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="78"/>
-      <c r="C182" s="75"/>
-      <c r="D182" s="63" t="s">
+      <c r="A182" s="73"/>
+      <c r="C182" s="81"/>
+      <c r="D182" s="62" t="s">
         <v>266</v>
       </c>
       <c r="E182" s="9" t="s">
@@ -6433,13 +6434,13 @@
       <c r="G182" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H182" s="52" t="s">
+      <c r="H182" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="30">
-      <c r="A183" s="78"/>
-      <c r="C183" s="75"/>
+    <row r="183" spans="1:8" ht="66">
+      <c r="A183" s="73"/>
+      <c r="C183" s="81"/>
       <c r="D183" s="9" t="s">
         <v>293</v>
       </c>
@@ -6449,14 +6450,14 @@
       <c r="G183" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H183" s="52" t="s">
+      <c r="H183" s="51" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="78"/>
-      <c r="C184" s="75"/>
-      <c r="D184" s="63" t="s">
+      <c r="A184" s="73"/>
+      <c r="C184" s="81"/>
+      <c r="D184" s="62" t="s">
         <v>268</v>
       </c>
       <c r="E184" s="9" t="s">
@@ -6465,14 +6466,14 @@
       <c r="G184" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H184" s="52" t="s">
+      <c r="H184" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="78"/>
-      <c r="C185" s="75"/>
-      <c r="D185" s="63" t="s">
+    <row r="185" spans="1:8" ht="33">
+      <c r="A185" s="73"/>
+      <c r="C185" s="81"/>
+      <c r="D185" s="62" t="s">
         <v>274</v>
       </c>
       <c r="E185" s="9" t="s">
@@ -6481,21 +6482,21 @@
       <c r="G185" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H185" s="52" t="s">
+      <c r="H185" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="60">
-      <c r="A186" s="60" t="s">
+    <row r="186" spans="1:8" ht="66">
+      <c r="A186" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="C186" s="64" t="s">
+      <c r="C186" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="D186" s="60" t="s">
+      <c r="D186" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="E186" s="62" t="s">
+      <c r="E186" s="61" t="s">
         <v>312</v>
       </c>
       <c r="G186" s="12" t="s">
@@ -6505,17 +6506,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="90">
-      <c r="A187" s="65" t="s">
+    <row r="187" spans="1:8" ht="99">
+      <c r="A187" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="C187" s="64" t="s">
+      <c r="C187" s="63" t="s">
         <v>314</v>
       </c>
-      <c r="D187" s="60" t="s">
+      <c r="D187" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="E187" s="62" t="s">
+      <c r="E187" s="61" t="s">
         <v>316</v>
       </c>
       <c r="G187" s="12" t="s">
@@ -6525,17 +6526,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="60">
-      <c r="A188" s="65" t="s">
+    <row r="188" spans="1:8" ht="66">
+      <c r="A188" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="C188" s="64" t="s">
+      <c r="C188" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="D188" s="60" t="s">
+      <c r="D188" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="E188" s="62" t="s">
+      <c r="E188" s="61" t="s">
         <v>320</v>
       </c>
       <c r="G188" s="12" t="s">
@@ -6545,17 +6546,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="45">
-      <c r="A189" s="65" t="s">
+    <row r="189" spans="1:8" ht="49.5">
+      <c r="A189" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="C189" s="64" t="s">
+      <c r="C189" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="D189" s="60" t="s">
+      <c r="D189" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="E189" s="62" t="s">
+      <c r="E189" s="61" t="s">
         <v>324</v>
       </c>
       <c r="G189" s="12" t="s">
@@ -6565,11 +6566,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="75">
+    <row r="190" spans="1:8" ht="82.5">
       <c r="A190" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C190" s="64" t="s">
+      <c r="C190" s="63" t="s">
         <v>326</v>
       </c>
       <c r="D190" s="8" t="s">
@@ -6585,20 +6586,20 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="45">
-      <c r="A191" s="78" t="s">
+    <row r="191" spans="1:8" ht="49.5">
+      <c r="A191" s="73" t="s">
         <v>329</v>
       </c>
       <c r="B191" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C191" s="66" t="s">
+      <c r="C191" s="65" t="s">
         <v>331</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="E191" s="33" t="s">
+      <c r="E191" s="32" t="s">
         <v>332</v>
       </c>
       <c r="G191" s="12" t="s">
@@ -6608,18 +6609,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="75">
-      <c r="A192" s="78"/>
+    <row r="192" spans="1:8" ht="82.5">
+      <c r="A192" s="73"/>
       <c r="B192" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C192" s="66" t="s">
+      <c r="C192" s="65" t="s">
         <v>334</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E192" s="67" t="s">
+      <c r="E192" s="66" t="s">
         <v>335</v>
       </c>
       <c r="G192" s="12" t="s">
@@ -6630,17 +6631,17 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="78"/>
+      <c r="A193" s="73"/>
       <c r="B193" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C193" s="66" t="s">
+      <c r="C193" s="65" t="s">
         <v>337</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E193" s="33" t="s">
+      <c r="E193" s="32" t="s">
         <v>338</v>
       </c>
       <c r="G193" s="12" t="s">
@@ -6650,17 +6651,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="90">
+    <row r="194" spans="1:8" ht="99">
       <c r="A194" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C194" s="66" t="s">
+      <c r="C194" s="65" t="s">
         <v>340</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="E194" s="33" t="s">
+      <c r="E194" s="32" t="s">
         <v>342</v>
       </c>
       <c r="G194" s="12" t="s">
@@ -6676,21 +6677,25 @@
   </sheetData>
   <autoFilter ref="H1:H195"/>
   <mergeCells count="50">
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6707,25 +6712,21 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -2001,7 +2001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2221,16 +2221,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2244,21 +2262,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3190,8 +3193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -3235,13 +3238,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="75" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3256,9 +3259,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="73"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="82"/>
+      <c r="A3" s="79"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
@@ -3271,9 +3274,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="73"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="79"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="16" t="s">
         <v>15</v>
       </c>
@@ -3285,9 +3288,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="73"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="83" t="s">
+      <c r="A5" s="79"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="77" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -3302,9 +3305,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="73"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="84"/>
+      <c r="A6" s="79"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
@@ -3317,9 +3320,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="73"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="84"/>
+      <c r="A7" s="79"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3332,9 +3335,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
-      <c r="A8" s="73"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="85" t="s">
+      <c r="A8" s="79"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="74" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -3349,9 +3352,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="27">
-      <c r="A9" s="73"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="85"/>
+      <c r="A9" s="79"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="19" t="s">
         <v>23</v>
       </c>
@@ -3364,9 +3367,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
-      <c r="A10" s="73"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="85"/>
+      <c r="A10" s="79"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
@@ -3379,9 +3382,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="73"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="83" t="s">
+      <c r="A11" s="79"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="77" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -3396,9 +3399,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="73"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="84"/>
+      <c r="A12" s="79"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -3411,9 +3414,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="73"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="82" t="s">
+      <c r="A13" s="79"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="75" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -3427,9 +3430,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="73"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="82"/>
+      <c r="A14" s="79"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="20" t="s">
         <v>30</v>
       </c>
@@ -3441,9 +3444,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="73"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="82" t="s">
+      <c r="A15" s="79"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="75" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -3457,9 +3460,9 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="73"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="82"/>
+      <c r="A16" s="79"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
@@ -3471,9 +3474,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="73"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="82"/>
+      <c r="A17" s="79"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="20" t="s">
         <v>34</v>
       </c>
@@ -3485,9 +3488,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="73"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="82" t="s">
+      <c r="A18" s="79"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -3501,9 +3504,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="73"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="82"/>
+      <c r="A19" s="79"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="13" t="s">
         <v>37</v>
       </c>
@@ -3516,9 +3519,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="73"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="82"/>
+      <c r="A20" s="79"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
@@ -3531,9 +3534,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="73"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="83" t="s">
+      <c r="A21" s="79"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="77" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="13" t="s">
@@ -3548,9 +3551,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="73"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="84"/>
+      <c r="A22" s="79"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="13" t="s">
         <v>41</v>
       </c>
@@ -3563,9 +3566,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="73"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="82" t="s">
+      <c r="A23" s="79"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="75" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -3579,9 +3582,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="73"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="82"/>
+      <c r="A24" s="79"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="20" t="s">
         <v>44</v>
       </c>
@@ -3593,9 +3596,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
-      <c r="A25" s="73"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="85" t="s">
+      <c r="A25" s="79"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="74" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="13" t="s">
@@ -3610,9 +3613,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="73"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="85"/>
+      <c r="A26" s="79"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
@@ -3625,9 +3628,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="73"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="82" t="s">
+      <c r="A27" s="79"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="75" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -3644,9 +3647,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="73"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="82"/>
+      <c r="A28" s="79"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="16" t="s">
         <v>51</v>
       </c>
@@ -3661,9 +3664,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27">
-      <c r="A29" s="73"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="82" t="s">
+      <c r="A29" s="79"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="75" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="20" t="s">
@@ -3677,9 +3680,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="73"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="82"/>
+      <c r="A30" s="79"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="23" t="s">
         <v>54</v>
       </c>
@@ -3691,9 +3694,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="73"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="82"/>
+      <c r="A31" s="79"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
@@ -3705,9 +3708,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="73"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="85" t="s">
+      <c r="A32" s="79"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="74" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="13" t="s">
@@ -3722,9 +3725,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33" s="73"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="85"/>
+      <c r="A33" s="79"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
@@ -3737,9 +3740,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="73"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="85" t="s">
+      <c r="A34" s="79"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="74" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -3754,9 +3757,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="73"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="85"/>
+      <c r="A35" s="79"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="24" t="s">
         <v>60</v>
       </c>
@@ -3769,9 +3772,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="73"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="85"/>
+      <c r="A36" s="79"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="24" t="s">
         <v>61</v>
       </c>
@@ -3784,9 +3787,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="73"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="82" t="s">
+      <c r="A37" s="79"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="75" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="25" t="s">
@@ -3800,9 +3803,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="73"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="82"/>
+      <c r="A38" s="79"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="25" t="s">
         <v>64</v>
       </c>
@@ -3814,9 +3817,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="73"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="85" t="s">
+      <c r="A39" s="79"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="74" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -3831,9 +3834,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="73"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="85"/>
+      <c r="A40" s="79"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="24" t="s">
         <v>67</v>
       </c>
@@ -3846,9 +3849,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="73"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="85"/>
+      <c r="A41" s="79"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="24" t="s">
         <v>68</v>
       </c>
@@ -3861,9 +3864,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="33">
-      <c r="A42" s="73"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="85" t="s">
+      <c r="A42" s="79"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="74" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="26" t="s">
@@ -3878,9 +3881,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="73"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="85"/>
+      <c r="A43" s="79"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="26" t="s">
         <v>72</v>
       </c>
@@ -3893,9 +3896,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="73"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="85" t="s">
+      <c r="A44" s="79"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="74" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="26" t="s">
@@ -3910,9 +3913,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="73"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="85"/>
+      <c r="A45" s="79"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="26" t="s">
         <v>75</v>
       </c>
@@ -3925,9 +3928,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="73"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="85" t="s">
+      <c r="A46" s="79"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="74" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="27" t="s">
@@ -3942,9 +3945,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="73"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="85"/>
+      <c r="A47" s="79"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="26" t="s">
         <v>78</v>
       </c>
@@ -3957,9 +3960,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="73"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="85"/>
+      <c r="A48" s="79"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="74"/>
       <c r="E48" s="26" t="s">
         <v>79</v>
       </c>
@@ -3972,9 +3975,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="73"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="85"/>
+      <c r="A49" s="79"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="26" t="s">
         <v>80</v>
       </c>
@@ -3987,9 +3990,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="73"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="85" t="s">
+      <c r="A50" s="79"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="74" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -4004,9 +4007,9 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="73"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="85"/>
+      <c r="A51" s="79"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="74"/>
       <c r="E51" s="26" t="s">
         <v>84</v>
       </c>
@@ -4019,9 +4022,9 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="73"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="85" t="s">
+      <c r="A52" s="79"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="74" t="s">
         <v>85</v>
       </c>
       <c r="E52" s="26" t="s">
@@ -4036,9 +4039,9 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="73"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="85"/>
+      <c r="A53" s="79"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="74"/>
       <c r="E53" s="26" t="s">
         <v>87</v>
       </c>
@@ -4051,9 +4054,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="73"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="85"/>
+      <c r="A54" s="79"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="74"/>
       <c r="E54" s="26" t="s">
         <v>88</v>
       </c>
@@ -4066,9 +4069,9 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="73"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="85" t="s">
+      <c r="A55" s="79"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="74" t="s">
         <v>89</v>
       </c>
       <c r="E55" s="26" t="s">
@@ -4083,9 +4086,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="73"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="85"/>
+      <c r="A56" s="79"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="26" t="s">
         <v>91</v>
       </c>
@@ -4098,9 +4101,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="73"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="85" t="s">
+      <c r="A57" s="79"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="74" t="s">
         <v>92</v>
       </c>
       <c r="E57" s="26" t="s">
@@ -4115,9 +4118,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="73"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="85"/>
+      <c r="A58" s="79"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="26" t="s">
         <v>94</v>
       </c>
@@ -4130,9 +4133,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="73"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="85" t="s">
+      <c r="A59" s="79"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="74" t="s">
         <v>95</v>
       </c>
       <c r="E59" s="26" t="s">
@@ -4147,9 +4150,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="73"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="85"/>
+      <c r="A60" s="79"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="74"/>
       <c r="E60" s="26" t="s">
         <v>97</v>
       </c>
@@ -4162,9 +4165,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="73"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="85" t="s">
+      <c r="A61" s="79"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="74" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="26" t="s">
@@ -4179,9 +4182,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="73"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="85"/>
+      <c r="A62" s="79"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="74"/>
       <c r="E62" s="26" t="s">
         <v>100</v>
       </c>
@@ -4194,9 +4197,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="73"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="85"/>
+      <c r="A63" s="79"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="74"/>
       <c r="E63" s="26" t="s">
         <v>101</v>
       </c>
@@ -4209,9 +4212,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="73"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="85" t="s">
+      <c r="A64" s="79"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="74" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="26" t="s">
@@ -4226,9 +4229,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="73"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="85"/>
+      <c r="A65" s="79"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="74"/>
       <c r="E65" s="26" t="s">
         <v>104</v>
       </c>
@@ -4241,9 +4244,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="73"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="85" t="s">
+      <c r="A66" s="79"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="74" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -4258,9 +4261,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="33">
-      <c r="A67" s="73"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="85"/>
+      <c r="A67" s="79"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="74"/>
       <c r="E67" s="26" t="s">
         <v>107</v>
       </c>
@@ -4273,9 +4276,9 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="66">
-      <c r="A68" s="73"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="85" t="s">
+      <c r="A68" s="79"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="74" t="s">
         <v>108</v>
       </c>
       <c r="E68" s="26" t="s">
@@ -4290,9 +4293,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="73"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="85"/>
+      <c r="A69" s="79"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="74"/>
       <c r="E69" s="29" t="s">
         <v>110</v>
       </c>
@@ -4305,9 +4308,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="73"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="85"/>
+      <c r="A70" s="79"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="74"/>
       <c r="E70" s="26" t="s">
         <v>111</v>
       </c>
@@ -4320,9 +4323,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="73"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="85" t="s">
+      <c r="A71" s="79"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="26" t="s">
@@ -4337,9 +4340,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="33">
-      <c r="A72" s="73"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="85"/>
+      <c r="A72" s="79"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="74"/>
       <c r="E72" s="26" t="s">
         <v>114</v>
       </c>
@@ -4352,9 +4355,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="33">
-      <c r="A73" s="73"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="85" t="s">
+      <c r="A73" s="79"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="74" t="s">
         <v>115</v>
       </c>
       <c r="E73" s="26" t="s">
@@ -4369,9 +4372,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="73"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="85"/>
+      <c r="A74" s="79"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="74"/>
       <c r="E74" s="26" t="s">
         <v>117</v>
       </c>
@@ -4384,9 +4387,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="33">
-      <c r="A75" s="73"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="85"/>
+      <c r="A75" s="79"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="74"/>
       <c r="E75" s="26" t="s">
         <v>118</v>
       </c>
@@ -4399,9 +4402,9 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="73"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="85" t="s">
+      <c r="A76" s="79"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="74" t="s">
         <v>119</v>
       </c>
       <c r="E76" s="29" t="s">
@@ -4416,9 +4419,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="73"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="85"/>
+      <c r="A77" s="79"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="74"/>
       <c r="E77" s="29" t="s">
         <v>121</v>
       </c>
@@ -4431,9 +4434,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="66">
-      <c r="A78" s="73"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="85" t="s">
+      <c r="A78" s="79"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="74" t="s">
         <v>122</v>
       </c>
       <c r="E78" s="29" t="s">
@@ -4448,9 +4451,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="73"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="85"/>
+      <c r="A79" s="79"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="74"/>
       <c r="E79" s="29" t="s">
         <v>124</v>
       </c>
@@ -4486,7 +4489,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="33">
-      <c r="A81" s="73" t="s">
+      <c r="A81" s="79" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -4509,7 +4512,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="33">
-      <c r="A82" s="73"/>
+      <c r="A82" s="79"/>
       <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
@@ -4530,7 +4533,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A83" s="74" t="s">
+      <c r="A83" s="82" t="s">
         <v>138</v>
       </c>
       <c r="B83" s="35" t="s">
@@ -4554,7 +4557,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A84" s="74"/>
+      <c r="A84" s="82"/>
       <c r="B84" s="35" t="s">
         <v>142</v>
       </c>
@@ -4576,7 +4579,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1" ht="115.5">
-      <c r="A85" s="74"/>
+      <c r="A85" s="82"/>
       <c r="B85" s="35" t="s">
         <v>145</v>
       </c>
@@ -4598,7 +4601,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="3" customFormat="1" ht="66">
-      <c r="A86" s="74"/>
+      <c r="A86" s="82"/>
       <c r="B86" s="35" t="s">
         <v>147</v>
       </c>
@@ -4620,13 +4623,13 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="73" t="s">
+      <c r="A87" s="79" t="s">
         <v>149</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="84" t="s">
         <v>151</v>
       </c>
       <c r="D87" s="8" t="s">
@@ -4643,11 +4646,11 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="73"/>
-      <c r="B88" s="73" t="s">
+      <c r="A88" s="79"/>
+      <c r="B88" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="78"/>
+      <c r="C88" s="84"/>
       <c r="D88" s="8" t="s">
         <v>10</v>
       </c>
@@ -4662,9 +4665,9 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="4" customFormat="1">
-      <c r="A89" s="75"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="79"/>
+      <c r="A89" s="80"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="85"/>
       <c r="D89" s="39" t="s">
         <v>17</v>
       </c>
@@ -4682,9 +4685,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="73"/>
-      <c r="B90" s="73"/>
-      <c r="C90" s="78"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="84"/>
       <c r="D90" s="8" t="s">
         <v>25</v>
       </c>
@@ -4702,9 +4705,9 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="33">
-      <c r="A91" s="73"/>
-      <c r="B91" s="73"/>
-      <c r="C91" s="78"/>
+      <c r="A91" s="79"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="84"/>
       <c r="D91" s="41" t="s">
         <v>45</v>
       </c>
@@ -4722,9 +4725,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="33">
-      <c r="A92" s="73"/>
-      <c r="B92" s="73"/>
-      <c r="C92" s="78"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="84"/>
       <c r="D92" s="41" t="s">
         <v>55</v>
       </c>
@@ -4740,9 +4743,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="73"/>
-      <c r="B93" s="73"/>
-      <c r="C93" s="78"/>
+      <c r="A93" s="79"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="84"/>
       <c r="D93" s="41" t="s">
         <v>42</v>
       </c>
@@ -4760,9 +4763,9 @@
       </c>
     </row>
     <row r="94" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A94" s="75"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="79"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="85"/>
       <c r="D94" s="39" t="s">
         <v>39</v>
       </c>
@@ -4780,9 +4783,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" s="4" customFormat="1">
-      <c r="A95" s="75"/>
-      <c r="B95" s="75"/>
-      <c r="C95" s="79"/>
+      <c r="A95" s="80"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="85"/>
       <c r="D95" s="39" t="s">
         <v>35</v>
       </c>
@@ -4800,9 +4803,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" s="4" customFormat="1" ht="27">
-      <c r="A96" s="75"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="79"/>
+      <c r="A96" s="80"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="85"/>
       <c r="D96" s="39" t="s">
         <v>31</v>
       </c>
@@ -4818,9 +4821,9 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="27">
-      <c r="A97" s="73"/>
-      <c r="B97" s="73"/>
-      <c r="C97" s="78"/>
+      <c r="A97" s="79"/>
+      <c r="B97" s="79"/>
+      <c r="C97" s="84"/>
       <c r="D97" s="41" t="s">
         <v>166</v>
       </c>
@@ -4838,9 +4841,9 @@
       </c>
     </row>
     <row r="98" spans="1:9" s="5" customFormat="1">
-      <c r="A98" s="76"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="80"/>
+      <c r="A98" s="81"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="86"/>
       <c r="D98" s="41" t="s">
         <v>76</v>
       </c>
@@ -4858,9 +4861,9 @@
       </c>
     </row>
     <row r="99" spans="1:9" s="4" customFormat="1">
-      <c r="A99" s="75"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="79"/>
+      <c r="A99" s="80"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="85"/>
       <c r="D99" s="39" t="s">
         <v>85</v>
       </c>
@@ -4878,9 +4881,9 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="33">
-      <c r="A100" s="73"/>
-      <c r="B100" s="73"/>
-      <c r="C100" s="78"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="79"/>
+      <c r="C100" s="84"/>
       <c r="D100" s="8" t="s">
         <v>115</v>
       </c>
@@ -4898,9 +4901,9 @@
       </c>
     </row>
     <row r="101" spans="1:9" s="4" customFormat="1">
-      <c r="A101" s="75"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="79"/>
+      <c r="A101" s="80"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="85"/>
       <c r="D101" s="39" t="s">
         <v>119</v>
       </c>
@@ -4918,9 +4921,9 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="73"/>
-      <c r="B102" s="73"/>
-      <c r="C102" s="78"/>
+      <c r="A102" s="79"/>
+      <c r="B102" s="79"/>
+      <c r="C102" s="84"/>
       <c r="D102" s="8" t="s">
         <v>81</v>
       </c>
@@ -4938,9 +4941,9 @@
       </c>
     </row>
     <row r="103" spans="1:9" s="4" customFormat="1">
-      <c r="A103" s="75"/>
-      <c r="B103" s="75"/>
-      <c r="C103" s="79"/>
+      <c r="A103" s="80"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="85"/>
       <c r="D103" s="39" t="s">
         <v>52</v>
       </c>
@@ -4956,9 +4959,9 @@
       </c>
     </row>
     <row r="104" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A104" s="75"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="79"/>
+      <c r="A104" s="80"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="85"/>
       <c r="D104" s="39" t="s">
         <v>95</v>
       </c>
@@ -4976,9 +4979,9 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="27">
-      <c r="A105" s="73"/>
-      <c r="B105" s="73"/>
-      <c r="C105" s="78"/>
+      <c r="A105" s="79"/>
+      <c r="B105" s="79"/>
+      <c r="C105" s="84"/>
       <c r="D105" s="8" t="s">
         <v>98</v>
       </c>
@@ -4996,9 +4999,9 @@
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="73"/>
-      <c r="B106" s="73"/>
-      <c r="C106" s="78"/>
+      <c r="A106" s="79"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="84"/>
       <c r="D106" s="8" t="s">
         <v>92</v>
       </c>
@@ -5016,9 +5019,9 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="33">
-      <c r="A107" s="73"/>
-      <c r="B107" s="73"/>
-      <c r="C107" s="78"/>
+      <c r="A107" s="79"/>
+      <c r="B107" s="79"/>
+      <c r="C107" s="84"/>
       <c r="D107" s="8" t="s">
         <v>89</v>
       </c>
@@ -5037,9 +5040,9 @@
       <c r="I107" s="55"/>
     </row>
     <row r="108" spans="1:9" s="4" customFormat="1">
-      <c r="A108" s="75"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="79"/>
+      <c r="A108" s="80"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="85"/>
       <c r="D108" s="39" t="s">
         <v>48</v>
       </c>
@@ -5057,9 +5060,9 @@
       </c>
     </row>
     <row r="109" spans="1:9" s="4" customFormat="1">
-      <c r="A109" s="75"/>
-      <c r="B109" s="75"/>
-      <c r="C109" s="79"/>
+      <c r="A109" s="80"/>
+      <c r="B109" s="80"/>
+      <c r="C109" s="85"/>
       <c r="D109" s="39" t="s">
         <v>112</v>
       </c>
@@ -5077,9 +5080,9 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="73"/>
-      <c r="B110" s="73"/>
-      <c r="C110" s="78"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="84"/>
       <c r="D110" s="8" t="s">
         <v>28</v>
       </c>
@@ -5094,9 +5097,9 @@
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="73"/>
-      <c r="B111" s="73"/>
-      <c r="C111" s="78"/>
+      <c r="A111" s="79"/>
+      <c r="B111" s="79"/>
+      <c r="C111" s="84"/>
       <c r="D111" s="8" t="s">
         <v>102</v>
       </c>
@@ -5112,9 +5115,9 @@
       <c r="I111" s="55"/>
     </row>
     <row r="112" spans="1:9" s="4" customFormat="1" ht="33">
-      <c r="A112" s="75"/>
-      <c r="B112" s="75"/>
-      <c r="C112" s="79"/>
+      <c r="A112" s="80"/>
+      <c r="B112" s="80"/>
+      <c r="C112" s="85"/>
       <c r="D112" s="39" t="s">
         <v>105</v>
       </c>
@@ -5133,9 +5136,9 @@
       <c r="I112" s="56"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="73"/>
-      <c r="B113" s="73"/>
-      <c r="C113" s="78"/>
+      <c r="A113" s="79"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="84"/>
       <c r="D113" s="39" t="s">
         <v>73</v>
       </c>
@@ -5153,9 +5156,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="73"/>
-      <c r="B114" s="73"/>
-      <c r="C114" s="78"/>
+      <c r="A114" s="79"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="84"/>
       <c r="D114" s="39" t="s">
         <v>122</v>
       </c>
@@ -5173,49 +5176,49 @@
       </c>
     </row>
     <row r="115" spans="1:11" ht="33">
-      <c r="A115" s="73"/>
-      <c r="B115" s="73"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="8" t="s">
+      <c r="A115" s="79"/>
+      <c r="B115" s="79"/>
+      <c r="C115" s="84"/>
+      <c r="D115" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E115" s="32" t="s">
+      <c r="E115" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G115" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="28" t="s">
-        <v>83</v>
+      <c r="G115" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="50" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="33">
-      <c r="A116" s="73"/>
-      <c r="B116" s="73"/>
-      <c r="C116" s="78"/>
-      <c r="D116" s="8" t="s">
+      <c r="A116" s="79"/>
+      <c r="B116" s="79"/>
+      <c r="C116" s="84"/>
+      <c r="D116" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E116" s="32" t="s">
+      <c r="E116" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G116" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="28" t="s">
-        <v>83</v>
+      <c r="G116" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="50" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="33">
-      <c r="A117" s="73"/>
-      <c r="B117" s="73"/>
-      <c r="C117" s="78"/>
+      <c r="A117" s="79"/>
+      <c r="B117" s="79"/>
+      <c r="C117" s="84"/>
       <c r="D117" s="39" t="s">
         <v>65</v>
       </c>
@@ -5233,9 +5236,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="73"/>
-      <c r="B118" s="73"/>
-      <c r="C118" s="78"/>
+      <c r="A118" s="79"/>
+      <c r="B118" s="79"/>
+      <c r="C118" s="84"/>
       <c r="D118" s="39" t="s">
         <v>108</v>
       </c>
@@ -5253,11 +5256,11 @@
       </c>
     </row>
     <row r="119" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A119" s="73"/>
-      <c r="B119" s="74" t="s">
+      <c r="A119" s="79"/>
+      <c r="B119" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="C119" s="78"/>
+      <c r="C119" s="84"/>
       <c r="D119" s="52" t="s">
         <v>31</v>
       </c>
@@ -5278,9 +5281,9 @@
       <c r="K119" s="51"/>
     </row>
     <row r="120" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A120" s="73"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="78"/>
+      <c r="A120" s="79"/>
+      <c r="B120" s="82"/>
+      <c r="C120" s="84"/>
       <c r="D120" s="52" t="s">
         <v>39</v>
       </c>
@@ -5301,9 +5304,9 @@
       <c r="K120" s="51"/>
     </row>
     <row r="121" spans="1:11" s="3" customFormat="1">
-      <c r="A121" s="73"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="78"/>
+      <c r="A121" s="79"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="84"/>
       <c r="D121" s="52" t="s">
         <v>95</v>
       </c>
@@ -5324,9 +5327,9 @@
       <c r="K121" s="51"/>
     </row>
     <row r="122" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A122" s="73"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="78"/>
+      <c r="A122" s="79"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="84"/>
       <c r="D122" s="52" t="s">
         <v>108</v>
       </c>
@@ -5346,9 +5349,9 @@
       <c r="J122" s="51"/>
     </row>
     <row r="123" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A123" s="73"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="78"/>
+      <c r="A123" s="79"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="84"/>
       <c r="D123" s="52" t="s">
         <v>42</v>
       </c>
@@ -5368,9 +5371,9 @@
       <c r="J123" s="51"/>
     </row>
     <row r="124" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A124" s="73"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="78"/>
+      <c r="A124" s="79"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="84"/>
       <c r="D124" s="52" t="s">
         <v>122</v>
       </c>
@@ -5390,9 +5393,9 @@
       <c r="J124" s="51"/>
     </row>
     <row r="125" spans="1:11" s="3" customFormat="1" ht="33">
-      <c r="A125" s="73"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="78"/>
+      <c r="A125" s="79"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="84"/>
       <c r="D125" s="52" t="s">
         <v>62</v>
       </c>
@@ -5412,9 +5415,9 @@
       <c r="J125" s="51"/>
     </row>
     <row r="126" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A126" s="73"/>
-      <c r="B126" s="74"/>
-      <c r="C126" s="78"/>
+      <c r="A126" s="79"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="84"/>
       <c r="D126" s="52" t="s">
         <v>58</v>
       </c>
@@ -5432,9 +5435,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" s="3" customFormat="1" ht="49.5">
-      <c r="A127" s="73"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="78"/>
+      <c r="A127" s="79"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="84"/>
       <c r="D127" s="54" t="s">
         <v>69</v>
       </c>
@@ -5452,9 +5455,9 @@
       </c>
     </row>
     <row r="128" spans="1:11" s="3" customFormat="1">
-      <c r="A128" s="73"/>
-      <c r="B128" s="74"/>
-      <c r="C128" s="78"/>
+      <c r="A128" s="79"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="84"/>
       <c r="D128" s="70" t="s">
         <v>76</v>
       </c>
@@ -5472,9 +5475,9 @@
       </c>
     </row>
     <row r="129" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A129" s="73"/>
-      <c r="B129" s="74"/>
-      <c r="C129" s="78"/>
+      <c r="A129" s="79"/>
+      <c r="B129" s="82"/>
+      <c r="C129" s="84"/>
       <c r="D129" s="70" t="s">
         <v>98</v>
       </c>
@@ -5494,9 +5497,9 @@
       <c r="J129" s="51"/>
     </row>
     <row r="130" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A130" s="73"/>
-      <c r="B130" s="74"/>
-      <c r="C130" s="78"/>
+      <c r="A130" s="79"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="84"/>
       <c r="D130" s="54" t="s">
         <v>102</v>
       </c>
@@ -5515,9 +5518,9 @@
       <c r="J130" s="51"/>
     </row>
     <row r="131" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A131" s="73"/>
-      <c r="B131" s="74"/>
-      <c r="C131" s="78"/>
+      <c r="A131" s="79"/>
+      <c r="B131" s="82"/>
+      <c r="C131" s="84"/>
       <c r="D131" s="54" t="s">
         <v>81</v>
       </c>
@@ -5535,9 +5538,9 @@
       </c>
     </row>
     <row r="132" spans="1:10" s="3" customFormat="1">
-      <c r="A132" s="73"/>
-      <c r="B132" s="74"/>
-      <c r="C132" s="78"/>
+      <c r="A132" s="79"/>
+      <c r="B132" s="82"/>
+      <c r="C132" s="84"/>
       <c r="D132" s="54" t="s">
         <v>115</v>
       </c>
@@ -5553,9 +5556,9 @@
       </c>
     </row>
     <row r="133" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A133" s="73"/>
-      <c r="B133" s="74"/>
-      <c r="C133" s="78"/>
+      <c r="A133" s="79"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="84"/>
       <c r="D133" s="70" t="s">
         <v>119</v>
       </c>
@@ -5573,9 +5576,9 @@
       </c>
     </row>
     <row r="134" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A134" s="73"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="78"/>
+      <c r="A134" s="79"/>
+      <c r="B134" s="82"/>
+      <c r="C134" s="84"/>
       <c r="D134" s="54" t="s">
         <v>105</v>
       </c>
@@ -5594,9 +5597,9 @@
       <c r="I134" s="51"/>
     </row>
     <row r="135" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A135" s="73"/>
-      <c r="B135" s="74"/>
-      <c r="C135" s="78"/>
+      <c r="A135" s="79"/>
+      <c r="B135" s="82"/>
+      <c r="C135" s="84"/>
       <c r="D135" s="54" t="s">
         <v>85</v>
       </c>
@@ -5615,9 +5618,9 @@
       <c r="I135" s="51"/>
     </row>
     <row r="136" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A136" s="73"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="78"/>
+      <c r="A136" s="79"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="84"/>
       <c r="D136" s="52" t="s">
         <v>73</v>
       </c>
@@ -5634,7 +5637,7 @@
       <c r="I136" s="51"/>
     </row>
     <row r="137" spans="1:10" s="3" customFormat="1" ht="66">
-      <c r="A137" s="73" t="s">
+      <c r="A137" s="79" t="s">
         <v>221</v>
       </c>
       <c r="B137" s="35" t="s">
@@ -5656,7 +5659,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A138" s="73"/>
+      <c r="A138" s="79"/>
       <c r="B138" s="35" t="s">
         <v>226</v>
       </c>
@@ -5676,7 +5679,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" s="3" customFormat="1" ht="99">
-      <c r="A139" s="73"/>
+      <c r="A139" s="79"/>
       <c r="B139" s="35" t="s">
         <v>228</v>
       </c>
@@ -5696,7 +5699,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" s="3" customFormat="1" ht="49.5">
-      <c r="A140" s="73"/>
+      <c r="A140" s="79"/>
       <c r="B140" s="35" t="s">
         <v>230</v>
       </c>
@@ -5716,7 +5719,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" s="3" customFormat="1" ht="82.5">
-      <c r="A141" s="73"/>
+      <c r="A141" s="79"/>
       <c r="B141" s="35" t="s">
         <v>233</v>
       </c>
@@ -5736,7 +5739,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" s="3" customFormat="1" ht="115.5">
-      <c r="A142" s="73"/>
+      <c r="A142" s="79"/>
       <c r="B142" s="35" t="s">
         <v>236</v>
       </c>
@@ -5756,7 +5759,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" s="3" customFormat="1" ht="33">
-      <c r="A143" s="73"/>
+      <c r="A143" s="79"/>
       <c r="B143" s="35" t="s">
         <v>239</v>
       </c>
@@ -5776,7 +5779,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="49.5">
-      <c r="A144" s="73"/>
+      <c r="A144" s="79"/>
       <c r="B144" s="6" t="s">
         <v>242</v>
       </c>
@@ -5797,13 +5800,13 @@
       </c>
     </row>
     <row r="145" spans="1:8" ht="49.5">
-      <c r="A145" s="73" t="s">
+      <c r="A145" s="79" t="s">
         <v>245</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="81" t="s">
+      <c r="C145" s="76" t="s">
         <v>247</v>
       </c>
       <c r="D145" s="62" t="s">
@@ -5823,8 +5826,8 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="73"/>
-      <c r="C146" s="81"/>
+      <c r="A146" s="79"/>
+      <c r="C146" s="76"/>
       <c r="D146" s="62" t="s">
         <v>251</v>
       </c>
@@ -5842,8 +5845,8 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="73"/>
-      <c r="C147" s="81"/>
+      <c r="A147" s="79"/>
+      <c r="C147" s="76"/>
       <c r="D147" s="62" t="s">
         <v>254</v>
       </c>
@@ -5858,8 +5861,8 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="73"/>
-      <c r="C148" s="81"/>
+      <c r="A148" s="79"/>
+      <c r="C148" s="76"/>
       <c r="D148" s="62" t="s">
         <v>256</v>
       </c>
@@ -5874,8 +5877,8 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="73"/>
-      <c r="C149" s="81"/>
+      <c r="A149" s="79"/>
+      <c r="C149" s="76"/>
       <c r="D149" s="62" t="s">
         <v>258</v>
       </c>
@@ -5890,8 +5893,8 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="73"/>
-      <c r="C150" s="81"/>
+      <c r="A150" s="79"/>
+      <c r="C150" s="76"/>
       <c r="D150" s="62" t="s">
         <v>260</v>
       </c>
@@ -5906,8 +5909,8 @@
       </c>
     </row>
     <row r="151" spans="1:8" ht="33">
-      <c r="A151" s="73"/>
-      <c r="C151" s="81"/>
+      <c r="A151" s="79"/>
+      <c r="C151" s="76"/>
       <c r="D151" s="62" t="s">
         <v>262</v>
       </c>
@@ -5922,8 +5925,8 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="73"/>
-      <c r="C152" s="81"/>
+      <c r="A152" s="79"/>
+      <c r="C152" s="76"/>
       <c r="D152" s="62" t="s">
         <v>264</v>
       </c>
@@ -5938,8 +5941,8 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="73"/>
-      <c r="C153" s="81"/>
+      <c r="A153" s="79"/>
+      <c r="C153" s="76"/>
       <c r="D153" s="62" t="s">
         <v>266</v>
       </c>
@@ -5954,8 +5957,8 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="73"/>
-      <c r="C154" s="81"/>
+      <c r="A154" s="79"/>
+      <c r="C154" s="76"/>
       <c r="D154" s="62" t="s">
         <v>268</v>
       </c>
@@ -5970,8 +5973,8 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="73"/>
-      <c r="C155" s="81"/>
+      <c r="A155" s="79"/>
+      <c r="C155" s="76"/>
       <c r="D155" s="62" t="s">
         <v>270</v>
       </c>
@@ -5986,8 +5989,8 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="73"/>
-      <c r="C156" s="81"/>
+      <c r="A156" s="79"/>
+      <c r="C156" s="76"/>
       <c r="D156" s="62" t="s">
         <v>272</v>
       </c>
@@ -6002,8 +6005,8 @@
       </c>
     </row>
     <row r="157" spans="1:8" ht="33">
-      <c r="A157" s="73"/>
-      <c r="C157" s="81"/>
+      <c r="A157" s="79"/>
+      <c r="C157" s="76"/>
       <c r="D157" s="62" t="s">
         <v>274</v>
       </c>
@@ -6018,13 +6021,13 @@
       </c>
     </row>
     <row r="158" spans="1:8" ht="49.5">
-      <c r="A158" s="73" t="s">
+      <c r="A158" s="79" t="s">
         <v>245</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C158" s="81" t="s">
+      <c r="C158" s="76" t="s">
         <v>277</v>
       </c>
       <c r="D158" s="62" t="s">
@@ -6041,8 +6044,8 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="73"/>
-      <c r="C159" s="81"/>
+      <c r="A159" s="79"/>
+      <c r="C159" s="76"/>
       <c r="D159" s="62" t="s">
         <v>260</v>
       </c>
@@ -6057,8 +6060,8 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="73"/>
-      <c r="C160" s="81"/>
+      <c r="A160" s="79"/>
+      <c r="C160" s="76"/>
       <c r="D160" s="62" t="s">
         <v>264</v>
       </c>
@@ -6073,8 +6076,8 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="73"/>
-      <c r="C161" s="81"/>
+      <c r="A161" s="79"/>
+      <c r="C161" s="76"/>
       <c r="D161" s="62" t="s">
         <v>266</v>
       </c>
@@ -6089,8 +6092,8 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="73"/>
-      <c r="C162" s="81"/>
+      <c r="A162" s="79"/>
+      <c r="C162" s="76"/>
       <c r="D162" s="62" t="s">
         <v>268</v>
       </c>
@@ -6105,8 +6108,8 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="73"/>
-      <c r="C163" s="81"/>
+      <c r="A163" s="79"/>
+      <c r="C163" s="76"/>
       <c r="D163" s="62" t="s">
         <v>270</v>
       </c>
@@ -6121,8 +6124,8 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="73"/>
-      <c r="C164" s="81"/>
+      <c r="A164" s="79"/>
+      <c r="C164" s="76"/>
       <c r="D164" s="62" t="s">
         <v>272</v>
       </c>
@@ -6137,13 +6140,13 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="73" t="s">
+      <c r="A165" s="79" t="s">
         <v>245</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C165" s="81" t="s">
+      <c r="C165" s="76" t="s">
         <v>240</v>
       </c>
       <c r="D165" s="62" t="s">
@@ -6160,8 +6163,8 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="73"/>
-      <c r="C166" s="81"/>
+      <c r="A166" s="79"/>
+      <c r="C166" s="76"/>
       <c r="D166" s="62" t="s">
         <v>254</v>
       </c>
@@ -6176,8 +6179,8 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="73"/>
-      <c r="C167" s="81"/>
+      <c r="A167" s="79"/>
+      <c r="C167" s="76"/>
       <c r="D167" s="62" t="s">
         <v>256</v>
       </c>
@@ -6192,8 +6195,8 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="73"/>
-      <c r="C168" s="81"/>
+      <c r="A168" s="79"/>
+      <c r="C168" s="76"/>
       <c r="D168" s="62" t="s">
         <v>258</v>
       </c>
@@ -6208,8 +6211,8 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="73"/>
-      <c r="C169" s="81"/>
+      <c r="A169" s="79"/>
+      <c r="C169" s="76"/>
       <c r="D169" s="62" t="s">
         <v>290</v>
       </c>
@@ -6224,8 +6227,8 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="73"/>
-      <c r="C170" s="81"/>
+      <c r="A170" s="79"/>
+      <c r="C170" s="76"/>
       <c r="D170" s="62" t="s">
         <v>262</v>
       </c>
@@ -6240,8 +6243,8 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="73"/>
-      <c r="C171" s="81"/>
+      <c r="A171" s="79"/>
+      <c r="C171" s="76"/>
       <c r="D171" s="9" t="s">
         <v>293</v>
       </c>
@@ -6256,8 +6259,8 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="73"/>
-      <c r="C172" s="81"/>
+      <c r="A172" s="79"/>
+      <c r="C172" s="76"/>
       <c r="D172" s="62" t="s">
         <v>268</v>
       </c>
@@ -6272,8 +6275,8 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="73"/>
-      <c r="C173" s="81"/>
+      <c r="A173" s="79"/>
+      <c r="C173" s="76"/>
       <c r="D173" s="62" t="s">
         <v>270</v>
       </c>
@@ -6288,8 +6291,8 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="73"/>
-      <c r="C174" s="81"/>
+      <c r="A174" s="79"/>
+      <c r="C174" s="76"/>
       <c r="D174" s="62" t="s">
         <v>272</v>
       </c>
@@ -6304,8 +6307,8 @@
       </c>
     </row>
     <row r="175" spans="1:8" ht="33">
-      <c r="A175" s="73"/>
-      <c r="C175" s="81"/>
+      <c r="A175" s="79"/>
+      <c r="C175" s="76"/>
       <c r="D175" s="62" t="s">
         <v>274</v>
       </c>
@@ -6320,13 +6323,13 @@
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="73" t="s">
+      <c r="A176" s="79" t="s">
         <v>245</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C176" s="81" t="s">
+      <c r="C176" s="76" t="s">
         <v>240</v>
       </c>
       <c r="D176" s="62" t="s">
@@ -6343,8 +6346,8 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="73"/>
-      <c r="C177" s="81"/>
+      <c r="A177" s="79"/>
+      <c r="C177" s="76"/>
       <c r="D177" s="62" t="s">
         <v>254</v>
       </c>
@@ -6359,8 +6362,8 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="73"/>
-      <c r="C178" s="81"/>
+      <c r="A178" s="79"/>
+      <c r="C178" s="76"/>
       <c r="D178" s="62" t="s">
         <v>256</v>
       </c>
@@ -6375,8 +6378,8 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="73"/>
-      <c r="C179" s="81"/>
+      <c r="A179" s="79"/>
+      <c r="C179" s="76"/>
       <c r="D179" s="62" t="s">
         <v>258</v>
       </c>
@@ -6391,8 +6394,8 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="73"/>
-      <c r="C180" s="81"/>
+      <c r="A180" s="79"/>
+      <c r="C180" s="76"/>
       <c r="D180" s="62" t="s">
         <v>290</v>
       </c>
@@ -6407,8 +6410,8 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="73"/>
-      <c r="C181" s="81"/>
+      <c r="A181" s="79"/>
+      <c r="C181" s="76"/>
       <c r="D181" s="62" t="s">
         <v>262</v>
       </c>
@@ -6423,8 +6426,8 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="73"/>
-      <c r="C182" s="81"/>
+      <c r="A182" s="79"/>
+      <c r="C182" s="76"/>
       <c r="D182" s="62" t="s">
         <v>266</v>
       </c>
@@ -6439,8 +6442,8 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="66">
-      <c r="A183" s="73"/>
-      <c r="C183" s="81"/>
+      <c r="A183" s="79"/>
+      <c r="C183" s="76"/>
       <c r="D183" s="9" t="s">
         <v>293</v>
       </c>
@@ -6455,8 +6458,8 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="73"/>
-      <c r="C184" s="81"/>
+      <c r="A184" s="79"/>
+      <c r="C184" s="76"/>
       <c r="D184" s="62" t="s">
         <v>268</v>
       </c>
@@ -6471,8 +6474,8 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="33">
-      <c r="A185" s="73"/>
-      <c r="C185" s="81"/>
+      <c r="A185" s="79"/>
+      <c r="C185" s="76"/>
       <c r="D185" s="62" t="s">
         <v>274</v>
       </c>
@@ -6587,7 +6590,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="49.5">
-      <c r="A191" s="73" t="s">
+      <c r="A191" s="79" t="s">
         <v>329</v>
       </c>
       <c r="B191" s="12" t="s">
@@ -6610,7 +6613,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="82.5">
-      <c r="A192" s="73"/>
+      <c r="A192" s="79"/>
       <c r="B192" s="12" t="s">
         <v>333</v>
       </c>
@@ -6631,7 +6634,7 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="73"/>
+      <c r="A193" s="79"/>
       <c r="B193" s="12" t="s">
         <v>336</v>
       </c>
@@ -6677,25 +6680,21 @@
   </sheetData>
   <autoFilter ref="H1:H195"/>
   <mergeCells count="50">
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A2:A79"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A87:A136"/>
+    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="A158:A164"/>
+    <mergeCell ref="A165:A175"/>
+    <mergeCell ref="A176:A185"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="B88:B118"/>
+    <mergeCell ref="B119:B136"/>
+    <mergeCell ref="C2:C79"/>
+    <mergeCell ref="C87:C136"/>
+    <mergeCell ref="C145:C157"/>
     <mergeCell ref="C158:C164"/>
     <mergeCell ref="C165:C175"/>
     <mergeCell ref="C176:C185"/>
@@ -6712,21 +6711,25 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B88:B118"/>
-    <mergeCell ref="B119:B136"/>
-    <mergeCell ref="C2:C79"/>
-    <mergeCell ref="C87:C136"/>
-    <mergeCell ref="C145:C157"/>
-    <mergeCell ref="A145:A157"/>
-    <mergeCell ref="A158:A164"/>
-    <mergeCell ref="A165:A175"/>
-    <mergeCell ref="A176:A185"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A2:A79"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A136"/>
-    <mergeCell ref="A137:A144"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D70"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -6785,7 +6788,7 @@
     <hyperlink ref="E111" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 

--- a/doc/分配01.xlsx
+++ b/doc/分配01.xlsx
@@ -1805,12 +1805,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1983,13 +1983,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2406,7 +2399,7 @@
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2424,7 +2417,7 @@
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2439,7 +2432,7 @@
     <xf numFmtId="0" fontId="20" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2448,31 +2441,31 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2481,25 +2474,25 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2514,10 +2507,10 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2526,32 +2519,32 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2757,9 +2750,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1">
@@ -3771,11 +3761,11 @@
   <sheetPr/>
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D106" sqref="$A106:$XFD107"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F90" sqref="D90:F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="6" customWidth="1"/>
@@ -4441,7 +4431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" ht="27" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="16" t="s">
@@ -4458,7 +4448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" ht="27" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="C43" s="12"/>
       <c r="D43" s="16"/>
@@ -4522,7 +4512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" ht="27" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="16"/>
@@ -4537,7 +4527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" ht="27" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="16"/>
@@ -4552,7 +4542,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" ht="27" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="11"/>
       <c r="C49" s="12"/>
       <c r="D49" s="16"/>
@@ -4567,7 +4557,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="16" t="s">
@@ -4599,7 +4589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" ht="27" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="16" t="s">
@@ -4616,7 +4606,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" ht="27" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="16"/>
@@ -4631,7 +4621,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" ht="27" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="16"/>
@@ -4727,7 +4717,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="16"/>
@@ -4774,7 +4764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" ht="27" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="11"/>
       <c r="C63" s="12"/>
       <c r="D63" s="16"/>
@@ -4821,7 +4811,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" ht="27" spans="1:8">
+    <row r="66" ht="28.5" spans="1:8">
       <c r="A66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="16" t="s">
@@ -4838,7 +4828,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" ht="27" spans="1:8">
+    <row r="67" ht="28.5" spans="1:8">
       <c r="A67" s="11"/>
       <c r="C67" s="12"/>
       <c r="D67" s="16"/>
@@ -4853,7 +4843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" ht="40.5" spans="1:8">
+    <row r="68" ht="42.75" spans="1:8">
       <c r="A68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="16" t="s">
@@ -4870,7 +4860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" ht="27" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="11"/>
       <c r="C69" s="12"/>
       <c r="D69" s="16"/>
@@ -4885,7 +4875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" ht="27" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="11"/>
       <c r="C70" s="12"/>
       <c r="D70" s="16"/>
@@ -4900,7 +4890,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:8">
+    <row r="71" ht="28.5" spans="1:8">
       <c r="A71" s="11"/>
       <c r="C71" s="12"/>
       <c r="D71" s="16" t="s">
@@ -4917,7 +4907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" ht="27" spans="1:8">
+    <row r="72" ht="28.5" spans="1:8">
       <c r="A72" s="11"/>
       <c r="C72" s="12"/>
       <c r="D72" s="16"/>
@@ -4932,7 +4922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:8">
+    <row r="73" ht="28.5" spans="1:8">
       <c r="A73" s="11"/>
       <c r="C73" s="12"/>
       <c r="D73" s="16" t="s">
@@ -4949,7 +4939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" ht="27" spans="1:8">
+    <row r="74" ht="28.5" spans="1:8">
       <c r="A74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="16"/>
@@ -4964,7 +4954,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" ht="27" spans="1:8">
+    <row r="75" ht="28.5" spans="1:8">
       <c r="A75" s="11"/>
       <c r="C75" s="12"/>
       <c r="D75" s="16"/>
@@ -4979,7 +4969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" ht="27" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="16" t="s">
@@ -4996,7 +4986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="11"/>
       <c r="C77" s="12"/>
       <c r="D77" s="16"/>
@@ -5011,7 +5001,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" ht="54" spans="1:8">
+    <row r="78" ht="57" spans="1:8">
       <c r="A78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="16" t="s">
@@ -5028,7 +5018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" ht="27" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="11"/>
       <c r="C79" s="12"/>
       <c r="D79" s="16"/>
@@ -5066,7 +5056,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" ht="27" spans="1:8">
+    <row r="81" ht="28.5" spans="1:8">
       <c r="A81" s="11" t="s">
         <v>131</v>
       </c>
@@ -5089,7 +5079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" ht="27" spans="1:8">
+    <row r="82" ht="28.5" spans="1:8">
       <c r="A82" s="11"/>
       <c r="B82" s="6" t="s">
         <v>136</v>
@@ -5156,7 +5146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" ht="108" spans="1:8">
+    <row r="85" s="3" customFormat="1" ht="99.75" spans="1:8">
       <c r="A85" s="37"/>
       <c r="B85" s="38" t="s">
         <v>144</v>
@@ -5200,7 +5190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" ht="27" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="11" t="s">
         <v>148</v>
       </c>
@@ -5243,7 +5233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" s="4" customFormat="1" ht="27" spans="1:8">
+    <row r="89" s="4" customFormat="1" spans="1:8">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="45"/>
@@ -5283,7 +5273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="1:8">
+    <row r="91" ht="28.5" spans="1:8">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="42"/>
@@ -5299,11 +5289,11 @@
       <c r="G91" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" ht="27" spans="1:8">
+      <c r="H91" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" ht="28.5" spans="1:8">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="42"/>
@@ -5317,8 +5307,8 @@
       <c r="G92" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="18" t="s">
-        <v>16</v>
+      <c r="H92" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5479,7 +5469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" s="4" customFormat="1" ht="27" spans="1:8">
+    <row r="101" s="4" customFormat="1" spans="1:8">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="45"/>
@@ -5519,7 +5509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" s="4" customFormat="1" ht="27" spans="1:8">
+    <row r="103" s="4" customFormat="1" spans="1:8">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="45"/>
@@ -5537,7 +5527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" s="4" customFormat="1" ht="27" spans="1:8">
+    <row r="104" s="4" customFormat="1" ht="28.5" spans="1:8">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="45"/>
@@ -5597,7 +5587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" s="4" customFormat="1" ht="27" spans="1:9">
+    <row r="107" s="4" customFormat="1" ht="28.5" spans="1:9">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="45"/>
@@ -5638,7 +5628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" s="4" customFormat="1" ht="27" spans="1:8">
+    <row r="109" s="4" customFormat="1" spans="1:8">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="45"/>
@@ -5662,38 +5652,40 @@
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="42"/>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="46" t="s">
+      <c r="E110" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="G110" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" ht="16.5" spans="1:9">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="8" t="s">
+      <c r="F110" s="15"/>
+      <c r="G110" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" s="4" customFormat="1" ht="16.5" spans="1:9">
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E111" s="46" t="s">
+      <c r="E111" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="G111" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I111" s="69"/>
-    </row>
-    <row r="112" s="4" customFormat="1" ht="27" spans="1:9">
+      <c r="F111" s="15"/>
+      <c r="G111" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" s="68"/>
+    </row>
+    <row r="112" s="4" customFormat="1" ht="28.5" spans="1:9">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="45"/>
@@ -5714,7 +5706,7 @@
       </c>
       <c r="I112" s="68"/>
     </row>
-    <row r="113" ht="27" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="42"/>
@@ -5754,7 +5746,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="115" ht="27" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="42"/>
@@ -5774,7 +5766,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" ht="27" spans="1:8">
+    <row r="116" ht="28.5" spans="1:8">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="42"/>
@@ -5794,7 +5786,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="117" ht="27" spans="1:8">
+    <row r="117" ht="28.5" spans="1:8">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="42"/>
@@ -5814,7 +5806,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="118" ht="27" spans="1:8">
+    <row r="118" spans="1:8">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="42"/>
@@ -5834,7 +5826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" s="3" customFormat="1" ht="27" spans="1:11">
+    <row r="119" s="3" customFormat="1" spans="1:11">
       <c r="A119" s="11"/>
       <c r="B119" s="37" t="s">
         <v>194</v>
@@ -5855,11 +5847,11 @@
       <c r="H119" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="I119" s="70"/>
-      <c r="J119" s="70"/>
-      <c r="K119" s="70"/>
-    </row>
-    <row r="120" s="3" customFormat="1" ht="40.5" spans="1:11">
+      <c r="I119" s="69"/>
+      <c r="J119" s="69"/>
+      <c r="K119" s="69"/>
+    </row>
+    <row r="120" s="3" customFormat="1" ht="28.5" spans="1:11">
       <c r="A120" s="11"/>
       <c r="B120" s="37"/>
       <c r="C120" s="42"/>
@@ -5878,9 +5870,9 @@
       <c r="H120" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="I120" s="70"/>
-      <c r="J120" s="70"/>
-      <c r="K120" s="70"/>
+      <c r="I120" s="69"/>
+      <c r="J120" s="69"/>
+      <c r="K120" s="69"/>
     </row>
     <row r="121" s="3" customFormat="1" spans="1:11">
       <c r="A121" s="11"/>
@@ -5901,11 +5893,11 @@
       <c r="H121" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="I121" s="70"/>
-      <c r="J121" s="70"/>
-      <c r="K121" s="70"/>
-    </row>
-    <row r="122" s="3" customFormat="1" ht="27" spans="1:10">
+      <c r="I121" s="69"/>
+      <c r="J121" s="69"/>
+      <c r="K121" s="69"/>
+    </row>
+    <row r="122" s="3" customFormat="1" spans="1:10">
       <c r="A122" s="11"/>
       <c r="B122" s="37"/>
       <c r="C122" s="42"/>
@@ -5924,8 +5916,8 @@
       <c r="H122" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="I122" s="70"/>
-      <c r="J122" s="70"/>
+      <c r="I122" s="69"/>
+      <c r="J122" s="69"/>
     </row>
     <row r="123" s="3" customFormat="1" ht="27" spans="1:10">
       <c r="A123" s="11"/>
@@ -5946,10 +5938,10 @@
       <c r="H123" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="I123" s="70"/>
-      <c r="J123" s="70"/>
-    </row>
-    <row r="124" s="3" customFormat="1" ht="40.5" spans="1:10">
+      <c r="I123" s="69"/>
+      <c r="J123" s="69"/>
+    </row>
+    <row r="124" s="3" customFormat="1" ht="42.75" spans="1:10">
       <c r="A124" s="11"/>
       <c r="B124" s="37"/>
       <c r="C124" s="42"/>
@@ -5968,10 +5960,10 @@
       <c r="H124" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="I124" s="70"/>
-      <c r="J124" s="70"/>
-    </row>
-    <row r="125" s="3" customFormat="1" ht="27" spans="1:10">
+      <c r="I124" s="69"/>
+      <c r="J124" s="69"/>
+    </row>
+    <row r="125" s="3" customFormat="1" ht="28.5" spans="1:10">
       <c r="A125" s="11"/>
       <c r="B125" s="37"/>
       <c r="C125" s="42"/>
@@ -5990,10 +5982,10 @@
       <c r="H125" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="I125" s="70"/>
-      <c r="J125" s="70"/>
-    </row>
-    <row r="126" s="3" customFormat="1" ht="40.5" spans="1:8">
+      <c r="I125" s="69"/>
+      <c r="J125" s="69"/>
+    </row>
+    <row r="126" s="3" customFormat="1" ht="42.75" spans="1:8">
       <c r="A126" s="11"/>
       <c r="B126" s="37"/>
       <c r="C126" s="42"/>
@@ -6013,7 +6005,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" s="3" customFormat="1" ht="40.5" spans="1:8">
+    <row r="127" s="3" customFormat="1" ht="42.75" spans="1:8">
       <c r="A127" s="11"/>
       <c r="B127" s="37"/>
       <c r="C127" s="42"/>
@@ -6053,7 +6045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" s="3" customFormat="1" ht="40.5" spans="1:10">
+    <row r="129" s="3" customFormat="1" ht="42.75" spans="1:10">
       <c r="A129" s="11"/>
       <c r="B129" s="37"/>
       <c r="C129" s="42"/>
@@ -6072,10 +6064,10 @@
       <c r="H129" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="I129" s="70"/>
-      <c r="J129" s="70"/>
-    </row>
-    <row r="130" s="3" customFormat="1" ht="40.5" spans="1:10">
+      <c r="I129" s="69"/>
+      <c r="J129" s="69"/>
+    </row>
+    <row r="130" s="3" customFormat="1" ht="42.75" spans="1:10">
       <c r="A130" s="11"/>
       <c r="B130" s="37"/>
       <c r="C130" s="42"/>
@@ -6094,9 +6086,9 @@
       <c r="H130" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="J130" s="70"/>
-    </row>
-    <row r="131" s="3" customFormat="1" ht="40.5" spans="1:8">
+      <c r="J130" s="69"/>
+    </row>
+    <row r="131" s="3" customFormat="1" ht="42.75" spans="1:8">
       <c r="A131" s="11"/>
       <c r="B131" s="37"/>
       <c r="C131" s="42"/>
@@ -6134,7 +6126,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="133" s="3" customFormat="1" ht="40.5" spans="1:8">
+    <row r="133" s="3" customFormat="1" ht="28.5" spans="1:8">
       <c r="A133" s="11"/>
       <c r="B133" s="37"/>
       <c r="C133" s="42"/>
@@ -6154,7 +6146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" s="3" customFormat="1" ht="27" spans="1:9">
+    <row r="134" s="3" customFormat="1" ht="28.5" spans="1:9">
       <c r="A134" s="11"/>
       <c r="B134" s="37"/>
       <c r="C134" s="42"/>
@@ -6173,9 +6165,9 @@
       <c r="H134" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="I134" s="70"/>
-    </row>
-    <row r="135" s="3" customFormat="1" ht="27" spans="1:9">
+      <c r="I134" s="69"/>
+    </row>
+    <row r="135" s="3" customFormat="1" ht="28.5" spans="1:9">
       <c r="A135" s="11"/>
       <c r="B135" s="37"/>
       <c r="C135" s="42"/>
@@ -6185,7 +6177,7 @@
       <c r="E135" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="F135" s="71" t="s">
+      <c r="F135" s="70" t="s">
         <v>223</v>
       </c>
       <c r="G135" s="13" t="s">
@@ -6194,9 +6186,9 @@
       <c r="H135" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="I135" s="70"/>
-    </row>
-    <row r="136" s="3" customFormat="1" ht="40.5" spans="1:9">
+      <c r="I135" s="69"/>
+    </row>
+    <row r="136" s="3" customFormat="1" ht="42.75" spans="1:9">
       <c r="A136" s="11"/>
       <c r="B136" s="37"/>
       <c r="C136" s="42"/>
@@ -6206,14 +6198,14 @@
       <c r="E136" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="F136" s="71"/>
+      <c r="F136" s="70"/>
       <c r="G136" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H136" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="I136" s="70"/>
+      <c r="I136" s="69"/>
     </row>
     <row r="137" s="3" customFormat="1" ht="54" spans="1:8">
       <c r="A137" s="11" t="s">
@@ -6222,58 +6214,58 @@
       <c r="B137" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="C137" s="72" t="s">
+      <c r="C137" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="D137" s="73" t="s">
+      <c r="D137" s="72" t="s">
         <v>228</v>
       </c>
       <c r="E137" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="F137" s="72"/>
-      <c r="G137" s="72"/>
-      <c r="H137" s="70" t="s">
+      <c r="F137" s="71"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="138" s="3" customFormat="1" ht="81" spans="1:8">
+    <row r="138" s="3" customFormat="1" ht="81.75" spans="1:8">
       <c r="A138" s="11"/>
       <c r="B138" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="C138" s="72" t="s">
+      <c r="C138" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="D138" s="73" t="s">
+      <c r="D138" s="72" t="s">
         <v>228</v>
       </c>
       <c r="E138" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="F138" s="72"/>
-      <c r="G138" s="72"/>
-      <c r="H138" s="70" t="s">
+      <c r="F138" s="71"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="139" s="3" customFormat="1" ht="81" spans="1:8">
+    <row r="139" s="3" customFormat="1" ht="81.75" spans="1:8">
       <c r="A139" s="11"/>
       <c r="B139" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="C139" s="72" t="s">
+      <c r="C139" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="D139" s="73" t="s">
+      <c r="D139" s="72" t="s">
         <v>228</v>
       </c>
       <c r="E139" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="F139" s="72"/>
-      <c r="G139" s="72"/>
-      <c r="H139" s="70" t="s">
+      <c r="F139" s="71"/>
+      <c r="G139" s="71"/>
+      <c r="H139" s="69" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6282,78 +6274,78 @@
       <c r="B140" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C140" s="72" t="s">
+      <c r="C140" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="D140" s="73" t="s">
+      <c r="D140" s="72" t="s">
         <v>228</v>
       </c>
       <c r="E140" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="F140" s="72"/>
-      <c r="G140" s="72"/>
-      <c r="H140" s="70" t="s">
+      <c r="F140" s="71"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="141" s="3" customFormat="1" ht="81" spans="1:8">
+    <row r="141" s="3" customFormat="1" ht="67.5" spans="1:8">
       <c r="A141" s="11"/>
       <c r="B141" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C141" s="72" t="s">
+      <c r="C141" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="D141" s="73" t="s">
+      <c r="D141" s="72" t="s">
         <v>228</v>
       </c>
       <c r="E141" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="F141" s="72"/>
-      <c r="G141" s="72"/>
-      <c r="H141" s="70" t="s">
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="142" s="3" customFormat="1" ht="108" spans="1:8">
+    <row r="142" s="3" customFormat="1" ht="94.5" spans="1:8">
       <c r="A142" s="11"/>
       <c r="B142" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="C142" s="72" t="s">
+      <c r="C142" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="D142" s="73" t="s">
+      <c r="D142" s="72" t="s">
         <v>228</v>
       </c>
       <c r="E142" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="F142" s="72"/>
-      <c r="G142" s="72"/>
-      <c r="H142" s="70" t="s">
+      <c r="F142" s="71"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="143" s="3" customFormat="1" ht="40.5" spans="1:8">
+    <row r="143" s="3" customFormat="1" ht="27" spans="1:8">
       <c r="A143" s="11"/>
       <c r="B143" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C143" s="72" t="s">
+      <c r="C143" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="D143" s="73" t="s">
+      <c r="D143" s="72" t="s">
         <v>228</v>
       </c>
       <c r="E143" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F143" s="72"/>
-      <c r="G143" s="72"/>
-      <c r="H143" s="70" t="s">
+      <c r="F143" s="71"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="69" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6362,33 +6354,33 @@
       <c r="B144" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="74" t="s">
+      <c r="C144" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="D144" s="73" t="s">
+      <c r="D144" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="E144" s="75" t="s">
+      <c r="E144" s="74" t="s">
         <v>248</v>
       </c>
       <c r="G144" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H144" s="70" t="s">
+      <c r="H144" s="69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="145" ht="40.5" spans="1:8">
+    <row r="145" ht="42" spans="1:8">
       <c r="A145" s="11" t="s">
         <v>249</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C145" s="76" t="s">
+      <c r="C145" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="D145" s="77" t="s">
+      <c r="D145" s="76" t="s">
         <v>252</v>
       </c>
       <c r="E145" s="34" t="s">
@@ -6406,8 +6398,8 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="11"/>
-      <c r="C146" s="76"/>
-      <c r="D146" s="77" t="s">
+      <c r="C146" s="75"/>
+      <c r="D146" s="76" t="s">
         <v>255</v>
       </c>
       <c r="E146" s="34" t="s">
@@ -6425,8 +6417,8 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="11"/>
-      <c r="C147" s="76"/>
-      <c r="D147" s="77" t="s">
+      <c r="C147" s="75"/>
+      <c r="D147" s="76" t="s">
         <v>258</v>
       </c>
       <c r="E147" s="34" t="s">
@@ -6441,8 +6433,8 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="11"/>
-      <c r="C148" s="76"/>
-      <c r="D148" s="77" t="s">
+      <c r="C148" s="75"/>
+      <c r="D148" s="76" t="s">
         <v>260</v>
       </c>
       <c r="E148" s="34" t="s">
@@ -6457,8 +6449,8 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="11"/>
-      <c r="C149" s="76"/>
-      <c r="D149" s="77" t="s">
+      <c r="C149" s="75"/>
+      <c r="D149" s="76" t="s">
         <v>262</v>
       </c>
       <c r="E149" s="34" t="s">
@@ -6473,8 +6465,8 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="11"/>
-      <c r="C150" s="76"/>
-      <c r="D150" s="77" t="s">
+      <c r="C150" s="75"/>
+      <c r="D150" s="76" t="s">
         <v>264</v>
       </c>
       <c r="E150" s="34" t="s">
@@ -6487,10 +6479,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" ht="27" spans="1:8">
+    <row r="151" ht="28.5" spans="1:8">
       <c r="A151" s="11"/>
-      <c r="C151" s="76"/>
-      <c r="D151" s="77" t="s">
+      <c r="C151" s="75"/>
+      <c r="D151" s="76" t="s">
         <v>266</v>
       </c>
       <c r="E151" s="9" t="s">
@@ -6505,8 +6497,8 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="11"/>
-      <c r="C152" s="76"/>
-      <c r="D152" s="77" t="s">
+      <c r="C152" s="75"/>
+      <c r="D152" s="76" t="s">
         <v>268</v>
       </c>
       <c r="E152" s="34" t="s">
@@ -6519,10 +6511,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" ht="27" spans="1:8">
+    <row r="153" spans="1:8">
       <c r="A153" s="11"/>
-      <c r="C153" s="76"/>
-      <c r="D153" s="77" t="s">
+      <c r="C153" s="75"/>
+      <c r="D153" s="76" t="s">
         <v>270</v>
       </c>
       <c r="E153" s="34" t="s">
@@ -6537,8 +6529,8 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="11"/>
-      <c r="C154" s="76"/>
-      <c r="D154" s="77" t="s">
+      <c r="C154" s="75"/>
+      <c r="D154" s="76" t="s">
         <v>272</v>
       </c>
       <c r="E154" s="34" t="s">
@@ -6553,8 +6545,8 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="11"/>
-      <c r="C155" s="76"/>
-      <c r="D155" s="77" t="s">
+      <c r="C155" s="75"/>
+      <c r="D155" s="76" t="s">
         <v>274</v>
       </c>
       <c r="E155" s="34" t="s">
@@ -6569,8 +6561,8 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="11"/>
-      <c r="C156" s="76"/>
-      <c r="D156" s="77" t="s">
+      <c r="C156" s="75"/>
+      <c r="D156" s="76" t="s">
         <v>276</v>
       </c>
       <c r="E156" s="34" t="s">
@@ -6583,10 +6575,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" ht="27" spans="1:8">
+    <row r="157" ht="28.5" spans="1:8">
       <c r="A157" s="11"/>
-      <c r="C157" s="76"/>
-      <c r="D157" s="77" t="s">
+      <c r="C157" s="75"/>
+      <c r="D157" s="76" t="s">
         <v>278</v>
       </c>
       <c r="E157" s="34" t="s">
@@ -6599,17 +6591,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" ht="40.5" spans="1:8">
+    <row r="158" ht="42.75" spans="1:8">
       <c r="A158" s="11" t="s">
         <v>249</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C158" s="76" t="s">
+      <c r="C158" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="D158" s="77" t="s">
+      <c r="D158" s="76" t="s">
         <v>255</v>
       </c>
       <c r="E158" s="9" t="s">
@@ -6624,8 +6616,8 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="11"/>
-      <c r="C159" s="76"/>
-      <c r="D159" s="77" t="s">
+      <c r="C159" s="75"/>
+      <c r="D159" s="76" t="s">
         <v>264</v>
       </c>
       <c r="E159" s="34" t="s">
@@ -6640,8 +6632,8 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="11"/>
-      <c r="C160" s="76"/>
-      <c r="D160" s="77" t="s">
+      <c r="C160" s="75"/>
+      <c r="D160" s="76" t="s">
         <v>268</v>
       </c>
       <c r="E160" s="9" t="s">
@@ -6656,8 +6648,8 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="11"/>
-      <c r="C161" s="76"/>
-      <c r="D161" s="77" t="s">
+      <c r="C161" s="75"/>
+      <c r="D161" s="76" t="s">
         <v>270</v>
       </c>
       <c r="E161" s="34" t="s">
@@ -6672,8 +6664,8 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="11"/>
-      <c r="C162" s="76"/>
-      <c r="D162" s="77" t="s">
+      <c r="C162" s="75"/>
+      <c r="D162" s="76" t="s">
         <v>272</v>
       </c>
       <c r="E162" s="34" t="s">
@@ -6688,8 +6680,8 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="11"/>
-      <c r="C163" s="76"/>
-      <c r="D163" s="77" t="s">
+      <c r="C163" s="75"/>
+      <c r="D163" s="76" t="s">
         <v>274</v>
       </c>
       <c r="E163" s="34" t="s">
@@ -6702,10 +6694,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" ht="27" spans="1:8">
+    <row r="164" spans="1:8">
       <c r="A164" s="11"/>
-      <c r="C164" s="76"/>
-      <c r="D164" s="77" t="s">
+      <c r="C164" s="75"/>
+      <c r="D164" s="76" t="s">
         <v>276</v>
       </c>
       <c r="E164" s="34" t="s">
@@ -6725,10 +6717,10 @@
       <c r="B165" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C165" s="76" t="s">
+      <c r="C165" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="D165" s="77" t="s">
+      <c r="D165" s="76" t="s">
         <v>255</v>
       </c>
       <c r="E165" s="34" t="s">
@@ -6737,14 +6729,14 @@
       <c r="G165" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H165" s="70" t="s">
+      <c r="H165" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="11"/>
-      <c r="C166" s="76"/>
-      <c r="D166" s="77" t="s">
+      <c r="C166" s="75"/>
+      <c r="D166" s="76" t="s">
         <v>258</v>
       </c>
       <c r="E166" s="9" t="s">
@@ -6753,14 +6745,14 @@
       <c r="G166" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H166" s="70" t="s">
+      <c r="H166" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="11"/>
-      <c r="C167" s="76"/>
-      <c r="D167" s="77" t="s">
+      <c r="C167" s="75"/>
+      <c r="D167" s="76" t="s">
         <v>260</v>
       </c>
       <c r="E167" s="9" t="s">
@@ -6769,14 +6761,14 @@
       <c r="G167" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H167" s="70" t="s">
+      <c r="H167" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="11"/>
-      <c r="C168" s="76"/>
-      <c r="D168" s="77" t="s">
+      <c r="C168" s="75"/>
+      <c r="D168" s="76" t="s">
         <v>262</v>
       </c>
       <c r="E168" s="9" t="s">
@@ -6785,14 +6777,14 @@
       <c r="G168" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H168" s="70" t="s">
+      <c r="H168" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="11"/>
-      <c r="C169" s="76"/>
-      <c r="D169" s="77" t="s">
+      <c r="C169" s="75"/>
+      <c r="D169" s="76" t="s">
         <v>294</v>
       </c>
       <c r="E169" s="9" t="s">
@@ -6801,14 +6793,14 @@
       <c r="G169" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H169" s="70" t="s">
+      <c r="H169" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="11"/>
-      <c r="C170" s="76"/>
-      <c r="D170" s="77" t="s">
+      <c r="C170" s="75"/>
+      <c r="D170" s="76" t="s">
         <v>266</v>
       </c>
       <c r="E170" s="9" t="s">
@@ -6817,13 +6809,13 @@
       <c r="G170" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H170" s="70" t="s">
+      <c r="H170" s="69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="171" ht="27" spans="1:8">
+    <row r="171" spans="1:8">
       <c r="A171" s="11"/>
-      <c r="C171" s="76"/>
+      <c r="C171" s="75"/>
       <c r="D171" s="9" t="s">
         <v>297</v>
       </c>
@@ -6833,14 +6825,14 @@
       <c r="G171" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H171" s="70" t="s">
+      <c r="H171" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="11"/>
-      <c r="C172" s="76"/>
-      <c r="D172" s="77" t="s">
+      <c r="C172" s="75"/>
+      <c r="D172" s="76" t="s">
         <v>272</v>
       </c>
       <c r="E172" s="9" t="s">
@@ -6849,14 +6841,14 @@
       <c r="G172" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H172" s="70" t="s">
+      <c r="H172" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="11"/>
-      <c r="C173" s="76"/>
-      <c r="D173" s="77" t="s">
+      <c r="C173" s="75"/>
+      <c r="D173" s="76" t="s">
         <v>274</v>
       </c>
       <c r="E173" s="9" t="s">
@@ -6865,14 +6857,14 @@
       <c r="G173" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H173" s="70" t="s">
+      <c r="H173" s="69" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="11"/>
-      <c r="C174" s="76"/>
-      <c r="D174" s="77" t="s">
+      <c r="C174" s="75"/>
+      <c r="D174" s="76" t="s">
         <v>276</v>
       </c>
       <c r="E174" s="9" t="s">
@@ -6881,14 +6873,14 @@
       <c r="G174" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H174" s="70" t="s">
+      <c r="H1